--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA24CF-C4EA-9A40-97B6-7D4CBFA6A17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97B633E-8C0E-D645-8B03-3E93ACAB8D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1360" yWindow="-27620" windowWidth="49680" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="-27940" windowWidth="49680" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="2629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="2630">
   <si>
     <t>address</t>
   </si>
@@ -12129,6 +12129,10 @@
   </si>
   <si>
     <t>流星製菓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -13623,10 +13627,10 @@
   <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="W78" sqref="W78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -17428,7 +17432,9 @@
       <c r="W69" s="35" t="s">
         <v>2219</v>
       </c>
-      <c r="X69" s="21"/>
+      <c r="X69" s="21" t="s">
+        <v>2629</v>
+      </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="23" t="s">
@@ -17588,7 +17594,9 @@
       <c r="W72" s="35" t="s">
         <v>2625</v>
       </c>
-      <c r="X72" s="21"/>
+      <c r="X72" s="21" t="s">
+        <v>2629</v>
+      </c>
     </row>
     <row r="73" spans="1:24" ht="17.25" customHeight="1">
       <c r="A73" s="2" t="s">

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB510F41-1C29-3148-BADA-EF7AEFBBD5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAF0077-7FE3-4945-865C-1C13589F62B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="-28020" windowWidth="49680" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14120" yWindow="-27220" windowWidth="49680" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -13596,10 +13596,10 @@
   <dimension ref="A1:X243"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -14852,7 +14852,7 @@
         <v>1184</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>643</v>
+        <v>304</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>1527</v>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD4EE40-4056-C743-9404-964618C08D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC9E4A-C303-CD48-AF1D-1B2A595CE9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="-25260" windowWidth="49680" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-840" yWindow="-22100" windowWidth="49680" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="2635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="2637">
   <si>
     <t>address</t>
   </si>
@@ -12135,6 +12135,14 @@
   </si>
   <si>
     <t>https://line.me/R/ti/p/@586jhaps?oat_content=url</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0987-761-626</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>meteorbakery.jc@gmail.com</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -13629,10 +13637,10 @@
   <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -17403,7 +17411,9 @@
       <c r="D69" s="24" t="s">
         <v>2597</v>
       </c>
-      <c r="E69" s="25"/>
+      <c r="E69" s="25" t="s">
+        <v>2635</v>
+      </c>
       <c r="F69" s="24" t="s">
         <v>2603</v>
       </c>
@@ -17423,7 +17433,9 @@
         <v>2599</v>
       </c>
       <c r="L69" s="21"/>
-      <c r="M69" s="24"/>
+      <c r="M69" s="21" t="s">
+        <v>2636</v>
+      </c>
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21" t="s">
@@ -28034,6 +28046,7 @@
     <hyperlink ref="I71" r:id="rId484" xr:uid="{4E69AAD8-779C-F84E-AE32-C6C58D4C0DC6}"/>
     <hyperlink ref="X72" r:id="rId485" display="https://www.google.com/maps/place/%E9%A5%97%E5%91%B3%E9%B9%B9%E9%85%A5%E9%9B%9E+(%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97)/@25.0387548,121.3862769,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7747528f97b:0x9c171d79569718f3!8m2!3d25.03875!4d121.3888518!16s%2Fg%2F11y21nnzfv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{890FBB92-CFB6-254A-9840-6BC96D7920B2}"/>
     <hyperlink ref="K72" r:id="rId486" xr:uid="{C8F0A506-1C0C-5A4A-9C52-61250CB8E9E5}"/>
+    <hyperlink ref="M69" r:id="rId487" xr:uid="{AE8ABAC6-FE94-B94A-B863-B6A1FD23829D}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D0208-B767-BB42-A143-B8658A124CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF97064-ECCE-EA4A-8551-EE914D44EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="-25260" windowWidth="44140" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19520" yWindow="-27820" windowWidth="44140" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="2687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="2700">
   <si>
     <t>address</t>
   </si>
@@ -12330,6 +12330,55 @@
   </si>
   <si>
     <t>https://mybzplus.tw/99h90ai2.html</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.walkerland.com.tw/article/view/382258</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8-072</t>
+  </si>
+  <si>
+    <t>RES-A8-072.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A8-072L.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E4%BA%AB%E4%BA%AB%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0533761,121.3682197,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a0c7f4185d:0x1c875e8a694512fd!8m2!3d25.0533761!4d121.3707946!16s%2Fg%2F11ks08c9vm?entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化二路149號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-328-9001</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 22:30</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>享享鍋物 林口長庚店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/401936333733337/permalink/1433699193890374/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100095625875244</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/tw/store/%E4%BA%AB%E4%BA%AB%E9%8D%8B%E7%89%A9-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/EiPpZgGKU9OhvTWPtm1JVQ?diningMode=PICKUP&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo/?fbid=184401908090671&amp;set=pb.100095625875244.-2207520000</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -13821,13 +13870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X249"/>
+  <dimension ref="A1:X250"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
+      <selection pane="bottomRight" activeCell="P142" sqref="P142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -14762,7 +14811,9 @@
       <c r="P16" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="10" t="s">
+        <v>2687</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
         <v>1316</v>
@@ -21694,105 +21745,101 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A142" s="2" t="s">
-        <v>11</v>
+    <row r="142" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A142" s="41" t="s">
+        <v>2695</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1425</v>
+        <v>2688</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>162</v>
+        <v>1843</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>171</v>
+        <v>2692</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>172</v>
+        <v>2693</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>173</v>
+        <v>2694</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1607</v>
+        <v>2689</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1607</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q142" s="3" t="s">
-        <v>176</v>
+        <v>2690</v>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10" t="s">
+        <v>2698</v>
+      </c>
+      <c r="O142" s="10"/>
+      <c r="P142" s="10" t="s">
+        <v>2699</v>
+      </c>
+      <c r="Q142" s="10" t="s">
+        <v>2696</v>
       </c>
       <c r="R142" s="3"/>
       <c r="S142" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="T142" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U142" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="10" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V142" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W142" s="3"/>
-      <c r="X142" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J143" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="R143" s="3"/>
       <c r="S143" s="3" t="s">
@@ -21802,57 +21849,55 @@
         <v>169</v>
       </c>
       <c r="U143" s="3" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="V143" s="3">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W143" s="3"/>
       <c r="X143" s="3" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="14.25" customHeight="1">
+    <row r="144" spans="1:24" ht="17.25" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="K144" s="10" t="s">
-        <v>1922</v>
-      </c>
+        <v>1608</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
       <c r="P144" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="R144" s="3"/>
       <c r="S144" s="3" t="s">
@@ -21865,101 +21910,101 @@
         <v>252</v>
       </c>
       <c r="V144" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W144" s="3"/>
       <c r="X144" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="14.25" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K145" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>1922</v>
+      </c>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
       <c r="P145" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="R145" s="3"/>
       <c r="S145" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T145" s="3" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="U145" s="3" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="V145" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W145" s="3"/>
       <c r="X145" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="14.25" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>1956</v>
+        <v>1610</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -21967,10 +22012,10 @@
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
       <c r="P146" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q146" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="R146" s="3"/>
       <c r="S146" s="3" t="s">
@@ -21983,41 +22028,43 @@
         <v>278</v>
       </c>
       <c r="V146" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W146" s="3"/>
       <c r="X146" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="14.25" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3" t="s">
-        <v>290</v>
+        <v>1611</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J147" s="21" t="s">
+        <v>1956</v>
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -22025,10 +22072,10 @@
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q147" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R147" s="3"/>
       <c r="S147" s="3" t="s">
@@ -22041,43 +22088,41 @@
         <v>278</v>
       </c>
       <c r="V147" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W147" s="3"/>
       <c r="X147" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="14.25" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>1967</v>
-      </c>
+        <v>1612</v>
+      </c>
+      <c r="I148" s="3"/>
       <c r="J148" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -22085,59 +22130,59 @@
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
       <c r="P148" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="R148" s="3"/>
       <c r="S148" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="U148" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="V148" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W148" s="3"/>
       <c r="X148" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A149" s="41" t="s">
-        <v>2340</v>
+      <c r="A149" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>1935</v>
+        <v>1967</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -22145,10 +22190,10 @@
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
       <c r="P149" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="R149" s="3"/>
       <c r="S149" s="3" t="s">
@@ -22165,15 +22210,15 @@
       </c>
       <c r="W149" s="3"/>
       <c r="X149" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="14.25" customHeight="1">
       <c r="A150" s="41" t="s">
-        <v>2324</v>
+        <v>2340</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>254</v>
@@ -22182,20 +22227,22 @@
         <v>302</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I150" s="3"/>
+        <v>1614</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>1935</v>
+      </c>
       <c r="J150" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -22203,10 +22250,10 @@
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
       <c r="P150" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R150" s="3"/>
       <c r="S150" s="3" t="s">
@@ -22219,43 +22266,41 @@
         <v>300</v>
       </c>
       <c r="V150" s="3">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W150" s="3"/>
       <c r="X150" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A151" s="2" t="s">
-        <v>26</v>
+      <c r="A151" s="41" t="s">
+        <v>2324</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I151" s="10" t="s">
-        <v>1921</v>
-      </c>
+        <v>1615</v>
+      </c>
+      <c r="I151" s="3"/>
       <c r="J151" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -22263,10 +22308,10 @@
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="R151" s="3"/>
       <c r="S151" s="3" t="s">
@@ -22279,43 +22324,43 @@
         <v>300</v>
       </c>
       <c r="V151" s="3">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="W151" s="3"/>
       <c r="X151" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="14.25" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>1975</v>
+        <v>1616</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>1921</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -22323,10 +22368,10 @@
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Q152" s="3" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="R152" s="3"/>
       <c r="S152" s="3" t="s">
@@ -22336,61 +22381,57 @@
         <v>299</v>
       </c>
       <c r="U152" s="3" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="V152" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="W152" s="3"/>
       <c r="X152" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A153" s="42" t="s">
-        <v>2318</v>
+      <c r="A153" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>330</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>1931</v>
+        <v>1617</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>1975</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
-      <c r="N153" s="10" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O153" s="10" t="s">
-        <v>1933</v>
-      </c>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
       <c r="P153" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="R153" s="3"/>
       <c r="S153" s="3" t="s">
@@ -22403,60 +22444,60 @@
         <v>330</v>
       </c>
       <c r="V153" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W153" s="3"/>
       <c r="X153" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="15" customHeight="1">
-      <c r="A154" s="2" t="s">
-        <v>28</v>
+    <row r="154" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A154" s="42" t="s">
+        <v>2318</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>2559</v>
+        <v>1618</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>1980</v>
+        <v>1931</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="O154" s="3"/>
+        <v>1932</v>
+      </c>
+      <c r="O154" s="10" t="s">
+        <v>1933</v>
+      </c>
       <c r="P154" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="R154" s="10" t="s">
-        <v>2558</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="R154" s="3"/>
       <c r="S154" s="3" t="s">
         <v>1318</v>
       </c>
@@ -22464,59 +22505,63 @@
         <v>299</v>
       </c>
       <c r="U154" s="3" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="V154" s="3">
         <v>4.3</v>
       </c>
       <c r="W154" s="3"/>
       <c r="X154" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="14.25" customHeight="1">
+    <row r="155" spans="1:24" ht="15" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>1620</v>
+        <v>2559</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>1968</v>
+        <v>1980</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
+      <c r="N155" s="10" t="s">
+        <v>1981</v>
+      </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="R155" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="R155" s="10" t="s">
+        <v>2558</v>
+      </c>
       <c r="S155" s="3" t="s">
         <v>1318</v>
       </c>
@@ -22531,52 +22576,50 @@
       </c>
       <c r="W155" s="3"/>
       <c r="X155" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A156" s="41" t="s">
-        <v>2339</v>
+      <c r="A156" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>1936</v>
+        <v>1968</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
-      <c r="O156" s="10" t="s">
-        <v>1937</v>
-      </c>
+      <c r="O156" s="3"/>
       <c r="P156" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="R156" s="3"/>
       <c r="S156" s="3" t="s">
@@ -22586,57 +22629,59 @@
         <v>299</v>
       </c>
       <c r="U156" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="V156" s="3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="W156" s="3"/>
       <c r="X156" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A157" s="2" t="s">
-        <v>31</v>
+      <c r="A157" s="41" t="s">
+        <v>2339</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>254</v>
+        <v>659</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>1918</v>
+        <v>1936</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
-      <c r="O157" s="3"/>
+      <c r="O157" s="10" t="s">
+        <v>1937</v>
+      </c>
       <c r="P157" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="R157" s="3"/>
       <c r="S157" s="3" t="s">
@@ -22646,46 +22691,46 @@
         <v>299</v>
       </c>
       <c r="U157" s="3" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="V157" s="3">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="W157" s="3"/>
       <c r="X157" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="14.25" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>1955</v>
+        <v>1918</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -22693,10 +22738,10 @@
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="R158" s="3"/>
       <c r="S158" s="3" t="s">
@@ -22706,44 +22751,46 @@
         <v>299</v>
       </c>
       <c r="U158" s="3" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="V158" s="3">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="W158" s="3"/>
       <c r="X158" s="3" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="14.25" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I159" s="3"/>
+        <v>1624</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>1955</v>
+      </c>
       <c r="J159" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -22751,10 +22798,10 @@
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
       <c r="P159" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="R159" s="3"/>
       <c r="S159" s="3" t="s">
@@ -22767,56 +22814,52 @@
         <v>338</v>
       </c>
       <c r="V159" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W159" s="3"/>
       <c r="X159" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A160" s="42" t="s">
-        <v>2319</v>
+    <row r="160" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A160" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I160" s="10" t="s">
-        <v>1919</v>
-      </c>
-      <c r="J160" s="18" t="s">
-        <v>406</v>
+        <v>1625</v>
+      </c>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
-      <c r="N160" s="10" t="s">
-        <v>1920</v>
-      </c>
+      <c r="N160" s="3"/>
       <c r="O160" s="3"/>
       <c r="P160" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="R160" s="3"/>
       <c r="S160" s="3" t="s">
@@ -22829,52 +22872,56 @@
         <v>338</v>
       </c>
       <c r="V160" s="3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="W160" s="3"/>
       <c r="X160" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A161" s="2" t="s">
-        <v>34</v>
+    <row r="161" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A161" s="42" t="s">
+        <v>2319</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>1692</v>
+        <v>1443</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3" t="s">
-        <v>413</v>
+        <v>1626</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J161" s="18" t="s">
+        <v>406</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
+      <c r="N161" s="10" t="s">
+        <v>1920</v>
+      </c>
       <c r="O161" s="3"/>
       <c r="P161" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="R161" s="3"/>
       <c r="S161" s="3" t="s">
@@ -22884,46 +22931,44 @@
         <v>299</v>
       </c>
       <c r="U161" s="3" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="V161" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="14.25" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>254</v>
+        <v>1444</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>1692</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>1989</v>
-      </c>
+        <v>1627</v>
+      </c>
+      <c r="I162" s="3"/>
       <c r="J162" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -22931,59 +22976,59 @@
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="R162" s="3"/>
       <c r="S162" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T162" s="3" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
       <c r="U162" s="3" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="V162" s="3">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W162" s="3"/>
       <c r="X162" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="14.25" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -22991,10 +23036,10 @@
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
       <c r="P163" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="R163" s="3"/>
       <c r="S163" s="3" t="s">
@@ -23011,52 +23056,50 @@
       </c>
       <c r="W163" s="3"/>
       <c r="X163" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="14.25" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>435</v>
+        <v>194</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I164" s="3"/>
+        <v>1629</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>1979</v>
+      </c>
       <c r="J164" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
-      <c r="N164" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="O164" s="10" t="s">
-        <v>1966</v>
-      </c>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
       <c r="P164" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="R164" s="3"/>
       <c r="S164" s="3" t="s">
@@ -23069,52 +23112,56 @@
         <v>300</v>
       </c>
       <c r="V164" s="3">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="W164" s="3"/>
       <c r="X164" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="17.25" customHeight="1">
+    <row r="165" spans="1:24" ht="14.25" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I165" s="3"/>
-      <c r="J165" s="10" t="s">
-        <v>2265</v>
+      <c r="J165" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="10" t="s">
-        <v>444</v>
+      <c r="N165" s="10" t="s">
+        <v>1965</v>
+      </c>
+      <c r="O165" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="P165" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R165" s="3"/>
       <c r="S165" s="3" t="s">
@@ -23127,52 +23174,52 @@
         <v>300</v>
       </c>
       <c r="V165" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="W165" s="3"/>
       <c r="X165" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="17.25" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>254</v>
+        <v>440</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I166" s="3"/>
-      <c r="J166" s="3" t="s">
-        <v>450</v>
+      <c r="J166" s="10" t="s">
+        <v>2265</v>
       </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
-      <c r="P166" s="3" t="s">
-        <v>451</v>
+      <c r="P166" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="R166" s="3"/>
       <c r="S166" s="3" t="s">
@@ -23185,56 +23232,52 @@
         <v>300</v>
       </c>
       <c r="V166" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W166" s="3"/>
       <c r="X166" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="14.25" customHeight="1">
+    <row r="167" spans="1:24" ht="17.25" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>194</v>
+        <v>449</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I167" s="10" t="s">
-        <v>1952</v>
-      </c>
+        <v>1632</v>
+      </c>
+      <c r="I167" s="3"/>
       <c r="J167" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
-      <c r="O167" s="10" t="s">
-        <v>1953</v>
-      </c>
+      <c r="O167" s="3"/>
       <c r="P167" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="R167" s="3"/>
       <c r="S167" s="3" t="s">
@@ -23247,54 +23290,56 @@
         <v>300</v>
       </c>
       <c r="V167" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W167" s="3"/>
       <c r="X167" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="14.25" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>462</v>
+        <v>194</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="J168" s="3"/>
+        <v>1952</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
-      <c r="N168" s="10" t="s">
-        <v>1938</v>
-      </c>
-      <c r="O168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="10" t="s">
+        <v>1953</v>
+      </c>
       <c r="P168" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="R168" s="3"/>
       <c r="S168" s="3" t="s">
@@ -23307,52 +23352,54 @@
         <v>300</v>
       </c>
       <c r="V168" s="3">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="W168" s="3"/>
       <c r="X168" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="14.25" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>467</v>
+        <v>302</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>1924</v>
+        <v>463</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
-      <c r="N169" s="3"/>
+      <c r="N169" s="10" t="s">
+        <v>1938</v>
+      </c>
       <c r="O169" s="3"/>
       <c r="P169" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R169" s="3"/>
       <c r="S169" s="3" t="s">
@@ -23369,50 +23416,48 @@
       </c>
       <c r="W169" s="3"/>
       <c r="X169" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="20" customHeight="1">
+    <row r="170" spans="1:24" ht="14.25" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3" t="s">
-        <v>476</v>
-      </c>
+        <v>1635</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
-      <c r="N170" s="10" t="s">
-        <v>1923</v>
-      </c>
+      <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q170" s="18" t="s">
-        <v>478</v>
+        <v>470</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="R170" s="3"/>
       <c r="S170" s="3" t="s">
@@ -23425,52 +23470,54 @@
         <v>300</v>
       </c>
       <c r="V170" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W170" s="3"/>
       <c r="X170" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="20" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="J171" s="17"/>
+        <v>1636</v>
+      </c>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
-      <c r="N171" s="3"/>
+      <c r="N171" s="10" t="s">
+        <v>1923</v>
+      </c>
       <c r="O171" s="3"/>
       <c r="P171" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q171" s="3" t="s">
-        <v>485</v>
+        <v>477</v>
+      </c>
+      <c r="Q171" s="18" t="s">
+        <v>478</v>
       </c>
       <c r="R171" s="3"/>
       <c r="S171" s="3" t="s">
@@ -23487,52 +23534,50 @@
       </c>
       <c r="W171" s="3"/>
       <c r="X171" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="20" customHeight="1">
-      <c r="A172" s="41" t="s">
-        <v>2320</v>
+      <c r="A172" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3" t="s">
-        <v>490</v>
-      </c>
+        <v>1637</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J172" s="17"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q172" s="21" t="s">
-        <v>1910</v>
-      </c>
-      <c r="R172" s="3" t="s">
-        <v>492</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="R172" s="3"/>
       <c r="S172" s="3" t="s">
         <v>1318</v>
       </c>
@@ -23543,60 +23588,56 @@
         <v>300</v>
       </c>
       <c r="V172" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W172" s="3"/>
       <c r="X172" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="20" customHeight="1">
-      <c r="A173" s="2" t="s">
-        <v>45</v>
+      <c r="A173" s="41" t="s">
+        <v>2320</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I173" s="10" t="s">
-        <v>1913</v>
-      </c>
+        <v>1638</v>
+      </c>
+      <c r="I173" s="3"/>
       <c r="J173" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
-      <c r="N173" s="10" t="s">
-        <v>1911</v>
-      </c>
-      <c r="O173" s="10" t="s">
-        <v>1912</v>
-      </c>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
       <c r="P173" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q173" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="R173" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="Q173" s="21" t="s">
+        <v>1910</v>
+      </c>
+      <c r="R173" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="S173" s="3" t="s">
         <v>1318</v>
       </c>
@@ -23607,54 +23648,58 @@
         <v>300</v>
       </c>
       <c r="V173" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W173" s="3"/>
       <c r="X173" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="20" customHeight="1">
-      <c r="A174" s="41" t="s">
-        <v>2338</v>
+      <c r="A174" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>280</v>
+        <v>494</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>1957</v>
+        <v>1913</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
-      <c r="N174" s="3"/>
-      <c r="O174" s="3"/>
+      <c r="N174" s="10" t="s">
+        <v>1911</v>
+      </c>
+      <c r="O174" s="10" t="s">
+        <v>1912</v>
+      </c>
       <c r="P174" s="3" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="R174" s="3"/>
       <c r="S174" s="3" t="s">
@@ -23664,44 +23709,46 @@
         <v>424</v>
       </c>
       <c r="U174" s="3" t="s">
-        <v>541</v>
+        <v>300</v>
       </c>
       <c r="V174" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W174" s="3"/>
       <c r="X174" s="3" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="20" customHeight="1">
       <c r="A175" s="41" t="s">
-        <v>2325</v>
+        <v>2338</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>543</v>
+        <v>280</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I175" s="3"/>
+        <v>1640</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>1957</v>
+      </c>
       <c r="J175" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
@@ -23709,10 +23756,10 @@
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="R175" s="3"/>
       <c r="S175" s="3" t="s">
@@ -23725,52 +23772,52 @@
         <v>541</v>
       </c>
       <c r="V175" s="3">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W175" s="3"/>
       <c r="X175" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="20" customHeight="1">
       <c r="A176" s="41" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>339</v>
+        <v>543</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I176" s="10" t="s">
-        <v>1934</v>
-      </c>
-      <c r="J176" s="3"/>
+        <v>1641</v>
+      </c>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="R176" s="3"/>
       <c r="S176" s="3" t="s">
@@ -23783,54 +23830,52 @@
         <v>541</v>
       </c>
       <c r="V176" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W176" s="3"/>
       <c r="X176" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="20" customHeight="1">
-      <c r="A177" s="2" t="s">
-        <v>50</v>
+      <c r="A177" s="41" t="s">
+        <v>2326</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>555</v>
+        <v>339</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>324</v>
+        <v>551</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>1970</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>557</v>
-      </c>
+        <v>1934</v>
+      </c>
+      <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="R177" s="3"/>
       <c r="S177" s="3" t="s">
@@ -23840,46 +23885,46 @@
         <v>424</v>
       </c>
       <c r="U177" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="V177" s="3">
         <v>4.8</v>
       </c>
       <c r="W177" s="3"/>
       <c r="X177" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="20" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>1959</v>
+        <v>1970</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -23887,10 +23932,10 @@
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
       <c r="P178" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="R178" s="3"/>
       <c r="S178" s="3" t="s">
@@ -23903,43 +23948,43 @@
         <v>560</v>
       </c>
       <c r="V178" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W178" s="3"/>
       <c r="X178" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="20" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>280</v>
+        <v>562</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -23947,10 +23992,10 @@
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
       <c r="P179" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="R179" s="3"/>
       <c r="S179" s="3" t="s">
@@ -23963,19 +24008,19 @@
         <v>560</v>
       </c>
       <c r="V179" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W179" s="3"/>
       <c r="X179" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="20" customHeight="1">
-      <c r="A180" s="41" t="s">
-        <v>2327</v>
+      <c r="A180" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>331</v>
@@ -23984,20 +24029,22 @@
         <v>280</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I180" s="3"/>
+        <v>1645</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>1958</v>
+      </c>
       <c r="J180" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -24005,10 +24052,10 @@
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
       <c r="P180" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3" t="s">
@@ -24021,43 +24068,41 @@
         <v>560</v>
       </c>
       <c r="V180" s="3">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W180" s="3"/>
       <c r="X180" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="20" customHeight="1">
-      <c r="A181" s="2" t="s">
-        <v>53</v>
+      <c r="A181" s="41" t="s">
+        <v>2327</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>581</v>
+        <v>280</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>1647</v>
-      </c>
-      <c r="I181" s="10" t="s">
-        <v>1954</v>
-      </c>
+        <v>1646</v>
+      </c>
+      <c r="I181" s="3"/>
       <c r="J181" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -24065,10 +24110,10 @@
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
       <c r="P181" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="R181" s="3"/>
       <c r="S181" s="3" t="s">
@@ -24081,58 +24126,54 @@
         <v>560</v>
       </c>
       <c r="V181" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W181" s="3"/>
       <c r="X181" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="20" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>214</v>
+        <v>583</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>1928</v>
+        <v>1954</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
-      <c r="N182" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="O182" s="10" t="s">
-        <v>1930</v>
-      </c>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
       <c r="P182" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="R182" s="3"/>
       <c r="S182" s="3" t="s">
@@ -24145,52 +24186,58 @@
         <v>560</v>
       </c>
       <c r="V182" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W182" s="3"/>
       <c r="X182" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="20" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>596</v>
+        <v>214</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I183" s="3"/>
+        <v>1648</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>1928</v>
+      </c>
       <c r="J183" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
+      <c r="N183" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="O183" s="10" t="s">
+        <v>1930</v>
+      </c>
       <c r="P183" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="R183" s="3"/>
       <c r="S183" s="3" t="s">
@@ -24203,43 +24250,41 @@
         <v>560</v>
       </c>
       <c r="V183" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W183" s="3"/>
       <c r="X183" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="20" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I184" s="10" t="s">
-        <v>604</v>
-      </c>
+        <v>1649</v>
+      </c>
+      <c r="I184" s="3"/>
       <c r="J184" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -24247,10 +24292,10 @@
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
       <c r="P184" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="R184" s="3"/>
       <c r="S184" s="3" t="s">
@@ -24263,56 +24308,54 @@
         <v>560</v>
       </c>
       <c r="V184" s="3">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="W184" s="3"/>
       <c r="X184" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="20" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>469</v>
+        <v>603</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>1973</v>
+        <v>604</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
-      <c r="N185" s="10" t="s">
-        <v>1974</v>
-      </c>
+      <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="R185" s="3"/>
       <c r="S185" s="3" t="s">
@@ -24322,57 +24365,59 @@
         <v>424</v>
       </c>
       <c r="U185" s="3" t="s">
-        <v>330</v>
+        <v>560</v>
       </c>
       <c r="V185" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="20" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>647</v>
+        <v>469</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>1926</v>
+        <v>1973</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
-      <c r="N186" s="3"/>
+      <c r="N186" s="10" t="s">
+        <v>1974</v>
+      </c>
       <c r="O186" s="3"/>
       <c r="P186" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="R186" s="3"/>
       <c r="S186" s="3" t="s">
@@ -24389,56 +24434,50 @@
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="20" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>1960</v>
+        <v>1926</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="K187" s="10" t="s">
-        <v>2279</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
-      <c r="N187" s="10" t="s">
-        <v>1961</v>
-      </c>
-      <c r="O187" s="10" t="s">
-        <v>1962</v>
-      </c>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
       <c r="P187" s="3" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="R187" s="3"/>
       <c r="S187" s="3" t="s">
@@ -24448,59 +24487,63 @@
         <v>424</v>
       </c>
       <c r="U187" s="3" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="V187" s="3">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="20" customHeight="1">
-      <c r="A188" s="41" t="s">
-        <v>2328</v>
+      <c r="A188" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>254</v>
+        <v>659</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="K188" s="3"/>
+        <v>663</v>
+      </c>
+      <c r="K188" s="10" t="s">
+        <v>2279</v>
+      </c>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
+      <c r="N188" s="10" t="s">
+        <v>1961</v>
+      </c>
       <c r="O188" s="10" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="P188" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="R188" s="3"/>
       <c r="S188" s="3" t="s">
@@ -24510,57 +24553,59 @@
         <v>424</v>
       </c>
       <c r="U188" s="3" t="s">
-        <v>673</v>
+        <v>368</v>
       </c>
       <c r="V188" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="20" customHeight="1">
-      <c r="A189" s="2" t="s">
-        <v>64</v>
+      <c r="A189" s="41" t="s">
+        <v>2328</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I189" s="3"/>
-      <c r="J189" s="18" t="s">
-        <v>678</v>
+        <v>1654</v>
+      </c>
+      <c r="I189" s="10" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
-      <c r="N189" s="10" t="s">
-        <v>1925</v>
-      </c>
-      <c r="O189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="10" t="s">
+        <v>1964</v>
+      </c>
       <c r="P189" s="3" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="R189" s="3"/>
       <c r="S189" s="3" t="s">
@@ -24570,59 +24615,57 @@
         <v>424</v>
       </c>
       <c r="U189" s="3" t="s">
-        <v>432</v>
+        <v>673</v>
       </c>
       <c r="V189" s="3">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="20" customHeight="1">
-      <c r="A190" s="42" t="s">
-        <v>2321</v>
+      <c r="A190" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>1692</v>
+        <v>1472</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I190" s="10" t="s">
-        <v>1948</v>
-      </c>
-      <c r="J190" s="3" t="s">
-        <v>686</v>
+        <v>1655</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" s="18" t="s">
+        <v>678</v>
       </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
       <c r="N190" s="10" t="s">
-        <v>1949</v>
+        <v>1925</v>
       </c>
       <c r="O190" s="3"/>
       <c r="P190" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="R190" s="3"/>
       <c r="S190" s="3" t="s">
@@ -24632,55 +24675,59 @@
         <v>424</v>
       </c>
       <c r="U190" s="3" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="V190" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W190" s="3"/>
       <c r="X190" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="20" customHeight="1">
-      <c r="A191" s="2" t="s">
-        <v>66</v>
+      <c r="A191" s="42" t="s">
+        <v>2321</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>697</v>
+        <v>1473</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>1692</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>280</v>
+        <v>683</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="I191" s="3"/>
+        <v>1656</v>
+      </c>
+      <c r="I191" s="10" t="s">
+        <v>1948</v>
+      </c>
       <c r="J191" s="3" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
+      <c r="N191" s="10" t="s">
+        <v>1949</v>
+      </c>
       <c r="O191" s="3"/>
       <c r="P191" s="3" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="R191" s="3"/>
       <c r="S191" s="3" t="s">
@@ -24690,123 +24737,119 @@
         <v>424</v>
       </c>
       <c r="U191" s="3" t="s">
-        <v>697</v>
+        <v>416</v>
       </c>
       <c r="V191" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W191" s="3"/>
       <c r="X191" s="3" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="20" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>254</v>
+        <v>697</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>732</v>
+        <v>280</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>194</v>
+        <v>699</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I192" s="10" t="s">
-        <v>1990</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="I192" s="3"/>
       <c r="J192" s="3" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
-      <c r="N192" s="10" t="s">
-        <v>1991</v>
-      </c>
-      <c r="O192" s="10" t="s">
-        <v>1992</v>
-      </c>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
       <c r="P192" s="3" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="R192" s="3"/>
       <c r="S192" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T192" s="3" t="s">
-        <v>710</v>
+        <v>424</v>
       </c>
       <c r="U192" s="3" t="s">
-        <v>541</v>
+        <v>697</v>
       </c>
       <c r="V192" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="W192" s="3"/>
       <c r="X192" s="3" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="20" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>740</v>
+        <v>194</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I193" s="3"/>
+        <v>1658</v>
+      </c>
+      <c r="I193" s="10" t="s">
+        <v>1990</v>
+      </c>
       <c r="J193" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
       <c r="N193" s="10" t="s">
-        <v>1971</v>
+        <v>1991</v>
       </c>
       <c r="O193" s="10" t="s">
-        <v>1972</v>
+        <v>1992</v>
       </c>
       <c r="P193" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="R193" s="3"/>
       <c r="S193" s="3" t="s">
@@ -24819,54 +24862,56 @@
         <v>541</v>
       </c>
       <c r="V193" s="3">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="20" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
       <c r="N194" s="10" t="s">
-        <v>1969</v>
-      </c>
-      <c r="O194" s="3"/>
-      <c r="P194" s="10" t="s">
-        <v>749</v>
+        <v>1971</v>
+      </c>
+      <c r="O194" s="10" t="s">
+        <v>1972</v>
+      </c>
+      <c r="P194" s="3" t="s">
+        <v>742</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="R194" s="3"/>
       <c r="S194" s="3" t="s">
@@ -24879,52 +24924,54 @@
         <v>541</v>
       </c>
       <c r="V194" s="3">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="W194" s="3"/>
       <c r="X194" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="20" customHeight="1">
-      <c r="A195" s="41" t="s">
-        <v>2337</v>
+      <c r="A195" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E195" s="3"/>
+        <v>745</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>746</v>
+      </c>
       <c r="F195" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I195" s="10" t="s">
-        <v>1950</v>
-      </c>
+        <v>1660</v>
+      </c>
+      <c r="I195" s="3"/>
       <c r="J195" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
+      <c r="N195" s="10" t="s">
+        <v>1969</v>
+      </c>
       <c r="O195" s="3"/>
-      <c r="P195" s="3" t="s">
-        <v>755</v>
+      <c r="P195" s="10" t="s">
+        <v>749</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="R195" s="3"/>
       <c r="S195" s="3" t="s">
@@ -24937,52 +24984,52 @@
         <v>541</v>
       </c>
       <c r="V195" s="3">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="W195" s="3"/>
       <c r="X195" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="20" customHeight="1">
       <c r="A196" s="41" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>759</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="E196" s="3"/>
       <c r="F196" s="3" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>1939</v>
-      </c>
-      <c r="J196" s="3"/>
+        <v>1950</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>754</v>
+      </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
       <c r="P196" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="R196" s="3"/>
       <c r="S196" s="3" t="s">
@@ -24995,19 +25042,19 @@
         <v>541</v>
       </c>
       <c r="V196" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W196" s="3"/>
       <c r="X196" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="20" customHeight="1">
       <c r="A197" s="41" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>440</v>
@@ -25016,35 +25063,31 @@
         <v>758</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
-      <c r="N197" s="10" t="s">
-        <v>1940</v>
-      </c>
-      <c r="O197" s="10" t="s">
-        <v>1941</v>
-      </c>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
       <c r="P197" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R197" s="3"/>
       <c r="S197" s="3" t="s">
@@ -25057,52 +25100,56 @@
         <v>541</v>
       </c>
       <c r="V197" s="3">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="W197" s="3"/>
       <c r="X197" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="20" customHeight="1">
-      <c r="A198" s="2" t="s">
-        <v>74</v>
+      <c r="A198" s="41" t="s">
+        <v>2329</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>770</v>
+        <v>551</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1664</v>
-      </c>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3" t="s">
-        <v>771</v>
-      </c>
+        <v>1663</v>
+      </c>
+      <c r="I198" s="10" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
+      <c r="N198" s="10" t="s">
+        <v>1940</v>
+      </c>
+      <c r="O198" s="10" t="s">
+        <v>1941</v>
+      </c>
       <c r="P198" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="R198" s="3"/>
       <c r="S198" s="3" t="s">
@@ -25115,58 +25162,54 @@
         <v>541</v>
       </c>
       <c r="V198" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W198" s="3"/>
       <c r="X198" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="20" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I199" s="3"/>
-      <c r="J199" s="10" t="s">
-        <v>1984</v>
+      <c r="J199" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
-      <c r="N199" s="10" t="s">
-        <v>1982</v>
-      </c>
+      <c r="N199" s="3"/>
       <c r="O199" s="3"/>
       <c r="P199" s="3" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="R199" s="10" t="s">
-        <v>1983</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="R199" s="3"/>
       <c r="S199" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25174,59 +25217,61 @@
         <v>710</v>
       </c>
       <c r="U199" s="3" t="s">
-        <v>804</v>
+        <v>541</v>
       </c>
       <c r="V199" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W199" s="3"/>
       <c r="X199" s="3" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="20" customHeight="1">
-      <c r="A200" s="41" t="s">
-        <v>2330</v>
+      <c r="A200" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>752</v>
+        <v>799</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>545</v>
+        <v>801</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I200" s="10" t="s">
-        <v>1951</v>
-      </c>
-      <c r="J200" s="3" t="s">
-        <v>807</v>
+        <v>1665</v>
+      </c>
+      <c r="I200" s="3"/>
+      <c r="J200" s="10" t="s">
+        <v>1984</v>
       </c>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
+      <c r="N200" s="10" t="s">
+        <v>1982</v>
+      </c>
       <c r="O200" s="3"/>
       <c r="P200" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="R200" s="3"/>
+        <v>803</v>
+      </c>
+      <c r="R200" s="10" t="s">
+        <v>1983</v>
+      </c>
       <c r="S200" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25237,43 +25282,43 @@
         <v>804</v>
       </c>
       <c r="V200" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W200" s="3"/>
       <c r="X200" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="20" customHeight="1">
-      <c r="A201" s="42" t="s">
-        <v>2331</v>
+      <c r="A201" s="41" t="s">
+        <v>2330</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>812</v>
+        <v>545</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -25281,10 +25326,10 @@
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
       <c r="P201" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="R201" s="3"/>
       <c r="S201" s="3" t="s">
@@ -25297,54 +25342,54 @@
         <v>804</v>
       </c>
       <c r="V201" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W201" s="3"/>
       <c r="X201" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="20" customHeight="1">
-      <c r="A202" s="2" t="s">
-        <v>80</v>
+      <c r="A202" s="42" t="s">
+        <v>2331</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>1693</v>
+        <v>1484</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>817</v>
+        <v>758</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I202" s="3"/>
+        <v>1667</v>
+      </c>
+      <c r="I202" s="10" t="s">
+        <v>1943</v>
+      </c>
       <c r="J202" s="3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="K202" s="3"/>
-      <c r="L202" s="10" t="s">
-        <v>1927</v>
-      </c>
-      <c r="M202" s="10"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="R202" s="3"/>
       <c r="S202" s="3" t="s">
@@ -25357,56 +25402,54 @@
         <v>804</v>
       </c>
       <c r="V202" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W202" s="3"/>
       <c r="X202" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="20" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>346</v>
+        <v>1485</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>1693</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>677</v>
+        <v>819</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
-      <c r="N203" s="10" t="s">
-        <v>1914</v>
-      </c>
-      <c r="O203" s="10" t="s">
-        <v>1915</v>
-      </c>
+      <c r="L203" s="10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="M203" s="10"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
       <c r="P203" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="R203" s="3"/>
       <c r="S203" s="3" t="s">
@@ -25419,52 +25462,56 @@
         <v>804</v>
       </c>
       <c r="V203" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W203" s="3"/>
       <c r="X203" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="20" customHeight="1">
-      <c r="A204" s="42" t="s">
-        <v>2332</v>
+      <c r="A204" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>758</v>
+        <v>824</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>812</v>
+        <v>677</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
+      <c r="N204" s="10" t="s">
+        <v>1914</v>
+      </c>
+      <c r="O204" s="10" t="s">
+        <v>1915</v>
+      </c>
       <c r="P204" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="R204" s="3"/>
       <c r="S204" s="3" t="s">
@@ -25474,42 +25521,44 @@
         <v>710</v>
       </c>
       <c r="U204" s="3" t="s">
-        <v>330</v>
+        <v>804</v>
       </c>
       <c r="V204" s="3">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W204" s="3"/>
       <c r="X204" s="3" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="205" spans="1:24" ht="20" customHeight="1">
-      <c r="A205" s="2" t="s">
-        <v>86</v>
+      <c r="A205" s="42" t="s">
+        <v>2332</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>863</v>
+        <v>321</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E205" s="3"/>
+        <v>758</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>830</v>
+      </c>
       <c r="F205" s="3" t="s">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -25517,10 +25566,10 @@
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
       <c r="P205" s="3" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="R205" s="3"/>
       <c r="S205" s="3" t="s">
@@ -25530,51 +25579,53 @@
         <v>710</v>
       </c>
       <c r="U205" s="3" t="s">
-        <v>869</v>
+        <v>330</v>
       </c>
       <c r="V205" s="3">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="W205" s="3"/>
       <c r="X205" s="3" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
     </row>
     <row r="206" spans="1:24" ht="20" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>863</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
+      <c r="J206" s="3" t="s">
+        <v>866</v>
+      </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
       <c r="P206" s="3" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="R206" s="3"/>
       <c r="S206" s="3" t="s">
@@ -25587,54 +25638,48 @@
         <v>869</v>
       </c>
       <c r="V206" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W206" s="3"/>
       <c r="X206" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="20" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>882</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="E207" s="3"/>
       <c r="F207" s="3" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I207" s="3"/>
-      <c r="J207" s="3" t="s">
-        <v>884</v>
-      </c>
+      <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
-      <c r="N207" s="10" t="s">
-        <v>1944</v>
-      </c>
+      <c r="N207" s="3"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="R207" s="3"/>
       <c r="S207" s="3" t="s">
@@ -25644,59 +25689,57 @@
         <v>710</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>682</v>
+        <v>869</v>
       </c>
       <c r="V207" s="3">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W207" s="3"/>
       <c r="X207" s="3" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="20" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>440</v>
+        <v>681</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>895</v>
+        <v>758</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="3" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="N208" s="10" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O208" s="10" t="s">
-        <v>1988</v>
-      </c>
+        <v>1944</v>
+      </c>
+      <c r="O208" s="3"/>
       <c r="P208" s="3" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="R208" s="3"/>
       <c r="S208" s="3" t="s">
@@ -25706,59 +25749,61 @@
         <v>710</v>
       </c>
       <c r="U208" s="3" t="s">
-        <v>460</v>
+        <v>682</v>
       </c>
       <c r="V208" s="3">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="W208" s="3"/>
       <c r="X208" s="3" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="20" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I209" s="3"/>
-      <c r="J209" s="10" t="s">
-        <v>1986</v>
+      <c r="J209" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
+      <c r="N209" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O209" s="10" t="s">
+        <v>1988</v>
+      </c>
       <c r="P209" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="R209" s="10" t="s">
-        <v>1985</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="R209" s="3"/>
       <c r="S209" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25769,56 +25814,56 @@
         <v>460</v>
       </c>
       <c r="V209" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="W209" s="3"/>
       <c r="X209" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="20" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>324</v>
+        <v>904</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I210" s="3"/>
-      <c r="J210" s="3" t="s">
-        <v>910</v>
+      <c r="J210" s="10" t="s">
+        <v>1986</v>
       </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
-      <c r="O210" s="10" t="s">
-        <v>1978</v>
-      </c>
+      <c r="O210" s="3"/>
       <c r="P210" s="3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="R210" s="3"/>
+        <v>906</v>
+      </c>
+      <c r="R210" s="10" t="s">
+        <v>1985</v>
+      </c>
       <c r="S210" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25829,58 +25874,54 @@
         <v>460</v>
       </c>
       <c r="V210" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W210" s="3"/>
       <c r="X210" s="3" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="20" customHeight="1">
-      <c r="A211" s="42" t="s">
-        <v>2333</v>
+      <c r="A211" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>758</v>
+        <v>908</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>551</v>
+        <v>324</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I211" s="10" t="s">
-        <v>1945</v>
-      </c>
+        <v>1676</v>
+      </c>
+      <c r="I211" s="3"/>
       <c r="J211" s="3" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
-      <c r="N211" s="10" t="s">
-        <v>1946</v>
-      </c>
+      <c r="N211" s="3"/>
       <c r="O211" s="10" t="s">
-        <v>1947</v>
+        <v>1978</v>
       </c>
       <c r="P211" s="3" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="R211" s="3"/>
       <c r="S211" s="3" t="s">
@@ -25893,58 +25934,58 @@
         <v>460</v>
       </c>
       <c r="V211" s="3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="W211" s="3"/>
       <c r="X211" s="3" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="20" customHeight="1">
-      <c r="A212" s="2" t="s">
-        <v>94</v>
+      <c r="A212" s="42" t="s">
+        <v>2333</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>925</v>
+        <v>758</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>927</v>
+        <v>551</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>928</v>
+        <v>1945</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
       <c r="N212" s="10" t="s">
-        <v>1916</v>
+        <v>1946</v>
       </c>
       <c r="O212" s="10" t="s">
-        <v>1917</v>
+        <v>1947</v>
       </c>
       <c r="P212" s="3" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="R212" s="3"/>
       <c r="S212" s="3" t="s">
@@ -25957,52 +25998,58 @@
         <v>460</v>
       </c>
       <c r="V212" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W212" s="3"/>
       <c r="X212" s="3" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="20" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I213" s="3"/>
+        <v>1678</v>
+      </c>
+      <c r="I213" s="10" t="s">
+        <v>928</v>
+      </c>
       <c r="J213" s="3" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
+      <c r="N213" s="10" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O213" s="10" t="s">
+        <v>1917</v>
+      </c>
       <c r="P213" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="R213" s="3"/>
       <c r="S213" s="3" t="s">
@@ -26019,50 +26066,48 @@
       </c>
       <c r="W213" s="3"/>
       <c r="X213" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A214" s="41" t="s">
-        <v>2334</v>
+    <row r="214" spans="1:24" ht="20" customHeight="1">
+      <c r="A214" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1828</v>
+        <v>1496</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1583</v>
+        <v>1679</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>1583</v>
+        <v>1679</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
-      <c r="N214" s="10" t="s">
-        <v>1976</v>
-      </c>
+      <c r="N214" s="3"/>
       <c r="O214" s="3"/>
-      <c r="P214" s="10" t="s">
-        <v>1977</v>
+      <c r="P214" s="3" t="s">
+        <v>935</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="R214" s="3"/>
       <c r="S214" s="3" t="s">
@@ -26075,397 +26120,405 @@
         <v>460</v>
       </c>
       <c r="V214" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W214" s="3"/>
       <c r="X214" s="3" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A215" s="2" t="s">
-        <v>1831</v>
+      <c r="A215" s="41" t="s">
+        <v>2334</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1800</v>
+        <v>1828</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>1833</v>
+        <v>440</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>641</v>
+        <v>914</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>642</v>
+        <v>915</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>1840</v>
+        <v>916</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1839</v>
+        <v>1583</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="I215" s="10" t="s">
-        <v>1837</v>
-      </c>
+        <v>1583</v>
+      </c>
+      <c r="I215" s="3"/>
       <c r="J215" s="3" t="s">
-        <v>644</v>
+        <v>917</v>
       </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
+      <c r="N215" s="10" t="s">
+        <v>1976</v>
+      </c>
       <c r="O215" s="3"/>
       <c r="P215" s="10" t="s">
-        <v>1836</v>
-      </c>
-      <c r="Q215" s="10" t="s">
-        <v>1835</v>
+        <v>1977</v>
+      </c>
+      <c r="Q215" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="R215" s="3"/>
       <c r="S215" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T215" s="3" t="s">
-        <v>1834</v>
+        <v>710</v>
       </c>
       <c r="U215" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="V215" s="3" t="s">
-        <v>1832</v>
+        <v>460</v>
+      </c>
+      <c r="V215" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="W215" s="3"/>
-      <c r="X215" s="10" t="s">
-        <v>1830</v>
+      <c r="X215" s="3" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A216" s="16" t="s">
-        <v>1866</v>
+      <c r="A216" s="2" t="s">
+        <v>1831</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1856</v>
+        <v>1800</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>1867</v>
+        <v>1833</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>1868</v>
+        <v>641</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1869</v>
+        <v>642</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1864</v>
+        <v>1839</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>1865</v>
+        <v>1838</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>1860</v>
-      </c>
-      <c r="J216" s="15" t="s">
-        <v>1861</v>
-      </c>
-      <c r="K216" s="10" t="s">
-        <v>1863</v>
-      </c>
-      <c r="L216" s="3" t="s">
-        <v>1862</v>
-      </c>
+        <v>1837</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
-      <c r="P216" s="10"/>
+      <c r="P216" s="10" t="s">
+        <v>1836</v>
+      </c>
       <c r="Q216" s="10" t="s">
-        <v>1857</v>
+        <v>1835</v>
       </c>
       <c r="R216" s="3"/>
       <c r="S216" s="3" t="s">
-        <v>1799</v>
+        <v>1318</v>
       </c>
       <c r="T216" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="U216" s="3"/>
+        <v>1834</v>
+      </c>
+      <c r="U216" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="V216" s="3" t="s">
-        <v>1701</v>
+        <v>1832</v>
       </c>
       <c r="W216" s="3"/>
       <c r="X216" s="10" t="s">
-        <v>1858</v>
+        <v>1830</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A217" s="2" t="s">
-        <v>67</v>
+    <row r="217" spans="1:24" ht="17.25" customHeight="1">
+      <c r="A217" s="16" t="s">
+        <v>1866</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1877</v>
+        <v>1856</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>254</v>
+        <v>1867</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>704</v>
+        <v>1868</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>705</v>
+        <v>1869</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>706</v>
+        <v>1870</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1569</v>
+        <v>1864</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
+        <v>1865</v>
+      </c>
+      <c r="I217" s="10" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J217" s="15" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K217" s="10" t="s">
+        <v>1863</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>1862</v>
+      </c>
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
-      <c r="P217" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q217" s="3" t="s">
-        <v>709</v>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="10" t="s">
+        <v>1857</v>
       </c>
       <c r="R217" s="3"/>
       <c r="S217" s="3" t="s">
         <v>1799</v>
       </c>
       <c r="T217" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="U217" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="V217" s="3">
-        <v>4</v>
+        <v>1859</v>
+      </c>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3" t="s">
+        <v>1701</v>
       </c>
       <c r="W217" s="3"/>
-      <c r="X217" s="3" t="s">
-        <v>711</v>
+      <c r="X217" s="10" t="s">
+        <v>1858</v>
       </c>
     </row>
-    <row r="218" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
+    <row r="218" spans="1:24" ht="14.25" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>2052</v>
+        <v>67</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>2053</v>
+        <v>1877</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>2162</v>
+        <v>254</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>2054</v>
+        <v>705</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="G218" s="27" t="s">
-        <v>2056</v>
-      </c>
-      <c r="H218" s="27" t="s">
-        <v>2057</v>
+        <v>706</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>1569</v>
       </c>
       <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
+      <c r="J218" s="3" t="s">
+        <v>707</v>
+      </c>
       <c r="K218" s="3"/>
-      <c r="L218" s="10" t="s">
-        <v>2058</v>
-      </c>
+      <c r="L218" s="3"/>
       <c r="M218" s="3"/>
-      <c r="N218" s="10" t="s">
-        <v>2059</v>
-      </c>
-      <c r="O218" s="10" t="s">
-        <v>2060</v>
-      </c>
-      <c r="P218" s="10" t="s">
-        <v>2061</v>
-      </c>
-      <c r="Q218" s="10" t="s">
-        <v>2062</v>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q218" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="R218" s="3"/>
       <c r="S218" s="3" t="s">
         <v>1799</v>
       </c>
       <c r="T218" s="3" t="s">
-        <v>2063</v>
+        <v>710</v>
       </c>
       <c r="U218" s="3" t="s">
-        <v>2064</v>
-      </c>
-      <c r="V218" s="3" t="s">
-        <v>2065</v>
+        <v>300</v>
+      </c>
+      <c r="V218" s="3">
+        <v>4</v>
       </c>
       <c r="W218" s="3"/>
-      <c r="X218" s="10" t="s">
-        <v>2066</v>
+      <c r="X218" s="3" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="219" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>2175</v>
+        <v>2052</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>2172</v>
+        <v>2053</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>2176</v>
+        <v>1803</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>2177</v>
+        <v>2162</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>2178</v>
-      </c>
-      <c r="F219" s="3"/>
+        <v>2054</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>2055</v>
+      </c>
       <c r="G219" s="27" t="s">
-        <v>2179</v>
+        <v>2056</v>
       </c>
       <c r="H219" s="27" t="s">
-        <v>2180</v>
-      </c>
-      <c r="I219" s="10" t="s">
-        <v>2181</v>
-      </c>
+        <v>2057</v>
+      </c>
+      <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
-      <c r="L219" s="10"/>
+      <c r="L219" s="10" t="s">
+        <v>2058</v>
+      </c>
       <c r="M219" s="3"/>
-      <c r="N219" s="10"/>
-      <c r="O219" s="10"/>
-      <c r="P219" s="10"/>
+      <c r="N219" s="10" t="s">
+        <v>2059</v>
+      </c>
+      <c r="O219" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="P219" s="10" t="s">
+        <v>2061</v>
+      </c>
       <c r="Q219" s="10" t="s">
-        <v>2182</v>
+        <v>2062</v>
       </c>
       <c r="R219" s="3"/>
       <c r="S219" s="3" t="s">
         <v>1799</v>
       </c>
       <c r="T219" s="3" t="s">
-        <v>169</v>
+        <v>2063</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>162</v>
+        <v>2064</v>
       </c>
       <c r="V219" s="3" t="s">
-        <v>2174</v>
+        <v>2065</v>
       </c>
       <c r="W219" s="3"/>
       <c r="X219" s="10" t="s">
-        <v>2173</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="220" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>2198</v>
+        <v>2175</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>2199</v>
+        <v>2172</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>1867</v>
+        <v>2176</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>2230</v>
+        <v>2177</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>2231</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>2232</v>
-      </c>
+        <v>2178</v>
+      </c>
+      <c r="F220" s="3"/>
       <c r="G220" s="27" t="s">
-        <v>2205</v>
+        <v>2179</v>
       </c>
       <c r="H220" s="27" t="s">
-        <v>2211</v>
+        <v>2180</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>2233</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>2234</v>
-      </c>
+        <v>2181</v>
+      </c>
+      <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="10"/>
-      <c r="M220" s="10" t="s">
-        <v>2235</v>
-      </c>
+      <c r="M220" s="3"/>
       <c r="N220" s="10"/>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="10"/>
+      <c r="Q220" s="10" t="s">
+        <v>2182</v>
+      </c>
       <c r="R220" s="3"/>
       <c r="S220" s="3" t="s">
         <v>1799</v>
       </c>
-      <c r="T220" s="3"/>
-      <c r="U220" s="3"/>
+      <c r="T220" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U220" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="V220" s="3" t="s">
-        <v>1832</v>
+        <v>2174</v>
       </c>
       <c r="W220" s="3"/>
       <c r="X220" s="10" t="s">
-        <v>2229</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="221" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>2236</v>
+        <v>2198</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>1843</v>
+        <v>1867</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>2239</v>
+        <v>2230</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>2240</v>
+        <v>2231</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>2093</v>
+        <v>2232</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="H221" s="27" t="s">
-        <v>2212</v>
-      </c>
-      <c r="I221" s="10"/>
-      <c r="J221" s="3"/>
+        <v>2211</v>
+      </c>
+      <c r="I221" s="10" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>2234</v>
+      </c>
       <c r="K221" s="3"/>
       <c r="L221" s="10"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="10" t="s">
-        <v>2241</v>
-      </c>
-      <c r="O221" s="10" t="s">
-        <v>2242</v>
-      </c>
+      <c r="M221" s="10" t="s">
+        <v>2235</v>
+      </c>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
       <c r="P221" s="10"/>
       <c r="Q221" s="10"/>
       <c r="R221" s="3"/>
@@ -26475,50 +26528,50 @@
       <c r="T221" s="3"/>
       <c r="U221" s="3"/>
       <c r="V221" s="3" t="s">
-        <v>2238</v>
+        <v>1832</v>
       </c>
       <c r="W221" s="3"/>
       <c r="X221" s="10" t="s">
-        <v>2237</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="222" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>2258</v>
+        <v>2236</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>2259</v>
-      </c>
-      <c r="D222" s="38" t="s">
-        <v>2260</v>
-      </c>
-      <c r="E222" s="3"/>
+        <v>1843</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>2240</v>
+      </c>
       <c r="F222" s="3" t="s">
-        <v>2261</v>
+        <v>2093</v>
       </c>
       <c r="G222" s="27" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="H222" s="27" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="I222" s="10"/>
-      <c r="J222" s="10" t="s">
-        <v>2262</v>
-      </c>
+      <c r="J222" s="3"/>
       <c r="K222" s="3"/>
-      <c r="L222" s="10" t="s">
-        <v>2263</v>
-      </c>
+      <c r="L222" s="10"/>
       <c r="M222" s="3"/>
-      <c r="N222" s="10"/>
-      <c r="O222" s="10"/>
-      <c r="P222" s="10" t="s">
-        <v>2264</v>
-      </c>
+      <c r="N222" s="10" t="s">
+        <v>2241</v>
+      </c>
+      <c r="O222" s="10" t="s">
+        <v>2242</v>
+      </c>
+      <c r="P222" s="10"/>
       <c r="Q222" s="10"/>
       <c r="R222" s="3"/>
       <c r="S222" s="3" t="s">
@@ -26527,50 +26580,50 @@
       <c r="T222" s="3"/>
       <c r="U222" s="3"/>
       <c r="V222" s="3" t="s">
-        <v>1701</v>
+        <v>2238</v>
       </c>
       <c r="W222" s="3"/>
       <c r="X222" s="10" t="s">
-        <v>2257</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="223" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>2271</v>
+        <v>2258</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>2274</v>
-      </c>
+        <v>2259</v>
+      </c>
+      <c r="D223" s="38" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E223" s="3"/>
       <c r="F223" s="3" t="s">
-        <v>194</v>
+        <v>2261</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>2214</v>
-      </c>
-      <c r="I223" s="10" t="s">
-        <v>2276</v>
-      </c>
+        <v>2213</v>
+      </c>
+      <c r="I223" s="10"/>
       <c r="J223" s="10" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="K223" s="3"/>
-      <c r="L223" s="10"/>
+      <c r="L223" s="10" t="s">
+        <v>2263</v>
+      </c>
       <c r="M223" s="3"/>
       <c r="N223" s="10"/>
       <c r="O223" s="10"/>
-      <c r="P223" s="10"/>
+      <c r="P223" s="10" t="s">
+        <v>2264</v>
+      </c>
       <c r="Q223" s="10"/>
       <c r="R223" s="3"/>
       <c r="S223" s="3" t="s">
@@ -26579,42 +26632,44 @@
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3" t="s">
-        <v>2252</v>
+        <v>1701</v>
       </c>
       <c r="W223" s="3"/>
       <c r="X223" s="10" t="s">
-        <v>2272</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="224" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>2280</v>
+        <v>2271</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>2283</v>
+        <v>2176</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>581</v>
+        <v>2273</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G224" s="27" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="H224" s="27" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>2285</v>
-      </c>
-      <c r="J224" s="3"/>
+        <v>2276</v>
+      </c>
+      <c r="J224" s="10" t="s">
+        <v>2275</v>
+      </c>
       <c r="K224" s="3"/>
       <c r="L224" s="10"/>
       <c r="M224" s="3"/>
@@ -26629,55 +26684,49 @@
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3" t="s">
-        <v>2281</v>
+        <v>2252</v>
       </c>
       <c r="W224" s="3"/>
       <c r="X224" s="10" t="s">
-        <v>2282</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="225" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>2070</v>
+        <v>2283</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>2288</v>
+        <v>581</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>2290</v>
+        <v>200</v>
       </c>
       <c r="G225" s="27" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="H225" s="27" t="s">
-        <v>2216</v>
-      </c>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10" t="s">
-        <v>2291</v>
-      </c>
+        <v>2215</v>
+      </c>
+      <c r="I225" s="10" t="s">
+        <v>2285</v>
+      </c>
+      <c r="J225" s="3"/>
       <c r="K225" s="3"/>
-      <c r="L225" s="10" t="s">
-        <v>2292</v>
-      </c>
+      <c r="L225" s="10"/>
       <c r="M225" s="3"/>
-      <c r="N225" s="10" t="s">
-        <v>2293</v>
-      </c>
+      <c r="N225" s="10"/>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="10" t="s">
-        <v>2294</v>
-      </c>
+      <c r="Q225" s="10"/>
       <c r="R225" s="3"/>
       <c r="S225" s="3" t="s">
         <v>1799</v>
@@ -26689,52 +26738,50 @@
       </c>
       <c r="W225" s="3"/>
       <c r="X225" s="10" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="226" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>2437</v>
+        <v>2286</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>2433</v>
+        <v>2204</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>2245</v>
+        <v>2070</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>2438</v>
+        <v>2288</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>2439</v>
+        <v>2289</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>2440</v>
+        <v>2290</v>
       </c>
       <c r="G226" s="27" t="s">
-        <v>2434</v>
+        <v>2210</v>
       </c>
       <c r="H226" s="27" t="s">
-        <v>2435</v>
+        <v>2216</v>
       </c>
       <c r="I226" s="10"/>
       <c r="J226" s="10" t="s">
-        <v>2442</v>
-      </c>
-      <c r="K226" s="10" t="s">
-        <v>2444</v>
-      </c>
+        <v>2291</v>
+      </c>
+      <c r="K226" s="3"/>
       <c r="L226" s="10" t="s">
-        <v>2443</v>
+        <v>2292</v>
       </c>
       <c r="M226" s="3"/>
       <c r="N226" s="10" t="s">
-        <v>2441</v>
+        <v>2293</v>
       </c>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
       <c r="Q226" s="10" t="s">
-        <v>2445</v>
+        <v>2294</v>
       </c>
       <c r="R226" s="3"/>
       <c r="S226" s="3" t="s">
@@ -26743,50 +26790,56 @@
       <c r="T226" s="3"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3" t="s">
-        <v>2238</v>
+        <v>2281</v>
       </c>
       <c r="W226" s="3"/>
       <c r="X226" s="10" t="s">
-        <v>2436</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="227" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>2461</v>
+        <v>2437</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>2457</v>
+        <v>2433</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>2304</v>
+        <v>2245</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>2462</v>
+        <v>2438</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>2463</v>
+        <v>2439</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>2464</v>
+        <v>2440</v>
       </c>
       <c r="G227" s="27" t="s">
-        <v>2458</v>
+        <v>2434</v>
       </c>
       <c r="H227" s="27" t="s">
-        <v>2459</v>
-      </c>
-      <c r="I227" s="10" t="s">
-        <v>2465</v>
-      </c>
-      <c r="J227" s="10"/>
-      <c r="K227" s="10"/>
-      <c r="L227" s="10"/>
+        <v>2435</v>
+      </c>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K227" s="10" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L227" s="10" t="s">
+        <v>2443</v>
+      </c>
       <c r="M227" s="3"/>
-      <c r="N227" s="10"/>
+      <c r="N227" s="10" t="s">
+        <v>2441</v>
+      </c>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
       <c r="Q227" s="10" t="s">
-        <v>2466</v>
+        <v>2445</v>
       </c>
       <c r="R227" s="3"/>
       <c r="S227" s="3" t="s">
@@ -26795,53 +26848,51 @@
       <c r="T227" s="3"/>
       <c r="U227" s="3"/>
       <c r="V227" s="3" t="s">
-        <v>1832</v>
+        <v>2238</v>
       </c>
       <c r="W227" s="3"/>
       <c r="X227" s="10" t="s">
-        <v>2460</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="228" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>2490</v>
+        <v>2461</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>2478</v>
+        <v>2457</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>2492</v>
+        <v>2304</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>2493</v>
+        <v>2462</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>2494</v>
+        <v>2463</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>2495</v>
+        <v>2464</v>
       </c>
       <c r="G228" s="27" t="s">
-        <v>2482</v>
+        <v>2458</v>
       </c>
       <c r="H228" s="27" t="s">
-        <v>2486</v>
+        <v>2459</v>
       </c>
       <c r="I228" s="10" t="s">
-        <v>2496</v>
+        <v>2465</v>
       </c>
       <c r="J228" s="10"/>
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
       <c r="M228" s="3"/>
-      <c r="N228" s="10" t="s">
-        <v>2497</v>
-      </c>
+      <c r="N228" s="10"/>
       <c r="O228" s="10"/>
-      <c r="P228" s="10" t="s">
-        <v>2521</v>
-      </c>
-      <c r="Q228" s="10"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10" t="s">
+        <v>2466</v>
+      </c>
       <c r="R228" s="3"/>
       <c r="S228" s="3" t="s">
         <v>1799</v>
@@ -26849,54 +26900,52 @@
       <c r="T228" s="3"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3" t="s">
-        <v>1701</v>
+        <v>1832</v>
       </c>
       <c r="W228" s="3"/>
       <c r="X228" s="10" t="s">
-        <v>2491</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="229" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>2499</v>
+        <v>2490</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>2070</v>
+        <v>2492</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>2500</v>
+        <v>2493</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>2501</v>
+        <v>2494</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>2502</v>
+        <v>2495</v>
       </c>
       <c r="G229" s="27" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="H229" s="27" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="I229" s="10" t="s">
-        <v>2503</v>
-      </c>
-      <c r="J229" s="10" t="s">
-        <v>2506</v>
-      </c>
+        <v>2496</v>
+      </c>
+      <c r="J229" s="10"/>
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
       <c r="M229" s="3"/>
       <c r="N229" s="10" t="s">
-        <v>2504</v>
-      </c>
-      <c r="O229" s="10" t="s">
-        <v>2505</v>
-      </c>
-      <c r="P229" s="10"/>
+        <v>2497</v>
+      </c>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10" t="s">
+        <v>2521</v>
+      </c>
       <c r="Q229" s="10"/>
       <c r="R229" s="3"/>
       <c r="S229" s="3" t="s">
@@ -26905,47 +26954,53 @@
       <c r="T229" s="3"/>
       <c r="U229" s="3"/>
       <c r="V229" s="3" t="s">
-        <v>2413</v>
+        <v>1701</v>
       </c>
       <c r="W229" s="3"/>
       <c r="X229" s="10" t="s">
-        <v>2498</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="230" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>2492</v>
+        <v>2070</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>2510</v>
+        <v>2501</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>2511</v>
+        <v>2502</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="H230" s="27" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I230" s="10" t="s">
-        <v>2512</v>
-      </c>
-      <c r="J230" s="10"/>
+        <v>2503</v>
+      </c>
+      <c r="J230" s="10" t="s">
+        <v>2506</v>
+      </c>
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
       <c r="M230" s="3"/>
-      <c r="N230" s="10"/>
-      <c r="O230" s="10"/>
+      <c r="N230" s="10" t="s">
+        <v>2504</v>
+      </c>
+      <c r="O230" s="10" t="s">
+        <v>2505</v>
+      </c>
       <c r="P230" s="10"/>
       <c r="Q230" s="10"/>
       <c r="R230" s="3"/>
@@ -26955,52 +27010,48 @@
       <c r="T230" s="3"/>
       <c r="U230" s="3"/>
       <c r="V230" s="3" t="s">
-        <v>2281</v>
+        <v>2413</v>
       </c>
       <c r="W230" s="3"/>
       <c r="X230" s="10" t="s">
-        <v>2508</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="231" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>2492</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
       <c r="G231" s="27" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="H231" s="27" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>2518</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>2519</v>
-      </c>
+        <v>2512</v>
+      </c>
+      <c r="J231" s="10"/>
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
       <c r="M231" s="3"/>
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
-      <c r="P231" s="10" t="s">
-        <v>2520</v>
-      </c>
+      <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
       <c r="R231" s="3"/>
       <c r="S231" s="3" t="s">
@@ -27009,57 +27060,53 @@
       <c r="T231" s="3"/>
       <c r="U231" s="3"/>
       <c r="V231" s="3" t="s">
-        <v>1701</v>
+        <v>2281</v>
       </c>
       <c r="W231" s="3"/>
       <c r="X231" s="10" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="232" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>2564</v>
+        <v>2513</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>2560</v>
+        <v>2481</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>2245</v>
+        <v>2492</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>2565</v>
+        <v>2515</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>2566</v>
+        <v>2516</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>2567</v>
+        <v>2517</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>2561</v>
+        <v>2485</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>2562</v>
-      </c>
-      <c r="I232" s="10"/>
+        <v>2489</v>
+      </c>
+      <c r="I232" s="10" t="s">
+        <v>2518</v>
+      </c>
       <c r="J232" s="10" t="s">
-        <v>2569</v>
-      </c>
-      <c r="K232" s="10" t="s">
-        <v>2571</v>
-      </c>
-      <c r="L232" s="10" t="s">
-        <v>2570</v>
-      </c>
+        <v>2519</v>
+      </c>
+      <c r="K232" s="10"/>
+      <c r="L232" s="10"/>
       <c r="M232" s="3"/>
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
       <c r="P232" s="10" t="s">
-        <v>2568</v>
-      </c>
-      <c r="Q232" s="10" t="s">
-        <v>2572</v>
-      </c>
+        <v>2520</v>
+      </c>
+      <c r="Q232" s="10"/>
       <c r="R232" s="3"/>
       <c r="S232" s="3" t="s">
         <v>1799</v>
@@ -27067,50 +27114,56 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3" t="s">
-        <v>2025</v>
+        <v>1701</v>
       </c>
       <c r="W232" s="3"/>
       <c r="X232" s="10" t="s">
-        <v>2563</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="233" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>2577</v>
+        <v>2564</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>2573</v>
+        <v>2560</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>2070</v>
+        <v>2245</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>2579</v>
+        <v>2566</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>2580</v>
+        <v>2567</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>2574</v>
+        <v>2561</v>
       </c>
       <c r="H233" s="27" t="s">
-        <v>2575</v>
+        <v>2562</v>
       </c>
       <c r="I233" s="10"/>
-      <c r="J233" s="10"/>
-      <c r="K233" s="10"/>
-      <c r="L233" s="10"/>
+      <c r="J233" s="10" t="s">
+        <v>2569</v>
+      </c>
+      <c r="K233" s="10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="L233" s="10" t="s">
+        <v>2570</v>
+      </c>
       <c r="M233" s="3"/>
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10" t="s">
-        <v>2581</v>
+        <v>2568</v>
       </c>
       <c r="Q233" s="10" t="s">
-        <v>2582</v>
+        <v>2572</v>
       </c>
       <c r="R233" s="3"/>
       <c r="S233" s="3" t="s">
@@ -27119,53 +27172,51 @@
       <c r="T233" s="3"/>
       <c r="U233" s="3"/>
       <c r="V233" s="3" t="s">
-        <v>2252</v>
+        <v>2025</v>
       </c>
       <c r="W233" s="3"/>
       <c r="X233" s="10" t="s">
-        <v>2576</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>2585</v>
-      </c>
-      <c r="I234" s="10" t="s">
-        <v>2593</v>
-      </c>
+        <v>2575</v>
+      </c>
+      <c r="I234" s="10"/>
       <c r="J234" s="10"/>
       <c r="K234" s="10"/>
       <c r="L234" s="10"/>
       <c r="M234" s="3"/>
-      <c r="N234" s="10" t="s">
-        <v>2591</v>
-      </c>
+      <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10" t="s">
-        <v>2592</v>
-      </c>
-      <c r="Q234" s="10"/>
+        <v>2581</v>
+      </c>
+      <c r="Q234" s="10" t="s">
+        <v>2582</v>
+      </c>
       <c r="R234" s="3"/>
       <c r="S234" s="3" t="s">
         <v>1799</v>
@@ -27173,99 +27224,95 @@
       <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3" t="s">
-        <v>2025</v>
+        <v>2252</v>
       </c>
       <c r="W234" s="3"/>
       <c r="X234" s="10" t="s">
-        <v>2586</v>
+        <v>2576</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="14.25" customHeight="1">
+    <row r="235" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>10</v>
+        <v>2587</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1829</v>
+        <v>2583</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>163</v>
+        <v>2072</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>2588</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>164</v>
+        <v>2589</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
+        <v>2590</v>
+      </c>
+      <c r="G235" s="27" t="s">
+        <v>2584</v>
+      </c>
+      <c r="H235" s="27" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I235" s="10" t="s">
+        <v>2593</v>
+      </c>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
       <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q235" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="N235" s="10" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O235" s="10"/>
+      <c r="P235" s="10" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Q235" s="10"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3" t="s">
-        <v>1798</v>
-      </c>
-      <c r="T235" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U235" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V235" s="3">
-        <v>3.7</v>
+        <v>1799</v>
+      </c>
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3" t="s">
+        <v>2025</v>
       </c>
       <c r="W235" s="3"/>
-      <c r="X235" s="3" t="s">
-        <v>170</v>
+      <c r="X235" s="10" t="s">
+        <v>2586</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="20" customHeight="1">
+    <row r="236" spans="1:24" ht="14.25" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1497</v>
+        <v>1829</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
@@ -27273,14 +27320,14 @@
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
       <c r="P236" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="Q236" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="R236" s="3"/>
-      <c r="S236" s="18" t="s">
-        <v>161</v>
+      <c r="S236" s="3" t="s">
+        <v>1798</v>
       </c>
       <c r="T236" s="3" t="s">
         <v>169</v>
@@ -27289,41 +27336,41 @@
         <v>162</v>
       </c>
       <c r="V236" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W236" s="3"/>
       <c r="X236" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="20" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -27331,13 +27378,13 @@
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
       <c r="P237" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q237" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="R237" s="3"/>
-      <c r="S237" s="3" t="s">
+      <c r="S237" s="18" t="s">
         <v>161</v>
       </c>
       <c r="T237" s="3" t="s">
@@ -27347,41 +27394,41 @@
         <v>162</v>
       </c>
       <c r="V237" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W237" s="3"/>
       <c r="X237" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="20" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I238" s="3"/>
       <c r="J238" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -27389,10 +27436,10 @@
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
       <c r="P238" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R238" s="3"/>
       <c r="S238" s="3" t="s">
@@ -27405,41 +27452,41 @@
         <v>162</v>
       </c>
       <c r="V238" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W238" s="3"/>
       <c r="X238" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="20" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>2557</v>
+        <v>14</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -27447,10 +27494,10 @@
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
       <c r="P239" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="R239" s="3"/>
       <c r="S239" s="3" t="s">
@@ -27463,41 +27510,41 @@
         <v>162</v>
       </c>
       <c r="V239" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="20" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>15</v>
+        <v>2557</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I240" s="3"/>
       <c r="J240" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -27505,10 +27552,10 @@
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
       <c r="P240" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R240" s="3"/>
       <c r="S240" s="3" t="s">
@@ -27521,41 +27568,41 @@
         <v>162</v>
       </c>
       <c r="V240" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W240" s="3"/>
       <c r="X240" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="20" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -27563,10 +27610,10 @@
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
       <c r="P241" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q241" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R241" s="3"/>
       <c r="S241" s="3" t="s">
@@ -27579,41 +27626,41 @@
         <v>162</v>
       </c>
       <c r="V241" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W241" s="3"/>
       <c r="X241" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="242" spans="1:24" ht="20" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
@@ -27621,10 +27668,10 @@
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="R242" s="3"/>
       <c r="S242" s="3" t="s">
@@ -27637,41 +27684,41 @@
         <v>162</v>
       </c>
       <c r="V242" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W242" s="3"/>
       <c r="X242" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="243" spans="1:24" ht="20" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -27679,10 +27726,10 @@
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
       <c r="P243" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q243" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="R243" s="3"/>
       <c r="S243" s="3" t="s">
@@ -27695,41 +27742,41 @@
         <v>162</v>
       </c>
       <c r="V243" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="20" customHeight="1">
-      <c r="A244" s="41" t="s">
-        <v>2335</v>
+      <c r="A244" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="I244" s="3"/>
       <c r="J244" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -27737,10 +27784,10 @@
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
       <c r="P244" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q244" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R244" s="3"/>
       <c r="S244" s="3" t="s">
@@ -27753,41 +27800,41 @@
         <v>162</v>
       </c>
       <c r="V244" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="20" customHeight="1">
-      <c r="A245" s="2" t="s">
-        <v>117</v>
+      <c r="A245" s="41" t="s">
+        <v>2335</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1993</v>
+        <v>1505</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>1081</v>
+        <v>239</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1082</v>
+        <v>240</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>1083</v>
+        <v>241</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>1606</v>
+        <v>1689</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>1606</v>
+        <v>1689</v>
       </c>
       <c r="I245" s="3"/>
       <c r="J245" s="3" t="s">
-        <v>1084</v>
+        <v>242</v>
       </c>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -27795,220 +27842,278 @@
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
       <c r="P245" s="3" t="s">
-        <v>1085</v>
+        <v>243</v>
       </c>
       <c r="Q245" s="3" t="s">
-        <v>1086</v>
+        <v>244</v>
       </c>
       <c r="R245" s="3"/>
       <c r="S245" s="3" t="s">
         <v>161</v>
       </c>
       <c r="T245" s="3" t="s">
-        <v>1038</v>
+        <v>169</v>
       </c>
       <c r="U245" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="V245" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W245" s="3"/>
       <c r="X245" s="3" t="s">
-        <v>1087</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="20" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B246" s="33" t="s">
-        <v>2165</v>
+        <v>117</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1993</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D246" s="33" t="s">
-        <v>2166</v>
-      </c>
-      <c r="E246" s="33" t="s">
-        <v>2167</v>
-      </c>
-      <c r="F246" s="33" t="s">
-        <v>180</v>
+        <v>353</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>1083</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>2169</v>
+        <v>1606</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="I246" s="34" t="s">
-        <v>2168</v>
-      </c>
-      <c r="Q246" s="34" t="s">
-        <v>2171</v>
-      </c>
+        <v>1606</v>
+      </c>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q246" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R246" s="3"/>
       <c r="S246" s="3" t="s">
         <v>161</v>
       </c>
       <c r="T246" s="3" t="s">
-        <v>169</v>
+        <v>1038</v>
       </c>
       <c r="U246" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V246" s="39">
-        <v>4.8</v>
-      </c>
-      <c r="X246" s="34" t="s">
-        <v>2164</v>
+        <v>353</v>
+      </c>
+      <c r="V246" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="20" customHeight="1">
-      <c r="A247" s="33" t="s">
-        <v>2404</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>2395</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>2405</v>
+      <c r="A247" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B247" s="33" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>2408</v>
+        <v>2166</v>
       </c>
       <c r="E247" s="33" t="s">
-        <v>2409</v>
+        <v>2167</v>
       </c>
       <c r="F247" s="33" t="s">
-        <v>2410</v>
+        <v>180</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>2398</v>
+        <v>2169</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>2401</v>
-      </c>
-      <c r="J247" s="34" t="s">
-        <v>2411</v>
+        <v>2170</v>
+      </c>
+      <c r="I247" s="34" t="s">
+        <v>2168</v>
       </c>
       <c r="Q247" s="34" t="s">
-        <v>2412</v>
+        <v>2171</v>
       </c>
       <c r="S247" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V247" s="40" t="s">
-        <v>2407</v>
+      <c r="T247" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U247" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V247" s="39">
+        <v>4.8</v>
       </c>
       <c r="X247" s="34" t="s">
-        <v>2406</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="20" customHeight="1">
       <c r="A248" s="33" t="s">
-        <v>2415</v>
+        <v>2404</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2245</v>
+        <v>2405</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
       <c r="E248" s="33" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="F248" s="33" t="s">
-        <v>2418</v>
+        <v>2410</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>2402</v>
-      </c>
-      <c r="I248" s="34" t="s">
-        <v>2420</v>
+        <v>2401</v>
       </c>
       <c r="J248" s="34" t="s">
-        <v>2422</v>
-      </c>
-      <c r="O248" s="34" t="s">
-        <v>2421</v>
-      </c>
-      <c r="P248" s="34" t="s">
-        <v>2419</v>
+        <v>2411</v>
       </c>
       <c r="Q248" s="34" t="s">
-        <v>2423</v>
-      </c>
-      <c r="R248" s="34" t="s">
-        <v>2424</v>
+        <v>2412</v>
       </c>
       <c r="S248" s="3" t="s">
         <v>161</v>
       </c>
       <c r="V248" s="40" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="X248" s="34" t="s">
-        <v>2414</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="20" customHeight="1">
-      <c r="A249" s="45" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B249" s="33" t="s">
-        <v>2397</v>
+      <c r="A249" s="33" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>2396</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1843</v>
+        <v>2245</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>2426</v>
+        <v>2416</v>
       </c>
       <c r="E249" s="33" t="s">
-        <v>2427</v>
+        <v>2417</v>
       </c>
       <c r="F249" s="33" t="s">
-        <v>643</v>
+        <v>2418</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="I249" s="34" t="s">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="J249" s="34" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L249" s="34" t="s">
-        <v>2429</v>
+        <v>2422</v>
+      </c>
+      <c r="O249" s="34" t="s">
+        <v>2421</v>
       </c>
       <c r="P249" s="34" t="s">
-        <v>2431</v>
+        <v>2419</v>
+      </c>
+      <c r="Q249" s="34" t="s">
+        <v>2423</v>
+      </c>
+      <c r="R249" s="34" t="s">
+        <v>2424</v>
       </c>
       <c r="S249" s="3" t="s">
         <v>161</v>
       </c>
       <c r="V249" s="40" t="s">
+        <v>2413</v>
+      </c>
+      <c r="X249" s="34" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" ht="20" customHeight="1">
+      <c r="A250" s="45" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B250" s="33" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D250" s="33" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E250" s="33" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F250" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I250" s="34" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J250" s="34" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L250" s="34" t="s">
+        <v>2429</v>
+      </c>
+      <c r="P250" s="34" t="s">
+        <v>2431</v>
+      </c>
+      <c r="S250" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V250" s="40" t="s">
         <v>2407</v>
       </c>
-      <c r="X249" s="33" t="s">
+      <c r="X250" s="33" t="s">
         <v>2425</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X245">
-    <sortCondition ref="B2:B245"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X246">
+    <sortCondition ref="B2:B246"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -28017,53 +28122,53 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J144" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="X144" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J145" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X145" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I78" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="X78" r:id="rId4" display="https://www.google.com.tw/maps/place/%E8%8F%AF%E6%BD%AE%E6%89%8B%E5%89%B5%E6%96%99%E7%90%86(%E7%84%A1%E6%8E%A5%E8%A7%B8%E5%8F%96%E9%A4%90)%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81/@25.0575831,121.3681544,16.96z/data=!4m5!3m4!1s0x3442a73b73246999:0xb466e5bd6aabb4e4!8m2!3d25.0591822!4d121.3698732?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P145" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q145" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X145" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I146" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="X146" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q147" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="X147" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J148" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="X148" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J149" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="X149" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J150" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="X150" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J151" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="X151" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J154" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="X154" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J155" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="X155" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J156" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="X156" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J157" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="X157" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J159" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="X159" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J161" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="X161" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J163" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="X163" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J164" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="X164" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J165" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="X165" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="X166" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J167" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="X167" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="X169" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="P170" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q170" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I171" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="X171" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J172" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="X172" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P146" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q146" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X146" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I147" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="X147" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q148" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="X148" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J149" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="X149" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J150" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="X150" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J151" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="X151" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J152" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="X152" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J155" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="X155" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J156" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="X156" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J157" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="X157" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J158" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="X158" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J160" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="X160" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J162" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="X162" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J164" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="X164" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J165" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="X165" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J166" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="X166" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="X167" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J168" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="X168" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="X170" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="P171" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q171" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I172" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="X172" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J173" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="X173" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="J81" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="I82" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="X82" r:id="rId50" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E5%B0%87%E8%9D%A6+%E6%B3%B0%E5%9C%8B%E6%B4%BB%E8%9D%A6%E4%B8%BB%E9%A1%8C%E9%A4%90%E5%BB%B3+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0534873,121.3570401,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a74be9237db1:0x9e3ccd92158515f5!8m2!3d25.0534825!4d121.3592342?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
@@ -28073,65 +28178,65 @@
     <hyperlink ref="X84" r:id="rId54" display="https://www.google.com.tw/maps/place/%E9%A8%B7%E4%B8%BC%E3%80%82%E6%88%91%E7%9A%84%E5%BF%83%E5%9C%A8%E9%A1%AB%E6%8A%96-%E6%9E%97%E5%8F%A3%E5%BA%97(%E4%B8%BC%E9%A3%AF%E5%B0%88%E8%B3%A3%E5%BA%97).%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E9%95%B7%E5%BA%9A%E7%BE%8E%E9%A3%9F%2F%E6%97%A5%E5%BC%8F%E4%B8%BC%E9%A3%AF%2F%E6%97%A5%E5%BC%8F%E4%BE%BF%E7%95%B6%2F%E4%B8%BC%E9%A3%AF%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E5%BF%85%E5%90%83%2F%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%2F%E6%9E%97%E5%8F%A3%E5%BF%85%E5%90%83/@25.0520445,121.3603185,16z/data=!4m5!3m4!1s0x3442a75f9f424f75:0x93cf04fd7c8efe16!8m2!3d25.0523422!4d121.3652246?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="J85" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="X85" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J174" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="X174" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J175" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="X175" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="X176" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J177" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J178" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="X178" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J179" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="X179" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J180" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="X180" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J181" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="X181" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J182" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="X182" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J183" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="X183" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J175" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="X175" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J176" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="X176" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="X177" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J178" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J179" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="X179" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J180" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="X180" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J181" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="X181" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J182" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="X182" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J183" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="X183" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J184" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="X184" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="J88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="X88" r:id="rId76" display="https://www.google.com.tw/maps/place/%E8%B1%AC%E5%B0%8D%E6%9C%89%E7%87%92%E7%83%A4%E5%90%83%E5%88%B0%E9%A3%BD+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0573643,121.3646916,17z/data=!4m5!3m4!1s0x3442a7bb6b778aaf:0xbda3de9d60485dc5!8m2!3d25.0573595!4d121.3668856?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="R91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="X89" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J185" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="X185" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J186" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="X186" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J187" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="X187" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J188" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="X188" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J190" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="X190" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J186" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="X186" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J187" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="X187" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J188" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="X188" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J189" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="X189" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J191" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="X191" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="R92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="X92" r:id="rId90" display="https://www.google.com.tw/maps/place/%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%88%E5%AF%B5%E7%89%A9%E5%8F%8B%E5%96%84%EF%BC%89/@25.055566,121.3601271,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7c690e6c15f:0x67925f1c40e9f6b7!8m2!3d25.055566!4d121.3623211?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="J93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="X93" r:id="rId92" display="https://www.google.com.tw/maps/place/%E5%93%81%E6%82%85%E9%A3%9F%E5%A0%82-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E9%99%84%E8%BF%91%E7%BE%8E%E9%A3%9F%7C%E8%8F%AF%E4%BA%9E%E5%9C%92%E5%8D%80%E7%89%B9%E8%89%B2%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E8%8F%AF%E4%BA%9E%E5%A4%96%E9%80%81%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E9%95%B7%E5%BA%9A%E6%8E%A8%E8%96%A6%E4%BE%BF%E7%95%B6%7C%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%E4%BE%BF%E7%95%B6%7C%E4%BE%BF%E7%95%B6%E5%BA%97%E6%8E%A8%E8%96%A6/@25.0589757,121.3631455,17.02z/data=!3m1!5s0x3442a736dc029dcf:0xe75dc58e04184938!4m5!3m4!1s0x3442a7309c04a1c1:0xbaf43782b13152bd!8m2!3d25.0589694!4d121.3653643?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="I94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="X94" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J192" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="X192" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J194" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="X194" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J195" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="X195" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="X196" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="X197" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J193" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="X193" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J195" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="X195" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J196" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="X196" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="X197" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="X198" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="X95" r:id="rId103" display="https://www.google.com.tw/maps/place/%E4%B8%80%E5%B0%87%E5%A3%BD%E5%8F%B8+One+Show+Sushi/@25.0551207,121.3650204,17z/data=!3m2!4b1!5s0x3442a739bf3b5e29:0x588981558b0d7dc4!4m5!3m4!1s0x3442a7d1c25ea1ed:0xc9fd7840e5972c3e!8m2!3d25.0551207!4d121.3672144?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="J98" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="X98" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J199" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="X199" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J200" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="X200" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J201" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="X201" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J203" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="X203" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J204" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="X204" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J200" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="X200" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J201" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="X201" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J202" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="X202" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J204" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="X204" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J205" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="X205" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="I53" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="X53" r:id="rId117" display="https://www.google.com.tw/maps/place/%E6%AF%AB%E7%B1%B3%E5%92%96%E5%95%A1Millimetre+Cafe/@25.0298636,121.3862162,17z/data=!4m14!1m8!3m7!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!2z5q-r57Gz5ZKW5ZWhTWlsbGltZXRyZSBDYWZl!8m2!3d25.0298622!4d121.3883815!14m1!1BCgIgAQ!3m4!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!8m2!3d25.0298622!4d121.3883815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="J99" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
@@ -28143,14 +28248,14 @@
     <hyperlink ref="I102" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="P102" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="Q102" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J207" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="X207" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J208" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="X208" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J209" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="X209" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J211" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="X211" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J208" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="X208" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J209" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="X209" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J210" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="X210" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J212" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="X212" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
     <hyperlink ref="J104" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="X104" r:id="rId136" location="rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:%5B%5B25.073528099999997,121.4300487%5D,%5B24.9801288,121.3005194%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;sxsrf=AOaemvJa0u7lJKPsiRcVtRvDZjJyqxtl4Q:1637397953224&amp;source=hp&amp;ei=trWYYbLdOJHrmAXbm4PoCA&amp;iflsig=ALs-wAMAAAAAYZjDxqQGKRPaWKt9BL6Rh_jmWRGiCMWB&amp;ved=2ahUKEwie5O3axqb0AhVIrVYBHQC9AKkQvS56BAgKEDw&amp;uact=5&amp;oq=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEM0COgcIIxDqAhAnOg0ILhDHARCvARDqAhAnOgQIIxAnOg4ILhCABBCxAxDHARDRAzoICAAQgAQQsQM6DgguEIAEELEDEMcBEKMCOgUILhCABDoFCAAQgAQ6BAgAEEM6CggAELEDEIMBEEM6CwgAEIAEELEDEIMBOggILhCABBCxAzoLCC4QgAQQxwEQrwE6CAgAELEDEIMBOgsILhCABBCxAxCDAToCCCZQuQ5YlUFgqUdoA3AAeACAAWaIAfsIkgEEMTYuMZgBAKABAbABCg&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=11820264403630838222&amp;lqi=Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF&amp;phdesc=dUIbgtEpGm0&amp;rlst=f#rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:[[25.073528099999997,121.4300487],[24.9801288,121.3005194]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
     <hyperlink ref="J105" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
@@ -28241,103 +28346,103 @@
     <hyperlink ref="N22" r:id="rId222" display="https://www.ubereats.com/tw/store/joyfull-%E5%AE%B6%E6%A8%82%E7%A6%8F%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/KqxuraEhVbmGUWxJ59Q3eQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{3B8E6762-401E-1047-9C79-DB854A6C0493}"/>
     <hyperlink ref="N25" r:id="rId223" display="https://www.ubereats.com/tw/store/%E6%97%A9%E6%97%A9%E9%BB%9E%E7%82%AD%E7%81%AB%E4%B8%89%E6%98%8E%E6%B2%BB/2uoTMVvsWSO5glewU92HhQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{2AE7BA2A-AA82-AE45-8316-39C67A2280BA}"/>
     <hyperlink ref="N28" r:id="rId224" display="https://www.ubereats.com/tw/store/%E6%B8%85%E5%BF%83%E7%A6%8F%E5%85%A8-%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/VJfrU05JVMK23SqLnhBUfQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{F645F1A7-85B6-C94B-ABBF-91F4C7C7D644}"/>
-    <hyperlink ref="X215" r:id="rId225" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
-    <hyperlink ref="Q215" r:id="rId226" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
-    <hyperlink ref="P215" r:id="rId227" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
-    <hyperlink ref="I215" r:id="rId228" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
+    <hyperlink ref="X216" r:id="rId225" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
+    <hyperlink ref="Q216" r:id="rId226" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
+    <hyperlink ref="P216" r:id="rId227" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
+    <hyperlink ref="I216" r:id="rId228" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
     <hyperlink ref="X126" r:id="rId229" display="https://www.google.com/maps/place/%E8%A5%BF%E5%A0%A4%E7%89%9B%E6%8E%92+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0558945,121.3623937,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fa20a4931d:0xbf676917d5844524!8m2!3d25.0558897!4d121.364974!16s%2Fg%2F11vbzb_7x6?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{48100F0D-8564-4D4F-A2F7-C01190A592F3}"/>
     <hyperlink ref="I126" r:id="rId230" xr:uid="{70075A5E-07D7-C643-8900-F1F53B633058}"/>
     <hyperlink ref="I127" r:id="rId231" xr:uid="{C63E6F88-32E9-E145-8659-BC34F5A3224E}"/>
-    <hyperlink ref="X216" r:id="rId232" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
-    <hyperlink ref="I216" r:id="rId233" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
-    <hyperlink ref="K216" r:id="rId234" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
-    <hyperlink ref="J215" r:id="rId235" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
-    <hyperlink ref="Q172" r:id="rId236" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
-    <hyperlink ref="N173" r:id="rId237" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
-    <hyperlink ref="O173" r:id="rId238" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
-    <hyperlink ref="I173" r:id="rId239" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
-    <hyperlink ref="I184" r:id="rId240" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
-    <hyperlink ref="N203" r:id="rId241" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
-    <hyperlink ref="O203" r:id="rId242" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
-    <hyperlink ref="I212" r:id="rId243" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
-    <hyperlink ref="N212" r:id="rId244" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
-    <hyperlink ref="O212" r:id="rId245" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
-    <hyperlink ref="I157" r:id="rId246" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
-    <hyperlink ref="I160" r:id="rId247" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
-    <hyperlink ref="N160" r:id="rId248" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
-    <hyperlink ref="I151" r:id="rId249" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
-    <hyperlink ref="K144" r:id="rId250" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
-    <hyperlink ref="I143" r:id="rId251" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
-    <hyperlink ref="N170" r:id="rId252" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
-    <hyperlink ref="I169" r:id="rId253" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
-    <hyperlink ref="N189" r:id="rId254" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
-    <hyperlink ref="I186" r:id="rId255" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
-    <hyperlink ref="L202" r:id="rId256" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
-    <hyperlink ref="I182" r:id="rId257" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
-    <hyperlink ref="N182" r:id="rId258" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
-    <hyperlink ref="O182" r:id="rId259" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
-    <hyperlink ref="I153" r:id="rId260" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
-    <hyperlink ref="N153" r:id="rId261" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
-    <hyperlink ref="O153" r:id="rId262" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
-    <hyperlink ref="I176" r:id="rId263" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
-    <hyperlink ref="I149" r:id="rId264" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
-    <hyperlink ref="I156" r:id="rId265" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
-    <hyperlink ref="O156" r:id="rId266" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
-    <hyperlink ref="N168" r:id="rId267" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
-    <hyperlink ref="I168" r:id="rId268" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
-    <hyperlink ref="I196" r:id="rId269" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
-    <hyperlink ref="N197" r:id="rId270" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
-    <hyperlink ref="O197" r:id="rId271" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
-    <hyperlink ref="I197" r:id="rId272" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
-    <hyperlink ref="I201" r:id="rId273" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
-    <hyperlink ref="N207" r:id="rId274" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
-    <hyperlink ref="I211" r:id="rId275" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
-    <hyperlink ref="N211" r:id="rId276" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
-    <hyperlink ref="O211" r:id="rId277" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
-    <hyperlink ref="I190" r:id="rId278" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
-    <hyperlink ref="N190" r:id="rId279" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
-    <hyperlink ref="I195" r:id="rId280" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
-    <hyperlink ref="I200" r:id="rId281" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
-    <hyperlink ref="I167" r:id="rId282" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
-    <hyperlink ref="O167" r:id="rId283" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
-    <hyperlink ref="I181" r:id="rId284" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
-    <hyperlink ref="I158" r:id="rId285" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
-    <hyperlink ref="J146" r:id="rId286" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
-    <hyperlink ref="I174" r:id="rId287" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
-    <hyperlink ref="I179" r:id="rId288" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
-    <hyperlink ref="I178" r:id="rId289" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
-    <hyperlink ref="I187" r:id="rId290" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
-    <hyperlink ref="N187" r:id="rId291" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
-    <hyperlink ref="O187" r:id="rId292" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
-    <hyperlink ref="I188" r:id="rId293" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
-    <hyperlink ref="O188" r:id="rId294" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
-    <hyperlink ref="N164" r:id="rId295" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
-    <hyperlink ref="O164" r:id="rId296" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
-    <hyperlink ref="I148" r:id="rId297" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
-    <hyperlink ref="I155" r:id="rId298" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
-    <hyperlink ref="N194" r:id="rId299" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
-    <hyperlink ref="P194" r:id="rId300" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
-    <hyperlink ref="I177" r:id="rId301" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
-    <hyperlink ref="N193" r:id="rId302" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
-    <hyperlink ref="O193" r:id="rId303" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
-    <hyperlink ref="I185" r:id="rId304" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
-    <hyperlink ref="N185" r:id="rId305" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
-    <hyperlink ref="N214" r:id="rId306" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
-    <hyperlink ref="P214" r:id="rId307" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
-    <hyperlink ref="O210" r:id="rId308" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
-    <hyperlink ref="I163" r:id="rId309" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
-    <hyperlink ref="I154" r:id="rId310" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
-    <hyperlink ref="N154" r:id="rId311" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
-    <hyperlink ref="N199" r:id="rId312" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
-    <hyperlink ref="R199" r:id="rId313" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
-    <hyperlink ref="R209" r:id="rId314" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
-    <hyperlink ref="N208" r:id="rId315" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
-    <hyperlink ref="O208" r:id="rId316" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
-    <hyperlink ref="I162" r:id="rId317" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
-    <hyperlink ref="I142" r:id="rId318" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
-    <hyperlink ref="I192" r:id="rId319" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
-    <hyperlink ref="N192" r:id="rId320" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
-    <hyperlink ref="O192" r:id="rId321" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
+    <hyperlink ref="X217" r:id="rId232" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
+    <hyperlink ref="I217" r:id="rId233" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
+    <hyperlink ref="K217" r:id="rId234" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
+    <hyperlink ref="J216" r:id="rId235" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
+    <hyperlink ref="Q173" r:id="rId236" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
+    <hyperlink ref="N174" r:id="rId237" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
+    <hyperlink ref="O174" r:id="rId238" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
+    <hyperlink ref="I174" r:id="rId239" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
+    <hyperlink ref="I185" r:id="rId240" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
+    <hyperlink ref="N204" r:id="rId241" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
+    <hyperlink ref="O204" r:id="rId242" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
+    <hyperlink ref="I213" r:id="rId243" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
+    <hyperlink ref="N213" r:id="rId244" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
+    <hyperlink ref="O213" r:id="rId245" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
+    <hyperlink ref="I158" r:id="rId246" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
+    <hyperlink ref="I161" r:id="rId247" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
+    <hyperlink ref="N161" r:id="rId248" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
+    <hyperlink ref="I152" r:id="rId249" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
+    <hyperlink ref="K145" r:id="rId250" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
+    <hyperlink ref="I144" r:id="rId251" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
+    <hyperlink ref="N171" r:id="rId252" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
+    <hyperlink ref="I170" r:id="rId253" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
+    <hyperlink ref="N190" r:id="rId254" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
+    <hyperlink ref="I187" r:id="rId255" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
+    <hyperlink ref="L203" r:id="rId256" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
+    <hyperlink ref="I183" r:id="rId257" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
+    <hyperlink ref="N183" r:id="rId258" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
+    <hyperlink ref="O183" r:id="rId259" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
+    <hyperlink ref="I154" r:id="rId260" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
+    <hyperlink ref="N154" r:id="rId261" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
+    <hyperlink ref="O154" r:id="rId262" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
+    <hyperlink ref="I177" r:id="rId263" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
+    <hyperlink ref="I150" r:id="rId264" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
+    <hyperlink ref="I157" r:id="rId265" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
+    <hyperlink ref="O157" r:id="rId266" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
+    <hyperlink ref="N169" r:id="rId267" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
+    <hyperlink ref="I169" r:id="rId268" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
+    <hyperlink ref="I197" r:id="rId269" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
+    <hyperlink ref="N198" r:id="rId270" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
+    <hyperlink ref="O198" r:id="rId271" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
+    <hyperlink ref="I198" r:id="rId272" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
+    <hyperlink ref="I202" r:id="rId273" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
+    <hyperlink ref="N208" r:id="rId274" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
+    <hyperlink ref="I212" r:id="rId275" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
+    <hyperlink ref="N212" r:id="rId276" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
+    <hyperlink ref="O212" r:id="rId277" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
+    <hyperlink ref="I191" r:id="rId278" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
+    <hyperlink ref="N191" r:id="rId279" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
+    <hyperlink ref="I196" r:id="rId280" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
+    <hyperlink ref="I201" r:id="rId281" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
+    <hyperlink ref="I168" r:id="rId282" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
+    <hyperlink ref="O168" r:id="rId283" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
+    <hyperlink ref="I182" r:id="rId284" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
+    <hyperlink ref="I159" r:id="rId285" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
+    <hyperlink ref="J147" r:id="rId286" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
+    <hyperlink ref="I175" r:id="rId287" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
+    <hyperlink ref="I180" r:id="rId288" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
+    <hyperlink ref="I179" r:id="rId289" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
+    <hyperlink ref="I188" r:id="rId290" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
+    <hyperlink ref="N188" r:id="rId291" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
+    <hyperlink ref="O188" r:id="rId292" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
+    <hyperlink ref="I189" r:id="rId293" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
+    <hyperlink ref="O189" r:id="rId294" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
+    <hyperlink ref="N165" r:id="rId295" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
+    <hyperlink ref="O165" r:id="rId296" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
+    <hyperlink ref="I149" r:id="rId297" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
+    <hyperlink ref="I156" r:id="rId298" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
+    <hyperlink ref="N195" r:id="rId299" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
+    <hyperlink ref="P195" r:id="rId300" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
+    <hyperlink ref="I178" r:id="rId301" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
+    <hyperlink ref="N194" r:id="rId302" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
+    <hyperlink ref="O194" r:id="rId303" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
+    <hyperlink ref="I186" r:id="rId304" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
+    <hyperlink ref="N186" r:id="rId305" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
+    <hyperlink ref="N215" r:id="rId306" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
+    <hyperlink ref="P215" r:id="rId307" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
+    <hyperlink ref="O211" r:id="rId308" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
+    <hyperlink ref="I164" r:id="rId309" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
+    <hyperlink ref="I155" r:id="rId310" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
+    <hyperlink ref="N155" r:id="rId311" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
+    <hyperlink ref="N200" r:id="rId312" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
+    <hyperlink ref="R200" r:id="rId313" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
+    <hyperlink ref="R210" r:id="rId314" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
+    <hyperlink ref="N209" r:id="rId315" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
+    <hyperlink ref="O209" r:id="rId316" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
+    <hyperlink ref="I163" r:id="rId317" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
+    <hyperlink ref="I143" r:id="rId318" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
+    <hyperlink ref="I193" r:id="rId319" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
+    <hyperlink ref="N193" r:id="rId320" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
+    <hyperlink ref="O193" r:id="rId321" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
     <hyperlink ref="X54" r:id="rId322" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{45D9C521-E559-BC45-9F85-DFFC37D7B69D}"/>
     <hyperlink ref="N54" r:id="rId323" xr:uid="{79B50CB0-12F4-C141-B83C-09C7A9EBCF2A}"/>
     <hyperlink ref="X55" r:id="rId324" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AD16DD2F-FF20-054D-959B-2FDBCE9082ED}"/>
@@ -28351,12 +28456,12 @@
     <hyperlink ref="X131" r:id="rId332" display="https://www.google.com/maps/place/%E4%B8%89%E9%85%89%E9%A3%9B%E9%8F%A2%E5%92%96%E5%95%A1/@25.058021,121.36383,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7995ba96e8f:0x101be62f285e81fd!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11vkzdp2qv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{6B9CF67F-3753-7E47-ABEA-C7BEFBFC822D}"/>
     <hyperlink ref="L131" r:id="rId333" xr:uid="{1636779D-027B-0948-AE18-A5709BD9AF5E}"/>
     <hyperlink ref="X132" r:id="rId334" display="https://www.google.com/maps/place/%E5%A4%A7%E5%9F%94%E9%90%B5%E6%9D%BF%E7%87%92+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0580209,121.3615447,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78fc5146187:0xf1963846e2e35431!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11l1hz59w_?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{8CBDF53E-B1B8-444D-A928-5A487624CD8F}"/>
-    <hyperlink ref="X218" r:id="rId335" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
-    <hyperlink ref="L218" r:id="rId336" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
-    <hyperlink ref="P218" r:id="rId337" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
-    <hyperlink ref="N218" r:id="rId338" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
-    <hyperlink ref="O218" r:id="rId339" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
-    <hyperlink ref="Q218" r:id="rId340" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
+    <hyperlink ref="X219" r:id="rId335" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
+    <hyperlink ref="L219" r:id="rId336" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
+    <hyperlink ref="P219" r:id="rId337" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
+    <hyperlink ref="N219" r:id="rId338" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
+    <hyperlink ref="O219" r:id="rId339" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
+    <hyperlink ref="Q219" r:id="rId340" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
     <hyperlink ref="X57" r:id="rId341" xr:uid="{AEAA94A8-A02C-FC4F-BF90-253B215A9610}"/>
     <hyperlink ref="Q57" r:id="rId342" xr:uid="{E251BBA0-C38C-F74C-9DDE-8F3019EE2BB9}"/>
     <hyperlink ref="X58" r:id="rId343" display="https://www.google.com/maps/place/%E8%B6%8A%E5%8D%97%E5%B0%8F%E5%90%83+QUAN+AN+VIET+NAM/@25.0388677,121.3875023,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a786e50c633b:0x96ecd2a843a0664d!8m2!3d25.0388665!4d121.388146!16s%2Fg%2F11f6cq97pv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{C292726B-73A0-9543-B8AB-2F5545043597}"/>
@@ -28371,45 +28476,45 @@
     <hyperlink ref="I65" r:id="rId352" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N65" r:id="rId353" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O65" r:id="rId354" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X246" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I246" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q246" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
-    <hyperlink ref="X219" r:id="rId358" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
-    <hyperlink ref="I219" r:id="rId359" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
-    <hyperlink ref="Q219" r:id="rId360" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
+    <hyperlink ref="X247" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I247" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q247" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X220" r:id="rId358" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
+    <hyperlink ref="I220" r:id="rId359" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
+    <hyperlink ref="Q220" r:id="rId360" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
     <hyperlink ref="J66" r:id="rId361" xr:uid="{5ABD78D0-2E3F-5949-859F-50CBC6FC1515}"/>
     <hyperlink ref="L66" r:id="rId362" xr:uid="{EFB62CBA-8B17-7B4E-A3A4-C06087CDA974}"/>
     <hyperlink ref="P66" r:id="rId363" xr:uid="{F382E5C7-9AE7-3544-A39A-C87180B28272}"/>
-    <hyperlink ref="I220" r:id="rId364" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
-    <hyperlink ref="J220" r:id="rId365" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
-    <hyperlink ref="M220" r:id="rId366" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
-    <hyperlink ref="X221" r:id="rId367" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
-    <hyperlink ref="N221" r:id="rId368" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
-    <hyperlink ref="O221" r:id="rId369" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
+    <hyperlink ref="I221" r:id="rId364" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
+    <hyperlink ref="J221" r:id="rId365" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
+    <hyperlink ref="M221" r:id="rId366" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
+    <hyperlink ref="X222" r:id="rId367" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
+    <hyperlink ref="N222" r:id="rId368" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
+    <hyperlink ref="O222" r:id="rId369" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
     <hyperlink ref="X133" r:id="rId370" display="https://www.google.com/maps/place/%E8%8A%B3%E7%8F%8D%E8%94%AC%E9%A3%9F-%E9%BE%9C%E5%B1%B1%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0583405,121.3647725,15z/data=!4m6!3m5!1s0x3442a795977959cd:0xc215fc0b3335dc88!8m2!3d25.0583405!4d121.3647725!16s%2Fg%2F11vf31ctly?entry=ttu" xr:uid="{52AEA38A-91B1-8A47-9ECD-F87A770334A4}"/>
     <hyperlink ref="I133" r:id="rId371" xr:uid="{ACA4CA0F-9DEA-5840-99B0-820A4768567B}"/>
     <hyperlink ref="N133" r:id="rId372" xr:uid="{973BF0A5-4740-3E43-81DF-591051DC3E13}"/>
     <hyperlink ref="O133" r:id="rId373" xr:uid="{B65BC528-A8B1-B046-BD8B-D7F4533D8426}"/>
     <hyperlink ref="X134" r:id="rId374" display="https://www.google.com/maps/place/Y.J+COFFEE+%E7%8E%89%E6%B4%A5%E5%92%96%E5%95%A1-%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0608361,121.3643035,15z/data=!4m6!3m5!1s0x3442a760bd153451:0x18fc101d2eb228!8m2!3d25.0608361!4d121.3643035!16s%2Fg%2F11v68wsch9?hl=zh-TW&amp;entry=ttu" xr:uid="{8620CE66-049B-0B45-96BC-88EDF3E4F5EF}"/>
     <hyperlink ref="P134" r:id="rId375" xr:uid="{B7E4B78F-886E-0D40-AAC2-A20F39A5D19B}"/>
-    <hyperlink ref="X222" r:id="rId376" xr:uid="{D513533E-5F99-4047-AFF2-BF0206D0D5AA}"/>
-    <hyperlink ref="J222" r:id="rId377" xr:uid="{5A05419A-E761-7C4D-96E7-7E3BD4FA4D32}"/>
-    <hyperlink ref="L222" r:id="rId378" xr:uid="{F2B113FB-4E69-6141-B9E9-12771F9A2627}"/>
-    <hyperlink ref="P222" r:id="rId379" xr:uid="{EE9DBF4F-4B6C-374D-A208-E3DB2FFD284E}"/>
-    <hyperlink ref="P165" r:id="rId380" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
+    <hyperlink ref="X223" r:id="rId376" xr:uid="{D513533E-5F99-4047-AFF2-BF0206D0D5AA}"/>
+    <hyperlink ref="J223" r:id="rId377" xr:uid="{5A05419A-E761-7C4D-96E7-7E3BD4FA4D32}"/>
+    <hyperlink ref="L223" r:id="rId378" xr:uid="{F2B113FB-4E69-6141-B9E9-12771F9A2627}"/>
+    <hyperlink ref="P223" r:id="rId379" xr:uid="{EE9DBF4F-4B6C-374D-A208-E3DB2FFD284E}"/>
+    <hyperlink ref="P166" r:id="rId380" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
     <hyperlink ref="X135" r:id="rId381" display="https://www.google.com/maps/place/BroFood%E4%BD%A0%E7%9A%84%E4%BC%AF%E7%88%B6%E5%B7%B2%E4%B8%8A%E7%B7%9A/@25.0541886,121.364174,15z/data=!4m6!3m5!1s0x3442a7d44aac8683:0x5ed109106289102f!8m2!3d25.0554989!4d121.3672224!16s%2Fg%2F11vd9rbppy?hl=zh-TW&amp;entry=ttu" xr:uid="{587F4B97-2A31-2444-BE86-7ED2A781000A}"/>
     <hyperlink ref="N135" r:id="rId382" xr:uid="{DBD80C1C-15BB-E743-B181-07B5B73386D2}"/>
-    <hyperlink ref="X223" r:id="rId383" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
-    <hyperlink ref="J223" r:id="rId384" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
-    <hyperlink ref="I223" r:id="rId385" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
+    <hyperlink ref="X224" r:id="rId383" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
+    <hyperlink ref="J224" r:id="rId384" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
+    <hyperlink ref="I224" r:id="rId385" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
     <hyperlink ref="N107" r:id="rId386" xr:uid="{BF71F067-376F-C84F-A040-1CE32EDBAA71}"/>
     <hyperlink ref="K107" r:id="rId387" xr:uid="{FA5F13B7-74CD-B340-9FE2-EAC3123473D7}"/>
-    <hyperlink ref="K187" r:id="rId388" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
-    <hyperlink ref="I224" r:id="rId389" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
-    <hyperlink ref="J225" r:id="rId390" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
-    <hyperlink ref="L225" r:id="rId391" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
-    <hyperlink ref="N225" r:id="rId392" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
-    <hyperlink ref="Q225" r:id="rId393" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
+    <hyperlink ref="K188" r:id="rId388" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
+    <hyperlink ref="I225" r:id="rId389" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
+    <hyperlink ref="J226" r:id="rId390" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
+    <hyperlink ref="L226" r:id="rId391" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
+    <hyperlink ref="N226" r:id="rId392" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
+    <hyperlink ref="Q226" r:id="rId393" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
     <hyperlink ref="N136" r:id="rId394" xr:uid="{738457FA-3787-1F49-BA31-1BC2BAFB08F3}"/>
     <hyperlink ref="O136" r:id="rId395" xr:uid="{74692A90-DA12-314B-BF4D-E90CA31C36BE}"/>
     <hyperlink ref="I136" r:id="rId396" xr:uid="{0D193AA9-6E05-734F-8E8A-050CA65757A0}"/>
@@ -28438,60 +28543,60 @@
     <hyperlink ref="L68" r:id="rId419" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N68" r:id="rId420" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q68" r:id="rId421" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X247" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J247" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q247" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X248" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P248" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I248" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O248" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J248" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q248" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R248" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J249" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L249" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I249" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P249" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
-    <hyperlink ref="X226" r:id="rId436" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
-    <hyperlink ref="N226" r:id="rId437" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
-    <hyperlink ref="J226" r:id="rId438" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
-    <hyperlink ref="L226" r:id="rId439" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
-    <hyperlink ref="K226" r:id="rId440" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
-    <hyperlink ref="Q226" r:id="rId441" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
+    <hyperlink ref="X248" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J248" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q248" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X249" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P249" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I249" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O249" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J249" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q249" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R249" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J250" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L250" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I250" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P250" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X227" r:id="rId436" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
+    <hyperlink ref="N227" r:id="rId437" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
+    <hyperlink ref="J227" r:id="rId438" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
+    <hyperlink ref="L227" r:id="rId439" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
+    <hyperlink ref="K227" r:id="rId440" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
+    <hyperlink ref="Q227" r:id="rId441" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
     <hyperlink ref="X140" r:id="rId442" display="https://www.google.com/maps/place/%E7%8E%96%E7%88%90%E7%B2%BE%E7%B7%BB%E9%8D%8B%E7%89%A9-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0527632,121.3671907,18.9z/data=!4m6!3m5!1s0x3442a7306dd22b8d:0x46389e561cf3ce6!8m2!3d25.052783!4d121.368052!16s%2Fg%2F11ddxkg07g?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{94A63822-ECAF-BC42-97F6-7D1561D6C673}"/>
     <hyperlink ref="J140" r:id="rId443" xr:uid="{49BC0516-7E8B-7440-B512-ED1113397EC2}"/>
     <hyperlink ref="L140" r:id="rId444" xr:uid="{5026A099-EED6-A941-A394-2F0F837175FF}"/>
     <hyperlink ref="I140" r:id="rId445" xr:uid="{96BE1ADD-7164-E44B-9F06-725F8136A67E}"/>
     <hyperlink ref="Q140" r:id="rId446" xr:uid="{693E0203-1953-A045-98B9-4A9828CA155E}"/>
-    <hyperlink ref="X227" r:id="rId447" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
-    <hyperlink ref="I227" r:id="rId448" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
-    <hyperlink ref="Q227" r:id="rId449" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
+    <hyperlink ref="X228" r:id="rId447" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
+    <hyperlink ref="I228" r:id="rId448" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
+    <hyperlink ref="Q228" r:id="rId449" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
     <hyperlink ref="N141" r:id="rId450" xr:uid="{50E1CD44-37DC-A645-95E1-1AF636859E07}"/>
     <hyperlink ref="O141" r:id="rId451" xr:uid="{19AEE415-9DB8-174D-886C-7BF83E81EC05}"/>
     <hyperlink ref="J141" r:id="rId452" xr:uid="{9FCE9D3D-F2C5-B848-BA6F-0C59883F00AB}"/>
     <hyperlink ref="Q141" r:id="rId453" xr:uid="{02A6651D-67A9-A34C-AEC0-8F1470234998}"/>
-    <hyperlink ref="I228" r:id="rId454" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
-    <hyperlink ref="N228" r:id="rId455" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
-    <hyperlink ref="I229" r:id="rId456" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
-    <hyperlink ref="N229" r:id="rId457" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
-    <hyperlink ref="O229" r:id="rId458" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
-    <hyperlink ref="J229" r:id="rId459" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
-    <hyperlink ref="I230" r:id="rId460" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
-    <hyperlink ref="I231" r:id="rId461" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
-    <hyperlink ref="J231" r:id="rId462" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
-    <hyperlink ref="P231" r:id="rId463" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
-    <hyperlink ref="P228" r:id="rId464" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
-    <hyperlink ref="R154" r:id="rId465" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
-    <hyperlink ref="P232" r:id="rId466" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
-    <hyperlink ref="J232" r:id="rId467" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
-    <hyperlink ref="L232" r:id="rId468" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
-    <hyperlink ref="K232" r:id="rId469" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
-    <hyperlink ref="Q232" r:id="rId470" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
-    <hyperlink ref="P233" r:id="rId471" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
-    <hyperlink ref="Q233" r:id="rId472" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
-    <hyperlink ref="N234" r:id="rId473" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
-    <hyperlink ref="P234" r:id="rId474" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
-    <hyperlink ref="I234" r:id="rId475" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
+    <hyperlink ref="I229" r:id="rId454" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
+    <hyperlink ref="N229" r:id="rId455" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
+    <hyperlink ref="I230" r:id="rId456" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
+    <hyperlink ref="N230" r:id="rId457" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
+    <hyperlink ref="O230" r:id="rId458" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
+    <hyperlink ref="J230" r:id="rId459" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
+    <hyperlink ref="I231" r:id="rId460" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
+    <hyperlink ref="I232" r:id="rId461" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
+    <hyperlink ref="J232" r:id="rId462" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
+    <hyperlink ref="P232" r:id="rId463" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
+    <hyperlink ref="P229" r:id="rId464" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
+    <hyperlink ref="R155" r:id="rId465" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
+    <hyperlink ref="P233" r:id="rId466" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
+    <hyperlink ref="J233" r:id="rId467" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
+    <hyperlink ref="L233" r:id="rId468" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
+    <hyperlink ref="K233" r:id="rId469" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
+    <hyperlink ref="Q233" r:id="rId470" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
+    <hyperlink ref="P234" r:id="rId471" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
+    <hyperlink ref="Q234" r:id="rId472" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
+    <hyperlink ref="N235" r:id="rId473" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
+    <hyperlink ref="P235" r:id="rId474" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
+    <hyperlink ref="I235" r:id="rId475" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
     <hyperlink ref="I69" r:id="rId476" xr:uid="{EA1E3DFE-344E-FA48-9994-5ACE49222FF2}"/>
     <hyperlink ref="K69" r:id="rId477" xr:uid="{796D8F3B-3FE3-7E44-AD28-4211B63E8248}"/>
     <hyperlink ref="P69" r:id="rId478" xr:uid="{675AB809-2BC9-A746-9147-8D721F7507A7}"/>
@@ -28516,6 +28621,12 @@
     <hyperlink ref="J76" r:id="rId497" xr:uid="{5CCB57A8-7AF8-DD40-90F3-95685168A035}"/>
     <hyperlink ref="L77" r:id="rId498" xr:uid="{DB1C5ABF-E045-FB40-A2A5-0F2F8FDC521B}"/>
     <hyperlink ref="I77" r:id="rId499" xr:uid="{0DFAED9D-FAC8-9C42-9DD1-B47FC2AB6C0D}"/>
+    <hyperlink ref="Q16" r:id="rId500" xr:uid="{F256BF4D-41CC-0D46-9A0F-EB8CFF55353B}"/>
+    <hyperlink ref="X142" r:id="rId501" display="https://www.google.com/maps/place/%E4%BA%AB%E4%BA%AB%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0533761,121.3682197,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a0c7f4185d:0x1c875e8a694512fd!8m2!3d25.0533761!4d121.3707946!16s%2Fg%2F11ks08c9vm?entry=ttu" xr:uid="{ADF42D96-14BF-A34E-9538-418834B62CD7}"/>
+    <hyperlink ref="Q142" r:id="rId502" xr:uid="{8350CDBD-BFB4-5347-8D80-86AC28DD7E3F}"/>
+    <hyperlink ref="J142" r:id="rId503" xr:uid="{21A8AACF-BEE6-7144-B4C5-1A7DF5428BA0}"/>
+    <hyperlink ref="N142" r:id="rId504" xr:uid="{D195E925-2C8D-3040-B0E4-DE3FEB946B58}"/>
+    <hyperlink ref="P142" r:id="rId505" xr:uid="{A27AA05B-ACFC-D74F-AF7A-5A31B044F42F}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -28535,7 +28646,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S237:S1048576 S1:S27 S30:S235</xm:sqref>
+          <xm:sqref>S238:S1048576 S1:S27 S30:S236</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>
@@ -28562,7 +28673,7 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="3" t="s">
         <v>1803</v>
       </c>
@@ -28573,7 +28684,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="3" t="s">
         <v>1804</v>
       </c>
@@ -28584,7 +28695,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="3" t="s">
         <v>1805</v>
       </c>
@@ -28595,7 +28706,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="3" t="s">
         <v>1806</v>
       </c>
@@ -28606,7 +28717,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="3" t="s">
         <v>1807</v>
       </c>
@@ -28628,7 +28739,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="3" t="s">
         <v>1809</v>
       </c>
@@ -28636,7 +28747,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="3" t="s">
         <v>1810</v>
       </c>
@@ -28644,7 +28755,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="3" t="s">
         <v>1811</v>
       </c>
@@ -28652,7 +28763,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="3" t="s">
         <v>1812</v>
       </c>
@@ -28660,7 +28771,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="3" t="s">
         <v>1813</v>
       </c>
@@ -28668,32 +28779,32 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="3" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="3" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="3" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="3" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="3" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15">
+    <row r="17" spans="1:1" ht="16">
       <c r="A17" s="3" t="s">
         <v>1819</v>
       </c>
@@ -28703,7 +28814,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15">
+    <row r="19" spans="1:1" ht="16">
       <c r="A19" s="3" t="s">
         <v>1821</v>
       </c>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF97064-ECCE-EA4A-8551-EE914D44EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8E5D16-084F-2F49-BB55-96D3969F0BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="-27820" windowWidth="44140" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-28300" windowWidth="44140" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="2700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="2709">
   <si>
     <t>address</t>
   </si>
@@ -12379,6 +12379,39 @@
   </si>
   <si>
     <t>https://www.facebook.com/photo/?fbid=184401908090671&amp;set=pb.100095625875244.-2207520000</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8-073</t>
+  </si>
+  <si>
+    <t>RES-A8-073.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A8-073L.jpeg</t>
+  </si>
+  <si>
+    <t>爭厚厚切牛排林口店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E7%88%AD%E5%8E%9A%E5%8E%9A%E5%88%87%E7%89%9B%E6%8E%92%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0578044,121.3704166,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73c5f6baf91:0x6cc984a1886851f2!8m2!3d25.0578044!4d121.3729969!16s%2Fg%2F11dynbncl7?authuser=0&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路26號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-8729</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thicklycut.com.tw/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thicklycut.com.tw/menu/</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -13870,13 +13903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X250"/>
+  <dimension ref="A1:X251"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P142" sqref="P142"/>
+      <selection pane="bottomRight" activeCell="P143" sqref="P143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -21799,105 +21832,97 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>1425</v>
+    <row r="143" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A143" s="41" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>2700</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>162</v>
+        <v>1833</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>171</v>
+        <v>2705</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>172</v>
+        <v>2706</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1607</v>
+        <v>2701</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1607</v>
+        <v>2702</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q143" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>2707</v>
+      </c>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10" t="s">
+        <v>2708</v>
+      </c>
+      <c r="Q143" s="10"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="T143" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U143" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="10" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V143" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W143" s="3"/>
-      <c r="X143" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="D144" s="3" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J144" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
       <c r="P144" s="3" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="R144" s="3"/>
       <c r="S144" s="3" t="s">
@@ -21907,57 +21932,55 @@
         <v>169</v>
       </c>
       <c r="U144" s="3" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="V144" s="3">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W144" s="3"/>
       <c r="X144" s="3" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="14.25" customHeight="1">
+    <row r="145" spans="1:24" ht="17.25" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="K145" s="10" t="s">
-        <v>1922</v>
-      </c>
+        <v>1608</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
       <c r="P145" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="R145" s="3"/>
       <c r="S145" s="3" t="s">
@@ -21970,101 +21993,101 @@
         <v>252</v>
       </c>
       <c r="V145" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W145" s="3"/>
       <c r="X145" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="14.25" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K146" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>1922</v>
+      </c>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
       <c r="P146" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="Q146" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="R146" s="3"/>
       <c r="S146" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="U146" s="3" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="V146" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W146" s="3"/>
       <c r="X146" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="14.25" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>1956</v>
+        <v>1610</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -22072,10 +22095,10 @@
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q147" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="R147" s="3"/>
       <c r="S147" s="3" t="s">
@@ -22088,41 +22111,43 @@
         <v>278</v>
       </c>
       <c r="V147" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W147" s="3"/>
       <c r="X147" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="14.25" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3" t="s">
-        <v>290</v>
+        <v>1611</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J148" s="21" t="s">
+        <v>1956</v>
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -22130,10 +22155,10 @@
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
       <c r="P148" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R148" s="3"/>
       <c r="S148" s="3" t="s">
@@ -22146,43 +22171,41 @@
         <v>278</v>
       </c>
       <c r="V148" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W148" s="3"/>
       <c r="X148" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="14.25" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>1967</v>
-      </c>
+        <v>1612</v>
+      </c>
+      <c r="I149" s="3"/>
       <c r="J149" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -22190,59 +22213,59 @@
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
       <c r="P149" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="R149" s="3"/>
       <c r="S149" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="U149" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="V149" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W149" s="3"/>
       <c r="X149" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A150" s="41" t="s">
-        <v>2340</v>
+      <c r="A150" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>1935</v>
+        <v>1967</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -22250,10 +22273,10 @@
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
       <c r="P150" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="R150" s="3"/>
       <c r="S150" s="3" t="s">
@@ -22270,15 +22293,15 @@
       </c>
       <c r="W150" s="3"/>
       <c r="X150" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="14.25" customHeight="1">
       <c r="A151" s="41" t="s">
-        <v>2324</v>
+        <v>2340</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>254</v>
@@ -22287,20 +22310,22 @@
         <v>302</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I151" s="3"/>
+        <v>1614</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>1935</v>
+      </c>
       <c r="J151" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -22308,10 +22333,10 @@
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R151" s="3"/>
       <c r="S151" s="3" t="s">
@@ -22324,43 +22349,41 @@
         <v>300</v>
       </c>
       <c r="V151" s="3">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W151" s="3"/>
       <c r="X151" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A152" s="2" t="s">
-        <v>26</v>
+      <c r="A152" s="41" t="s">
+        <v>2324</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>1921</v>
-      </c>
+        <v>1615</v>
+      </c>
+      <c r="I152" s="3"/>
       <c r="J152" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -22368,10 +22391,10 @@
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q152" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="R152" s="3"/>
       <c r="S152" s="3" t="s">
@@ -22384,43 +22407,43 @@
         <v>300</v>
       </c>
       <c r="V152" s="3">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="W152" s="3"/>
       <c r="X152" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="14.25" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>1975</v>
+        <v>1616</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>1921</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -22428,10 +22451,10 @@
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="R153" s="3"/>
       <c r="S153" s="3" t="s">
@@ -22441,61 +22464,57 @@
         <v>299</v>
       </c>
       <c r="U153" s="3" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="V153" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="W153" s="3"/>
       <c r="X153" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A154" s="42" t="s">
-        <v>2318</v>
+      <c r="A154" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>330</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>1931</v>
+        <v>1617</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>1975</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
-      <c r="N154" s="10" t="s">
-        <v>1932</v>
-      </c>
-      <c r="O154" s="10" t="s">
-        <v>1933</v>
-      </c>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
       <c r="P154" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="R154" s="3"/>
       <c r="S154" s="3" t="s">
@@ -22508,60 +22527,60 @@
         <v>330</v>
       </c>
       <c r="V154" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W154" s="3"/>
       <c r="X154" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="15" customHeight="1">
-      <c r="A155" s="2" t="s">
-        <v>28</v>
+    <row r="155" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A155" s="42" t="s">
+        <v>2318</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>2559</v>
+        <v>1618</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>1980</v>
+        <v>1931</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="O155" s="3"/>
+        <v>1932</v>
+      </c>
+      <c r="O155" s="10" t="s">
+        <v>1933</v>
+      </c>
       <c r="P155" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="R155" s="10" t="s">
-        <v>2558</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="R155" s="3"/>
       <c r="S155" s="3" t="s">
         <v>1318</v>
       </c>
@@ -22569,59 +22588,63 @@
         <v>299</v>
       </c>
       <c r="U155" s="3" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="V155" s="3">
         <v>4.3</v>
       </c>
       <c r="W155" s="3"/>
       <c r="X155" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="14.25" customHeight="1">
+    <row r="156" spans="1:24" ht="15" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>1620</v>
+        <v>2559</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>1968</v>
+        <v>1980</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
+      <c r="N156" s="10" t="s">
+        <v>1981</v>
+      </c>
       <c r="O156" s="3"/>
       <c r="P156" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="R156" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="R156" s="10" t="s">
+        <v>2558</v>
+      </c>
       <c r="S156" s="3" t="s">
         <v>1318</v>
       </c>
@@ -22636,52 +22659,50 @@
       </c>
       <c r="W156" s="3"/>
       <c r="X156" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A157" s="41" t="s">
-        <v>2339</v>
+      <c r="A157" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>1936</v>
+        <v>1968</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
-      <c r="O157" s="10" t="s">
-        <v>1937</v>
-      </c>
+      <c r="O157" s="3"/>
       <c r="P157" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="R157" s="3"/>
       <c r="S157" s="3" t="s">
@@ -22691,57 +22712,59 @@
         <v>299</v>
       </c>
       <c r="U157" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="V157" s="3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="W157" s="3"/>
       <c r="X157" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A158" s="2" t="s">
-        <v>31</v>
+      <c r="A158" s="41" t="s">
+        <v>2339</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>254</v>
+        <v>659</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>1918</v>
+        <v>1936</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
-      <c r="O158" s="3"/>
+      <c r="O158" s="10" t="s">
+        <v>1937</v>
+      </c>
       <c r="P158" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="R158" s="3"/>
       <c r="S158" s="3" t="s">
@@ -22751,46 +22774,46 @@
         <v>299</v>
       </c>
       <c r="U158" s="3" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="V158" s="3">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="W158" s="3"/>
       <c r="X158" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="14.25" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>1955</v>
+        <v>1918</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -22798,10 +22821,10 @@
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
       <c r="P159" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="R159" s="3"/>
       <c r="S159" s="3" t="s">
@@ -22811,44 +22834,46 @@
         <v>299</v>
       </c>
       <c r="U159" s="3" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="V159" s="3">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="W159" s="3"/>
       <c r="X159" s="3" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="14.25" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I160" s="3"/>
+        <v>1624</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>1955</v>
+      </c>
       <c r="J160" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -22856,10 +22881,10 @@
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
       <c r="P160" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="R160" s="3"/>
       <c r="S160" s="3" t="s">
@@ -22872,56 +22897,52 @@
         <v>338</v>
       </c>
       <c r="V160" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W160" s="3"/>
       <c r="X160" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A161" s="42" t="s">
-        <v>2319</v>
+    <row r="161" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I161" s="10" t="s">
-        <v>1919</v>
-      </c>
-      <c r="J161" s="18" t="s">
-        <v>406</v>
+        <v>1625</v>
+      </c>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
-      <c r="N161" s="10" t="s">
-        <v>1920</v>
-      </c>
+      <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="R161" s="3"/>
       <c r="S161" s="3" t="s">
@@ -22934,52 +22955,56 @@
         <v>338</v>
       </c>
       <c r="V161" s="3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A162" s="2" t="s">
-        <v>34</v>
+    <row r="162" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A162" s="42" t="s">
+        <v>2319</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>1692</v>
+        <v>1443</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3" t="s">
-        <v>413</v>
+        <v>1626</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J162" s="18" t="s">
+        <v>406</v>
       </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
+      <c r="N162" s="10" t="s">
+        <v>1920</v>
+      </c>
       <c r="O162" s="3"/>
       <c r="P162" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="R162" s="3"/>
       <c r="S162" s="3" t="s">
@@ -22989,46 +23014,44 @@
         <v>299</v>
       </c>
       <c r="U162" s="3" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="V162" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W162" s="3"/>
       <c r="X162" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="14.25" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>254</v>
+        <v>1444</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>1692</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I163" s="10" t="s">
-        <v>1989</v>
-      </c>
+        <v>1627</v>
+      </c>
+      <c r="I163" s="3"/>
       <c r="J163" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -23036,59 +23059,59 @@
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
       <c r="P163" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="R163" s="3"/>
       <c r="S163" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T163" s="3" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
       <c r="U163" s="3" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="V163" s="3">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W163" s="3"/>
       <c r="X163" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="14.25" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -23096,10 +23119,10 @@
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
       <c r="P164" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="R164" s="3"/>
       <c r="S164" s="3" t="s">
@@ -23116,52 +23139,50 @@
       </c>
       <c r="W164" s="3"/>
       <c r="X164" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="14.25" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>435</v>
+        <v>194</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I165" s="3"/>
+        <v>1629</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>1979</v>
+      </c>
       <c r="J165" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
-      <c r="N165" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="O165" s="10" t="s">
-        <v>1966</v>
-      </c>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
       <c r="P165" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="R165" s="3"/>
       <c r="S165" s="3" t="s">
@@ -23174,52 +23195,56 @@
         <v>300</v>
       </c>
       <c r="V165" s="3">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="W165" s="3"/>
       <c r="X165" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="17.25" customHeight="1">
+    <row r="166" spans="1:24" ht="14.25" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I166" s="3"/>
-      <c r="J166" s="10" t="s">
-        <v>2265</v>
+      <c r="J166" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="10" t="s">
-        <v>444</v>
+      <c r="N166" s="10" t="s">
+        <v>1965</v>
+      </c>
+      <c r="O166" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="P166" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R166" s="3"/>
       <c r="S166" s="3" t="s">
@@ -23232,52 +23257,52 @@
         <v>300</v>
       </c>
       <c r="V166" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="W166" s="3"/>
       <c r="X166" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="17.25" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>254</v>
+        <v>440</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I167" s="3"/>
-      <c r="J167" s="3" t="s">
-        <v>450</v>
+      <c r="J167" s="10" t="s">
+        <v>2265</v>
       </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
-      <c r="P167" s="3" t="s">
-        <v>451</v>
+      <c r="P167" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="R167" s="3"/>
       <c r="S167" s="3" t="s">
@@ -23290,56 +23315,52 @@
         <v>300</v>
       </c>
       <c r="V167" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W167" s="3"/>
       <c r="X167" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="14.25" customHeight="1">
+    <row r="168" spans="1:24" ht="17.25" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>194</v>
+        <v>449</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I168" s="10" t="s">
-        <v>1952</v>
-      </c>
+        <v>1632</v>
+      </c>
+      <c r="I168" s="3"/>
       <c r="J168" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
-      <c r="O168" s="10" t="s">
-        <v>1953</v>
-      </c>
+      <c r="O168" s="3"/>
       <c r="P168" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="R168" s="3"/>
       <c r="S168" s="3" t="s">
@@ -23352,54 +23373,56 @@
         <v>300</v>
       </c>
       <c r="V168" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W168" s="3"/>
       <c r="X168" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="14.25" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>462</v>
+        <v>194</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="J169" s="3"/>
+        <v>1952</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
-      <c r="N169" s="10" t="s">
-        <v>1938</v>
-      </c>
-      <c r="O169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="10" t="s">
+        <v>1953</v>
+      </c>
       <c r="P169" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="R169" s="3"/>
       <c r="S169" s="3" t="s">
@@ -23412,52 +23435,54 @@
         <v>300</v>
       </c>
       <c r="V169" s="3">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="W169" s="3"/>
       <c r="X169" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="14.25" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>467</v>
+        <v>302</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>1924</v>
+        <v>463</v>
       </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
+      <c r="N170" s="10" t="s">
+        <v>1938</v>
+      </c>
       <c r="O170" s="3"/>
       <c r="P170" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R170" s="3"/>
       <c r="S170" s="3" t="s">
@@ -23474,50 +23499,48 @@
       </c>
       <c r="W170" s="3"/>
       <c r="X170" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="20" customHeight="1">
+    <row r="171" spans="1:24" ht="14.25" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3" t="s">
-        <v>476</v>
-      </c>
+        <v>1635</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
-      <c r="N171" s="10" t="s">
-        <v>1923</v>
-      </c>
+      <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q171" s="18" t="s">
-        <v>478</v>
+        <v>470</v>
+      </c>
+      <c r="Q171" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="R171" s="3"/>
       <c r="S171" s="3" t="s">
@@ -23530,52 +23553,54 @@
         <v>300</v>
       </c>
       <c r="V171" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W171" s="3"/>
       <c r="X171" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="20" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="J172" s="17"/>
+        <v>1636</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
+      <c r="N172" s="10" t="s">
+        <v>1923</v>
+      </c>
       <c r="O172" s="3"/>
       <c r="P172" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q172" s="3" t="s">
-        <v>485</v>
+        <v>477</v>
+      </c>
+      <c r="Q172" s="18" t="s">
+        <v>478</v>
       </c>
       <c r="R172" s="3"/>
       <c r="S172" s="3" t="s">
@@ -23592,52 +23617,50 @@
       </c>
       <c r="W172" s="3"/>
       <c r="X172" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="20" customHeight="1">
-      <c r="A173" s="41" t="s">
-        <v>2320</v>
+      <c r="A173" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3" t="s">
-        <v>490</v>
-      </c>
+        <v>1637</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J173" s="17"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q173" s="21" t="s">
-        <v>1910</v>
-      </c>
-      <c r="R173" s="3" t="s">
-        <v>492</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="R173" s="3"/>
       <c r="S173" s="3" t="s">
         <v>1318</v>
       </c>
@@ -23648,60 +23671,56 @@
         <v>300</v>
       </c>
       <c r="V173" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W173" s="3"/>
       <c r="X173" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="20" customHeight="1">
-      <c r="A174" s="2" t="s">
-        <v>45</v>
+      <c r="A174" s="41" t="s">
+        <v>2320</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I174" s="10" t="s">
-        <v>1913</v>
-      </c>
+        <v>1638</v>
+      </c>
+      <c r="I174" s="3"/>
       <c r="J174" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
-      <c r="N174" s="10" t="s">
-        <v>1911</v>
-      </c>
-      <c r="O174" s="10" t="s">
-        <v>1912</v>
-      </c>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
       <c r="P174" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q174" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="R174" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="Q174" s="21" t="s">
+        <v>1910</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="S174" s="3" t="s">
         <v>1318</v>
       </c>
@@ -23712,54 +23731,58 @@
         <v>300</v>
       </c>
       <c r="V174" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W174" s="3"/>
       <c r="X174" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="20" customHeight="1">
-      <c r="A175" s="41" t="s">
-        <v>2338</v>
+      <c r="A175" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>280</v>
+        <v>494</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>1957</v>
+        <v>1913</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
-      <c r="O175" s="3"/>
+      <c r="N175" s="10" t="s">
+        <v>1911</v>
+      </c>
+      <c r="O175" s="10" t="s">
+        <v>1912</v>
+      </c>
       <c r="P175" s="3" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="R175" s="3"/>
       <c r="S175" s="3" t="s">
@@ -23769,44 +23792,46 @@
         <v>424</v>
       </c>
       <c r="U175" s="3" t="s">
-        <v>541</v>
+        <v>300</v>
       </c>
       <c r="V175" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W175" s="3"/>
       <c r="X175" s="3" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="20" customHeight="1">
       <c r="A176" s="41" t="s">
-        <v>2325</v>
+        <v>2338</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>543</v>
+        <v>280</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I176" s="3"/>
+        <v>1640</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>1957</v>
+      </c>
       <c r="J176" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -23814,10 +23839,10 @@
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="R176" s="3"/>
       <c r="S176" s="3" t="s">
@@ -23830,52 +23855,52 @@
         <v>541</v>
       </c>
       <c r="V176" s="3">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W176" s="3"/>
       <c r="X176" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="20" customHeight="1">
       <c r="A177" s="41" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>339</v>
+        <v>543</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I177" s="10" t="s">
-        <v>1934</v>
-      </c>
-      <c r="J177" s="3"/>
+        <v>1641</v>
+      </c>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="R177" s="3"/>
       <c r="S177" s="3" t="s">
@@ -23888,54 +23913,52 @@
         <v>541</v>
       </c>
       <c r="V177" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W177" s="3"/>
       <c r="X177" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="20" customHeight="1">
-      <c r="A178" s="2" t="s">
-        <v>50</v>
+      <c r="A178" s="41" t="s">
+        <v>2326</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>555</v>
+        <v>339</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>324</v>
+        <v>551</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>1970</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>557</v>
-      </c>
+        <v>1934</v>
+      </c>
+      <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
       <c r="P178" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="R178" s="3"/>
       <c r="S178" s="3" t="s">
@@ -23945,46 +23968,46 @@
         <v>424</v>
       </c>
       <c r="U178" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="V178" s="3">
         <v>4.8</v>
       </c>
       <c r="W178" s="3"/>
       <c r="X178" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="20" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>1959</v>
+        <v>1970</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -23992,10 +24015,10 @@
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
       <c r="P179" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="R179" s="3"/>
       <c r="S179" s="3" t="s">
@@ -24008,43 +24031,43 @@
         <v>560</v>
       </c>
       <c r="V179" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W179" s="3"/>
       <c r="X179" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="20" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>280</v>
+        <v>562</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -24052,10 +24075,10 @@
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
       <c r="P180" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3" t="s">
@@ -24068,19 +24091,19 @@
         <v>560</v>
       </c>
       <c r="V180" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W180" s="3"/>
       <c r="X180" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="20" customHeight="1">
-      <c r="A181" s="41" t="s">
-        <v>2327</v>
+      <c r="A181" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>331</v>
@@ -24089,20 +24112,22 @@
         <v>280</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I181" s="3"/>
+        <v>1645</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>1958</v>
+      </c>
       <c r="J181" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -24110,10 +24135,10 @@
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
       <c r="P181" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="R181" s="3"/>
       <c r="S181" s="3" t="s">
@@ -24126,43 +24151,41 @@
         <v>560</v>
       </c>
       <c r="V181" s="3">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W181" s="3"/>
       <c r="X181" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="20" customHeight="1">
-      <c r="A182" s="2" t="s">
-        <v>53</v>
+      <c r="A182" s="41" t="s">
+        <v>2327</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>581</v>
+        <v>280</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>1647</v>
-      </c>
-      <c r="I182" s="10" t="s">
-        <v>1954</v>
-      </c>
+        <v>1646</v>
+      </c>
+      <c r="I182" s="3"/>
       <c r="J182" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -24170,10 +24193,10 @@
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
       <c r="P182" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="R182" s="3"/>
       <c r="S182" s="3" t="s">
@@ -24186,58 +24209,54 @@
         <v>560</v>
       </c>
       <c r="V182" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W182" s="3"/>
       <c r="X182" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="20" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>214</v>
+        <v>583</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>1928</v>
+        <v>1954</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
-      <c r="N183" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="O183" s="10" t="s">
-        <v>1930</v>
-      </c>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
       <c r="P183" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="R183" s="3"/>
       <c r="S183" s="3" t="s">
@@ -24250,52 +24269,58 @@
         <v>560</v>
       </c>
       <c r="V183" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W183" s="3"/>
       <c r="X183" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="20" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>596</v>
+        <v>214</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I184" s="3"/>
+        <v>1648</v>
+      </c>
+      <c r="I184" s="10" t="s">
+        <v>1928</v>
+      </c>
       <c r="J184" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
+      <c r="N184" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="O184" s="10" t="s">
+        <v>1930</v>
+      </c>
       <c r="P184" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="R184" s="3"/>
       <c r="S184" s="3" t="s">
@@ -24308,43 +24333,41 @@
         <v>560</v>
       </c>
       <c r="V184" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W184" s="3"/>
       <c r="X184" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="20" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I185" s="10" t="s">
-        <v>604</v>
-      </c>
+        <v>1649</v>
+      </c>
+      <c r="I185" s="3"/>
       <c r="J185" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -24352,10 +24375,10 @@
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="R185" s="3"/>
       <c r="S185" s="3" t="s">
@@ -24368,56 +24391,54 @@
         <v>560</v>
       </c>
       <c r="V185" s="3">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="20" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>469</v>
+        <v>603</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>1973</v>
+        <v>604</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
-      <c r="N186" s="10" t="s">
-        <v>1974</v>
-      </c>
+      <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="R186" s="3"/>
       <c r="S186" s="3" t="s">
@@ -24427,57 +24448,59 @@
         <v>424</v>
       </c>
       <c r="U186" s="3" t="s">
-        <v>330</v>
+        <v>560</v>
       </c>
       <c r="V186" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="20" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>647</v>
+        <v>469</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>1926</v>
+        <v>1973</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
+      <c r="N187" s="10" t="s">
+        <v>1974</v>
+      </c>
       <c r="O187" s="3"/>
       <c r="P187" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="R187" s="3"/>
       <c r="S187" s="3" t="s">
@@ -24494,56 +24517,50 @@
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="20" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>1960</v>
+        <v>1926</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="K188" s="10" t="s">
-        <v>2279</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
-      <c r="N188" s="10" t="s">
-        <v>1961</v>
-      </c>
-      <c r="O188" s="10" t="s">
-        <v>1962</v>
-      </c>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
       <c r="P188" s="3" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="R188" s="3"/>
       <c r="S188" s="3" t="s">
@@ -24553,59 +24570,63 @@
         <v>424</v>
       </c>
       <c r="U188" s="3" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="V188" s="3">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="20" customHeight="1">
-      <c r="A189" s="41" t="s">
-        <v>2328</v>
+      <c r="A189" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>254</v>
+        <v>659</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="K189" s="3"/>
+        <v>663</v>
+      </c>
+      <c r="K189" s="10" t="s">
+        <v>2279</v>
+      </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
+      <c r="N189" s="10" t="s">
+        <v>1961</v>
+      </c>
       <c r="O189" s="10" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="P189" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="R189" s="3"/>
       <c r="S189" s="3" t="s">
@@ -24615,57 +24636,59 @@
         <v>424</v>
       </c>
       <c r="U189" s="3" t="s">
-        <v>673</v>
+        <v>368</v>
       </c>
       <c r="V189" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="20" customHeight="1">
-      <c r="A190" s="2" t="s">
-        <v>64</v>
+      <c r="A190" s="41" t="s">
+        <v>2328</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I190" s="3"/>
-      <c r="J190" s="18" t="s">
-        <v>678</v>
+        <v>1654</v>
+      </c>
+      <c r="I190" s="10" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
-      <c r="N190" s="10" t="s">
-        <v>1925</v>
-      </c>
-      <c r="O190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="10" t="s">
+        <v>1964</v>
+      </c>
       <c r="P190" s="3" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="R190" s="3"/>
       <c r="S190" s="3" t="s">
@@ -24675,59 +24698,57 @@
         <v>424</v>
       </c>
       <c r="U190" s="3" t="s">
-        <v>432</v>
+        <v>673</v>
       </c>
       <c r="V190" s="3">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W190" s="3"/>
       <c r="X190" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="20" customHeight="1">
-      <c r="A191" s="42" t="s">
-        <v>2321</v>
+      <c r="A191" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>1692</v>
+        <v>1472</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I191" s="10" t="s">
-        <v>1948</v>
-      </c>
-      <c r="J191" s="3" t="s">
-        <v>686</v>
+        <v>1655</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="18" t="s">
+        <v>678</v>
       </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
       <c r="N191" s="10" t="s">
-        <v>1949</v>
+        <v>1925</v>
       </c>
       <c r="O191" s="3"/>
       <c r="P191" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="R191" s="3"/>
       <c r="S191" s="3" t="s">
@@ -24737,55 +24758,59 @@
         <v>424</v>
       </c>
       <c r="U191" s="3" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="V191" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W191" s="3"/>
       <c r="X191" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="20" customHeight="1">
-      <c r="A192" s="2" t="s">
-        <v>66</v>
+      <c r="A192" s="42" t="s">
+        <v>2321</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>697</v>
+        <v>1473</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>1692</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>280</v>
+        <v>683</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="I192" s="3"/>
+        <v>1656</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>1948</v>
+      </c>
       <c r="J192" s="3" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
+      <c r="N192" s="10" t="s">
+        <v>1949</v>
+      </c>
       <c r="O192" s="3"/>
       <c r="P192" s="3" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="R192" s="3"/>
       <c r="S192" s="3" t="s">
@@ -24795,123 +24820,119 @@
         <v>424</v>
       </c>
       <c r="U192" s="3" t="s">
-        <v>697</v>
+        <v>416</v>
       </c>
       <c r="V192" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W192" s="3"/>
       <c r="X192" s="3" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="20" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>254</v>
+        <v>697</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>732</v>
+        <v>280</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>194</v>
+        <v>699</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I193" s="10" t="s">
-        <v>1990</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="I193" s="3"/>
       <c r="J193" s="3" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
-      <c r="N193" s="10" t="s">
-        <v>1991</v>
-      </c>
-      <c r="O193" s="10" t="s">
-        <v>1992</v>
-      </c>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
       <c r="P193" s="3" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="R193" s="3"/>
       <c r="S193" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T193" s="3" t="s">
-        <v>710</v>
+        <v>424</v>
       </c>
       <c r="U193" s="3" t="s">
-        <v>541</v>
+        <v>697</v>
       </c>
       <c r="V193" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="20" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>740</v>
+        <v>194</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I194" s="3"/>
+        <v>1658</v>
+      </c>
+      <c r="I194" s="10" t="s">
+        <v>1990</v>
+      </c>
       <c r="J194" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
       <c r="N194" s="10" t="s">
-        <v>1971</v>
+        <v>1991</v>
       </c>
       <c r="O194" s="10" t="s">
-        <v>1972</v>
+        <v>1992</v>
       </c>
       <c r="P194" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="R194" s="3"/>
       <c r="S194" s="3" t="s">
@@ -24924,54 +24945,56 @@
         <v>541</v>
       </c>
       <c r="V194" s="3">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="W194" s="3"/>
       <c r="X194" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="20" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
       <c r="N195" s="10" t="s">
-        <v>1969</v>
-      </c>
-      <c r="O195" s="3"/>
-      <c r="P195" s="10" t="s">
-        <v>749</v>
+        <v>1971</v>
+      </c>
+      <c r="O195" s="10" t="s">
+        <v>1972</v>
+      </c>
+      <c r="P195" s="3" t="s">
+        <v>742</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="R195" s="3"/>
       <c r="S195" s="3" t="s">
@@ -24984,52 +25007,54 @@
         <v>541</v>
       </c>
       <c r="V195" s="3">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="W195" s="3"/>
       <c r="X195" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="20" customHeight="1">
-      <c r="A196" s="41" t="s">
-        <v>2337</v>
+      <c r="A196" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E196" s="3"/>
+        <v>745</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>746</v>
+      </c>
       <c r="F196" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I196" s="10" t="s">
-        <v>1950</v>
-      </c>
+        <v>1660</v>
+      </c>
+      <c r="I196" s="3"/>
       <c r="J196" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
+      <c r="N196" s="10" t="s">
+        <v>1969</v>
+      </c>
       <c r="O196" s="3"/>
-      <c r="P196" s="3" t="s">
-        <v>755</v>
+      <c r="P196" s="10" t="s">
+        <v>749</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="R196" s="3"/>
       <c r="S196" s="3" t="s">
@@ -25042,52 +25067,52 @@
         <v>541</v>
       </c>
       <c r="V196" s="3">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="W196" s="3"/>
       <c r="X196" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="20" customHeight="1">
       <c r="A197" s="41" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>759</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="E197" s="3"/>
       <c r="F197" s="3" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>1939</v>
-      </c>
-      <c r="J197" s="3"/>
+        <v>1950</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>754</v>
+      </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
       <c r="P197" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="R197" s="3"/>
       <c r="S197" s="3" t="s">
@@ -25100,19 +25125,19 @@
         <v>541</v>
       </c>
       <c r="V197" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W197" s="3"/>
       <c r="X197" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="20" customHeight="1">
       <c r="A198" s="41" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>440</v>
@@ -25121,35 +25146,31 @@
         <v>758</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
-      <c r="N198" s="10" t="s">
-        <v>1940</v>
-      </c>
-      <c r="O198" s="10" t="s">
-        <v>1941</v>
-      </c>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
       <c r="P198" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R198" s="3"/>
       <c r="S198" s="3" t="s">
@@ -25162,52 +25183,56 @@
         <v>541</v>
       </c>
       <c r="V198" s="3">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="W198" s="3"/>
       <c r="X198" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="20" customHeight="1">
-      <c r="A199" s="2" t="s">
-        <v>74</v>
+      <c r="A199" s="41" t="s">
+        <v>2329</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>770</v>
+        <v>551</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>1664</v>
-      </c>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3" t="s">
-        <v>771</v>
-      </c>
+        <v>1663</v>
+      </c>
+      <c r="I199" s="10" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
+      <c r="N199" s="10" t="s">
+        <v>1940</v>
+      </c>
+      <c r="O199" s="10" t="s">
+        <v>1941</v>
+      </c>
       <c r="P199" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="R199" s="3"/>
       <c r="S199" s="3" t="s">
@@ -25220,58 +25245,54 @@
         <v>541</v>
       </c>
       <c r="V199" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W199" s="3"/>
       <c r="X199" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="20" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I200" s="3"/>
-      <c r="J200" s="10" t="s">
-        <v>1984</v>
+      <c r="J200" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
-      <c r="N200" s="10" t="s">
-        <v>1982</v>
-      </c>
+      <c r="N200" s="3"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="R200" s="10" t="s">
-        <v>1983</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="R200" s="3"/>
       <c r="S200" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25279,59 +25300,61 @@
         <v>710</v>
       </c>
       <c r="U200" s="3" t="s">
-        <v>804</v>
+        <v>541</v>
       </c>
       <c r="V200" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W200" s="3"/>
       <c r="X200" s="3" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="20" customHeight="1">
-      <c r="A201" s="41" t="s">
-        <v>2330</v>
+      <c r="A201" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>752</v>
+        <v>799</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>545</v>
+        <v>801</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I201" s="10" t="s">
-        <v>1951</v>
-      </c>
-      <c r="J201" s="3" t="s">
-        <v>807</v>
+        <v>1665</v>
+      </c>
+      <c r="I201" s="3"/>
+      <c r="J201" s="10" t="s">
+        <v>1984</v>
       </c>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
+      <c r="N201" s="10" t="s">
+        <v>1982</v>
+      </c>
       <c r="O201" s="3"/>
       <c r="P201" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="R201" s="3"/>
+        <v>803</v>
+      </c>
+      <c r="R201" s="10" t="s">
+        <v>1983</v>
+      </c>
       <c r="S201" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25342,43 +25365,43 @@
         <v>804</v>
       </c>
       <c r="V201" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W201" s="3"/>
       <c r="X201" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="20" customHeight="1">
-      <c r="A202" s="42" t="s">
-        <v>2331</v>
+      <c r="A202" s="41" t="s">
+        <v>2330</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>812</v>
+        <v>545</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -25386,10 +25409,10 @@
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="R202" s="3"/>
       <c r="S202" s="3" t="s">
@@ -25402,54 +25425,54 @@
         <v>804</v>
       </c>
       <c r="V202" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W202" s="3"/>
       <c r="X202" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="20" customHeight="1">
-      <c r="A203" s="2" t="s">
-        <v>80</v>
+      <c r="A203" s="42" t="s">
+        <v>2331</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>1693</v>
+        <v>1484</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>817</v>
+        <v>758</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I203" s="3"/>
+        <v>1667</v>
+      </c>
+      <c r="I203" s="10" t="s">
+        <v>1943</v>
+      </c>
       <c r="J203" s="3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="K203" s="3"/>
-      <c r="L203" s="10" t="s">
-        <v>1927</v>
-      </c>
-      <c r="M203" s="10"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="R203" s="3"/>
       <c r="S203" s="3" t="s">
@@ -25462,56 +25485,54 @@
         <v>804</v>
       </c>
       <c r="V203" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W203" s="3"/>
       <c r="X203" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="20" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>346</v>
+        <v>1485</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>1693</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>677</v>
+        <v>819</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="10" t="s">
-        <v>1914</v>
-      </c>
-      <c r="O204" s="10" t="s">
-        <v>1915</v>
-      </c>
+      <c r="L204" s="10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="M204" s="10"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
       <c r="P204" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="R204" s="3"/>
       <c r="S204" s="3" t="s">
@@ -25524,52 +25545,56 @@
         <v>804</v>
       </c>
       <c r="V204" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W204" s="3"/>
       <c r="X204" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="205" spans="1:24" ht="20" customHeight="1">
-      <c r="A205" s="42" t="s">
-        <v>2332</v>
+      <c r="A205" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>758</v>
+        <v>824</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>812</v>
+        <v>677</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
+      <c r="N205" s="10" t="s">
+        <v>1914</v>
+      </c>
+      <c r="O205" s="10" t="s">
+        <v>1915</v>
+      </c>
       <c r="P205" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="R205" s="3"/>
       <c r="S205" s="3" t="s">
@@ -25579,42 +25604,44 @@
         <v>710</v>
       </c>
       <c r="U205" s="3" t="s">
-        <v>330</v>
+        <v>804</v>
       </c>
       <c r="V205" s="3">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W205" s="3"/>
       <c r="X205" s="3" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="206" spans="1:24" ht="20" customHeight="1">
-      <c r="A206" s="2" t="s">
-        <v>86</v>
+      <c r="A206" s="42" t="s">
+        <v>2332</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>863</v>
+        <v>321</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E206" s="3"/>
+        <v>758</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>830</v>
+      </c>
       <c r="F206" s="3" t="s">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -25622,10 +25649,10 @@
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
       <c r="P206" s="3" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="R206" s="3"/>
       <c r="S206" s="3" t="s">
@@ -25635,51 +25662,53 @@
         <v>710</v>
       </c>
       <c r="U206" s="3" t="s">
-        <v>869</v>
+        <v>330</v>
       </c>
       <c r="V206" s="3">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="W206" s="3"/>
       <c r="X206" s="3" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="20" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>863</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
+      <c r="J207" s="3" t="s">
+        <v>866</v>
+      </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="R207" s="3"/>
       <c r="S207" s="3" t="s">
@@ -25692,54 +25721,48 @@
         <v>869</v>
       </c>
       <c r="V207" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W207" s="3"/>
       <c r="X207" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="20" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>882</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="E208" s="3"/>
       <c r="F208" s="3" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I208" s="3"/>
-      <c r="J208" s="3" t="s">
-        <v>884</v>
-      </c>
+      <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
-      <c r="N208" s="10" t="s">
-        <v>1944</v>
-      </c>
+      <c r="N208" s="3"/>
       <c r="O208" s="3"/>
       <c r="P208" s="3" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="R208" s="3"/>
       <c r="S208" s="3" t="s">
@@ -25749,59 +25772,57 @@
         <v>710</v>
       </c>
       <c r="U208" s="3" t="s">
-        <v>682</v>
+        <v>869</v>
       </c>
       <c r="V208" s="3">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W208" s="3"/>
       <c r="X208" s="3" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="20" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>440</v>
+        <v>681</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>895</v>
+        <v>758</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
       <c r="N209" s="10" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O209" s="10" t="s">
-        <v>1988</v>
-      </c>
+        <v>1944</v>
+      </c>
+      <c r="O209" s="3"/>
       <c r="P209" s="3" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="R209" s="3"/>
       <c r="S209" s="3" t="s">
@@ -25811,59 +25832,61 @@
         <v>710</v>
       </c>
       <c r="U209" s="3" t="s">
-        <v>460</v>
+        <v>682</v>
       </c>
       <c r="V209" s="3">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="W209" s="3"/>
       <c r="X209" s="3" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="20" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I210" s="3"/>
-      <c r="J210" s="10" t="s">
-        <v>1986</v>
+      <c r="J210" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
+      <c r="N210" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O210" s="10" t="s">
+        <v>1988</v>
+      </c>
       <c r="P210" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="R210" s="10" t="s">
-        <v>1985</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="R210" s="3"/>
       <c r="S210" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25874,56 +25897,56 @@
         <v>460</v>
       </c>
       <c r="V210" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="W210" s="3"/>
       <c r="X210" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="20" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>324</v>
+        <v>904</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I211" s="3"/>
-      <c r="J211" s="3" t="s">
-        <v>910</v>
+      <c r="J211" s="10" t="s">
+        <v>1986</v>
       </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
       <c r="N211" s="3"/>
-      <c r="O211" s="10" t="s">
-        <v>1978</v>
-      </c>
+      <c r="O211" s="3"/>
       <c r="P211" s="3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="R211" s="3"/>
+        <v>906</v>
+      </c>
+      <c r="R211" s="10" t="s">
+        <v>1985</v>
+      </c>
       <c r="S211" s="3" t="s">
         <v>1318</v>
       </c>
@@ -25934,58 +25957,54 @@
         <v>460</v>
       </c>
       <c r="V211" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W211" s="3"/>
       <c r="X211" s="3" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="20" customHeight="1">
-      <c r="A212" s="42" t="s">
-        <v>2333</v>
+      <c r="A212" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>758</v>
+        <v>908</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>551</v>
+        <v>324</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I212" s="10" t="s">
-        <v>1945</v>
-      </c>
+        <v>1676</v>
+      </c>
+      <c r="I212" s="3"/>
       <c r="J212" s="3" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
-      <c r="N212" s="10" t="s">
-        <v>1946</v>
-      </c>
+      <c r="N212" s="3"/>
       <c r="O212" s="10" t="s">
-        <v>1947</v>
+        <v>1978</v>
       </c>
       <c r="P212" s="3" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="R212" s="3"/>
       <c r="S212" s="3" t="s">
@@ -25998,58 +26017,58 @@
         <v>460</v>
       </c>
       <c r="V212" s="3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="W212" s="3"/>
       <c r="X212" s="3" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="20" customHeight="1">
-      <c r="A213" s="2" t="s">
-        <v>94</v>
+      <c r="A213" s="42" t="s">
+        <v>2333</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>925</v>
+        <v>758</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>927</v>
+        <v>551</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>928</v>
+        <v>1945</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
       <c r="N213" s="10" t="s">
-        <v>1916</v>
+        <v>1946</v>
       </c>
       <c r="O213" s="10" t="s">
-        <v>1917</v>
+        <v>1947</v>
       </c>
       <c r="P213" s="3" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="R213" s="3"/>
       <c r="S213" s="3" t="s">
@@ -26062,52 +26081,58 @@
         <v>460</v>
       </c>
       <c r="V213" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W213" s="3"/>
       <c r="X213" s="3" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="20" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I214" s="3"/>
+        <v>1678</v>
+      </c>
+      <c r="I214" s="10" t="s">
+        <v>928</v>
+      </c>
       <c r="J214" s="3" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
+      <c r="N214" s="10" t="s">
+        <v>1916</v>
+      </c>
+      <c r="O214" s="10" t="s">
+        <v>1917</v>
+      </c>
       <c r="P214" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="R214" s="3"/>
       <c r="S214" s="3" t="s">
@@ -26124,50 +26149,48 @@
       </c>
       <c r="W214" s="3"/>
       <c r="X214" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A215" s="41" t="s">
-        <v>2334</v>
+    <row r="215" spans="1:24" ht="20" customHeight="1">
+      <c r="A215" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1828</v>
+        <v>1496</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1583</v>
+        <v>1679</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1583</v>
+        <v>1679</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
-      <c r="N215" s="10" t="s">
-        <v>1976</v>
-      </c>
+      <c r="N215" s="3"/>
       <c r="O215" s="3"/>
-      <c r="P215" s="10" t="s">
-        <v>1977</v>
+      <c r="P215" s="3" t="s">
+        <v>935</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="R215" s="3"/>
       <c r="S215" s="3" t="s">
@@ -26180,397 +26203,405 @@
         <v>460</v>
       </c>
       <c r="V215" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W215" s="3"/>
       <c r="X215" s="3" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A216" s="2" t="s">
-        <v>1831</v>
+      <c r="A216" s="41" t="s">
+        <v>2334</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1800</v>
+        <v>1828</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>1833</v>
+        <v>440</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>641</v>
+        <v>914</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>642</v>
+        <v>915</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>1840</v>
+        <v>916</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1839</v>
+        <v>1583</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="I216" s="10" t="s">
-        <v>1837</v>
-      </c>
+        <v>1583</v>
+      </c>
+      <c r="I216" s="3"/>
       <c r="J216" s="3" t="s">
-        <v>644</v>
+        <v>917</v>
       </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
+      <c r="N216" s="10" t="s">
+        <v>1976</v>
+      </c>
       <c r="O216" s="3"/>
       <c r="P216" s="10" t="s">
-        <v>1836</v>
-      </c>
-      <c r="Q216" s="10" t="s">
-        <v>1835</v>
+        <v>1977</v>
+      </c>
+      <c r="Q216" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="R216" s="3"/>
       <c r="S216" s="3" t="s">
         <v>1318</v>
       </c>
       <c r="T216" s="3" t="s">
-        <v>1834</v>
+        <v>710</v>
       </c>
       <c r="U216" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="V216" s="3" t="s">
-        <v>1832</v>
+        <v>460</v>
+      </c>
+      <c r="V216" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="W216" s="3"/>
-      <c r="X216" s="10" t="s">
-        <v>1830</v>
+      <c r="X216" s="3" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A217" s="16" t="s">
-        <v>1866</v>
+      <c r="A217" s="2" t="s">
+        <v>1831</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1856</v>
+        <v>1800</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>1867</v>
+        <v>1833</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1868</v>
+        <v>641</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1869</v>
+        <v>642</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1864</v>
+        <v>1839</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>1865</v>
+        <v>1838</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>1860</v>
-      </c>
-      <c r="J217" s="15" t="s">
-        <v>1861</v>
-      </c>
-      <c r="K217" s="10" t="s">
-        <v>1863</v>
-      </c>
-      <c r="L217" s="3" t="s">
-        <v>1862</v>
-      </c>
+        <v>1837</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
-      <c r="P217" s="10"/>
+      <c r="P217" s="10" t="s">
+        <v>1836</v>
+      </c>
       <c r="Q217" s="10" t="s">
-        <v>1857</v>
+        <v>1835</v>
       </c>
       <c r="R217" s="3"/>
       <c r="S217" s="3" t="s">
-        <v>1799</v>
+        <v>1318</v>
       </c>
       <c r="T217" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="U217" s="3"/>
+        <v>1834</v>
+      </c>
+      <c r="U217" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="V217" s="3" t="s">
-        <v>1701</v>
+        <v>1832</v>
       </c>
       <c r="W217" s="3"/>
       <c r="X217" s="10" t="s">
-        <v>1858</v>
+        <v>1830</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A218" s="2" t="s">
-        <v>67</v>
+    <row r="218" spans="1:24" ht="17.25" customHeight="1">
+      <c r="A218" s="16" t="s">
+        <v>1866</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1877</v>
+        <v>1856</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>254</v>
+        <v>1867</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>704</v>
+        <v>1868</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>705</v>
+        <v>1869</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>706</v>
+        <v>1870</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1569</v>
+        <v>1864</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
+        <v>1865</v>
+      </c>
+      <c r="I218" s="10" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J218" s="15" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K218" s="10" t="s">
+        <v>1863</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>1862</v>
+      </c>
       <c r="M218" s="3"/>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
-      <c r="P218" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q218" s="3" t="s">
-        <v>709</v>
+      <c r="P218" s="10"/>
+      <c r="Q218" s="10" t="s">
+        <v>1857</v>
       </c>
       <c r="R218" s="3"/>
       <c r="S218" s="3" t="s">
         <v>1799</v>
       </c>
       <c r="T218" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="U218" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="V218" s="3">
-        <v>4</v>
+        <v>1859</v>
+      </c>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3" t="s">
+        <v>1701</v>
       </c>
       <c r="W218" s="3"/>
-      <c r="X218" s="3" t="s">
-        <v>711</v>
+      <c r="X218" s="10" t="s">
+        <v>1858</v>
       </c>
     </row>
-    <row r="219" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
+    <row r="219" spans="1:24" ht="14.25" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>2052</v>
+        <v>67</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>2053</v>
+        <v>1877</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>2162</v>
+        <v>254</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>2054</v>
+        <v>705</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="G219" s="27" t="s">
-        <v>2056</v>
-      </c>
-      <c r="H219" s="27" t="s">
-        <v>2057</v>
+        <v>706</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>1569</v>
       </c>
       <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+      <c r="J219" s="3" t="s">
+        <v>707</v>
+      </c>
       <c r="K219" s="3"/>
-      <c r="L219" s="10" t="s">
-        <v>2058</v>
-      </c>
+      <c r="L219" s="3"/>
       <c r="M219" s="3"/>
-      <c r="N219" s="10" t="s">
-        <v>2059</v>
-      </c>
-      <c r="O219" s="10" t="s">
-        <v>2060</v>
-      </c>
-      <c r="P219" s="10" t="s">
-        <v>2061</v>
-      </c>
-      <c r="Q219" s="10" t="s">
-        <v>2062</v>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q219" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="R219" s="3"/>
       <c r="S219" s="3" t="s">
         <v>1799</v>
       </c>
       <c r="T219" s="3" t="s">
-        <v>2063</v>
+        <v>710</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>2064</v>
-      </c>
-      <c r="V219" s="3" t="s">
-        <v>2065</v>
+        <v>300</v>
+      </c>
+      <c r="V219" s="3">
+        <v>4</v>
       </c>
       <c r="W219" s="3"/>
-      <c r="X219" s="10" t="s">
-        <v>2066</v>
+      <c r="X219" s="3" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="220" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>2175</v>
+        <v>2052</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>2172</v>
+        <v>2053</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>2176</v>
+        <v>1803</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>2177</v>
+        <v>2162</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>2178</v>
-      </c>
-      <c r="F220" s="3"/>
+        <v>2054</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>2055</v>
+      </c>
       <c r="G220" s="27" t="s">
-        <v>2179</v>
+        <v>2056</v>
       </c>
       <c r="H220" s="27" t="s">
-        <v>2180</v>
-      </c>
-      <c r="I220" s="10" t="s">
-        <v>2181</v>
-      </c>
+        <v>2057</v>
+      </c>
+      <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
-      <c r="L220" s="10"/>
+      <c r="L220" s="10" t="s">
+        <v>2058</v>
+      </c>
       <c r="M220" s="3"/>
-      <c r="N220" s="10"/>
-      <c r="O220" s="10"/>
-      <c r="P220" s="10"/>
+      <c r="N220" s="10" t="s">
+        <v>2059</v>
+      </c>
+      <c r="O220" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="P220" s="10" t="s">
+        <v>2061</v>
+      </c>
       <c r="Q220" s="10" t="s">
-        <v>2182</v>
+        <v>2062</v>
       </c>
       <c r="R220" s="3"/>
       <c r="S220" s="3" t="s">
         <v>1799</v>
       </c>
       <c r="T220" s="3" t="s">
-        <v>169</v>
+        <v>2063</v>
       </c>
       <c r="U220" s="3" t="s">
-        <v>162</v>
+        <v>2064</v>
       </c>
       <c r="V220" s="3" t="s">
-        <v>2174</v>
+        <v>2065</v>
       </c>
       <c r="W220" s="3"/>
       <c r="X220" s="10" t="s">
-        <v>2173</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="221" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>2198</v>
+        <v>2175</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>2199</v>
+        <v>2172</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>1867</v>
+        <v>2176</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>2230</v>
+        <v>2177</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>2231</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>2232</v>
-      </c>
+        <v>2178</v>
+      </c>
+      <c r="F221" s="3"/>
       <c r="G221" s="27" t="s">
-        <v>2205</v>
+        <v>2179</v>
       </c>
       <c r="H221" s="27" t="s">
-        <v>2211</v>
+        <v>2180</v>
       </c>
       <c r="I221" s="10" t="s">
-        <v>2233</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>2234</v>
-      </c>
+        <v>2181</v>
+      </c>
+      <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="10"/>
-      <c r="M221" s="10" t="s">
-        <v>2235</v>
-      </c>
+      <c r="M221" s="3"/>
       <c r="N221" s="10"/>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="10"/>
+      <c r="Q221" s="10" t="s">
+        <v>2182</v>
+      </c>
       <c r="R221" s="3"/>
       <c r="S221" s="3" t="s">
         <v>1799</v>
       </c>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
+      <c r="T221" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U221" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="V221" s="3" t="s">
-        <v>1832</v>
+        <v>2174</v>
       </c>
       <c r="W221" s="3"/>
       <c r="X221" s="10" t="s">
-        <v>2229</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="222" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>2236</v>
+        <v>2198</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>1843</v>
+        <v>1867</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>2239</v>
+        <v>2230</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>2240</v>
+        <v>2231</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>2093</v>
+        <v>2232</v>
       </c>
       <c r="G222" s="27" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="H222" s="27" t="s">
-        <v>2212</v>
-      </c>
-      <c r="I222" s="10"/>
-      <c r="J222" s="3"/>
+        <v>2211</v>
+      </c>
+      <c r="I222" s="10" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J222" s="10" t="s">
+        <v>2234</v>
+      </c>
       <c r="K222" s="3"/>
       <c r="L222" s="10"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="10" t="s">
-        <v>2241</v>
-      </c>
-      <c r="O222" s="10" t="s">
-        <v>2242</v>
-      </c>
+      <c r="M222" s="10" t="s">
+        <v>2235</v>
+      </c>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
       <c r="P222" s="10"/>
       <c r="Q222" s="10"/>
       <c r="R222" s="3"/>
@@ -26580,50 +26611,50 @@
       <c r="T222" s="3"/>
       <c r="U222" s="3"/>
       <c r="V222" s="3" t="s">
-        <v>2238</v>
+        <v>1832</v>
       </c>
       <c r="W222" s="3"/>
       <c r="X222" s="10" t="s">
-        <v>2237</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="223" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>2258</v>
+        <v>2236</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>2259</v>
-      </c>
-      <c r="D223" s="38" t="s">
-        <v>2260</v>
-      </c>
-      <c r="E223" s="3"/>
+        <v>1843</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>2240</v>
+      </c>
       <c r="F223" s="3" t="s">
-        <v>2261</v>
+        <v>2093</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="I223" s="10"/>
-      <c r="J223" s="10" t="s">
-        <v>2262</v>
-      </c>
+      <c r="J223" s="3"/>
       <c r="K223" s="3"/>
-      <c r="L223" s="10" t="s">
-        <v>2263</v>
-      </c>
+      <c r="L223" s="10"/>
       <c r="M223" s="3"/>
-      <c r="N223" s="10"/>
-      <c r="O223" s="10"/>
-      <c r="P223" s="10" t="s">
-        <v>2264</v>
-      </c>
+      <c r="N223" s="10" t="s">
+        <v>2241</v>
+      </c>
+      <c r="O223" s="10" t="s">
+        <v>2242</v>
+      </c>
+      <c r="P223" s="10"/>
       <c r="Q223" s="10"/>
       <c r="R223" s="3"/>
       <c r="S223" s="3" t="s">
@@ -26632,50 +26663,50 @@
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3" t="s">
-        <v>1701</v>
+        <v>2238</v>
       </c>
       <c r="W223" s="3"/>
       <c r="X223" s="10" t="s">
-        <v>2257</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="224" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>2271</v>
+        <v>2258</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>2274</v>
-      </c>
+        <v>2259</v>
+      </c>
+      <c r="D224" s="38" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E224" s="3"/>
       <c r="F224" s="3" t="s">
-        <v>194</v>
+        <v>2261</v>
       </c>
       <c r="G224" s="27" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="H224" s="27" t="s">
-        <v>2214</v>
-      </c>
-      <c r="I224" s="10" t="s">
-        <v>2276</v>
-      </c>
+        <v>2213</v>
+      </c>
+      <c r="I224" s="10"/>
       <c r="J224" s="10" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="K224" s="3"/>
-      <c r="L224" s="10"/>
+      <c r="L224" s="10" t="s">
+        <v>2263</v>
+      </c>
       <c r="M224" s="3"/>
       <c r="N224" s="10"/>
       <c r="O224" s="10"/>
-      <c r="P224" s="10"/>
+      <c r="P224" s="10" t="s">
+        <v>2264</v>
+      </c>
       <c r="Q224" s="10"/>
       <c r="R224" s="3"/>
       <c r="S224" s="3" t="s">
@@ -26684,42 +26715,44 @@
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3" t="s">
-        <v>2252</v>
+        <v>1701</v>
       </c>
       <c r="W224" s="3"/>
       <c r="X224" s="10" t="s">
-        <v>2272</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="225" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>2280</v>
+        <v>2271</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>2283</v>
+        <v>2176</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>581</v>
+        <v>2273</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G225" s="27" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="H225" s="27" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>2285</v>
-      </c>
-      <c r="J225" s="3"/>
+        <v>2276</v>
+      </c>
+      <c r="J225" s="10" t="s">
+        <v>2275</v>
+      </c>
       <c r="K225" s="3"/>
       <c r="L225" s="10"/>
       <c r="M225" s="3"/>
@@ -26734,55 +26767,49 @@
       <c r="T225" s="3"/>
       <c r="U225" s="3"/>
       <c r="V225" s="3" t="s">
-        <v>2281</v>
+        <v>2252</v>
       </c>
       <c r="W225" s="3"/>
       <c r="X225" s="10" t="s">
-        <v>2282</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="226" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>2070</v>
+        <v>2283</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>2288</v>
+        <v>581</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>2290</v>
+        <v>200</v>
       </c>
       <c r="G226" s="27" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="H226" s="27" t="s">
-        <v>2216</v>
-      </c>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10" t="s">
-        <v>2291</v>
-      </c>
+        <v>2215</v>
+      </c>
+      <c r="I226" s="10" t="s">
+        <v>2285</v>
+      </c>
+      <c r="J226" s="3"/>
       <c r="K226" s="3"/>
-      <c r="L226" s="10" t="s">
-        <v>2292</v>
-      </c>
+      <c r="L226" s="10"/>
       <c r="M226" s="3"/>
-      <c r="N226" s="10" t="s">
-        <v>2293</v>
-      </c>
+      <c r="N226" s="10"/>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="10" t="s">
-        <v>2294</v>
-      </c>
+      <c r="Q226" s="10"/>
       <c r="R226" s="3"/>
       <c r="S226" s="3" t="s">
         <v>1799</v>
@@ -26794,52 +26821,50 @@
       </c>
       <c r="W226" s="3"/>
       <c r="X226" s="10" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="227" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>2437</v>
+        <v>2286</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>2433</v>
+        <v>2204</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>2245</v>
+        <v>2070</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>2438</v>
+        <v>2288</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>2439</v>
+        <v>2289</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>2440</v>
+        <v>2290</v>
       </c>
       <c r="G227" s="27" t="s">
-        <v>2434</v>
+        <v>2210</v>
       </c>
       <c r="H227" s="27" t="s">
-        <v>2435</v>
+        <v>2216</v>
       </c>
       <c r="I227" s="10"/>
       <c r="J227" s="10" t="s">
-        <v>2442</v>
-      </c>
-      <c r="K227" s="10" t="s">
-        <v>2444</v>
-      </c>
+        <v>2291</v>
+      </c>
+      <c r="K227" s="3"/>
       <c r="L227" s="10" t="s">
-        <v>2443</v>
+        <v>2292</v>
       </c>
       <c r="M227" s="3"/>
       <c r="N227" s="10" t="s">
-        <v>2441</v>
+        <v>2293</v>
       </c>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
       <c r="Q227" s="10" t="s">
-        <v>2445</v>
+        <v>2294</v>
       </c>
       <c r="R227" s="3"/>
       <c r="S227" s="3" t="s">
@@ -26848,50 +26873,56 @@
       <c r="T227" s="3"/>
       <c r="U227" s="3"/>
       <c r="V227" s="3" t="s">
-        <v>2238</v>
+        <v>2281</v>
       </c>
       <c r="W227" s="3"/>
       <c r="X227" s="10" t="s">
-        <v>2436</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="228" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>2461</v>
+        <v>2437</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>2457</v>
+        <v>2433</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>2304</v>
+        <v>2245</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>2462</v>
+        <v>2438</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>2463</v>
+        <v>2439</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>2464</v>
+        <v>2440</v>
       </c>
       <c r="G228" s="27" t="s">
-        <v>2458</v>
+        <v>2434</v>
       </c>
       <c r="H228" s="27" t="s">
-        <v>2459</v>
-      </c>
-      <c r="I228" s="10" t="s">
-        <v>2465</v>
-      </c>
-      <c r="J228" s="10"/>
-      <c r="K228" s="10"/>
-      <c r="L228" s="10"/>
+        <v>2435</v>
+      </c>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K228" s="10" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L228" s="10" t="s">
+        <v>2443</v>
+      </c>
       <c r="M228" s="3"/>
-      <c r="N228" s="10"/>
+      <c r="N228" s="10" t="s">
+        <v>2441</v>
+      </c>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
       <c r="Q228" s="10" t="s">
-        <v>2466</v>
+        <v>2445</v>
       </c>
       <c r="R228" s="3"/>
       <c r="S228" s="3" t="s">
@@ -26900,53 +26931,51 @@
       <c r="T228" s="3"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3" t="s">
-        <v>1832</v>
+        <v>2238</v>
       </c>
       <c r="W228" s="3"/>
       <c r="X228" s="10" t="s">
-        <v>2460</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="229" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>2490</v>
+        <v>2461</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>2478</v>
+        <v>2457</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>2492</v>
+        <v>2304</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>2493</v>
+        <v>2462</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>2494</v>
+        <v>2463</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>2495</v>
+        <v>2464</v>
       </c>
       <c r="G229" s="27" t="s">
-        <v>2482</v>
+        <v>2458</v>
       </c>
       <c r="H229" s="27" t="s">
-        <v>2486</v>
+        <v>2459</v>
       </c>
       <c r="I229" s="10" t="s">
-        <v>2496</v>
+        <v>2465</v>
       </c>
       <c r="J229" s="10"/>
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
       <c r="M229" s="3"/>
-      <c r="N229" s="10" t="s">
-        <v>2497</v>
-      </c>
+      <c r="N229" s="10"/>
       <c r="O229" s="10"/>
-      <c r="P229" s="10" t="s">
-        <v>2521</v>
-      </c>
-      <c r="Q229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10" t="s">
+        <v>2466</v>
+      </c>
       <c r="R229" s="3"/>
       <c r="S229" s="3" t="s">
         <v>1799</v>
@@ -26954,54 +26983,52 @@
       <c r="T229" s="3"/>
       <c r="U229" s="3"/>
       <c r="V229" s="3" t="s">
-        <v>1701</v>
+        <v>1832</v>
       </c>
       <c r="W229" s="3"/>
       <c r="X229" s="10" t="s">
-        <v>2491</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="230" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>2499</v>
+        <v>2490</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>2070</v>
+        <v>2492</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>2500</v>
+        <v>2493</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>2501</v>
+        <v>2494</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>2502</v>
+        <v>2495</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="H230" s="27" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="I230" s="10" t="s">
-        <v>2503</v>
-      </c>
-      <c r="J230" s="10" t="s">
-        <v>2506</v>
-      </c>
+        <v>2496</v>
+      </c>
+      <c r="J230" s="10"/>
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
       <c r="M230" s="3"/>
       <c r="N230" s="10" t="s">
-        <v>2504</v>
-      </c>
-      <c r="O230" s="10" t="s">
-        <v>2505</v>
-      </c>
-      <c r="P230" s="10"/>
+        <v>2497</v>
+      </c>
+      <c r="O230" s="10"/>
+      <c r="P230" s="10" t="s">
+        <v>2521</v>
+      </c>
       <c r="Q230" s="10"/>
       <c r="R230" s="3"/>
       <c r="S230" s="3" t="s">
@@ -27010,47 +27037,53 @@
       <c r="T230" s="3"/>
       <c r="U230" s="3"/>
       <c r="V230" s="3" t="s">
-        <v>2413</v>
+        <v>1701</v>
       </c>
       <c r="W230" s="3"/>
       <c r="X230" s="10" t="s">
-        <v>2498</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="231" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>2492</v>
+        <v>2070</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>2510</v>
+        <v>2501</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>2511</v>
+        <v>2502</v>
       </c>
       <c r="G231" s="27" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="H231" s="27" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>2512</v>
-      </c>
-      <c r="J231" s="10"/>
+        <v>2503</v>
+      </c>
+      <c r="J231" s="10" t="s">
+        <v>2506</v>
+      </c>
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
       <c r="M231" s="3"/>
-      <c r="N231" s="10"/>
-      <c r="O231" s="10"/>
+      <c r="N231" s="10" t="s">
+        <v>2504</v>
+      </c>
+      <c r="O231" s="10" t="s">
+        <v>2505</v>
+      </c>
       <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
       <c r="R231" s="3"/>
@@ -27060,52 +27093,48 @@
       <c r="T231" s="3"/>
       <c r="U231" s="3"/>
       <c r="V231" s="3" t="s">
-        <v>2281</v>
+        <v>2413</v>
       </c>
       <c r="W231" s="3"/>
       <c r="X231" s="10" t="s">
-        <v>2508</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="232" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>2492</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="I232" s="10" t="s">
-        <v>2518</v>
-      </c>
-      <c r="J232" s="10" t="s">
-        <v>2519</v>
-      </c>
+        <v>2512</v>
+      </c>
+      <c r="J232" s="10"/>
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
       <c r="M232" s="3"/>
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
-      <c r="P232" s="10" t="s">
-        <v>2520</v>
-      </c>
+      <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
       <c r="R232" s="3"/>
       <c r="S232" s="3" t="s">
@@ -27114,57 +27143,53 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3" t="s">
-        <v>1701</v>
+        <v>2281</v>
       </c>
       <c r="W232" s="3"/>
       <c r="X232" s="10" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="233" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>2564</v>
+        <v>2513</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>2560</v>
+        <v>2481</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>2245</v>
+        <v>2492</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>2565</v>
+        <v>2515</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>2566</v>
+        <v>2516</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>2567</v>
+        <v>2517</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>2561</v>
+        <v>2485</v>
       </c>
       <c r="H233" s="27" t="s">
-        <v>2562</v>
-      </c>
-      <c r="I233" s="10"/>
+        <v>2489</v>
+      </c>
+      <c r="I233" s="10" t="s">
+        <v>2518</v>
+      </c>
       <c r="J233" s="10" t="s">
-        <v>2569</v>
-      </c>
-      <c r="K233" s="10" t="s">
-        <v>2571</v>
-      </c>
-      <c r="L233" s="10" t="s">
-        <v>2570</v>
-      </c>
+        <v>2519</v>
+      </c>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
       <c r="M233" s="3"/>
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
       <c r="P233" s="10" t="s">
-        <v>2568</v>
-      </c>
-      <c r="Q233" s="10" t="s">
-        <v>2572</v>
-      </c>
+        <v>2520</v>
+      </c>
+      <c r="Q233" s="10"/>
       <c r="R233" s="3"/>
       <c r="S233" s="3" t="s">
         <v>1799</v>
@@ -27172,50 +27197,56 @@
       <c r="T233" s="3"/>
       <c r="U233" s="3"/>
       <c r="V233" s="3" t="s">
-        <v>2025</v>
+        <v>1701</v>
       </c>
       <c r="W233" s="3"/>
       <c r="X233" s="10" t="s">
-        <v>2563</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>2577</v>
+        <v>2564</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>2573</v>
+        <v>2560</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>2070</v>
+        <v>2245</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>2579</v>
+        <v>2566</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>2580</v>
+        <v>2567</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>2574</v>
+        <v>2561</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>2575</v>
+        <v>2562</v>
       </c>
       <c r="I234" s="10"/>
-      <c r="J234" s="10"/>
-      <c r="K234" s="10"/>
-      <c r="L234" s="10"/>
+      <c r="J234" s="10" t="s">
+        <v>2569</v>
+      </c>
+      <c r="K234" s="10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="L234" s="10" t="s">
+        <v>2570</v>
+      </c>
       <c r="M234" s="3"/>
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
       <c r="P234" s="10" t="s">
-        <v>2581</v>
+        <v>2568</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>2582</v>
+        <v>2572</v>
       </c>
       <c r="R234" s="3"/>
       <c r="S234" s="3" t="s">
@@ -27224,53 +27255,51 @@
       <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3" t="s">
-        <v>2252</v>
+        <v>2025</v>
       </c>
       <c r="W234" s="3"/>
       <c r="X234" s="10" t="s">
-        <v>2576</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="235" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="G235" s="27" t="s">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="H235" s="27" t="s">
-        <v>2585</v>
-      </c>
-      <c r="I235" s="10" t="s">
-        <v>2593</v>
-      </c>
+        <v>2575</v>
+      </c>
+      <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="10"/>
       <c r="L235" s="10"/>
       <c r="M235" s="3"/>
-      <c r="N235" s="10" t="s">
-        <v>2591</v>
-      </c>
+      <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10" t="s">
-        <v>2592</v>
-      </c>
-      <c r="Q235" s="10"/>
+        <v>2581</v>
+      </c>
+      <c r="Q235" s="10" t="s">
+        <v>2582</v>
+      </c>
       <c r="R235" s="3"/>
       <c r="S235" s="3" t="s">
         <v>1799</v>
@@ -27278,99 +27307,95 @@
       <c r="T235" s="3"/>
       <c r="U235" s="3"/>
       <c r="V235" s="3" t="s">
-        <v>2025</v>
+        <v>2252</v>
       </c>
       <c r="W235" s="3"/>
       <c r="X235" s="10" t="s">
-        <v>2586</v>
+        <v>2576</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="14.25" customHeight="1">
+    <row r="236" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>10</v>
+        <v>2587</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1829</v>
+        <v>2583</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>163</v>
+        <v>2072</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>2588</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>164</v>
+        <v>2589</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
+        <v>2590</v>
+      </c>
+      <c r="G236" s="27" t="s">
+        <v>2584</v>
+      </c>
+      <c r="H236" s="27" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I236" s="10" t="s">
+        <v>2593</v>
+      </c>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
+      <c r="L236" s="10"/>
       <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
-      <c r="P236" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q236" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="N236" s="10" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O236" s="10"/>
+      <c r="P236" s="10" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Q236" s="10"/>
       <c r="R236" s="3"/>
       <c r="S236" s="3" t="s">
-        <v>1798</v>
-      </c>
-      <c r="T236" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U236" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V236" s="3">
-        <v>3.7</v>
+        <v>1799</v>
+      </c>
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3" t="s">
+        <v>2025</v>
       </c>
       <c r="W236" s="3"/>
-      <c r="X236" s="3" t="s">
-        <v>170</v>
+      <c r="X236" s="10" t="s">
+        <v>2586</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="20" customHeight="1">
+    <row r="237" spans="1:24" ht="14.25" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1497</v>
+        <v>1829</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -27378,14 +27403,14 @@
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
       <c r="P237" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="Q237" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="R237" s="3"/>
-      <c r="S237" s="18" t="s">
-        <v>161</v>
+      <c r="S237" s="3" t="s">
+        <v>1798</v>
       </c>
       <c r="T237" s="3" t="s">
         <v>169</v>
@@ -27394,41 +27419,41 @@
         <v>162</v>
       </c>
       <c r="V237" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W237" s="3"/>
       <c r="X237" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="20" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="I238" s="3"/>
       <c r="J238" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -27436,13 +27461,13 @@
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
       <c r="P238" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="R238" s="3"/>
-      <c r="S238" s="3" t="s">
+      <c r="S238" s="18" t="s">
         <v>161</v>
       </c>
       <c r="T238" s="3" t="s">
@@ -27452,41 +27477,41 @@
         <v>162</v>
       </c>
       <c r="V238" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W238" s="3"/>
       <c r="X238" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="20" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -27494,10 +27519,10 @@
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
       <c r="P239" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R239" s="3"/>
       <c r="S239" s="3" t="s">
@@ -27510,41 +27535,41 @@
         <v>162</v>
       </c>
       <c r="V239" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="20" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>2557</v>
+        <v>14</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="I240" s="3"/>
       <c r="J240" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -27552,10 +27577,10 @@
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
       <c r="P240" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="R240" s="3"/>
       <c r="S240" s="3" t="s">
@@ -27568,41 +27593,41 @@
         <v>162</v>
       </c>
       <c r="V240" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W240" s="3"/>
       <c r="X240" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="20" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>15</v>
+        <v>2557</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -27610,10 +27635,10 @@
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
       <c r="P241" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q241" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R241" s="3"/>
       <c r="S241" s="3" t="s">
@@ -27626,41 +27651,41 @@
         <v>162</v>
       </c>
       <c r="V241" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W241" s="3"/>
       <c r="X241" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="242" spans="1:24" ht="20" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
@@ -27668,10 +27693,10 @@
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R242" s="3"/>
       <c r="S242" s="3" t="s">
@@ -27684,41 +27709,41 @@
         <v>162</v>
       </c>
       <c r="V242" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W242" s="3"/>
       <c r="X242" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="243" spans="1:24" ht="20" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -27726,10 +27751,10 @@
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
       <c r="P243" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q243" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="R243" s="3"/>
       <c r="S243" s="3" t="s">
@@ -27742,41 +27767,41 @@
         <v>162</v>
       </c>
       <c r="V243" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="20" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I244" s="3"/>
       <c r="J244" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -27784,10 +27809,10 @@
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
       <c r="P244" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q244" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="R244" s="3"/>
       <c r="S244" s="3" t="s">
@@ -27800,41 +27825,41 @@
         <v>162</v>
       </c>
       <c r="V244" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="20" customHeight="1">
-      <c r="A245" s="41" t="s">
-        <v>2335</v>
+      <c r="A245" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="I245" s="3"/>
       <c r="J245" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -27842,10 +27867,10 @@
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
       <c r="P245" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q245" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R245" s="3"/>
       <c r="S245" s="3" t="s">
@@ -27858,41 +27883,41 @@
         <v>162</v>
       </c>
       <c r="V245" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W245" s="3"/>
       <c r="X245" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="20" customHeight="1">
-      <c r="A246" s="2" t="s">
-        <v>117</v>
+      <c r="A246" s="41" t="s">
+        <v>2335</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1993</v>
+        <v>1505</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>1081</v>
+        <v>239</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>1082</v>
+        <v>240</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>1083</v>
+        <v>241</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>1606</v>
+        <v>1689</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>1606</v>
+        <v>1689</v>
       </c>
       <c r="I246" s="3"/>
       <c r="J246" s="3" t="s">
-        <v>1084</v>
+        <v>242</v>
       </c>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
@@ -27900,220 +27925,278 @@
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
       <c r="P246" s="3" t="s">
-        <v>1085</v>
+        <v>243</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>1086</v>
+        <v>244</v>
       </c>
       <c r="R246" s="3"/>
       <c r="S246" s="3" t="s">
         <v>161</v>
       </c>
       <c r="T246" s="3" t="s">
-        <v>1038</v>
+        <v>169</v>
       </c>
       <c r="U246" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="V246" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W246" s="3"/>
       <c r="X246" s="3" t="s">
-        <v>1087</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="20" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B247" s="33" t="s">
-        <v>2165</v>
+        <v>117</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1993</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D247" s="33" t="s">
-        <v>2166</v>
-      </c>
-      <c r="E247" s="33" t="s">
-        <v>2167</v>
-      </c>
-      <c r="F247" s="33" t="s">
-        <v>180</v>
+        <v>353</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>1083</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>2169</v>
+        <v>1606</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="I247" s="34" t="s">
-        <v>2168</v>
-      </c>
-      <c r="Q247" s="34" t="s">
-        <v>2171</v>
-      </c>
+        <v>1606</v>
+      </c>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q247" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R247" s="3"/>
       <c r="S247" s="3" t="s">
         <v>161</v>
       </c>
       <c r="T247" s="3" t="s">
-        <v>169</v>
+        <v>1038</v>
       </c>
       <c r="U247" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V247" s="39">
-        <v>4.8</v>
-      </c>
-      <c r="X247" s="34" t="s">
-        <v>2164</v>
+        <v>353</v>
+      </c>
+      <c r="V247" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="20" customHeight="1">
-      <c r="A248" s="33" t="s">
-        <v>2404</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>2395</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>2405</v>
+      <c r="A248" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B248" s="33" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>2408</v>
+        <v>2166</v>
       </c>
       <c r="E248" s="33" t="s">
-        <v>2409</v>
+        <v>2167</v>
       </c>
       <c r="F248" s="33" t="s">
-        <v>2410</v>
+        <v>180</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>2398</v>
+        <v>2169</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>2401</v>
-      </c>
-      <c r="J248" s="34" t="s">
-        <v>2411</v>
+        <v>2170</v>
+      </c>
+      <c r="I248" s="34" t="s">
+        <v>2168</v>
       </c>
       <c r="Q248" s="34" t="s">
-        <v>2412</v>
+        <v>2171</v>
       </c>
       <c r="S248" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V248" s="40" t="s">
-        <v>2407</v>
+      <c r="T248" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U248" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V248" s="39">
+        <v>4.8</v>
       </c>
       <c r="X248" s="34" t="s">
-        <v>2406</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="20" customHeight="1">
       <c r="A249" s="33" t="s">
-        <v>2415</v>
+        <v>2404</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2245</v>
+        <v>2405</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
       <c r="E249" s="33" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="F249" s="33" t="s">
-        <v>2418</v>
+        <v>2410</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>2402</v>
-      </c>
-      <c r="I249" s="34" t="s">
-        <v>2420</v>
+        <v>2401</v>
       </c>
       <c r="J249" s="34" t="s">
-        <v>2422</v>
-      </c>
-      <c r="O249" s="34" t="s">
-        <v>2421</v>
-      </c>
-      <c r="P249" s="34" t="s">
-        <v>2419</v>
+        <v>2411</v>
       </c>
       <c r="Q249" s="34" t="s">
-        <v>2423</v>
-      </c>
-      <c r="R249" s="34" t="s">
-        <v>2424</v>
+        <v>2412</v>
       </c>
       <c r="S249" s="3" t="s">
         <v>161</v>
       </c>
       <c r="V249" s="40" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="X249" s="34" t="s">
-        <v>2414</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="20" customHeight="1">
-      <c r="A250" s="45" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B250" s="33" t="s">
-        <v>2397</v>
+      <c r="A250" s="33" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>2396</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1843</v>
+        <v>2245</v>
       </c>
       <c r="D250" s="33" t="s">
-        <v>2426</v>
+        <v>2416</v>
       </c>
       <c r="E250" s="33" t="s">
-        <v>2427</v>
+        <v>2417</v>
       </c>
       <c r="F250" s="33" t="s">
-        <v>643</v>
+        <v>2418</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="I250" s="34" t="s">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="J250" s="34" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L250" s="34" t="s">
-        <v>2429</v>
+        <v>2422</v>
+      </c>
+      <c r="O250" s="34" t="s">
+        <v>2421</v>
       </c>
       <c r="P250" s="34" t="s">
-        <v>2431</v>
+        <v>2419</v>
+      </c>
+      <c r="Q250" s="34" t="s">
+        <v>2423</v>
+      </c>
+      <c r="R250" s="34" t="s">
+        <v>2424</v>
       </c>
       <c r="S250" s="3" t="s">
         <v>161</v>
       </c>
       <c r="V250" s="40" t="s">
+        <v>2413</v>
+      </c>
+      <c r="X250" s="34" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" ht="20" customHeight="1">
+      <c r="A251" s="45" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B251" s="33" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D251" s="33" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E251" s="33" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F251" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I251" s="34" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J251" s="34" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L251" s="34" t="s">
+        <v>2429</v>
+      </c>
+      <c r="P251" s="34" t="s">
+        <v>2431</v>
+      </c>
+      <c r="S251" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V251" s="40" t="s">
         <v>2407</v>
       </c>
-      <c r="X250" s="33" t="s">
+      <c r="X251" s="33" t="s">
         <v>2425</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X246">
-    <sortCondition ref="B2:B246"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X247">
+    <sortCondition ref="B2:B247"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -28122,53 +28205,53 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J145" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="X145" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J146" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X146" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I78" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="X78" r:id="rId4" display="https://www.google.com.tw/maps/place/%E8%8F%AF%E6%BD%AE%E6%89%8B%E5%89%B5%E6%96%99%E7%90%86(%E7%84%A1%E6%8E%A5%E8%A7%B8%E5%8F%96%E9%A4%90)%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81/@25.0575831,121.3681544,16.96z/data=!4m5!3m4!1s0x3442a73b73246999:0xb466e5bd6aabb4e4!8m2!3d25.0591822!4d121.3698732?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P146" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q146" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X146" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I147" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="X147" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q148" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="X148" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J149" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="X149" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J150" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="X150" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J151" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="X151" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J152" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="X152" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J155" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="X155" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J156" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="X156" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J157" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="X157" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J158" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="X158" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J160" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="X160" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J162" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="X162" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J164" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="X164" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J165" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="X165" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J166" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="X166" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="X167" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J168" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="X168" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="X170" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="P171" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q171" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I172" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="X172" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J173" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="X173" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P147" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q147" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X147" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I148" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="X148" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q149" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="X149" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J150" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="X150" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J151" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="X151" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J152" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="X152" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J153" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="X153" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J156" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="X156" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J157" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="X157" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J158" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="X158" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J159" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="X159" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J161" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="X161" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J163" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="X163" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J165" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="X165" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J166" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="X166" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J167" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="X167" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="X168" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J169" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="X169" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="X171" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="P172" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q172" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I173" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="X173" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J174" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="X174" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="J81" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="I82" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="X82" r:id="rId50" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E5%B0%87%E8%9D%A6+%E6%B3%B0%E5%9C%8B%E6%B4%BB%E8%9D%A6%E4%B8%BB%E9%A1%8C%E9%A4%90%E5%BB%B3+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0534873,121.3570401,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a74be9237db1:0x9e3ccd92158515f5!8m2!3d25.0534825!4d121.3592342?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
@@ -28178,65 +28261,65 @@
     <hyperlink ref="X84" r:id="rId54" display="https://www.google.com.tw/maps/place/%E9%A8%B7%E4%B8%BC%E3%80%82%E6%88%91%E7%9A%84%E5%BF%83%E5%9C%A8%E9%A1%AB%E6%8A%96-%E6%9E%97%E5%8F%A3%E5%BA%97(%E4%B8%BC%E9%A3%AF%E5%B0%88%E8%B3%A3%E5%BA%97).%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E9%95%B7%E5%BA%9A%E7%BE%8E%E9%A3%9F%2F%E6%97%A5%E5%BC%8F%E4%B8%BC%E9%A3%AF%2F%E6%97%A5%E5%BC%8F%E4%BE%BF%E7%95%B6%2F%E4%B8%BC%E9%A3%AF%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E5%BF%85%E5%90%83%2F%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%2F%E6%9E%97%E5%8F%A3%E5%BF%85%E5%90%83/@25.0520445,121.3603185,16z/data=!4m5!3m4!1s0x3442a75f9f424f75:0x93cf04fd7c8efe16!8m2!3d25.0523422!4d121.3652246?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="J85" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="X85" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J175" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="X175" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J176" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="X176" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="X177" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J178" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J179" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="X179" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J180" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="X180" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J181" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="X181" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J182" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="X182" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J183" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="X183" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J184" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="X184" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J176" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="X176" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J177" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="X177" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="X178" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J179" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J180" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="X180" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J181" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="X181" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J182" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="X182" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J183" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="X183" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J184" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="X184" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J185" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="X185" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="J88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="X88" r:id="rId76" display="https://www.google.com.tw/maps/place/%E8%B1%AC%E5%B0%8D%E6%9C%89%E7%87%92%E7%83%A4%E5%90%83%E5%88%B0%E9%A3%BD+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0573643,121.3646916,17z/data=!4m5!3m4!1s0x3442a7bb6b778aaf:0xbda3de9d60485dc5!8m2!3d25.0573595!4d121.3668856?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="R91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="X89" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J186" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="X186" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J187" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="X187" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J188" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="X188" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J189" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="X189" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J191" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="X191" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J187" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="X187" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J188" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="X188" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J189" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="X189" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J190" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="X190" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J192" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="X192" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="R92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="X92" r:id="rId90" display="https://www.google.com.tw/maps/place/%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%88%E5%AF%B5%E7%89%A9%E5%8F%8B%E5%96%84%EF%BC%89/@25.055566,121.3601271,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7c690e6c15f:0x67925f1c40e9f6b7!8m2!3d25.055566!4d121.3623211?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="J93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="X93" r:id="rId92" display="https://www.google.com.tw/maps/place/%E5%93%81%E6%82%85%E9%A3%9F%E5%A0%82-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E9%99%84%E8%BF%91%E7%BE%8E%E9%A3%9F%7C%E8%8F%AF%E4%BA%9E%E5%9C%92%E5%8D%80%E7%89%B9%E8%89%B2%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E8%8F%AF%E4%BA%9E%E5%A4%96%E9%80%81%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E9%95%B7%E5%BA%9A%E6%8E%A8%E8%96%A6%E4%BE%BF%E7%95%B6%7C%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%E4%BE%BF%E7%95%B6%7C%E4%BE%BF%E7%95%B6%E5%BA%97%E6%8E%A8%E8%96%A6/@25.0589757,121.3631455,17.02z/data=!3m1!5s0x3442a736dc029dcf:0xe75dc58e04184938!4m5!3m4!1s0x3442a7309c04a1c1:0xbaf43782b13152bd!8m2!3d25.0589694!4d121.3653643?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="I94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="X94" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J193" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="X193" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J195" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="X195" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J196" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="X196" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="X197" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="X198" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J194" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="X194" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J196" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="X196" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J197" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="X197" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="X198" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="X199" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="X95" r:id="rId103" display="https://www.google.com.tw/maps/place/%E4%B8%80%E5%B0%87%E5%A3%BD%E5%8F%B8+One+Show+Sushi/@25.0551207,121.3650204,17z/data=!3m2!4b1!5s0x3442a739bf3b5e29:0x588981558b0d7dc4!4m5!3m4!1s0x3442a7d1c25ea1ed:0xc9fd7840e5972c3e!8m2!3d25.0551207!4d121.3672144?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="J98" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="X98" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J200" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="X200" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J201" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="X201" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J202" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="X202" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J204" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="X204" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J205" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="X205" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J201" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="X201" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J202" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="X202" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J203" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="X203" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J205" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="X205" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J206" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="X206" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="I53" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="X53" r:id="rId117" display="https://www.google.com.tw/maps/place/%E6%AF%AB%E7%B1%B3%E5%92%96%E5%95%A1Millimetre+Cafe/@25.0298636,121.3862162,17z/data=!4m14!1m8!3m7!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!2z5q-r57Gz5ZKW5ZWhTWlsbGltZXRyZSBDYWZl!8m2!3d25.0298622!4d121.3883815!14m1!1BCgIgAQ!3m4!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!8m2!3d25.0298622!4d121.3883815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="J99" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
@@ -28248,14 +28331,14 @@
     <hyperlink ref="I102" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="P102" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="Q102" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J208" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="X208" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J209" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="X209" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J210" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="X210" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J212" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="X212" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J209" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="X209" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J210" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="X210" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J211" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="X211" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J213" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="X213" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
     <hyperlink ref="J104" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="X104" r:id="rId136" location="rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:%5B%5B25.073528099999997,121.4300487%5D,%5B24.9801288,121.3005194%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;sxsrf=AOaemvJa0u7lJKPsiRcVtRvDZjJyqxtl4Q:1637397953224&amp;source=hp&amp;ei=trWYYbLdOJHrmAXbm4PoCA&amp;iflsig=ALs-wAMAAAAAYZjDxqQGKRPaWKt9BL6Rh_jmWRGiCMWB&amp;ved=2ahUKEwie5O3axqb0AhVIrVYBHQC9AKkQvS56BAgKEDw&amp;uact=5&amp;oq=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEM0COgcIIxDqAhAnOg0ILhDHARCvARDqAhAnOgQIIxAnOg4ILhCABBCxAxDHARDRAzoICAAQgAQQsQM6DgguEIAEELEDEMcBEKMCOgUILhCABDoFCAAQgAQ6BAgAEEM6CggAELEDEIMBEEM6CwgAEIAEELEDEIMBOggILhCABBCxAzoLCC4QgAQQxwEQrwE6CAgAELEDEIMBOgsILhCABBCxAxCDAToCCCZQuQ5YlUFgqUdoA3AAeACAAWaIAfsIkgEEMTYuMZgBAKABAbABCg&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=11820264403630838222&amp;lqi=Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF&amp;phdesc=dUIbgtEpGm0&amp;rlst=f#rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:[[25.073528099999997,121.4300487],[24.9801288,121.3005194]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
     <hyperlink ref="J105" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
@@ -28346,103 +28429,103 @@
     <hyperlink ref="N22" r:id="rId222" display="https://www.ubereats.com/tw/store/joyfull-%E5%AE%B6%E6%A8%82%E7%A6%8F%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/KqxuraEhVbmGUWxJ59Q3eQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{3B8E6762-401E-1047-9C79-DB854A6C0493}"/>
     <hyperlink ref="N25" r:id="rId223" display="https://www.ubereats.com/tw/store/%E6%97%A9%E6%97%A9%E9%BB%9E%E7%82%AD%E7%81%AB%E4%B8%89%E6%98%8E%E6%B2%BB/2uoTMVvsWSO5glewU92HhQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{2AE7BA2A-AA82-AE45-8316-39C67A2280BA}"/>
     <hyperlink ref="N28" r:id="rId224" display="https://www.ubereats.com/tw/store/%E6%B8%85%E5%BF%83%E7%A6%8F%E5%85%A8-%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/VJfrU05JVMK23SqLnhBUfQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{F645F1A7-85B6-C94B-ABBF-91F4C7C7D644}"/>
-    <hyperlink ref="X216" r:id="rId225" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
-    <hyperlink ref="Q216" r:id="rId226" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
-    <hyperlink ref="P216" r:id="rId227" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
-    <hyperlink ref="I216" r:id="rId228" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
+    <hyperlink ref="X217" r:id="rId225" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
+    <hyperlink ref="Q217" r:id="rId226" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
+    <hyperlink ref="P217" r:id="rId227" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
+    <hyperlink ref="I217" r:id="rId228" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
     <hyperlink ref="X126" r:id="rId229" display="https://www.google.com/maps/place/%E8%A5%BF%E5%A0%A4%E7%89%9B%E6%8E%92+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0558945,121.3623937,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fa20a4931d:0xbf676917d5844524!8m2!3d25.0558897!4d121.364974!16s%2Fg%2F11vbzb_7x6?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{48100F0D-8564-4D4F-A2F7-C01190A592F3}"/>
     <hyperlink ref="I126" r:id="rId230" xr:uid="{70075A5E-07D7-C643-8900-F1F53B633058}"/>
     <hyperlink ref="I127" r:id="rId231" xr:uid="{C63E6F88-32E9-E145-8659-BC34F5A3224E}"/>
-    <hyperlink ref="X217" r:id="rId232" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
-    <hyperlink ref="I217" r:id="rId233" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
-    <hyperlink ref="K217" r:id="rId234" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
-    <hyperlink ref="J216" r:id="rId235" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
-    <hyperlink ref="Q173" r:id="rId236" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
-    <hyperlink ref="N174" r:id="rId237" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
-    <hyperlink ref="O174" r:id="rId238" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
-    <hyperlink ref="I174" r:id="rId239" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
-    <hyperlink ref="I185" r:id="rId240" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
-    <hyperlink ref="N204" r:id="rId241" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
-    <hyperlink ref="O204" r:id="rId242" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
-    <hyperlink ref="I213" r:id="rId243" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
-    <hyperlink ref="N213" r:id="rId244" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
-    <hyperlink ref="O213" r:id="rId245" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
-    <hyperlink ref="I158" r:id="rId246" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
-    <hyperlink ref="I161" r:id="rId247" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
-    <hyperlink ref="N161" r:id="rId248" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
-    <hyperlink ref="I152" r:id="rId249" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
-    <hyperlink ref="K145" r:id="rId250" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
-    <hyperlink ref="I144" r:id="rId251" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
-    <hyperlink ref="N171" r:id="rId252" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
-    <hyperlink ref="I170" r:id="rId253" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
-    <hyperlink ref="N190" r:id="rId254" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
-    <hyperlink ref="I187" r:id="rId255" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
-    <hyperlink ref="L203" r:id="rId256" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
-    <hyperlink ref="I183" r:id="rId257" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
-    <hyperlink ref="N183" r:id="rId258" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
-    <hyperlink ref="O183" r:id="rId259" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
-    <hyperlink ref="I154" r:id="rId260" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
-    <hyperlink ref="N154" r:id="rId261" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
-    <hyperlink ref="O154" r:id="rId262" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
-    <hyperlink ref="I177" r:id="rId263" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
-    <hyperlink ref="I150" r:id="rId264" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
-    <hyperlink ref="I157" r:id="rId265" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
-    <hyperlink ref="O157" r:id="rId266" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
-    <hyperlink ref="N169" r:id="rId267" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
-    <hyperlink ref="I169" r:id="rId268" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
-    <hyperlink ref="I197" r:id="rId269" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
-    <hyperlink ref="N198" r:id="rId270" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
-    <hyperlink ref="O198" r:id="rId271" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
-    <hyperlink ref="I198" r:id="rId272" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
-    <hyperlink ref="I202" r:id="rId273" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
-    <hyperlink ref="N208" r:id="rId274" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
-    <hyperlink ref="I212" r:id="rId275" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
-    <hyperlink ref="N212" r:id="rId276" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
-    <hyperlink ref="O212" r:id="rId277" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
-    <hyperlink ref="I191" r:id="rId278" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
-    <hyperlink ref="N191" r:id="rId279" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
-    <hyperlink ref="I196" r:id="rId280" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
-    <hyperlink ref="I201" r:id="rId281" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
-    <hyperlink ref="I168" r:id="rId282" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
-    <hyperlink ref="O168" r:id="rId283" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
-    <hyperlink ref="I182" r:id="rId284" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
-    <hyperlink ref="I159" r:id="rId285" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
-    <hyperlink ref="J147" r:id="rId286" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
-    <hyperlink ref="I175" r:id="rId287" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
-    <hyperlink ref="I180" r:id="rId288" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
-    <hyperlink ref="I179" r:id="rId289" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
-    <hyperlink ref="I188" r:id="rId290" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
-    <hyperlink ref="N188" r:id="rId291" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
-    <hyperlink ref="O188" r:id="rId292" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
-    <hyperlink ref="I189" r:id="rId293" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
-    <hyperlink ref="O189" r:id="rId294" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
-    <hyperlink ref="N165" r:id="rId295" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
-    <hyperlink ref="O165" r:id="rId296" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
-    <hyperlink ref="I149" r:id="rId297" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
-    <hyperlink ref="I156" r:id="rId298" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
-    <hyperlink ref="N195" r:id="rId299" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
-    <hyperlink ref="P195" r:id="rId300" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
-    <hyperlink ref="I178" r:id="rId301" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
-    <hyperlink ref="N194" r:id="rId302" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
-    <hyperlink ref="O194" r:id="rId303" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
-    <hyperlink ref="I186" r:id="rId304" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
-    <hyperlink ref="N186" r:id="rId305" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
-    <hyperlink ref="N215" r:id="rId306" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
-    <hyperlink ref="P215" r:id="rId307" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
-    <hyperlink ref="O211" r:id="rId308" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
-    <hyperlink ref="I164" r:id="rId309" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
-    <hyperlink ref="I155" r:id="rId310" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
-    <hyperlink ref="N155" r:id="rId311" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
-    <hyperlink ref="N200" r:id="rId312" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
-    <hyperlink ref="R200" r:id="rId313" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
-    <hyperlink ref="R210" r:id="rId314" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
-    <hyperlink ref="N209" r:id="rId315" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
-    <hyperlink ref="O209" r:id="rId316" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
-    <hyperlink ref="I163" r:id="rId317" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
-    <hyperlink ref="I143" r:id="rId318" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
-    <hyperlink ref="I193" r:id="rId319" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
-    <hyperlink ref="N193" r:id="rId320" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
-    <hyperlink ref="O193" r:id="rId321" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
+    <hyperlink ref="X218" r:id="rId232" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
+    <hyperlink ref="I218" r:id="rId233" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
+    <hyperlink ref="K218" r:id="rId234" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
+    <hyperlink ref="J217" r:id="rId235" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
+    <hyperlink ref="Q174" r:id="rId236" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
+    <hyperlink ref="N175" r:id="rId237" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
+    <hyperlink ref="O175" r:id="rId238" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
+    <hyperlink ref="I175" r:id="rId239" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
+    <hyperlink ref="I186" r:id="rId240" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
+    <hyperlink ref="N205" r:id="rId241" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
+    <hyperlink ref="O205" r:id="rId242" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
+    <hyperlink ref="I214" r:id="rId243" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
+    <hyperlink ref="N214" r:id="rId244" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
+    <hyperlink ref="O214" r:id="rId245" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
+    <hyperlink ref="I159" r:id="rId246" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
+    <hyperlink ref="I162" r:id="rId247" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
+    <hyperlink ref="N162" r:id="rId248" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
+    <hyperlink ref="I153" r:id="rId249" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
+    <hyperlink ref="K146" r:id="rId250" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
+    <hyperlink ref="I145" r:id="rId251" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
+    <hyperlink ref="N172" r:id="rId252" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
+    <hyperlink ref="I171" r:id="rId253" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
+    <hyperlink ref="N191" r:id="rId254" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
+    <hyperlink ref="I188" r:id="rId255" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
+    <hyperlink ref="L204" r:id="rId256" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
+    <hyperlink ref="I184" r:id="rId257" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
+    <hyperlink ref="N184" r:id="rId258" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
+    <hyperlink ref="O184" r:id="rId259" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
+    <hyperlink ref="I155" r:id="rId260" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
+    <hyperlink ref="N155" r:id="rId261" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
+    <hyperlink ref="O155" r:id="rId262" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
+    <hyperlink ref="I178" r:id="rId263" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
+    <hyperlink ref="I151" r:id="rId264" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
+    <hyperlink ref="I158" r:id="rId265" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
+    <hyperlink ref="O158" r:id="rId266" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
+    <hyperlink ref="N170" r:id="rId267" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
+    <hyperlink ref="I170" r:id="rId268" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
+    <hyperlink ref="I198" r:id="rId269" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
+    <hyperlink ref="N199" r:id="rId270" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
+    <hyperlink ref="O199" r:id="rId271" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
+    <hyperlink ref="I199" r:id="rId272" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
+    <hyperlink ref="I203" r:id="rId273" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
+    <hyperlink ref="N209" r:id="rId274" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
+    <hyperlink ref="I213" r:id="rId275" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
+    <hyperlink ref="N213" r:id="rId276" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
+    <hyperlink ref="O213" r:id="rId277" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
+    <hyperlink ref="I192" r:id="rId278" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
+    <hyperlink ref="N192" r:id="rId279" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
+    <hyperlink ref="I197" r:id="rId280" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
+    <hyperlink ref="I202" r:id="rId281" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
+    <hyperlink ref="I169" r:id="rId282" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
+    <hyperlink ref="O169" r:id="rId283" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
+    <hyperlink ref="I183" r:id="rId284" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
+    <hyperlink ref="I160" r:id="rId285" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
+    <hyperlink ref="J148" r:id="rId286" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
+    <hyperlink ref="I176" r:id="rId287" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
+    <hyperlink ref="I181" r:id="rId288" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
+    <hyperlink ref="I180" r:id="rId289" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
+    <hyperlink ref="I189" r:id="rId290" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
+    <hyperlink ref="N189" r:id="rId291" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
+    <hyperlink ref="O189" r:id="rId292" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
+    <hyperlink ref="I190" r:id="rId293" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
+    <hyperlink ref="O190" r:id="rId294" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
+    <hyperlink ref="N166" r:id="rId295" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
+    <hyperlink ref="O166" r:id="rId296" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
+    <hyperlink ref="I150" r:id="rId297" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
+    <hyperlink ref="I157" r:id="rId298" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
+    <hyperlink ref="N196" r:id="rId299" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
+    <hyperlink ref="P196" r:id="rId300" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
+    <hyperlink ref="I179" r:id="rId301" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
+    <hyperlink ref="N195" r:id="rId302" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
+    <hyperlink ref="O195" r:id="rId303" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
+    <hyperlink ref="I187" r:id="rId304" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
+    <hyperlink ref="N187" r:id="rId305" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
+    <hyperlink ref="N216" r:id="rId306" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
+    <hyperlink ref="P216" r:id="rId307" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
+    <hyperlink ref="O212" r:id="rId308" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
+    <hyperlink ref="I165" r:id="rId309" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
+    <hyperlink ref="I156" r:id="rId310" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
+    <hyperlink ref="N156" r:id="rId311" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
+    <hyperlink ref="N201" r:id="rId312" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
+    <hyperlink ref="R201" r:id="rId313" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
+    <hyperlink ref="R211" r:id="rId314" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
+    <hyperlink ref="N210" r:id="rId315" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
+    <hyperlink ref="O210" r:id="rId316" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
+    <hyperlink ref="I164" r:id="rId317" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
+    <hyperlink ref="I144" r:id="rId318" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
+    <hyperlink ref="I194" r:id="rId319" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
+    <hyperlink ref="N194" r:id="rId320" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
+    <hyperlink ref="O194" r:id="rId321" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
     <hyperlink ref="X54" r:id="rId322" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{45D9C521-E559-BC45-9F85-DFFC37D7B69D}"/>
     <hyperlink ref="N54" r:id="rId323" xr:uid="{79B50CB0-12F4-C141-B83C-09C7A9EBCF2A}"/>
     <hyperlink ref="X55" r:id="rId324" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AD16DD2F-FF20-054D-959B-2FDBCE9082ED}"/>
@@ -28456,12 +28539,12 @@
     <hyperlink ref="X131" r:id="rId332" display="https://www.google.com/maps/place/%E4%B8%89%E9%85%89%E9%A3%9B%E9%8F%A2%E5%92%96%E5%95%A1/@25.058021,121.36383,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7995ba96e8f:0x101be62f285e81fd!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11vkzdp2qv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{6B9CF67F-3753-7E47-ABEA-C7BEFBFC822D}"/>
     <hyperlink ref="L131" r:id="rId333" xr:uid="{1636779D-027B-0948-AE18-A5709BD9AF5E}"/>
     <hyperlink ref="X132" r:id="rId334" display="https://www.google.com/maps/place/%E5%A4%A7%E5%9F%94%E9%90%B5%E6%9D%BF%E7%87%92+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0580209,121.3615447,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78fc5146187:0xf1963846e2e35431!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11l1hz59w_?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{8CBDF53E-B1B8-444D-A928-5A487624CD8F}"/>
-    <hyperlink ref="X219" r:id="rId335" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
-    <hyperlink ref="L219" r:id="rId336" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
-    <hyperlink ref="P219" r:id="rId337" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
-    <hyperlink ref="N219" r:id="rId338" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
-    <hyperlink ref="O219" r:id="rId339" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
-    <hyperlink ref="Q219" r:id="rId340" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
+    <hyperlink ref="X220" r:id="rId335" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
+    <hyperlink ref="L220" r:id="rId336" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
+    <hyperlink ref="P220" r:id="rId337" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
+    <hyperlink ref="N220" r:id="rId338" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
+    <hyperlink ref="O220" r:id="rId339" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
+    <hyperlink ref="Q220" r:id="rId340" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
     <hyperlink ref="X57" r:id="rId341" xr:uid="{AEAA94A8-A02C-FC4F-BF90-253B215A9610}"/>
     <hyperlink ref="Q57" r:id="rId342" xr:uid="{E251BBA0-C38C-F74C-9DDE-8F3019EE2BB9}"/>
     <hyperlink ref="X58" r:id="rId343" display="https://www.google.com/maps/place/%E8%B6%8A%E5%8D%97%E5%B0%8F%E5%90%83+QUAN+AN+VIET+NAM/@25.0388677,121.3875023,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a786e50c633b:0x96ecd2a843a0664d!8m2!3d25.0388665!4d121.388146!16s%2Fg%2F11f6cq97pv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{C292726B-73A0-9543-B8AB-2F5545043597}"/>
@@ -28476,45 +28559,45 @@
     <hyperlink ref="I65" r:id="rId352" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N65" r:id="rId353" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O65" r:id="rId354" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X247" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I247" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q247" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
-    <hyperlink ref="X220" r:id="rId358" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
-    <hyperlink ref="I220" r:id="rId359" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
-    <hyperlink ref="Q220" r:id="rId360" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
+    <hyperlink ref="X248" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I248" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q248" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X221" r:id="rId358" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
+    <hyperlink ref="I221" r:id="rId359" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
+    <hyperlink ref="Q221" r:id="rId360" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
     <hyperlink ref="J66" r:id="rId361" xr:uid="{5ABD78D0-2E3F-5949-859F-50CBC6FC1515}"/>
     <hyperlink ref="L66" r:id="rId362" xr:uid="{EFB62CBA-8B17-7B4E-A3A4-C06087CDA974}"/>
     <hyperlink ref="P66" r:id="rId363" xr:uid="{F382E5C7-9AE7-3544-A39A-C87180B28272}"/>
-    <hyperlink ref="I221" r:id="rId364" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
-    <hyperlink ref="J221" r:id="rId365" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
-    <hyperlink ref="M221" r:id="rId366" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
-    <hyperlink ref="X222" r:id="rId367" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
-    <hyperlink ref="N222" r:id="rId368" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
-    <hyperlink ref="O222" r:id="rId369" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
+    <hyperlink ref="I222" r:id="rId364" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
+    <hyperlink ref="J222" r:id="rId365" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
+    <hyperlink ref="M222" r:id="rId366" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
+    <hyperlink ref="X223" r:id="rId367" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
+    <hyperlink ref="N223" r:id="rId368" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
+    <hyperlink ref="O223" r:id="rId369" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
     <hyperlink ref="X133" r:id="rId370" display="https://www.google.com/maps/place/%E8%8A%B3%E7%8F%8D%E8%94%AC%E9%A3%9F-%E9%BE%9C%E5%B1%B1%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0583405,121.3647725,15z/data=!4m6!3m5!1s0x3442a795977959cd:0xc215fc0b3335dc88!8m2!3d25.0583405!4d121.3647725!16s%2Fg%2F11vf31ctly?entry=ttu" xr:uid="{52AEA38A-91B1-8A47-9ECD-F87A770334A4}"/>
     <hyperlink ref="I133" r:id="rId371" xr:uid="{ACA4CA0F-9DEA-5840-99B0-820A4768567B}"/>
     <hyperlink ref="N133" r:id="rId372" xr:uid="{973BF0A5-4740-3E43-81DF-591051DC3E13}"/>
     <hyperlink ref="O133" r:id="rId373" xr:uid="{B65BC528-A8B1-B046-BD8B-D7F4533D8426}"/>
     <hyperlink ref="X134" r:id="rId374" display="https://www.google.com/maps/place/Y.J+COFFEE+%E7%8E%89%E6%B4%A5%E5%92%96%E5%95%A1-%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0608361,121.3643035,15z/data=!4m6!3m5!1s0x3442a760bd153451:0x18fc101d2eb228!8m2!3d25.0608361!4d121.3643035!16s%2Fg%2F11v68wsch9?hl=zh-TW&amp;entry=ttu" xr:uid="{8620CE66-049B-0B45-96BC-88EDF3E4F5EF}"/>
     <hyperlink ref="P134" r:id="rId375" xr:uid="{B7E4B78F-886E-0D40-AAC2-A20F39A5D19B}"/>
-    <hyperlink ref="X223" r:id="rId376" xr:uid="{D513533E-5F99-4047-AFF2-BF0206D0D5AA}"/>
-    <hyperlink ref="J223" r:id="rId377" xr:uid="{5A05419A-E761-7C4D-96E7-7E3BD4FA4D32}"/>
-    <hyperlink ref="L223" r:id="rId378" xr:uid="{F2B113FB-4E69-6141-B9E9-12771F9A2627}"/>
-    <hyperlink ref="P223" r:id="rId379" xr:uid="{EE9DBF4F-4B6C-374D-A208-E3DB2FFD284E}"/>
-    <hyperlink ref="P166" r:id="rId380" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
+    <hyperlink ref="X224" r:id="rId376" xr:uid="{D513533E-5F99-4047-AFF2-BF0206D0D5AA}"/>
+    <hyperlink ref="J224" r:id="rId377" xr:uid="{5A05419A-E761-7C4D-96E7-7E3BD4FA4D32}"/>
+    <hyperlink ref="L224" r:id="rId378" xr:uid="{F2B113FB-4E69-6141-B9E9-12771F9A2627}"/>
+    <hyperlink ref="P224" r:id="rId379" xr:uid="{EE9DBF4F-4B6C-374D-A208-E3DB2FFD284E}"/>
+    <hyperlink ref="P167" r:id="rId380" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
     <hyperlink ref="X135" r:id="rId381" display="https://www.google.com/maps/place/BroFood%E4%BD%A0%E7%9A%84%E4%BC%AF%E7%88%B6%E5%B7%B2%E4%B8%8A%E7%B7%9A/@25.0541886,121.364174,15z/data=!4m6!3m5!1s0x3442a7d44aac8683:0x5ed109106289102f!8m2!3d25.0554989!4d121.3672224!16s%2Fg%2F11vd9rbppy?hl=zh-TW&amp;entry=ttu" xr:uid="{587F4B97-2A31-2444-BE86-7ED2A781000A}"/>
     <hyperlink ref="N135" r:id="rId382" xr:uid="{DBD80C1C-15BB-E743-B181-07B5B73386D2}"/>
-    <hyperlink ref="X224" r:id="rId383" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
-    <hyperlink ref="J224" r:id="rId384" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
-    <hyperlink ref="I224" r:id="rId385" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
+    <hyperlink ref="X225" r:id="rId383" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
+    <hyperlink ref="J225" r:id="rId384" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
+    <hyperlink ref="I225" r:id="rId385" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
     <hyperlink ref="N107" r:id="rId386" xr:uid="{BF71F067-376F-C84F-A040-1CE32EDBAA71}"/>
     <hyperlink ref="K107" r:id="rId387" xr:uid="{FA5F13B7-74CD-B340-9FE2-EAC3123473D7}"/>
-    <hyperlink ref="K188" r:id="rId388" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
-    <hyperlink ref="I225" r:id="rId389" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
-    <hyperlink ref="J226" r:id="rId390" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
-    <hyperlink ref="L226" r:id="rId391" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
-    <hyperlink ref="N226" r:id="rId392" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
-    <hyperlink ref="Q226" r:id="rId393" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
+    <hyperlink ref="K189" r:id="rId388" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
+    <hyperlink ref="I226" r:id="rId389" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
+    <hyperlink ref="J227" r:id="rId390" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
+    <hyperlink ref="L227" r:id="rId391" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
+    <hyperlink ref="N227" r:id="rId392" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
+    <hyperlink ref="Q227" r:id="rId393" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
     <hyperlink ref="N136" r:id="rId394" xr:uid="{738457FA-3787-1F49-BA31-1BC2BAFB08F3}"/>
     <hyperlink ref="O136" r:id="rId395" xr:uid="{74692A90-DA12-314B-BF4D-E90CA31C36BE}"/>
     <hyperlink ref="I136" r:id="rId396" xr:uid="{0D193AA9-6E05-734F-8E8A-050CA65757A0}"/>
@@ -28543,60 +28626,60 @@
     <hyperlink ref="L68" r:id="rId419" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N68" r:id="rId420" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q68" r:id="rId421" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X248" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J248" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q248" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X249" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P249" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I249" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O249" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J249" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q249" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R249" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J250" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L250" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I250" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P250" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
-    <hyperlink ref="X227" r:id="rId436" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
-    <hyperlink ref="N227" r:id="rId437" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
-    <hyperlink ref="J227" r:id="rId438" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
-    <hyperlink ref="L227" r:id="rId439" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
-    <hyperlink ref="K227" r:id="rId440" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
-    <hyperlink ref="Q227" r:id="rId441" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
+    <hyperlink ref="X249" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J249" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q249" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X250" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P250" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I250" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O250" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J250" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q250" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R250" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J251" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L251" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I251" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P251" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X228" r:id="rId436" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
+    <hyperlink ref="N228" r:id="rId437" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
+    <hyperlink ref="J228" r:id="rId438" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
+    <hyperlink ref="L228" r:id="rId439" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
+    <hyperlink ref="K228" r:id="rId440" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
+    <hyperlink ref="Q228" r:id="rId441" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
     <hyperlink ref="X140" r:id="rId442" display="https://www.google.com/maps/place/%E7%8E%96%E7%88%90%E7%B2%BE%E7%B7%BB%E9%8D%8B%E7%89%A9-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0527632,121.3671907,18.9z/data=!4m6!3m5!1s0x3442a7306dd22b8d:0x46389e561cf3ce6!8m2!3d25.052783!4d121.368052!16s%2Fg%2F11ddxkg07g?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{94A63822-ECAF-BC42-97F6-7D1561D6C673}"/>
     <hyperlink ref="J140" r:id="rId443" xr:uid="{49BC0516-7E8B-7440-B512-ED1113397EC2}"/>
     <hyperlink ref="L140" r:id="rId444" xr:uid="{5026A099-EED6-A941-A394-2F0F837175FF}"/>
     <hyperlink ref="I140" r:id="rId445" xr:uid="{96BE1ADD-7164-E44B-9F06-725F8136A67E}"/>
     <hyperlink ref="Q140" r:id="rId446" xr:uid="{693E0203-1953-A045-98B9-4A9828CA155E}"/>
-    <hyperlink ref="X228" r:id="rId447" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
-    <hyperlink ref="I228" r:id="rId448" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
-    <hyperlink ref="Q228" r:id="rId449" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
+    <hyperlink ref="X229" r:id="rId447" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
+    <hyperlink ref="I229" r:id="rId448" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
+    <hyperlink ref="Q229" r:id="rId449" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
     <hyperlink ref="N141" r:id="rId450" xr:uid="{50E1CD44-37DC-A645-95E1-1AF636859E07}"/>
     <hyperlink ref="O141" r:id="rId451" xr:uid="{19AEE415-9DB8-174D-886C-7BF83E81EC05}"/>
     <hyperlink ref="J141" r:id="rId452" xr:uid="{9FCE9D3D-F2C5-B848-BA6F-0C59883F00AB}"/>
     <hyperlink ref="Q141" r:id="rId453" xr:uid="{02A6651D-67A9-A34C-AEC0-8F1470234998}"/>
-    <hyperlink ref="I229" r:id="rId454" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
-    <hyperlink ref="N229" r:id="rId455" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
-    <hyperlink ref="I230" r:id="rId456" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
-    <hyperlink ref="N230" r:id="rId457" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
-    <hyperlink ref="O230" r:id="rId458" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
-    <hyperlink ref="J230" r:id="rId459" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
-    <hyperlink ref="I231" r:id="rId460" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
-    <hyperlink ref="I232" r:id="rId461" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
-    <hyperlink ref="J232" r:id="rId462" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
-    <hyperlink ref="P232" r:id="rId463" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
-    <hyperlink ref="P229" r:id="rId464" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
-    <hyperlink ref="R155" r:id="rId465" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
-    <hyperlink ref="P233" r:id="rId466" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
-    <hyperlink ref="J233" r:id="rId467" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
-    <hyperlink ref="L233" r:id="rId468" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
-    <hyperlink ref="K233" r:id="rId469" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
-    <hyperlink ref="Q233" r:id="rId470" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
-    <hyperlink ref="P234" r:id="rId471" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
-    <hyperlink ref="Q234" r:id="rId472" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
-    <hyperlink ref="N235" r:id="rId473" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
-    <hyperlink ref="P235" r:id="rId474" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
-    <hyperlink ref="I235" r:id="rId475" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
+    <hyperlink ref="I230" r:id="rId454" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
+    <hyperlink ref="N230" r:id="rId455" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
+    <hyperlink ref="I231" r:id="rId456" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
+    <hyperlink ref="N231" r:id="rId457" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
+    <hyperlink ref="O231" r:id="rId458" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
+    <hyperlink ref="J231" r:id="rId459" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
+    <hyperlink ref="I232" r:id="rId460" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
+    <hyperlink ref="I233" r:id="rId461" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
+    <hyperlink ref="J233" r:id="rId462" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
+    <hyperlink ref="P233" r:id="rId463" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
+    <hyperlink ref="P230" r:id="rId464" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
+    <hyperlink ref="R156" r:id="rId465" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
+    <hyperlink ref="P234" r:id="rId466" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
+    <hyperlink ref="J234" r:id="rId467" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
+    <hyperlink ref="L234" r:id="rId468" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
+    <hyperlink ref="K234" r:id="rId469" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
+    <hyperlink ref="Q234" r:id="rId470" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
+    <hyperlink ref="P235" r:id="rId471" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
+    <hyperlink ref="Q235" r:id="rId472" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
+    <hyperlink ref="N236" r:id="rId473" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
+    <hyperlink ref="P236" r:id="rId474" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
+    <hyperlink ref="I236" r:id="rId475" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
     <hyperlink ref="I69" r:id="rId476" xr:uid="{EA1E3DFE-344E-FA48-9994-5ACE49222FF2}"/>
     <hyperlink ref="K69" r:id="rId477" xr:uid="{796D8F3B-3FE3-7E44-AD28-4211B63E8248}"/>
     <hyperlink ref="P69" r:id="rId478" xr:uid="{675AB809-2BC9-A746-9147-8D721F7507A7}"/>
@@ -28627,6 +28710,9 @@
     <hyperlink ref="J142" r:id="rId503" xr:uid="{21A8AACF-BEE6-7144-B4C5-1A7DF5428BA0}"/>
     <hyperlink ref="N142" r:id="rId504" xr:uid="{D195E925-2C8D-3040-B0E4-DE3FEB946B58}"/>
     <hyperlink ref="P142" r:id="rId505" xr:uid="{A27AA05B-ACFC-D74F-AF7A-5A31B044F42F}"/>
+    <hyperlink ref="X143" r:id="rId506" display="https://www.google.com/maps/place/%E7%88%AD%E5%8E%9A%E5%8E%9A%E5%88%87%E7%89%9B%E6%8E%92%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0578044,121.3704166,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73c5f6baf91:0x6cc984a1886851f2!8m2!3d25.0578044!4d121.3729969!16s%2Fg%2F11dynbncl7?authuser=0&amp;entry=ttu" xr:uid="{C73CA984-F455-2A4A-8230-A16FDA1F1A90}"/>
+    <hyperlink ref="I143" r:id="rId507" xr:uid="{818C0E9E-18E4-474A-AE01-1E824681D292}"/>
+    <hyperlink ref="P143" r:id="rId508" xr:uid="{0B1C40D2-1A3C-2A47-9D6A-6CD116CA4649}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -28646,7 +28732,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S238:S1048576 S1:S27 S30:S236</xm:sqref>
+          <xm:sqref>S239:S1048576 S1:S27 S30:S237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>
@@ -28673,7 +28759,7 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1803</v>
       </c>
@@ -28684,7 +28770,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="3" t="s">
         <v>1804</v>
       </c>
@@ -28695,7 +28781,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="3" t="s">
         <v>1805</v>
       </c>
@@ -28706,7 +28792,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="3" t="s">
         <v>1806</v>
       </c>
@@ -28717,7 +28803,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="3" t="s">
         <v>1807</v>
       </c>
@@ -28739,7 +28825,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="3" t="s">
         <v>1809</v>
       </c>
@@ -28747,7 +28833,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="3" t="s">
         <v>1810</v>
       </c>
@@ -28755,7 +28841,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="3" t="s">
         <v>1811</v>
       </c>
@@ -28763,7 +28849,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="3" t="s">
         <v>1812</v>
       </c>
@@ -28771,7 +28857,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="3" t="s">
         <v>1813</v>
       </c>
@@ -28779,32 +28865,32 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="3" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="3" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="3" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="3" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="3" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="3" t="s">
         <v>1819</v>
       </c>
@@ -28814,7 +28900,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="3" t="s">
         <v>1821</v>
       </c>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0354A49B-0E6B-BB4E-80B9-77A2F398C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69975D5E-DE8D-4347-B0CD-8E3F9E33D3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="-25720" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="2797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="2828">
   <si>
     <t>address</t>
   </si>
@@ -12736,6 +12736,121 @@
   </si>
   <si>
     <t>https://www.ubereats.com/tw/store/%E4%BA%8C%E5%A0%82%E9%A0%AD%E9%8A%B7%E9%AD%82%E9%B4%A8%E8%82%89%E9%A3%AF-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/U4D490dgWsWKqIWjQfTSWA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9-104</t>
+  </si>
+  <si>
+    <t>A9-105</t>
+  </si>
+  <si>
+    <t>A9-106</t>
+  </si>
+  <si>
+    <t>RES-A9-104.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-105.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-106.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-104L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-105L.jpeg</t>
+  </si>
+  <si>
+    <t>貳樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區民富街108號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-9133</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至四10：00～21：30／週五10：00～22：00／週六08：00～22：00／週日08：00～21：30</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASTAIO</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路1段394巷8號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 16:00, 17:00 - 21:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>壽司郎 SUSHIRO</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區民富街110號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-9899</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SUSHIRO/@25.0751926,121.3679127,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a3a7a45273:0xdf949af5b57de872!8m2!3d25.0751926!4d121.3704876!16s%2Fg%2F11y1z_39ts?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/tw/store/%E5%8F%B0%E7%81%A3%E5%A3%BD%E5%8F%B8%E9%83%8E-%E6%9E%97%E5%8F%A3%E5%BA%97/I-ivNixZUim5uWy2TdFlog?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.foodpanda.com.tw/restaurant/m2zk/tai-wan-shou-si-lang-lin-kou-dian?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=google_reserve_place_order_action</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-A9-106L.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.sushiro.com.tw/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sushiro.com.tw/Menu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2606-8278</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linktr.ee/pastaiotaipei?lt_utm_source=lt_share_link#358881131</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.secondfloorcafe.com/index.php</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.secondfloorcafe.com/menu/</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14230,13 +14345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X260"/>
+  <dimension ref="A1:X263"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A153" sqref="A153:XFD154"/>
+      <selection pane="bottomRight" activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -28155,208 +28270,192 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="14.25" customHeight="1">
+    <row r="246" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>10</v>
+        <v>2805</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1828</v>
+        <v>2797</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>163</v>
+        <v>1832</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>2807</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>164</v>
+        <v>2808</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
+        <v>2809</v>
+      </c>
+      <c r="G246" s="27" t="s">
+        <v>2800</v>
+      </c>
+      <c r="H246" s="27" t="s">
+        <v>2803</v>
+      </c>
+      <c r="I246" s="10" t="s">
+        <v>2826</v>
+      </c>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10"/>
+      <c r="L246" s="10"/>
       <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
-      <c r="O246" s="3"/>
-      <c r="P246" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q246" s="3" t="s">
-        <v>168</v>
+      <c r="N246" s="10"/>
+      <c r="O246" s="10"/>
+      <c r="P246" s="10" t="s">
+        <v>2827</v>
+      </c>
+      <c r="Q246" s="10" t="s">
+        <v>2806</v>
       </c>
       <c r="R246" s="3"/>
       <c r="S246" s="3" t="s">
-        <v>1797</v>
-      </c>
-      <c r="T246" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U246" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V246" s="3">
-        <v>3.7</v>
-      </c>
+        <v>1798</v>
+      </c>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
+      <c r="V246" s="3"/>
       <c r="W246" s="3"/>
-      <c r="X246" s="3" t="s">
-        <v>170</v>
+      <c r="X246" s="10" t="s">
+        <v>2825</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="20" customHeight="1">
+    <row r="247" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>12</v>
+        <v>2810</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1496</v>
+        <v>2798</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>178</v>
+        <v>2282</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>2811</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>179</v>
+        <v>2823</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="H247" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
+        <v>2812</v>
+      </c>
+      <c r="G247" s="27" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H247" s="27" t="s">
+        <v>2804</v>
+      </c>
+      <c r="I247" s="10" t="s">
+        <v>2824</v>
+      </c>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10"/>
+      <c r="L247" s="10"/>
       <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
-      <c r="P247" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q247" s="3" t="s">
-        <v>183</v>
+      <c r="N247" s="10"/>
+      <c r="O247" s="10"/>
+      <c r="P247" s="10"/>
+      <c r="Q247" s="10" t="s">
+        <v>2806</v>
       </c>
       <c r="R247" s="3"/>
-      <c r="S247" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="T247" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U247" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V247" s="3">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="S247" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
       <c r="W247" s="3"/>
-      <c r="X247" s="3" t="s">
-        <v>184</v>
+      <c r="X247" s="10" t="s">
+        <v>2822</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="20" customHeight="1">
+    <row r="248" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>13</v>
+        <v>2813</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1497</v>
+        <v>2799</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>192</v>
+        <v>2303</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>2814</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>193</v>
+        <v>2815</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G248" s="4" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H248" s="4" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
+      <c r="G248" s="27" t="s">
+        <v>2802</v>
+      </c>
+      <c r="H248" s="27" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I248" s="10" t="s">
+        <v>2820</v>
+      </c>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10"/>
+      <c r="L248" s="10"/>
       <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-      <c r="O248" s="3"/>
-      <c r="P248" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q248" s="3" t="s">
-        <v>196</v>
+      <c r="N248" s="10" t="s">
+        <v>2817</v>
+      </c>
+      <c r="O248" s="10" t="s">
+        <v>2818</v>
+      </c>
+      <c r="P248" s="10" t="s">
+        <v>2821</v>
+      </c>
+      <c r="Q248" s="10" t="s">
+        <v>2806</v>
       </c>
       <c r="R248" s="3"/>
       <c r="S248" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="T248" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U248" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V248" s="3">
-        <v>4</v>
-      </c>
+        <v>1798</v>
+      </c>
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
       <c r="W248" s="3"/>
-      <c r="X248" s="3" t="s">
-        <v>197</v>
+      <c r="X248" s="10" t="s">
+        <v>2816</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="20" customHeight="1">
+    <row r="249" spans="1:24" ht="14.25" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1498</v>
+        <v>1828</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
       <c r="I249" s="3"/>
       <c r="J249" s="3" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
@@ -28364,14 +28463,14 @@
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
       <c r="P249" s="3" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="R249" s="3"/>
       <c r="S249" s="3" t="s">
-        <v>161</v>
+        <v>1797</v>
       </c>
       <c r="T249" s="3" t="s">
         <v>169</v>
@@ -28380,41 +28479,41 @@
         <v>162</v>
       </c>
       <c r="V249" s="3">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="W249" s="3"/>
       <c r="X249" s="3" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="20" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>2555</v>
+        <v>12</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
@@ -28422,13 +28521,13 @@
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
       <c r="P250" s="3" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="R250" s="3"/>
-      <c r="S250" s="3" t="s">
+      <c r="S250" s="18" t="s">
         <v>161</v>
       </c>
       <c r="T250" s="3" t="s">
@@ -28438,41 +28537,41 @@
         <v>162</v>
       </c>
       <c r="V250" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W250" s="3"/>
       <c r="X250" s="3" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="20" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -28480,10 +28579,10 @@
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
       <c r="P251" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="R251" s="3"/>
       <c r="S251" s="3" t="s">
@@ -28496,41 +28595,41 @@
         <v>162</v>
       </c>
       <c r="V251" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W251" s="3"/>
       <c r="X251" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="20" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -28538,10 +28637,10 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -28554,41 +28653,41 @@
         <v>162</v>
       </c>
       <c r="V252" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W252" s="3"/>
       <c r="X252" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="20" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>17</v>
+        <v>2555</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -28596,10 +28695,10 @@
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="3" t="s">
@@ -28612,41 +28711,41 @@
         <v>162</v>
       </c>
       <c r="V253" s="3">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="20" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -28654,10 +28753,10 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
@@ -28670,41 +28769,41 @@
         <v>162</v>
       </c>
       <c r="V254" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="20" customHeight="1">
-      <c r="A255" s="41" t="s">
-        <v>2334</v>
+      <c r="A255" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -28712,10 +28811,10 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="R255" s="3"/>
       <c r="S255" s="3" t="s">
@@ -28728,41 +28827,41 @@
         <v>162</v>
       </c>
       <c r="V255" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="20" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1992</v>
+        <v>1502</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>1081</v>
+        <v>225</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>1082</v>
+        <v>226</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>1083</v>
+        <v>227</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>1605</v>
+        <v>1686</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>1605</v>
+        <v>1686</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3" t="s">
-        <v>1084</v>
+        <v>228</v>
       </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -28770,60 +28869,70 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3" t="s">
-        <v>1085</v>
+        <v>229</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>1086</v>
+        <v>230</v>
       </c>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
         <v>161</v>
       </c>
       <c r="T256" s="3" t="s">
-        <v>1038</v>
+        <v>169</v>
       </c>
       <c r="U256" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="V256" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W256" s="3"/>
       <c r="X256" s="3" t="s">
-        <v>1087</v>
+        <v>231</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B257" s="33" t="s">
-        <v>2164</v>
+        <v>18</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>1503</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D257" s="33" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E257" s="33" t="s">
-        <v>2166</v>
-      </c>
-      <c r="F257" s="33" t="s">
-        <v>180</v>
+      <c r="D257" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>2168</v>
+        <v>1687</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>2169</v>
-      </c>
-      <c r="I257" s="34" t="s">
-        <v>2167</v>
-      </c>
-      <c r="Q257" s="34" t="s">
-        <v>2170</v>
-      </c>
+        <v>1687</v>
+      </c>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q257" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R257" s="3"/>
       <c r="S257" s="3" t="s">
         <v>161</v>
       </c>
@@ -28833,157 +28942,321 @@
       <c r="U257" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V257" s="39">
-        <v>4.8</v>
-      </c>
-      <c r="X257" s="34" t="s">
-        <v>2163</v>
+      <c r="V257" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="20" customHeight="1">
-      <c r="A258" s="33" t="s">
-        <v>2402</v>
+      <c r="A258" s="41" t="s">
+        <v>2334</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>2403</v>
-      </c>
-      <c r="D258" s="33" t="s">
-        <v>2406</v>
-      </c>
-      <c r="E258" s="33" t="s">
-        <v>2407</v>
-      </c>
-      <c r="F258" s="33" t="s">
-        <v>2408</v>
+        <v>1504</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>2396</v>
+        <v>1688</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>2399</v>
-      </c>
-      <c r="J258" s="34" t="s">
-        <v>2409</v>
-      </c>
-      <c r="Q258" s="34" t="s">
-        <v>2410</v>
-      </c>
+        <v>1688</v>
+      </c>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q258" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R258" s="3"/>
       <c r="S258" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V258" s="40" t="s">
-        <v>2405</v>
-      </c>
-      <c r="X258" s="34" t="s">
-        <v>2404</v>
+      <c r="T258" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U258" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V258" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="W258" s="3"/>
+      <c r="X258" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
-      <c r="A259" s="33" t="s">
-        <v>2413</v>
+      <c r="A259" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>2394</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>2244</v>
-      </c>
-      <c r="D259" s="33" t="s">
-        <v>2414</v>
-      </c>
-      <c r="E259" s="33" t="s">
-        <v>2415</v>
-      </c>
-      <c r="F259" s="33" t="s">
-        <v>2416</v>
+        <v>1992</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>1083</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>2397</v>
+        <v>1605</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>2400</v>
-      </c>
-      <c r="I259" s="34" t="s">
-        <v>2418</v>
-      </c>
-      <c r="J259" s="34" t="s">
-        <v>2420</v>
-      </c>
-      <c r="O259" s="34" t="s">
-        <v>2419</v>
-      </c>
-      <c r="P259" s="34" t="s">
-        <v>2417</v>
-      </c>
-      <c r="Q259" s="34" t="s">
-        <v>2421</v>
-      </c>
-      <c r="R259" s="34" t="s">
-        <v>2422</v>
-      </c>
+        <v>1605</v>
+      </c>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q259" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R259" s="3"/>
       <c r="S259" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V259" s="40" t="s">
-        <v>2411</v>
-      </c>
-      <c r="X259" s="34" t="s">
-        <v>2412</v>
+      <c r="T259" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U259" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="V259" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W259" s="3"/>
+      <c r="X259" s="3" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
-      <c r="A260" s="45" t="s">
-        <v>2430</v>
+      <c r="A260" s="2" t="s">
+        <v>2162</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>2395</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>1842</v>
+        <v>2164</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D260" s="33" t="s">
-        <v>2424</v>
+        <v>2165</v>
       </c>
       <c r="E260" s="33" t="s">
-        <v>2425</v>
+        <v>2166</v>
       </c>
       <c r="F260" s="33" t="s">
-        <v>643</v>
+        <v>180</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>2398</v>
+        <v>2168</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>2401</v>
+        <v>2169</v>
       </c>
       <c r="I260" s="34" t="s">
-        <v>2428</v>
-      </c>
-      <c r="J260" s="34" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L260" s="34" t="s">
-        <v>2427</v>
-      </c>
-      <c r="P260" s="34" t="s">
-        <v>2429</v>
+        <v>2167</v>
+      </c>
+      <c r="Q260" s="34" t="s">
+        <v>2170</v>
       </c>
       <c r="S260" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V260" s="40" t="s">
+      <c r="T260" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U260" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V260" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="X260" s="34" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" ht="20" customHeight="1">
+      <c r="A261" s="33" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D261" s="33" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E261" s="33" t="s">
+        <v>2407</v>
+      </c>
+      <c r="F261" s="33" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="H261" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="J261" s="34" t="s">
+        <v>2409</v>
+      </c>
+      <c r="Q261" s="34" t="s">
+        <v>2410</v>
+      </c>
+      <c r="S261" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V261" s="40" t="s">
         <v>2405</v>
       </c>
-      <c r="X260" s="33" t="s">
+      <c r="X261" s="34" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" ht="20" customHeight="1">
+      <c r="A262" s="33" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D262" s="33" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E262" s="33" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F262" s="33" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I262" s="34" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J262" s="34" t="s">
+        <v>2420</v>
+      </c>
+      <c r="O262" s="34" t="s">
+        <v>2419</v>
+      </c>
+      <c r="P262" s="34" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Q262" s="34" t="s">
+        <v>2421</v>
+      </c>
+      <c r="R262" s="34" t="s">
+        <v>2422</v>
+      </c>
+      <c r="S262" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V262" s="40" t="s">
+        <v>2411</v>
+      </c>
+      <c r="X262" s="34" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" ht="20" customHeight="1">
+      <c r="A263" s="45" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B263" s="33" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D263" s="33" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E263" s="33" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F263" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H263" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="I263" s="34" t="s">
+        <v>2428</v>
+      </c>
+      <c r="J263" s="34" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L263" s="34" t="s">
+        <v>2427</v>
+      </c>
+      <c r="P263" s="34" t="s">
+        <v>2429</v>
+      </c>
+      <c r="S263" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V263" s="40" t="s">
+        <v>2405</v>
+      </c>
+      <c r="X263" s="33" t="s">
         <v>2423</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X256">
-    <sortCondition ref="B2:B256"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X259">
+    <sortCondition ref="B2:B259"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -29346,9 +29619,9 @@
     <hyperlink ref="I65" r:id="rId352" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N65" r:id="rId353" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O65" r:id="rId354" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X257" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I257" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q257" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X260" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I260" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q260" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
     <hyperlink ref="X230" r:id="rId358" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
     <hyperlink ref="I230" r:id="rId359" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
     <hyperlink ref="Q230" r:id="rId360" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
@@ -29413,20 +29686,20 @@
     <hyperlink ref="L68" r:id="rId419" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N68" r:id="rId420" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q68" r:id="rId421" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X258" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J258" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q258" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X259" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P259" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I259" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O259" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J259" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q259" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R259" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J260" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L260" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I260" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P260" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X261" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J261" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q261" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X262" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P262" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I262" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O262" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J262" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q262" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R262" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J263" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L263" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I263" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P263" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
     <hyperlink ref="X237" r:id="rId436" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
     <hyperlink ref="N237" r:id="rId437" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
     <hyperlink ref="J237" r:id="rId438" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
@@ -29524,6 +29797,18 @@
     <hyperlink ref="N151" r:id="rId530" xr:uid="{D4E5F5A9-24FE-0A46-8C60-9882588F5EC7}"/>
     <hyperlink ref="O152" r:id="rId531" xr:uid="{9EB4FBD6-FFDB-714E-9EAA-FA0978031869}"/>
     <hyperlink ref="N152" r:id="rId532" xr:uid="{609A7BED-5BCD-E242-9E68-5A6A2DE45487}"/>
+    <hyperlink ref="Q246" r:id="rId533" xr:uid="{0CD2A816-C222-F541-8371-DF8EE463A15C}"/>
+    <hyperlink ref="Q247:Q248" r:id="rId534" display="https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR" xr:uid="{617D6DF2-DD4F-0B49-BE8A-8896ABF74EFD}"/>
+    <hyperlink ref="X248" r:id="rId535" xr:uid="{227AE9B5-F117-6641-BF85-D93A78DE8B5F}"/>
+    <hyperlink ref="N248" r:id="rId536" xr:uid="{580CFFAF-B9E7-D341-B8B2-1E90BF6EE944}"/>
+    <hyperlink ref="O248" r:id="rId537" xr:uid="{F5AB8850-AFBF-6A40-AE3C-D532A31859BA}"/>
+    <hyperlink ref="I248" r:id="rId538" xr:uid="{874D8804-0E85-0B40-878B-59E784685E92}"/>
+    <hyperlink ref="P248" r:id="rId539" xr:uid="{F0B75305-21B2-9A47-AEE9-BFA539D49D9C}"/>
+    <hyperlink ref="X247" r:id="rId540" display="https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{4C4096D1-967B-C641-B7D9-2DFC55745B8E}"/>
+    <hyperlink ref="I247" r:id="rId541" location="358881131" xr:uid="{09B6A8DC-B49F-654E-B68D-86CEB9CB313F}"/>
+    <hyperlink ref="X246" r:id="rId542" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
+    <hyperlink ref="I246" r:id="rId543" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
+    <hyperlink ref="P246" r:id="rId544" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -29543,7 +29828,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S248:S1048576 S1:S27 S30:S246</xm:sqref>
+          <xm:sqref>S251:S1048576 S1:S27 S30:S249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69975D5E-DE8D-4347-B0CD-8E3F9E33D3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A4C5B-223A-4442-96F4-7452FD8367C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12600" yWindow="-25720" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="2828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="2832">
   <si>
     <t>address</t>
   </si>
@@ -12851,6 +12851,22 @@
   </si>
   <si>
     <t>https://www.secondfloorcafe.com/menu/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PASTAIOTAIPEI</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastaiotaipei@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo/?fbid=921896066608280&amp;set=pb.100063636862595.-2207520000</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.snail-italy.com/linkou.html</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14348,10 +14364,10 @@
   <dimension ref="A1:X263"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C241" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I254" sqref="I254"/>
+      <selection pane="bottomRight" activeCell="Q235" sqref="Q235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -27710,7 +27726,9 @@
       <c r="M235" s="3"/>
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
-      <c r="P235" s="10"/>
+      <c r="P235" s="10" t="s">
+        <v>2831</v>
+      </c>
       <c r="Q235" s="10"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3" t="s">
@@ -28350,13 +28368,19 @@
       <c r="I247" s="10" t="s">
         <v>2824</v>
       </c>
-      <c r="J247" s="10"/>
+      <c r="J247" s="10" t="s">
+        <v>2828</v>
+      </c>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
-      <c r="M247" s="3"/>
+      <c r="M247" s="10" t="s">
+        <v>2829</v>
+      </c>
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
-      <c r="P247" s="10"/>
+      <c r="P247" s="10" t="s">
+        <v>2830</v>
+      </c>
       <c r="Q247" s="10" t="s">
         <v>2806</v>
       </c>
@@ -29809,6 +29833,10 @@
     <hyperlink ref="X246" r:id="rId542" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
     <hyperlink ref="I246" r:id="rId543" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
     <hyperlink ref="P246" r:id="rId544" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
+    <hyperlink ref="J247" r:id="rId545" xr:uid="{F1520F3A-4DA5-844B-8C27-D564B8030350}"/>
+    <hyperlink ref="M247" r:id="rId546" xr:uid="{605002D7-0B39-2749-980B-4720BC9FC9D3}"/>
+    <hyperlink ref="P247" r:id="rId547" xr:uid="{1F8D09F2-7987-C54A-8965-AE9EDCDD0A31}"/>
+    <hyperlink ref="P235" r:id="rId548" xr:uid="{9C83DF22-8391-564F-A64C-E56B34F74693}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A4C5B-223A-4442-96F4-7452FD8367C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3E3542-F04C-0346-B100-B75E1E3B3AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-25720" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20260" yWindow="-25420" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="2832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="2844">
   <si>
     <t>address</t>
   </si>
@@ -12867,6 +12867,51 @@
   </si>
   <si>
     <t>https://www.snail-italy.com/linkou.html</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8-083</t>
+  </si>
+  <si>
+    <t>RES-A8-083L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A8-083.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E9%BA%B5%E5%B1%8B%E3%80%82%E6%BF%83(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)/@25.0588376,121.3693655,18z/data=!4m6!3m5!1s0x3442a73b0b4fa2f9:0x2e62ecbb1bb16d!8m2!3d25.0590887!4d121.3699559!16s%2Fg%2F11fzjct1mg?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵屋。濃</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路10巷42弄47號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-396-1360</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nontakutaiwan003/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>nontakutaiwan@gmail.com</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/tw/store/%E9%BA%B5%E5%B1%8B%E6%BF%83-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/tIjGcY0bR6CukA5veXPsmQ?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.foodpanda.com.tw/restaurant/e8ai/mian-wu-nong-lin-kou-chang-geng-dian?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=google_reserve_place_order_action</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dalang.tw/nontakutaiwan/</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14361,13 +14406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X263"/>
+  <dimension ref="A1:X264"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q235" sqref="Q235"/>
+      <selection pane="bottomRight" activeCell="Q153" sqref="Q153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -22800,105 +22845,103 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="15" customHeight="1">
-      <c r="A153" s="2" t="s">
-        <v>11</v>
+    <row r="153" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A153" s="41" t="s">
+        <v>2836</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1424</v>
+        <v>2832</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>162</v>
+        <v>2303</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>171</v>
+        <v>2837</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>172</v>
+        <v>2838</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1606</v>
+        <v>2834</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
-      <c r="N153" s="3"/>
-      <c r="O153" s="3"/>
-      <c r="P153" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q153" s="3" t="s">
-        <v>176</v>
+        <v>2833</v>
+      </c>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10" t="s">
+        <v>2839</v>
+      </c>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10" t="s">
+        <v>2840</v>
+      </c>
+      <c r="N153" s="10" t="s">
+        <v>2841</v>
+      </c>
+      <c r="O153" s="10" t="s">
+        <v>2842</v>
+      </c>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="10" t="s">
+        <v>2843</v>
       </c>
       <c r="R153" s="3"/>
       <c r="S153" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="T153" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U153" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3"/>
+      <c r="X153" s="10" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="15" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V153" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W153" s="3"/>
-      <c r="X153" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A154" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="D154" s="3" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J154" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="R154" s="3"/>
       <c r="S154" s="3" t="s">
@@ -22908,57 +22951,55 @@
         <v>169</v>
       </c>
       <c r="U154" s="3" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="V154" s="3">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W154" s="3"/>
       <c r="X154" s="3" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="14.25" customHeight="1">
+    <row r="155" spans="1:24" ht="17.25" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="K155" s="10" t="s">
-        <v>1921</v>
-      </c>
+        <v>1607</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
       <c r="P155" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="R155" s="3"/>
       <c r="S155" s="3" t="s">
@@ -22971,101 +23012,101 @@
         <v>252</v>
       </c>
       <c r="V155" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W155" s="3"/>
       <c r="X155" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="14.25" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K156" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>1921</v>
+      </c>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
       <c r="P156" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="R156" s="3"/>
       <c r="S156" s="3" t="s">
         <v>1317</v>
       </c>
       <c r="T156" s="3" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="U156" s="3" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="V156" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W156" s="3"/>
       <c r="X156" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="14.25" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J157" s="21" t="s">
-        <v>1955</v>
+        <v>1609</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -23073,10 +23114,10 @@
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="R157" s="3"/>
       <c r="S157" s="3" t="s">
@@ -23089,41 +23130,43 @@
         <v>278</v>
       </c>
       <c r="V157" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W157" s="3"/>
       <c r="X157" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="14.25" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3" t="s">
-        <v>290</v>
+        <v>1610</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J158" s="21" t="s">
+        <v>1955</v>
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -23131,10 +23174,10 @@
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R158" s="3"/>
       <c r="S158" s="3" t="s">
@@ -23147,43 +23190,41 @@
         <v>278</v>
       </c>
       <c r="V158" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W158" s="3"/>
       <c r="X158" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="14.25" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I159" s="10" t="s">
-        <v>1966</v>
-      </c>
+        <v>1611</v>
+      </c>
+      <c r="I159" s="3"/>
       <c r="J159" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -23191,59 +23232,59 @@
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
       <c r="P159" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="R159" s="3"/>
       <c r="S159" s="3" t="s">
         <v>1317</v>
       </c>
       <c r="T159" s="3" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="U159" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="V159" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W159" s="3"/>
       <c r="X159" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A160" s="41" t="s">
-        <v>2339</v>
+      <c r="A160" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>1934</v>
+        <v>1966</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -23251,10 +23292,10 @@
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
       <c r="P160" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="R160" s="3"/>
       <c r="S160" s="3" t="s">
@@ -23271,15 +23312,15 @@
       </c>
       <c r="W160" s="3"/>
       <c r="X160" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="14.25" customHeight="1">
       <c r="A161" s="41" t="s">
-        <v>2323</v>
+        <v>2339</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>254</v>
@@ -23288,20 +23329,22 @@
         <v>302</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I161" s="3"/>
+        <v>1613</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>1934</v>
+      </c>
       <c r="J161" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -23309,10 +23352,10 @@
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R161" s="3"/>
       <c r="S161" s="3" t="s">
@@ -23325,43 +23368,41 @@
         <v>300</v>
       </c>
       <c r="V161" s="3">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A162" s="2" t="s">
-        <v>26</v>
+      <c r="A162" s="41" t="s">
+        <v>2323</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>1920</v>
-      </c>
+        <v>1614</v>
+      </c>
+      <c r="I162" s="3"/>
       <c r="J162" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -23369,10 +23410,10 @@
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="R162" s="3"/>
       <c r="S162" s="3" t="s">
@@ -23385,43 +23426,43 @@
         <v>300</v>
       </c>
       <c r="V162" s="3">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="W162" s="3"/>
       <c r="X162" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="14.25" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>1974</v>
+        <v>1615</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>1920</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -23429,10 +23470,10 @@
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
       <c r="P163" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="R163" s="3"/>
       <c r="S163" s="3" t="s">
@@ -23442,61 +23483,57 @@
         <v>299</v>
       </c>
       <c r="U163" s="3" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="V163" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="W163" s="3"/>
       <c r="X163" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A164" s="42" t="s">
-        <v>2317</v>
+      <c r="A164" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>330</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I164" s="10" t="s">
-        <v>1930</v>
+        <v>1616</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>1974</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
-      <c r="N164" s="10" t="s">
-        <v>1931</v>
-      </c>
-      <c r="O164" s="10" t="s">
-        <v>1932</v>
-      </c>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
       <c r="P164" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="R164" s="3"/>
       <c r="S164" s="3" t="s">
@@ -23509,60 +23546,60 @@
         <v>330</v>
       </c>
       <c r="V164" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W164" s="3"/>
       <c r="X164" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="15" customHeight="1">
-      <c r="A165" s="2" t="s">
-        <v>28</v>
+    <row r="165" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A165" s="42" t="s">
+        <v>2317</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>2557</v>
+        <v>1617</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>1979</v>
+        <v>1930</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
       <c r="N165" s="10" t="s">
-        <v>1980</v>
-      </c>
-      <c r="O165" s="3"/>
+        <v>1931</v>
+      </c>
+      <c r="O165" s="10" t="s">
+        <v>1932</v>
+      </c>
       <c r="P165" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="R165" s="10" t="s">
-        <v>2556</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="R165" s="3"/>
       <c r="S165" s="3" t="s">
         <v>1317</v>
       </c>
@@ -23570,59 +23607,63 @@
         <v>299</v>
       </c>
       <c r="U165" s="3" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="V165" s="3">
         <v>4.3</v>
       </c>
       <c r="W165" s="3"/>
       <c r="X165" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="14.25" customHeight="1">
+    <row r="166" spans="1:24" ht="15" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>1619</v>
+        <v>2557</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>1967</v>
+        <v>1979</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
+      <c r="N166" s="10" t="s">
+        <v>1980</v>
+      </c>
       <c r="O166" s="3"/>
       <c r="P166" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="R166" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="R166" s="10" t="s">
+        <v>2556</v>
+      </c>
       <c r="S166" s="3" t="s">
         <v>1317</v>
       </c>
@@ -23637,52 +23678,50 @@
       </c>
       <c r="W166" s="3"/>
       <c r="X166" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A167" s="41" t="s">
-        <v>2338</v>
+      <c r="A167" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>1935</v>
+        <v>1967</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
-      <c r="O167" s="10" t="s">
-        <v>1936</v>
-      </c>
+      <c r="O167" s="3"/>
       <c r="P167" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="R167" s="3"/>
       <c r="S167" s="3" t="s">
@@ -23692,57 +23731,59 @@
         <v>299</v>
       </c>
       <c r="U167" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="V167" s="3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="W167" s="3"/>
       <c r="X167" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A168" s="2" t="s">
-        <v>31</v>
+      <c r="A168" s="41" t="s">
+        <v>2338</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>254</v>
+        <v>659</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>1917</v>
+        <v>1935</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
+      <c r="O168" s="10" t="s">
+        <v>1936</v>
+      </c>
       <c r="P168" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="R168" s="3"/>
       <c r="S168" s="3" t="s">
@@ -23752,46 +23793,46 @@
         <v>299</v>
       </c>
       <c r="U168" s="3" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="V168" s="3">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="W168" s="3"/>
       <c r="X168" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="14.25" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>1954</v>
+        <v>1917</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -23799,10 +23840,10 @@
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="R169" s="3"/>
       <c r="S169" s="3" t="s">
@@ -23812,44 +23853,46 @@
         <v>299</v>
       </c>
       <c r="U169" s="3" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="V169" s="3">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="W169" s="3"/>
       <c r="X169" s="3" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="14.25" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I170" s="3"/>
+        <v>1623</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>1954</v>
+      </c>
       <c r="J170" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -23857,10 +23900,10 @@
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="R170" s="3"/>
       <c r="S170" s="3" t="s">
@@ -23873,56 +23916,52 @@
         <v>338</v>
       </c>
       <c r="V170" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W170" s="3"/>
       <c r="X170" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A171" s="42" t="s">
-        <v>2318</v>
+    <row r="171" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A171" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I171" s="10" t="s">
-        <v>1918</v>
-      </c>
-      <c r="J171" s="18" t="s">
-        <v>406</v>
+        <v>1624</v>
+      </c>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
-      <c r="N171" s="10" t="s">
-        <v>1919</v>
-      </c>
+      <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="R171" s="3"/>
       <c r="S171" s="3" t="s">
@@ -23935,52 +23974,56 @@
         <v>338</v>
       </c>
       <c r="V171" s="3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="W171" s="3"/>
       <c r="X171" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A172" s="2" t="s">
-        <v>34</v>
+    <row r="172" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A172" s="42" t="s">
+        <v>2318</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>1691</v>
+        <v>1442</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3" t="s">
-        <v>413</v>
+        <v>1625</v>
+      </c>
+      <c r="I172" s="10" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J172" s="18" t="s">
+        <v>406</v>
       </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
+      <c r="N172" s="10" t="s">
+        <v>1919</v>
+      </c>
       <c r="O172" s="3"/>
       <c r="P172" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="R172" s="3"/>
       <c r="S172" s="3" t="s">
@@ -23990,46 +24033,44 @@
         <v>299</v>
       </c>
       <c r="U172" s="3" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="V172" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W172" s="3"/>
       <c r="X172" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="14.25" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>254</v>
+        <v>1443</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>1691</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I173" s="10" t="s">
-        <v>1988</v>
-      </c>
+        <v>1626</v>
+      </c>
+      <c r="I173" s="3"/>
       <c r="J173" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -24037,59 +24078,59 @@
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="R173" s="3"/>
       <c r="S173" s="3" t="s">
         <v>1317</v>
       </c>
       <c r="T173" s="3" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
       <c r="U173" s="3" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="V173" s="3">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W173" s="3"/>
       <c r="X173" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="14.25" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
@@ -24097,10 +24138,10 @@
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="R174" s="3"/>
       <c r="S174" s="3" t="s">
@@ -24117,52 +24158,50 @@
       </c>
       <c r="W174" s="3"/>
       <c r="X174" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="14.25" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>435</v>
+        <v>194</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I175" s="3"/>
+        <v>1628</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>1978</v>
+      </c>
       <c r="J175" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
-      <c r="N175" s="10" t="s">
-        <v>1964</v>
-      </c>
-      <c r="O175" s="10" t="s">
-        <v>1965</v>
-      </c>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
       <c r="P175" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="R175" s="3"/>
       <c r="S175" s="3" t="s">
@@ -24175,52 +24214,56 @@
         <v>300</v>
       </c>
       <c r="V175" s="3">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="W175" s="3"/>
       <c r="X175" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="17.25" customHeight="1">
+    <row r="176" spans="1:24" ht="14.25" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I176" s="3"/>
-      <c r="J176" s="10" t="s">
-        <v>2264</v>
+      <c r="J176" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
-      <c r="O176" s="3"/>
-      <c r="P176" s="10" t="s">
-        <v>444</v>
+      <c r="N176" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O176" s="10" t="s">
+        <v>1965</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="R176" s="3"/>
       <c r="S176" s="3" t="s">
@@ -24233,52 +24276,52 @@
         <v>300</v>
       </c>
       <c r="V176" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="W176" s="3"/>
       <c r="X176" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="17.25" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>254</v>
+        <v>440</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I177" s="3"/>
-      <c r="J177" s="3" t="s">
-        <v>450</v>
+      <c r="J177" s="10" t="s">
+        <v>2264</v>
       </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
-      <c r="P177" s="3" t="s">
-        <v>451</v>
+      <c r="P177" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="R177" s="3"/>
       <c r="S177" s="3" t="s">
@@ -24291,56 +24334,52 @@
         <v>300</v>
       </c>
       <c r="V177" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W177" s="3"/>
       <c r="X177" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="14.25" customHeight="1">
+    <row r="178" spans="1:24" ht="17.25" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>194</v>
+        <v>449</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I178" s="10" t="s">
-        <v>1951</v>
-      </c>
+        <v>1631</v>
+      </c>
+      <c r="I178" s="3"/>
       <c r="J178" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
-      <c r="O178" s="10" t="s">
-        <v>1952</v>
-      </c>
+      <c r="O178" s="3"/>
       <c r="P178" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="R178" s="3"/>
       <c r="S178" s="3" t="s">
@@ -24353,54 +24392,56 @@
         <v>300</v>
       </c>
       <c r="V178" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W178" s="3"/>
       <c r="X178" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="14.25" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>462</v>
+        <v>194</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="J179" s="3"/>
+        <v>1951</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
-      <c r="N179" s="10" t="s">
-        <v>1937</v>
-      </c>
-      <c r="O179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="10" t="s">
+        <v>1952</v>
+      </c>
       <c r="P179" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="R179" s="3"/>
       <c r="S179" s="3" t="s">
@@ -24413,52 +24454,54 @@
         <v>300</v>
       </c>
       <c r="V179" s="3">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="W179" s="3"/>
       <c r="X179" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="14.25" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>467</v>
+        <v>302</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>1923</v>
+        <v>463</v>
       </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
+      <c r="N180" s="10" t="s">
+        <v>1937</v>
+      </c>
       <c r="O180" s="3"/>
       <c r="P180" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3" t="s">
@@ -24475,50 +24518,48 @@
       </c>
       <c r="W180" s="3"/>
       <c r="X180" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="20" customHeight="1">
+    <row r="181" spans="1:24" ht="14.25" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3" t="s">
-        <v>476</v>
-      </c>
+        <v>1634</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
-      <c r="N181" s="10" t="s">
-        <v>1922</v>
-      </c>
+      <c r="N181" s="3"/>
       <c r="O181" s="3"/>
       <c r="P181" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q181" s="18" t="s">
-        <v>478</v>
+        <v>470</v>
+      </c>
+      <c r="Q181" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="R181" s="3"/>
       <c r="S181" s="3" t="s">
@@ -24531,52 +24572,54 @@
         <v>300</v>
       </c>
       <c r="V181" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W181" s="3"/>
       <c r="X181" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="20" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="J182" s="17"/>
+        <v>1635</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
+      <c r="N182" s="10" t="s">
+        <v>1922</v>
+      </c>
       <c r="O182" s="3"/>
       <c r="P182" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q182" s="3" t="s">
-        <v>485</v>
+        <v>477</v>
+      </c>
+      <c r="Q182" s="18" t="s">
+        <v>478</v>
       </c>
       <c r="R182" s="3"/>
       <c r="S182" s="3" t="s">
@@ -24593,52 +24636,50 @@
       </c>
       <c r="W182" s="3"/>
       <c r="X182" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="20" customHeight="1">
-      <c r="A183" s="41" t="s">
-        <v>2319</v>
+      <c r="A183" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3" t="s">
-        <v>490</v>
-      </c>
+        <v>1636</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J183" s="17"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
       <c r="P183" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q183" s="21" t="s">
-        <v>1909</v>
-      </c>
-      <c r="R183" s="3" t="s">
-        <v>492</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="Q183" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="R183" s="3"/>
       <c r="S183" s="3" t="s">
         <v>1317</v>
       </c>
@@ -24649,60 +24690,56 @@
         <v>300</v>
       </c>
       <c r="V183" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W183" s="3"/>
       <c r="X183" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="20" customHeight="1">
-      <c r="A184" s="2" t="s">
-        <v>45</v>
+      <c r="A184" s="41" t="s">
+        <v>2319</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I184" s="10" t="s">
-        <v>1912</v>
-      </c>
+        <v>1637</v>
+      </c>
+      <c r="I184" s="3"/>
       <c r="J184" s="3" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
-      <c r="N184" s="10" t="s">
-        <v>1910</v>
-      </c>
-      <c r="O184" s="10" t="s">
-        <v>1911</v>
-      </c>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
       <c r="P184" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q184" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="R184" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="Q184" s="21" t="s">
+        <v>1909</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="S184" s="3" t="s">
         <v>1317</v>
       </c>
@@ -24713,54 +24750,58 @@
         <v>300</v>
       </c>
       <c r="V184" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W184" s="3"/>
       <c r="X184" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="20" customHeight="1">
-      <c r="A185" s="41" t="s">
-        <v>2337</v>
+      <c r="A185" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>280</v>
+        <v>494</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>1956</v>
+        <v>1912</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
-      <c r="O185" s="3"/>
+      <c r="N185" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="O185" s="10" t="s">
+        <v>1911</v>
+      </c>
       <c r="P185" s="3" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="R185" s="3"/>
       <c r="S185" s="3" t="s">
@@ -24770,44 +24811,46 @@
         <v>424</v>
       </c>
       <c r="U185" s="3" t="s">
-        <v>541</v>
+        <v>300</v>
       </c>
       <c r="V185" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="20" customHeight="1">
       <c r="A186" s="41" t="s">
-        <v>2324</v>
+        <v>2337</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>543</v>
+        <v>280</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1640</v>
-      </c>
-      <c r="I186" s="3"/>
+        <v>1639</v>
+      </c>
+      <c r="I186" s="10" t="s">
+        <v>1956</v>
+      </c>
       <c r="J186" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
@@ -24815,10 +24858,10 @@
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="R186" s="3"/>
       <c r="S186" s="3" t="s">
@@ -24831,52 +24874,52 @@
         <v>541</v>
       </c>
       <c r="V186" s="3">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="20" customHeight="1">
       <c r="A187" s="41" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>339</v>
+        <v>543</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I187" s="10" t="s">
-        <v>1933</v>
-      </c>
-      <c r="J187" s="3"/>
+        <v>1640</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="R187" s="3"/>
       <c r="S187" s="3" t="s">
@@ -24889,54 +24932,52 @@
         <v>541</v>
       </c>
       <c r="V187" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="20" customHeight="1">
-      <c r="A188" s="2" t="s">
-        <v>50</v>
+      <c r="A188" s="41" t="s">
+        <v>2325</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>555</v>
+        <v>339</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>324</v>
+        <v>551</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>1969</v>
-      </c>
-      <c r="J188" s="3" t="s">
-        <v>557</v>
-      </c>
+        <v>1933</v>
+      </c>
+      <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
       <c r="P188" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="R188" s="3"/>
       <c r="S188" s="3" t="s">
@@ -24946,46 +24987,46 @@
         <v>424</v>
       </c>
       <c r="U188" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="V188" s="3">
         <v>4.8</v>
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="20" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -24993,10 +25034,10 @@
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
       <c r="P189" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="R189" s="3"/>
       <c r="S189" s="3" t="s">
@@ -25009,43 +25050,43 @@
         <v>560</v>
       </c>
       <c r="V189" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="20" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>280</v>
+        <v>562</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
@@ -25053,10 +25094,10 @@
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
       <c r="P190" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="R190" s="3"/>
       <c r="S190" s="3" t="s">
@@ -25069,19 +25110,19 @@
         <v>560</v>
       </c>
       <c r="V190" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W190" s="3"/>
       <c r="X190" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="20" customHeight="1">
-      <c r="A191" s="41" t="s">
-        <v>2326</v>
+      <c r="A191" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>331</v>
@@ -25090,20 +25131,22 @@
         <v>280</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1645</v>
-      </c>
-      <c r="I191" s="3"/>
+        <v>1644</v>
+      </c>
+      <c r="I191" s="10" t="s">
+        <v>1957</v>
+      </c>
       <c r="J191" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
@@ -25111,10 +25154,10 @@
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="R191" s="3"/>
       <c r="S191" s="3" t="s">
@@ -25127,43 +25170,41 @@
         <v>560</v>
       </c>
       <c r="V191" s="3">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W191" s="3"/>
       <c r="X191" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="20" customHeight="1">
-      <c r="A192" s="2" t="s">
-        <v>53</v>
+      <c r="A192" s="41" t="s">
+        <v>2326</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>581</v>
+        <v>280</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I192" s="10" t="s">
-        <v>1953</v>
-      </c>
+        <v>1645</v>
+      </c>
+      <c r="I192" s="3"/>
       <c r="J192" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
@@ -25171,10 +25212,10 @@
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
       <c r="P192" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="R192" s="3"/>
       <c r="S192" s="3" t="s">
@@ -25187,58 +25228,54 @@
         <v>560</v>
       </c>
       <c r="V192" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W192" s="3"/>
       <c r="X192" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="20" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>214</v>
+        <v>583</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>1927</v>
+        <v>1953</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
-      <c r="N193" s="10" t="s">
-        <v>1928</v>
-      </c>
-      <c r="O193" s="10" t="s">
-        <v>1929</v>
-      </c>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
       <c r="P193" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="R193" s="3"/>
       <c r="S193" s="3" t="s">
@@ -25251,52 +25288,58 @@
         <v>560</v>
       </c>
       <c r="V193" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="20" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>596</v>
+        <v>214</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I194" s="3"/>
+        <v>1647</v>
+      </c>
+      <c r="I194" s="10" t="s">
+        <v>1927</v>
+      </c>
       <c r="J194" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
+      <c r="N194" s="10" t="s">
+        <v>1928</v>
+      </c>
+      <c r="O194" s="10" t="s">
+        <v>1929</v>
+      </c>
       <c r="P194" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="R194" s="3"/>
       <c r="S194" s="3" t="s">
@@ -25309,43 +25352,41 @@
         <v>560</v>
       </c>
       <c r="V194" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W194" s="3"/>
       <c r="X194" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="20" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I195" s="10" t="s">
-        <v>604</v>
-      </c>
+        <v>1648</v>
+      </c>
+      <c r="I195" s="3"/>
       <c r="J195" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -25353,10 +25394,10 @@
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
       <c r="P195" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="R195" s="3"/>
       <c r="S195" s="3" t="s">
@@ -25369,56 +25410,54 @@
         <v>560</v>
       </c>
       <c r="V195" s="3">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="W195" s="3"/>
       <c r="X195" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="20" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>469</v>
+        <v>603</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>1972</v>
+        <v>604</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
-      <c r="N196" s="10" t="s">
-        <v>1973</v>
-      </c>
+      <c r="N196" s="3"/>
       <c r="O196" s="3"/>
       <c r="P196" s="3" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="R196" s="3"/>
       <c r="S196" s="3" t="s">
@@ -25428,57 +25467,59 @@
         <v>424</v>
       </c>
       <c r="U196" s="3" t="s">
-        <v>330</v>
+        <v>560</v>
       </c>
       <c r="V196" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W196" s="3"/>
       <c r="X196" s="3" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="20" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>647</v>
+        <v>469</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>1925</v>
+        <v>1972</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
+      <c r="N197" s="10" t="s">
+        <v>1973</v>
+      </c>
       <c r="O197" s="3"/>
       <c r="P197" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="R197" s="3"/>
       <c r="S197" s="3" t="s">
@@ -25495,56 +25536,50 @@
       </c>
       <c r="W197" s="3"/>
       <c r="X197" s="3" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="20" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>1959</v>
+        <v>1925</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="K198" s="10" t="s">
-        <v>2278</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
-      <c r="N198" s="10" t="s">
-        <v>1960</v>
-      </c>
-      <c r="O198" s="10" t="s">
-        <v>1961</v>
-      </c>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
       <c r="P198" s="3" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="R198" s="3"/>
       <c r="S198" s="3" t="s">
@@ -25554,59 +25589,63 @@
         <v>424</v>
       </c>
       <c r="U198" s="3" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="V198" s="3">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W198" s="3"/>
       <c r="X198" s="3" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="20" customHeight="1">
-      <c r="A199" s="41" t="s">
-        <v>2327</v>
+      <c r="A199" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>254</v>
+        <v>659</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="K199" s="3"/>
+        <v>663</v>
+      </c>
+      <c r="K199" s="10" t="s">
+        <v>2278</v>
+      </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
+      <c r="N199" s="10" t="s">
+        <v>1960</v>
+      </c>
       <c r="O199" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="P199" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="R199" s="3"/>
       <c r="S199" s="3" t="s">
@@ -25616,57 +25655,59 @@
         <v>424</v>
       </c>
       <c r="U199" s="3" t="s">
-        <v>673</v>
+        <v>368</v>
       </c>
       <c r="V199" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W199" s="3"/>
       <c r="X199" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="20" customHeight="1">
-      <c r="A200" s="2" t="s">
-        <v>64</v>
+      <c r="A200" s="41" t="s">
+        <v>2327</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I200" s="3"/>
-      <c r="J200" s="18" t="s">
-        <v>678</v>
+        <v>1653</v>
+      </c>
+      <c r="I200" s="10" t="s">
+        <v>1962</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
-      <c r="N200" s="10" t="s">
-        <v>1924</v>
-      </c>
-      <c r="O200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="10" t="s">
+        <v>1963</v>
+      </c>
       <c r="P200" s="3" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="R200" s="3"/>
       <c r="S200" s="3" t="s">
@@ -25676,59 +25717,57 @@
         <v>424</v>
       </c>
       <c r="U200" s="3" t="s">
-        <v>432</v>
+        <v>673</v>
       </c>
       <c r="V200" s="3">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W200" s="3"/>
       <c r="X200" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="20" customHeight="1">
-      <c r="A201" s="42" t="s">
-        <v>2320</v>
+      <c r="A201" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>1691</v>
+        <v>1471</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I201" s="10" t="s">
-        <v>1947</v>
-      </c>
-      <c r="J201" s="3" t="s">
-        <v>686</v>
+        <v>1654</v>
+      </c>
+      <c r="I201" s="3"/>
+      <c r="J201" s="18" t="s">
+        <v>678</v>
       </c>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
       <c r="N201" s="10" t="s">
-        <v>1948</v>
+        <v>1924</v>
       </c>
       <c r="O201" s="3"/>
       <c r="P201" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="R201" s="3"/>
       <c r="S201" s="3" t="s">
@@ -25738,55 +25777,59 @@
         <v>424</v>
       </c>
       <c r="U201" s="3" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="V201" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W201" s="3"/>
       <c r="X201" s="3" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="20" customHeight="1">
-      <c r="A202" s="2" t="s">
-        <v>66</v>
+      <c r="A202" s="42" t="s">
+        <v>2320</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>697</v>
+        <v>1472</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>1691</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>280</v>
+        <v>683</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I202" s="3"/>
+        <v>1655</v>
+      </c>
+      <c r="I202" s="10" t="s">
+        <v>1947</v>
+      </c>
       <c r="J202" s="3" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
+      <c r="N202" s="10" t="s">
+        <v>1948</v>
+      </c>
       <c r="O202" s="3"/>
       <c r="P202" s="3" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="R202" s="3"/>
       <c r="S202" s="3" t="s">
@@ -25796,123 +25839,119 @@
         <v>424</v>
       </c>
       <c r="U202" s="3" t="s">
-        <v>697</v>
+        <v>416</v>
       </c>
       <c r="V202" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W202" s="3"/>
       <c r="X202" s="3" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="20" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>254</v>
+        <v>697</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>732</v>
+        <v>280</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>194</v>
+        <v>699</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="I203" s="10" t="s">
-        <v>1989</v>
-      </c>
+        <v>1656</v>
+      </c>
+      <c r="I203" s="3"/>
       <c r="J203" s="3" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
-      <c r="N203" s="10" t="s">
-        <v>1990</v>
-      </c>
-      <c r="O203" s="10" t="s">
-        <v>1991</v>
-      </c>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
       <c r="P203" s="3" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="R203" s="3"/>
       <c r="S203" s="3" t="s">
         <v>1317</v>
       </c>
       <c r="T203" s="3" t="s">
-        <v>710</v>
+        <v>424</v>
       </c>
       <c r="U203" s="3" t="s">
-        <v>541</v>
+        <v>697</v>
       </c>
       <c r="V203" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="W203" s="3"/>
       <c r="X203" s="3" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="20" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>740</v>
+        <v>194</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I204" s="3"/>
+        <v>1657</v>
+      </c>
+      <c r="I204" s="10" t="s">
+        <v>1989</v>
+      </c>
       <c r="J204" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="10" t="s">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="O204" s="10" t="s">
-        <v>1971</v>
+        <v>1991</v>
       </c>
       <c r="P204" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="R204" s="3"/>
       <c r="S204" s="3" t="s">
@@ -25925,54 +25964,56 @@
         <v>541</v>
       </c>
       <c r="V204" s="3">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="W204" s="3"/>
       <c r="X204" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="205" spans="1:24" ht="20" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
       <c r="N205" s="10" t="s">
-        <v>1968</v>
-      </c>
-      <c r="O205" s="3"/>
-      <c r="P205" s="10" t="s">
-        <v>749</v>
+        <v>1970</v>
+      </c>
+      <c r="O205" s="10" t="s">
+        <v>1971</v>
+      </c>
+      <c r="P205" s="3" t="s">
+        <v>742</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="R205" s="3"/>
       <c r="S205" s="3" t="s">
@@ -25985,52 +26026,54 @@
         <v>541</v>
       </c>
       <c r="V205" s="3">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="W205" s="3"/>
       <c r="X205" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:24" ht="20" customHeight="1">
-      <c r="A206" s="41" t="s">
-        <v>2336</v>
+      <c r="A206" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E206" s="3"/>
+        <v>745</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>746</v>
+      </c>
       <c r="F206" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="I206" s="10" t="s">
-        <v>1949</v>
-      </c>
+        <v>1659</v>
+      </c>
+      <c r="I206" s="3"/>
       <c r="J206" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
+      <c r="N206" s="10" t="s">
+        <v>1968</v>
+      </c>
       <c r="O206" s="3"/>
-      <c r="P206" s="3" t="s">
-        <v>755</v>
+      <c r="P206" s="10" t="s">
+        <v>749</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="R206" s="3"/>
       <c r="S206" s="3" t="s">
@@ -26043,52 +26086,52 @@
         <v>541</v>
       </c>
       <c r="V206" s="3">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="W206" s="3"/>
       <c r="X206" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="20" customHeight="1">
       <c r="A207" s="41" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>759</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="E207" s="3"/>
       <c r="F207" s="3" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>1938</v>
-      </c>
-      <c r="J207" s="3"/>
+        <v>1949</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>754</v>
+      </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="R207" s="3"/>
       <c r="S207" s="3" t="s">
@@ -26101,19 +26144,19 @@
         <v>541</v>
       </c>
       <c r="V207" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W207" s="3"/>
       <c r="X207" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="20" customHeight="1">
       <c r="A208" s="41" t="s">
-        <v>2328</v>
+        <v>2335</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>440</v>
@@ -26122,35 +26165,31 @@
         <v>758</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
-      <c r="N208" s="10" t="s">
-        <v>1939</v>
-      </c>
-      <c r="O208" s="10" t="s">
-        <v>1940</v>
-      </c>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
       <c r="P208" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R208" s="3"/>
       <c r="S208" s="3" t="s">
@@ -26163,52 +26202,56 @@
         <v>541</v>
       </c>
       <c r="V208" s="3">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="W208" s="3"/>
       <c r="X208" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="20" customHeight="1">
-      <c r="A209" s="2" t="s">
-        <v>74</v>
+      <c r="A209" s="41" t="s">
+        <v>2328</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>770</v>
+        <v>551</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1663</v>
-      </c>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3" t="s">
-        <v>771</v>
-      </c>
+        <v>1662</v>
+      </c>
+      <c r="I209" s="10" t="s">
+        <v>1941</v>
+      </c>
+      <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
+      <c r="N209" s="10" t="s">
+        <v>1939</v>
+      </c>
+      <c r="O209" s="10" t="s">
+        <v>1940</v>
+      </c>
       <c r="P209" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="R209" s="3"/>
       <c r="S209" s="3" t="s">
@@ -26221,58 +26264,54 @@
         <v>541</v>
       </c>
       <c r="V209" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W209" s="3"/>
       <c r="X209" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="20" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I210" s="3"/>
-      <c r="J210" s="10" t="s">
-        <v>1983</v>
+      <c r="J210" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
-      <c r="N210" s="10" t="s">
-        <v>1981</v>
-      </c>
+      <c r="N210" s="3"/>
       <c r="O210" s="3"/>
       <c r="P210" s="3" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="R210" s="10" t="s">
-        <v>1982</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="R210" s="3"/>
       <c r="S210" s="3" t="s">
         <v>1317</v>
       </c>
@@ -26280,59 +26319,61 @@
         <v>710</v>
       </c>
       <c r="U210" s="3" t="s">
-        <v>804</v>
+        <v>541</v>
       </c>
       <c r="V210" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W210" s="3"/>
       <c r="X210" s="3" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="20" customHeight="1">
-      <c r="A211" s="41" t="s">
-        <v>2329</v>
+      <c r="A211" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>752</v>
+        <v>799</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>545</v>
+        <v>801</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1665</v>
-      </c>
-      <c r="I211" s="10" t="s">
-        <v>1950</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>807</v>
+        <v>1664</v>
+      </c>
+      <c r="I211" s="3"/>
+      <c r="J211" s="10" t="s">
+        <v>1983</v>
       </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
+      <c r="N211" s="10" t="s">
+        <v>1981</v>
+      </c>
       <c r="O211" s="3"/>
       <c r="P211" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="R211" s="3"/>
+        <v>803</v>
+      </c>
+      <c r="R211" s="10" t="s">
+        <v>1982</v>
+      </c>
       <c r="S211" s="3" t="s">
         <v>1317</v>
       </c>
@@ -26343,43 +26384,43 @@
         <v>804</v>
       </c>
       <c r="V211" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W211" s="3"/>
       <c r="X211" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="20" customHeight="1">
-      <c r="A212" s="42" t="s">
-        <v>2330</v>
+      <c r="A212" s="41" t="s">
+        <v>2329</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>812</v>
+        <v>545</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
@@ -26387,10 +26428,10 @@
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
       <c r="P212" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="R212" s="3"/>
       <c r="S212" s="3" t="s">
@@ -26403,54 +26444,54 @@
         <v>804</v>
       </c>
       <c r="V212" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W212" s="3"/>
       <c r="X212" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="20" customHeight="1">
-      <c r="A213" s="2" t="s">
-        <v>80</v>
+      <c r="A213" s="42" t="s">
+        <v>2330</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>1692</v>
+        <v>1483</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>817</v>
+        <v>758</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="I213" s="3"/>
+        <v>1666</v>
+      </c>
+      <c r="I213" s="10" t="s">
+        <v>1942</v>
+      </c>
       <c r="J213" s="3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="K213" s="3"/>
-      <c r="L213" s="10" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M213" s="10"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
       <c r="P213" s="3" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="R213" s="3"/>
       <c r="S213" s="3" t="s">
@@ -26463,56 +26504,54 @@
         <v>804</v>
       </c>
       <c r="V213" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W213" s="3"/>
       <c r="X213" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="20" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>346</v>
+        <v>1484</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>1692</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>677</v>
+        <v>819</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="10" t="s">
-        <v>1913</v>
-      </c>
-      <c r="O214" s="10" t="s">
-        <v>1914</v>
-      </c>
+      <c r="L214" s="10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="M214" s="10"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
       <c r="P214" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="R214" s="3"/>
       <c r="S214" s="3" t="s">
@@ -26525,52 +26564,56 @@
         <v>804</v>
       </c>
       <c r="V214" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W214" s="3"/>
       <c r="X214" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="20" customHeight="1">
-      <c r="A215" s="42" t="s">
-        <v>2331</v>
+      <c r="A215" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>758</v>
+        <v>824</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>812</v>
+        <v>677</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
+      <c r="N215" s="10" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O215" s="10" t="s">
+        <v>1914</v>
+      </c>
       <c r="P215" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="R215" s="3"/>
       <c r="S215" s="3" t="s">
@@ -26580,42 +26623,44 @@
         <v>710</v>
       </c>
       <c r="U215" s="3" t="s">
-        <v>330</v>
+        <v>804</v>
       </c>
       <c r="V215" s="3">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W215" s="3"/>
       <c r="X215" s="3" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="20" customHeight="1">
-      <c r="A216" s="2" t="s">
-        <v>86</v>
+      <c r="A216" s="42" t="s">
+        <v>2331</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>863</v>
+        <v>321</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E216" s="3"/>
+        <v>758</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>830</v>
+      </c>
       <c r="F216" s="3" t="s">
-        <v>865</v>
+        <v>812</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="3" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -26623,10 +26668,10 @@
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
       <c r="P216" s="3" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="R216" s="3"/>
       <c r="S216" s="3" t="s">
@@ -26636,51 +26681,53 @@
         <v>710</v>
       </c>
       <c r="U216" s="3" t="s">
-        <v>869</v>
+        <v>330</v>
       </c>
       <c r="V216" s="3">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="W216" s="3"/>
       <c r="X216" s="3" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="20" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>863</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
+      <c r="J217" s="3" t="s">
+        <v>866</v>
+      </c>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="R217" s="3"/>
       <c r="S217" s="3" t="s">
@@ -26693,54 +26740,48 @@
         <v>869</v>
       </c>
       <c r="V217" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W217" s="3"/>
       <c r="X217" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="20" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>681</v>
+        <v>863</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>882</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="E218" s="3"/>
       <c r="F218" s="3" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I218" s="3"/>
-      <c r="J218" s="3" t="s">
-        <v>884</v>
-      </c>
+      <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
-      <c r="N218" s="10" t="s">
-        <v>1943</v>
-      </c>
+      <c r="N218" s="3"/>
       <c r="O218" s="3"/>
       <c r="P218" s="3" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="R218" s="3"/>
       <c r="S218" s="3" t="s">
@@ -26750,59 +26791,57 @@
         <v>710</v>
       </c>
       <c r="U218" s="3" t="s">
-        <v>682</v>
+        <v>869</v>
       </c>
       <c r="V218" s="3">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W218" s="3"/>
       <c r="X218" s="3" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="20" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>440</v>
+        <v>681</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>895</v>
+        <v>758</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="3" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
       <c r="N219" s="10" t="s">
-        <v>1986</v>
-      </c>
-      <c r="O219" s="10" t="s">
-        <v>1987</v>
-      </c>
+        <v>1943</v>
+      </c>
+      <c r="O219" s="3"/>
       <c r="P219" s="3" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="R219" s="3"/>
       <c r="S219" s="3" t="s">
@@ -26812,59 +26851,61 @@
         <v>710</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>460</v>
+        <v>682</v>
       </c>
       <c r="V219" s="3">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="W219" s="3"/>
       <c r="X219" s="3" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="20" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I220" s="3"/>
-      <c r="J220" s="10" t="s">
-        <v>1985</v>
+      <c r="J220" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
+      <c r="N220" s="10" t="s">
+        <v>1986</v>
+      </c>
+      <c r="O220" s="10" t="s">
+        <v>1987</v>
+      </c>
       <c r="P220" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="R220" s="10" t="s">
-        <v>1984</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="R220" s="3"/>
       <c r="S220" s="3" t="s">
         <v>1317</v>
       </c>
@@ -26875,56 +26916,56 @@
         <v>460</v>
       </c>
       <c r="V220" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="W220" s="3"/>
       <c r="X220" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="20" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>324</v>
+        <v>904</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I221" s="3"/>
-      <c r="J221" s="3" t="s">
-        <v>910</v>
+      <c r="J221" s="10" t="s">
+        <v>1985</v>
       </c>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
-      <c r="O221" s="10" t="s">
-        <v>1977</v>
-      </c>
+      <c r="O221" s="3"/>
       <c r="P221" s="3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="R221" s="3"/>
+        <v>906</v>
+      </c>
+      <c r="R221" s="10" t="s">
+        <v>1984</v>
+      </c>
       <c r="S221" s="3" t="s">
         <v>1317</v>
       </c>
@@ -26935,58 +26976,54 @@
         <v>460</v>
       </c>
       <c r="V221" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W221" s="3"/>
       <c r="X221" s="3" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="20" customHeight="1">
-      <c r="A222" s="42" t="s">
-        <v>2332</v>
+      <c r="A222" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>758</v>
+        <v>908</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>551</v>
+        <v>324</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I222" s="10" t="s">
-        <v>1944</v>
-      </c>
+        <v>1675</v>
+      </c>
+      <c r="I222" s="3"/>
       <c r="J222" s="3" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
-      <c r="N222" s="10" t="s">
-        <v>1945</v>
-      </c>
+      <c r="N222" s="3"/>
       <c r="O222" s="10" t="s">
-        <v>1946</v>
+        <v>1977</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="R222" s="3"/>
       <c r="S222" s="3" t="s">
@@ -26999,58 +27036,58 @@
         <v>460</v>
       </c>
       <c r="V222" s="3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="W222" s="3"/>
       <c r="X222" s="3" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="20" customHeight="1">
-      <c r="A223" s="2" t="s">
-        <v>94</v>
+      <c r="A223" s="42" t="s">
+        <v>2332</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>925</v>
+        <v>758</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>927</v>
+        <v>551</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>928</v>
+        <v>1944</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
       <c r="N223" s="10" t="s">
-        <v>1915</v>
+        <v>1945</v>
       </c>
       <c r="O223" s="10" t="s">
-        <v>1916</v>
+        <v>1946</v>
       </c>
       <c r="P223" s="3" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="Q223" s="3" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="R223" s="3"/>
       <c r="S223" s="3" t="s">
@@ -27063,52 +27100,58 @@
         <v>460</v>
       </c>
       <c r="V223" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W223" s="3"/>
       <c r="X223" s="3" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="20" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I224" s="3"/>
+        <v>1677</v>
+      </c>
+      <c r="I224" s="10" t="s">
+        <v>928</v>
+      </c>
       <c r="J224" s="3" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
+      <c r="N224" s="10" t="s">
+        <v>1915</v>
+      </c>
+      <c r="O224" s="10" t="s">
+        <v>1916</v>
+      </c>
       <c r="P224" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="Q224" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="R224" s="3"/>
       <c r="S224" s="3" t="s">
@@ -27125,50 +27168,48 @@
       </c>
       <c r="W224" s="3"/>
       <c r="X224" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A225" s="41" t="s">
-        <v>2333</v>
+    <row r="225" spans="1:24" ht="20" customHeight="1">
+      <c r="A225" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1827</v>
+        <v>1495</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>1582</v>
+        <v>1678</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>1582</v>
+        <v>1678</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="3" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
-      <c r="N225" s="10" t="s">
-        <v>1975</v>
-      </c>
+      <c r="N225" s="3"/>
       <c r="O225" s="3"/>
-      <c r="P225" s="10" t="s">
-        <v>1976</v>
+      <c r="P225" s="3" t="s">
+        <v>935</v>
       </c>
       <c r="Q225" s="3" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="R225" s="3"/>
       <c r="S225" s="3" t="s">
@@ -27181,397 +27222,405 @@
         <v>460</v>
       </c>
       <c r="V225" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W225" s="3"/>
       <c r="X225" s="3" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A226" s="2" t="s">
-        <v>1830</v>
+      <c r="A226" s="41" t="s">
+        <v>2333</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1799</v>
+        <v>1827</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>1832</v>
+        <v>440</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>641</v>
+        <v>914</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>642</v>
+        <v>915</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1839</v>
+        <v>916</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1838</v>
+        <v>1582</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>1837</v>
-      </c>
-      <c r="I226" s="10" t="s">
-        <v>1836</v>
-      </c>
+        <v>1582</v>
+      </c>
+      <c r="I226" s="3"/>
       <c r="J226" s="3" t="s">
-        <v>644</v>
+        <v>917</v>
       </c>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
+      <c r="N226" s="10" t="s">
+        <v>1975</v>
+      </c>
       <c r="O226" s="3"/>
       <c r="P226" s="10" t="s">
-        <v>1835</v>
-      </c>
-      <c r="Q226" s="10" t="s">
-        <v>1834</v>
+        <v>1976</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="R226" s="3"/>
       <c r="S226" s="3" t="s">
         <v>1317</v>
       </c>
       <c r="T226" s="3" t="s">
-        <v>1833</v>
+        <v>710</v>
       </c>
       <c r="U226" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="V226" s="3" t="s">
-        <v>1831</v>
+        <v>460</v>
+      </c>
+      <c r="V226" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="W226" s="3"/>
-      <c r="X226" s="10" t="s">
-        <v>1829</v>
+      <c r="X226" s="3" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A227" s="16" t="s">
-        <v>1865</v>
+      <c r="A227" s="2" t="s">
+        <v>1830</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1855</v>
+        <v>1799</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>1866</v>
+        <v>1832</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>1867</v>
+        <v>641</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1868</v>
+        <v>642</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>1863</v>
+        <v>1838</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>1864</v>
+        <v>1837</v>
       </c>
       <c r="I227" s="10" t="s">
-        <v>1859</v>
-      </c>
-      <c r="J227" s="15" t="s">
-        <v>1860</v>
-      </c>
-      <c r="K227" s="10" t="s">
-        <v>1862</v>
-      </c>
-      <c r="L227" s="3" t="s">
-        <v>1861</v>
-      </c>
+        <v>1836</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
       <c r="M227" s="3"/>
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
-      <c r="P227" s="10"/>
+      <c r="P227" s="10" t="s">
+        <v>1835</v>
+      </c>
       <c r="Q227" s="10" t="s">
-        <v>1856</v>
+        <v>1834</v>
       </c>
       <c r="R227" s="3"/>
       <c r="S227" s="3" t="s">
-        <v>1798</v>
+        <v>1317</v>
       </c>
       <c r="T227" s="3" t="s">
-        <v>1858</v>
-      </c>
-      <c r="U227" s="3"/>
+        <v>1833</v>
+      </c>
+      <c r="U227" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="V227" s="3" t="s">
-        <v>1700</v>
+        <v>1831</v>
       </c>
       <c r="W227" s="3"/>
       <c r="X227" s="10" t="s">
-        <v>1857</v>
+        <v>1829</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A228" s="2" t="s">
-        <v>67</v>
+    <row r="228" spans="1:24" ht="17.25" customHeight="1">
+      <c r="A228" s="16" t="s">
+        <v>1865</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1876</v>
+        <v>1855</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>254</v>
+        <v>1866</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>704</v>
+        <v>1867</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>705</v>
+        <v>1868</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>706</v>
+        <v>1869</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>1568</v>
+        <v>1863</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
+        <v>1864</v>
+      </c>
+      <c r="I228" s="10" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J228" s="15" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K228" s="10" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>1861</v>
+      </c>
       <c r="M228" s="3"/>
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
-      <c r="P228" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q228" s="3" t="s">
-        <v>709</v>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10" t="s">
+        <v>1856</v>
       </c>
       <c r="R228" s="3"/>
       <c r="S228" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="T228" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="U228" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="V228" s="3">
-        <v>4</v>
+        <v>1858</v>
+      </c>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3" t="s">
+        <v>1700</v>
       </c>
       <c r="W228" s="3"/>
-      <c r="X228" s="3" t="s">
-        <v>711</v>
+      <c r="X228" s="10" t="s">
+        <v>1857</v>
       </c>
     </row>
-    <row r="229" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
+    <row r="229" spans="1:24" ht="14.25" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>2051</v>
+        <v>67</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>2052</v>
+        <v>1876</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>2161</v>
+        <v>254</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>2053</v>
+        <v>705</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>2054</v>
-      </c>
-      <c r="G229" s="27" t="s">
-        <v>2055</v>
-      </c>
-      <c r="H229" s="27" t="s">
-        <v>2056</v>
+        <v>706</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>1568</v>
       </c>
       <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
+      <c r="J229" s="3" t="s">
+        <v>707</v>
+      </c>
       <c r="K229" s="3"/>
-      <c r="L229" s="10" t="s">
-        <v>2057</v>
-      </c>
+      <c r="L229" s="3"/>
       <c r="M229" s="3"/>
-      <c r="N229" s="10" t="s">
-        <v>2058</v>
-      </c>
-      <c r="O229" s="10" t="s">
-        <v>2059</v>
-      </c>
-      <c r="P229" s="10" t="s">
-        <v>2060</v>
-      </c>
-      <c r="Q229" s="10" t="s">
-        <v>2061</v>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="R229" s="3"/>
       <c r="S229" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="T229" s="3" t="s">
-        <v>2062</v>
+        <v>710</v>
       </c>
       <c r="U229" s="3" t="s">
-        <v>2063</v>
-      </c>
-      <c r="V229" s="3" t="s">
-        <v>2064</v>
+        <v>300</v>
+      </c>
+      <c r="V229" s="3">
+        <v>4</v>
       </c>
       <c r="W229" s="3"/>
-      <c r="X229" s="10" t="s">
-        <v>2065</v>
+      <c r="X229" s="3" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="230" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>2174</v>
+        <v>2051</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>2171</v>
+        <v>2052</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>2175</v>
+        <v>1802</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>2176</v>
+        <v>2161</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>2177</v>
-      </c>
-      <c r="F230" s="3"/>
+        <v>2053</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>2054</v>
+      </c>
       <c r="G230" s="27" t="s">
-        <v>2178</v>
+        <v>2055</v>
       </c>
       <c r="H230" s="27" t="s">
-        <v>2179</v>
-      </c>
-      <c r="I230" s="10" t="s">
-        <v>2180</v>
-      </c>
+        <v>2056</v>
+      </c>
+      <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
-      <c r="L230" s="10"/>
+      <c r="L230" s="10" t="s">
+        <v>2057</v>
+      </c>
       <c r="M230" s="3"/>
-      <c r="N230" s="10"/>
-      <c r="O230" s="10"/>
-      <c r="P230" s="10"/>
+      <c r="N230" s="10" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O230" s="10" t="s">
+        <v>2059</v>
+      </c>
+      <c r="P230" s="10" t="s">
+        <v>2060</v>
+      </c>
       <c r="Q230" s="10" t="s">
-        <v>2181</v>
+        <v>2061</v>
       </c>
       <c r="R230" s="3"/>
       <c r="S230" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="T230" s="3" t="s">
-        <v>169</v>
+        <v>2062</v>
       </c>
       <c r="U230" s="3" t="s">
-        <v>162</v>
+        <v>2063</v>
       </c>
       <c r="V230" s="3" t="s">
-        <v>2173</v>
+        <v>2064</v>
       </c>
       <c r="W230" s="3"/>
       <c r="X230" s="10" t="s">
-        <v>2172</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="231" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>2197</v>
+        <v>2174</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>2198</v>
+        <v>2171</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>1866</v>
+        <v>2175</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>2229</v>
+        <v>2176</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>2230</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>2231</v>
-      </c>
+        <v>2177</v>
+      </c>
+      <c r="F231" s="3"/>
       <c r="G231" s="27" t="s">
-        <v>2204</v>
+        <v>2178</v>
       </c>
       <c r="H231" s="27" t="s">
-        <v>2210</v>
+        <v>2179</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>2232</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>2233</v>
-      </c>
+        <v>2180</v>
+      </c>
+      <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="10"/>
-      <c r="M231" s="10" t="s">
-        <v>2234</v>
-      </c>
+      <c r="M231" s="3"/>
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="10"/>
+      <c r="Q231" s="10" t="s">
+        <v>2181</v>
+      </c>
       <c r="R231" s="3"/>
       <c r="S231" s="3" t="s">
         <v>1798</v>
       </c>
-      <c r="T231" s="3"/>
-      <c r="U231" s="3"/>
+      <c r="T231" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U231" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="V231" s="3" t="s">
-        <v>1831</v>
+        <v>2173</v>
       </c>
       <c r="W231" s="3"/>
       <c r="X231" s="10" t="s">
-        <v>2228</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="232" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>2235</v>
+        <v>2197</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>1842</v>
+        <v>1866</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>2238</v>
+        <v>2229</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>2239</v>
+        <v>2230</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>2092</v>
+        <v>2231</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>2211</v>
-      </c>
-      <c r="I232" s="10"/>
-      <c r="J232" s="3"/>
+        <v>2210</v>
+      </c>
+      <c r="I232" s="10" t="s">
+        <v>2232</v>
+      </c>
+      <c r="J232" s="10" t="s">
+        <v>2233</v>
+      </c>
       <c r="K232" s="3"/>
       <c r="L232" s="10"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="10" t="s">
-        <v>2240</v>
-      </c>
-      <c r="O232" s="10" t="s">
-        <v>2241</v>
-      </c>
+      <c r="M232" s="10" t="s">
+        <v>2234</v>
+      </c>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
       <c r="R232" s="3"/>
@@ -27581,50 +27630,50 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3" t="s">
-        <v>2237</v>
+        <v>1831</v>
       </c>
       <c r="W232" s="3"/>
       <c r="X232" s="10" t="s">
-        <v>2236</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="233" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>2257</v>
+        <v>2235</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D233" s="38" t="s">
-        <v>2259</v>
-      </c>
-      <c r="E233" s="3"/>
+        <v>1842</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>2239</v>
+      </c>
       <c r="F233" s="3" t="s">
-        <v>2260</v>
+        <v>2092</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="H233" s="27" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="I233" s="10"/>
-      <c r="J233" s="10" t="s">
-        <v>2261</v>
-      </c>
+      <c r="J233" s="3"/>
       <c r="K233" s="3"/>
-      <c r="L233" s="10" t="s">
-        <v>2262</v>
-      </c>
+      <c r="L233" s="10"/>
       <c r="M233" s="3"/>
-      <c r="N233" s="10"/>
-      <c r="O233" s="10"/>
-      <c r="P233" s="10" t="s">
-        <v>2263</v>
-      </c>
+      <c r="N233" s="10" t="s">
+        <v>2240</v>
+      </c>
+      <c r="O233" s="10" t="s">
+        <v>2241</v>
+      </c>
+      <c r="P233" s="10"/>
       <c r="Q233" s="10"/>
       <c r="R233" s="3"/>
       <c r="S233" s="3" t="s">
@@ -27633,50 +27682,50 @@
       <c r="T233" s="3"/>
       <c r="U233" s="3"/>
       <c r="V233" s="3" t="s">
-        <v>1700</v>
+        <v>2237</v>
       </c>
       <c r="W233" s="3"/>
       <c r="X233" s="10" t="s">
-        <v>2256</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>2270</v>
+        <v>2257</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>2175</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>2273</v>
-      </c>
+        <v>2258</v>
+      </c>
+      <c r="D234" s="38" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E234" s="3"/>
       <c r="F234" s="3" t="s">
-        <v>194</v>
+        <v>2260</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>2213</v>
-      </c>
-      <c r="I234" s="10" t="s">
-        <v>2275</v>
-      </c>
+        <v>2212</v>
+      </c>
+      <c r="I234" s="10"/>
       <c r="J234" s="10" t="s">
-        <v>2274</v>
+        <v>2261</v>
       </c>
       <c r="K234" s="3"/>
-      <c r="L234" s="10"/>
+      <c r="L234" s="10" t="s">
+        <v>2262</v>
+      </c>
       <c r="M234" s="3"/>
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
-      <c r="P234" s="10"/>
+      <c r="P234" s="10" t="s">
+        <v>2263</v>
+      </c>
       <c r="Q234" s="10"/>
       <c r="R234" s="3"/>
       <c r="S234" s="3" t="s">
@@ -27685,50 +27734,50 @@
       <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3" t="s">
-        <v>2251</v>
+        <v>1700</v>
       </c>
       <c r="W234" s="3"/>
       <c r="X234" s="10" t="s">
-        <v>2271</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="235" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>2282</v>
+        <v>2175</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>581</v>
+        <v>2272</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G235" s="27" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="H235" s="27" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="I235" s="10" t="s">
-        <v>2284</v>
-      </c>
-      <c r="J235" s="3"/>
+        <v>2275</v>
+      </c>
+      <c r="J235" s="10" t="s">
+        <v>2274</v>
+      </c>
       <c r="K235" s="3"/>
       <c r="L235" s="10"/>
       <c r="M235" s="3"/>
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
-      <c r="P235" s="10" t="s">
-        <v>2831</v>
-      </c>
+      <c r="P235" s="10"/>
       <c r="Q235" s="10"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3" t="s">
@@ -27737,55 +27786,51 @@
       <c r="T235" s="3"/>
       <c r="U235" s="3"/>
       <c r="V235" s="3" t="s">
-        <v>2280</v>
+        <v>2251</v>
       </c>
       <c r="W235" s="3"/>
       <c r="X235" s="10" t="s">
-        <v>2281</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="236" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>2069</v>
+        <v>2282</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>2287</v>
+        <v>581</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>2289</v>
+        <v>200</v>
       </c>
       <c r="G236" s="27" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="H236" s="27" t="s">
-        <v>2215</v>
-      </c>
-      <c r="I236" s="10"/>
-      <c r="J236" s="10" t="s">
-        <v>2290</v>
-      </c>
+        <v>2214</v>
+      </c>
+      <c r="I236" s="10" t="s">
+        <v>2284</v>
+      </c>
+      <c r="J236" s="3"/>
       <c r="K236" s="3"/>
-      <c r="L236" s="10" t="s">
-        <v>2291</v>
-      </c>
+      <c r="L236" s="10"/>
       <c r="M236" s="3"/>
-      <c r="N236" s="10" t="s">
-        <v>2292</v>
-      </c>
+      <c r="N236" s="10"/>
       <c r="O236" s="10"/>
-      <c r="P236" s="10"/>
-      <c r="Q236" s="10" t="s">
-        <v>2293</v>
-      </c>
+      <c r="P236" s="10" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Q236" s="10"/>
       <c r="R236" s="3"/>
       <c r="S236" s="3" t="s">
         <v>1798</v>
@@ -27797,52 +27842,50 @@
       </c>
       <c r="W236" s="3"/>
       <c r="X236" s="10" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="237" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>2435</v>
+        <v>2285</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>2431</v>
+        <v>2203</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>2244</v>
+        <v>2069</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>2436</v>
+        <v>2287</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>2437</v>
+        <v>2288</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>2438</v>
+        <v>2289</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>2432</v>
+        <v>2209</v>
       </c>
       <c r="H237" s="27" t="s">
-        <v>2433</v>
+        <v>2215</v>
       </c>
       <c r="I237" s="10"/>
       <c r="J237" s="10" t="s">
-        <v>2440</v>
-      </c>
-      <c r="K237" s="10" t="s">
-        <v>2442</v>
-      </c>
+        <v>2290</v>
+      </c>
+      <c r="K237" s="3"/>
       <c r="L237" s="10" t="s">
-        <v>2441</v>
+        <v>2291</v>
       </c>
       <c r="M237" s="3"/>
       <c r="N237" s="10" t="s">
-        <v>2439</v>
+        <v>2292</v>
       </c>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
       <c r="Q237" s="10" t="s">
-        <v>2443</v>
+        <v>2293</v>
       </c>
       <c r="R237" s="3"/>
       <c r="S237" s="3" t="s">
@@ -27851,50 +27894,56 @@
       <c r="T237" s="3"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3" t="s">
-        <v>2237</v>
+        <v>2280</v>
       </c>
       <c r="W237" s="3"/>
       <c r="X237" s="10" t="s">
-        <v>2434</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="238" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>2459</v>
+        <v>2435</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>2455</v>
+        <v>2431</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>2303</v>
+        <v>2244</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>2460</v>
+        <v>2436</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>2461</v>
+        <v>2437</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>2462</v>
+        <v>2438</v>
       </c>
       <c r="G238" s="27" t="s">
-        <v>2456</v>
+        <v>2432</v>
       </c>
       <c r="H238" s="27" t="s">
-        <v>2457</v>
-      </c>
-      <c r="I238" s="10" t="s">
-        <v>2463</v>
-      </c>
-      <c r="J238" s="10"/>
-      <c r="K238" s="10"/>
-      <c r="L238" s="10"/>
+        <v>2433</v>
+      </c>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K238" s="10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L238" s="10" t="s">
+        <v>2441</v>
+      </c>
       <c r="M238" s="3"/>
-      <c r="N238" s="10"/>
+      <c r="N238" s="10" t="s">
+        <v>2439</v>
+      </c>
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
       <c r="Q238" s="10" t="s">
-        <v>2464</v>
+        <v>2443</v>
       </c>
       <c r="R238" s="3"/>
       <c r="S238" s="3" t="s">
@@ -27903,53 +27952,51 @@
       <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3" t="s">
-        <v>1831</v>
+        <v>2237</v>
       </c>
       <c r="W238" s="3"/>
       <c r="X238" s="10" t="s">
-        <v>2458</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="239" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>2488</v>
+        <v>2459</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>2476</v>
+        <v>2455</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>2490</v>
+        <v>2303</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>2491</v>
+        <v>2460</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>2492</v>
+        <v>2461</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>2493</v>
+        <v>2462</v>
       </c>
       <c r="G239" s="27" t="s">
-        <v>2480</v>
+        <v>2456</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>2484</v>
+        <v>2457</v>
       </c>
       <c r="I239" s="10" t="s">
-        <v>2494</v>
+        <v>2463</v>
       </c>
       <c r="J239" s="10"/>
       <c r="K239" s="10"/>
       <c r="L239" s="10"/>
       <c r="M239" s="3"/>
-      <c r="N239" s="10" t="s">
-        <v>2495</v>
-      </c>
+      <c r="N239" s="10"/>
       <c r="O239" s="10"/>
-      <c r="P239" s="10" t="s">
-        <v>2519</v>
-      </c>
-      <c r="Q239" s="10"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10" t="s">
+        <v>2464</v>
+      </c>
       <c r="R239" s="3"/>
       <c r="S239" s="3" t="s">
         <v>1798</v>
@@ -27957,54 +28004,52 @@
       <c r="T239" s="3"/>
       <c r="U239" s="3"/>
       <c r="V239" s="3" t="s">
-        <v>1700</v>
+        <v>1831</v>
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="10" t="s">
-        <v>2489</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>2497</v>
+        <v>2488</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>2069</v>
+        <v>2490</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>2498</v>
+        <v>2491</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>2499</v>
+        <v>2492</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>2500</v>
+        <v>2493</v>
       </c>
       <c r="G240" s="27" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="H240" s="27" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="I240" s="10" t="s">
-        <v>2501</v>
-      </c>
-      <c r="J240" s="10" t="s">
-        <v>2504</v>
-      </c>
+        <v>2494</v>
+      </c>
+      <c r="J240" s="10"/>
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
       <c r="M240" s="3"/>
       <c r="N240" s="10" t="s">
-        <v>2502</v>
-      </c>
-      <c r="O240" s="10" t="s">
-        <v>2503</v>
-      </c>
-      <c r="P240" s="10"/>
+        <v>2495</v>
+      </c>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10" t="s">
+        <v>2519</v>
+      </c>
       <c r="Q240" s="10"/>
       <c r="R240" s="3"/>
       <c r="S240" s="3" t="s">
@@ -28013,47 +28058,53 @@
       <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3" t="s">
-        <v>2411</v>
+        <v>1700</v>
       </c>
       <c r="W240" s="3"/>
       <c r="X240" s="10" t="s">
-        <v>2496</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="241" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>2490</v>
+        <v>2069</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>2507</v>
+        <v>2498</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>2508</v>
+        <v>2499</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="G241" s="27" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="H241" s="27" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="I241" s="10" t="s">
-        <v>2510</v>
-      </c>
-      <c r="J241" s="10"/>
+        <v>2501</v>
+      </c>
+      <c r="J241" s="10" t="s">
+        <v>2504</v>
+      </c>
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
       <c r="M241" s="3"/>
-      <c r="N241" s="10"/>
-      <c r="O241" s="10"/>
+      <c r="N241" s="10" t="s">
+        <v>2502</v>
+      </c>
+      <c r="O241" s="10" t="s">
+        <v>2503</v>
+      </c>
       <c r="P241" s="10"/>
       <c r="Q241" s="10"/>
       <c r="R241" s="3"/>
@@ -28063,52 +28114,48 @@
       <c r="T241" s="3"/>
       <c r="U241" s="3"/>
       <c r="V241" s="3" t="s">
-        <v>2280</v>
+        <v>2411</v>
       </c>
       <c r="W241" s="3"/>
       <c r="X241" s="10" t="s">
-        <v>2506</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>2511</v>
+        <v>2505</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>2490</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="G242" s="27" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="H242" s="27" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="I242" s="10" t="s">
-        <v>2516</v>
-      </c>
-      <c r="J242" s="10" t="s">
-        <v>2517</v>
-      </c>
+        <v>2510</v>
+      </c>
+      <c r="J242" s="10"/>
       <c r="K242" s="10"/>
       <c r="L242" s="10"/>
       <c r="M242" s="3"/>
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
-      <c r="P242" s="10" t="s">
-        <v>2518</v>
-      </c>
+      <c r="P242" s="10"/>
       <c r="Q242" s="10"/>
       <c r="R242" s="3"/>
       <c r="S242" s="3" t="s">
@@ -28117,57 +28164,53 @@
       <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3" t="s">
-        <v>1700</v>
+        <v>2280</v>
       </c>
       <c r="W242" s="3"/>
       <c r="X242" s="10" t="s">
-        <v>2512</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>2562</v>
+        <v>2511</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>2558</v>
+        <v>2479</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>2244</v>
+        <v>2490</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>2563</v>
+        <v>2513</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>2564</v>
+        <v>2514</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>2565</v>
+        <v>2515</v>
       </c>
       <c r="G243" s="27" t="s">
-        <v>2559</v>
+        <v>2483</v>
       </c>
       <c r="H243" s="27" t="s">
-        <v>2560</v>
-      </c>
-      <c r="I243" s="10"/>
+        <v>2487</v>
+      </c>
+      <c r="I243" s="10" t="s">
+        <v>2516</v>
+      </c>
       <c r="J243" s="10" t="s">
-        <v>2567</v>
-      </c>
-      <c r="K243" s="10" t="s">
-        <v>2569</v>
-      </c>
-      <c r="L243" s="10" t="s">
-        <v>2568</v>
-      </c>
+        <v>2517</v>
+      </c>
+      <c r="K243" s="10"/>
+      <c r="L243" s="10"/>
       <c r="M243" s="3"/>
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10" t="s">
-        <v>2566</v>
-      </c>
-      <c r="Q243" s="10" t="s">
-        <v>2570</v>
-      </c>
+        <v>2518</v>
+      </c>
+      <c r="Q243" s="10"/>
       <c r="R243" s="3"/>
       <c r="S243" s="3" t="s">
         <v>1798</v>
@@ -28175,50 +28218,56 @@
       <c r="T243" s="3"/>
       <c r="U243" s="3"/>
       <c r="V243" s="3" t="s">
-        <v>2024</v>
+        <v>1700</v>
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="10" t="s">
-        <v>2561</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>2575</v>
+        <v>2562</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>2571</v>
+        <v>2558</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>2069</v>
+        <v>2244</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>2576</v>
+        <v>2563</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>2577</v>
+        <v>2564</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
       <c r="G244" s="27" t="s">
-        <v>2572</v>
+        <v>2559</v>
       </c>
       <c r="H244" s="27" t="s">
-        <v>2573</v>
+        <v>2560</v>
       </c>
       <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="10"/>
-      <c r="L244" s="10"/>
+      <c r="J244" s="10" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K244" s="10" t="s">
+        <v>2569</v>
+      </c>
+      <c r="L244" s="10" t="s">
+        <v>2568</v>
+      </c>
       <c r="M244" s="3"/>
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10" t="s">
-        <v>2579</v>
+        <v>2566</v>
       </c>
       <c r="Q244" s="10" t="s">
-        <v>2580</v>
+        <v>2570</v>
       </c>
       <c r="R244" s="3"/>
       <c r="S244" s="3" t="s">
@@ -28227,53 +28276,51 @@
       <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3" t="s">
-        <v>2251</v>
+        <v>2024</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="10" t="s">
-        <v>2574</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="245" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>2581</v>
+        <v>2571</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="G245" s="27" t="s">
-        <v>2582</v>
+        <v>2572</v>
       </c>
       <c r="H245" s="27" t="s">
-        <v>2583</v>
-      </c>
-      <c r="I245" s="10" t="s">
-        <v>2591</v>
-      </c>
+        <v>2573</v>
+      </c>
+      <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="3"/>
-      <c r="N245" s="10" t="s">
-        <v>2589</v>
-      </c>
+      <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10" t="s">
-        <v>2590</v>
-      </c>
-      <c r="Q245" s="10"/>
+        <v>2579</v>
+      </c>
+      <c r="Q245" s="10" t="s">
+        <v>2580</v>
+      </c>
       <c r="R245" s="3"/>
       <c r="S245" s="3" t="s">
         <v>1798</v>
@@ -28281,105 +28328,103 @@
       <c r="T245" s="3"/>
       <c r="U245" s="3"/>
       <c r="V245" s="3" t="s">
-        <v>2024</v>
+        <v>2251</v>
       </c>
       <c r="W245" s="3"/>
       <c r="X245" s="10" t="s">
-        <v>2584</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>2805</v>
+        <v>2585</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>2797</v>
+        <v>2581</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>1832</v>
+        <v>2071</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>2807</v>
+        <v>2586</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>2808</v>
+        <v>2587</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>2809</v>
+        <v>2588</v>
       </c>
       <c r="G246" s="27" t="s">
-        <v>2800</v>
+        <v>2582</v>
       </c>
       <c r="H246" s="27" t="s">
-        <v>2803</v>
+        <v>2583</v>
       </c>
       <c r="I246" s="10" t="s">
-        <v>2826</v>
+        <v>2591</v>
       </c>
       <c r="J246" s="10"/>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
       <c r="M246" s="3"/>
-      <c r="N246" s="10"/>
+      <c r="N246" s="10" t="s">
+        <v>2589</v>
+      </c>
       <c r="O246" s="10"/>
       <c r="P246" s="10" t="s">
-        <v>2827</v>
-      </c>
-      <c r="Q246" s="10" t="s">
-        <v>2806</v>
-      </c>
+        <v>2590</v>
+      </c>
+      <c r="Q246" s="10"/>
       <c r="R246" s="3"/>
       <c r="S246" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="T246" s="3"/>
       <c r="U246" s="3"/>
-      <c r="V246" s="3"/>
+      <c r="V246" s="3" t="s">
+        <v>2024</v>
+      </c>
       <c r="W246" s="3"/>
       <c r="X246" s="10" t="s">
-        <v>2825</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>2282</v>
+        <v>1832</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>2823</v>
+        <v>2808</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="G247" s="27" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="H247" s="27" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="I247" s="10" t="s">
-        <v>2824</v>
-      </c>
-      <c r="J247" s="10" t="s">
-        <v>2828</v>
-      </c>
+        <v>2826</v>
+      </c>
+      <c r="J247" s="10"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
-      <c r="M247" s="10" t="s">
-        <v>2829</v>
-      </c>
+      <c r="M247" s="3"/>
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="Q247" s="10" t="s">
         <v>2806</v>
@@ -28393,49 +28438,49 @@
       <c r="V247" s="3"/>
       <c r="W247" s="3"/>
       <c r="X247" s="10" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>2303</v>
+        <v>2282</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>2815</v>
+        <v>2823</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>194</v>
+        <v>2812</v>
       </c>
       <c r="G248" s="27" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="H248" s="27" t="s">
-        <v>2819</v>
+        <v>2804</v>
       </c>
       <c r="I248" s="10" t="s">
-        <v>2820</v>
-      </c>
-      <c r="J248" s="10"/>
+        <v>2824</v>
+      </c>
+      <c r="J248" s="10" t="s">
+        <v>2828</v>
+      </c>
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
-      <c r="M248" s="3"/>
-      <c r="N248" s="10" t="s">
-        <v>2817</v>
-      </c>
-      <c r="O248" s="10" t="s">
-        <v>2818</v>
-      </c>
+      <c r="M248" s="10" t="s">
+        <v>2829</v>
+      </c>
+      <c r="N248" s="10"/>
+      <c r="O248" s="10"/>
       <c r="P248" s="10" t="s">
-        <v>2821</v>
+        <v>2830</v>
       </c>
       <c r="Q248" s="10" t="s">
         <v>2806</v>
@@ -28449,95 +28494,93 @@
       <c r="V248" s="3"/>
       <c r="W248" s="3"/>
       <c r="X248" s="10" t="s">
-        <v>2816</v>
+        <v>2822</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="14.25" customHeight="1">
+    <row r="249" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>10</v>
+        <v>2813</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1828</v>
+        <v>2799</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>163</v>
+        <v>2303</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>2814</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>164</v>
+        <v>2815</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G249" s="4" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H249" s="4" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="G249" s="27" t="s">
+        <v>2802</v>
+      </c>
+      <c r="H249" s="27" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I249" s="10" t="s">
+        <v>2820</v>
+      </c>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
       <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-      <c r="O249" s="3"/>
-      <c r="P249" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q249" s="3" t="s">
-        <v>168</v>
+      <c r="N249" s="10" t="s">
+        <v>2817</v>
+      </c>
+      <c r="O249" s="10" t="s">
+        <v>2818</v>
+      </c>
+      <c r="P249" s="10" t="s">
+        <v>2821</v>
+      </c>
+      <c r="Q249" s="10" t="s">
+        <v>2806</v>
       </c>
       <c r="R249" s="3"/>
       <c r="S249" s="3" t="s">
-        <v>1797</v>
-      </c>
-      <c r="T249" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U249" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V249" s="3">
-        <v>3.7</v>
-      </c>
+        <v>1798</v>
+      </c>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
       <c r="W249" s="3"/>
-      <c r="X249" s="3" t="s">
-        <v>170</v>
+      <c r="X249" s="10" t="s">
+        <v>2816</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="20" customHeight="1">
+    <row r="250" spans="1:24" ht="14.25" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1496</v>
+        <v>1828</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
@@ -28545,14 +28588,14 @@
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
       <c r="P250" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="R250" s="3"/>
-      <c r="S250" s="18" t="s">
-        <v>161</v>
+      <c r="S250" s="3" t="s">
+        <v>1797</v>
       </c>
       <c r="T250" s="3" t="s">
         <v>169</v>
@@ -28561,41 +28604,41 @@
         <v>162</v>
       </c>
       <c r="V250" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W250" s="3"/>
       <c r="X250" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="20" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -28603,13 +28646,13 @@
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
       <c r="P251" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="R251" s="3"/>
-      <c r="S251" s="3" t="s">
+      <c r="S251" s="18" t="s">
         <v>161</v>
       </c>
       <c r="T251" s="3" t="s">
@@ -28619,41 +28662,41 @@
         <v>162</v>
       </c>
       <c r="V251" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W251" s="3"/>
       <c r="X251" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="20" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -28661,10 +28704,10 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -28677,41 +28720,41 @@
         <v>162</v>
       </c>
       <c r="V252" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W252" s="3"/>
       <c r="X252" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="20" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>2555</v>
+        <v>14</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -28719,10 +28762,10 @@
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="3" t="s">
@@ -28735,41 +28778,41 @@
         <v>162</v>
       </c>
       <c r="V253" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="20" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>15</v>
+        <v>2555</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -28777,10 +28820,10 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
@@ -28793,41 +28836,41 @@
         <v>162</v>
       </c>
       <c r="V254" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="20" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -28835,10 +28878,10 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R255" s="3"/>
       <c r="S255" s="3" t="s">
@@ -28851,41 +28894,41 @@
         <v>162</v>
       </c>
       <c r="V255" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="20" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -28893,10 +28936,10 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
@@ -28909,41 +28952,41 @@
         <v>162</v>
       </c>
       <c r="V256" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W256" s="3"/>
       <c r="X256" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -28951,10 +28994,10 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="R257" s="3"/>
       <c r="S257" s="3" t="s">
@@ -28967,41 +29010,41 @@
         <v>162</v>
       </c>
       <c r="V257" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W257" s="3"/>
       <c r="X257" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="20" customHeight="1">
-      <c r="A258" s="41" t="s">
-        <v>2334</v>
+      <c r="A258" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -29009,10 +29052,10 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R258" s="3"/>
       <c r="S258" s="3" t="s">
@@ -29025,41 +29068,41 @@
         <v>162</v>
       </c>
       <c r="V258" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W258" s="3"/>
       <c r="X258" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
-      <c r="A259" s="2" t="s">
-        <v>117</v>
+      <c r="A259" s="41" t="s">
+        <v>2334</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1992</v>
+        <v>1504</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>1081</v>
+        <v>239</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>1082</v>
+        <v>240</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1083</v>
+        <v>241</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>1605</v>
+        <v>1688</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1605</v>
+        <v>1688</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3" t="s">
-        <v>1084</v>
+        <v>242</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -29067,220 +29110,278 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>1085</v>
+        <v>243</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>1086</v>
+        <v>244</v>
       </c>
       <c r="R259" s="3"/>
       <c r="S259" s="3" t="s">
         <v>161</v>
       </c>
       <c r="T259" s="3" t="s">
-        <v>1038</v>
+        <v>169</v>
       </c>
       <c r="U259" s="3" t="s">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="V259" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>1087</v>
+        <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B260" s="33" t="s">
-        <v>2164</v>
+        <v>117</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1992</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D260" s="33" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E260" s="33" t="s">
-        <v>2166</v>
-      </c>
-      <c r="F260" s="33" t="s">
-        <v>180</v>
+        <v>353</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>1083</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>2168</v>
+        <v>1605</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>2169</v>
-      </c>
-      <c r="I260" s="34" t="s">
-        <v>2167</v>
-      </c>
-      <c r="Q260" s="34" t="s">
-        <v>2170</v>
-      </c>
+        <v>1605</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q260" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R260" s="3"/>
       <c r="S260" s="3" t="s">
         <v>161</v>
       </c>
       <c r="T260" s="3" t="s">
-        <v>169</v>
+        <v>1038</v>
       </c>
       <c r="U260" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V260" s="39">
-        <v>4.8</v>
-      </c>
-      <c r="X260" s="34" t="s">
-        <v>2163</v>
+        <v>353</v>
+      </c>
+      <c r="V260" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W260" s="3"/>
+      <c r="X260" s="3" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="20" customHeight="1">
-      <c r="A261" s="33" t="s">
-        <v>2402</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>2403</v>
+      <c r="A261" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B261" s="33" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>2406</v>
+        <v>2165</v>
       </c>
       <c r="E261" s="33" t="s">
-        <v>2407</v>
+        <v>2166</v>
       </c>
       <c r="F261" s="33" t="s">
-        <v>2408</v>
+        <v>180</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>2396</v>
+        <v>2168</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>2399</v>
-      </c>
-      <c r="J261" s="34" t="s">
-        <v>2409</v>
+        <v>2169</v>
+      </c>
+      <c r="I261" s="34" t="s">
+        <v>2167</v>
       </c>
       <c r="Q261" s="34" t="s">
-        <v>2410</v>
+        <v>2170</v>
       </c>
       <c r="S261" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V261" s="40" t="s">
-        <v>2405</v>
+      <c r="T261" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U261" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V261" s="39">
+        <v>4.8</v>
       </c>
       <c r="X261" s="34" t="s">
-        <v>2404</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
       <c r="A262" s="33" t="s">
-        <v>2413</v>
+        <v>2402</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2244</v>
+        <v>2403</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>2414</v>
+        <v>2406</v>
       </c>
       <c r="E262" s="33" t="s">
-        <v>2415</v>
+        <v>2407</v>
       </c>
       <c r="F262" s="33" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>2400</v>
-      </c>
-      <c r="I262" s="34" t="s">
-        <v>2418</v>
+        <v>2399</v>
       </c>
       <c r="J262" s="34" t="s">
-        <v>2420</v>
-      </c>
-      <c r="O262" s="34" t="s">
-        <v>2419</v>
-      </c>
-      <c r="P262" s="34" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="Q262" s="34" t="s">
-        <v>2421</v>
-      </c>
-      <c r="R262" s="34" t="s">
-        <v>2422</v>
+        <v>2410</v>
       </c>
       <c r="S262" s="3" t="s">
         <v>161</v>
       </c>
       <c r="V262" s="40" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="X262" s="34" t="s">
-        <v>2412</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
-      <c r="A263" s="45" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B263" s="33" t="s">
-        <v>2395</v>
+      <c r="A263" s="33" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>2394</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1842</v>
+        <v>2244</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>2424</v>
+        <v>2414</v>
       </c>
       <c r="E263" s="33" t="s">
-        <v>2425</v>
+        <v>2415</v>
       </c>
       <c r="F263" s="33" t="s">
-        <v>643</v>
+        <v>2416</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="I263" s="34" t="s">
-        <v>2428</v>
+        <v>2418</v>
       </c>
       <c r="J263" s="34" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L263" s="34" t="s">
-        <v>2427</v>
+        <v>2420</v>
+      </c>
+      <c r="O263" s="34" t="s">
+        <v>2419</v>
       </c>
       <c r="P263" s="34" t="s">
-        <v>2429</v>
+        <v>2417</v>
+      </c>
+      <c r="Q263" s="34" t="s">
+        <v>2421</v>
+      </c>
+      <c r="R263" s="34" t="s">
+        <v>2422</v>
       </c>
       <c r="S263" s="3" t="s">
         <v>161</v>
       </c>
       <c r="V263" s="40" t="s">
+        <v>2411</v>
+      </c>
+      <c r="X263" s="34" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" ht="20" customHeight="1">
+      <c r="A264" s="45" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B264" s="33" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D264" s="33" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E264" s="33" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F264" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H264" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="I264" s="34" t="s">
+        <v>2428</v>
+      </c>
+      <c r="J264" s="34" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L264" s="34" t="s">
+        <v>2427</v>
+      </c>
+      <c r="P264" s="34" t="s">
+        <v>2429</v>
+      </c>
+      <c r="S264" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V264" s="40" t="s">
         <v>2405</v>
       </c>
-      <c r="X263" s="33" t="s">
+      <c r="X264" s="33" t="s">
         <v>2423</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X259">
-    <sortCondition ref="B2:B259"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X260">
+    <sortCondition ref="B2:B260"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -29289,53 +29390,53 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J155" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="X155" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J156" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X156" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I78" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="X78" r:id="rId4" display="https://www.google.com.tw/maps/place/%E8%8F%AF%E6%BD%AE%E6%89%8B%E5%89%B5%E6%96%99%E7%90%86(%E7%84%A1%E6%8E%A5%E8%A7%B8%E5%8F%96%E9%A4%90)%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81/@25.0575831,121.3681544,16.96z/data=!4m5!3m4!1s0x3442a73b73246999:0xb466e5bd6aabb4e4!8m2!3d25.0591822!4d121.3698732?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P156" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q156" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X156" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I157" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="X157" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q158" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="X158" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J159" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="X159" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J160" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="X160" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J161" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="X161" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J162" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="X162" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J165" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="X165" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J166" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="X166" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J167" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="X167" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J168" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="X168" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J170" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="X170" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J172" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="X172" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J174" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="X174" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J175" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="X175" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J176" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="X176" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="X177" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J178" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="X178" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="X180" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="P181" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q181" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I182" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="X182" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J183" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="X183" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P157" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q157" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X157" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I158" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="X158" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q159" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="X159" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J160" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="X160" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J161" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="X161" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J162" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="X162" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J163" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="X163" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J166" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="X166" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J167" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="X167" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J168" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="X168" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J169" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="X169" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J171" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="X171" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J173" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="X173" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J175" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="X175" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J176" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="X176" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J177" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="X177" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="X178" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J179" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="X179" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="X181" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="P182" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q182" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I183" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="X183" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J184" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="X184" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="J81" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="I82" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="X82" r:id="rId50" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E5%B0%87%E8%9D%A6+%E6%B3%B0%E5%9C%8B%E6%B4%BB%E8%9D%A6%E4%B8%BB%E9%A1%8C%E9%A4%90%E5%BB%B3+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0534873,121.3570401,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a74be9237db1:0x9e3ccd92158515f5!8m2!3d25.0534825!4d121.3592342?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
@@ -29345,65 +29446,65 @@
     <hyperlink ref="X84" r:id="rId54" display="https://www.google.com.tw/maps/place/%E9%A8%B7%E4%B8%BC%E3%80%82%E6%88%91%E7%9A%84%E5%BF%83%E5%9C%A8%E9%A1%AB%E6%8A%96-%E6%9E%97%E5%8F%A3%E5%BA%97(%E4%B8%BC%E9%A3%AF%E5%B0%88%E8%B3%A3%E5%BA%97).%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E9%95%B7%E5%BA%9A%E7%BE%8E%E9%A3%9F%2F%E6%97%A5%E5%BC%8F%E4%B8%BC%E9%A3%AF%2F%E6%97%A5%E5%BC%8F%E4%BE%BF%E7%95%B6%2F%E4%B8%BC%E9%A3%AF%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E5%BF%85%E5%90%83%2F%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%2F%E6%9E%97%E5%8F%A3%E5%BF%85%E5%90%83/@25.0520445,121.3603185,16z/data=!4m5!3m4!1s0x3442a75f9f424f75:0x93cf04fd7c8efe16!8m2!3d25.0523422!4d121.3652246?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="J85" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="X85" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J185" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="X185" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J186" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="X186" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="X187" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J188" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J189" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="X189" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J190" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="X190" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J191" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="X191" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J192" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="X192" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J193" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="X193" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J194" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="X194" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J186" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="X186" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J187" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="X187" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="X188" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J189" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J190" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="X190" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J191" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="X191" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J192" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="X192" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J193" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="X193" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J194" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="X194" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J195" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="X195" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="J88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="X88" r:id="rId76" display="https://www.google.com.tw/maps/place/%E8%B1%AC%E5%B0%8D%E6%9C%89%E7%87%92%E7%83%A4%E5%90%83%E5%88%B0%E9%A3%BD+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0573643,121.3646916,17z/data=!4m5!3m4!1s0x3442a7bb6b778aaf:0xbda3de9d60485dc5!8m2!3d25.0573595!4d121.3668856?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="R91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="X89" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J196" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="X196" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J197" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="X197" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J198" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="X198" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J199" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="X199" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J201" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="X201" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J197" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="X197" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J198" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="X198" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J199" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="X199" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J200" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="X200" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J202" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="X202" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="R92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="X92" r:id="rId90" display="https://www.google.com.tw/maps/place/%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%88%E5%AF%B5%E7%89%A9%E5%8F%8B%E5%96%84%EF%BC%89/@25.055566,121.3601271,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7c690e6c15f:0x67925f1c40e9f6b7!8m2!3d25.055566!4d121.3623211?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="J93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="X93" r:id="rId92" display="https://www.google.com.tw/maps/place/%E5%93%81%E6%82%85%E9%A3%9F%E5%A0%82-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E9%99%84%E8%BF%91%E7%BE%8E%E9%A3%9F%7C%E8%8F%AF%E4%BA%9E%E5%9C%92%E5%8D%80%E7%89%B9%E8%89%B2%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E8%8F%AF%E4%BA%9E%E5%A4%96%E9%80%81%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E9%95%B7%E5%BA%9A%E6%8E%A8%E8%96%A6%E4%BE%BF%E7%95%B6%7C%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%E4%BE%BF%E7%95%B6%7C%E4%BE%BF%E7%95%B6%E5%BA%97%E6%8E%A8%E8%96%A6/@25.0589757,121.3631455,17.02z/data=!3m1!5s0x3442a736dc029dcf:0xe75dc58e04184938!4m5!3m4!1s0x3442a7309c04a1c1:0xbaf43782b13152bd!8m2!3d25.0589694!4d121.3653643?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="I94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="X94" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J203" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="X203" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J205" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="X205" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J206" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="X206" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="X207" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="X208" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J204" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="X204" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J206" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="X206" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J207" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="X207" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="X208" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="X209" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="X95" r:id="rId103" display="https://www.google.com.tw/maps/place/%E4%B8%80%E5%B0%87%E5%A3%BD%E5%8F%B8+One+Show+Sushi/@25.0551207,121.3650204,17z/data=!3m2!4b1!5s0x3442a739bf3b5e29:0x588981558b0d7dc4!4m5!3m4!1s0x3442a7d1c25ea1ed:0xc9fd7840e5972c3e!8m2!3d25.0551207!4d121.3672144?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="J98" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="X98" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J210" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="X210" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J211" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="X211" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J212" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="X212" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J214" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="X214" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J215" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="X215" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J211" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="X211" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J212" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="X212" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J213" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="X213" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J215" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="X215" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J216" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="X216" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="I53" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="X53" r:id="rId117" display="https://www.google.com.tw/maps/place/%E6%AF%AB%E7%B1%B3%E5%92%96%E5%95%A1Millimetre+Cafe/@25.0298636,121.3862162,17z/data=!4m14!1m8!3m7!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!2z5q-r57Gz5ZKW5ZWhTWlsbGltZXRyZSBDYWZl!8m2!3d25.0298622!4d121.3883815!14m1!1BCgIgAQ!3m4!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!8m2!3d25.0298622!4d121.3883815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="J99" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
@@ -29415,14 +29516,14 @@
     <hyperlink ref="I102" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="P102" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="Q102" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J218" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="X218" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J219" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="X219" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J220" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="X220" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J222" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="X222" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J219" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="X219" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J220" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="X220" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J221" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="X221" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J223" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="X223" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
     <hyperlink ref="J104" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="X104" r:id="rId136" location="rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:%5B%5B25.073528099999997,121.4300487%5D,%5B24.9801288,121.3005194%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;sxsrf=AOaemvJa0u7lJKPsiRcVtRvDZjJyqxtl4Q:1637397953224&amp;source=hp&amp;ei=trWYYbLdOJHrmAXbm4PoCA&amp;iflsig=ALs-wAMAAAAAYZjDxqQGKRPaWKt9BL6Rh_jmWRGiCMWB&amp;ved=2ahUKEwie5O3axqb0AhVIrVYBHQC9AKkQvS56BAgKEDw&amp;uact=5&amp;oq=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEM0COgcIIxDqAhAnOg0ILhDHARCvARDqAhAnOgQIIxAnOg4ILhCABBCxAxDHARDRAzoICAAQgAQQsQM6DgguEIAEELEDEMcBEKMCOgUILhCABDoFCAAQgAQ6BAgAEEM6CggAELEDEIMBEEM6CwgAEIAEELEDEIMBOggILhCABBCxAzoLCC4QgAQQxwEQrwE6CAgAELEDEIMBOgsILhCABBCxAxCDAToCCCZQuQ5YlUFgqUdoA3AAeACAAWaIAfsIkgEEMTYuMZgBAKABAbABCg&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=11820264403630838222&amp;lqi=Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF&amp;phdesc=dUIbgtEpGm0&amp;rlst=f#rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:[[25.073528099999997,121.4300487],[24.9801288,121.3005194]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
     <hyperlink ref="J105" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
@@ -29513,103 +29614,103 @@
     <hyperlink ref="N22" r:id="rId222" display="https://www.ubereats.com/tw/store/joyfull-%E5%AE%B6%E6%A8%82%E7%A6%8F%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/KqxuraEhVbmGUWxJ59Q3eQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{3B8E6762-401E-1047-9C79-DB854A6C0493}"/>
     <hyperlink ref="N25" r:id="rId223" display="https://www.ubereats.com/tw/store/%E6%97%A9%E6%97%A9%E9%BB%9E%E7%82%AD%E7%81%AB%E4%B8%89%E6%98%8E%E6%B2%BB/2uoTMVvsWSO5glewU92HhQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{2AE7BA2A-AA82-AE45-8316-39C67A2280BA}"/>
     <hyperlink ref="N28" r:id="rId224" display="https://www.ubereats.com/tw/store/%E6%B8%85%E5%BF%83%E7%A6%8F%E5%85%A8-%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/VJfrU05JVMK23SqLnhBUfQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{F645F1A7-85B6-C94B-ABBF-91F4C7C7D644}"/>
-    <hyperlink ref="X226" r:id="rId225" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
-    <hyperlink ref="Q226" r:id="rId226" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
-    <hyperlink ref="P226" r:id="rId227" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
-    <hyperlink ref="I226" r:id="rId228" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
+    <hyperlink ref="X227" r:id="rId225" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
+    <hyperlink ref="Q227" r:id="rId226" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
+    <hyperlink ref="P227" r:id="rId227" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
+    <hyperlink ref="I227" r:id="rId228" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
     <hyperlink ref="X126" r:id="rId229" display="https://www.google.com/maps/place/%E8%A5%BF%E5%A0%A4%E7%89%9B%E6%8E%92+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0558945,121.3623937,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fa20a4931d:0xbf676917d5844524!8m2!3d25.0558897!4d121.364974!16s%2Fg%2F11vbzb_7x6?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{48100F0D-8564-4D4F-A2F7-C01190A592F3}"/>
     <hyperlink ref="I126" r:id="rId230" xr:uid="{70075A5E-07D7-C643-8900-F1F53B633058}"/>
     <hyperlink ref="I127" r:id="rId231" xr:uid="{C63E6F88-32E9-E145-8659-BC34F5A3224E}"/>
-    <hyperlink ref="X227" r:id="rId232" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
-    <hyperlink ref="I227" r:id="rId233" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
-    <hyperlink ref="K227" r:id="rId234" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
-    <hyperlink ref="J226" r:id="rId235" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
-    <hyperlink ref="Q183" r:id="rId236" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
-    <hyperlink ref="N184" r:id="rId237" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
-    <hyperlink ref="O184" r:id="rId238" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
-    <hyperlink ref="I184" r:id="rId239" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
-    <hyperlink ref="I195" r:id="rId240" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
-    <hyperlink ref="N214" r:id="rId241" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
-    <hyperlink ref="O214" r:id="rId242" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
-    <hyperlink ref="I223" r:id="rId243" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
-    <hyperlink ref="N223" r:id="rId244" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
-    <hyperlink ref="O223" r:id="rId245" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
-    <hyperlink ref="I168" r:id="rId246" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
-    <hyperlink ref="I171" r:id="rId247" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
-    <hyperlink ref="N171" r:id="rId248" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
-    <hyperlink ref="I162" r:id="rId249" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
-    <hyperlink ref="K155" r:id="rId250" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
-    <hyperlink ref="I154" r:id="rId251" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
-    <hyperlink ref="N181" r:id="rId252" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
-    <hyperlink ref="I180" r:id="rId253" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
-    <hyperlink ref="N200" r:id="rId254" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
-    <hyperlink ref="I197" r:id="rId255" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
-    <hyperlink ref="L213" r:id="rId256" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
-    <hyperlink ref="I193" r:id="rId257" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
-    <hyperlink ref="N193" r:id="rId258" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
-    <hyperlink ref="O193" r:id="rId259" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
-    <hyperlink ref="I164" r:id="rId260" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
-    <hyperlink ref="N164" r:id="rId261" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
-    <hyperlink ref="O164" r:id="rId262" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
-    <hyperlink ref="I187" r:id="rId263" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
-    <hyperlink ref="I160" r:id="rId264" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
-    <hyperlink ref="I167" r:id="rId265" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
-    <hyperlink ref="O167" r:id="rId266" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
-    <hyperlink ref="N179" r:id="rId267" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
-    <hyperlink ref="I179" r:id="rId268" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
-    <hyperlink ref="I207" r:id="rId269" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
-    <hyperlink ref="N208" r:id="rId270" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
-    <hyperlink ref="O208" r:id="rId271" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
-    <hyperlink ref="I208" r:id="rId272" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
-    <hyperlink ref="I212" r:id="rId273" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
-    <hyperlink ref="N218" r:id="rId274" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
-    <hyperlink ref="I222" r:id="rId275" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
-    <hyperlink ref="N222" r:id="rId276" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
-    <hyperlink ref="O222" r:id="rId277" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
-    <hyperlink ref="I201" r:id="rId278" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
-    <hyperlink ref="N201" r:id="rId279" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
-    <hyperlink ref="I206" r:id="rId280" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
-    <hyperlink ref="I211" r:id="rId281" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
-    <hyperlink ref="I178" r:id="rId282" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
-    <hyperlink ref="O178" r:id="rId283" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
-    <hyperlink ref="I192" r:id="rId284" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
-    <hyperlink ref="I169" r:id="rId285" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
-    <hyperlink ref="J157" r:id="rId286" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
-    <hyperlink ref="I185" r:id="rId287" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
-    <hyperlink ref="I190" r:id="rId288" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
-    <hyperlink ref="I189" r:id="rId289" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
-    <hyperlink ref="I198" r:id="rId290" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
-    <hyperlink ref="N198" r:id="rId291" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
-    <hyperlink ref="O198" r:id="rId292" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
-    <hyperlink ref="I199" r:id="rId293" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
-    <hyperlink ref="O199" r:id="rId294" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
-    <hyperlink ref="N175" r:id="rId295" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
-    <hyperlink ref="O175" r:id="rId296" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
-    <hyperlink ref="I159" r:id="rId297" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
-    <hyperlink ref="I166" r:id="rId298" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
-    <hyperlink ref="N205" r:id="rId299" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
-    <hyperlink ref="P205" r:id="rId300" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
-    <hyperlink ref="I188" r:id="rId301" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
-    <hyperlink ref="N204" r:id="rId302" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
-    <hyperlink ref="O204" r:id="rId303" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
-    <hyperlink ref="I196" r:id="rId304" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
-    <hyperlink ref="N196" r:id="rId305" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
-    <hyperlink ref="N225" r:id="rId306" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
-    <hyperlink ref="P225" r:id="rId307" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
-    <hyperlink ref="O221" r:id="rId308" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
-    <hyperlink ref="I174" r:id="rId309" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
-    <hyperlink ref="I165" r:id="rId310" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
-    <hyperlink ref="N165" r:id="rId311" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
-    <hyperlink ref="N210" r:id="rId312" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
-    <hyperlink ref="R210" r:id="rId313" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
-    <hyperlink ref="R220" r:id="rId314" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
-    <hyperlink ref="N219" r:id="rId315" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
-    <hyperlink ref="O219" r:id="rId316" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
-    <hyperlink ref="I173" r:id="rId317" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
-    <hyperlink ref="I153" r:id="rId318" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
-    <hyperlink ref="I203" r:id="rId319" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
-    <hyperlink ref="N203" r:id="rId320" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
-    <hyperlink ref="O203" r:id="rId321" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
+    <hyperlink ref="X228" r:id="rId232" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
+    <hyperlink ref="I228" r:id="rId233" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
+    <hyperlink ref="K228" r:id="rId234" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
+    <hyperlink ref="J227" r:id="rId235" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
+    <hyperlink ref="Q184" r:id="rId236" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
+    <hyperlink ref="N185" r:id="rId237" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
+    <hyperlink ref="O185" r:id="rId238" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
+    <hyperlink ref="I185" r:id="rId239" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
+    <hyperlink ref="I196" r:id="rId240" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
+    <hyperlink ref="N215" r:id="rId241" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
+    <hyperlink ref="O215" r:id="rId242" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
+    <hyperlink ref="I224" r:id="rId243" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
+    <hyperlink ref="N224" r:id="rId244" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
+    <hyperlink ref="O224" r:id="rId245" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
+    <hyperlink ref="I169" r:id="rId246" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
+    <hyperlink ref="I172" r:id="rId247" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
+    <hyperlink ref="N172" r:id="rId248" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
+    <hyperlink ref="I163" r:id="rId249" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
+    <hyperlink ref="K156" r:id="rId250" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
+    <hyperlink ref="I155" r:id="rId251" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
+    <hyperlink ref="N182" r:id="rId252" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
+    <hyperlink ref="I181" r:id="rId253" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
+    <hyperlink ref="N201" r:id="rId254" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
+    <hyperlink ref="I198" r:id="rId255" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
+    <hyperlink ref="L214" r:id="rId256" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
+    <hyperlink ref="I194" r:id="rId257" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
+    <hyperlink ref="N194" r:id="rId258" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
+    <hyperlink ref="O194" r:id="rId259" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
+    <hyperlink ref="I165" r:id="rId260" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
+    <hyperlink ref="N165" r:id="rId261" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
+    <hyperlink ref="O165" r:id="rId262" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
+    <hyperlink ref="I188" r:id="rId263" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
+    <hyperlink ref="I161" r:id="rId264" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
+    <hyperlink ref="I168" r:id="rId265" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
+    <hyperlink ref="O168" r:id="rId266" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
+    <hyperlink ref="N180" r:id="rId267" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
+    <hyperlink ref="I180" r:id="rId268" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
+    <hyperlink ref="I208" r:id="rId269" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
+    <hyperlink ref="N209" r:id="rId270" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
+    <hyperlink ref="O209" r:id="rId271" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
+    <hyperlink ref="I209" r:id="rId272" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
+    <hyperlink ref="I213" r:id="rId273" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
+    <hyperlink ref="N219" r:id="rId274" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
+    <hyperlink ref="I223" r:id="rId275" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
+    <hyperlink ref="N223" r:id="rId276" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
+    <hyperlink ref="O223" r:id="rId277" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
+    <hyperlink ref="I202" r:id="rId278" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
+    <hyperlink ref="N202" r:id="rId279" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
+    <hyperlink ref="I207" r:id="rId280" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
+    <hyperlink ref="I212" r:id="rId281" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
+    <hyperlink ref="I179" r:id="rId282" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
+    <hyperlink ref="O179" r:id="rId283" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
+    <hyperlink ref="I193" r:id="rId284" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
+    <hyperlink ref="I170" r:id="rId285" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
+    <hyperlink ref="J158" r:id="rId286" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
+    <hyperlink ref="I186" r:id="rId287" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
+    <hyperlink ref="I191" r:id="rId288" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
+    <hyperlink ref="I190" r:id="rId289" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
+    <hyperlink ref="I199" r:id="rId290" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
+    <hyperlink ref="N199" r:id="rId291" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
+    <hyperlink ref="O199" r:id="rId292" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
+    <hyperlink ref="I200" r:id="rId293" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
+    <hyperlink ref="O200" r:id="rId294" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
+    <hyperlink ref="N176" r:id="rId295" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
+    <hyperlink ref="O176" r:id="rId296" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
+    <hyperlink ref="I160" r:id="rId297" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
+    <hyperlink ref="I167" r:id="rId298" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
+    <hyperlink ref="N206" r:id="rId299" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
+    <hyperlink ref="P206" r:id="rId300" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
+    <hyperlink ref="I189" r:id="rId301" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
+    <hyperlink ref="N205" r:id="rId302" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
+    <hyperlink ref="O205" r:id="rId303" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
+    <hyperlink ref="I197" r:id="rId304" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
+    <hyperlink ref="N197" r:id="rId305" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
+    <hyperlink ref="N226" r:id="rId306" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
+    <hyperlink ref="P226" r:id="rId307" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
+    <hyperlink ref="O222" r:id="rId308" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
+    <hyperlink ref="I175" r:id="rId309" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
+    <hyperlink ref="I166" r:id="rId310" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
+    <hyperlink ref="N166" r:id="rId311" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
+    <hyperlink ref="N211" r:id="rId312" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
+    <hyperlink ref="R211" r:id="rId313" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
+    <hyperlink ref="R221" r:id="rId314" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
+    <hyperlink ref="N220" r:id="rId315" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
+    <hyperlink ref="O220" r:id="rId316" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
+    <hyperlink ref="I174" r:id="rId317" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
+    <hyperlink ref="I154" r:id="rId318" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
+    <hyperlink ref="I204" r:id="rId319" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
+    <hyperlink ref="N204" r:id="rId320" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
+    <hyperlink ref="O204" r:id="rId321" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
     <hyperlink ref="X54" r:id="rId322" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{45D9C521-E559-BC45-9F85-DFFC37D7B69D}"/>
     <hyperlink ref="N54" r:id="rId323" xr:uid="{79B50CB0-12F4-C141-B83C-09C7A9EBCF2A}"/>
     <hyperlink ref="X55" r:id="rId324" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AD16DD2F-FF20-054D-959B-2FDBCE9082ED}"/>
@@ -29623,12 +29724,12 @@
     <hyperlink ref="X131" r:id="rId332" display="https://www.google.com/maps/place/%E4%B8%89%E9%85%89%E9%A3%9B%E9%8F%A2%E5%92%96%E5%95%A1/@25.058021,121.36383,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7995ba96e8f:0x101be62f285e81fd!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11vkzdp2qv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{6B9CF67F-3753-7E47-ABEA-C7BEFBFC822D}"/>
     <hyperlink ref="L131" r:id="rId333" xr:uid="{1636779D-027B-0948-AE18-A5709BD9AF5E}"/>
     <hyperlink ref="X132" r:id="rId334" display="https://www.google.com/maps/place/%E5%A4%A7%E5%9F%94%E9%90%B5%E6%9D%BF%E7%87%92+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0580209,121.3615447,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78fc5146187:0xf1963846e2e35431!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11l1hz59w_?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{8CBDF53E-B1B8-444D-A928-5A487624CD8F}"/>
-    <hyperlink ref="X229" r:id="rId335" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
-    <hyperlink ref="L229" r:id="rId336" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
-    <hyperlink ref="P229" r:id="rId337" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
-    <hyperlink ref="N229" r:id="rId338" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
-    <hyperlink ref="O229" r:id="rId339" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
-    <hyperlink ref="Q229" r:id="rId340" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
+    <hyperlink ref="X230" r:id="rId335" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
+    <hyperlink ref="L230" r:id="rId336" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
+    <hyperlink ref="P230" r:id="rId337" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
+    <hyperlink ref="N230" r:id="rId338" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
+    <hyperlink ref="O230" r:id="rId339" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
+    <hyperlink ref="Q230" r:id="rId340" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
     <hyperlink ref="X57" r:id="rId341" xr:uid="{AEAA94A8-A02C-FC4F-BF90-253B215A9610}"/>
     <hyperlink ref="Q57" r:id="rId342" xr:uid="{E251BBA0-C38C-F74C-9DDE-8F3019EE2BB9}"/>
     <hyperlink ref="X58" r:id="rId343" display="https://www.google.com/maps/place/%E8%B6%8A%E5%8D%97%E5%B0%8F%E5%90%83+QUAN+AN+VIET+NAM/@25.0388677,121.3875023,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a786e50c633b:0x96ecd2a843a0664d!8m2!3d25.0388665!4d121.388146!16s%2Fg%2F11f6cq97pv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{C292726B-73A0-9543-B8AB-2F5545043597}"/>
@@ -29643,45 +29744,45 @@
     <hyperlink ref="I65" r:id="rId352" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N65" r:id="rId353" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O65" r:id="rId354" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X260" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I260" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q260" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
-    <hyperlink ref="X230" r:id="rId358" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
-    <hyperlink ref="I230" r:id="rId359" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
-    <hyperlink ref="Q230" r:id="rId360" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
+    <hyperlink ref="X261" r:id="rId355" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I261" r:id="rId356" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q261" r:id="rId357" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X231" r:id="rId358" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
+    <hyperlink ref="I231" r:id="rId359" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
+    <hyperlink ref="Q231" r:id="rId360" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
     <hyperlink ref="J66" r:id="rId361" xr:uid="{5ABD78D0-2E3F-5949-859F-50CBC6FC1515}"/>
     <hyperlink ref="L66" r:id="rId362" xr:uid="{EFB62CBA-8B17-7B4E-A3A4-C06087CDA974}"/>
     <hyperlink ref="P66" r:id="rId363" xr:uid="{F382E5C7-9AE7-3544-A39A-C87180B28272}"/>
-    <hyperlink ref="I231" r:id="rId364" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
-    <hyperlink ref="J231" r:id="rId365" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
-    <hyperlink ref="M231" r:id="rId366" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
-    <hyperlink ref="X232" r:id="rId367" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
-    <hyperlink ref="N232" r:id="rId368" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
-    <hyperlink ref="O232" r:id="rId369" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
+    <hyperlink ref="I232" r:id="rId364" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
+    <hyperlink ref="J232" r:id="rId365" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
+    <hyperlink ref="M232" r:id="rId366" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
+    <hyperlink ref="X233" r:id="rId367" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
+    <hyperlink ref="N233" r:id="rId368" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
+    <hyperlink ref="O233" r:id="rId369" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
     <hyperlink ref="X133" r:id="rId370" display="https://www.google.com/maps/place/%E8%8A%B3%E7%8F%8D%E8%94%AC%E9%A3%9F-%E9%BE%9C%E5%B1%B1%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0583405,121.3647725,15z/data=!4m6!3m5!1s0x3442a795977959cd:0xc215fc0b3335dc88!8m2!3d25.0583405!4d121.3647725!16s%2Fg%2F11vf31ctly?entry=ttu" xr:uid="{52AEA38A-91B1-8A47-9ECD-F87A770334A4}"/>
     <hyperlink ref="I133" r:id="rId371" xr:uid="{ACA4CA0F-9DEA-5840-99B0-820A4768567B}"/>
     <hyperlink ref="N133" r:id="rId372" xr:uid="{973BF0A5-4740-3E43-81DF-591051DC3E13}"/>
     <hyperlink ref="O133" r:id="rId373" xr:uid="{B65BC528-A8B1-B046-BD8B-D7F4533D8426}"/>
     <hyperlink ref="X134" r:id="rId374" display="https://www.google.com/maps/place/Y.J+COFFEE+%E7%8E%89%E6%B4%A5%E5%92%96%E5%95%A1-%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0608361,121.3643035,15z/data=!4m6!3m5!1s0x3442a760bd153451:0x18fc101d2eb228!8m2!3d25.0608361!4d121.3643035!16s%2Fg%2F11v68wsch9?hl=zh-TW&amp;entry=ttu" xr:uid="{8620CE66-049B-0B45-96BC-88EDF3E4F5EF}"/>
     <hyperlink ref="P134" r:id="rId375" xr:uid="{B7E4B78F-886E-0D40-AAC2-A20F39A5D19B}"/>
-    <hyperlink ref="X233" r:id="rId376" xr:uid="{D513533E-5F99-4047-AFF2-BF0206D0D5AA}"/>
-    <hyperlink ref="J233" r:id="rId377" xr:uid="{5A05419A-E761-7C4D-96E7-7E3BD4FA4D32}"/>
-    <hyperlink ref="L233" r:id="rId378" xr:uid="{F2B113FB-4E69-6141-B9E9-12771F9A2627}"/>
-    <hyperlink ref="P233" r:id="rId379" xr:uid="{EE9DBF4F-4B6C-374D-A208-E3DB2FFD284E}"/>
-    <hyperlink ref="P176" r:id="rId380" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
+    <hyperlink ref="X234" r:id="rId376" xr:uid="{D513533E-5F99-4047-AFF2-BF0206D0D5AA}"/>
+    <hyperlink ref="J234" r:id="rId377" xr:uid="{5A05419A-E761-7C4D-96E7-7E3BD4FA4D32}"/>
+    <hyperlink ref="L234" r:id="rId378" xr:uid="{F2B113FB-4E69-6141-B9E9-12771F9A2627}"/>
+    <hyperlink ref="P234" r:id="rId379" xr:uid="{EE9DBF4F-4B6C-374D-A208-E3DB2FFD284E}"/>
+    <hyperlink ref="P177" r:id="rId380" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
     <hyperlink ref="X135" r:id="rId381" display="https://www.google.com/maps/place/BroFood%E4%BD%A0%E7%9A%84%E4%BC%AF%E7%88%B6%E5%B7%B2%E4%B8%8A%E7%B7%9A/@25.0541886,121.364174,15z/data=!4m6!3m5!1s0x3442a7d44aac8683:0x5ed109106289102f!8m2!3d25.0554989!4d121.3672224!16s%2Fg%2F11vd9rbppy?hl=zh-TW&amp;entry=ttu" xr:uid="{587F4B97-2A31-2444-BE86-7ED2A781000A}"/>
     <hyperlink ref="N135" r:id="rId382" xr:uid="{DBD80C1C-15BB-E743-B181-07B5B73386D2}"/>
-    <hyperlink ref="X234" r:id="rId383" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
-    <hyperlink ref="J234" r:id="rId384" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
-    <hyperlink ref="I234" r:id="rId385" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
+    <hyperlink ref="X235" r:id="rId383" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
+    <hyperlink ref="J235" r:id="rId384" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
+    <hyperlink ref="I235" r:id="rId385" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
     <hyperlink ref="N107" r:id="rId386" xr:uid="{BF71F067-376F-C84F-A040-1CE32EDBAA71}"/>
     <hyperlink ref="K107" r:id="rId387" xr:uid="{FA5F13B7-74CD-B340-9FE2-EAC3123473D7}"/>
-    <hyperlink ref="K198" r:id="rId388" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
-    <hyperlink ref="I235" r:id="rId389" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
-    <hyperlink ref="J236" r:id="rId390" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
-    <hyperlink ref="L236" r:id="rId391" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
-    <hyperlink ref="N236" r:id="rId392" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
-    <hyperlink ref="Q236" r:id="rId393" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
+    <hyperlink ref="K199" r:id="rId388" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
+    <hyperlink ref="I236" r:id="rId389" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
+    <hyperlink ref="J237" r:id="rId390" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
+    <hyperlink ref="L237" r:id="rId391" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
+    <hyperlink ref="N237" r:id="rId392" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
+    <hyperlink ref="Q237" r:id="rId393" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
     <hyperlink ref="N136" r:id="rId394" xr:uid="{738457FA-3787-1F49-BA31-1BC2BAFB08F3}"/>
     <hyperlink ref="O136" r:id="rId395" xr:uid="{74692A90-DA12-314B-BF4D-E90CA31C36BE}"/>
     <hyperlink ref="I136" r:id="rId396" xr:uid="{0D193AA9-6E05-734F-8E8A-050CA65757A0}"/>
@@ -29710,60 +29811,60 @@
     <hyperlink ref="L68" r:id="rId419" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N68" r:id="rId420" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q68" r:id="rId421" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X261" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J261" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q261" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X262" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P262" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I262" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O262" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J262" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q262" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R262" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J263" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L263" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I263" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P263" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
-    <hyperlink ref="X237" r:id="rId436" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
-    <hyperlink ref="N237" r:id="rId437" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
-    <hyperlink ref="J237" r:id="rId438" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
-    <hyperlink ref="L237" r:id="rId439" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
-    <hyperlink ref="K237" r:id="rId440" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
-    <hyperlink ref="Q237" r:id="rId441" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
+    <hyperlink ref="X262" r:id="rId422" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J262" r:id="rId423" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q262" r:id="rId424" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X263" r:id="rId425" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P263" r:id="rId426" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I263" r:id="rId427" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O263" r:id="rId428" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J263" r:id="rId429" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q263" r:id="rId430" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R263" r:id="rId431" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J264" r:id="rId432" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L264" r:id="rId433" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I264" r:id="rId434" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P264" r:id="rId435" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X238" r:id="rId436" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
+    <hyperlink ref="N238" r:id="rId437" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
+    <hyperlink ref="J238" r:id="rId438" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
+    <hyperlink ref="L238" r:id="rId439" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
+    <hyperlink ref="K238" r:id="rId440" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
+    <hyperlink ref="Q238" r:id="rId441" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
     <hyperlink ref="X140" r:id="rId442" display="https://www.google.com/maps/place/%E7%8E%96%E7%88%90%E7%B2%BE%E7%B7%BB%E9%8D%8B%E7%89%A9-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0527632,121.3671907,18.9z/data=!4m6!3m5!1s0x3442a7306dd22b8d:0x46389e561cf3ce6!8m2!3d25.052783!4d121.368052!16s%2Fg%2F11ddxkg07g?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{94A63822-ECAF-BC42-97F6-7D1561D6C673}"/>
     <hyperlink ref="J140" r:id="rId443" xr:uid="{49BC0516-7E8B-7440-B512-ED1113397EC2}"/>
     <hyperlink ref="L140" r:id="rId444" xr:uid="{5026A099-EED6-A941-A394-2F0F837175FF}"/>
     <hyperlink ref="I140" r:id="rId445" xr:uid="{96BE1ADD-7164-E44B-9F06-725F8136A67E}"/>
     <hyperlink ref="Q140" r:id="rId446" xr:uid="{693E0203-1953-A045-98B9-4A9828CA155E}"/>
-    <hyperlink ref="X238" r:id="rId447" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
-    <hyperlink ref="I238" r:id="rId448" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
-    <hyperlink ref="Q238" r:id="rId449" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
+    <hyperlink ref="X239" r:id="rId447" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
+    <hyperlink ref="I239" r:id="rId448" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
+    <hyperlink ref="Q239" r:id="rId449" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
     <hyperlink ref="N141" r:id="rId450" xr:uid="{50E1CD44-37DC-A645-95E1-1AF636859E07}"/>
     <hyperlink ref="O141" r:id="rId451" xr:uid="{19AEE415-9DB8-174D-886C-7BF83E81EC05}"/>
     <hyperlink ref="J141" r:id="rId452" xr:uid="{9FCE9D3D-F2C5-B848-BA6F-0C59883F00AB}"/>
     <hyperlink ref="Q141" r:id="rId453" xr:uid="{02A6651D-67A9-A34C-AEC0-8F1470234998}"/>
-    <hyperlink ref="I239" r:id="rId454" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
-    <hyperlink ref="N239" r:id="rId455" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
-    <hyperlink ref="I240" r:id="rId456" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
-    <hyperlink ref="N240" r:id="rId457" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
-    <hyperlink ref="O240" r:id="rId458" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
-    <hyperlink ref="J240" r:id="rId459" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
-    <hyperlink ref="I241" r:id="rId460" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
-    <hyperlink ref="I242" r:id="rId461" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
-    <hyperlink ref="J242" r:id="rId462" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
-    <hyperlink ref="P242" r:id="rId463" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
-    <hyperlink ref="P239" r:id="rId464" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
-    <hyperlink ref="R165" r:id="rId465" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
-    <hyperlink ref="P243" r:id="rId466" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
-    <hyperlink ref="J243" r:id="rId467" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
-    <hyperlink ref="L243" r:id="rId468" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
-    <hyperlink ref="K243" r:id="rId469" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
-    <hyperlink ref="Q243" r:id="rId470" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
-    <hyperlink ref="P244" r:id="rId471" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
-    <hyperlink ref="Q244" r:id="rId472" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
-    <hyperlink ref="N245" r:id="rId473" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
-    <hyperlink ref="P245" r:id="rId474" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
-    <hyperlink ref="I245" r:id="rId475" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
+    <hyperlink ref="I240" r:id="rId454" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
+    <hyperlink ref="N240" r:id="rId455" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
+    <hyperlink ref="I241" r:id="rId456" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
+    <hyperlink ref="N241" r:id="rId457" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
+    <hyperlink ref="O241" r:id="rId458" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
+    <hyperlink ref="J241" r:id="rId459" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
+    <hyperlink ref="I242" r:id="rId460" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
+    <hyperlink ref="I243" r:id="rId461" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
+    <hyperlink ref="J243" r:id="rId462" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
+    <hyperlink ref="P243" r:id="rId463" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
+    <hyperlink ref="P240" r:id="rId464" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
+    <hyperlink ref="R166" r:id="rId465" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
+    <hyperlink ref="P244" r:id="rId466" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
+    <hyperlink ref="J244" r:id="rId467" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
+    <hyperlink ref="L244" r:id="rId468" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
+    <hyperlink ref="K244" r:id="rId469" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
+    <hyperlink ref="Q244" r:id="rId470" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
+    <hyperlink ref="P245" r:id="rId471" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
+    <hyperlink ref="Q245" r:id="rId472" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
+    <hyperlink ref="N246" r:id="rId473" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
+    <hyperlink ref="P246" r:id="rId474" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
+    <hyperlink ref="I246" r:id="rId475" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
     <hyperlink ref="I69" r:id="rId476" xr:uid="{EA1E3DFE-344E-FA48-9994-5ACE49222FF2}"/>
     <hyperlink ref="K69" r:id="rId477" xr:uid="{796D8F3B-3FE3-7E44-AD28-4211B63E8248}"/>
     <hyperlink ref="P69" r:id="rId478" xr:uid="{675AB809-2BC9-A746-9147-8D721F7507A7}"/>
@@ -29821,22 +29922,28 @@
     <hyperlink ref="N151" r:id="rId530" xr:uid="{D4E5F5A9-24FE-0A46-8C60-9882588F5EC7}"/>
     <hyperlink ref="O152" r:id="rId531" xr:uid="{9EB4FBD6-FFDB-714E-9EAA-FA0978031869}"/>
     <hyperlink ref="N152" r:id="rId532" xr:uid="{609A7BED-5BCD-E242-9E68-5A6A2DE45487}"/>
-    <hyperlink ref="Q246" r:id="rId533" xr:uid="{0CD2A816-C222-F541-8371-DF8EE463A15C}"/>
-    <hyperlink ref="Q247:Q248" r:id="rId534" display="https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR" xr:uid="{617D6DF2-DD4F-0B49-BE8A-8896ABF74EFD}"/>
-    <hyperlink ref="X248" r:id="rId535" xr:uid="{227AE9B5-F117-6641-BF85-D93A78DE8B5F}"/>
-    <hyperlink ref="N248" r:id="rId536" xr:uid="{580CFFAF-B9E7-D341-B8B2-1E90BF6EE944}"/>
-    <hyperlink ref="O248" r:id="rId537" xr:uid="{F5AB8850-AFBF-6A40-AE3C-D532A31859BA}"/>
-    <hyperlink ref="I248" r:id="rId538" xr:uid="{874D8804-0E85-0B40-878B-59E784685E92}"/>
-    <hyperlink ref="P248" r:id="rId539" xr:uid="{F0B75305-21B2-9A47-AEE9-BFA539D49D9C}"/>
-    <hyperlink ref="X247" r:id="rId540" display="https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{4C4096D1-967B-C641-B7D9-2DFC55745B8E}"/>
-    <hyperlink ref="I247" r:id="rId541" location="358881131" xr:uid="{09B6A8DC-B49F-654E-B68D-86CEB9CB313F}"/>
-    <hyperlink ref="X246" r:id="rId542" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
-    <hyperlink ref="I246" r:id="rId543" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
-    <hyperlink ref="P246" r:id="rId544" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
-    <hyperlink ref="J247" r:id="rId545" xr:uid="{F1520F3A-4DA5-844B-8C27-D564B8030350}"/>
-    <hyperlink ref="M247" r:id="rId546" xr:uid="{605002D7-0B39-2749-980B-4720BC9FC9D3}"/>
-    <hyperlink ref="P247" r:id="rId547" xr:uid="{1F8D09F2-7987-C54A-8965-AE9EDCDD0A31}"/>
-    <hyperlink ref="P235" r:id="rId548" xr:uid="{9C83DF22-8391-564F-A64C-E56B34F74693}"/>
+    <hyperlink ref="Q247" r:id="rId533" xr:uid="{0CD2A816-C222-F541-8371-DF8EE463A15C}"/>
+    <hyperlink ref="Q248:Q249" r:id="rId534" display="https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR" xr:uid="{617D6DF2-DD4F-0B49-BE8A-8896ABF74EFD}"/>
+    <hyperlink ref="X249" r:id="rId535" xr:uid="{227AE9B5-F117-6641-BF85-D93A78DE8B5F}"/>
+    <hyperlink ref="N249" r:id="rId536" xr:uid="{580CFFAF-B9E7-D341-B8B2-1E90BF6EE944}"/>
+    <hyperlink ref="O249" r:id="rId537" xr:uid="{F5AB8850-AFBF-6A40-AE3C-D532A31859BA}"/>
+    <hyperlink ref="I249" r:id="rId538" xr:uid="{874D8804-0E85-0B40-878B-59E784685E92}"/>
+    <hyperlink ref="P249" r:id="rId539" xr:uid="{F0B75305-21B2-9A47-AEE9-BFA539D49D9C}"/>
+    <hyperlink ref="X248" r:id="rId540" display="https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{4C4096D1-967B-C641-B7D9-2DFC55745B8E}"/>
+    <hyperlink ref="I248" r:id="rId541" location="358881131" xr:uid="{09B6A8DC-B49F-654E-B68D-86CEB9CB313F}"/>
+    <hyperlink ref="X247" r:id="rId542" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
+    <hyperlink ref="I247" r:id="rId543" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
+    <hyperlink ref="P247" r:id="rId544" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
+    <hyperlink ref="J248" r:id="rId545" xr:uid="{F1520F3A-4DA5-844B-8C27-D564B8030350}"/>
+    <hyperlink ref="M248" r:id="rId546" xr:uid="{605002D7-0B39-2749-980B-4720BC9FC9D3}"/>
+    <hyperlink ref="P248" r:id="rId547" xr:uid="{1F8D09F2-7987-C54A-8965-AE9EDCDD0A31}"/>
+    <hyperlink ref="P236" r:id="rId548" xr:uid="{9C83DF22-8391-564F-A64C-E56B34F74693}"/>
+    <hyperlink ref="X153" r:id="rId549" display="https://www.google.com/maps/place/%E9%BA%B5%E5%B1%8B%E3%80%82%E6%BF%83(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)/@25.0588376,121.3693655,18z/data=!4m6!3m5!1s0x3442a73b0b4fa2f9:0x2e62ecbb1bb16d!8m2!3d25.0590887!4d121.3699559!16s%2Fg%2F11fzjct1mg?hl=zh-TW&amp;entry=ttu" xr:uid="{67066CA6-AB7C-E146-9093-B19E29478036}"/>
+    <hyperlink ref="J153" r:id="rId550" xr:uid="{CBDD26C0-2870-744F-99B4-D9EBC989DD10}"/>
+    <hyperlink ref="M153" r:id="rId551" xr:uid="{AF0E25DE-517F-304A-AA3F-A38C4A5A9E1C}"/>
+    <hyperlink ref="N153" r:id="rId552" xr:uid="{F6BDA6F5-30EB-AA43-8AF1-C7D097B290EF}"/>
+    <hyperlink ref="O153" r:id="rId553" xr:uid="{5EF38EFA-0DC1-6247-A89B-F55327F37C29}"/>
+    <hyperlink ref="Q153" r:id="rId554" xr:uid="{BFBB3DD6-6EA7-8949-9301-7E3DC8EF519C}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -29856,7 +29963,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S251:S1048576 S1:S27 S30:S249</xm:sqref>
+          <xm:sqref>S252:S1048576 S1:S27 S30:S250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3E3542-F04C-0346-B100-B75E1E3B3AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79157D8B-1262-574C-B78F-C91944D726AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20260" yWindow="-25420" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12883,10 +12883,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>麵屋。濃</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市龜山區文化一路10巷42弄47號</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -12912,6 +12908,10 @@
   </si>
   <si>
     <t>https://www.dalang.tw/nontakutaiwan/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵屋濃</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14409,10 +14409,10 @@
   <dimension ref="A1:X264"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q153" sqref="Q153"/>
+      <selection pane="bottomRight" activeCell="O155" sqref="O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -22847,7 +22847,7 @@
     </row>
     <row r="153" spans="1:24" ht="24.25" customHeight="1">
       <c r="A153" s="41" t="s">
-        <v>2836</v>
+        <v>2843</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>2832</v>
@@ -22856,10 +22856,10 @@
         <v>2303</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>2837</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>2838</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>295</v>
@@ -22872,22 +22872,22 @@
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="10" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
       <c r="M153" s="10" t="s">
+        <v>2839</v>
+      </c>
+      <c r="N153" s="10" t="s">
         <v>2840</v>
       </c>
-      <c r="N153" s="10" t="s">
+      <c r="O153" s="10" t="s">
         <v>2841</v>
-      </c>
-      <c r="O153" s="10" t="s">
-        <v>2842</v>
       </c>
       <c r="P153" s="10"/>
       <c r="Q153" s="10" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="R153" s="3"/>
       <c r="S153" s="3" t="s">

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2FBF05-D6C9-8A47-9073-015372A89731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34790435-4C4E-9B41-A5F0-2896296184E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="-27420" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="2836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2846">
   <si>
     <t>address</t>
   </si>
@@ -12886,6 +12886,43 @@
   </si>
   <si>
     <t>https://www.instagram.com/reel/C5I2ZdWvPbI/?utm_source=ig_web_copy_link</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9-107</t>
+  </si>
+  <si>
+    <t>RES-A9-107.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-107L.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%97%A5%E7%A6%8F+OH+HAPPY+DAY+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0789386,121.3763809,17z/data=!4m6!3m5!1s0x3442a7000d124d5f:0x22b75a68574b098e!8m2!3d25.0797319!4d121.377629!16s%2Fg%2F11vt1rvtdf?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日福 OH HAPPY DAY </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化二路二段46號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2603-8182</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://upssmile.com/215700/oh-happy-day-linkou</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ohhappydaynow.com/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ohhappydaynow</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14380,13 +14417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X263"/>
+  <dimension ref="A1:X264"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="J249" sqref="J249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -28471,92 +28508,86 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="14.25" customHeight="1">
+    <row r="249" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>10</v>
+        <v>2840</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1819</v>
+        <v>2836</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>162</v>
+        <v>2249</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>2841</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>163</v>
+        <v>2842</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G249" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="H249" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
+        <v>2222</v>
+      </c>
+      <c r="G249" s="27" t="s">
+        <v>2837</v>
+      </c>
+      <c r="H249" s="27" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I249" s="10" t="s">
+        <v>2844</v>
+      </c>
+      <c r="J249" s="10" t="s">
+        <v>2845</v>
+      </c>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
       <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-      <c r="O249" s="3"/>
-      <c r="P249" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q249" s="3" t="s">
-        <v>167</v>
+      <c r="N249" s="10"/>
+      <c r="O249" s="10"/>
+      <c r="P249" s="10"/>
+      <c r="Q249" s="10" t="s">
+        <v>2843</v>
       </c>
       <c r="R249" s="3"/>
       <c r="S249" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="T249" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="U249" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V249" s="3">
-        <v>3.7</v>
-      </c>
+        <v>1789</v>
+      </c>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
       <c r="W249" s="3"/>
-      <c r="X249" s="3" t="s">
-        <v>169</v>
+      <c r="X249" s="10" t="s">
+        <v>2839</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="20" customHeight="1">
+    <row r="250" spans="1:24" ht="14.25" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1492</v>
+        <v>1819</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
@@ -28564,14 +28595,14 @@
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
       <c r="P250" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="R250" s="3"/>
-      <c r="S250" s="18" t="s">
-        <v>160</v>
+      <c r="S250" s="3" t="s">
+        <v>1788</v>
       </c>
       <c r="T250" s="3" t="s">
         <v>168</v>
@@ -28580,41 +28611,41 @@
         <v>161</v>
       </c>
       <c r="V250" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W250" s="3"/>
       <c r="X250" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="20" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -28622,13 +28653,13 @@
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
       <c r="P251" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="R251" s="3"/>
-      <c r="S251" s="3" t="s">
+      <c r="S251" s="18" t="s">
         <v>160</v>
       </c>
       <c r="T251" s="3" t="s">
@@ -28638,41 +28669,41 @@
         <v>161</v>
       </c>
       <c r="V251" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W251" s="3"/>
       <c r="X251" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="20" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -28680,10 +28711,10 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -28696,41 +28727,41 @@
         <v>161</v>
       </c>
       <c r="V252" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W252" s="3"/>
       <c r="X252" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="20" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>2546</v>
+        <v>14</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -28738,10 +28769,10 @@
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="3" t="s">
@@ -28754,41 +28785,41 @@
         <v>161</v>
       </c>
       <c r="V253" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="20" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>15</v>
+        <v>2546</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -28796,10 +28827,10 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
@@ -28812,41 +28843,41 @@
         <v>161</v>
       </c>
       <c r="V254" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="20" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -28854,10 +28885,10 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="R255" s="3"/>
       <c r="S255" s="3" t="s">
@@ -28870,41 +28901,41 @@
         <v>161</v>
       </c>
       <c r="V255" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="20" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -28912,10 +28943,10 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
@@ -28928,41 +28959,41 @@
         <v>161</v>
       </c>
       <c r="V256" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W256" s="3"/>
       <c r="X256" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -28970,10 +29001,10 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="R257" s="3"/>
       <c r="S257" s="3" t="s">
@@ -28986,41 +29017,41 @@
         <v>161</v>
       </c>
       <c r="V257" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W257" s="3"/>
       <c r="X257" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="20" customHeight="1">
-      <c r="A258" s="41" t="s">
-        <v>2325</v>
+      <c r="A258" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -29028,10 +29059,10 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="R258" s="3"/>
       <c r="S258" s="3" t="s">
@@ -29044,41 +29075,41 @@
         <v>161</v>
       </c>
       <c r="V258" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W258" s="3"/>
       <c r="X258" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
-      <c r="A259" s="2" t="s">
-        <v>117</v>
+      <c r="A259" s="41" t="s">
+        <v>2325</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1983</v>
+        <v>1500</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>1080</v>
+        <v>238</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>1081</v>
+        <v>239</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1082</v>
+        <v>240</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>1600</v>
+        <v>1683</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1600</v>
+        <v>1683</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3" t="s">
-        <v>1083</v>
+        <v>241</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -29086,220 +29117,278 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>1084</v>
+        <v>242</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>1085</v>
+        <v>243</v>
       </c>
       <c r="R259" s="3"/>
       <c r="S259" s="3" t="s">
         <v>160</v>
       </c>
       <c r="T259" s="3" t="s">
-        <v>1037</v>
+        <v>168</v>
       </c>
       <c r="U259" s="3" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="V259" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>1086</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B260" s="33" t="s">
-        <v>2155</v>
+        <v>117</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1983</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D260" s="33" t="s">
-        <v>2156</v>
-      </c>
-      <c r="E260" s="33" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F260" s="33" t="s">
-        <v>179</v>
+        <v>352</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>1082</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>2159</v>
+        <v>1600</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>2160</v>
-      </c>
-      <c r="I260" s="34" t="s">
-        <v>2158</v>
-      </c>
-      <c r="Q260" s="34" t="s">
-        <v>2161</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q260" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R260" s="3"/>
       <c r="S260" s="3" t="s">
         <v>160</v>
       </c>
       <c r="T260" s="3" t="s">
-        <v>168</v>
+        <v>1037</v>
       </c>
       <c r="U260" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V260" s="39">
-        <v>4.8</v>
-      </c>
-      <c r="X260" s="34" t="s">
-        <v>2154</v>
+        <v>352</v>
+      </c>
+      <c r="V260" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W260" s="3"/>
+      <c r="X260" s="3" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="20" customHeight="1">
-      <c r="A261" s="33" t="s">
-        <v>2393</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>2384</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>2394</v>
+      <c r="A261" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B261" s="33" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>2397</v>
+        <v>2156</v>
       </c>
       <c r="E261" s="33" t="s">
-        <v>2398</v>
+        <v>2157</v>
       </c>
       <c r="F261" s="33" t="s">
-        <v>2399</v>
+        <v>179</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>2387</v>
+        <v>2159</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>2390</v>
-      </c>
-      <c r="J261" s="34" t="s">
-        <v>2400</v>
+        <v>2160</v>
+      </c>
+      <c r="I261" s="34" t="s">
+        <v>2158</v>
       </c>
       <c r="Q261" s="34" t="s">
-        <v>2401</v>
+        <v>2161</v>
       </c>
       <c r="S261" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V261" s="40" t="s">
-        <v>2396</v>
+      <c r="T261" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U261" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V261" s="39">
+        <v>4.8</v>
       </c>
       <c r="X261" s="34" t="s">
-        <v>2395</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
       <c r="A262" s="33" t="s">
-        <v>2404</v>
+        <v>2393</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2235</v>
+        <v>2394</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>2405</v>
+        <v>2397</v>
       </c>
       <c r="E262" s="33" t="s">
-        <v>2406</v>
+        <v>2398</v>
       </c>
       <c r="F262" s="33" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>2391</v>
-      </c>
-      <c r="I262" s="34" t="s">
-        <v>2409</v>
+        <v>2390</v>
       </c>
       <c r="J262" s="34" t="s">
-        <v>2411</v>
-      </c>
-      <c r="O262" s="34" t="s">
-        <v>2410</v>
-      </c>
-      <c r="P262" s="34" t="s">
-        <v>2408</v>
+        <v>2400</v>
       </c>
       <c r="Q262" s="34" t="s">
-        <v>2412</v>
-      </c>
-      <c r="R262" s="34" t="s">
-        <v>2413</v>
+        <v>2401</v>
       </c>
       <c r="S262" s="3" t="s">
         <v>160</v>
       </c>
       <c r="V262" s="40" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="X262" s="34" t="s">
-        <v>2403</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
-      <c r="A263" s="45" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B263" s="33" t="s">
-        <v>2386</v>
+      <c r="A263" s="33" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>2385</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1833</v>
+        <v>2235</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>2415</v>
+        <v>2405</v>
       </c>
       <c r="E263" s="33" t="s">
-        <v>2416</v>
+        <v>2406</v>
       </c>
       <c r="F263" s="33" t="s">
-        <v>642</v>
+        <v>2407</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="I263" s="34" t="s">
-        <v>2419</v>
+        <v>2409</v>
       </c>
       <c r="J263" s="34" t="s">
-        <v>2417</v>
-      </c>
-      <c r="L263" s="34" t="s">
-        <v>2418</v>
+        <v>2411</v>
+      </c>
+      <c r="O263" s="34" t="s">
+        <v>2410</v>
       </c>
       <c r="P263" s="34" t="s">
-        <v>2420</v>
+        <v>2408</v>
+      </c>
+      <c r="Q263" s="34" t="s">
+        <v>2412</v>
+      </c>
+      <c r="R263" s="34" t="s">
+        <v>2413</v>
       </c>
       <c r="S263" s="3" t="s">
         <v>160</v>
       </c>
       <c r="V263" s="40" t="s">
+        <v>2402</v>
+      </c>
+      <c r="X263" s="34" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" ht="20" customHeight="1">
+      <c r="A264" s="45" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B264" s="33" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D264" s="33" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E264" s="33" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F264" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="H264" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="I264" s="34" t="s">
+        <v>2419</v>
+      </c>
+      <c r="J264" s="34" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L264" s="34" t="s">
+        <v>2418</v>
+      </c>
+      <c r="P264" s="34" t="s">
+        <v>2420</v>
+      </c>
+      <c r="S264" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V264" s="40" t="s">
         <v>2396</v>
       </c>
-      <c r="X263" s="33" t="s">
+      <c r="X264" s="33" t="s">
         <v>2414</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X259">
-    <sortCondition ref="B2:B259"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X260">
+    <sortCondition ref="B2:B260"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -29661,9 +29750,9 @@
     <hyperlink ref="I64" r:id="rId351" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N64" r:id="rId352" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O64" r:id="rId353" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X260" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I260" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q260" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X261" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I261" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q261" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
     <hyperlink ref="X230" r:id="rId357" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
     <hyperlink ref="I230" r:id="rId358" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
     <hyperlink ref="Q230" r:id="rId359" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
@@ -29728,20 +29817,20 @@
     <hyperlink ref="L67" r:id="rId418" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N67" r:id="rId419" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q67" r:id="rId420" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X261" r:id="rId421" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J261" r:id="rId422" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q261" r:id="rId423" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X262" r:id="rId424" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P262" r:id="rId425" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I262" r:id="rId426" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O262" r:id="rId427" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J262" r:id="rId428" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q262" r:id="rId429" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R262" r:id="rId430" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J263" r:id="rId431" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L263" r:id="rId432" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I263" r:id="rId433" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P263" r:id="rId434" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X262" r:id="rId421" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J262" r:id="rId422" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q262" r:id="rId423" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X263" r:id="rId424" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P263" r:id="rId425" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I263" r:id="rId426" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O263" r:id="rId427" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J263" r:id="rId428" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q263" r:id="rId429" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R263" r:id="rId430" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J264" r:id="rId431" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L264" r:id="rId432" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I264" r:id="rId433" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P264" r:id="rId434" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
     <hyperlink ref="X237" r:id="rId435" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
     <hyperlink ref="N237" r:id="rId436" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
     <hyperlink ref="J237" r:id="rId437" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
@@ -29862,6 +29951,10 @@
     <hyperlink ref="O152" r:id="rId552" xr:uid="{5EF38EFA-0DC1-6247-A89B-F55327F37C29}"/>
     <hyperlink ref="Q152" r:id="rId553" xr:uid="{BFBB3DD6-6EA7-8949-9301-7E3DC8EF519C}"/>
     <hyperlink ref="Q49" r:id="rId554" xr:uid="{4EAB02B3-9F81-654B-9051-184DD2C734D6}"/>
+    <hyperlink ref="X249" r:id="rId555" display="https://www.google.com/maps/place/%E6%97%A5%E7%A6%8F+OH+HAPPY+DAY+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0789386,121.3763809,17z/data=!4m6!3m5!1s0x3442a7000d124d5f:0x22b75a68574b098e!8m2!3d25.0797319!4d121.377629!16s%2Fg%2F11vt1rvtdf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5B27D186-884F-2B42-99DD-26425134389E}"/>
+    <hyperlink ref="Q249" r:id="rId556" xr:uid="{21B9863F-2AC0-8447-88D5-DD47DBF936FE}"/>
+    <hyperlink ref="I249" r:id="rId557" xr:uid="{AA696F6C-4377-B244-B3F1-86D18B9D9EA7}"/>
+    <hyperlink ref="J249" r:id="rId558" xr:uid="{E896E9FD-3B4C-0644-A326-6B11B5667CE4}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -29881,7 +29974,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S251:S1048576 S29:S249 S1:S26</xm:sqref>
+          <xm:sqref>S252:S1048576 S1:S26 S29:S250</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34790435-4C4E-9B41-A5F0-2896296184E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4879CFA-48F5-FB4B-8844-864A632C05EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="500" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2847">
   <si>
     <t>address</t>
   </si>
@@ -12924,6 +12924,9 @@
   <si>
     <t>https://www.facebook.com/ohhappydaynow</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵板燒</t>
   </si>
 </sst>
 </file>
@@ -13147,7 +13150,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13241,17 +13244,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
@@ -13268,9 +13262,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -13283,11 +13274,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14420,10 +14420,10 @@
   <dimension ref="A1:X264"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J249" sqref="J249"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -14447,7 +14447,7 @@
     <col min="19" max="19" width="8.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="11.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="39" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="36" customWidth="1"/>
     <col min="23" max="23" width="38.33203125" style="1" customWidth="1"/>
     <col min="24" max="24" width="133.83203125" style="1" customWidth="1"/>
     <col min="25" max="16384" width="16.33203125" style="1"/>
@@ -14922,7 +14922,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>2303</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -15252,7 +15252,7 @@
         <v>1151</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="44" t="s">
+      <c r="W14" s="40" t="s">
         <v>2383</v>
       </c>
       <c r="X14" s="3" t="s">
@@ -15260,7 +15260,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="38" t="s">
         <v>2332</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -15971,7 +15971,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
-      <c r="N27" s="32" t="s">
+      <c r="N27" s="31" t="s">
         <v>1776</v>
       </c>
       <c r="O27" s="18"/>
@@ -16457,6 +16457,7 @@
       <c r="I36" s="3" t="s">
         <v>1255</v>
       </c>
+      <c r="J36" s="15"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -16639,7 +16640,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="38" t="s">
         <v>2304</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -17074,7 +17075,7 @@
         <v>1371</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>253</v>
+        <v>2249</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1306</v>
@@ -17314,6 +17315,7 @@
       <c r="I52" s="3" t="s">
         <v>837</v>
       </c>
+      <c r="J52" s="15"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -17998,10 +18000,10 @@
       <c r="J65" s="21" t="s">
         <v>2183</v>
       </c>
-      <c r="K65" s="36" t="s">
+      <c r="K65" s="33" t="s">
         <v>2184</v>
       </c>
-      <c r="L65" s="37" t="s">
+      <c r="L65" s="34" t="s">
         <v>2185</v>
       </c>
       <c r="M65" s="24"/>
@@ -18020,7 +18022,7 @@
       </c>
       <c r="U65" s="24"/>
       <c r="V65" s="25"/>
-      <c r="W65" s="35" t="s">
+      <c r="W65" s="32" t="s">
         <v>2186</v>
       </c>
       <c r="X65" s="21" t="s">
@@ -18072,7 +18074,7 @@
       <c r="V66" s="25" t="s">
         <v>2271</v>
       </c>
-      <c r="W66" s="35"/>
+      <c r="W66" s="32"/>
       <c r="X66" s="21" t="s">
         <v>2358</v>
       </c>
@@ -18103,7 +18105,7 @@
         <v>2375</v>
       </c>
       <c r="I67" s="21"/>
-      <c r="J67" s="43"/>
+      <c r="J67" s="39"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21" t="s">
         <v>2380</v>
@@ -18128,7 +18130,7 @@
       <c r="V67" s="25" t="s">
         <v>1695</v>
       </c>
-      <c r="W67" s="35"/>
+      <c r="W67" s="32"/>
       <c r="X67" s="21" t="s">
         <v>2373</v>
       </c>
@@ -18161,7 +18163,7 @@
       <c r="I68" s="21" t="s">
         <v>2587</v>
       </c>
-      <c r="J68" s="43" t="s">
+      <c r="J68" s="39" t="s">
         <v>2589</v>
       </c>
       <c r="K68" s="21" t="s">
@@ -18186,7 +18188,7 @@
       </c>
       <c r="U68" s="24"/>
       <c r="V68" s="25"/>
-      <c r="W68" s="35" t="s">
+      <c r="W68" s="32" t="s">
         <v>2590</v>
       </c>
       <c r="X68" s="21" t="s">
@@ -18221,7 +18223,7 @@
       <c r="I69" s="21" t="s">
         <v>2606</v>
       </c>
-      <c r="J69" s="43"/>
+      <c r="J69" s="39"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
       <c r="M69" s="24"/>
@@ -18240,7 +18242,7 @@
       </c>
       <c r="U69" s="24"/>
       <c r="V69" s="25"/>
-      <c r="W69" s="35"/>
+      <c r="W69" s="32"/>
       <c r="X69" s="21" t="s">
         <v>2603</v>
       </c>
@@ -18273,7 +18275,7 @@
       <c r="I70" s="21" t="s">
         <v>2614</v>
       </c>
-      <c r="J70" s="43" t="s">
+      <c r="J70" s="39" t="s">
         <v>2613</v>
       </c>
       <c r="K70" s="21"/>
@@ -18292,7 +18294,7 @@
       </c>
       <c r="U70" s="24"/>
       <c r="V70" s="25"/>
-      <c r="W70" s="35"/>
+      <c r="W70" s="32"/>
       <c r="X70" s="21" t="s">
         <v>2609</v>
       </c>
@@ -18323,7 +18325,7 @@
         <v>2617</v>
       </c>
       <c r="I71" s="21"/>
-      <c r="J71" s="43"/>
+      <c r="J71" s="39"/>
       <c r="K71" s="21" t="s">
         <v>2623</v>
       </c>
@@ -18342,7 +18344,7 @@
       </c>
       <c r="U71" s="24"/>
       <c r="V71" s="25"/>
-      <c r="W71" s="35"/>
+      <c r="W71" s="32"/>
       <c r="X71" s="21" t="s">
         <v>2619</v>
       </c>
@@ -18373,7 +18375,7 @@
         <v>1868</v>
       </c>
       <c r="I72" s="21"/>
-      <c r="J72" s="43"/>
+      <c r="J72" s="39"/>
       <c r="K72" s="21"/>
       <c r="L72" s="21"/>
       <c r="M72" s="24"/>
@@ -18394,7 +18396,7 @@
       <c r="V72" s="25" t="s">
         <v>2015</v>
       </c>
-      <c r="W72" s="35"/>
+      <c r="W72" s="32"/>
       <c r="X72" s="21" t="s">
         <v>2629</v>
       </c>
@@ -18427,7 +18429,7 @@
       <c r="I73" s="21" t="s">
         <v>2645</v>
       </c>
-      <c r="J73" s="43" t="s">
+      <c r="J73" s="39" t="s">
         <v>2642</v>
       </c>
       <c r="K73" s="21"/>
@@ -18452,7 +18454,7 @@
       <c r="V73" s="25" t="s">
         <v>2271</v>
       </c>
-      <c r="W73" s="35"/>
+      <c r="W73" s="32"/>
       <c r="X73" s="21" t="s">
         <v>2635</v>
       </c>
@@ -18483,7 +18485,7 @@
         <v>2648</v>
       </c>
       <c r="I74" s="21"/>
-      <c r="J74" s="43"/>
+      <c r="J74" s="39"/>
       <c r="K74" s="21" t="s">
         <v>2654</v>
       </c>
@@ -18510,7 +18512,7 @@
       <c r="V74" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="W74" s="35"/>
+      <c r="W74" s="32"/>
       <c r="X74" s="21" t="s">
         <v>2649</v>
       </c>
@@ -18541,7 +18543,7 @@
         <v>2660</v>
       </c>
       <c r="I75" s="21"/>
-      <c r="J75" s="43" t="s">
+      <c r="J75" s="39" t="s">
         <v>2666</v>
       </c>
       <c r="K75" s="21"/>
@@ -18562,7 +18564,7 @@
       <c r="V75" s="25" t="s">
         <v>2030</v>
       </c>
-      <c r="W75" s="35"/>
+      <c r="W75" s="32"/>
       <c r="X75" s="21" t="s">
         <v>2662</v>
       </c>
@@ -18595,7 +18597,7 @@
       <c r="I76" s="21" t="s">
         <v>2675</v>
       </c>
-      <c r="J76" s="43"/>
+      <c r="J76" s="39"/>
       <c r="K76" s="21"/>
       <c r="L76" s="21" t="s">
         <v>2671</v>
@@ -18614,7 +18616,7 @@
       </c>
       <c r="U76" s="24"/>
       <c r="V76" s="25"/>
-      <c r="W76" s="35"/>
+      <c r="W76" s="32"/>
       <c r="X76" s="21"/>
     </row>
     <row r="77" spans="1:24" ht="17.25" customHeight="1">
@@ -18645,6 +18647,7 @@
       <c r="I77" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="J77" s="15"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -18702,6 +18705,7 @@
       <c r="I78" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="J78" s="15"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -18759,6 +18763,7 @@
       <c r="I79" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="J79" s="15"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -18874,6 +18879,7 @@
       <c r="I81" s="3" t="s">
         <v>510</v>
       </c>
+      <c r="J81" s="15"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -18911,7 +18917,7 @@
         <v>1377</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>345</v>
+        <v>2120</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>514</v>
@@ -18931,6 +18937,7 @@
       <c r="I82" s="3" t="s">
         <v>517</v>
       </c>
+      <c r="J82" s="15"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -19274,6 +19281,7 @@
       <c r="H88" s="4" t="s">
         <v>2520</v>
       </c>
+      <c r="I88" s="15"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -19446,6 +19454,8 @@
       <c r="H91" s="4" t="s">
         <v>2523</v>
       </c>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -19543,7 +19553,7 @@
         <v>1388</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>345</v>
+        <v>2120</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>724</v>
@@ -19563,6 +19573,7 @@
       <c r="I93" s="3" t="s">
         <v>727</v>
       </c>
+      <c r="J93" s="15"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -19909,6 +19920,7 @@
       <c r="I99" s="3" t="s">
         <v>851</v>
       </c>
+      <c r="J99" s="15"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -20024,6 +20036,7 @@
       <c r="I101" s="3" t="s">
         <v>877</v>
       </c>
+      <c r="J101" s="15"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -20522,7 +20535,7 @@
       </c>
     </row>
     <row r="110" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A110" s="41" t="s">
+      <c r="A110" s="37" t="s">
         <v>2305</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -20549,6 +20562,7 @@
       <c r="I110" s="3" t="s">
         <v>987</v>
       </c>
+      <c r="J110" s="15"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -20772,6 +20786,7 @@
       <c r="I114" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="J114" s="15"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -20809,7 +20824,7 @@
         <v>1410</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>345</v>
+        <v>2062</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>1014</v>
@@ -20887,6 +20902,7 @@
       <c r="I116" s="3" t="s">
         <v>1021</v>
       </c>
+      <c r="J116" s="15"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -20944,6 +20960,7 @@
       <c r="I117" s="3" t="s">
         <v>1029</v>
       </c>
+      <c r="J117" s="15"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -21173,6 +21190,7 @@
       <c r="I121" s="3" t="s">
         <v>1056</v>
       </c>
+      <c r="J121" s="15"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -21344,6 +21362,7 @@
         <v>1888</v>
       </c>
       <c r="I124" s="3"/>
+      <c r="J124" s="15"/>
       <c r="K124" s="3" t="s">
         <v>1076</v>
       </c>
@@ -21451,7 +21470,7 @@
       <c r="G126" s="19" t="s">
         <v>1841</v>
       </c>
-      <c r="H126" s="31" t="s">
+      <c r="H126" s="43" t="s">
         <v>1843</v>
       </c>
       <c r="I126" s="10" t="s">
@@ -21484,7 +21503,7 @@
       <c r="X126" s="3"/>
     </row>
     <row r="127" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="37" t="s">
         <v>2306</v>
       </c>
       <c r="B127" s="30" t="s">
@@ -21600,7 +21619,7 @@
       </c>
     </row>
     <row r="129" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="37" t="s">
         <v>2312</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -21756,7 +21775,7 @@
       </c>
     </row>
     <row r="132" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A132" s="41" t="s">
+      <c r="A132" s="37" t="s">
         <v>2331</v>
       </c>
       <c r="B132" s="30" t="s">
@@ -21810,7 +21829,7 @@
       </c>
     </row>
     <row r="133" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A133" s="41" t="s">
+      <c r="A133" s="37" t="s">
         <v>2313</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -21899,10 +21918,11 @@
       </c>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
-      <c r="V134" s="40" t="s">
+      <c r="V134" s="44" t="s">
         <v>2030</v>
       </c>
-      <c r="X134" s="34" t="s">
+      <c r="W134" s="15"/>
+      <c r="X134" s="39" t="s">
         <v>2257</v>
       </c>
     </row>
@@ -21961,7 +21981,7 @@
       </c>
     </row>
     <row r="136" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A136" s="41" t="s">
+      <c r="A136" s="37" t="s">
         <v>2307</v>
       </c>
       <c r="B136" s="30" t="s">
@@ -22015,7 +22035,7 @@
       </c>
     </row>
     <row r="137" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A137" s="41" t="s">
+      <c r="A137" s="37" t="s">
         <v>2334</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -22077,7 +22097,7 @@
       </c>
     </row>
     <row r="138" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A138" s="41" t="s">
+      <c r="A138" s="37" t="s">
         <v>2369</v>
       </c>
       <c r="B138" s="30" t="s">
@@ -22131,7 +22151,7 @@
       </c>
     </row>
     <row r="139" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A139" s="41" t="s">
+      <c r="A139" s="37" t="s">
         <v>2445</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -22187,7 +22207,7 @@
       </c>
     </row>
     <row r="140" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A140" s="41" t="s">
+      <c r="A140" s="37" t="s">
         <v>2460</v>
       </c>
       <c r="B140" s="30" t="s">
@@ -22243,7 +22263,7 @@
       </c>
     </row>
     <row r="141" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A141" s="41" t="s">
+      <c r="A141" s="37" t="s">
         <v>2683</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -22297,7 +22317,7 @@
       </c>
     </row>
     <row r="142" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A142" s="41" t="s">
+      <c r="A142" s="37" t="s">
         <v>2691</v>
       </c>
       <c r="B142" s="30" t="s">
@@ -22347,7 +22367,7 @@
       </c>
     </row>
     <row r="143" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A143" s="41" t="s">
+      <c r="A143" s="37" t="s">
         <v>2727</v>
       </c>
       <c r="B143" s="30" t="s">
@@ -22403,7 +22423,7 @@
       </c>
     </row>
     <row r="144" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A144" s="41" t="s">
+      <c r="A144" s="37" t="s">
         <v>2738</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -22451,7 +22471,7 @@
       </c>
     </row>
     <row r="145" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A145" s="41" t="s">
+      <c r="A145" s="37" t="s">
         <v>2607</v>
       </c>
       <c r="B145" s="30" t="s">
@@ -22501,14 +22521,14 @@
       </c>
     </row>
     <row r="146" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A146" s="41" t="s">
+      <c r="A146" s="37" t="s">
         <v>2748</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>2704</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>2235</v>
+        <v>2846</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>2749</v>
@@ -22549,7 +22569,7 @@
       </c>
     </row>
     <row r="147" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="37" t="s">
         <v>2754</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -22599,7 +22619,7 @@
       </c>
     </row>
     <row r="148" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A148" s="41" t="s">
+      <c r="A148" s="37" t="s">
         <v>2762</v>
       </c>
       <c r="B148" s="30" t="s">
@@ -22623,7 +22643,7 @@
       <c r="H148" s="4" t="s">
         <v>2723</v>
       </c>
-      <c r="I148" s="46"/>
+      <c r="I148" s="41"/>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
@@ -22649,7 +22669,7 @@
       </c>
     </row>
     <row r="149" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="37" t="s">
         <v>2768</v>
       </c>
       <c r="B149" s="30" t="s">
@@ -22699,7 +22719,7 @@
       </c>
     </row>
     <row r="150" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A150" s="41" t="s">
+      <c r="A150" s="37" t="s">
         <v>2773</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -22751,7 +22771,7 @@
       </c>
     </row>
     <row r="151" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A151" s="41" t="s">
+      <c r="A151" s="37" t="s">
         <v>2781</v>
       </c>
       <c r="B151" s="30" t="s">
@@ -22801,7 +22821,7 @@
       </c>
     </row>
     <row r="152" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A152" s="41" t="s">
+      <c r="A152" s="37" t="s">
         <v>2834</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -23271,7 +23291,7 @@
       </c>
     </row>
     <row r="160" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A160" s="41" t="s">
+      <c r="A160" s="37" t="s">
         <v>2330</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -23331,7 +23351,7 @@
       </c>
     </row>
     <row r="161" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A161" s="41" t="s">
+      <c r="A161" s="37" t="s">
         <v>2314</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -23509,7 +23529,7 @@
       </c>
     </row>
     <row r="164" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A164" s="42" t="s">
+      <c r="A164" s="38" t="s">
         <v>2308</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -23580,7 +23600,7 @@
         <v>1432</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>345</v>
+        <v>1857</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>346</v>
@@ -23644,7 +23664,7 @@
         <v>1433</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>345</v>
+        <v>1857</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>354</v>
@@ -23697,7 +23717,7 @@
       </c>
     </row>
     <row r="167" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A167" s="41" t="s">
+      <c r="A167" s="37" t="s">
         <v>2329</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -23937,7 +23957,7 @@
       </c>
     </row>
     <row r="171" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A171" s="42" t="s">
+      <c r="A171" s="38" t="s">
         <v>2309</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -24653,7 +24673,7 @@
       </c>
     </row>
     <row r="183" spans="1:24" ht="20" customHeight="1">
-      <c r="A183" s="41" t="s">
+      <c r="A183" s="37" t="s">
         <v>2310</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -24777,7 +24797,7 @@
       </c>
     </row>
     <row r="185" spans="1:24" ht="20" customHeight="1">
-      <c r="A185" s="41" t="s">
+      <c r="A185" s="37" t="s">
         <v>2328</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -24837,7 +24857,7 @@
       </c>
     </row>
     <row r="186" spans="1:24" ht="20" customHeight="1">
-      <c r="A186" s="41" t="s">
+      <c r="A186" s="37" t="s">
         <v>2315</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -24895,7 +24915,7 @@
       </c>
     </row>
     <row r="187" spans="1:24" ht="20" customHeight="1">
-      <c r="A187" s="41" t="s">
+      <c r="A187" s="37" t="s">
         <v>2316</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -25133,7 +25153,7 @@
       </c>
     </row>
     <row r="191" spans="1:24" ht="20" customHeight="1">
-      <c r="A191" s="41" t="s">
+      <c r="A191" s="37" t="s">
         <v>2317</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -25621,7 +25641,7 @@
       </c>
     </row>
     <row r="199" spans="1:24" ht="20" customHeight="1">
-      <c r="A199" s="41" t="s">
+      <c r="A199" s="37" t="s">
         <v>2318</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -25743,7 +25763,7 @@
       </c>
     </row>
     <row r="201" spans="1:24" ht="20" customHeight="1">
-      <c r="A201" s="42" t="s">
+      <c r="A201" s="38" t="s">
         <v>2311</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -26049,7 +26069,7 @@
       </c>
     </row>
     <row r="206" spans="1:24" ht="20" customHeight="1">
-      <c r="A206" s="41" t="s">
+      <c r="A206" s="37" t="s">
         <v>2327</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -26107,7 +26127,7 @@
       </c>
     </row>
     <row r="207" spans="1:24" ht="20" customHeight="1">
-      <c r="A207" s="41" t="s">
+      <c r="A207" s="37" t="s">
         <v>2326</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -26165,7 +26185,7 @@
       </c>
     </row>
     <row r="208" spans="1:24" ht="20" customHeight="1">
-      <c r="A208" s="41" t="s">
+      <c r="A208" s="37" t="s">
         <v>2319</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -26347,7 +26367,7 @@
       </c>
     </row>
     <row r="211" spans="1:24" ht="20" customHeight="1">
-      <c r="A211" s="41" t="s">
+      <c r="A211" s="37" t="s">
         <v>2320</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -26407,7 +26427,7 @@
       </c>
     </row>
     <row r="212" spans="1:24" ht="20" customHeight="1">
-      <c r="A212" s="42" t="s">
+      <c r="A212" s="38" t="s">
         <v>2321</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -26589,7 +26609,7 @@
       </c>
     </row>
     <row r="215" spans="1:24" ht="20" customHeight="1">
-      <c r="A215" s="42" t="s">
+      <c r="A215" s="38" t="s">
         <v>2322</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -26999,7 +27019,7 @@
       </c>
     </row>
     <row r="222" spans="1:24" ht="20" customHeight="1">
-      <c r="A222" s="42" t="s">
+      <c r="A222" s="38" t="s">
         <v>2323</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -27134,7 +27154,7 @@
         <v>1491</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>439</v>
+        <v>2062</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>931</v>
@@ -27185,7 +27205,7 @@
       </c>
     </row>
     <row r="225" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A225" s="41" t="s">
+      <c r="A225" s="37" t="s">
         <v>2324</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -27654,7 +27674,7 @@
       <c r="C233" s="3" t="s">
         <v>2249</v>
       </c>
-      <c r="D233" s="38" t="s">
+      <c r="D233" s="35" t="s">
         <v>2250</v>
       </c>
       <c r="E233" s="3"/>
@@ -29083,7 +29103,7 @@
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
-      <c r="A259" s="41" t="s">
+      <c r="A259" s="37" t="s">
         <v>2325</v>
       </c>
       <c r="B259" s="3" t="s">
@@ -29202,19 +29222,19 @@
       <c r="A261" s="2" t="s">
         <v>2153</v>
       </c>
-      <c r="B261" s="33" t="s">
+      <c r="B261" s="30" t="s">
         <v>2155</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D261" s="33" t="s">
+      <c r="D261" s="30" t="s">
         <v>2156</v>
       </c>
-      <c r="E261" s="33" t="s">
+      <c r="E261" s="30" t="s">
         <v>2157</v>
       </c>
-      <c r="F261" s="33" t="s">
+      <c r="F261" s="30" t="s">
         <v>179</v>
       </c>
       <c r="G261" s="4" t="s">
@@ -29223,12 +29243,20 @@
       <c r="H261" s="4" t="s">
         <v>2160</v>
       </c>
-      <c r="I261" s="34" t="s">
+      <c r="I261" s="39" t="s">
         <v>2158</v>
       </c>
-      <c r="Q261" s="34" t="s">
+      <c r="J261" s="15"/>
+      <c r="K261" s="15"/>
+      <c r="L261" s="15"/>
+      <c r="M261" s="15"/>
+      <c r="N261" s="15"/>
+      <c r="O261" s="15"/>
+      <c r="P261" s="15"/>
+      <c r="Q261" s="39" t="s">
         <v>2161</v>
       </c>
+      <c r="R261" s="15"/>
       <c r="S261" s="3" t="s">
         <v>160</v>
       </c>
@@ -29238,30 +29266,31 @@
       <c r="U261" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="V261" s="39">
+      <c r="V261" s="45">
         <v>4.8</v>
       </c>
-      <c r="X261" s="34" t="s">
+      <c r="W261" s="15"/>
+      <c r="X261" s="39" t="s">
         <v>2154</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
-      <c r="A262" s="33" t="s">
+      <c r="A262" s="30" t="s">
         <v>2393</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>2384</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="15" t="s">
         <v>2394</v>
       </c>
-      <c r="D262" s="33" t="s">
+      <c r="D262" s="30" t="s">
         <v>2397</v>
       </c>
-      <c r="E262" s="33" t="s">
+      <c r="E262" s="30" t="s">
         <v>2398</v>
       </c>
-      <c r="F262" s="33" t="s">
+      <c r="F262" s="30" t="s">
         <v>2399</v>
       </c>
       <c r="G262" s="4" t="s">
@@ -29270,39 +29299,50 @@
       <c r="H262" s="4" t="s">
         <v>2390</v>
       </c>
-      <c r="J262" s="34" t="s">
+      <c r="I262" s="15"/>
+      <c r="J262" s="39" t="s">
         <v>2400</v>
       </c>
-      <c r="Q262" s="34" t="s">
+      <c r="K262" s="15"/>
+      <c r="L262" s="15"/>
+      <c r="M262" s="15"/>
+      <c r="N262" s="15"/>
+      <c r="O262" s="15"/>
+      <c r="P262" s="15"/>
+      <c r="Q262" s="39" t="s">
         <v>2401</v>
       </c>
+      <c r="R262" s="15"/>
       <c r="S262" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V262" s="40" t="s">
+      <c r="T262" s="15"/>
+      <c r="U262" s="15"/>
+      <c r="V262" s="44" t="s">
         <v>2396</v>
       </c>
-      <c r="X262" s="34" t="s">
+      <c r="W262" s="15"/>
+      <c r="X262" s="39" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
-      <c r="A263" s="33" t="s">
+      <c r="A263" s="30" t="s">
         <v>2404</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>2385</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="15" t="s">
         <v>2235</v>
       </c>
-      <c r="D263" s="33" t="s">
+      <c r="D263" s="30" t="s">
         <v>2405</v>
       </c>
-      <c r="E263" s="33" t="s">
+      <c r="E263" s="30" t="s">
         <v>2406</v>
       </c>
-      <c r="F263" s="33" t="s">
+      <c r="F263" s="30" t="s">
         <v>2407</v>
       </c>
       <c r="G263" s="4" t="s">
@@ -29311,51 +29351,58 @@
       <c r="H263" s="4" t="s">
         <v>2391</v>
       </c>
-      <c r="I263" s="34" t="s">
+      <c r="I263" s="39" t="s">
         <v>2409</v>
       </c>
-      <c r="J263" s="34" t="s">
+      <c r="J263" s="39" t="s">
         <v>2411</v>
       </c>
-      <c r="O263" s="34" t="s">
+      <c r="K263" s="15"/>
+      <c r="L263" s="15"/>
+      <c r="M263" s="15"/>
+      <c r="N263" s="15"/>
+      <c r="O263" s="39" t="s">
         <v>2410</v>
       </c>
-      <c r="P263" s="34" t="s">
+      <c r="P263" s="39" t="s">
         <v>2408</v>
       </c>
-      <c r="Q263" s="34" t="s">
+      <c r="Q263" s="39" t="s">
         <v>2412</v>
       </c>
-      <c r="R263" s="34" t="s">
+      <c r="R263" s="39" t="s">
         <v>2413</v>
       </c>
       <c r="S263" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V263" s="40" t="s">
+      <c r="T263" s="15"/>
+      <c r="U263" s="15"/>
+      <c r="V263" s="44" t="s">
         <v>2402</v>
       </c>
-      <c r="X263" s="34" t="s">
+      <c r="W263" s="15"/>
+      <c r="X263" s="39" t="s">
         <v>2403</v>
       </c>
     </row>
     <row r="264" spans="1:24" ht="20" customHeight="1">
-      <c r="A264" s="45" t="s">
+      <c r="A264" s="42" t="s">
         <v>2421</v>
       </c>
-      <c r="B264" s="33" t="s">
+      <c r="B264" s="30" t="s">
         <v>2386</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="15" t="s">
         <v>1833</v>
       </c>
-      <c r="D264" s="33" t="s">
+      <c r="D264" s="30" t="s">
         <v>2415</v>
       </c>
-      <c r="E264" s="33" t="s">
+      <c r="E264" s="30" t="s">
         <v>2416</v>
       </c>
-      <c r="F264" s="33" t="s">
+      <c r="F264" s="30" t="s">
         <v>642</v>
       </c>
       <c r="G264" s="4" t="s">
@@ -29364,31 +29411,40 @@
       <c r="H264" s="4" t="s">
         <v>2392</v>
       </c>
-      <c r="I264" s="34" t="s">
+      <c r="I264" s="39" t="s">
         <v>2419</v>
       </c>
-      <c r="J264" s="34" t="s">
+      <c r="J264" s="39" t="s">
         <v>2417</v>
       </c>
-      <c r="L264" s="34" t="s">
+      <c r="K264" s="15"/>
+      <c r="L264" s="39" t="s">
         <v>2418</v>
       </c>
-      <c r="P264" s="34" t="s">
+      <c r="M264" s="15"/>
+      <c r="N264" s="15"/>
+      <c r="O264" s="15"/>
+      <c r="P264" s="39" t="s">
         <v>2420</v>
       </c>
+      <c r="Q264" s="15"/>
+      <c r="R264" s="15"/>
       <c r="S264" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V264" s="40" t="s">
+      <c r="T264" s="15"/>
+      <c r="U264" s="15"/>
+      <c r="V264" s="44" t="s">
         <v>2396</v>
       </c>
-      <c r="X264" s="33" t="s">
+      <c r="W264" s="15"/>
+      <c r="X264" s="30" t="s">
         <v>2414</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X260">
-    <sortCondition ref="B2:B260"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X264">
+    <sortCondition ref="B2:B264"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4879CFA-48F5-FB4B-8844-864A632C05EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2CFD38-3046-4545-884E-71105B232BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="500" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="2847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="2837">
   <si>
     <t>address</t>
   </si>
@@ -10267,9 +10267,6 @@
     <t>A9-090</t>
   </si>
   <si>
-    <t>A9-091</t>
-  </si>
-  <si>
     <t>A9-092</t>
   </si>
   <si>
@@ -10285,9 +10282,6 @@
     <t>RES-A9-090.jpeg</t>
   </si>
   <si>
-    <t>RES-A9-091.jpeg</t>
-  </si>
-  <si>
     <t>RES-A9-092.jpeg</t>
   </si>
   <si>
@@ -10303,9 +10297,6 @@
     <t>RES-A9-090L.jpeg</t>
   </si>
   <si>
-    <t>RES-A9-091L.jpeg</t>
-  </si>
-  <si>
     <t>RES-A9-092L.jpeg</t>
   </si>
   <si>
@@ -10461,35 +10452,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%E5%96%9C%E5%92%A7+SiRe+%E5%86%B0%E8%8F%93%E8%88%96/@25.0768395,121.3756433,14.28z/data=!4m6!3m5!1s0x3442a7316ab548c7:0x8777d4a365842db0!8m2!3d25.0748521!4d121.378379!16s%2Fg%2F11t_hw2_x7?hl=zh-TW&amp;entry=ttu</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜咧 SiRe 冰菓舖</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>點心冰品</t>
-  </si>
-  <si>
-    <t>新北市林口區文化一路一段186-2號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00 - 20:30</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100091526901315&amp;mibextid=LQQJ4d</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.instagram.com/sireiceshop?fbclid=IwAR1od2gqhk9YZR5Xt9cH3ipoQjrfjpkg9mtTi-BLgvXZeoIsyxgo_Jfxuqw</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/permalink.php?story_fbid=pfbid025ff4vssnVE5bWLWUZyzXemv7DYan7maWQTf9AbYo35t7ixHQuQhuYsG6MvS8petMl&amp;id=100091526901315</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>https://www.facebook.com/bravoburger.tw</t>
@@ -13150,7 +13113,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13255,9 +13218,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -14417,13 +14377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X264"/>
+  <dimension ref="A1:X263"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -14447,7 +14407,7 @@
     <col min="19" max="19" width="8.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="11.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="36" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="35" customWidth="1"/>
     <col min="23" max="23" width="38.33203125" style="1" customWidth="1"/>
     <col min="24" max="24" width="133.83203125" style="1" customWidth="1"/>
     <col min="25" max="16384" width="16.33203125" style="1"/>
@@ -14922,8 +14882,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>2303</v>
+      <c r="A9" s="36" t="s">
+        <v>2293</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1332</v>
@@ -15252,16 +15212,16 @@
         <v>1151</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="40" t="s">
-        <v>2383</v>
+      <c r="W14" s="39" t="s">
+        <v>2373</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A15" s="38" t="s">
-        <v>2332</v>
+      <c r="A15" s="37" t="s">
+        <v>2322</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1338</v>
@@ -15301,7 +15261,7 @@
         <v>1754</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
@@ -16566,7 +16526,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="10" t="s">
-        <v>2364</v>
+        <v>2354</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -16640,8 +16600,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A40" s="38" t="s">
-        <v>2304</v>
+      <c r="A40" s="37" t="s">
+        <v>2294</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1363</v>
@@ -16773,15 +16733,15 @@
         <v>1284</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="10" t="s">
-        <v>2366</v>
+        <v>2356</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>2367</v>
+        <v>2357</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -16991,7 +16951,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3" t="s">
-        <v>2368</v>
+        <v>2358</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -17025,10 +16985,10 @@
         <v>1863</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>1547</v>
@@ -17046,10 +17006,10 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="10" t="s">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3" t="s">
@@ -17075,7 +17035,7 @@
         <v>1371</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1306</v>
@@ -17159,7 +17119,7 @@
         <v>1701</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>2835</v>
+        <v>2825</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3" t="s">
@@ -17817,7 +17777,7 @@
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="23" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>2134</v>
@@ -18026,31 +17986,31 @@
         <v>2186</v>
       </c>
       <c r="X65" s="21" t="s">
-        <v>2594</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="23" t="s">
-        <v>2357</v>
+        <v>2347</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>2356</v>
+        <v>2346</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>2174</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>2361</v>
+        <v>2351</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="24" t="s">
-        <v>2362</v>
+        <v>2352</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>2359</v>
+        <v>2349</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -18061,7 +18021,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21" t="s">
-        <v>2363</v>
+        <v>2353</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24" t="s">
@@ -18072,52 +18032,52 @@
       </c>
       <c r="U66" s="24"/>
       <c r="V66" s="25" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="W66" s="32"/>
       <c r="X66" s="21" t="s">
-        <v>2358</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="23" t="s">
-        <v>2376</v>
+        <v>2366</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>2372</v>
+        <v>2362</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>1025</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>2377</v>
+        <v>2367</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>2378</v>
+        <v>2368</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>2379</v>
+        <v>2369</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>2374</v>
+        <v>2364</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>2375</v>
+        <v>2365</v>
       </c>
       <c r="I67" s="21"/>
-      <c r="J67" s="39"/>
+      <c r="J67" s="38"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21" t="s">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>2381</v>
+        <v>2371</v>
       </c>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21" t="s">
-        <v>2382</v>
+        <v>2372</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24" t="s">
@@ -18132,51 +18092,51 @@
       </c>
       <c r="W67" s="32"/>
       <c r="X67" s="21" t="s">
-        <v>2373</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="23" t="s">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>2062</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>2587</v>
-      </c>
-      <c r="J68" s="39" t="s">
-        <v>2589</v>
+        <v>2577</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>2579</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="L68" s="21"/>
       <c r="M68" s="21" t="s">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21" t="s">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="24"/>
@@ -18189,48 +18149,48 @@
       <c r="U68" s="24"/>
       <c r="V68" s="25"/>
       <c r="W68" s="32" t="s">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="X68" s="21" t="s">
-        <v>2594</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="23" t="s">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>1823</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>609</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>2606</v>
-      </c>
-      <c r="J69" s="39"/>
+        <v>2596</v>
+      </c>
+      <c r="J69" s="38"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
       <c r="M69" s="24"/>
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21" t="s">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="Q69" s="21"/>
       <c r="R69" s="24"/>
@@ -18238,45 +18198,45 @@
         <v>1992</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="U69" s="24"/>
       <c r="V69" s="25"/>
       <c r="W69" s="32"/>
       <c r="X69" s="21" t="s">
-        <v>2603</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="23" t="s">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>2062</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>2614</v>
-      </c>
-      <c r="J70" s="39" t="s">
-        <v>2613</v>
+        <v>2604</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>2603</v>
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
@@ -18290,44 +18250,44 @@
         <v>1992</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="U70" s="24"/>
       <c r="V70" s="25"/>
       <c r="W70" s="32"/>
       <c r="X70" s="21" t="s">
-        <v>2609</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="23" t="s">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="I71" s="21"/>
-      <c r="J71" s="39"/>
+      <c r="J71" s="38"/>
       <c r="K71" s="21" t="s">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="L71" s="21"/>
       <c r="M71" s="24"/>
@@ -18346,41 +18306,41 @@
       <c r="V71" s="25"/>
       <c r="W71" s="32"/>
       <c r="X71" s="21" t="s">
-        <v>2619</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="23" t="s">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>2120</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>1868</v>
       </c>
       <c r="I72" s="21"/>
-      <c r="J72" s="39"/>
+      <c r="J72" s="38"/>
       <c r="K72" s="21"/>
       <c r="L72" s="21"/>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
@@ -18398,49 +18358,49 @@
       </c>
       <c r="W72" s="32"/>
       <c r="X72" s="21" t="s">
-        <v>2629</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="23" t="s">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>1857</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>2645</v>
-      </c>
-      <c r="J73" s="39" t="s">
-        <v>2642</v>
+        <v>2635</v>
+      </c>
+      <c r="J73" s="38" t="s">
+        <v>2632</v>
       </c>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="21" t="s">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="N73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21" t="s">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="Q73" s="21"/>
       <c r="R73" s="24"/>
@@ -18452,53 +18412,53 @@
       </c>
       <c r="U73" s="24"/>
       <c r="V73" s="25" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="W73" s="32"/>
       <c r="X73" s="21" t="s">
-        <v>2635</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="23" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>2061</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="I74" s="21"/>
-      <c r="J74" s="39"/>
+      <c r="J74" s="38"/>
       <c r="K74" s="21" t="s">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
       <c r="N74" s="21" t="s">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="P74" s="21" t="s">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="Q74" s="21"/>
       <c r="R74" s="24"/>
@@ -18514,37 +18474,37 @@
       </c>
       <c r="W74" s="32"/>
       <c r="X74" s="21" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="23" t="s">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>2062</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="I75" s="21"/>
-      <c r="J75" s="39" t="s">
-        <v>2666</v>
+      <c r="J75" s="38" t="s">
+        <v>2656</v>
       </c>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
@@ -18566,41 +18526,41 @@
       </c>
       <c r="W75" s="32"/>
       <c r="X75" s="21" t="s">
-        <v>2662</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="23" t="s">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>2675</v>
-      </c>
-      <c r="J76" s="39"/>
+        <v>2665</v>
+      </c>
+      <c r="J76" s="38"/>
       <c r="K76" s="21"/>
       <c r="L76" s="21" t="s">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="M76" s="21"/>
       <c r="N76" s="21"/>
@@ -18679,7 +18639,7 @@
     </row>
     <row r="78" spans="1:24" ht="14.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>2511</v>
+        <v>2501</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1373</v>
@@ -18700,7 +18660,7 @@
         <v>1550</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>2514</v>
+        <v>2504</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>324</v>
@@ -18874,7 +18834,7 @@
         <v>1553</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>2515</v>
+        <v>2505</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>510</v>
@@ -18911,7 +18871,7 @@
     </row>
     <row r="82" spans="1:24" ht="14.25" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>2512</v>
+        <v>2502</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1377</v>
@@ -18990,7 +18950,7 @@
         <v>1555</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>2516</v>
+        <v>2506</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3" t="s">
@@ -19048,7 +19008,7 @@
         <v>1556</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2517</v>
+        <v>2507</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3" t="s">
@@ -19085,7 +19045,7 @@
     </row>
     <row r="85" spans="1:24" ht="14.25" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>2513</v>
+        <v>2503</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1380</v>
@@ -19106,7 +19066,7 @@
         <v>1557</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>2518</v>
+        <v>2508</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3" t="s">
@@ -19164,7 +19124,7 @@
         <v>1558</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>2519</v>
+        <v>2509</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>616</v>
@@ -19279,7 +19239,7 @@
         <v>1560</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>2520</v>
+        <v>2510</v>
       </c>
       <c r="I88" s="15"/>
       <c r="K88" s="3"/>
@@ -19334,7 +19294,7 @@
         <v>1561</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>2521</v>
+        <v>2511</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3" t="s">
@@ -19392,7 +19352,7 @@
         <v>1562</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3" t="s">
@@ -19452,7 +19412,7 @@
         <v>1564</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>2523</v>
+        <v>2513</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
@@ -19568,7 +19528,7 @@
         <v>1566</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>2524</v>
+        <v>2514</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>727</v>
@@ -19682,7 +19642,7 @@
         <v>1568</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>2525</v>
+        <v>2515</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>782</v>
@@ -19699,7 +19659,7 @@
         <v>784</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>2371</v>
+        <v>2361</v>
       </c>
       <c r="S95" s="3" t="s">
         <v>1313</v>
@@ -19799,7 +19759,7 @@
         <v>1570</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>2526</v>
+        <v>2516</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
@@ -20031,7 +19991,7 @@
         <v>1575</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>2527</v>
+        <v>2517</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>877</v>
@@ -20089,7 +20049,7 @@
         <v>1576</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>2528</v>
+        <v>2518</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3" t="s">
@@ -20147,7 +20107,7 @@
         <v>1578</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3" t="s">
@@ -20205,7 +20165,7 @@
         <v>1579</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>2529</v>
+        <v>2519</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3" t="s">
@@ -20263,7 +20223,7 @@
         <v>1580</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>2531</v>
+        <v>2521</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3" t="s">
@@ -20321,19 +20281,19 @@
         <v>1581</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>2532</v>
+        <v>2522</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3" t="s">
         <v>960</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>2268</v>
+        <v>2258</v>
       </c>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="10" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
       <c r="O106" s="3"/>
       <c r="P106" s="3" t="s">
@@ -20383,7 +20343,7 @@
         <v>1582</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>2533</v>
+        <v>2523</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3" t="s">
@@ -20441,7 +20401,7 @@
         <v>1583</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>2534</v>
+        <v>2524</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3" t="s">
@@ -20499,7 +20459,7 @@
         <v>1584</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>2535</v>
+        <v>2525</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3" t="s">
@@ -20535,8 +20495,8 @@
       </c>
     </row>
     <row r="110" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A110" s="37" t="s">
-        <v>2305</v>
+      <c r="A110" s="36" t="s">
+        <v>2295</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1405</v>
@@ -20613,7 +20573,7 @@
         <v>1586</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>2536</v>
+        <v>2526</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3" t="s">
@@ -20669,7 +20629,7 @@
         <v>1587</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>2537</v>
+        <v>2527</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -20723,7 +20683,7 @@
         <v>1588</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>2538</v>
+        <v>2528</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3" t="s">
@@ -20839,7 +20799,7 @@
         <v>1590</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -20855,7 +20815,7 @@
         <v>1017</v>
       </c>
       <c r="R115" s="10" t="s">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="S115" s="3" t="s">
         <v>1313</v>
@@ -20897,7 +20857,7 @@
         <v>1591</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>2540</v>
+        <v>2530</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>1021</v>
@@ -20955,7 +20915,7 @@
         <v>1592</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>1029</v>
@@ -21185,7 +21145,7 @@
         <v>1596</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>1056</v>
@@ -21470,7 +21430,7 @@
       <c r="G126" s="19" t="s">
         <v>1841</v>
       </c>
-      <c r="H126" s="43" t="s">
+      <c r="H126" s="42" t="s">
         <v>1843</v>
       </c>
       <c r="I126" s="10" t="s">
@@ -21503,8 +21463,8 @@
       <c r="X126" s="3"/>
     </row>
     <row r="127" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A127" s="37" t="s">
-        <v>2306</v>
+      <c r="A127" s="36" t="s">
+        <v>2296</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>1865</v>
@@ -21562,7 +21522,7 @@
     </row>
     <row r="128" spans="1:24" ht="24.25" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>2545</v>
+        <v>2535</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>1866</v>
@@ -21583,7 +21543,7 @@
         <v>1675</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3" t="s">
@@ -21619,8 +21579,8 @@
       </c>
     </row>
     <row r="129" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A129" s="37" t="s">
-        <v>2312</v>
+      <c r="A129" s="36" t="s">
+        <v>2302</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>2018</v>
@@ -21775,42 +21735,42 @@
       </c>
     </row>
     <row r="132" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A132" s="37" t="s">
-        <v>2331</v>
+      <c r="A132" s="36" t="s">
+        <v>2321</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>1237</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="10" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="O132" s="10" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
@@ -21821,37 +21781,37 @@
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="W132" s="3"/>
       <c r="X132" s="10" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A133" s="37" t="s">
-        <v>2313</v>
+      <c r="A133" s="36" t="s">
+        <v>2303</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>1857</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -21861,7 +21821,7 @@
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
       <c r="P133" s="10" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
@@ -21871,35 +21831,35 @@
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="W133" s="3"/>
       <c r="X133" s="10" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="24.25" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>2256</v>
+        <v>2246</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>1823</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>2259</v>
+        <v>2249</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3" t="s">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -21907,7 +21867,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="10" t="s">
-        <v>2258</v>
+        <v>2248</v>
       </c>
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
@@ -21918,51 +21878,51 @@
       </c>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
-      <c r="V134" s="44" t="s">
+      <c r="V134" s="43" t="s">
         <v>2030</v>
       </c>
       <c r="W134" s="15"/>
-      <c r="X134" s="39" t="s">
-        <v>2257</v>
+      <c r="X134" s="38" t="s">
+        <v>2247</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="24.25" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>2061</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>2288</v>
+        <v>2278</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>1140</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="10" t="s">
-        <v>2289</v>
+        <v>2279</v>
       </c>
       <c r="O135" s="10" t="s">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
@@ -21973,40 +21933,40 @@
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="W135" s="3"/>
       <c r="X135" s="10" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A136" s="37" t="s">
-        <v>2307</v>
+      <c r="A136" s="36" t="s">
+        <v>2297</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>2295</v>
+        <v>2285</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>2296</v>
+        <v>2286</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>2297</v>
+        <v>2287</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2299</v>
+        <v>2289</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>2298</v>
+        <v>2288</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -22015,7 +21975,7 @@
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10" t="s">
-        <v>2302</v>
+        <v>2292</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
@@ -22028,59 +21988,59 @@
         <v>2030</v>
       </c>
       <c r="W136" s="3" t="s">
-        <v>2301</v>
+        <v>2291</v>
       </c>
       <c r="X136" s="10" t="s">
-        <v>2293</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A137" s="37" t="s">
-        <v>2334</v>
+      <c r="A137" s="36" t="s">
+        <v>2324</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>2333</v>
+        <v>2323</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>2120</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>2336</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="H137" s="4" t="s">
         <v>2337</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>2338</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>2346</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>2347</v>
-      </c>
       <c r="I137" s="10" t="s">
-        <v>2343</v>
+        <v>2333</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>2344</v>
+        <v>2334</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>2342</v>
+        <v>2332</v>
       </c>
       <c r="M137" s="10" t="s">
-        <v>2341</v>
+        <v>2331</v>
       </c>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10" t="s">
-        <v>2339</v>
+        <v>2329</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>2345</v>
+        <v>2335</v>
       </c>
       <c r="R137" s="3"/>
       <c r="S137" s="3" t="s">
@@ -22093,33 +22053,33 @@
       </c>
       <c r="W137" s="3"/>
       <c r="X137" s="10" t="s">
-        <v>2335</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A138" s="37" t="s">
-        <v>2369</v>
+      <c r="A138" s="36" t="s">
+        <v>2359</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>2351</v>
+        <v>2341</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>1823</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>2775</v>
+        <v>2765</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>2352</v>
+        <v>2342</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2349</v>
+        <v>2339</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>2350</v>
+        <v>2340</v>
       </c>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
@@ -22127,14 +22087,14 @@
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10" t="s">
-        <v>2353</v>
+        <v>2343</v>
       </c>
       <c r="O138" s="10" t="s">
-        <v>2354</v>
+        <v>2344</v>
       </c>
       <c r="P138" s="10"/>
       <c r="Q138" s="10" t="s">
-        <v>2355</v>
+        <v>2345</v>
       </c>
       <c r="R138" s="3"/>
       <c r="S138" s="3" t="s">
@@ -22147,50 +22107,50 @@
       </c>
       <c r="W138" s="3"/>
       <c r="X138" s="10" t="s">
-        <v>2348</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A139" s="37" t="s">
-        <v>2445</v>
+      <c r="A139" s="36" t="s">
+        <v>2435</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>2435</v>
+        <v>2425</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>1833</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>2439</v>
+        <v>2429</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2436</v>
+        <v>2426</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>2437</v>
+        <v>2427</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>2443</v>
+        <v>2433</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>2441</v>
+        <v>2431</v>
       </c>
       <c r="K139" s="10"/>
       <c r="L139" s="10" t="s">
-        <v>2442</v>
+        <v>2432</v>
       </c>
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
       <c r="Q139" s="10" t="s">
-        <v>2444</v>
+        <v>2434</v>
       </c>
       <c r="R139" s="3"/>
       <c r="S139" s="3" t="s">
@@ -22203,50 +22163,50 @@
       </c>
       <c r="W139" s="3"/>
       <c r="X139" s="10" t="s">
-        <v>2438</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A140" s="37" t="s">
-        <v>2460</v>
+      <c r="A140" s="36" t="s">
+        <v>2450</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>2456</v>
+        <v>2446</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>1833</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>2461</v>
+        <v>2451</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>2462</v>
+        <v>2452</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>2463</v>
+        <v>2453</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>2457</v>
+        <v>2447</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>2458</v>
+        <v>2448</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="10" t="s">
-        <v>2466</v>
+        <v>2456</v>
       </c>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
       <c r="N140" s="10" t="s">
-        <v>2464</v>
+        <v>2454</v>
       </c>
       <c r="O140" s="10" t="s">
-        <v>2465</v>
+        <v>2455</v>
       </c>
       <c r="P140" s="10"/>
       <c r="Q140" s="10" t="s">
-        <v>2455</v>
+        <v>2445</v>
       </c>
       <c r="R140" s="3"/>
       <c r="S140" s="3" t="s">
@@ -22255,54 +22215,54 @@
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="W140" s="3"/>
       <c r="X140" s="10" t="s">
-        <v>2459</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A141" s="37" t="s">
-        <v>2683</v>
+      <c r="A141" s="36" t="s">
+        <v>2673</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>1833</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>2729</v>
+        <v>2719</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10" t="s">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
       <c r="N141" s="10" t="s">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="O141" s="10"/>
       <c r="P141" s="10" t="s">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="R141" s="3"/>
       <c r="S141" s="3" t="s">
@@ -22313,36 +22273,36 @@
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
       <c r="X141" s="10" t="s">
-        <v>2680</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A142" s="37" t="s">
-        <v>2691</v>
+      <c r="A142" s="36" t="s">
+        <v>2681</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1823</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -22351,7 +22311,7 @@
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10" t="s">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="Q142" s="10"/>
       <c r="R142" s="3"/>
@@ -22363,50 +22323,50 @@
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
       <c r="X142" s="10" t="s">
-        <v>2692</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A143" s="37" t="s">
-        <v>2727</v>
+      <c r="A143" s="36" t="s">
+        <v>2717</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>253</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>2728</v>
+        <v>2718</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>2730</v>
+        <v>2720</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>2731</v>
+        <v>2721</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2710</v>
+        <v>2700</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>2718</v>
+        <v>2708</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10" t="s">
-        <v>2733</v>
+        <v>2723</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>2734</v>
+        <v>2724</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>2735</v>
+        <v>2725</v>
       </c>
       <c r="M143" s="10"/>
       <c r="N143" s="10" t="s">
-        <v>2736</v>
+        <v>2726</v>
       </c>
       <c r="O143" s="10" t="s">
-        <v>2737</v>
+        <v>2727</v>
       </c>
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
@@ -22419,33 +22379,33 @@
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
       <c r="X143" s="10" t="s">
-        <v>2732</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A144" s="37" t="s">
-        <v>2738</v>
+      <c r="A144" s="36" t="s">
+        <v>2728</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>2740</v>
+        <v>2730</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>2741</v>
+        <v>2731</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>2742</v>
+        <v>2732</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>2711</v>
+        <v>2701</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>2719</v>
+        <v>2709</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -22453,7 +22413,7 @@
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10" t="s">
-        <v>2743</v>
+        <v>2733</v>
       </c>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
@@ -22467,36 +22427,36 @@
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
       <c r="X144" s="10" t="s">
-        <v>2739</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A145" s="37" t="s">
-        <v>2607</v>
+      <c r="A145" s="36" t="s">
+        <v>2597</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1823</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>2745</v>
+        <v>2735</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2712</v>
+        <v>2702</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>2720</v>
+        <v>2710</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -22505,7 +22465,7 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10" t="s">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="Q145" s="10"/>
       <c r="R145" s="3"/>
@@ -22517,33 +22477,33 @@
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
       <c r="X145" s="10" t="s">
-        <v>2744</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A146" s="37" t="s">
-        <v>2748</v>
+      <c r="A146" s="36" t="s">
+        <v>2738</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>2846</v>
+        <v>2836</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>2749</v>
+        <v>2739</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>2750</v>
+        <v>2740</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>2751</v>
+        <v>2741</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2713</v>
+        <v>2703</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>2721</v>
+        <v>2711</v>
       </c>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
@@ -22553,7 +22513,7 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10" t="s">
-        <v>2752</v>
+        <v>2742</v>
       </c>
       <c r="Q146" s="10"/>
       <c r="R146" s="3"/>
@@ -22565,33 +22525,33 @@
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
       <c r="X146" s="10" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A147" s="37" t="s">
-        <v>2754</v>
+      <c r="A147" s="36" t="s">
+        <v>2744</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>2755</v>
+        <v>2745</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>2756</v>
+        <v>2746</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>2757</v>
+        <v>2747</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2758</v>
+        <v>2748</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>2722</v>
+        <v>2712</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
@@ -22600,11 +22560,11 @@
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="10" t="s">
-        <v>2759</v>
+        <v>2749</v>
       </c>
       <c r="P147" s="10"/>
       <c r="Q147" s="10" t="s">
-        <v>2760</v>
+        <v>2750</v>
       </c>
       <c r="R147" s="3"/>
       <c r="S147" s="3" t="s">
@@ -22615,44 +22575,44 @@
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
       <c r="X147" s="10" t="s">
-        <v>2753</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A148" s="37" t="s">
-        <v>2762</v>
+      <c r="A148" s="36" t="s">
+        <v>2752</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>2763</v>
+        <v>2753</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>2764</v>
+        <v>2754</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>1237</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2714</v>
+        <v>2704</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>2723</v>
-      </c>
-      <c r="I148" s="41"/>
+        <v>2713</v>
+      </c>
+      <c r="I148" s="40"/>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10" t="s">
-        <v>2765</v>
+        <v>2755</v>
       </c>
       <c r="O148" s="10" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="P148" s="10"/>
       <c r="Q148" s="10"/>
@@ -22665,36 +22625,36 @@
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
       <c r="X148" s="10" t="s">
-        <v>2761</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A149" s="37" t="s">
-        <v>2768</v>
+      <c r="A149" s="36" t="s">
+        <v>2758</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>1833</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>642</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2715</v>
+        <v>2705</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>2724</v>
+        <v>2714</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>2771</v>
+        <v>2761</v>
       </c>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -22702,7 +22662,7 @@
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="10" t="s">
-        <v>2772</v>
+        <v>2762</v>
       </c>
       <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
@@ -22715,46 +22675,46 @@
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
       <c r="X149" s="10" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A150" s="37" t="s">
-        <v>2773</v>
+      <c r="A150" s="36" t="s">
+        <v>2763</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>2708</v>
+        <v>2698</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>2062</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>2776</v>
+        <v>2766</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>2777</v>
+        <v>2767</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>2716</v>
+        <v>2706</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>2725</v>
+        <v>2715</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>2778</v>
+        <v>2768</v>
       </c>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="10" t="s">
-        <v>2780</v>
+        <v>2770</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>2779</v>
+        <v>2769</v>
       </c>
       <c r="P150" s="10"/>
       <c r="Q150" s="10"/>
@@ -22767,33 +22727,33 @@
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
       <c r="X150" s="10" t="s">
-        <v>2774</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A151" s="37" t="s">
-        <v>2781</v>
+      <c r="A151" s="36" t="s">
+        <v>2771</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>2709</v>
+        <v>2699</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>2783</v>
+        <v>2773</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>2784</v>
+        <v>2774</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>2785</v>
+        <v>2775</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>2717</v>
+        <v>2707</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>2726</v>
+        <v>2716</v>
       </c>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
@@ -22801,10 +22761,10 @@
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="10" t="s">
-        <v>2787</v>
+        <v>2777</v>
       </c>
       <c r="O151" s="10" t="s">
-        <v>2786</v>
+        <v>2776</v>
       </c>
       <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
@@ -22817,52 +22777,52 @@
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
       <c r="X151" s="10" t="s">
-        <v>2782</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A152" s="37" t="s">
-        <v>2834</v>
+      <c r="A152" s="36" t="s">
+        <v>2824</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>2823</v>
+        <v>2813</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>2827</v>
+        <v>2817</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>2828</v>
+        <v>2818</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>294</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2825</v>
+        <v>2815</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>2824</v>
+        <v>2814</v>
       </c>
       <c r="I152" s="10"/>
       <c r="J152" s="10" t="s">
-        <v>2829</v>
+        <v>2819</v>
       </c>
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
       <c r="M152" s="10" t="s">
-        <v>2830</v>
+        <v>2820</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>2831</v>
+        <v>2821</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>2832</v>
+        <v>2822</v>
       </c>
       <c r="P152" s="10"/>
       <c r="Q152" s="10" t="s">
-        <v>2833</v>
+        <v>2823</v>
       </c>
       <c r="R152" s="3"/>
       <c r="S152" s="3" t="s">
@@ -22873,7 +22833,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
       <c r="X152" s="10" t="s">
-        <v>2826</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="15" customHeight="1">
@@ -23291,8 +23251,8 @@
       </c>
     </row>
     <row r="160" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A160" s="37" t="s">
-        <v>2330</v>
+      <c r="A160" s="36" t="s">
+        <v>2320</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>1427</v>
@@ -23351,8 +23311,8 @@
       </c>
     </row>
     <row r="161" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A161" s="37" t="s">
-        <v>2314</v>
+      <c r="A161" s="36" t="s">
+        <v>2304</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>1428</v>
@@ -23529,8 +23489,8 @@
       </c>
     </row>
     <row r="164" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A164" s="38" t="s">
-        <v>2308</v>
+      <c r="A164" s="37" t="s">
+        <v>2298</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>1431</v>
@@ -23615,7 +23575,7 @@
         <v>1613</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="I165" s="10" t="s">
         <v>1970</v>
@@ -23637,7 +23597,7 @@
         <v>351</v>
       </c>
       <c r="R165" s="10" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
       <c r="S165" s="3" t="s">
         <v>1314</v>
@@ -23717,8 +23677,8 @@
       </c>
     </row>
     <row r="167" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A167" s="37" t="s">
-        <v>2329</v>
+      <c r="A167" s="36" t="s">
+        <v>2319</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>1434</v>
@@ -23957,8 +23917,8 @@
       </c>
     </row>
     <row r="171" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A171" s="38" t="s">
-        <v>2309</v>
+      <c r="A171" s="37" t="s">
+        <v>2299</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>1438</v>
@@ -24285,7 +24245,7 @@
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="10" t="s">
-        <v>2255</v>
+        <v>2245</v>
       </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -24673,8 +24633,8 @@
       </c>
     </row>
     <row r="183" spans="1:24" ht="20" customHeight="1">
-      <c r="A183" s="37" t="s">
-        <v>2310</v>
+      <c r="A183" s="36" t="s">
+        <v>2300</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>1450</v>
@@ -24797,8 +24757,8 @@
       </c>
     </row>
     <row r="185" spans="1:24" ht="20" customHeight="1">
-      <c r="A185" s="37" t="s">
-        <v>2328</v>
+      <c r="A185" s="36" t="s">
+        <v>2318</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>1452</v>
@@ -24857,8 +24817,8 @@
       </c>
     </row>
     <row r="186" spans="1:24" ht="20" customHeight="1">
-      <c r="A186" s="37" t="s">
-        <v>2315</v>
+      <c r="A186" s="36" t="s">
+        <v>2305</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>1453</v>
@@ -24915,8 +24875,8 @@
       </c>
     </row>
     <row r="187" spans="1:24" ht="20" customHeight="1">
-      <c r="A187" s="37" t="s">
-        <v>2316</v>
+      <c r="A187" s="36" t="s">
+        <v>2306</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>1454</v>
@@ -25153,8 +25113,8 @@
       </c>
     </row>
     <row r="191" spans="1:24" ht="20" customHeight="1">
-      <c r="A191" s="37" t="s">
-        <v>2317</v>
+      <c r="A191" s="36" t="s">
+        <v>2307</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>1458</v>
@@ -25606,7 +25566,7 @@
         <v>662</v>
       </c>
       <c r="K198" s="10" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
@@ -25641,8 +25601,8 @@
       </c>
     </row>
     <row r="199" spans="1:24" ht="20" customHeight="1">
-      <c r="A199" s="37" t="s">
-        <v>2318</v>
+      <c r="A199" s="36" t="s">
+        <v>2308</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>1466</v>
@@ -25763,8 +25723,8 @@
       </c>
     </row>
     <row r="201" spans="1:24" ht="20" customHeight="1">
-      <c r="A201" s="38" t="s">
-        <v>2311</v>
+      <c r="A201" s="37" t="s">
+        <v>2301</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>1468</v>
@@ -26069,8 +26029,8 @@
       </c>
     </row>
     <row r="206" spans="1:24" ht="20" customHeight="1">
-      <c r="A206" s="37" t="s">
-        <v>2327</v>
+      <c r="A206" s="36" t="s">
+        <v>2317</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>1473</v>
@@ -26127,8 +26087,8 @@
       </c>
     </row>
     <row r="207" spans="1:24" ht="20" customHeight="1">
-      <c r="A207" s="37" t="s">
-        <v>2326</v>
+      <c r="A207" s="36" t="s">
+        <v>2316</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>1474</v>
@@ -26185,8 +26145,8 @@
       </c>
     </row>
     <row r="208" spans="1:24" ht="20" customHeight="1">
-      <c r="A208" s="37" t="s">
-        <v>2319</v>
+      <c r="A208" s="36" t="s">
+        <v>2309</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>1475</v>
@@ -26367,8 +26327,8 @@
       </c>
     </row>
     <row r="211" spans="1:24" ht="20" customHeight="1">
-      <c r="A211" s="37" t="s">
-        <v>2320</v>
+      <c r="A211" s="36" t="s">
+        <v>2310</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>1478</v>
@@ -26427,14 +26387,14 @@
       </c>
     </row>
     <row r="212" spans="1:24" ht="20" customHeight="1">
-      <c r="A212" s="38" t="s">
-        <v>2321</v>
+      <c r="A212" s="37" t="s">
+        <v>2311</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>1479</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>345</v>
+        <v>2062</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>757</v>
@@ -26609,8 +26569,8 @@
       </c>
     </row>
     <row r="215" spans="1:24" ht="20" customHeight="1">
-      <c r="A215" s="38" t="s">
-        <v>2322</v>
+      <c r="A215" s="37" t="s">
+        <v>2312</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>1482</v>
@@ -27019,8 +26979,8 @@
       </c>
     </row>
     <row r="222" spans="1:24" ht="20" customHeight="1">
-      <c r="A222" s="38" t="s">
-        <v>2323</v>
+      <c r="A222" s="37" t="s">
+        <v>2313</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>1489</v>
@@ -27205,8 +27165,8 @@
       </c>
     </row>
     <row r="225" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A225" s="37" t="s">
-        <v>2324</v>
+      <c r="A225" s="36" t="s">
+        <v>2314</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>1818</v>
@@ -27569,30 +27529,30 @@
         <v>1857</v>
       </c>
       <c r="D231" s="11" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G231" s="27" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H231" s="27" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I231" s="10" t="s">
         <v>2220</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="J231" s="10" t="s">
         <v>2221</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>2222</v>
-      </c>
-      <c r="G231" s="27" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H231" s="27" t="s">
-        <v>2201</v>
-      </c>
-      <c r="I231" s="10" t="s">
-        <v>2223</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>2224</v>
       </c>
       <c r="K231" s="3"/>
       <c r="L231" s="10"/>
       <c r="M231" s="10" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="N231" s="10"/>
       <c r="O231" s="10"/>
@@ -27609,12 +27569,12 @@
       </c>
       <c r="W231" s="3"/>
       <c r="X231" s="10" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="232" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>2190</v>
@@ -27623,19 +27583,19 @@
         <v>1833</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>2083</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="I232" s="10"/>
       <c r="J232" s="3"/>
@@ -27643,10 +27603,10 @@
       <c r="L232" s="10"/>
       <c r="M232" s="3"/>
       <c r="N232" s="10" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="O232" s="10" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
@@ -27657,50 +27617,50 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="W232" s="3"/>
       <c r="X232" s="10" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="233" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>2191</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D233" s="35" t="s">
-        <v>2250</v>
-      </c>
-      <c r="E233" s="3"/>
+        <v>2166</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>2254</v>
+      </c>
       <c r="F233" s="3" t="s">
-        <v>2251</v>
+        <v>193</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="H233" s="27" t="s">
-        <v>2203</v>
-      </c>
-      <c r="I233" s="10"/>
+        <v>2201</v>
+      </c>
+      <c r="I233" s="10" t="s">
+        <v>2256</v>
+      </c>
       <c r="J233" s="10" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="K233" s="3"/>
-      <c r="L233" s="10" t="s">
-        <v>2253</v>
-      </c>
+      <c r="L233" s="10"/>
       <c r="M233" s="3"/>
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
-      <c r="P233" s="10" t="s">
-        <v>2254</v>
-      </c>
+      <c r="P233" s="10"/>
       <c r="Q233" s="10"/>
       <c r="R233" s="3"/>
       <c r="S233" s="3" t="s">
@@ -27709,50 +27669,50 @@
       <c r="T233" s="3"/>
       <c r="U233" s="3"/>
       <c r="V233" s="3" t="s">
-        <v>1695</v>
+        <v>2239</v>
       </c>
       <c r="W233" s="3"/>
       <c r="X233" s="10" t="s">
-        <v>2247</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>2192</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>2166</v>
+        <v>2263</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>2263</v>
+        <v>580</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>2264</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="I234" s="10" t="s">
-        <v>2266</v>
-      </c>
-      <c r="J234" s="10" t="s">
         <v>2265</v>
       </c>
+      <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="10"/>
       <c r="M234" s="3"/>
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
-      <c r="P234" s="10"/>
+      <c r="P234" s="10" t="s">
+        <v>2812</v>
+      </c>
       <c r="Q234" s="10"/>
       <c r="R234" s="3"/>
       <c r="S234" s="3" t="s">
@@ -27761,7 +27721,7 @@
       <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3" t="s">
-        <v>2242</v>
+        <v>2261</v>
       </c>
       <c r="W234" s="3"/>
       <c r="X234" s="10" t="s">
@@ -27770,42 +27730,46 @@
     </row>
     <row r="235" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>2193</v>
       </c>
       <c r="C235" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G235" s="27" t="s">
+        <v>2198</v>
+      </c>
+      <c r="H235" s="27" t="s">
+        <v>2203</v>
+      </c>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10" t="s">
+        <v>2271</v>
+      </c>
+      <c r="K235" s="3"/>
+      <c r="L235" s="10" t="s">
+        <v>2272</v>
+      </c>
+      <c r="M235" s="3"/>
+      <c r="N235" s="10" t="s">
         <v>2273</v>
       </c>
-      <c r="D235" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="E235" s="3" t="s">
+      <c r="O235" s="10"/>
+      <c r="P235" s="10"/>
+      <c r="Q235" s="10" t="s">
         <v>2274</v>
       </c>
-      <c r="F235" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G235" s="27" t="s">
-        <v>2199</v>
-      </c>
-      <c r="H235" s="27" t="s">
-        <v>2205</v>
-      </c>
-      <c r="I235" s="10" t="s">
-        <v>2275</v>
-      </c>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="10"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="10"/>
-      <c r="O235" s="10"/>
-      <c r="P235" s="10" t="s">
-        <v>2822</v>
-      </c>
-      <c r="Q235" s="10"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3" t="s">
         <v>1789</v>
@@ -27813,54 +27777,56 @@
       <c r="T235" s="3"/>
       <c r="U235" s="3"/>
       <c r="V235" s="3" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="W235" s="3"/>
       <c r="X235" s="10" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="236" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>2276</v>
+        <v>2416</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>2194</v>
+        <v>2412</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>2060</v>
+        <v>2232</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>2278</v>
+        <v>2417</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>2279</v>
+        <v>2418</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>2280</v>
+        <v>2419</v>
       </c>
       <c r="G236" s="27" t="s">
-        <v>2200</v>
+        <v>2413</v>
       </c>
       <c r="H236" s="27" t="s">
-        <v>2206</v>
+        <v>2414</v>
       </c>
       <c r="I236" s="10"/>
       <c r="J236" s="10" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K236" s="3"/>
+        <v>2421</v>
+      </c>
+      <c r="K236" s="10" t="s">
+        <v>2423</v>
+      </c>
       <c r="L236" s="10" t="s">
-        <v>2282</v>
+        <v>2422</v>
       </c>
       <c r="M236" s="3"/>
       <c r="N236" s="10" t="s">
-        <v>2283</v>
+        <v>2420</v>
       </c>
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
       <c r="Q236" s="10" t="s">
-        <v>2284</v>
+        <v>2424</v>
       </c>
       <c r="R236" s="3"/>
       <c r="S236" s="3" t="s">
@@ -27869,56 +27835,50 @@
       <c r="T236" s="3"/>
       <c r="U236" s="3"/>
       <c r="V236" s="3" t="s">
-        <v>2271</v>
+        <v>2225</v>
       </c>
       <c r="W236" s="3"/>
       <c r="X236" s="10" t="s">
-        <v>2277</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="237" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>2426</v>
+        <v>2440</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>2422</v>
+        <v>2436</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>2235</v>
+        <v>2284</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>2427</v>
+        <v>2441</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>2428</v>
+        <v>2442</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>2429</v>
+        <v>2443</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>2423</v>
+        <v>2437</v>
       </c>
       <c r="H237" s="27" t="s">
-        <v>2424</v>
-      </c>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10" t="s">
-        <v>2431</v>
-      </c>
-      <c r="K237" s="10" t="s">
-        <v>2433</v>
-      </c>
-      <c r="L237" s="10" t="s">
-        <v>2432</v>
-      </c>
+        <v>2438</v>
+      </c>
+      <c r="I237" s="10" t="s">
+        <v>2444</v>
+      </c>
+      <c r="J237" s="10"/>
+      <c r="K237" s="10"/>
+      <c r="L237" s="10"/>
       <c r="M237" s="3"/>
-      <c r="N237" s="10" t="s">
-        <v>2430</v>
-      </c>
+      <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
       <c r="Q237" s="10" t="s">
-        <v>2434</v>
+        <v>2445</v>
       </c>
       <c r="R237" s="3"/>
       <c r="S237" s="3" t="s">
@@ -27927,51 +27887,53 @@
       <c r="T237" s="3"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3" t="s">
-        <v>2228</v>
+        <v>1822</v>
       </c>
       <c r="W237" s="3"/>
       <c r="X237" s="10" t="s">
-        <v>2425</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="238" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>2450</v>
+        <v>2469</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>2446</v>
+        <v>2457</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>2294</v>
+        <v>2471</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>2451</v>
+        <v>2472</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>2452</v>
+        <v>2473</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>2453</v>
+        <v>2474</v>
       </c>
       <c r="G238" s="27" t="s">
-        <v>2447</v>
+        <v>2461</v>
       </c>
       <c r="H238" s="27" t="s">
-        <v>2448</v>
+        <v>2465</v>
       </c>
       <c r="I238" s="10" t="s">
-        <v>2454</v>
+        <v>2475</v>
       </c>
       <c r="J238" s="10"/>
       <c r="K238" s="10"/>
       <c r="L238" s="10"/>
       <c r="M238" s="3"/>
-      <c r="N238" s="10"/>
+      <c r="N238" s="10" t="s">
+        <v>2476</v>
+      </c>
       <c r="O238" s="10"/>
-      <c r="P238" s="10"/>
-      <c r="Q238" s="10" t="s">
-        <v>2455</v>
-      </c>
+      <c r="P238" s="10" t="s">
+        <v>2500</v>
+      </c>
+      <c r="Q238" s="10"/>
       <c r="R238" s="3"/>
       <c r="S238" s="3" t="s">
         <v>1789</v>
@@ -27979,52 +27941,54 @@
       <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3" t="s">
-        <v>1822</v>
+        <v>1695</v>
       </c>
       <c r="W238" s="3"/>
       <c r="X238" s="10" t="s">
-        <v>2449</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="239" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A239" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D239" s="11" t="s">
         <v>2479</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>2467</v>
-      </c>
-      <c r="C239" s="3" t="s">
+      <c r="E239" s="3" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F239" s="3" t="s">
         <v>2481</v>
       </c>
-      <c r="D239" s="11" t="s">
+      <c r="G239" s="27" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H239" s="27" t="s">
+        <v>2466</v>
+      </c>
+      <c r="I239" s="10" t="s">
         <v>2482</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>2483</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>2484</v>
-      </c>
-      <c r="G239" s="27" t="s">
-        <v>2471</v>
-      </c>
-      <c r="H239" s="27" t="s">
-        <v>2475</v>
-      </c>
-      <c r="I239" s="10" t="s">
+      <c r="J239" s="10" t="s">
         <v>2485</v>
       </c>
-      <c r="J239" s="10"/>
       <c r="K239" s="10"/>
       <c r="L239" s="10"/>
       <c r="M239" s="3"/>
       <c r="N239" s="10" t="s">
-        <v>2486</v>
-      </c>
-      <c r="O239" s="10"/>
-      <c r="P239" s="10" t="s">
-        <v>2510</v>
-      </c>
+        <v>2483</v>
+      </c>
+      <c r="O239" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="P239" s="10"/>
       <c r="Q239" s="10"/>
       <c r="R239" s="3"/>
       <c r="S239" s="3" t="s">
@@ -28033,53 +27997,47 @@
       <c r="T239" s="3"/>
       <c r="U239" s="3"/>
       <c r="V239" s="3" t="s">
-        <v>1695</v>
+        <v>2392</v>
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="10" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A240" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D240" s="11" t="s">
         <v>2488</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>2468</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D240" s="11" t="s">
+      <c r="E240" s="3" t="s">
         <v>2489</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="F240" s="3" t="s">
         <v>2490</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="G240" s="27" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H240" s="27" t="s">
+        <v>2467</v>
+      </c>
+      <c r="I240" s="10" t="s">
         <v>2491</v>
       </c>
-      <c r="G240" s="27" t="s">
-        <v>2472</v>
-      </c>
-      <c r="H240" s="27" t="s">
-        <v>2476</v>
-      </c>
-      <c r="I240" s="10" t="s">
-        <v>2492</v>
-      </c>
-      <c r="J240" s="10" t="s">
-        <v>2495</v>
-      </c>
+      <c r="J240" s="10"/>
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
       <c r="M240" s="3"/>
-      <c r="N240" s="10" t="s">
-        <v>2493</v>
-      </c>
-      <c r="O240" s="10" t="s">
-        <v>2494</v>
-      </c>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
       <c r="P240" s="10"/>
       <c r="Q240" s="10"/>
       <c r="R240" s="3"/>
@@ -28089,7 +28047,7 @@
       <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3" t="s">
-        <v>2402</v>
+        <v>2261</v>
       </c>
       <c r="W240" s="3"/>
       <c r="X240" s="10" t="s">
@@ -28098,39 +28056,43 @@
     </row>
     <row r="241" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A241" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F241" s="3" t="s">
         <v>2496</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>2469</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>2481</v>
-      </c>
-      <c r="D241" s="11" t="s">
+      <c r="G241" s="27" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H241" s="27" t="s">
+        <v>2468</v>
+      </c>
+      <c r="I241" s="10" t="s">
+        <v>2497</v>
+      </c>
+      <c r="J241" s="10" t="s">
         <v>2498</v>
       </c>
-      <c r="E241" s="3" t="s">
-        <v>2499</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>2500</v>
-      </c>
-      <c r="G241" s="27" t="s">
-        <v>2473</v>
-      </c>
-      <c r="H241" s="27" t="s">
-        <v>2477</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>2501</v>
-      </c>
-      <c r="J241" s="10"/>
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
       <c r="M241" s="3"/>
       <c r="N241" s="10"/>
       <c r="O241" s="10"/>
-      <c r="P241" s="10"/>
+      <c r="P241" s="10" t="s">
+        <v>2499</v>
+      </c>
       <c r="Q241" s="10"/>
       <c r="R241" s="3"/>
       <c r="S241" s="3" t="s">
@@ -28139,53 +28101,57 @@
       <c r="T241" s="3"/>
       <c r="U241" s="3"/>
       <c r="V241" s="3" t="s">
-        <v>2271</v>
+        <v>1695</v>
       </c>
       <c r="W241" s="3"/>
       <c r="X241" s="10" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>2502</v>
+        <v>2543</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>2470</v>
+        <v>2539</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>2481</v>
+        <v>2232</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>2504</v>
+        <v>2544</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>2505</v>
+        <v>2545</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>2506</v>
+        <v>2546</v>
       </c>
       <c r="G242" s="27" t="s">
-        <v>2474</v>
+        <v>2540</v>
       </c>
       <c r="H242" s="27" t="s">
-        <v>2478</v>
-      </c>
-      <c r="I242" s="10" t="s">
-        <v>2507</v>
-      </c>
+        <v>2541</v>
+      </c>
+      <c r="I242" s="10"/>
       <c r="J242" s="10" t="s">
-        <v>2508</v>
-      </c>
-      <c r="K242" s="10"/>
-      <c r="L242" s="10"/>
+        <v>2548</v>
+      </c>
+      <c r="K242" s="10" t="s">
+        <v>2550</v>
+      </c>
+      <c r="L242" s="10" t="s">
+        <v>2549</v>
+      </c>
       <c r="M242" s="3"/>
       <c r="N242" s="10"/>
       <c r="O242" s="10"/>
       <c r="P242" s="10" t="s">
-        <v>2509</v>
-      </c>
-      <c r="Q242" s="10"/>
+        <v>2547</v>
+      </c>
+      <c r="Q242" s="10" t="s">
+        <v>2551</v>
+      </c>
       <c r="R242" s="3"/>
       <c r="S242" s="3" t="s">
         <v>1789</v>
@@ -28193,53 +28159,47 @@
       <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3" t="s">
-        <v>1695</v>
+        <v>2015</v>
       </c>
       <c r="W242" s="3"/>
       <c r="X242" s="10" t="s">
-        <v>2503</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A243" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D243" s="11" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="G243" s="27" t="s">
         <v>2553</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>2235</v>
-      </c>
-      <c r="D243" s="11" t="s">
+      <c r="H243" s="27" t="s">
         <v>2554</v>
       </c>
-      <c r="E243" s="3" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>2556</v>
-      </c>
-      <c r="G243" s="27" t="s">
-        <v>2550</v>
-      </c>
-      <c r="H243" s="27" t="s">
-        <v>2551</v>
-      </c>
       <c r="I243" s="10"/>
-      <c r="J243" s="10" t="s">
-        <v>2558</v>
-      </c>
-      <c r="K243" s="10" t="s">
-        <v>2560</v>
-      </c>
-      <c r="L243" s="10" t="s">
-        <v>2559</v>
-      </c>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10"/>
+      <c r="L243" s="10"/>
       <c r="M243" s="3"/>
       <c r="N243" s="10"/>
       <c r="O243" s="10"/>
       <c r="P243" s="10" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="Q243" s="10" t="s">
         <v>2561</v>
@@ -28251,11 +28211,11 @@
       <c r="T243" s="3"/>
       <c r="U243" s="3"/>
       <c r="V243" s="3" t="s">
-        <v>2015</v>
+        <v>2239</v>
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="10" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
@@ -28266,7 +28226,7 @@
         <v>2562</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>2567</v>
@@ -28283,19 +28243,21 @@
       <c r="H244" s="27" t="s">
         <v>2564</v>
       </c>
-      <c r="I244" s="10"/>
+      <c r="I244" s="10" t="s">
+        <v>2572</v>
+      </c>
       <c r="J244" s="10"/>
       <c r="K244" s="10"/>
       <c r="L244" s="10"/>
       <c r="M244" s="3"/>
-      <c r="N244" s="10"/>
+      <c r="N244" s="10" t="s">
+        <v>2570</v>
+      </c>
       <c r="O244" s="10"/>
       <c r="P244" s="10" t="s">
-        <v>2570</v>
-      </c>
-      <c r="Q244" s="10" t="s">
         <v>2571</v>
       </c>
+      <c r="Q244" s="10"/>
       <c r="R244" s="3"/>
       <c r="S244" s="3" t="s">
         <v>1789</v>
@@ -28303,7 +28265,7 @@
       <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3" t="s">
-        <v>2242</v>
+        <v>2015</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="10" t="s">
@@ -28312,97 +28274,99 @@
     </row>
     <row r="245" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>2576</v>
+        <v>2786</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>2572</v>
+        <v>2778</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>2062</v>
+        <v>1823</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>2577</v>
+        <v>2788</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>2578</v>
+        <v>2789</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>2579</v>
+        <v>2790</v>
       </c>
       <c r="G245" s="27" t="s">
-        <v>2573</v>
+        <v>2781</v>
       </c>
       <c r="H245" s="27" t="s">
-        <v>2574</v>
+        <v>2784</v>
       </c>
       <c r="I245" s="10" t="s">
-        <v>2582</v>
+        <v>2807</v>
       </c>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="3"/>
-      <c r="N245" s="10" t="s">
-        <v>2580</v>
-      </c>
+      <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10" t="s">
-        <v>2581</v>
-      </c>
-      <c r="Q245" s="10"/>
+        <v>2808</v>
+      </c>
+      <c r="Q245" s="10" t="s">
+        <v>2787</v>
+      </c>
       <c r="R245" s="3"/>
       <c r="S245" s="3" t="s">
         <v>1789</v>
       </c>
       <c r="T245" s="3"/>
       <c r="U245" s="3"/>
-      <c r="V245" s="3" t="s">
-        <v>2015</v>
-      </c>
+      <c r="V245" s="3"/>
       <c r="W245" s="3"/>
       <c r="X245" s="10" t="s">
-        <v>2575</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>2788</v>
+        <v>2779</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>1823</v>
+        <v>2263</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>2798</v>
+        <v>2792</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>2799</v>
+        <v>2804</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>2800</v>
+        <v>2793</v>
       </c>
       <c r="G246" s="27" t="s">
-        <v>2791</v>
+        <v>2782</v>
       </c>
       <c r="H246" s="27" t="s">
-        <v>2794</v>
+        <v>2785</v>
       </c>
       <c r="I246" s="10" t="s">
-        <v>2817</v>
-      </c>
-      <c r="J246" s="10"/>
+        <v>2805</v>
+      </c>
+      <c r="J246" s="10" t="s">
+        <v>2809</v>
+      </c>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
-      <c r="M246" s="3"/>
+      <c r="M246" s="10" t="s">
+        <v>2810</v>
+      </c>
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10" t="s">
-        <v>2818</v>
+        <v>2811</v>
       </c>
       <c r="Q246" s="10" t="s">
-        <v>2797</v>
+        <v>2787</v>
       </c>
       <c r="R246" s="3"/>
       <c r="S246" s="3" t="s">
@@ -28413,52 +28377,52 @@
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
       <c r="X246" s="10" t="s">
-        <v>2816</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A247" s="2" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G247" s="27" t="s">
+        <v>2783</v>
+      </c>
+      <c r="H247" s="27" t="s">
+        <v>2800</v>
+      </c>
+      <c r="I247" s="10" t="s">
         <v>2801</v>
       </c>
-      <c r="B247" s="3" t="s">
-        <v>2789</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>2802</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>2814</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>2803</v>
-      </c>
-      <c r="G247" s="27" t="s">
-        <v>2792</v>
-      </c>
-      <c r="H247" s="27" t="s">
-        <v>2795</v>
-      </c>
-      <c r="I247" s="10" t="s">
-        <v>2815</v>
-      </c>
-      <c r="J247" s="10" t="s">
-        <v>2819</v>
-      </c>
+      <c r="J247" s="10"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
-      <c r="M247" s="10" t="s">
-        <v>2820</v>
-      </c>
-      <c r="N247" s="10"/>
-      <c r="O247" s="10"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="10" t="s">
+        <v>2798</v>
+      </c>
+      <c r="O247" s="10" t="s">
+        <v>2799</v>
+      </c>
       <c r="P247" s="10" t="s">
-        <v>2821</v>
+        <v>2802</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>2797</v>
+        <v>2787</v>
       </c>
       <c r="R247" s="3"/>
       <c r="S247" s="3" t="s">
@@ -28469,52 +28433,48 @@
       <c r="V247" s="3"/>
       <c r="W247" s="3"/>
       <c r="X247" s="10" t="s">
-        <v>2813</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>2804</v>
+        <v>2830</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>2790</v>
+        <v>2826</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>2294</v>
+        <v>2244</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>2805</v>
+        <v>2831</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>2806</v>
+        <v>2832</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>193</v>
+        <v>2219</v>
       </c>
       <c r="G248" s="27" t="s">
-        <v>2793</v>
+        <v>2827</v>
       </c>
       <c r="H248" s="27" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="I248" s="10" t="s">
-        <v>2811</v>
-      </c>
-      <c r="J248" s="10"/>
+        <v>2834</v>
+      </c>
+      <c r="J248" s="10" t="s">
+        <v>2835</v>
+      </c>
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
       <c r="M248" s="3"/>
-      <c r="N248" s="10" t="s">
-        <v>2808</v>
-      </c>
-      <c r="O248" s="10" t="s">
-        <v>2809</v>
-      </c>
-      <c r="P248" s="10" t="s">
-        <v>2812</v>
-      </c>
+      <c r="N248" s="10"/>
+      <c r="O248" s="10"/>
+      <c r="P248" s="10"/>
       <c r="Q248" s="10" t="s">
-        <v>2797</v>
+        <v>2833</v>
       </c>
       <c r="R248" s="3"/>
       <c r="S248" s="3" t="s">
@@ -28525,89 +28485,95 @@
       <c r="V248" s="3"/>
       <c r="W248" s="3"/>
       <c r="X248" s="10" t="s">
-        <v>2807</v>
+        <v>2829</v>
       </c>
     </row>
-    <row r="249" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
+    <row r="249" spans="1:24" ht="14.25" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>2840</v>
+        <v>10</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2836</v>
+        <v>1819</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D249" s="11" t="s">
-        <v>2841</v>
+        <v>161</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>2842</v>
+        <v>163</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>2222</v>
-      </c>
-      <c r="G249" s="27" t="s">
-        <v>2837</v>
-      </c>
-      <c r="H249" s="27" t="s">
-        <v>2838</v>
-      </c>
-      <c r="I249" s="10" t="s">
-        <v>2844</v>
-      </c>
-      <c r="J249" s="10" t="s">
-        <v>2845</v>
-      </c>
-      <c r="K249" s="10"/>
-      <c r="L249" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
       <c r="M249" s="3"/>
-      <c r="N249" s="10"/>
-      <c r="O249" s="10"/>
-      <c r="P249" s="10"/>
-      <c r="Q249" s="10" t="s">
-        <v>2843</v>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q249" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="R249" s="3"/>
       <c r="S249" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="T249" s="3"/>
-      <c r="U249" s="3"/>
-      <c r="V249" s="3"/>
+        <v>1788</v>
+      </c>
+      <c r="T249" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U249" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V249" s="3">
+        <v>3.7</v>
+      </c>
       <c r="W249" s="3"/>
-      <c r="X249" s="10" t="s">
-        <v>2839</v>
+      <c r="X249" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="14.25" customHeight="1">
+    <row r="250" spans="1:24" ht="20" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1819</v>
+        <v>1492</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
@@ -28615,14 +28581,14 @@
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
       <c r="P250" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="R250" s="3"/>
-      <c r="S250" s="3" t="s">
-        <v>1788</v>
+      <c r="S250" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="T250" s="3" t="s">
         <v>168</v>
@@ -28631,41 +28597,41 @@
         <v>161</v>
       </c>
       <c r="V250" s="3">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W250" s="3"/>
       <c r="X250" s="3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="20" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -28673,13 +28639,13 @@
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
       <c r="P251" s="3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="R251" s="3"/>
-      <c r="S251" s="18" t="s">
+      <c r="S251" s="3" t="s">
         <v>160</v>
       </c>
       <c r="T251" s="3" t="s">
@@ -28689,41 +28655,41 @@
         <v>161</v>
       </c>
       <c r="V251" s="3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="W251" s="3"/>
       <c r="X251" s="3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="20" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -28731,10 +28697,10 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -28747,41 +28713,41 @@
         <v>161</v>
       </c>
       <c r="V252" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W252" s="3"/>
       <c r="X252" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="20" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>14</v>
+        <v>2536</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -28789,10 +28755,10 @@
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="3" t="s">
@@ -28805,41 +28771,41 @@
         <v>161</v>
       </c>
       <c r="V253" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="20" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>2546</v>
+        <v>15</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -28847,10 +28813,10 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
@@ -28863,41 +28829,41 @@
         <v>161</v>
       </c>
       <c r="V254" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="20" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -28905,10 +28871,10 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="R255" s="3"/>
       <c r="S255" s="3" t="s">
@@ -28921,41 +28887,41 @@
         <v>161</v>
       </c>
       <c r="V255" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="20" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -28963,10 +28929,10 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
@@ -28979,41 +28945,41 @@
         <v>161</v>
       </c>
       <c r="V256" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W256" s="3"/>
       <c r="X256" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -29021,10 +28987,10 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="R257" s="3"/>
       <c r="S257" s="3" t="s">
@@ -29037,41 +29003,41 @@
         <v>161</v>
       </c>
       <c r="V257" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W257" s="3"/>
       <c r="X257" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="20" customHeight="1">
-      <c r="A258" s="2" t="s">
-        <v>18</v>
+      <c r="A258" s="36" t="s">
+        <v>2315</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -29079,10 +29045,10 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="R258" s="3"/>
       <c r="S258" s="3" t="s">
@@ -29095,41 +29061,41 @@
         <v>161</v>
       </c>
       <c r="V258" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W258" s="3"/>
       <c r="X258" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
-      <c r="A259" s="37" t="s">
-        <v>2325</v>
+      <c r="A259" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1500</v>
+        <v>1983</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>238</v>
+        <v>1080</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>239</v>
+        <v>1081</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>240</v>
+        <v>1082</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>1683</v>
+        <v>1600</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1683</v>
+        <v>1600</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3" t="s">
-        <v>241</v>
+        <v>1083</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -29137,204 +29103,206 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>242</v>
+        <v>1084</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>243</v>
+        <v>1085</v>
       </c>
       <c r="R259" s="3"/>
       <c r="S259" s="3" t="s">
         <v>160</v>
       </c>
       <c r="T259" s="3" t="s">
-        <v>168</v>
+        <v>1037</v>
       </c>
       <c r="U259" s="3" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="V259" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>244</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1983</v>
+        <v>2153</v>
+      </c>
+      <c r="B260" s="30" t="s">
+        <v>2155</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>1082</v>
+        <v>161</v>
+      </c>
+      <c r="D260" s="30" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E260" s="30" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F260" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1600</v>
+        <v>2159</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
-      <c r="N260" s="3"/>
-      <c r="O260" s="3"/>
-      <c r="P260" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="Q260" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="R260" s="3"/>
+        <v>2160</v>
+      </c>
+      <c r="I260" s="38" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J260" s="15"/>
+      <c r="K260" s="15"/>
+      <c r="L260" s="15"/>
+      <c r="M260" s="15"/>
+      <c r="N260" s="15"/>
+      <c r="O260" s="15"/>
+      <c r="P260" s="15"/>
+      <c r="Q260" s="38" t="s">
+        <v>2161</v>
+      </c>
+      <c r="R260" s="15"/>
       <c r="S260" s="3" t="s">
         <v>160</v>
       </c>
       <c r="T260" s="3" t="s">
-        <v>1037</v>
+        <v>168</v>
       </c>
       <c r="U260" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="V260" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="W260" s="3"/>
-      <c r="X260" s="3" t="s">
-        <v>1086</v>
+        <v>161</v>
+      </c>
+      <c r="V260" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="W260" s="15"/>
+      <c r="X260" s="38" t="s">
+        <v>2154</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="20" customHeight="1">
-      <c r="A261" s="2" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B261" s="30" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>161</v>
+      <c r="A261" s="30" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>2384</v>
       </c>
       <c r="D261" s="30" t="s">
-        <v>2156</v>
+        <v>2387</v>
       </c>
       <c r="E261" s="30" t="s">
-        <v>2157</v>
+        <v>2388</v>
       </c>
       <c r="F261" s="30" t="s">
-        <v>179</v>
+        <v>2389</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>2159</v>
+        <v>2377</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>2160</v>
-      </c>
-      <c r="I261" s="39" t="s">
-        <v>2158</v>
-      </c>
-      <c r="J261" s="15"/>
+        <v>2380</v>
+      </c>
+      <c r="I261" s="15"/>
+      <c r="J261" s="38" t="s">
+        <v>2390</v>
+      </c>
       <c r="K261" s="15"/>
       <c r="L261" s="15"/>
       <c r="M261" s="15"/>
       <c r="N261" s="15"/>
       <c r="O261" s="15"/>
       <c r="P261" s="15"/>
-      <c r="Q261" s="39" t="s">
-        <v>2161</v>
+      <c r="Q261" s="38" t="s">
+        <v>2391</v>
       </c>
       <c r="R261" s="15"/>
       <c r="S261" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T261" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="U261" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V261" s="45">
-        <v>4.8</v>
+      <c r="T261" s="15"/>
+      <c r="U261" s="15"/>
+      <c r="V261" s="43" t="s">
+        <v>2386</v>
       </c>
       <c r="W261" s="15"/>
-      <c r="X261" s="39" t="s">
-        <v>2154</v>
+      <c r="X261" s="38" t="s">
+        <v>2385</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
       <c r="A262" s="30" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>2384</v>
+        <v>2375</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>2394</v>
+        <v>2232</v>
       </c>
       <c r="D262" s="30" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E262" s="30" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F262" s="30" t="s">
         <v>2397</v>
       </c>
-      <c r="E262" s="30" t="s">
-        <v>2398</v>
-      </c>
-      <c r="F262" s="30" t="s">
+      <c r="G262" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="I262" s="38" t="s">
         <v>2399</v>
       </c>
-      <c r="G262" s="4" t="s">
-        <v>2387</v>
-      </c>
-      <c r="H262" s="4" t="s">
-        <v>2390</v>
-      </c>
-      <c r="I262" s="15"/>
-      <c r="J262" s="39" t="s">
-        <v>2400</v>
+      <c r="J262" s="38" t="s">
+        <v>2401</v>
       </c>
       <c r="K262" s="15"/>
       <c r="L262" s="15"/>
       <c r="M262" s="15"/>
       <c r="N262" s="15"/>
-      <c r="O262" s="15"/>
-      <c r="P262" s="15"/>
-      <c r="Q262" s="39" t="s">
-        <v>2401</v>
-      </c>
-      <c r="R262" s="15"/>
+      <c r="O262" s="38" t="s">
+        <v>2400</v>
+      </c>
+      <c r="P262" s="38" t="s">
+        <v>2398</v>
+      </c>
+      <c r="Q262" s="38" t="s">
+        <v>2402</v>
+      </c>
+      <c r="R262" s="38" t="s">
+        <v>2403</v>
+      </c>
       <c r="S262" s="3" t="s">
         <v>160</v>
       </c>
       <c r="T262" s="15"/>
       <c r="U262" s="15"/>
-      <c r="V262" s="44" t="s">
-        <v>2396</v>
+      <c r="V262" s="43" t="s">
+        <v>2392</v>
       </c>
       <c r="W262" s="15"/>
-      <c r="X262" s="39" t="s">
-        <v>2395</v>
+      <c r="X262" s="38" t="s">
+        <v>2393</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
-      <c r="A263" s="30" t="s">
-        <v>2404</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>2385</v>
+      <c r="A263" s="41" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B263" s="30" t="s">
+        <v>2376</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>2235</v>
+        <v>1833</v>
       </c>
       <c r="D263" s="30" t="s">
         <v>2405</v>
@@ -29343,108 +29311,48 @@
         <v>2406</v>
       </c>
       <c r="F263" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="H263" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="I263" s="38" t="s">
+        <v>2409</v>
+      </c>
+      <c r="J263" s="38" t="s">
         <v>2407</v>
       </c>
-      <c r="G263" s="4" t="s">
-        <v>2388</v>
-      </c>
-      <c r="H263" s="4" t="s">
-        <v>2391</v>
-      </c>
-      <c r="I263" s="39" t="s">
-        <v>2409</v>
-      </c>
-      <c r="J263" s="39" t="s">
-        <v>2411</v>
-      </c>
       <c r="K263" s="15"/>
-      <c r="L263" s="15"/>
+      <c r="L263" s="38" t="s">
+        <v>2408</v>
+      </c>
       <c r="M263" s="15"/>
       <c r="N263" s="15"/>
-      <c r="O263" s="39" t="s">
+      <c r="O263" s="15"/>
+      <c r="P263" s="38" t="s">
         <v>2410</v>
       </c>
-      <c r="P263" s="39" t="s">
-        <v>2408</v>
-      </c>
-      <c r="Q263" s="39" t="s">
-        <v>2412</v>
-      </c>
-      <c r="R263" s="39" t="s">
-        <v>2413</v>
-      </c>
+      <c r="Q263" s="15"/>
+      <c r="R263" s="15"/>
       <c r="S263" s="3" t="s">
         <v>160</v>
       </c>
       <c r="T263" s="15"/>
       <c r="U263" s="15"/>
-      <c r="V263" s="44" t="s">
-        <v>2402</v>
+      <c r="V263" s="43" t="s">
+        <v>2386</v>
       </c>
       <c r="W263" s="15"/>
-      <c r="X263" s="39" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24" ht="20" customHeight="1">
-      <c r="A264" s="42" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B264" s="30" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D264" s="30" t="s">
-        <v>2415</v>
-      </c>
-      <c r="E264" s="30" t="s">
-        <v>2416</v>
-      </c>
-      <c r="F264" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>2389</v>
-      </c>
-      <c r="H264" s="4" t="s">
-        <v>2392</v>
-      </c>
-      <c r="I264" s="39" t="s">
-        <v>2419</v>
-      </c>
-      <c r="J264" s="39" t="s">
-        <v>2417</v>
-      </c>
-      <c r="K264" s="15"/>
-      <c r="L264" s="39" t="s">
-        <v>2418</v>
-      </c>
-      <c r="M264" s="15"/>
-      <c r="N264" s="15"/>
-      <c r="O264" s="15"/>
-      <c r="P264" s="39" t="s">
-        <v>2420</v>
-      </c>
-      <c r="Q264" s="15"/>
-      <c r="R264" s="15"/>
-      <c r="S264" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="T264" s="15"/>
-      <c r="U264" s="15"/>
-      <c r="V264" s="44" t="s">
-        <v>2396</v>
-      </c>
-      <c r="W264" s="15"/>
-      <c r="X264" s="30" t="s">
-        <v>2414</v>
+      <c r="X263" s="30" t="s">
+        <v>2404</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X264">
-    <sortCondition ref="B2:B264"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X263">
+    <sortCondition ref="B2:B263"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -29806,9 +29714,9 @@
     <hyperlink ref="I64" r:id="rId351" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N64" r:id="rId352" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O64" r:id="rId353" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X261" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I261" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q261" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X260" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I260" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q260" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
     <hyperlink ref="X230" r:id="rId357" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
     <hyperlink ref="I230" r:id="rId358" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
     <hyperlink ref="Q230" r:id="rId359" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
@@ -29827,190 +29735,186 @@
     <hyperlink ref="O132" r:id="rId372" xr:uid="{B65BC528-A8B1-B046-BD8B-D7F4533D8426}"/>
     <hyperlink ref="X133" r:id="rId373" display="https://www.google.com/maps/place/Y.J+COFFEE+%E7%8E%89%E6%B4%A5%E5%92%96%E5%95%A1-%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0608361,121.3643035,15z/data=!4m6!3m5!1s0x3442a760bd153451:0x18fc101d2eb228!8m2!3d25.0608361!4d121.3643035!16s%2Fg%2F11v68wsch9?hl=zh-TW&amp;entry=ttu" xr:uid="{8620CE66-049B-0B45-96BC-88EDF3E4F5EF}"/>
     <hyperlink ref="P133" r:id="rId374" xr:uid="{B7E4B78F-886E-0D40-AAC2-A20F39A5D19B}"/>
-    <hyperlink ref="X233" r:id="rId375" xr:uid="{D513533E-5F99-4047-AFF2-BF0206D0D5AA}"/>
-    <hyperlink ref="J233" r:id="rId376" xr:uid="{5A05419A-E761-7C4D-96E7-7E3BD4FA4D32}"/>
-    <hyperlink ref="L233" r:id="rId377" xr:uid="{F2B113FB-4E69-6141-B9E9-12771F9A2627}"/>
-    <hyperlink ref="P233" r:id="rId378" xr:uid="{EE9DBF4F-4B6C-374D-A208-E3DB2FFD284E}"/>
-    <hyperlink ref="P176" r:id="rId379" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
-    <hyperlink ref="X134" r:id="rId380" display="https://www.google.com/maps/place/BroFood%E4%BD%A0%E7%9A%84%E4%BC%AF%E7%88%B6%E5%B7%B2%E4%B8%8A%E7%B7%9A/@25.0541886,121.364174,15z/data=!4m6!3m5!1s0x3442a7d44aac8683:0x5ed109106289102f!8m2!3d25.0554989!4d121.3672224!16s%2Fg%2F11vd9rbppy?hl=zh-TW&amp;entry=ttu" xr:uid="{587F4B97-2A31-2444-BE86-7ED2A781000A}"/>
-    <hyperlink ref="N134" r:id="rId381" xr:uid="{DBD80C1C-15BB-E743-B181-07B5B73386D2}"/>
-    <hyperlink ref="X234" r:id="rId382" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
-    <hyperlink ref="J234" r:id="rId383" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
-    <hyperlink ref="I234" r:id="rId384" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
-    <hyperlink ref="N106" r:id="rId385" xr:uid="{BF71F067-376F-C84F-A040-1CE32EDBAA71}"/>
-    <hyperlink ref="K106" r:id="rId386" xr:uid="{FA5F13B7-74CD-B340-9FE2-EAC3123473D7}"/>
-    <hyperlink ref="K198" r:id="rId387" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
-    <hyperlink ref="I235" r:id="rId388" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
-    <hyperlink ref="J236" r:id="rId389" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
-    <hyperlink ref="L236" r:id="rId390" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
-    <hyperlink ref="N236" r:id="rId391" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
-    <hyperlink ref="Q236" r:id="rId392" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
-    <hyperlink ref="N135" r:id="rId393" xr:uid="{738457FA-3787-1F49-BA31-1BC2BAFB08F3}"/>
-    <hyperlink ref="O135" r:id="rId394" xr:uid="{74692A90-DA12-314B-BF4D-E90CA31C36BE}"/>
-    <hyperlink ref="I135" r:id="rId395" xr:uid="{0D193AA9-6E05-734F-8E8A-050CA65757A0}"/>
-    <hyperlink ref="X136" r:id="rId396" display="https://www.google.com/maps/place/%E6%A3%AE%E6%96%99%E7%90%86-%E9%95%B7%E5%BA%9A%E5%BA%97/@25.062657,121.3668862,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a76ac5fdb1d3:0x92a95e0c9666e0c8!8m2!3d25.062657!4d121.3668862!16s%2Fg%2F11vbzrvjkh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CD9572C4-CE63-0941-BF56-6FC28C7B4847}"/>
-    <hyperlink ref="I136" r:id="rId397" xr:uid="{91529868-0559-BF47-B21F-DBBC92C87534}"/>
-    <hyperlink ref="P136" r:id="rId398" xr:uid="{44C3DD2A-5F44-1F41-9F95-F2FD8B9EBE9A}"/>
-    <hyperlink ref="P137" r:id="rId399" xr:uid="{FCC2C3A1-7C76-844F-BD20-7D599434560E}"/>
-    <hyperlink ref="J137" r:id="rId400" xr:uid="{34D75A38-2D44-B04F-A3D4-AF3748EA2888}"/>
-    <hyperlink ref="M137" r:id="rId401" xr:uid="{4823C7A5-7F42-424B-83EC-1440A794DC9D}"/>
-    <hyperlink ref="L137" r:id="rId402" xr:uid="{52CCDF3E-5496-4046-8A0B-C9F91F09EA32}"/>
-    <hyperlink ref="I137" r:id="rId403" xr:uid="{40962969-C051-5B49-85ED-58BA426ADC96}"/>
-    <hyperlink ref="K137" r:id="rId404" xr:uid="{917FD010-FFF3-BD43-8774-518776D66B7C}"/>
-    <hyperlink ref="Q137" r:id="rId405" xr:uid="{91594FFA-3196-CE43-9FC3-E1BC06F6C622}"/>
-    <hyperlink ref="N138" r:id="rId406" xr:uid="{92B5CB2B-9D15-C848-B874-B319FF0A162D}"/>
-    <hyperlink ref="O138" r:id="rId407" xr:uid="{42EC7B84-6031-A34A-A8B7-617FAD76BF38}"/>
-    <hyperlink ref="Q138" r:id="rId408" xr:uid="{329872DC-B787-C24C-BB02-C9B84EFE8C54}"/>
-    <hyperlink ref="Q66" r:id="rId409" xr:uid="{40D06078-566D-AA45-A73C-FCD3E93FDF85}"/>
-    <hyperlink ref="I33" r:id="rId410" xr:uid="{C93BD4B8-42D7-5440-AFFA-C064026819EC}"/>
-    <hyperlink ref="N38" r:id="rId411" xr:uid="{4438B892-35B7-1C45-94DC-3FC8CDF11C55}"/>
-    <hyperlink ref="K42" r:id="rId412" xr:uid="{3439F427-E9E0-DB42-848E-FBA940A18414}"/>
-    <hyperlink ref="N42" r:id="rId413" xr:uid="{45B05865-1834-FD42-8B85-B5839BDB5D6B}"/>
-    <hyperlink ref="O42" r:id="rId414" xr:uid="{F523FE21-2C85-8145-9CB8-B2858CDE9474}"/>
-    <hyperlink ref="Q93" r:id="rId415" xr:uid="{5A9AC9D7-1034-9945-84BA-AE63B7FD5013}"/>
-    <hyperlink ref="R115" r:id="rId416" xr:uid="{0EFABC6E-C84C-9A43-BD9B-7723DCFF32E4}"/>
-    <hyperlink ref="R95" r:id="rId417" xr:uid="{81467FDA-A16E-8F4C-A277-4B933236EEF6}"/>
-    <hyperlink ref="L67" r:id="rId418" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
-    <hyperlink ref="N67" r:id="rId419" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
-    <hyperlink ref="Q67" r:id="rId420" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X262" r:id="rId421" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J262" r:id="rId422" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q262" r:id="rId423" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X263" r:id="rId424" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P263" r:id="rId425" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I263" r:id="rId426" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O263" r:id="rId427" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J263" r:id="rId428" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q263" r:id="rId429" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R263" r:id="rId430" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J264" r:id="rId431" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L264" r:id="rId432" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I264" r:id="rId433" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P264" r:id="rId434" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
-    <hyperlink ref="X237" r:id="rId435" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
-    <hyperlink ref="N237" r:id="rId436" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
-    <hyperlink ref="J237" r:id="rId437" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
-    <hyperlink ref="L237" r:id="rId438" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
-    <hyperlink ref="K237" r:id="rId439" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
-    <hyperlink ref="Q237" r:id="rId440" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
-    <hyperlink ref="X139" r:id="rId441" display="https://www.google.com/maps/place/%E7%8E%96%E7%88%90%E7%B2%BE%E7%B7%BB%E9%8D%8B%E7%89%A9-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0527632,121.3671907,18.9z/data=!4m6!3m5!1s0x3442a7306dd22b8d:0x46389e561cf3ce6!8m2!3d25.052783!4d121.368052!16s%2Fg%2F11ddxkg07g?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{94A63822-ECAF-BC42-97F6-7D1561D6C673}"/>
-    <hyperlink ref="J139" r:id="rId442" xr:uid="{49BC0516-7E8B-7440-B512-ED1113397EC2}"/>
-    <hyperlink ref="L139" r:id="rId443" xr:uid="{5026A099-EED6-A941-A394-2F0F837175FF}"/>
-    <hyperlink ref="I139" r:id="rId444" xr:uid="{96BE1ADD-7164-E44B-9F06-725F8136A67E}"/>
-    <hyperlink ref="Q139" r:id="rId445" xr:uid="{693E0203-1953-A045-98B9-4A9828CA155E}"/>
-    <hyperlink ref="X238" r:id="rId446" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
-    <hyperlink ref="I238" r:id="rId447" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
-    <hyperlink ref="Q238" r:id="rId448" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
-    <hyperlink ref="N140" r:id="rId449" xr:uid="{50E1CD44-37DC-A645-95E1-1AF636859E07}"/>
-    <hyperlink ref="O140" r:id="rId450" xr:uid="{19AEE415-9DB8-174D-886C-7BF83E81EC05}"/>
-    <hyperlink ref="J140" r:id="rId451" xr:uid="{9FCE9D3D-F2C5-B848-BA6F-0C59883F00AB}"/>
-    <hyperlink ref="Q140" r:id="rId452" xr:uid="{02A6651D-67A9-A34C-AEC0-8F1470234998}"/>
-    <hyperlink ref="I239" r:id="rId453" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
-    <hyperlink ref="N239" r:id="rId454" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
-    <hyperlink ref="I240" r:id="rId455" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
-    <hyperlink ref="N240" r:id="rId456" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
-    <hyperlink ref="O240" r:id="rId457" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
-    <hyperlink ref="J240" r:id="rId458" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
-    <hyperlink ref="I241" r:id="rId459" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
-    <hyperlink ref="I242" r:id="rId460" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
-    <hyperlink ref="J242" r:id="rId461" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
-    <hyperlink ref="P242" r:id="rId462" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
-    <hyperlink ref="P239" r:id="rId463" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
-    <hyperlink ref="R165" r:id="rId464" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
-    <hyperlink ref="P243" r:id="rId465" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
-    <hyperlink ref="J243" r:id="rId466" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
-    <hyperlink ref="L243" r:id="rId467" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
-    <hyperlink ref="K243" r:id="rId468" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
-    <hyperlink ref="Q243" r:id="rId469" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
-    <hyperlink ref="P244" r:id="rId470" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
-    <hyperlink ref="Q244" r:id="rId471" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
-    <hyperlink ref="N245" r:id="rId472" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
-    <hyperlink ref="P245" r:id="rId473" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
-    <hyperlink ref="I245" r:id="rId474" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
-    <hyperlink ref="I68" r:id="rId475" xr:uid="{EA1E3DFE-344E-FA48-9994-5ACE49222FF2}"/>
-    <hyperlink ref="K68" r:id="rId476" xr:uid="{796D8F3B-3FE3-7E44-AD28-4211B63E8248}"/>
-    <hyperlink ref="P68" r:id="rId477" xr:uid="{675AB809-2BC9-A746-9147-8D721F7507A7}"/>
-    <hyperlink ref="X69" r:id="rId478" display="https://www.google.com/maps/place/PIZZA+HUT%E5%BF%85%E5%8B%9D%E5%AE%A2-%E6%9E%97%E5%8F%A3%E6%96%87%E9%9D%92%E5%BA%97/@25.0460801,121.389007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7d34c1f931b:0xaf0bac0c651c1881!8m2!3d25.0460753!4d121.3915819!16s%2Fg%2F11vjtr5hst?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{480289C0-7C2C-6848-96B4-B75E60C989FD}"/>
-    <hyperlink ref="I69" r:id="rId479" xr:uid="{BB90A825-1455-E143-9599-FF45B26A2BB5}"/>
-    <hyperlink ref="P69" r:id="rId480" xr:uid="{76622518-D644-CD46-B5C1-5D7664CE9651}"/>
-    <hyperlink ref="X70" r:id="rId481" display="https://www.google.com/maps/place/%E5%A4%A7%E5%90%89%E9%BA%B5%E5%8C%85%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0471344,121.3905258,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a700f7cbc735:0x14011368050c2dd8!8m2!3d25.0471296!4d121.3931007!16s%2Fg%2F11r7xdk4s1?authuser=0&amp;entry=ttu" xr:uid="{D419D755-9E0D-BD48-AAF9-3D6855D632C3}"/>
-    <hyperlink ref="J70" r:id="rId482" xr:uid="{A14C31C3-F225-EB43-B423-4159C4B4F952}"/>
-    <hyperlink ref="I70" r:id="rId483" xr:uid="{4E69AAD8-779C-F84E-AE32-C6C58D4C0DC6}"/>
-    <hyperlink ref="X71" r:id="rId484" display="https://www.google.com/maps/place/%E9%A5%97%E5%91%B3%E9%B9%B9%E9%85%A5%E9%9B%9E+(%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97)/@25.0387548,121.3862769,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7747528f97b:0x9c171d79569718f3!8m2!3d25.03875!4d121.3888518!16s%2Fg%2F11y21nnzfv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{890FBB92-CFB6-254A-9840-6BC96D7920B2}"/>
-    <hyperlink ref="K71" r:id="rId485" xr:uid="{C8F0A506-1C0C-5A4A-9C52-61250CB8E9E5}"/>
-    <hyperlink ref="M68" r:id="rId486" xr:uid="{AE8ABAC6-FE94-B94A-B863-B6A1FD23829D}"/>
-    <hyperlink ref="X72" r:id="rId487" xr:uid="{B1BAB142-3B95-4F4F-A504-854E9236D8DB}"/>
-    <hyperlink ref="N72" r:id="rId488" xr:uid="{2749721D-0021-184B-9B83-1124C8ED20EE}"/>
-    <hyperlink ref="J73" r:id="rId489" xr:uid="{F213DBA7-8C49-9346-8AFA-825D43707D5C}"/>
-    <hyperlink ref="P73" r:id="rId490" xr:uid="{39B14C20-4263-C34D-BCE6-69AA01A6B25C}"/>
-    <hyperlink ref="M73" r:id="rId491" xr:uid="{FBC63B2B-A0C7-A34E-AACE-3F311221780E}"/>
-    <hyperlink ref="I73" r:id="rId492" xr:uid="{5F46FA17-D052-C943-AC88-1D406EC3B5F1}"/>
-    <hyperlink ref="K74" r:id="rId493" xr:uid="{58CF9672-F340-6D49-B281-18EBA420377A}"/>
-    <hyperlink ref="O74" r:id="rId494" xr:uid="{F089EE9F-DC91-6341-BB42-103948C5FDF3}"/>
-    <hyperlink ref="N74" r:id="rId495" display="https://www.ubereats.com/tw/store/%E6%97%A5%E5%87%BA%E5%AE%A2%E6%A3%A7%E8%8C%B6%E9%A3%B2-%E5%B0%8F%E8%BE%B2%E9%AE%AE%E5%A5%B6-%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/5ayWFUPvWHuELSU_dzPeuA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{2E81F6DC-AE13-674D-94ED-DEBA830B1962}"/>
-    <hyperlink ref="J75" r:id="rId496" xr:uid="{5CCB57A8-7AF8-DD40-90F3-95685168A035}"/>
-    <hyperlink ref="L76" r:id="rId497" xr:uid="{DB1C5ABF-E045-FB40-A2A5-0F2F8FDC521B}"/>
-    <hyperlink ref="I76" r:id="rId498" xr:uid="{0DFAED9D-FAC8-9C42-9DD1-B47FC2AB6C0D}"/>
-    <hyperlink ref="Q15" r:id="rId499" xr:uid="{F256BF4D-41CC-0D46-9A0F-EB8CFF55353B}"/>
-    <hyperlink ref="X141" r:id="rId500" display="https://www.google.com/maps/place/%E4%BA%AB%E4%BA%AB%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0533761,121.3682197,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a0c7f4185d:0x1c875e8a694512fd!8m2!3d25.0533761!4d121.3707946!16s%2Fg%2F11ks08c9vm?entry=ttu" xr:uid="{ADF42D96-14BF-A34E-9538-418834B62CD7}"/>
-    <hyperlink ref="Q141" r:id="rId501" xr:uid="{8350CDBD-BFB4-5347-8D80-86AC28DD7E3F}"/>
-    <hyperlink ref="J141" r:id="rId502" xr:uid="{21A8AACF-BEE6-7144-B4C5-1A7DF5428BA0}"/>
-    <hyperlink ref="N141" r:id="rId503" xr:uid="{D195E925-2C8D-3040-B0E4-DE3FEB946B58}"/>
-    <hyperlink ref="P141" r:id="rId504" xr:uid="{A27AA05B-ACFC-D74F-AF7A-5A31B044F42F}"/>
-    <hyperlink ref="X142" r:id="rId505" display="https://www.google.com/maps/place/%E7%88%AD%E5%8E%9A%E5%8E%9A%E5%88%87%E7%89%9B%E6%8E%92%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0578044,121.3704166,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73c5f6baf91:0x6cc984a1886851f2!8m2!3d25.0578044!4d121.3729969!16s%2Fg%2F11dynbncl7?authuser=0&amp;entry=ttu" xr:uid="{C73CA984-F455-2A4A-8230-A16FDA1F1A90}"/>
-    <hyperlink ref="I142" r:id="rId506" xr:uid="{818C0E9E-18E4-474A-AE01-1E824681D292}"/>
-    <hyperlink ref="P142" r:id="rId507" xr:uid="{0B1C40D2-1A3C-2A47-9D6A-6CD116CA4649}"/>
-    <hyperlink ref="Q47" r:id="rId508" xr:uid="{9E839F7C-2EFD-7E4C-A387-AF73930B8C0B}"/>
-    <hyperlink ref="P47" r:id="rId509" xr:uid="{B049FBD3-B636-5748-8DCF-21EA5DD77F18}"/>
-    <hyperlink ref="J143" r:id="rId510" xr:uid="{860150BA-E09A-784F-82CE-8F445B0FE452}"/>
-    <hyperlink ref="K143" r:id="rId511" xr:uid="{08A6481C-6DE4-1648-B817-8FA1B4F9809E}"/>
-    <hyperlink ref="N143" r:id="rId512" xr:uid="{FEFBE377-5DB2-FC43-9456-AD3E190871D0}"/>
-    <hyperlink ref="O143" r:id="rId513" xr:uid="{BCBB524D-23FF-D242-89D1-BA090677AA58}"/>
-    <hyperlink ref="X144" r:id="rId514" display="https://www.google.com/maps/place/%E5%A4%A7%E6%96%B9%E5%86%B0%E5%93%81+%E9%BE%9C%E5%B1%B1%E5%BE%A9%E8%88%88%E5%BA%97/@25.0559833,121.3604472,17z/data=!4m6!3m5!1s0x3442a7bf347cbc7b:0x340fc1dc39275fe2!8m2!3d25.0559833!4d121.3630275!16s%2Fg%2F11k3yl7hrs?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1059C720-40A7-A440-94E2-57EA9676425E}"/>
-    <hyperlink ref="N144" r:id="rId515" xr:uid="{18026ECE-D853-A449-A860-8D65FFE75EA4}"/>
-    <hyperlink ref="X145" r:id="rId516" xr:uid="{459A6D15-A66D-0C4C-AE0C-3A6499FCBFC4}"/>
-    <hyperlink ref="I145" r:id="rId517" xr:uid="{FADDDAF6-D0FE-A74B-86DB-AD1535C19729}"/>
-    <hyperlink ref="P145" r:id="rId518" xr:uid="{A95E1E8C-4217-3942-818C-5D9C1DD75C84}"/>
-    <hyperlink ref="X146" r:id="rId519" display="https://www.google.com/maps/place/%E6%9D%BE%E8%88%8D%E9%A4%8A%E7%94%9F%E9%90%B5%E6%9D%BF%E7%87%92/@25.0563937,121.3610308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7373b086927:0xb5e1927aa10cfb0!8m2!3d25.0563889!4d121.3636111!16s%2Fg%2F11h0h7skz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{68CA7543-95FA-5747-A165-5B2E8B9D67A5}"/>
-    <hyperlink ref="X147" r:id="rId520" xr:uid="{B47CCBB5-7BF8-5A46-BAFD-C6C16C8E9DF3}"/>
-    <hyperlink ref="O147" r:id="rId521" xr:uid="{E0DCF345-8335-F345-BB78-7EF11BFC864B}"/>
-    <hyperlink ref="Q147" r:id="rId522" xr:uid="{410934B7-06F4-D547-BACA-F4E10C26E61B}"/>
-    <hyperlink ref="N148" r:id="rId523" xr:uid="{9E5EF738-43A4-1342-9981-C8C26A04F3EB}"/>
-    <hyperlink ref="O148" r:id="rId524" xr:uid="{1D9788C6-C99A-7041-9E6E-CD881601E3E1}"/>
-    <hyperlink ref="X149" r:id="rId525" display="https://www.google.com/maps/place/%E8%80%81%E5%85%88%E8%A6%BA%E7%81%AB%E9%8D%8B+%E9%BE%9C%E5%B1%B1%E5%BE%A9%E8%88%88%E4%B8%80%E5%BA%97/@25.0565527,121.3613826,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7373768c055:0x2089f5e99e16a815!8m2!3d25.0565479!4d121.3639629!16s%2Fg%2F11h0nft4t?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{76039ADC-A2F2-B542-B8E6-37DE8A9351E8}"/>
-    <hyperlink ref="O149" r:id="rId526" xr:uid="{EB45AF87-AB14-6A48-804C-C87F51F6EF73}"/>
-    <hyperlink ref="I150" r:id="rId527" xr:uid="{1466ACCD-52A8-AE4B-B332-B005EF687754}"/>
-    <hyperlink ref="O150" r:id="rId528" xr:uid="{1268B3ED-17D4-E54C-B947-0B4E82CEA514}"/>
-    <hyperlink ref="N150" r:id="rId529" xr:uid="{D4E5F5A9-24FE-0A46-8C60-9882588F5EC7}"/>
-    <hyperlink ref="O151" r:id="rId530" xr:uid="{9EB4FBD6-FFDB-714E-9EAA-FA0978031869}"/>
-    <hyperlink ref="N151" r:id="rId531" xr:uid="{609A7BED-5BCD-E242-9E68-5A6A2DE45487}"/>
-    <hyperlink ref="Q246" r:id="rId532" xr:uid="{0CD2A816-C222-F541-8371-DF8EE463A15C}"/>
-    <hyperlink ref="Q247:Q248" r:id="rId533" display="https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR" xr:uid="{617D6DF2-DD4F-0B49-BE8A-8896ABF74EFD}"/>
-    <hyperlink ref="X248" r:id="rId534" xr:uid="{227AE9B5-F117-6641-BF85-D93A78DE8B5F}"/>
-    <hyperlink ref="N248" r:id="rId535" xr:uid="{580CFFAF-B9E7-D341-B8B2-1E90BF6EE944}"/>
-    <hyperlink ref="O248" r:id="rId536" xr:uid="{F5AB8850-AFBF-6A40-AE3C-D532A31859BA}"/>
-    <hyperlink ref="I248" r:id="rId537" xr:uid="{874D8804-0E85-0B40-878B-59E784685E92}"/>
-    <hyperlink ref="P248" r:id="rId538" xr:uid="{F0B75305-21B2-9A47-AEE9-BFA539D49D9C}"/>
-    <hyperlink ref="X247" r:id="rId539" display="https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{4C4096D1-967B-C641-B7D9-2DFC55745B8E}"/>
-    <hyperlink ref="I247" r:id="rId540" location="358881131" xr:uid="{09B6A8DC-B49F-654E-B68D-86CEB9CB313F}"/>
-    <hyperlink ref="X246" r:id="rId541" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
-    <hyperlink ref="I246" r:id="rId542" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
-    <hyperlink ref="P246" r:id="rId543" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
-    <hyperlink ref="J247" r:id="rId544" xr:uid="{F1520F3A-4DA5-844B-8C27-D564B8030350}"/>
-    <hyperlink ref="M247" r:id="rId545" xr:uid="{605002D7-0B39-2749-980B-4720BC9FC9D3}"/>
-    <hyperlink ref="P247" r:id="rId546" xr:uid="{1F8D09F2-7987-C54A-8965-AE9EDCDD0A31}"/>
-    <hyperlink ref="P235" r:id="rId547" xr:uid="{9C83DF22-8391-564F-A64C-E56B34F74693}"/>
-    <hyperlink ref="X152" r:id="rId548" display="https://www.google.com/maps/place/%E9%BA%B5%E5%B1%8B%E3%80%82%E6%BF%83(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)/@25.0588376,121.3693655,18z/data=!4m6!3m5!1s0x3442a73b0b4fa2f9:0x2e62ecbb1bb16d!8m2!3d25.0590887!4d121.3699559!16s%2Fg%2F11fzjct1mg?hl=zh-TW&amp;entry=ttu" xr:uid="{67066CA6-AB7C-E146-9093-B19E29478036}"/>
-    <hyperlink ref="J152" r:id="rId549" xr:uid="{CBDD26C0-2870-744F-99B4-D9EBC989DD10}"/>
-    <hyperlink ref="M152" r:id="rId550" xr:uid="{AF0E25DE-517F-304A-AA3F-A38C4A5A9E1C}"/>
-    <hyperlink ref="N152" r:id="rId551" xr:uid="{F6BDA6F5-30EB-AA43-8AF1-C7D097B290EF}"/>
-    <hyperlink ref="O152" r:id="rId552" xr:uid="{5EF38EFA-0DC1-6247-A89B-F55327F37C29}"/>
-    <hyperlink ref="Q152" r:id="rId553" xr:uid="{BFBB3DD6-6EA7-8949-9301-7E3DC8EF519C}"/>
-    <hyperlink ref="Q49" r:id="rId554" xr:uid="{4EAB02B3-9F81-654B-9051-184DD2C734D6}"/>
-    <hyperlink ref="X249" r:id="rId555" display="https://www.google.com/maps/place/%E6%97%A5%E7%A6%8F+OH+HAPPY+DAY+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0789386,121.3763809,17z/data=!4m6!3m5!1s0x3442a7000d124d5f:0x22b75a68574b098e!8m2!3d25.0797319!4d121.377629!16s%2Fg%2F11vt1rvtdf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5B27D186-884F-2B42-99DD-26425134389E}"/>
-    <hyperlink ref="Q249" r:id="rId556" xr:uid="{21B9863F-2AC0-8447-88D5-DD47DBF936FE}"/>
-    <hyperlink ref="I249" r:id="rId557" xr:uid="{AA696F6C-4377-B244-B3F1-86D18B9D9EA7}"/>
-    <hyperlink ref="J249" r:id="rId558" xr:uid="{E896E9FD-3B4C-0644-A326-6B11B5667CE4}"/>
+    <hyperlink ref="P176" r:id="rId375" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
+    <hyperlink ref="X134" r:id="rId376" display="https://www.google.com/maps/place/BroFood%E4%BD%A0%E7%9A%84%E4%BC%AF%E7%88%B6%E5%B7%B2%E4%B8%8A%E7%B7%9A/@25.0541886,121.364174,15z/data=!4m6!3m5!1s0x3442a7d44aac8683:0x5ed109106289102f!8m2!3d25.0554989!4d121.3672224!16s%2Fg%2F11vd9rbppy?hl=zh-TW&amp;entry=ttu" xr:uid="{587F4B97-2A31-2444-BE86-7ED2A781000A}"/>
+    <hyperlink ref="N134" r:id="rId377" xr:uid="{DBD80C1C-15BB-E743-B181-07B5B73386D2}"/>
+    <hyperlink ref="X233" r:id="rId378" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
+    <hyperlink ref="J233" r:id="rId379" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
+    <hyperlink ref="I233" r:id="rId380" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
+    <hyperlink ref="N106" r:id="rId381" xr:uid="{BF71F067-376F-C84F-A040-1CE32EDBAA71}"/>
+    <hyperlink ref="K106" r:id="rId382" xr:uid="{FA5F13B7-74CD-B340-9FE2-EAC3123473D7}"/>
+    <hyperlink ref="K198" r:id="rId383" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
+    <hyperlink ref="I234" r:id="rId384" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
+    <hyperlink ref="J235" r:id="rId385" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
+    <hyperlink ref="L235" r:id="rId386" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
+    <hyperlink ref="N235" r:id="rId387" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
+    <hyperlink ref="Q235" r:id="rId388" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
+    <hyperlink ref="N135" r:id="rId389" xr:uid="{738457FA-3787-1F49-BA31-1BC2BAFB08F3}"/>
+    <hyperlink ref="O135" r:id="rId390" xr:uid="{74692A90-DA12-314B-BF4D-E90CA31C36BE}"/>
+    <hyperlink ref="I135" r:id="rId391" xr:uid="{0D193AA9-6E05-734F-8E8A-050CA65757A0}"/>
+    <hyperlink ref="X136" r:id="rId392" display="https://www.google.com/maps/place/%E6%A3%AE%E6%96%99%E7%90%86-%E9%95%B7%E5%BA%9A%E5%BA%97/@25.062657,121.3668862,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a76ac5fdb1d3:0x92a95e0c9666e0c8!8m2!3d25.062657!4d121.3668862!16s%2Fg%2F11vbzrvjkh?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{CD9572C4-CE63-0941-BF56-6FC28C7B4847}"/>
+    <hyperlink ref="I136" r:id="rId393" xr:uid="{91529868-0559-BF47-B21F-DBBC92C87534}"/>
+    <hyperlink ref="P136" r:id="rId394" xr:uid="{44C3DD2A-5F44-1F41-9F95-F2FD8B9EBE9A}"/>
+    <hyperlink ref="P137" r:id="rId395" xr:uid="{FCC2C3A1-7C76-844F-BD20-7D599434560E}"/>
+    <hyperlink ref="J137" r:id="rId396" xr:uid="{34D75A38-2D44-B04F-A3D4-AF3748EA2888}"/>
+    <hyperlink ref="M137" r:id="rId397" xr:uid="{4823C7A5-7F42-424B-83EC-1440A794DC9D}"/>
+    <hyperlink ref="L137" r:id="rId398" xr:uid="{52CCDF3E-5496-4046-8A0B-C9F91F09EA32}"/>
+    <hyperlink ref="I137" r:id="rId399" xr:uid="{40962969-C051-5B49-85ED-58BA426ADC96}"/>
+    <hyperlink ref="K137" r:id="rId400" xr:uid="{917FD010-FFF3-BD43-8774-518776D66B7C}"/>
+    <hyperlink ref="Q137" r:id="rId401" xr:uid="{91594FFA-3196-CE43-9FC3-E1BC06F6C622}"/>
+    <hyperlink ref="N138" r:id="rId402" xr:uid="{92B5CB2B-9D15-C848-B874-B319FF0A162D}"/>
+    <hyperlink ref="O138" r:id="rId403" xr:uid="{42EC7B84-6031-A34A-A8B7-617FAD76BF38}"/>
+    <hyperlink ref="Q138" r:id="rId404" xr:uid="{329872DC-B787-C24C-BB02-C9B84EFE8C54}"/>
+    <hyperlink ref="Q66" r:id="rId405" xr:uid="{40D06078-566D-AA45-A73C-FCD3E93FDF85}"/>
+    <hyperlink ref="I33" r:id="rId406" xr:uid="{C93BD4B8-42D7-5440-AFFA-C064026819EC}"/>
+    <hyperlink ref="N38" r:id="rId407" xr:uid="{4438B892-35B7-1C45-94DC-3FC8CDF11C55}"/>
+    <hyperlink ref="K42" r:id="rId408" xr:uid="{3439F427-E9E0-DB42-848E-FBA940A18414}"/>
+    <hyperlink ref="N42" r:id="rId409" xr:uid="{45B05865-1834-FD42-8B85-B5839BDB5D6B}"/>
+    <hyperlink ref="O42" r:id="rId410" xr:uid="{F523FE21-2C85-8145-9CB8-B2858CDE9474}"/>
+    <hyperlink ref="Q93" r:id="rId411" xr:uid="{5A9AC9D7-1034-9945-84BA-AE63B7FD5013}"/>
+    <hyperlink ref="R115" r:id="rId412" xr:uid="{0EFABC6E-C84C-9A43-BD9B-7723DCFF32E4}"/>
+    <hyperlink ref="R95" r:id="rId413" xr:uid="{81467FDA-A16E-8F4C-A277-4B933236EEF6}"/>
+    <hyperlink ref="L67" r:id="rId414" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
+    <hyperlink ref="N67" r:id="rId415" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
+    <hyperlink ref="Q67" r:id="rId416" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
+    <hyperlink ref="X261" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J261" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q261" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X262" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P262" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I262" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O262" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J262" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q262" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R262" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J263" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L263" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I263" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P263" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X236" r:id="rId431" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
+    <hyperlink ref="N236" r:id="rId432" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
+    <hyperlink ref="J236" r:id="rId433" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
+    <hyperlink ref="L236" r:id="rId434" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
+    <hyperlink ref="K236" r:id="rId435" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
+    <hyperlink ref="Q236" r:id="rId436" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
+    <hyperlink ref="X139" r:id="rId437" display="https://www.google.com/maps/place/%E7%8E%96%E7%88%90%E7%B2%BE%E7%B7%BB%E9%8D%8B%E7%89%A9-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0527632,121.3671907,18.9z/data=!4m6!3m5!1s0x3442a7306dd22b8d:0x46389e561cf3ce6!8m2!3d25.052783!4d121.368052!16s%2Fg%2F11ddxkg07g?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{94A63822-ECAF-BC42-97F6-7D1561D6C673}"/>
+    <hyperlink ref="J139" r:id="rId438" xr:uid="{49BC0516-7E8B-7440-B512-ED1113397EC2}"/>
+    <hyperlink ref="L139" r:id="rId439" xr:uid="{5026A099-EED6-A941-A394-2F0F837175FF}"/>
+    <hyperlink ref="I139" r:id="rId440" xr:uid="{96BE1ADD-7164-E44B-9F06-725F8136A67E}"/>
+    <hyperlink ref="Q139" r:id="rId441" xr:uid="{693E0203-1953-A045-98B9-4A9828CA155E}"/>
+    <hyperlink ref="X237" r:id="rId442" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
+    <hyperlink ref="I237" r:id="rId443" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
+    <hyperlink ref="Q237" r:id="rId444" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
+    <hyperlink ref="N140" r:id="rId445" xr:uid="{50E1CD44-37DC-A645-95E1-1AF636859E07}"/>
+    <hyperlink ref="O140" r:id="rId446" xr:uid="{19AEE415-9DB8-174D-886C-7BF83E81EC05}"/>
+    <hyperlink ref="J140" r:id="rId447" xr:uid="{9FCE9D3D-F2C5-B848-BA6F-0C59883F00AB}"/>
+    <hyperlink ref="Q140" r:id="rId448" xr:uid="{02A6651D-67A9-A34C-AEC0-8F1470234998}"/>
+    <hyperlink ref="I238" r:id="rId449" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
+    <hyperlink ref="N238" r:id="rId450" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
+    <hyperlink ref="I239" r:id="rId451" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
+    <hyperlink ref="N239" r:id="rId452" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
+    <hyperlink ref="O239" r:id="rId453" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
+    <hyperlink ref="J239" r:id="rId454" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
+    <hyperlink ref="I240" r:id="rId455" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
+    <hyperlink ref="I241" r:id="rId456" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
+    <hyperlink ref="J241" r:id="rId457" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
+    <hyperlink ref="P241" r:id="rId458" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
+    <hyperlink ref="P238" r:id="rId459" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
+    <hyperlink ref="R165" r:id="rId460" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
+    <hyperlink ref="P242" r:id="rId461" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
+    <hyperlink ref="J242" r:id="rId462" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
+    <hyperlink ref="L242" r:id="rId463" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
+    <hyperlink ref="K242" r:id="rId464" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
+    <hyperlink ref="Q242" r:id="rId465" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
+    <hyperlink ref="P243" r:id="rId466" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
+    <hyperlink ref="Q243" r:id="rId467" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
+    <hyperlink ref="N244" r:id="rId468" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
+    <hyperlink ref="P244" r:id="rId469" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
+    <hyperlink ref="I244" r:id="rId470" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
+    <hyperlink ref="I68" r:id="rId471" xr:uid="{EA1E3DFE-344E-FA48-9994-5ACE49222FF2}"/>
+    <hyperlink ref="K68" r:id="rId472" xr:uid="{796D8F3B-3FE3-7E44-AD28-4211B63E8248}"/>
+    <hyperlink ref="P68" r:id="rId473" xr:uid="{675AB809-2BC9-A746-9147-8D721F7507A7}"/>
+    <hyperlink ref="X69" r:id="rId474" display="https://www.google.com/maps/place/PIZZA+HUT%E5%BF%85%E5%8B%9D%E5%AE%A2-%E6%9E%97%E5%8F%A3%E6%96%87%E9%9D%92%E5%BA%97/@25.0460801,121.389007,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7d34c1f931b:0xaf0bac0c651c1881!8m2!3d25.0460753!4d121.3915819!16s%2Fg%2F11vjtr5hst?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{480289C0-7C2C-6848-96B4-B75E60C989FD}"/>
+    <hyperlink ref="I69" r:id="rId475" xr:uid="{BB90A825-1455-E143-9599-FF45B26A2BB5}"/>
+    <hyperlink ref="P69" r:id="rId476" xr:uid="{76622518-D644-CD46-B5C1-5D7664CE9651}"/>
+    <hyperlink ref="X70" r:id="rId477" display="https://www.google.com/maps/place/%E5%A4%A7%E5%90%89%E9%BA%B5%E5%8C%85%E5%B7%A5%E4%BD%9C%E5%AE%A4/@25.0471344,121.3905258,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a700f7cbc735:0x14011368050c2dd8!8m2!3d25.0471296!4d121.3931007!16s%2Fg%2F11r7xdk4s1?authuser=0&amp;entry=ttu" xr:uid="{D419D755-9E0D-BD48-AAF9-3D6855D632C3}"/>
+    <hyperlink ref="J70" r:id="rId478" xr:uid="{A14C31C3-F225-EB43-B423-4159C4B4F952}"/>
+    <hyperlink ref="I70" r:id="rId479" xr:uid="{4E69AAD8-779C-F84E-AE32-C6C58D4C0DC6}"/>
+    <hyperlink ref="X71" r:id="rId480" display="https://www.google.com/maps/place/%E9%A5%97%E5%91%B3%E9%B9%B9%E9%85%A5%E9%9B%9E+(%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97)/@25.0387548,121.3862769,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7747528f97b:0x9c171d79569718f3!8m2!3d25.03875!4d121.3888518!16s%2Fg%2F11y21nnzfv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{890FBB92-CFB6-254A-9840-6BC96D7920B2}"/>
+    <hyperlink ref="K71" r:id="rId481" xr:uid="{C8F0A506-1C0C-5A4A-9C52-61250CB8E9E5}"/>
+    <hyperlink ref="M68" r:id="rId482" xr:uid="{AE8ABAC6-FE94-B94A-B863-B6A1FD23829D}"/>
+    <hyperlink ref="X72" r:id="rId483" xr:uid="{B1BAB142-3B95-4F4F-A504-854E9236D8DB}"/>
+    <hyperlink ref="N72" r:id="rId484" xr:uid="{2749721D-0021-184B-9B83-1124C8ED20EE}"/>
+    <hyperlink ref="J73" r:id="rId485" xr:uid="{F213DBA7-8C49-9346-8AFA-825D43707D5C}"/>
+    <hyperlink ref="P73" r:id="rId486" xr:uid="{39B14C20-4263-C34D-BCE6-69AA01A6B25C}"/>
+    <hyperlink ref="M73" r:id="rId487" xr:uid="{FBC63B2B-A0C7-A34E-AACE-3F311221780E}"/>
+    <hyperlink ref="I73" r:id="rId488" xr:uid="{5F46FA17-D052-C943-AC88-1D406EC3B5F1}"/>
+    <hyperlink ref="K74" r:id="rId489" xr:uid="{58CF9672-F340-6D49-B281-18EBA420377A}"/>
+    <hyperlink ref="O74" r:id="rId490" xr:uid="{F089EE9F-DC91-6341-BB42-103948C5FDF3}"/>
+    <hyperlink ref="N74" r:id="rId491" display="https://www.ubereats.com/tw/store/%E6%97%A5%E5%87%BA%E5%AE%A2%E6%A3%A7%E8%8C%B6%E9%A3%B2-%E5%B0%8F%E8%BE%B2%E9%AE%AE%E5%A5%B6-%E9%BE%9C%E5%B1%B1%E8%8F%AF%E4%BA%9E%E5%BA%97/5ayWFUPvWHuELSU_dzPeuA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{2E81F6DC-AE13-674D-94ED-DEBA830B1962}"/>
+    <hyperlink ref="J75" r:id="rId492" xr:uid="{5CCB57A8-7AF8-DD40-90F3-95685168A035}"/>
+    <hyperlink ref="L76" r:id="rId493" xr:uid="{DB1C5ABF-E045-FB40-A2A5-0F2F8FDC521B}"/>
+    <hyperlink ref="I76" r:id="rId494" xr:uid="{0DFAED9D-FAC8-9C42-9DD1-B47FC2AB6C0D}"/>
+    <hyperlink ref="Q15" r:id="rId495" xr:uid="{F256BF4D-41CC-0D46-9A0F-EB8CFF55353B}"/>
+    <hyperlink ref="X141" r:id="rId496" display="https://www.google.com/maps/place/%E4%BA%AB%E4%BA%AB%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0533761,121.3682197,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a0c7f4185d:0x1c875e8a694512fd!8m2!3d25.0533761!4d121.3707946!16s%2Fg%2F11ks08c9vm?entry=ttu" xr:uid="{ADF42D96-14BF-A34E-9538-418834B62CD7}"/>
+    <hyperlink ref="Q141" r:id="rId497" xr:uid="{8350CDBD-BFB4-5347-8D80-86AC28DD7E3F}"/>
+    <hyperlink ref="J141" r:id="rId498" xr:uid="{21A8AACF-BEE6-7144-B4C5-1A7DF5428BA0}"/>
+    <hyperlink ref="N141" r:id="rId499" xr:uid="{D195E925-2C8D-3040-B0E4-DE3FEB946B58}"/>
+    <hyperlink ref="P141" r:id="rId500" xr:uid="{A27AA05B-ACFC-D74F-AF7A-5A31B044F42F}"/>
+    <hyperlink ref="X142" r:id="rId501" display="https://www.google.com/maps/place/%E7%88%AD%E5%8E%9A%E5%8E%9A%E5%88%87%E7%89%9B%E6%8E%92%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0578044,121.3704166,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a73c5f6baf91:0x6cc984a1886851f2!8m2!3d25.0578044!4d121.3729969!16s%2Fg%2F11dynbncl7?authuser=0&amp;entry=ttu" xr:uid="{C73CA984-F455-2A4A-8230-A16FDA1F1A90}"/>
+    <hyperlink ref="I142" r:id="rId502" xr:uid="{818C0E9E-18E4-474A-AE01-1E824681D292}"/>
+    <hyperlink ref="P142" r:id="rId503" xr:uid="{0B1C40D2-1A3C-2A47-9D6A-6CD116CA4649}"/>
+    <hyperlink ref="Q47" r:id="rId504" xr:uid="{9E839F7C-2EFD-7E4C-A387-AF73930B8C0B}"/>
+    <hyperlink ref="P47" r:id="rId505" xr:uid="{B049FBD3-B636-5748-8DCF-21EA5DD77F18}"/>
+    <hyperlink ref="J143" r:id="rId506" xr:uid="{860150BA-E09A-784F-82CE-8F445B0FE452}"/>
+    <hyperlink ref="K143" r:id="rId507" xr:uid="{08A6481C-6DE4-1648-B817-8FA1B4F9809E}"/>
+    <hyperlink ref="N143" r:id="rId508" xr:uid="{FEFBE377-5DB2-FC43-9456-AD3E190871D0}"/>
+    <hyperlink ref="O143" r:id="rId509" xr:uid="{BCBB524D-23FF-D242-89D1-BA090677AA58}"/>
+    <hyperlink ref="X144" r:id="rId510" display="https://www.google.com/maps/place/%E5%A4%A7%E6%96%B9%E5%86%B0%E5%93%81+%E9%BE%9C%E5%B1%B1%E5%BE%A9%E8%88%88%E5%BA%97/@25.0559833,121.3604472,17z/data=!4m6!3m5!1s0x3442a7bf347cbc7b:0x340fc1dc39275fe2!8m2!3d25.0559833!4d121.3630275!16s%2Fg%2F11k3yl7hrs?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{1059C720-40A7-A440-94E2-57EA9676425E}"/>
+    <hyperlink ref="N144" r:id="rId511" xr:uid="{18026ECE-D853-A449-A860-8D65FFE75EA4}"/>
+    <hyperlink ref="X145" r:id="rId512" xr:uid="{459A6D15-A66D-0C4C-AE0C-3A6499FCBFC4}"/>
+    <hyperlink ref="I145" r:id="rId513" xr:uid="{FADDDAF6-D0FE-A74B-86DB-AD1535C19729}"/>
+    <hyperlink ref="P145" r:id="rId514" xr:uid="{A95E1E8C-4217-3942-818C-5D9C1DD75C84}"/>
+    <hyperlink ref="X146" r:id="rId515" display="https://www.google.com/maps/place/%E6%9D%BE%E8%88%8D%E9%A4%8A%E7%94%9F%E9%90%B5%E6%9D%BF%E7%87%92/@25.0563937,121.3610308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7373b086927:0xb5e1927aa10cfb0!8m2!3d25.0563889!4d121.3636111!16s%2Fg%2F11h0h7skz?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{68CA7543-95FA-5747-A165-5B2E8B9D67A5}"/>
+    <hyperlink ref="X147" r:id="rId516" xr:uid="{B47CCBB5-7BF8-5A46-BAFD-C6C16C8E9DF3}"/>
+    <hyperlink ref="O147" r:id="rId517" xr:uid="{E0DCF345-8335-F345-BB78-7EF11BFC864B}"/>
+    <hyperlink ref="Q147" r:id="rId518" xr:uid="{410934B7-06F4-D547-BACA-F4E10C26E61B}"/>
+    <hyperlink ref="N148" r:id="rId519" xr:uid="{9E5EF738-43A4-1342-9981-C8C26A04F3EB}"/>
+    <hyperlink ref="O148" r:id="rId520" xr:uid="{1D9788C6-C99A-7041-9E6E-CD881601E3E1}"/>
+    <hyperlink ref="X149" r:id="rId521" display="https://www.google.com/maps/place/%E8%80%81%E5%85%88%E8%A6%BA%E7%81%AB%E9%8D%8B+%E9%BE%9C%E5%B1%B1%E5%BE%A9%E8%88%88%E4%B8%80%E5%BA%97/@25.0565527,121.3613826,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7373768c055:0x2089f5e99e16a815!8m2!3d25.0565479!4d121.3639629!16s%2Fg%2F11h0nft4t?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{76039ADC-A2F2-B542-B8E6-37DE8A9351E8}"/>
+    <hyperlink ref="O149" r:id="rId522" xr:uid="{EB45AF87-AB14-6A48-804C-C87F51F6EF73}"/>
+    <hyperlink ref="I150" r:id="rId523" xr:uid="{1466ACCD-52A8-AE4B-B332-B005EF687754}"/>
+    <hyperlink ref="O150" r:id="rId524" xr:uid="{1268B3ED-17D4-E54C-B947-0B4E82CEA514}"/>
+    <hyperlink ref="N150" r:id="rId525" xr:uid="{D4E5F5A9-24FE-0A46-8C60-9882588F5EC7}"/>
+    <hyperlink ref="O151" r:id="rId526" xr:uid="{9EB4FBD6-FFDB-714E-9EAA-FA0978031869}"/>
+    <hyperlink ref="N151" r:id="rId527" xr:uid="{609A7BED-5BCD-E242-9E68-5A6A2DE45487}"/>
+    <hyperlink ref="Q245" r:id="rId528" xr:uid="{0CD2A816-C222-F541-8371-DF8EE463A15C}"/>
+    <hyperlink ref="Q246:Q247" r:id="rId529" display="https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR" xr:uid="{617D6DF2-DD4F-0B49-BE8A-8896ABF74EFD}"/>
+    <hyperlink ref="X247" r:id="rId530" xr:uid="{227AE9B5-F117-6641-BF85-D93A78DE8B5F}"/>
+    <hyperlink ref="N247" r:id="rId531" xr:uid="{580CFFAF-B9E7-D341-B8B2-1E90BF6EE944}"/>
+    <hyperlink ref="O247" r:id="rId532" xr:uid="{F5AB8850-AFBF-6A40-AE3C-D532A31859BA}"/>
+    <hyperlink ref="I247" r:id="rId533" xr:uid="{874D8804-0E85-0B40-878B-59E784685E92}"/>
+    <hyperlink ref="P247" r:id="rId534" xr:uid="{F0B75305-21B2-9A47-AEE9-BFA539D49D9C}"/>
+    <hyperlink ref="X246" r:id="rId535" display="https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{4C4096D1-967B-C641-B7D9-2DFC55745B8E}"/>
+    <hyperlink ref="I246" r:id="rId536" location="358881131" xr:uid="{09B6A8DC-B49F-654E-B68D-86CEB9CB313F}"/>
+    <hyperlink ref="X245" r:id="rId537" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
+    <hyperlink ref="I245" r:id="rId538" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
+    <hyperlink ref="P245" r:id="rId539" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
+    <hyperlink ref="J246" r:id="rId540" xr:uid="{F1520F3A-4DA5-844B-8C27-D564B8030350}"/>
+    <hyperlink ref="M246" r:id="rId541" xr:uid="{605002D7-0B39-2749-980B-4720BC9FC9D3}"/>
+    <hyperlink ref="P246" r:id="rId542" xr:uid="{1F8D09F2-7987-C54A-8965-AE9EDCDD0A31}"/>
+    <hyperlink ref="P234" r:id="rId543" xr:uid="{9C83DF22-8391-564F-A64C-E56B34F74693}"/>
+    <hyperlink ref="X152" r:id="rId544" display="https://www.google.com/maps/place/%E9%BA%B5%E5%B1%8B%E3%80%82%E6%BF%83(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)/@25.0588376,121.3693655,18z/data=!4m6!3m5!1s0x3442a73b0b4fa2f9:0x2e62ecbb1bb16d!8m2!3d25.0590887!4d121.3699559!16s%2Fg%2F11fzjct1mg?hl=zh-TW&amp;entry=ttu" xr:uid="{67066CA6-AB7C-E146-9093-B19E29478036}"/>
+    <hyperlink ref="J152" r:id="rId545" xr:uid="{CBDD26C0-2870-744F-99B4-D9EBC989DD10}"/>
+    <hyperlink ref="M152" r:id="rId546" xr:uid="{AF0E25DE-517F-304A-AA3F-A38C4A5A9E1C}"/>
+    <hyperlink ref="N152" r:id="rId547" xr:uid="{F6BDA6F5-30EB-AA43-8AF1-C7D097B290EF}"/>
+    <hyperlink ref="O152" r:id="rId548" xr:uid="{5EF38EFA-0DC1-6247-A89B-F55327F37C29}"/>
+    <hyperlink ref="Q152" r:id="rId549" xr:uid="{BFBB3DD6-6EA7-8949-9301-7E3DC8EF519C}"/>
+    <hyperlink ref="Q49" r:id="rId550" xr:uid="{4EAB02B3-9F81-654B-9051-184DD2C734D6}"/>
+    <hyperlink ref="X248" r:id="rId551" display="https://www.google.com/maps/place/%E6%97%A5%E7%A6%8F+OH+HAPPY+DAY+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0789386,121.3763809,17z/data=!4m6!3m5!1s0x3442a7000d124d5f:0x22b75a68574b098e!8m2!3d25.0797319!4d121.377629!16s%2Fg%2F11vt1rvtdf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5B27D186-884F-2B42-99DD-26425134389E}"/>
+    <hyperlink ref="Q248" r:id="rId552" xr:uid="{21B9863F-2AC0-8447-88D5-DD47DBF936FE}"/>
+    <hyperlink ref="I248" r:id="rId553" xr:uid="{AA696F6C-4377-B244-B3F1-86D18B9D9EA7}"/>
+    <hyperlink ref="J248" r:id="rId554" xr:uid="{E896E9FD-3B4C-0644-A326-6B11B5667CE4}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -30024,19 +29928,19 @@
           <x14:formula1>
             <xm:f>PullDown!$A$1:$A$19</xm:f>
           </x14:formula1>
-          <xm:sqref>C29:C1048576 C1:C26</xm:sqref>
+          <xm:sqref>C1:C26 C29:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87FC9201-8A56-D944-B362-BA194ADBF5DB}">
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S252:S1048576 S1:S26 S29:S250</xm:sqref>
+          <xm:sqref>S251:S1048576 S1:S26 S29:S249</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>
             <xm:f>PullDown!$C$1:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>T29:T1048576 T1:T26</xm:sqref>
+          <xm:sqref>T1:T26 T29:T1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EAAD55-796D-244A-B551-330373BDD86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1D340-C7C4-A64B-8146-EAF6FE953DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16240" yWindow="-26420" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12975,7 +12975,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/Mr.%E7%B4%B0%E9%AF%8A%E7%B3%96+%E2%80%A2+Mr.Shark+%E9%9B%AA%E8%8A%B1%E5%86%B0%E8%8F%93%E5%AE%A4/@0,0,3a,75y/data=!3m8!1e2!3m6!1sAF1QipPAE41VBl8guoY-NP-WTAzVzZRPrlem95tNwbL5!2e10!3e12!6shttps:%2F%2Flh5.googleusercontent.com%2Fp%2FAF1QipPAE41VBl8guoY-NP-WTAzVzZRPrlem95tNwbL5%3Dw203-h288-k-no!7i1074!8i1525!4m7!3m6!1s0x3442a7536d5dc1d1:0xa6b5038074e4c22a!8m2!3d25.053901!4d121.3829038!10e5!16s%2Fg%2F11y41dc4v9?hl=zh-TW&amp;entry=ttu</t>
+    <t>https://www.google.com/maps/place/Mr.%E7%B4%B0%E9%AF%8A%E7%B3%96+%E2%80%A2+Mr.Shark+%E9%9B%AA%E8%8A%B1%E5%86%B0%E8%8F%93%E5%AE%A4/@25.053901,121.3829038,3a,75y,90t/data=!3m8!1e2!3m6!1sAF1QipPJdXoSft_4JID3PjkKRQgiUw1VzpDgqegpsK1D!2e10!3e12!6shttps:%2F%2Flh5.googleusercontent.com%2Fp%2FAF1QipPJdXoSft_4JID3PjkKRQgiUw1VzpDgqegpsK1D%3Dw224-h318-k-no!7i1074!8i1525!4m9!3m8!1s0x3442a7536d5dc1d1:0xa6b5038074e4c22a!8m2!3d25.053901!4d121.3829038!10e5!14m1!1BCgIYIQ!16s%2Fg%2F11y41dc4v9?hl=zh-TW&amp;entry=ttu</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14467,10 +14467,10 @@
   <dimension ref="A1:X265"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P78" sqref="P78"/>
+      <selection pane="bottomRight" activeCell="P78" sqref="A1:X265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1D340-C7C4-A64B-8146-EAF6FE953DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24AA85-04D0-A74C-9389-92DDA32F905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="-26420" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="-15640" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="2860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="2861">
   <si>
     <t>address</t>
   </si>
@@ -12976,6 +12976,13 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Mr.%E7%B4%B0%E9%AF%8A%E7%B3%96+%E2%80%A2+Mr.Shark+%E9%9B%AA%E8%8A%B1%E5%86%B0%E8%8F%93%E5%AE%A4/@25.053901,121.3829038,3a,75y,90t/data=!3m8!1e2!3m6!1sAF1QipPJdXoSft_4JID3PjkKRQgiUw1VzpDgqegpsK1D!2e10!3e12!6shttps:%2F%2Flh5.googleusercontent.com%2Fp%2FAF1QipPJdXoSft_4JID3PjkKRQgiUw1VzpDgqegpsK1D%3Dw224-h318-k-no!7i1074!8i1525!4m9!3m8!1s0x3442a7536d5dc1d1:0xa6b5038074e4c22a!8m2!3d25.053901!4d121.3829038!10e5!14m1!1BCgIYIQ!16s%2Fg%2F11y41dc4v9?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;button class="bg-blue-100 hover:bg-blue-200 text-white hover:text-yellow-700 rounded-lg px-4 py-2"&gt;
+   &lt;a href="/files/RES-A7-092-1.pdf"&gt;菜單&lt;/a&gt;
+&lt;/button&gt;
+</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14467,10 +14474,10 @@
   <dimension ref="A1:X265"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P78" sqref="A1:X265"/>
+      <selection pane="bottomRight" activeCell="W78" sqref="W78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -18771,7 +18778,9 @@
       </c>
       <c r="U78" s="24"/>
       <c r="V78" s="25"/>
-      <c r="W78" s="32"/>
+      <c r="W78" s="32" t="s">
+        <v>2860</v>
+      </c>
       <c r="X78" s="21" t="s">
         <v>2854</v>
       </c>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24AA85-04D0-A74C-9389-92DDA32F905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B92A1F-E3F3-9648-8CB3-37060493705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="-15640" windowWidth="27300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="-26080" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="2861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="2871">
   <si>
     <t>address</t>
   </si>
@@ -12983,6 +12983,43 @@
    &lt;a href="/files/RES-A7-092-1.pdf"&gt;菜單&lt;/a&gt;
 &lt;/button&gt;
 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9-108</t>
+  </si>
+  <si>
+    <t>RES-A9-108.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-108L.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Grato+Coffee/@25.0726234,121.3618258,17.07z/data=!4m6!3m5!1s0x3442a7728e55d28d:0x781c413585e80c4e!8m2!3d25.0737614!4d121.3643714!16s%2Fg%2F11vkq090kt?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.news.yahoo.com/%E6%9E%97%E5%8F%A3%E5%A5%BD%E6%8B%8D%E5%92%96%E5%95%A1%E9%A4%A8%EF%BC%8C%E5%A4%A7%E7%89%87%E7%8E%BB%E7%92%83%E7%AA%97%EF%BC%8B%E7%89%B9%E8%89%B2%E8%87%A5%E6%A6%BB%E5%BC%8F%E8%A8%AD%E8%A8%88%EF%BC%8C%E4%BE%86%E6%9D%AF%E9%BB%91%E8%89%B2%E6%9F%B3%E4%B8%81%E5%9A%90%E9%AE%AE%E8%AA%BF%E5%91%B3%E5%BC%8F%E5%92%96%E5%95%A1-163846555.html</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grato Coffee</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區南勢街33號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-8880</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00 - 17:00 週一,二公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/gratocoffeetw</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14471,13 +14508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X265"/>
+  <dimension ref="A1:X266"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W78" sqref="W78"/>
+      <selection pane="bottomRight" activeCell="A244" sqref="A244:XFD244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -28694,92 +28731,84 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="14.25" customHeight="1">
+    <row r="251" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>10</v>
+        <v>2866</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1818</v>
+        <v>2861</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>161</v>
+        <v>1856</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>2867</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>162</v>
+        <v>2868</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H251" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
+        <v>2869</v>
+      </c>
+      <c r="G251" s="27" t="s">
+        <v>2862</v>
+      </c>
+      <c r="H251" s="27" t="s">
+        <v>2863</v>
+      </c>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10" t="s">
+        <v>2870</v>
+      </c>
+      <c r="K251" s="10"/>
+      <c r="L251" s="10"/>
       <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
-      <c r="P251" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q251" s="3" t="s">
-        <v>166</v>
+      <c r="N251" s="10"/>
+      <c r="O251" s="10"/>
+      <c r="P251" s="10"/>
+      <c r="Q251" s="10" t="s">
+        <v>2865</v>
       </c>
       <c r="R251" s="3"/>
       <c r="S251" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="T251" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U251" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V251" s="3">
-        <v>3.7</v>
-      </c>
+        <v>1788</v>
+      </c>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
       <c r="W251" s="3"/>
-      <c r="X251" s="3" t="s">
-        <v>168</v>
+      <c r="X251" s="10" t="s">
+        <v>2864</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="20" customHeight="1">
+    <row r="252" spans="1:24" ht="14.25" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1491</v>
+        <v>1818</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -28787,14 +28816,14 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="R252" s="3"/>
-      <c r="S252" s="18" t="s">
-        <v>159</v>
+      <c r="S252" s="3" t="s">
+        <v>1787</v>
       </c>
       <c r="T252" s="3" t="s">
         <v>167</v>
@@ -28803,41 +28832,41 @@
         <v>160</v>
       </c>
       <c r="V252" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W252" s="3"/>
       <c r="X252" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="20" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -28845,13 +28874,13 @@
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="R253" s="3"/>
-      <c r="S253" s="3" t="s">
+      <c r="S253" s="18" t="s">
         <v>159</v>
       </c>
       <c r="T253" s="3" t="s">
@@ -28861,41 +28890,41 @@
         <v>160</v>
       </c>
       <c r="V253" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="20" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -28903,10 +28932,10 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
@@ -28919,41 +28948,41 @@
         <v>160</v>
       </c>
       <c r="V254" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="20" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>2535</v>
+        <v>14</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -28961,10 +28990,10 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R255" s="3"/>
       <c r="S255" s="3" t="s">
@@ -28977,41 +29006,41 @@
         <v>160</v>
       </c>
       <c r="V255" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="20" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>15</v>
+        <v>2535</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -29019,10 +29048,10 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
@@ -29035,41 +29064,41 @@
         <v>160</v>
       </c>
       <c r="V256" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W256" s="3"/>
       <c r="X256" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -29077,10 +29106,10 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R257" s="3"/>
       <c r="S257" s="3" t="s">
@@ -29093,41 +29122,41 @@
         <v>160</v>
       </c>
       <c r="V257" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W257" s="3"/>
       <c r="X257" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="20" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -29135,10 +29164,10 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="R258" s="3"/>
       <c r="S258" s="3" t="s">
@@ -29151,41 +29180,41 @@
         <v>160</v>
       </c>
       <c r="V258" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W258" s="3"/>
       <c r="X258" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -29193,10 +29222,10 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="R259" s="3"/>
       <c r="S259" s="3" t="s">
@@ -29209,41 +29238,41 @@
         <v>160</v>
       </c>
       <c r="V259" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
-      <c r="A260" s="36" t="s">
-        <v>2314</v>
+      <c r="A260" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
@@ -29251,10 +29280,10 @@
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
       <c r="P260" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q260" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="R260" s="3"/>
       <c r="S260" s="3" t="s">
@@ -29267,41 +29296,41 @@
         <v>160</v>
       </c>
       <c r="V260" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W260" s="3"/>
       <c r="X260" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="20" customHeight="1">
-      <c r="A261" s="2" t="s">
-        <v>117</v>
+      <c r="A261" s="36" t="s">
+        <v>2314</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1982</v>
+        <v>1499</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>1079</v>
+        <v>237</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>1080</v>
+        <v>238</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1081</v>
+        <v>239</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>1599</v>
+        <v>1682</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>1599</v>
+        <v>1682</v>
       </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3" t="s">
-        <v>1082</v>
+        <v>240</v>
       </c>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -29309,114 +29338,116 @@
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
       <c r="P261" s="3" t="s">
-        <v>1083</v>
+        <v>241</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>1084</v>
+        <v>242</v>
       </c>
       <c r="R261" s="3"/>
       <c r="S261" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T261" s="3" t="s">
-        <v>1036</v>
+        <v>167</v>
       </c>
       <c r="U261" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="V261" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W261" s="3"/>
       <c r="X261" s="3" t="s">
-        <v>1085</v>
+        <v>243</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B262" s="30" t="s">
-        <v>2154</v>
+        <v>117</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>1982</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D262" s="30" t="s">
-        <v>2155</v>
-      </c>
-      <c r="E262" s="30" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F262" s="30" t="s">
-        <v>178</v>
+        <v>351</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>1081</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>2158</v>
+        <v>1599</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>2159</v>
-      </c>
-      <c r="I262" s="38" t="s">
-        <v>2157</v>
-      </c>
-      <c r="J262" s="15"/>
-      <c r="K262" s="15"/>
-      <c r="L262" s="15"/>
-      <c r="M262" s="15"/>
-      <c r="N262" s="15"/>
-      <c r="O262" s="15"/>
-      <c r="P262" s="15"/>
-      <c r="Q262" s="38" t="s">
-        <v>2160</v>
-      </c>
-      <c r="R262" s="15"/>
+        <v>1599</v>
+      </c>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q262" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R262" s="3"/>
       <c r="S262" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T262" s="3" t="s">
-        <v>167</v>
+        <v>1036</v>
       </c>
       <c r="U262" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V262" s="44">
-        <v>4.8</v>
-      </c>
-      <c r="W262" s="15"/>
-      <c r="X262" s="38" t="s">
-        <v>2153</v>
+        <v>351</v>
+      </c>
+      <c r="V262" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W262" s="3"/>
+      <c r="X262" s="3" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
-      <c r="A263" s="30" t="s">
-        <v>2382</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C263" s="15" t="s">
-        <v>2383</v>
+      <c r="A263" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B263" s="30" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D263" s="30" t="s">
-        <v>2386</v>
+        <v>2155</v>
       </c>
       <c r="E263" s="30" t="s">
-        <v>2387</v>
+        <v>2156</v>
       </c>
       <c r="F263" s="30" t="s">
-        <v>2388</v>
+        <v>178</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>2376</v>
+        <v>2158</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>2379</v>
-      </c>
-      <c r="I263" s="15"/>
-      <c r="J263" s="38" t="s">
-        <v>2389</v>
-      </c>
+        <v>2159</v>
+      </c>
+      <c r="I263" s="38" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J263" s="15"/>
       <c r="K263" s="15"/>
       <c r="L263" s="15"/>
       <c r="M263" s="15"/>
@@ -29424,141 +29455,197 @@
       <c r="O263" s="15"/>
       <c r="P263" s="15"/>
       <c r="Q263" s="38" t="s">
-        <v>2390</v>
+        <v>2160</v>
       </c>
       <c r="R263" s="15"/>
       <c r="S263" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T263" s="15"/>
-      <c r="U263" s="15"/>
-      <c r="V263" s="43" t="s">
-        <v>2385</v>
+      <c r="T263" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U263" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V263" s="44">
+        <v>4.8</v>
       </c>
       <c r="W263" s="15"/>
       <c r="X263" s="38" t="s">
-        <v>2384</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="264" spans="1:24" ht="20" customHeight="1">
       <c r="A264" s="30" t="s">
-        <v>2393</v>
+        <v>2382</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>2231</v>
+        <v>2383</v>
       </c>
       <c r="D264" s="30" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="E264" s="30" t="s">
-        <v>2395</v>
+        <v>2387</v>
       </c>
       <c r="F264" s="30" t="s">
-        <v>2396</v>
+        <v>2388</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>2380</v>
-      </c>
-      <c r="I264" s="38" t="s">
-        <v>2398</v>
-      </c>
+        <v>2379</v>
+      </c>
+      <c r="I264" s="15"/>
       <c r="J264" s="38" t="s">
-        <v>2400</v>
+        <v>2389</v>
       </c>
       <c r="K264" s="15"/>
       <c r="L264" s="15"/>
       <c r="M264" s="15"/>
       <c r="N264" s="15"/>
-      <c r="O264" s="38" t="s">
-        <v>2399</v>
-      </c>
-      <c r="P264" s="38" t="s">
-        <v>2397</v>
-      </c>
+      <c r="O264" s="15"/>
+      <c r="P264" s="15"/>
       <c r="Q264" s="38" t="s">
-        <v>2401</v>
-      </c>
-      <c r="R264" s="38" t="s">
-        <v>2402</v>
-      </c>
+        <v>2390</v>
+      </c>
+      <c r="R264" s="15"/>
       <c r="S264" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T264" s="15"/>
       <c r="U264" s="15"/>
       <c r="V264" s="43" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="W264" s="15"/>
       <c r="X264" s="38" t="s">
-        <v>2392</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="20" customHeight="1">
-      <c r="A265" s="41" t="s">
-        <v>2410</v>
-      </c>
-      <c r="B265" s="30" t="s">
-        <v>2375</v>
+      <c r="A265" s="30" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>2374</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>1832</v>
+        <v>2231</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>2404</v>
+        <v>2394</v>
       </c>
       <c r="E265" s="30" t="s">
-        <v>2405</v>
+        <v>2395</v>
       </c>
       <c r="F265" s="30" t="s">
-        <v>641</v>
+        <v>2396</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="I265" s="38" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="J265" s="38" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="K265" s="15"/>
-      <c r="L265" s="38" t="s">
-        <v>2407</v>
-      </c>
+      <c r="L265" s="15"/>
       <c r="M265" s="15"/>
       <c r="N265" s="15"/>
-      <c r="O265" s="15"/>
+      <c r="O265" s="38" t="s">
+        <v>2399</v>
+      </c>
       <c r="P265" s="38" t="s">
-        <v>2409</v>
-      </c>
-      <c r="Q265" s="15"/>
-      <c r="R265" s="15"/>
+        <v>2397</v>
+      </c>
+      <c r="Q265" s="38" t="s">
+        <v>2401</v>
+      </c>
+      <c r="R265" s="38" t="s">
+        <v>2402</v>
+      </c>
       <c r="S265" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T265" s="15"/>
       <c r="U265" s="15"/>
       <c r="V265" s="43" t="s">
+        <v>2391</v>
+      </c>
+      <c r="W265" s="15"/>
+      <c r="X265" s="38" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" ht="20" customHeight="1">
+      <c r="A266" s="41" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B266" s="30" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D266" s="30" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E266" s="30" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F266" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H266" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="I266" s="38" t="s">
+        <v>2408</v>
+      </c>
+      <c r="J266" s="38" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K266" s="15"/>
+      <c r="L266" s="38" t="s">
+        <v>2407</v>
+      </c>
+      <c r="M266" s="15"/>
+      <c r="N266" s="15"/>
+      <c r="O266" s="15"/>
+      <c r="P266" s="38" t="s">
+        <v>2409</v>
+      </c>
+      <c r="Q266" s="15"/>
+      <c r="R266" s="15"/>
+      <c r="S266" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="T266" s="15"/>
+      <c r="U266" s="15"/>
+      <c r="V266" s="43" t="s">
         <v>2385</v>
       </c>
-      <c r="W265" s="15"/>
-      <c r="X265" s="30" t="s">
+      <c r="W266" s="15"/>
+      <c r="X266" s="30" t="s">
         <v>2403</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X265">
-    <sortCondition ref="B2:B265"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X266">
+    <sortCondition ref="B2:B266"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -29920,9 +30007,9 @@
     <hyperlink ref="I64" r:id="rId351" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N64" r:id="rId352" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O64" r:id="rId353" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X262" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I262" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q262" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X263" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I263" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q263" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
     <hyperlink ref="X232" r:id="rId357" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
     <hyperlink ref="I232" r:id="rId358" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
     <hyperlink ref="Q232" r:id="rId359" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
@@ -29983,20 +30070,20 @@
     <hyperlink ref="L67" r:id="rId414" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N67" r:id="rId415" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q67" r:id="rId416" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X263" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J263" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q263" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X264" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P264" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I264" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O264" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J264" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q264" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R264" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J265" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L265" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I265" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P265" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X264" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J264" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q264" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X265" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P265" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I265" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O265" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J265" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q265" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R265" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J266" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L266" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I266" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P266" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
     <hyperlink ref="X238" r:id="rId431" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
     <hyperlink ref="N238" r:id="rId432" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
     <hyperlink ref="J238" r:id="rId433" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
@@ -30129,6 +30216,8 @@
     <hyperlink ref="X76" r:id="rId560" xr:uid="{5C1D2E7F-783E-504E-9C15-ECE79986CA32}"/>
     <hyperlink ref="X78" r:id="rId561" display="https://www.google.com/maps/place/Mr.%E7%B4%B0%E9%AF%8A%E7%B3%96+%E2%80%A2+Mr.Shark+%E9%9B%AA%E8%8A%B1%E5%86%B0%E8%8F%93%E5%AE%A4/@25.053901,121.3803289,17z/data=!4m6!3m5!1s0x3442a7536d5dc1d1:0xa6b5038074e4c22a!8m2!3d25.053901!4d121.3829038!16s%2Fg%2F11y41dc4v9?entry=ttu" xr:uid="{B6E79BEB-E9D3-E846-9C77-585FFC179844}"/>
     <hyperlink ref="J78" r:id="rId562" xr:uid="{93B8E80D-D557-4A4C-89FE-AE16ACB085D5}"/>
+    <hyperlink ref="X251" r:id="rId563" xr:uid="{B48C248E-8877-E74C-9703-AD446933A1E7}"/>
+    <hyperlink ref="J251" r:id="rId564" xr:uid="{D9261A27-86C0-B745-9A76-FC461E180CB5}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -30148,7 +30237,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S253:S1048576 S1:S26 S29:S251</xm:sqref>
+          <xm:sqref>S254:S1048576 S1:S26 S29:S252</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368785C8-6EDB-FD43-8AAF-008E1CB8D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11F5791-443F-5C4E-AF20-7339678F1C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-21000" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="-25800" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -12971,18 +12971,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.facebook.com/mrsharkid/</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/Mr.%E7%B4%B0%E9%AF%8A%E7%B3%96+%E2%80%A2+Mr.Shark+%E9%9B%AA%E8%8A%B1%E5%86%B0%E8%8F%93%E5%AE%A4/@25.053901,121.3829038,3a,75y,90t/data=!3m8!1e2!3m6!1sAF1QipPJdXoSft_4JID3PjkKRQgiUw1VzpDgqegpsK1D!2e10!3e12!6shttps:%2F%2Flh5.googleusercontent.com%2Fp%2FAF1QipPJdXoSft_4JID3PjkKRQgiUw1VzpDgqegpsK1D%3Dw224-h318-k-no!7i1074!8i1525!4m9!3m8!1s0x3442a7536d5dc1d1:0xa6b5038074e4c22a!8m2!3d25.053901!4d121.3829038!10e5!14m1!1BCgIYIQ!16s%2Fg%2F11y41dc4v9?hl=zh-TW&amp;entry=ttu</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;button class="bg-blue-100 hover:bg-blue-200 text-white hover:text-yellow-700 rounded-lg px-4 py-2"&gt;
-   &lt;a href="/files/RES-A7-092-1.pdf"&gt;菜單&lt;/a&gt;
-&lt;/button&gt;
-</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -13066,6 +13055,17 @@
 以水煮為主的料理方式，添加些許調味或搭配自選醬汁食用。
 &lt;/p&gt;
 &lt;img src="/images/restaurant/RES-A7-093-1.jpeg" class="max-w-md" /&gt;
+</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/tw/store/mr%E7%B4%B0%E9%AF%8A%E7%B3%96/m_A7KeHqXpCCF6jv60n2Ig?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;button class="bg-blue-300 hover:bg-blue-500 text-white hover:text-yellow-700 rounded-lg px-4 py-2"&gt;
+   &lt;a href="/files/RES-A7-092-1.pdf"&gt;菜單&lt;/a&gt;
+&lt;/button&gt;
 </t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -14558,10 +14558,10 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W79" sqref="W79"/>
+      <selection pane="bottomRight" activeCell="W78" sqref="W78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -18841,16 +18841,16 @@
         <v>2853</v>
       </c>
       <c r="I78" s="21"/>
-      <c r="J78" s="38" t="s">
-        <v>2858</v>
-      </c>
+      <c r="J78" s="38"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
+      <c r="N78" s="21" t="s">
+        <v>2880</v>
+      </c>
       <c r="O78" s="21"/>
       <c r="P78" s="21" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="Q78" s="21"/>
       <c r="R78" s="24"/>
@@ -18863,7 +18863,7 @@
       <c r="U78" s="24"/>
       <c r="V78" s="25"/>
       <c r="W78" s="32" t="s">
-        <v>2860</v>
+        <v>2881</v>
       </c>
       <c r="X78" s="21" t="s">
         <v>2854</v>
@@ -18871,28 +18871,28 @@
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="22" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="38"/>
@@ -18902,7 +18902,7 @@
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
       <c r="P79" s="21" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="Q79" s="21"/>
       <c r="R79" s="24"/>
@@ -18910,15 +18910,15 @@
         <v>1991</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="U79" s="24"/>
       <c r="V79" s="25"/>
       <c r="W79" s="32" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="X79" s="21" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="17.25" customHeight="1">
@@ -28832,32 +28832,32 @@
     </row>
     <row r="252" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>1856</v>
       </c>
       <c r="D252" s="11" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F252" s="3" t="s">
         <v>2867</v>
       </c>
-      <c r="E252" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>2869</v>
-      </c>
       <c r="G252" s="27" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="H252" s="27" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="I252" s="10"/>
       <c r="J252" s="10" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
@@ -28866,7 +28866,7 @@
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
       <c r="Q252" s="10" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -28877,7 +28877,7 @@
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
       <c r="X252" s="10" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="14.25" customHeight="1">
@@ -30314,10 +30314,10 @@
     <hyperlink ref="M77" r:id="rId559" xr:uid="{594213D8-AFAE-3948-AA86-BC03E5FC0667}"/>
     <hyperlink ref="X76" r:id="rId560" xr:uid="{5C1D2E7F-783E-504E-9C15-ECE79986CA32}"/>
     <hyperlink ref="X78" r:id="rId561" display="https://www.google.com/maps/place/Mr.%E7%B4%B0%E9%AF%8A%E7%B3%96+%E2%80%A2+Mr.Shark+%E9%9B%AA%E8%8A%B1%E5%86%B0%E8%8F%93%E5%AE%A4/@25.053901,121.3803289,17z/data=!4m6!3m5!1s0x3442a7536d5dc1d1:0xa6b5038074e4c22a!8m2!3d25.053901!4d121.3829038!16s%2Fg%2F11y41dc4v9?entry=ttu" xr:uid="{B6E79BEB-E9D3-E846-9C77-585FFC179844}"/>
-    <hyperlink ref="J78" r:id="rId562" xr:uid="{93B8E80D-D557-4A4C-89FE-AE16ACB085D5}"/>
-    <hyperlink ref="X252" r:id="rId563" xr:uid="{B48C248E-8877-E74C-9703-AD446933A1E7}"/>
-    <hyperlink ref="J252" r:id="rId564" xr:uid="{D9261A27-86C0-B745-9A76-FC461E180CB5}"/>
-    <hyperlink ref="X79" r:id="rId565" display="https://www.google.com/maps/place/%E6%A2%85%E6%A3%AE%E6%B2%99%E6%8B%89-%E5%81%A5%E5%BA%B7%E9%A4%90%E7%9B%92/@25.0484008,121.3827549,17z/data=!4m6!3m5!1s0x3442a756d8f1404b:0x8328288865a4b4e7!8m2!3d25.0481404!4d121.3825982!16s%2Fg%2F11y4474bdg?hl=zh-TW&amp;entry=ttu" xr:uid="{2B6EC541-E893-774D-A91D-0D35B9E6D1E2}"/>
+    <hyperlink ref="X252" r:id="rId562" xr:uid="{B48C248E-8877-E74C-9703-AD446933A1E7}"/>
+    <hyperlink ref="J252" r:id="rId563" xr:uid="{D9261A27-86C0-B745-9A76-FC461E180CB5}"/>
+    <hyperlink ref="X79" r:id="rId564" display="https://www.google.com/maps/place/%E6%A2%85%E6%A3%AE%E6%B2%99%E6%8B%89-%E5%81%A5%E5%BA%B7%E9%A4%90%E7%9B%92/@25.0484008,121.3827549,17z/data=!4m6!3m5!1s0x3442a756d8f1404b:0x8328288865a4b4e7!8m2!3d25.0481404!4d121.3825982!16s%2Fg%2F11y4474bdg?hl=zh-TW&amp;entry=ttu" xr:uid="{2B6EC541-E893-774D-A91D-0D35B9E6D1E2}"/>
+    <hyperlink ref="N78" r:id="rId565" xr:uid="{6B57130E-5874-9E45-B529-EF4151A729F2}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -30364,7 +30364,7 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1792</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="3" t="s">
         <v>1793</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="3" t="s">
         <v>1794</v>
       </c>
@@ -30397,7 +30397,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="3" t="s">
         <v>1795</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="3" t="s">
         <v>1796</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="3" t="s">
         <v>1798</v>
       </c>
@@ -30438,7 +30438,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="3" t="s">
         <v>1799</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="3" t="s">
         <v>1800</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="3" t="s">
         <v>1801</v>
       </c>
@@ -30462,7 +30462,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="3" t="s">
         <v>1802</v>
       </c>
@@ -30470,32 +30470,32 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="3" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="3" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="3" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="3" t="s">
         <v>1808</v>
       </c>
@@ -30505,7 +30505,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="3" t="s">
         <v>1810</v>
       </c>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11F5791-443F-5C4E-AF20-7339678F1C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE621B-A58A-3144-B448-F4C7C92FF47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="-25800" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19240" yWindow="-27800" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="2882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="2883">
   <si>
     <t>address</t>
   </si>
@@ -11105,10 +11105,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>08:00 - 15:00 週三四公休</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.instagram.com/funfind528</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -13067,6 +13063,18 @@
    &lt;a href="/files/RES-A7-092-1.pdf"&gt;菜單&lt;/a&gt;
 &lt;/button&gt;
 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>平日10:00 - 19:00 週三四公休 週六日 08:00 - 15:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt; 環境也提供寵物友善空間、團體訂餐、聚會包場。放飯早午餐歡迎您帶毛小孩一同用餐！
+&lt;/p&gt;
+&lt;img src="/images/restaurant/RES-A7-081-2.jpeg" class="max-w-md" /&gt;
+&lt;img src="/images/restaurant/RES-A7-081-3.jpeg" class="max-w-md" /&gt;
+&lt;img src="/images/restaurant/RES-A7-081-1.jpeg" class="max-w-md" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14558,10 +14566,10 @@
   <dimension ref="A1:X267"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W78" sqref="W78"/>
+      <selection pane="bottomRight" activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -15391,7 +15399,7 @@
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="39" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>1151</v>
@@ -15439,7 +15447,7 @@
         <v>1753</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
@@ -17151,7 +17159,7 @@
     </row>
     <row r="47" spans="1:24" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1369</v>
@@ -17163,16 +17171,16 @@
         <v>1862</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>1546</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
@@ -17184,10 +17192,10 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="10" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3" t="s">
@@ -17297,7 +17305,7 @@
         <v>1700</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3" t="s">
@@ -17955,7 +17963,7 @@
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="23" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>2133</v>
@@ -18164,7 +18172,7 @@
         <v>2185</v>
       </c>
       <c r="X65" s="21" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
@@ -18234,7 +18242,7 @@
         <v>2367</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>2368</v>
+        <v>2881</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>2363</v>
@@ -18246,16 +18254,16 @@
       <c r="J67" s="38"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24" t="s">
@@ -18268,53 +18276,55 @@
       <c r="V67" s="25" t="s">
         <v>1694</v>
       </c>
-      <c r="W67" s="32"/>
+      <c r="W67" s="32" t="s">
+        <v>2882</v>
+      </c>
       <c r="X67" s="21" t="s">
         <v>2362</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="23" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>2061</v>
       </c>
       <c r="D68" s="24" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I68" s="21" t="s">
         <v>2575</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>2613</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>2581</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>2573</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>2574</v>
-      </c>
-      <c r="I68" s="21" t="s">
+      <c r="J68" s="38" t="s">
+        <v>2577</v>
+      </c>
+      <c r="K68" s="21" t="s">
         <v>2576</v>
-      </c>
-      <c r="J68" s="38" t="s">
-        <v>2578</v>
-      </c>
-      <c r="K68" s="21" t="s">
-        <v>2577</v>
       </c>
       <c r="L68" s="21"/>
       <c r="M68" s="21" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="24"/>
@@ -18327,39 +18337,39 @@
       <c r="U68" s="24"/>
       <c r="V68" s="25"/>
       <c r="W68" s="32" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="X68" s="21" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="23" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>1822</v>
       </c>
       <c r="D69" s="24" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>2593</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>2594</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>608</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="J69" s="38"/>
       <c r="K69" s="21"/>
@@ -18368,7 +18378,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="Q69" s="21"/>
       <c r="R69" s="24"/>
@@ -18376,45 +18386,45 @@
         <v>1991</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="U69" s="24"/>
       <c r="V69" s="25"/>
       <c r="W69" s="32"/>
       <c r="X69" s="21" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="23" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>2061</v>
       </c>
       <c r="D70" s="24" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>2599</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="F70" s="24" t="s">
         <v>2600</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="G70" s="24" t="s">
+        <v>2586</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>2602</v>
+      </c>
+      <c r="J70" s="38" t="s">
         <v>2601</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>2587</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>2589</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>2603</v>
-      </c>
-      <c r="J70" s="38" t="s">
-        <v>2602</v>
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
@@ -18428,44 +18438,44 @@
         <v>1991</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="U70" s="24"/>
       <c r="V70" s="25"/>
       <c r="W70" s="32"/>
       <c r="X70" s="21" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="23" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>2243</v>
       </c>
       <c r="D71" s="24" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>2609</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="F71" s="24" t="s">
         <v>2610</v>
       </c>
-      <c r="F71" s="24" t="s">
-        <v>2611</v>
-      </c>
       <c r="G71" s="24" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H71" s="24" t="s">
         <v>2605</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>2606</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="38"/>
       <c r="K71" s="21" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="L71" s="21"/>
       <c r="M71" s="24"/>
@@ -18484,30 +18494,30 @@
       <c r="V71" s="25"/>
       <c r="W71" s="32"/>
       <c r="X71" s="21" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="23" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>2119</v>
       </c>
       <c r="D72" s="24" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>2619</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="F72" s="24" t="s">
         <v>2620</v>
       </c>
-      <c r="F72" s="24" t="s">
-        <v>2621</v>
-      </c>
       <c r="G72" s="24" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>1867</v>
@@ -18518,7 +18528,7 @@
       <c r="L72" s="21"/>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
@@ -18536,49 +18546,49 @@
       </c>
       <c r="W72" s="32"/>
       <c r="X72" s="21" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="23" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>1856</v>
       </c>
       <c r="D73" s="24" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E73" s="25" t="s">
         <v>2626</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="F73" s="24" t="s">
         <v>2627</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="G73" s="24" t="s">
         <v>2628</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="H73" s="24" t="s">
         <v>2629</v>
       </c>
-      <c r="H73" s="24" t="s">
+      <c r="I73" s="21" t="s">
+        <v>2633</v>
+      </c>
+      <c r="J73" s="38" t="s">
         <v>2630</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>2634</v>
-      </c>
-      <c r="J73" s="38" t="s">
-        <v>2631</v>
       </c>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="21" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="N73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="Q73" s="21"/>
       <c r="R73" s="24"/>
@@ -18594,49 +18604,49 @@
       </c>
       <c r="W73" s="32"/>
       <c r="X73" s="21" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="23" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>2060</v>
       </c>
       <c r="D74" s="24" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>2640</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="F74" s="24" t="s">
         <v>2641</v>
       </c>
-      <c r="F74" s="24" t="s">
-        <v>2642</v>
-      </c>
       <c r="G74" s="24" t="s">
+        <v>2635</v>
+      </c>
+      <c r="H74" s="24" t="s">
         <v>2636</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>2637</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="38"/>
       <c r="K74" s="21" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
       <c r="N74" s="21" t="s">
+        <v>2644</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>2643</v>
+      </c>
+      <c r="P74" s="21" t="s">
         <v>2645</v>
-      </c>
-      <c r="O74" s="21" t="s">
-        <v>2644</v>
-      </c>
-      <c r="P74" s="21" t="s">
-        <v>2646</v>
       </c>
       <c r="Q74" s="21"/>
       <c r="R74" s="24"/>
@@ -18652,37 +18662,37 @@
       </c>
       <c r="W74" s="32"/>
       <c r="X74" s="21" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="23" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>2061</v>
       </c>
       <c r="D75" s="24" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>2652</v>
       </c>
-      <c r="E75" s="25" t="s">
+      <c r="F75" s="24" t="s">
         <v>2653</v>
       </c>
-      <c r="F75" s="24" t="s">
-        <v>2654</v>
-      </c>
       <c r="G75" s="24" t="s">
+        <v>2647</v>
+      </c>
+      <c r="H75" s="24" t="s">
         <v>2648</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>2649</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="38" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
@@ -18704,41 +18714,41 @@
       </c>
       <c r="W75" s="32"/>
       <c r="X75" s="21" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="23" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B76" s="24" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G76" s="24" t="s">
         <v>2656</v>
       </c>
-      <c r="C76" s="24" t="s">
-        <v>2470</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>2661</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>2662</v>
-      </c>
-      <c r="F76" s="24" t="s">
+      <c r="H76" s="24" t="s">
+        <v>2657</v>
+      </c>
+      <c r="I76" s="21" t="s">
         <v>2663</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>2657</v>
-      </c>
-      <c r="H76" s="24" t="s">
-        <v>2658</v>
-      </c>
-      <c r="I76" s="21" t="s">
-        <v>2664</v>
       </c>
       <c r="J76" s="38"/>
       <c r="K76" s="21"/>
       <c r="L76" s="21" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="M76" s="21"/>
       <c r="N76" s="21"/>
@@ -18756,49 +18766,49 @@
       <c r="V76" s="25"/>
       <c r="W76" s="32"/>
       <c r="X76" s="21" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="22" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E77" s="25" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F77" s="24" t="s">
         <v>2842</v>
       </c>
-      <c r="F77" s="24" t="s">
-        <v>2843</v>
-      </c>
       <c r="G77" s="24" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H77" s="24" t="s">
         <v>2837</v>
       </c>
-      <c r="H77" s="24" t="s">
-        <v>2838</v>
-      </c>
       <c r="I77" s="21" t="s">
+        <v>2844</v>
+      </c>
+      <c r="J77" s="38" t="s">
         <v>2845</v>
-      </c>
-      <c r="J77" s="38" t="s">
-        <v>2846</v>
       </c>
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
       <c r="M77" s="21" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="N77" s="21"/>
       <c r="O77" s="21"/>
       <c r="P77" s="21" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="Q77" s="21"/>
       <c r="R77" s="24"/>
@@ -18812,33 +18822,33 @@
       <c r="V77" s="25"/>
       <c r="W77" s="32"/>
       <c r="X77" s="21" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="22" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="D78" s="24" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E78" s="25" t="s">
         <v>2856</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>2857</v>
       </c>
       <c r="F78" s="24" t="s">
         <v>1139</v>
       </c>
       <c r="G78" s="24" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>2852</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>2853</v>
       </c>
       <c r="I78" s="21"/>
       <c r="J78" s="38"/>
@@ -18846,11 +18856,11 @@
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
       <c r="N78" s="21" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="O78" s="21"/>
       <c r="P78" s="21" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="Q78" s="21"/>
       <c r="R78" s="24"/>
@@ -18863,36 +18873,36 @@
       <c r="U78" s="24"/>
       <c r="V78" s="25"/>
       <c r="W78" s="32" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="22" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D79" s="24" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F79" s="24" t="s">
         <v>2874</v>
       </c>
-      <c r="E79" s="25" t="s">
-        <v>2877</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>2875</v>
-      </c>
       <c r="G79" s="24" t="s">
+        <v>2869</v>
+      </c>
+      <c r="H79" s="24" t="s">
         <v>2870</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>2871</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="38"/>
@@ -18902,7 +18912,7 @@
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
       <c r="P79" s="21" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="Q79" s="21"/>
       <c r="R79" s="24"/>
@@ -18910,15 +18920,15 @@
         <v>1991</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="U79" s="24"/>
       <c r="V79" s="25"/>
       <c r="W79" s="32" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="X79" s="21" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="17.25" customHeight="1">
@@ -18981,7 +18991,7 @@
     </row>
     <row r="81" spans="1:24" ht="14.25" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1372</v>
@@ -19002,7 +19012,7 @@
         <v>1549</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>323</v>
@@ -19176,7 +19186,7 @@
         <v>1552</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>509</v>
@@ -19213,7 +19223,7 @@
     </row>
     <row r="85" spans="1:24" ht="14.25" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1376</v>
@@ -19292,7 +19302,7 @@
         <v>1554</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3" t="s">
@@ -19350,7 +19360,7 @@
         <v>1555</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3" t="s">
@@ -19387,7 +19397,7 @@
     </row>
     <row r="88" spans="1:24" ht="14.25" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1379</v>
@@ -19408,7 +19418,7 @@
         <v>1556</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3" t="s">
@@ -19466,7 +19476,7 @@
         <v>1557</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>615</v>
@@ -19581,7 +19591,7 @@
         <v>1559</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="I91" s="15"/>
       <c r="K91" s="3"/>
@@ -19636,7 +19646,7 @@
         <v>1560</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3" t="s">
@@ -19694,7 +19704,7 @@
         <v>1561</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3" t="s">
@@ -19754,7 +19764,7 @@
         <v>1563</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -19870,7 +19880,7 @@
         <v>1565</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>726</v>
@@ -19984,7 +19994,7 @@
         <v>1567</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>781</v>
@@ -20101,7 +20111,7 @@
         <v>1569</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3" t="s">
@@ -20333,7 +20343,7 @@
         <v>1574</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>876</v>
@@ -20391,7 +20401,7 @@
         <v>1575</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3" t="s">
@@ -20449,7 +20459,7 @@
         <v>1577</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3" t="s">
@@ -20507,7 +20517,7 @@
         <v>1578</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3" t="s">
@@ -20565,7 +20575,7 @@
         <v>1579</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3" t="s">
@@ -20623,7 +20633,7 @@
         <v>1580</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3" t="s">
@@ -20685,7 +20695,7 @@
         <v>1581</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3" t="s">
@@ -20743,7 +20753,7 @@
         <v>1582</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3" t="s">
@@ -20801,7 +20811,7 @@
         <v>1583</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3" t="s">
@@ -20915,7 +20925,7 @@
         <v>1585</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3" t="s">
@@ -20971,7 +20981,7 @@
         <v>1586</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -21025,7 +21035,7 @@
         <v>1587</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3" t="s">
@@ -21141,7 +21151,7 @@
         <v>1589</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -21199,7 +21209,7 @@
         <v>1590</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>1020</v>
@@ -21257,7 +21267,7 @@
         <v>1591</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>1028</v>
@@ -21487,7 +21497,7 @@
         <v>1595</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>1055</v>
@@ -21864,7 +21874,7 @@
     </row>
     <row r="131" spans="1:24" ht="24.25" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>1865</v>
@@ -21885,7 +21895,7 @@
         <v>1674</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3" t="s">
@@ -22409,7 +22419,7 @@
         <v>1822</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>2341</v>
@@ -22454,45 +22464,45 @@
     </row>
     <row r="142" spans="1:24" ht="24.25" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>2428</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>2429</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G142" s="4" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H142" s="4" t="s">
         <v>2425</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>2426</v>
-      </c>
       <c r="I142" s="10" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="K142" s="10"/>
       <c r="L142" s="10" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
       <c r="Q142" s="10" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="R142" s="3"/>
       <c r="S142" s="3" t="s">
@@ -22505,50 +22515,50 @@
       </c>
       <c r="W142" s="3"/>
       <c r="X142" s="10" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="24.25" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>2450</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>2451</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>2452</v>
-      </c>
       <c r="G143" s="4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H143" s="4" t="s">
         <v>2446</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>2447</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="10" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
       <c r="M143" s="10"/>
       <c r="N143" s="10" t="s">
+        <v>2452</v>
+      </c>
+      <c r="O143" s="10" t="s">
         <v>2453</v>
-      </c>
-      <c r="O143" s="10" t="s">
-        <v>2454</v>
       </c>
       <c r="P143" s="10"/>
       <c r="Q143" s="10" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="R143" s="3"/>
       <c r="S143" s="3" t="s">
@@ -22561,50 +22571,50 @@
       </c>
       <c r="W143" s="3"/>
       <c r="X143" s="10" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="24.25" customHeight="1">
       <c r="A144" s="36" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="E144" s="3" t="s">
+        <v>2669</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>2670</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>2671</v>
-      </c>
       <c r="G144" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H144" s="4" t="s">
         <v>2667</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>2668</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="O144" s="10"/>
       <c r="P144" s="10" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="R144" s="3"/>
       <c r="S144" s="3" t="s">
@@ -22615,36 +22625,36 @@
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
       <c r="X144" s="10" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="24.25" customHeight="1">
       <c r="A145" s="36" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>2682</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>2683</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G145" s="4" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H145" s="4" t="s">
         <v>2678</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>2679</v>
-      </c>
       <c r="I145" s="10" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -22653,7 +22663,7 @@
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="Q145" s="10"/>
       <c r="R145" s="3"/>
@@ -22665,50 +22675,50 @@
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
       <c r="X145" s="10" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="24.25" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="E146" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>2719</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>2720</v>
-      </c>
       <c r="G146" s="4" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="I146" s="10"/>
       <c r="J146" s="10" t="s">
+        <v>2721</v>
+      </c>
+      <c r="K146" s="10" t="s">
         <v>2722</v>
       </c>
-      <c r="K146" s="10" t="s">
+      <c r="L146" s="10" t="s">
         <v>2723</v>
-      </c>
-      <c r="L146" s="10" t="s">
-        <v>2724</v>
       </c>
       <c r="M146" s="10"/>
       <c r="N146" s="10" t="s">
+        <v>2724</v>
+      </c>
+      <c r="O146" s="10" t="s">
         <v>2725</v>
-      </c>
-      <c r="O146" s="10" t="s">
-        <v>2726</v>
       </c>
       <c r="P146" s="10"/>
       <c r="Q146" s="10"/>
@@ -22721,33 +22731,33 @@
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
       <c r="X146" s="10" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="24.25" customHeight="1">
       <c r="A147" s="36" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>2729</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>2730</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>2731</v>
-      </c>
       <c r="G147" s="4" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
@@ -22755,7 +22765,7 @@
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
       <c r="N147" s="10" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
@@ -22769,36 +22779,36 @@
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
       <c r="X147" s="10" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="24.25" customHeight="1">
       <c r="A148" s="36" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>2734</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>2735</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -22807,7 +22817,7 @@
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="Q148" s="10"/>
       <c r="R148" s="3"/>
@@ -22819,33 +22829,33 @@
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
       <c r="X148" s="10" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="24.25" customHeight="1">
       <c r="A149" s="36" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>2737</v>
       </c>
-      <c r="B149" s="30" t="s">
-        <v>2693</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>2835</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="E149" s="3" t="s">
         <v>2738</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>2739</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>2740</v>
-      </c>
       <c r="G149" s="4" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
@@ -22855,7 +22865,7 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="Q149" s="10"/>
       <c r="R149" s="3"/>
@@ -22867,33 +22877,33 @@
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
       <c r="X149" s="10" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="24.25" customHeight="1">
       <c r="A150" s="36" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D150" s="3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>2744</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>2745</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="G150" s="4" t="s">
         <v>2746</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>2747</v>
-      </c>
       <c r="H150" s="4" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
@@ -22902,11 +22912,11 @@
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
       <c r="O150" s="10" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="P150" s="10"/>
       <c r="Q150" s="10" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="R150" s="3"/>
       <c r="S150" s="3" t="s">
@@ -22917,33 +22927,33 @@
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
       <c r="X150" s="10" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="24.25" customHeight="1">
       <c r="A151" s="36" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>2752</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>2753</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>1236</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="I151" s="40"/>
       <c r="J151" s="10"/>
@@ -22951,10 +22961,10 @@
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="10" t="s">
+        <v>2753</v>
+      </c>
+      <c r="O151" s="10" t="s">
         <v>2754</v>
-      </c>
-      <c r="O151" s="10" t="s">
-        <v>2755</v>
       </c>
       <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
@@ -22967,36 +22977,36 @@
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
       <c r="X151" s="10" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="24.25" customHeight="1">
       <c r="A152" s="36" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D152" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>2758</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>2759</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>641</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -23004,7 +23014,7 @@
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
@@ -23017,46 +23027,46 @@
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
       <c r="X152" s="10" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="24.25" customHeight="1">
       <c r="A153" s="36" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>2061</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>2765</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>2766</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
       <c r="N153" s="10" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="O153" s="10" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="P153" s="10"/>
       <c r="Q153" s="10"/>
@@ -23069,33 +23079,33 @@
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
       <c r="X153" s="10" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="24.25" customHeight="1">
       <c r="A154" s="36" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D154" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>2772</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="F154" s="3" t="s">
         <v>2773</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>2774</v>
-      </c>
       <c r="G154" s="4" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
@@ -23103,10 +23113,10 @@
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
       <c r="N154" s="10" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
@@ -23119,52 +23129,52 @@
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
       <c r="X154" s="10" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="24.25" customHeight="1">
       <c r="A155" s="36" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="D155" s="3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>2816</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>2817</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>293</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="10" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
       <c r="M155" s="10" t="s">
+        <v>2818</v>
+      </c>
+      <c r="N155" s="10" t="s">
         <v>2819</v>
       </c>
-      <c r="N155" s="10" t="s">
+      <c r="O155" s="10" t="s">
         <v>2820</v>
-      </c>
-      <c r="O155" s="10" t="s">
-        <v>2821</v>
       </c>
       <c r="P155" s="10"/>
       <c r="Q155" s="10" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="R155" s="3"/>
       <c r="S155" s="3" t="s">
@@ -23175,7 +23185,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
       <c r="X155" s="10" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="15" customHeight="1">
@@ -23917,7 +23927,7 @@
         <v>1612</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="I168" s="10" t="s">
         <v>1969</v>
@@ -23939,7 +23949,7 @@
         <v>350</v>
       </c>
       <c r="R168" s="10" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="S168" s="3" t="s">
         <v>1313</v>
@@ -28053,7 +28063,7 @@
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
       <c r="P237" s="10" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="Q237" s="10"/>
       <c r="R237" s="3"/>
@@ -28128,47 +28138,47 @@
     </row>
     <row r="239" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D239" s="11" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E239" s="3" t="s">
         <v>2416</v>
       </c>
-      <c r="E239" s="3" t="s">
+      <c r="F239" s="3" t="s">
         <v>2417</v>
       </c>
-      <c r="F239" s="3" t="s">
-        <v>2418</v>
-      </c>
       <c r="G239" s="27" t="s">
+        <v>2411</v>
+      </c>
+      <c r="H239" s="27" t="s">
         <v>2412</v>
-      </c>
-      <c r="H239" s="27" t="s">
-        <v>2413</v>
       </c>
       <c r="I239" s="10"/>
       <c r="J239" s="10" t="s">
+        <v>2419</v>
+      </c>
+      <c r="K239" s="10" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L239" s="10" t="s">
         <v>2420</v>
-      </c>
-      <c r="K239" s="10" t="s">
-        <v>2422</v>
-      </c>
-      <c r="L239" s="10" t="s">
-        <v>2421</v>
       </c>
       <c r="M239" s="3"/>
       <c r="N239" s="10" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
       <c r="Q239" s="10" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="R239" s="3"/>
       <c r="S239" s="3" t="s">
@@ -28181,36 +28191,36 @@
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="10" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="D240" s="11" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>2440</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="F240" s="3" t="s">
         <v>2441</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="G240" s="27" t="s">
+        <v>2435</v>
+      </c>
+      <c r="H240" s="27" t="s">
+        <v>2436</v>
+      </c>
+      <c r="I240" s="10" t="s">
         <v>2442</v>
-      </c>
-      <c r="G240" s="27" t="s">
-        <v>2436</v>
-      </c>
-      <c r="H240" s="27" t="s">
-        <v>2437</v>
-      </c>
-      <c r="I240" s="10" t="s">
-        <v>2443</v>
       </c>
       <c r="J240" s="10"/>
       <c r="K240" s="10"/>
@@ -28220,7 +28230,7 @@
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
       <c r="Q240" s="10" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="R240" s="3"/>
       <c r="S240" s="3" t="s">
@@ -28233,47 +28243,47 @@
       </c>
       <c r="W240" s="3"/>
       <c r="X240" s="10" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="241" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C241" s="3" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D241" s="11" t="s">
         <v>2470</v>
       </c>
-      <c r="D241" s="11" t="s">
+      <c r="E241" s="3" t="s">
         <v>2471</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="F241" s="3" t="s">
         <v>2472</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="G241" s="27" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H241" s="27" t="s">
+        <v>2463</v>
+      </c>
+      <c r="I241" s="10" t="s">
         <v>2473</v>
-      </c>
-      <c r="G241" s="27" t="s">
-        <v>2460</v>
-      </c>
-      <c r="H241" s="27" t="s">
-        <v>2464</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>2474</v>
       </c>
       <c r="J241" s="10"/>
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
       <c r="M241" s="3"/>
       <c r="N241" s="10" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="O241" s="10"/>
       <c r="P241" s="10" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="Q241" s="10"/>
       <c r="R241" s="3"/>
@@ -28287,48 +28297,48 @@
       </c>
       <c r="W241" s="3"/>
       <c r="X241" s="10" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>2059</v>
       </c>
       <c r="D242" s="11" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E242" s="3" t="s">
         <v>2478</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="F242" s="3" t="s">
         <v>2479</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="G242" s="27" t="s">
+        <v>2460</v>
+      </c>
+      <c r="H242" s="27" t="s">
+        <v>2464</v>
+      </c>
+      <c r="I242" s="10" t="s">
         <v>2480</v>
       </c>
-      <c r="G242" s="27" t="s">
-        <v>2461</v>
-      </c>
-      <c r="H242" s="27" t="s">
-        <v>2465</v>
-      </c>
-      <c r="I242" s="10" t="s">
-        <v>2481</v>
-      </c>
       <c r="J242" s="10" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="K242" s="10"/>
       <c r="L242" s="10"/>
       <c r="M242" s="3"/>
       <c r="N242" s="10" t="s">
+        <v>2481</v>
+      </c>
+      <c r="O242" s="10" t="s">
         <v>2482</v>
-      </c>
-      <c r="O242" s="10" t="s">
-        <v>2483</v>
       </c>
       <c r="P242" s="10"/>
       <c r="Q242" s="10"/>
@@ -28339,40 +28349,40 @@
       <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="W242" s="3"/>
       <c r="X242" s="10" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D243" s="11" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E243" s="3" t="s">
         <v>2487</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="F243" s="3" t="s">
         <v>2488</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="G243" s="27" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H243" s="27" t="s">
+        <v>2465</v>
+      </c>
+      <c r="I243" s="10" t="s">
         <v>2489</v>
-      </c>
-      <c r="G243" s="27" t="s">
-        <v>2462</v>
-      </c>
-      <c r="H243" s="27" t="s">
-        <v>2466</v>
-      </c>
-      <c r="I243" s="10" t="s">
-        <v>2490</v>
       </c>
       <c r="J243" s="10"/>
       <c r="K243" s="10"/>
@@ -28393,39 +28403,39 @@
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="10" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D244" s="11" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E244" s="3" t="s">
         <v>2493</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>2494</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="G244" s="27" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H244" s="27" t="s">
+        <v>2466</v>
+      </c>
+      <c r="I244" s="10" t="s">
         <v>2495</v>
       </c>
-      <c r="G244" s="27" t="s">
-        <v>2463</v>
-      </c>
-      <c r="H244" s="27" t="s">
-        <v>2467</v>
-      </c>
-      <c r="I244" s="10" t="s">
+      <c r="J244" s="10" t="s">
         <v>2496</v>
-      </c>
-      <c r="J244" s="10" t="s">
-        <v>2497</v>
       </c>
       <c r="K244" s="10"/>
       <c r="L244" s="10"/>
@@ -28433,7 +28443,7 @@
       <c r="N244" s="10"/>
       <c r="O244" s="10"/>
       <c r="P244" s="10" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="Q244" s="10"/>
       <c r="R244" s="3"/>
@@ -28447,52 +28457,52 @@
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="10" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="245" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D245" s="11" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="F245" s="3" t="s">
         <v>2544</v>
       </c>
-      <c r="F245" s="3" t="s">
-        <v>2545</v>
-      </c>
       <c r="G245" s="27" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H245" s="27" t="s">
         <v>2539</v>
-      </c>
-      <c r="H245" s="27" t="s">
-        <v>2540</v>
       </c>
       <c r="I245" s="10"/>
       <c r="J245" s="10" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K245" s="10" t="s">
+        <v>2548</v>
+      </c>
+      <c r="L245" s="10" t="s">
         <v>2547</v>
-      </c>
-      <c r="K245" s="10" t="s">
-        <v>2549</v>
-      </c>
-      <c r="L245" s="10" t="s">
-        <v>2548</v>
       </c>
       <c r="M245" s="3"/>
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
       <c r="P245" s="10" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="Q245" s="10" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="R245" s="3"/>
       <c r="S245" s="3" t="s">
@@ -28505,33 +28515,33 @@
       </c>
       <c r="W245" s="3"/>
       <c r="X245" s="10" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>2059</v>
       </c>
       <c r="D246" s="11" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E246" s="3" t="s">
         <v>2556</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="F246" s="3" t="s">
         <v>2557</v>
       </c>
-      <c r="F246" s="3" t="s">
-        <v>2558</v>
-      </c>
       <c r="G246" s="27" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H246" s="27" t="s">
         <v>2552</v>
-      </c>
-      <c r="H246" s="27" t="s">
-        <v>2553</v>
       </c>
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
@@ -28541,10 +28551,10 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10" t="s">
+        <v>2558</v>
+      </c>
+      <c r="Q246" s="10" t="s">
         <v>2559</v>
-      </c>
-      <c r="Q246" s="10" t="s">
-        <v>2560</v>
       </c>
       <c r="R246" s="3"/>
       <c r="S246" s="3" t="s">
@@ -28557,47 +28567,47 @@
       </c>
       <c r="W246" s="3"/>
       <c r="X246" s="10" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>2061</v>
       </c>
       <c r="D247" s="11" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E247" s="3" t="s">
         <v>2566</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="F247" s="3" t="s">
         <v>2567</v>
       </c>
-      <c r="F247" s="3" t="s">
-        <v>2568</v>
-      </c>
       <c r="G247" s="27" t="s">
+        <v>2561</v>
+      </c>
+      <c r="H247" s="27" t="s">
         <v>2562</v>
       </c>
-      <c r="H247" s="27" t="s">
-        <v>2563</v>
-      </c>
       <c r="I247" s="10" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="3"/>
       <c r="N247" s="10" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="O247" s="10"/>
       <c r="P247" s="10" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="Q247" s="10"/>
       <c r="R247" s="3"/>
@@ -28611,36 +28621,36 @@
       </c>
       <c r="W247" s="3"/>
       <c r="X247" s="10" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="D248" s="11" t="s">
+        <v>2786</v>
+      </c>
+      <c r="E248" s="3" t="s">
         <v>2787</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="F248" s="3" t="s">
         <v>2788</v>
       </c>
-      <c r="F248" s="3" t="s">
-        <v>2789</v>
-      </c>
       <c r="G248" s="27" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="H248" s="27" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="I248" s="10" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="J248" s="10"/>
       <c r="K248" s="10"/>
@@ -28649,10 +28659,10 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="Q248" s="10" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="R248" s="3"/>
       <c r="S248" s="3" t="s">
@@ -28663,52 +28673,52 @@
       <c r="V248" s="3"/>
       <c r="W248" s="3"/>
       <c r="X248" s="10" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="249" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>2262</v>
       </c>
       <c r="D249" s="11" t="s">
+        <v>2790</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F249" s="3" t="s">
         <v>2791</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="G249" s="27" t="s">
+        <v>2780</v>
+      </c>
+      <c r="H249" s="27" t="s">
+        <v>2783</v>
+      </c>
+      <c r="I249" s="10" t="s">
         <v>2803</v>
       </c>
-      <c r="F249" s="3" t="s">
-        <v>2792</v>
-      </c>
-      <c r="G249" s="27" t="s">
-        <v>2781</v>
-      </c>
-      <c r="H249" s="27" t="s">
-        <v>2784</v>
-      </c>
-      <c r="I249" s="10" t="s">
-        <v>2804</v>
-      </c>
       <c r="J249" s="10" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
       <c r="M249" s="10" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="N249" s="10"/>
       <c r="O249" s="10"/>
       <c r="P249" s="10" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="Q249" s="10" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="R249" s="3"/>
       <c r="S249" s="3" t="s">
@@ -28719,52 +28729,52 @@
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
       <c r="X249" s="10" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="250" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="D250" s="11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E250" s="3" t="s">
         <v>2794</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>2795</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G250" s="27" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="H250" s="27" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I250" s="10" t="s">
         <v>2799</v>
-      </c>
-      <c r="I250" s="10" t="s">
-        <v>2800</v>
       </c>
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
       <c r="L250" s="10"/>
       <c r="M250" s="3"/>
       <c r="N250" s="10" t="s">
+        <v>2796</v>
+      </c>
+      <c r="O250" s="10" t="s">
         <v>2797</v>
       </c>
-      <c r="O250" s="10" t="s">
-        <v>2798</v>
-      </c>
       <c r="P250" s="10" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="Q250" s="10" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="R250" s="3"/>
       <c r="S250" s="3" t="s">
@@ -28775,39 +28785,39 @@
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
       <c r="X250" s="10" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="251" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="D251" s="11" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E251" s="3" t="s">
         <v>2830</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>2831</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>2218</v>
       </c>
       <c r="G251" s="27" t="s">
+        <v>2825</v>
+      </c>
+      <c r="H251" s="27" t="s">
         <v>2826</v>
       </c>
-      <c r="H251" s="27" t="s">
-        <v>2827</v>
-      </c>
       <c r="I251" s="10" t="s">
+        <v>2832</v>
+      </c>
+      <c r="J251" s="10" t="s">
         <v>2833</v>
-      </c>
-      <c r="J251" s="10" t="s">
-        <v>2834</v>
       </c>
       <c r="K251" s="10"/>
       <c r="L251" s="10"/>
@@ -28816,7 +28826,7 @@
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
       <c r="Q251" s="10" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="R251" s="3"/>
       <c r="S251" s="3" t="s">
@@ -28827,37 +28837,37 @@
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
       <c r="X251" s="10" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="252" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>1856</v>
       </c>
       <c r="D252" s="11" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E252" s="3" t="s">
         <v>2865</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="F252" s="3" t="s">
         <v>2866</v>
       </c>
-      <c r="F252" s="3" t="s">
-        <v>2867</v>
-      </c>
       <c r="G252" s="27" t="s">
+        <v>2859</v>
+      </c>
+      <c r="H252" s="27" t="s">
         <v>2860</v>
-      </c>
-      <c r="H252" s="27" t="s">
-        <v>2861</v>
       </c>
       <c r="I252" s="10"/>
       <c r="J252" s="10" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
@@ -28866,7 +28876,7 @@
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
       <c r="Q252" s="10" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -28877,7 +28887,7 @@
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
       <c r="X252" s="10" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="14.25" customHeight="1">
@@ -29114,7 +29124,7 @@
     </row>
     <row r="257" spans="1:24" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>1494</v>
@@ -29576,32 +29586,32 @@
     </row>
     <row r="265" spans="1:24" ht="20" customHeight="1">
       <c r="A265" s="30" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>2382</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>2383</v>
-      </c>
       <c r="D265" s="30" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E265" s="30" t="s">
         <v>2386</v>
       </c>
-      <c r="E265" s="30" t="s">
+      <c r="F265" s="30" t="s">
         <v>2387</v>
       </c>
-      <c r="F265" s="30" t="s">
-        <v>2388</v>
-      </c>
       <c r="G265" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="I265" s="15"/>
       <c r="J265" s="38" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="K265" s="15"/>
       <c r="L265" s="15"/>
@@ -29610,7 +29620,7 @@
       <c r="O265" s="15"/>
       <c r="P265" s="15"/>
       <c r="Q265" s="38" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="R265" s="15"/>
       <c r="S265" s="3" t="s">
@@ -29619,59 +29629,59 @@
       <c r="T265" s="15"/>
       <c r="U265" s="15"/>
       <c r="V265" s="43" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="W265" s="15"/>
       <c r="X265" s="38" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="266" spans="1:24" ht="20" customHeight="1">
       <c r="A266" s="30" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>2231</v>
       </c>
       <c r="D266" s="30" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E266" s="30" t="s">
         <v>2394</v>
       </c>
-      <c r="E266" s="30" t="s">
+      <c r="F266" s="30" t="s">
         <v>2395</v>
       </c>
-      <c r="F266" s="30" t="s">
-        <v>2396</v>
-      </c>
       <c r="G266" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="I266" s="38" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="J266" s="38" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="K266" s="15"/>
       <c r="L266" s="15"/>
       <c r="M266" s="15"/>
       <c r="N266" s="15"/>
       <c r="O266" s="38" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="P266" s="38" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="Q266" s="38" t="s">
+        <v>2400</v>
+      </c>
+      <c r="R266" s="38" t="s">
         <v>2401</v>
-      </c>
-      <c r="R266" s="38" t="s">
-        <v>2402</v>
       </c>
       <c r="S266" s="3" t="s">
         <v>159</v>
@@ -29679,53 +29689,53 @@
       <c r="T266" s="15"/>
       <c r="U266" s="15"/>
       <c r="V266" s="43" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="W266" s="15"/>
       <c r="X266" s="38" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="20" customHeight="1">
       <c r="A267" s="41" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B267" s="30" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>1832</v>
       </c>
       <c r="D267" s="30" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E267" s="30" t="s">
         <v>2404</v>
-      </c>
-      <c r="E267" s="30" t="s">
-        <v>2405</v>
       </c>
       <c r="F267" s="30" t="s">
         <v>641</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="I267" s="38" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="J267" s="38" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="K267" s="15"/>
       <c r="L267" s="38" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="M267" s="15"/>
       <c r="N267" s="15"/>
       <c r="O267" s="15"/>
       <c r="P267" s="38" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="Q267" s="15"/>
       <c r="R267" s="15"/>
@@ -29735,11 +29745,11 @@
       <c r="T267" s="15"/>
       <c r="U267" s="15"/>
       <c r="V267" s="43" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="W267" s="15"/>
       <c r="X267" s="30" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
   </sheetData>
@@ -30364,7 +30374,7 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="3" t="s">
         <v>1792</v>
       </c>
@@ -30375,7 +30385,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="3" t="s">
         <v>1793</v>
       </c>
@@ -30386,7 +30396,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="3" t="s">
         <v>1794</v>
       </c>
@@ -30397,7 +30407,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="3" t="s">
         <v>1795</v>
       </c>
@@ -30408,7 +30418,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="3" t="s">
         <v>1796</v>
       </c>
@@ -30430,7 +30440,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="3" t="s">
         <v>1798</v>
       </c>
@@ -30438,7 +30448,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="3" t="s">
         <v>1799</v>
       </c>
@@ -30446,7 +30456,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="3" t="s">
         <v>1800</v>
       </c>
@@ -30454,7 +30464,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="3" t="s">
         <v>1801</v>
       </c>
@@ -30462,7 +30472,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="3" t="s">
         <v>1802</v>
       </c>
@@ -30470,32 +30480,32 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="3" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="3" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="3" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15">
+    <row r="17" spans="1:1" ht="16">
       <c r="A17" s="3" t="s">
         <v>1808</v>
       </c>
@@ -30505,7 +30515,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15">
+    <row r="19" spans="1:1" ht="16">
       <c r="A19" s="3" t="s">
         <v>1810</v>
       </c>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE621B-A58A-3144-B448-F4C7C92FF47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341FFDCC-0BCE-6545-BCEC-B14D6C4927FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="-27800" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13900" yWindow="-27760" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="2883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="2896">
   <si>
     <t>address</t>
   </si>
@@ -13075,6 +13075,55 @@
 &lt;img src="/images/restaurant/RES-A7-081-2.jpeg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-081-3.jpeg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-081-1.jpeg" class="max-w-md" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9-109</t>
+  </si>
+  <si>
+    <t>RES-A9-109L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-109.jpeg</t>
+  </si>
+  <si>
+    <t>https://tw.news.yahoo.com/%E6%9E%97%E5%8F%A3%E9%A4%8A%E7%94%9F%E4%B8%AD%E5%BC%8F%E7%94%9C%E5%93%81%EF%BC%8C%E4%B8%BB%E6%89%93%E5%84%AA%E6%9E%9C%E5%A5%B6%E6%98%94%E3%80%81%E6%89%8B%E8%97%9D%E8%8C%B6%E9%BB%9E%E6%9C%89%E5%88%A5%E4%B8%80%E8%88%AC%E8%A5%BF%E5%BC%8F%E4%B8%8B%E5%8D%88%E8%8C%B6%EF%BC%8E%E6%8B%9B%E7%89%8C%E5%8F%A4%E6%B3%95%E7%87%89%E6%A2%A8%E6%9C%80%E5%8F%97%E6%AD%A1%E8%BF%8E-123224001.html?_fsig=GEv9geNeomfsFhnRSAXXRw--~A</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宮饞了</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%9C%AC%E5%AE%AE%E9%A5%9E%E4%BA%86%EF%BC%88%E6%9E%97%E5%8F%A3%E5%BA%97%EF%BC%89-%E6%9E%97%E5%8F%A3%E7%89%B9%E8%89%B2%E9%A4%90%E5%BB%B3%7C%E6%8E%A8%E8%96%A6%E4%B8%8B%E5%8D%88%E8%8C%B6%7C%E7%94%9C%E6%B9%AF%E6%8E%A8%E8%96%A6%7C%E5%9C%A8%E5%9C%B0%E6%8E%A8%E8%96%A6%E7%94%9C%E5%93%81%7C%E9%A4%8A%E7%94%9F%E8%8C%B6%E9%BB%9E%7C%E7%86%B1%E9%96%80%E8%81%9A%E6%9C%83%E9%A4%90%E5%BB%B3/@25.0717049,121.3604246,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7387cf218b5:0x1def2edfa4e2c513!8m2!3d25.0717049!4d121.3630049!16s%2Fg%2F11tk9kmlz_?entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段247號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2608-2502</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 21:00 週三公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.ichefpos.com/store/taDj5PD6/reserve?utm_medium=google_map&amp;utm_source=ichef_gbp_reservation</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@jdj7573o?oat_content=url</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/tw/store/%E6%9C%AC%E5%AE%AE%E9%A5%9E%E4%BA%86-%E6%B0%B4%E6%9E%9C%E5%84%AA%E6%A0%BC-%E7%87%89%E6%A2%A8-%E9%8A%80%E8%80%B3%E7%BE%B9-yogurt-and-chinese-sweet-soup/bHeZii2IXSCY6NqV404O5w?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/story.php?story_fbid=pfbid0ZqinZdWtgCe7wvDMr8EqNCVsuSjX6upBD7t8UZWTUzofvveYRSM3TZhsrpSt4xqil&amp;id=100089757903281&amp;mibextid=qC1gEa&amp;paipv=0&amp;eav=AfbDMuHJ7NKjLHtz9UtMAkZLshZ4OlpknZ0AMkW1Is_RjsrImBqtY06xcZeTaF3WOjY&amp;_rdr</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14563,13 +14612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X267"/>
+  <dimension ref="A1:X268"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W72" sqref="W72"/>
+      <selection pane="bottomRight" activeCell="I257" sqref="I257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -28890,92 +28939,90 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="14.25" customHeight="1">
+    <row r="253" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>10</v>
+        <v>2887</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1818</v>
+        <v>2883</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>161</v>
+        <v>2243</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>2889</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>162</v>
+        <v>2890</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G253" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H253" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
+        <v>2891</v>
+      </c>
+      <c r="G253" s="27" t="s">
+        <v>2885</v>
+      </c>
+      <c r="H253" s="27" t="s">
+        <v>2884</v>
+      </c>
+      <c r="I253" s="10" t="s">
+        <v>2892</v>
+      </c>
+      <c r="J253" s="10"/>
+      <c r="K253" s="10" t="s">
+        <v>2893</v>
+      </c>
+      <c r="L253" s="10"/>
       <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
-      <c r="P253" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q253" s="3" t="s">
-        <v>166</v>
+      <c r="N253" s="10" t="s">
+        <v>2894</v>
+      </c>
+      <c r="O253" s="10"/>
+      <c r="P253" s="10" t="s">
+        <v>2895</v>
+      </c>
+      <c r="Q253" s="10" t="s">
+        <v>2886</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="T253" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U253" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V253" s="3">
-        <v>3.7</v>
-      </c>
+        <v>1788</v>
+      </c>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
       <c r="W253" s="3"/>
-      <c r="X253" s="3" t="s">
-        <v>168</v>
+      <c r="X253" s="10" t="s">
+        <v>2888</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="20" customHeight="1">
+    <row r="254" spans="1:24" ht="14.25" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1491</v>
+        <v>1818</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I254" s="3"/>
+        <v>1683</v>
+      </c>
+      <c r="I254" s="10"/>
       <c r="J254" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -28983,14 +29030,14 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="R254" s="3"/>
-      <c r="S254" s="18" t="s">
-        <v>159</v>
+      <c r="S254" s="3" t="s">
+        <v>1787</v>
       </c>
       <c r="T254" s="3" t="s">
         <v>167</v>
@@ -28999,41 +29046,41 @@
         <v>160</v>
       </c>
       <c r="V254" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="20" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -29041,13 +29088,13 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="R255" s="3"/>
-      <c r="S255" s="3" t="s">
+      <c r="S255" s="18" t="s">
         <v>159</v>
       </c>
       <c r="T255" s="3" t="s">
@@ -29057,41 +29104,41 @@
         <v>160</v>
       </c>
       <c r="V255" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="20" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -29099,10 +29146,10 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
@@ -29115,41 +29162,41 @@
         <v>160</v>
       </c>
       <c r="V256" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W256" s="3"/>
       <c r="X256" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>2534</v>
+        <v>14</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -29157,10 +29204,10 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R257" s="3"/>
       <c r="S257" s="3" t="s">
@@ -29173,41 +29220,41 @@
         <v>160</v>
       </c>
       <c r="V257" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W257" s="3"/>
       <c r="X257" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="20" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>15</v>
+        <v>2534</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -29215,10 +29262,10 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="R258" s="3"/>
       <c r="S258" s="3" t="s">
@@ -29231,41 +29278,41 @@
         <v>160</v>
       </c>
       <c r="V258" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W258" s="3"/>
       <c r="X258" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -29273,10 +29320,10 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R259" s="3"/>
       <c r="S259" s="3" t="s">
@@ -29289,41 +29336,41 @@
         <v>160</v>
       </c>
       <c r="V259" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
@@ -29331,10 +29378,10 @@
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
       <c r="P260" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q260" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="R260" s="3"/>
       <c r="S260" s="3" t="s">
@@ -29347,41 +29394,41 @@
         <v>160</v>
       </c>
       <c r="V260" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W260" s="3"/>
       <c r="X260" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="20" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -29389,10 +29436,10 @@
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
       <c r="P261" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="R261" s="3"/>
       <c r="S261" s="3" t="s">
@@ -29405,41 +29452,41 @@
         <v>160</v>
       </c>
       <c r="V261" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W261" s="3"/>
       <c r="X261" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
-      <c r="A262" s="36" t="s">
-        <v>2314</v>
+      <c r="A262" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I262" s="3"/>
       <c r="J262" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
@@ -29447,10 +29494,10 @@
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
       <c r="P262" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q262" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="R262" s="3"/>
       <c r="S262" s="3" t="s">
@@ -29463,41 +29510,41 @@
         <v>160</v>
       </c>
       <c r="V262" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W262" s="3"/>
       <c r="X262" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
-      <c r="A263" s="2" t="s">
-        <v>117</v>
+      <c r="A263" s="36" t="s">
+        <v>2314</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1982</v>
+        <v>1499</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>1079</v>
+        <v>237</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>1080</v>
+        <v>238</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>1081</v>
+        <v>239</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>1599</v>
+        <v>1682</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>1599</v>
+        <v>1682</v>
       </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3" t="s">
-        <v>1082</v>
+        <v>240</v>
       </c>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
@@ -29505,114 +29552,116 @@
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
       <c r="P263" s="3" t="s">
-        <v>1083</v>
+        <v>241</v>
       </c>
       <c r="Q263" s="3" t="s">
-        <v>1084</v>
+        <v>242</v>
       </c>
       <c r="R263" s="3"/>
       <c r="S263" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T263" s="3" t="s">
-        <v>1036</v>
+        <v>167</v>
       </c>
       <c r="U263" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="V263" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W263" s="3"/>
       <c r="X263" s="3" t="s">
-        <v>1085</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="1:24" ht="20" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B264" s="30" t="s">
-        <v>2154</v>
+        <v>117</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>1982</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D264" s="30" t="s">
-        <v>2155</v>
-      </c>
-      <c r="E264" s="30" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F264" s="30" t="s">
-        <v>178</v>
+        <v>351</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>1081</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>2158</v>
+        <v>1599</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>2159</v>
-      </c>
-      <c r="I264" s="38" t="s">
-        <v>2157</v>
-      </c>
-      <c r="J264" s="15"/>
-      <c r="K264" s="15"/>
-      <c r="L264" s="15"/>
-      <c r="M264" s="15"/>
-      <c r="N264" s="15"/>
-      <c r="O264" s="15"/>
-      <c r="P264" s="15"/>
-      <c r="Q264" s="38" t="s">
-        <v>2160</v>
-      </c>
-      <c r="R264" s="15"/>
+        <v>1599</v>
+      </c>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q264" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R264" s="3"/>
       <c r="S264" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T264" s="3" t="s">
-        <v>167</v>
+        <v>1036</v>
       </c>
       <c r="U264" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V264" s="44">
-        <v>4.8</v>
-      </c>
-      <c r="W264" s="15"/>
-      <c r="X264" s="38" t="s">
-        <v>2153</v>
+        <v>351</v>
+      </c>
+      <c r="V264" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W264" s="3"/>
+      <c r="X264" s="3" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="20" customHeight="1">
-      <c r="A265" s="30" t="s">
-        <v>2381</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>2382</v>
+      <c r="A265" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B265" s="30" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>2385</v>
+        <v>2155</v>
       </c>
       <c r="E265" s="30" t="s">
-        <v>2386</v>
+        <v>2156</v>
       </c>
       <c r="F265" s="30" t="s">
-        <v>2387</v>
+        <v>178</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>2375</v>
+        <v>2158</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>2378</v>
-      </c>
-      <c r="I265" s="15"/>
-      <c r="J265" s="38" t="s">
-        <v>2388</v>
-      </c>
+        <v>2159</v>
+      </c>
+      <c r="I265" s="38" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J265" s="15"/>
       <c r="K265" s="15"/>
       <c r="L265" s="15"/>
       <c r="M265" s="15"/>
@@ -29620,141 +29669,197 @@
       <c r="O265" s="15"/>
       <c r="P265" s="15"/>
       <c r="Q265" s="38" t="s">
-        <v>2389</v>
+        <v>2160</v>
       </c>
       <c r="R265" s="15"/>
       <c r="S265" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T265" s="15"/>
-      <c r="U265" s="15"/>
-      <c r="V265" s="43" t="s">
-        <v>2384</v>
+      <c r="T265" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U265" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V265" s="44">
+        <v>4.8</v>
       </c>
       <c r="W265" s="15"/>
       <c r="X265" s="38" t="s">
-        <v>2383</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="266" spans="1:24" ht="20" customHeight="1">
       <c r="A266" s="30" t="s">
-        <v>2392</v>
+        <v>2381</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>2231</v>
+        <v>2382</v>
       </c>
       <c r="D266" s="30" t="s">
-        <v>2393</v>
+        <v>2385</v>
       </c>
       <c r="E266" s="30" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="F266" s="30" t="s">
-        <v>2395</v>
+        <v>2387</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>2379</v>
-      </c>
-      <c r="I266" s="38" t="s">
-        <v>2397</v>
-      </c>
+        <v>2378</v>
+      </c>
+      <c r="I266" s="15"/>
       <c r="J266" s="38" t="s">
-        <v>2399</v>
+        <v>2388</v>
       </c>
       <c r="K266" s="15"/>
       <c r="L266" s="15"/>
       <c r="M266" s="15"/>
       <c r="N266" s="15"/>
-      <c r="O266" s="38" t="s">
-        <v>2398</v>
-      </c>
-      <c r="P266" s="38" t="s">
-        <v>2396</v>
-      </c>
+      <c r="O266" s="15"/>
+      <c r="P266" s="15"/>
       <c r="Q266" s="38" t="s">
-        <v>2400</v>
-      </c>
-      <c r="R266" s="38" t="s">
-        <v>2401</v>
-      </c>
+        <v>2389</v>
+      </c>
+      <c r="R266" s="15"/>
       <c r="S266" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T266" s="15"/>
       <c r="U266" s="15"/>
       <c r="V266" s="43" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="W266" s="15"/>
       <c r="X266" s="38" t="s">
-        <v>2391</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="20" customHeight="1">
-      <c r="A267" s="41" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B267" s="30" t="s">
-        <v>2374</v>
+      <c r="A267" s="30" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>2373</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>1832</v>
+        <v>2231</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>2403</v>
+        <v>2393</v>
       </c>
       <c r="E267" s="30" t="s">
-        <v>2404</v>
+        <v>2394</v>
       </c>
       <c r="F267" s="30" t="s">
-        <v>641</v>
+        <v>2395</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="I267" s="38" t="s">
-        <v>2407</v>
+        <v>2397</v>
       </c>
       <c r="J267" s="38" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="K267" s="15"/>
-      <c r="L267" s="38" t="s">
-        <v>2406</v>
-      </c>
+      <c r="L267" s="15"/>
       <c r="M267" s="15"/>
       <c r="N267" s="15"/>
-      <c r="O267" s="15"/>
+      <c r="O267" s="38" t="s">
+        <v>2398</v>
+      </c>
       <c r="P267" s="38" t="s">
-        <v>2408</v>
-      </c>
-      <c r="Q267" s="15"/>
-      <c r="R267" s="15"/>
+        <v>2396</v>
+      </c>
+      <c r="Q267" s="38" t="s">
+        <v>2400</v>
+      </c>
+      <c r="R267" s="38" t="s">
+        <v>2401</v>
+      </c>
       <c r="S267" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T267" s="15"/>
       <c r="U267" s="15"/>
       <c r="V267" s="43" t="s">
+        <v>2390</v>
+      </c>
+      <c r="W267" s="15"/>
+      <c r="X267" s="38" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" ht="20" customHeight="1">
+      <c r="A268" s="41" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B268" s="30" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D268" s="30" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E268" s="30" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F268" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H268" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I268" s="38" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J268" s="38" t="s">
+        <v>2405</v>
+      </c>
+      <c r="K268" s="15"/>
+      <c r="L268" s="38" t="s">
+        <v>2406</v>
+      </c>
+      <c r="M268" s="15"/>
+      <c r="N268" s="15"/>
+      <c r="O268" s="15"/>
+      <c r="P268" s="38" t="s">
+        <v>2408</v>
+      </c>
+      <c r="Q268" s="15"/>
+      <c r="R268" s="15"/>
+      <c r="S268" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="T268" s="15"/>
+      <c r="U268" s="15"/>
+      <c r="V268" s="43" t="s">
         <v>2384</v>
       </c>
-      <c r="W267" s="15"/>
-      <c r="X267" s="30" t="s">
+      <c r="W268" s="15"/>
+      <c r="X268" s="30" t="s">
         <v>2402</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X267">
-    <sortCondition ref="B2:B267"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X268">
+    <sortCondition ref="B2:B268"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -30116,9 +30221,9 @@
     <hyperlink ref="I64" r:id="rId351" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N64" r:id="rId352" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O64" r:id="rId353" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X264" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I264" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q264" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X265" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I265" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q265" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
     <hyperlink ref="X233" r:id="rId357" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
     <hyperlink ref="I233" r:id="rId358" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
     <hyperlink ref="Q233" r:id="rId359" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
@@ -30179,20 +30284,20 @@
     <hyperlink ref="L67" r:id="rId414" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N67" r:id="rId415" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q67" r:id="rId416" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X265" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J265" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q265" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X266" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P266" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I266" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O266" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J266" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q266" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R266" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J267" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L267" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I267" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P267" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X266" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J266" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q266" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X267" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P267" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I267" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O267" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J267" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q267" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R267" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J268" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L268" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I268" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P268" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
     <hyperlink ref="X239" r:id="rId431" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
     <hyperlink ref="N239" r:id="rId432" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
     <hyperlink ref="J239" r:id="rId433" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
@@ -30328,6 +30433,10 @@
     <hyperlink ref="J252" r:id="rId563" xr:uid="{D9261A27-86C0-B745-9A76-FC461E180CB5}"/>
     <hyperlink ref="X79" r:id="rId564" display="https://www.google.com/maps/place/%E6%A2%85%E6%A3%AE%E6%B2%99%E6%8B%89-%E5%81%A5%E5%BA%B7%E9%A4%90%E7%9B%92/@25.0484008,121.3827549,17z/data=!4m6!3m5!1s0x3442a756d8f1404b:0x8328288865a4b4e7!8m2!3d25.0481404!4d121.3825982!16s%2Fg%2F11y4474bdg?hl=zh-TW&amp;entry=ttu" xr:uid="{2B6EC541-E893-774D-A91D-0D35B9E6D1E2}"/>
     <hyperlink ref="N78" r:id="rId565" xr:uid="{6B57130E-5874-9E45-B529-EF4151A729F2}"/>
+    <hyperlink ref="I253" r:id="rId566" xr:uid="{D772F942-18CA-204F-B200-D1C0C948E486}"/>
+    <hyperlink ref="K253" r:id="rId567" xr:uid="{3C9CF091-1C0A-C648-8991-554A9183FD0A}"/>
+    <hyperlink ref="N253" r:id="rId568" display="https://www.ubereats.com/tw/store/%E6%9C%AC%E5%AE%AE%E9%A5%9E%E4%BA%86-%E6%B0%B4%E6%9E%9C%E5%84%AA%E6%A0%BC-%E7%87%89%E6%A2%A8-%E9%8A%80%E8%80%B3%E7%BE%B9-yogurt-and-chinese-sweet-soup/bHeZii2IXSCY6NqV404O5w?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{B4657D77-7B6C-A845-9F19-FA1A5AC960FC}"/>
+    <hyperlink ref="P253" r:id="rId569" xr:uid="{02DD55FA-D7D3-7B4A-A749-6AAB22413843}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -30347,7 +30456,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S255:S1048576 S1:S26 S29:S253</xm:sqref>
+          <xm:sqref>S256:S1048576 S1:S26 S29:S254</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341FFDCC-0BCE-6545-BCEC-B14D6C4927FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5BDB69-92F4-7049-8AB2-DA36C064536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="-27760" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14080" yWindow="-27740" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="2896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="2925">
   <si>
     <t>address</t>
   </si>
@@ -13124,6 +13124,113 @@
   </si>
   <si>
     <t>https://www.facebook.com/story.php?story_fbid=pfbid0ZqinZdWtgCe7wvDMr8EqNCVsuSjX6upBD7t8UZWTUzofvveYRSM3TZhsrpSt4xqil&amp;id=100089757903281&amp;mibextid=qC1gEa&amp;paipv=0&amp;eav=AfbDMuHJ7NKjLHtz9UtMAkZLshZ4OlpknZ0AMkW1Is_RjsrImBqtY06xcZeTaF3WOjY&amp;_rdr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9-110</t>
+  </si>
+  <si>
+    <t>A9-111</t>
+  </si>
+  <si>
+    <t>A9-112</t>
+  </si>
+  <si>
+    <t>RES-A9-110.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-111.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-112.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-110L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-111L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A9-112L.jpeg</t>
+  </si>
+  <si>
+    <t>早早來吃</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%97%A9%E6%97%A9%E4%BE%86%E5%90%83+Let's+Eat+Breakfast/@25.0726872,121.3642727,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a706fd4a15:0x28fa19c2e507b0cb!8m2!3d25.0726824!4d121.3668476!16s%2Fg%2F11q94f11c5?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段394巷5號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-1719</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:30 - 14:00 週日公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/breakfast.lets.eat/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>福豆食堂</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E7%A6%8F%E8%B1%86FOODOOR+%EF%BC%88%E4%B8%89%E4%BA%95%E6%9E%97%E5%8F%A3%E5%BA%97%EF%BC%89/@25.0720198,121.3612188,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a1f9580b37:0x811b2af3191378bb!8m2!3d25.0720198!4d121.3637937!16s%2Fg%2F11jqd8p5_4?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段303號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2606-9007</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 14:10, 16:45 - 20:10 週六日公休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/tw/store/%E7%A6%8F%E8%B1%86%E9%A3%9F%E5%A0%82foodoor/T2125CxxQ0SncsSUF3YAKw?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.ichefpos.com/store/6rKaR_-n/ordering</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/foodoorfoodoor/?igshid=1114jocui9ruu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>がんこ 莞固和食 Ganko</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E3%81%8C%E3%82%93%E3%81%93+%E8%8E%9E%E5%9B%BA%E5%92%8C%E9%A3%9F+Ganko+%E6%9E%97%E5%8F%A3%E6%9C%AC%E5%BA%97/@25.0892438,121.3807468,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a75cf4ab177f:0xae0f8f6b91decfe!8m2!3d25.0892438!4d121.3833217!16s%2Fg%2F11rwxj737m?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化二路二段518號1樓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2603-1360</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ganko.com.tw/linkou-menu/kyoto-kaiseki/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ganko.com.tw/</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14612,13 +14719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X268"/>
+  <dimension ref="A1:X271"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I257" sqref="I257"/>
+      <selection pane="bottomRight" activeCell="I258" sqref="I258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -28971,7 +29078,9 @@
       <c r="K253" s="10" t="s">
         <v>2893</v>
       </c>
-      <c r="L253" s="10"/>
+      <c r="L253" s="10" t="s">
+        <v>2910</v>
+      </c>
       <c r="M253" s="3"/>
       <c r="N253" s="10" t="s">
         <v>2894</v>
@@ -28995,208 +29104,186 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="14.25" customHeight="1">
+    <row r="254" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>10</v>
+        <v>2905</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1818</v>
+        <v>2896</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>161</v>
+        <v>2119</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>2907</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>162</v>
+        <v>2908</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G254" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H254" s="4" t="s">
-        <v>1683</v>
+        <v>2909</v>
+      </c>
+      <c r="G254" s="27" t="s">
+        <v>2899</v>
+      </c>
+      <c r="H254" s="27" t="s">
+        <v>2902</v>
       </c>
       <c r="I254" s="10"/>
-      <c r="J254" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
+      <c r="J254" s="10" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K254" s="10"/>
+      <c r="L254" s="10"/>
       <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q254" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="N254" s="10"/>
+      <c r="O254" s="10"/>
+      <c r="P254" s="10"/>
+      <c r="Q254" s="10"/>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="T254" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U254" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V254" s="3">
-        <v>3.7</v>
-      </c>
+        <v>1788</v>
+      </c>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
       <c r="W254" s="3"/>
-      <c r="X254" s="3" t="s">
-        <v>168</v>
+      <c r="X254" s="10" t="s">
+        <v>2906</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="20" customHeight="1">
+    <row r="255" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>12</v>
+        <v>2911</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1491</v>
+        <v>2897</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>176</v>
+        <v>2231</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>2913</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>177</v>
+        <v>2914</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G255" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H255" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
+        <v>2915</v>
+      </c>
+      <c r="G255" s="27" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H255" s="27" t="s">
+        <v>2903</v>
+      </c>
+      <c r="I255" s="10" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10" t="s">
+        <v>2918</v>
+      </c>
       <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-      <c r="O255" s="3"/>
-      <c r="P255" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q255" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="N255" s="10" t="s">
+        <v>2916</v>
+      </c>
+      <c r="O255" s="10"/>
+      <c r="P255" s="10" t="s">
+        <v>2917</v>
+      </c>
+      <c r="Q255" s="10"/>
       <c r="R255" s="3"/>
-      <c r="S255" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="T255" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U255" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V255" s="3">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="S255" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="T255" s="3"/>
+      <c r="U255" s="3"/>
+      <c r="V255" s="3"/>
       <c r="W255" s="3"/>
-      <c r="X255" s="3" t="s">
-        <v>182</v>
+      <c r="X255" s="10" t="s">
+        <v>2912</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="20" customHeight="1">
+    <row r="256" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>13</v>
+        <v>2919</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1492</v>
+        <v>2898</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>190</v>
+        <v>2283</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>2921</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>191</v>
+        <v>2922</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H256" s="4" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G256" s="27" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H256" s="27" t="s">
+        <v>2904</v>
+      </c>
+      <c r="I256" s="10" t="s">
+        <v>2924</v>
+      </c>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10"/>
+      <c r="L256" s="10"/>
       <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
-      <c r="O256" s="3"/>
-      <c r="P256" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q256" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="N256" s="10"/>
+      <c r="O256" s="10"/>
+      <c r="P256" s="10" t="s">
+        <v>2923</v>
+      </c>
+      <c r="Q256" s="10"/>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="T256" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U256" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V256" s="3">
-        <v>4</v>
-      </c>
+        <v>1788</v>
+      </c>
+      <c r="T256" s="3"/>
+      <c r="U256" s="3"/>
+      <c r="V256" s="3"/>
       <c r="W256" s="3"/>
-      <c r="X256" s="3" t="s">
-        <v>195</v>
+      <c r="X256" s="10" t="s">
+        <v>2920</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="20" customHeight="1">
+    <row r="257" spans="1:24" ht="14.25" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1493</v>
+        <v>1818</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I257" s="3"/>
+        <v>1683</v>
+      </c>
+      <c r="I257" s="10"/>
       <c r="J257" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -29204,14 +29291,14 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="R257" s="3"/>
       <c r="S257" s="3" t="s">
-        <v>159</v>
+        <v>1787</v>
       </c>
       <c r="T257" s="3" t="s">
         <v>167</v>
@@ -29220,41 +29307,41 @@
         <v>160</v>
       </c>
       <c r="V257" s="3">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="W257" s="3"/>
       <c r="X257" s="3" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="20" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>2534</v>
+        <v>12</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -29262,13 +29349,13 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="R258" s="3"/>
-      <c r="S258" s="3" t="s">
+      <c r="S258" s="18" t="s">
         <v>159</v>
       </c>
       <c r="T258" s="3" t="s">
@@ -29278,41 +29365,41 @@
         <v>160</v>
       </c>
       <c r="V258" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W258" s="3"/>
       <c r="X258" s="3" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="20" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -29320,10 +29407,10 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="R259" s="3"/>
       <c r="S259" s="3" t="s">
@@ -29336,41 +29423,41 @@
         <v>160</v>
       </c>
       <c r="V259" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
@@ -29378,10 +29465,10 @@
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
       <c r="P260" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="Q260" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="R260" s="3"/>
       <c r="S260" s="3" t="s">
@@ -29394,41 +29481,41 @@
         <v>160</v>
       </c>
       <c r="V260" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W260" s="3"/>
       <c r="X260" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="20" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>17</v>
+        <v>2534</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -29436,10 +29523,10 @@
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
       <c r="P261" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="R261" s="3"/>
       <c r="S261" s="3" t="s">
@@ -29452,41 +29539,41 @@
         <v>160</v>
       </c>
       <c r="V261" s="3">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="W261" s="3"/>
       <c r="X261" s="3" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="I262" s="3"/>
       <c r="J262" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
@@ -29494,10 +29581,10 @@
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
       <c r="P262" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="Q262" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="R262" s="3"/>
       <c r="S262" s="3" t="s">
@@ -29510,41 +29597,41 @@
         <v>160</v>
       </c>
       <c r="V262" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W262" s="3"/>
       <c r="X262" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
-      <c r="A263" s="36" t="s">
-        <v>2314</v>
+      <c r="A263" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
@@ -29552,10 +29639,10 @@
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
       <c r="P263" s="3" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="Q263" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="R263" s="3"/>
       <c r="S263" s="3" t="s">
@@ -29568,41 +29655,41 @@
         <v>160</v>
       </c>
       <c r="V263" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W263" s="3"/>
       <c r="X263" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="264" spans="1:24" ht="20" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1982</v>
+        <v>1497</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>1079</v>
+        <v>223</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>1080</v>
+        <v>224</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1081</v>
+        <v>225</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>1599</v>
+        <v>1680</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>1599</v>
+        <v>1680</v>
       </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3" t="s">
-        <v>1082</v>
+        <v>226</v>
       </c>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
@@ -29610,68 +29697,70 @@
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
       <c r="P264" s="3" t="s">
-        <v>1083</v>
+        <v>227</v>
       </c>
       <c r="Q264" s="3" t="s">
-        <v>1084</v>
+        <v>228</v>
       </c>
       <c r="R264" s="3"/>
       <c r="S264" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T264" s="3" t="s">
-        <v>1036</v>
+        <v>167</v>
       </c>
       <c r="U264" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="V264" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W264" s="3"/>
       <c r="X264" s="3" t="s">
-        <v>1085</v>
+        <v>229</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="20" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B265" s="30" t="s">
-        <v>2154</v>
+        <v>18</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>1498</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="30" t="s">
-        <v>2155</v>
-      </c>
-      <c r="E265" s="30" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F265" s="30" t="s">
-        <v>178</v>
+      <c r="D265" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>2158</v>
+        <v>1681</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>2159</v>
-      </c>
-      <c r="I265" s="38" t="s">
-        <v>2157</v>
-      </c>
-      <c r="J265" s="15"/>
-      <c r="K265" s="15"/>
-      <c r="L265" s="15"/>
-      <c r="M265" s="15"/>
-      <c r="N265" s="15"/>
-      <c r="O265" s="15"/>
-      <c r="P265" s="15"/>
-      <c r="Q265" s="38" t="s">
-        <v>2160</v>
-      </c>
-      <c r="R265" s="15"/>
+        <v>1681</v>
+      </c>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q265" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="R265" s="3"/>
       <c r="S265" s="3" t="s">
         <v>159</v>
       </c>
@@ -29681,185 +29770,357 @@
       <c r="U265" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V265" s="44">
-        <v>4.8</v>
-      </c>
-      <c r="W265" s="15"/>
-      <c r="X265" s="38" t="s">
-        <v>2153</v>
+      <c r="V265" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W265" s="3"/>
+      <c r="X265" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="266" spans="1:24" ht="20" customHeight="1">
-      <c r="A266" s="30" t="s">
-        <v>2381</v>
+      <c r="A266" s="36" t="s">
+        <v>2314</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C266" s="15" t="s">
-        <v>2382</v>
-      </c>
-      <c r="D266" s="30" t="s">
-        <v>2385</v>
-      </c>
-      <c r="E266" s="30" t="s">
-        <v>2386</v>
-      </c>
-      <c r="F266" s="30" t="s">
-        <v>2387</v>
+        <v>1499</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>2375</v>
+        <v>1682</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>2378</v>
-      </c>
-      <c r="I266" s="15"/>
-      <c r="J266" s="38" t="s">
-        <v>2388</v>
-      </c>
-      <c r="K266" s="15"/>
-      <c r="L266" s="15"/>
-      <c r="M266" s="15"/>
-      <c r="N266" s="15"/>
-      <c r="O266" s="15"/>
-      <c r="P266" s="15"/>
-      <c r="Q266" s="38" t="s">
-        <v>2389</v>
-      </c>
-      <c r="R266" s="15"/>
+        <v>1682</v>
+      </c>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q266" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="R266" s="3"/>
       <c r="S266" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T266" s="15"/>
-      <c r="U266" s="15"/>
-      <c r="V266" s="43" t="s">
-        <v>2384</v>
-      </c>
-      <c r="W266" s="15"/>
-      <c r="X266" s="38" t="s">
-        <v>2383</v>
+      <c r="T266" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U266" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V266" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="W266" s="3"/>
+      <c r="X266" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="20" customHeight="1">
-      <c r="A267" s="30" t="s">
-        <v>2392</v>
+      <c r="A267" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>2231</v>
-      </c>
-      <c r="D267" s="30" t="s">
-        <v>2393</v>
-      </c>
-      <c r="E267" s="30" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F267" s="30" t="s">
-        <v>2395</v>
+        <v>1982</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>1081</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>2376</v>
+        <v>1599</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>2379</v>
-      </c>
-      <c r="I267" s="38" t="s">
-        <v>2397</v>
-      </c>
-      <c r="J267" s="38" t="s">
-        <v>2399</v>
-      </c>
-      <c r="K267" s="15"/>
-      <c r="L267" s="15"/>
-      <c r="M267" s="15"/>
-      <c r="N267" s="15"/>
-      <c r="O267" s="38" t="s">
-        <v>2398</v>
-      </c>
-      <c r="P267" s="38" t="s">
-        <v>2396</v>
-      </c>
-      <c r="Q267" s="38" t="s">
-        <v>2400</v>
-      </c>
-      <c r="R267" s="38" t="s">
-        <v>2401</v>
-      </c>
+        <v>1599</v>
+      </c>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+      <c r="P267" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q267" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R267" s="3"/>
       <c r="S267" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T267" s="15"/>
-      <c r="U267" s="15"/>
-      <c r="V267" s="43" t="s">
-        <v>2390</v>
-      </c>
-      <c r="W267" s="15"/>
-      <c r="X267" s="38" t="s">
-        <v>2391</v>
+      <c r="T267" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="U267" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="V267" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W267" s="3"/>
+      <c r="X267" s="3" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="20" customHeight="1">
-      <c r="A268" s="41" t="s">
-        <v>2409</v>
+      <c r="A268" s="2" t="s">
+        <v>2152</v>
       </c>
       <c r="B268" s="30" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C268" s="15" t="s">
-        <v>1832</v>
+        <v>2154</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>2403</v>
+        <v>2155</v>
       </c>
       <c r="E268" s="30" t="s">
-        <v>2404</v>
+        <v>2156</v>
       </c>
       <c r="F268" s="30" t="s">
-        <v>641</v>
+        <v>178</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>2377</v>
+        <v>2158</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>2380</v>
+        <v>2159</v>
       </c>
       <c r="I268" s="38" t="s">
-        <v>2407</v>
-      </c>
-      <c r="J268" s="38" t="s">
-        <v>2405</v>
-      </c>
+        <v>2157</v>
+      </c>
+      <c r="J268" s="15"/>
       <c r="K268" s="15"/>
-      <c r="L268" s="38" t="s">
-        <v>2406</v>
-      </c>
+      <c r="L268" s="15"/>
       <c r="M268" s="15"/>
       <c r="N268" s="15"/>
       <c r="O268" s="15"/>
-      <c r="P268" s="38" t="s">
-        <v>2408</v>
-      </c>
-      <c r="Q268" s="15"/>
+      <c r="P268" s="15"/>
+      <c r="Q268" s="38" t="s">
+        <v>2160</v>
+      </c>
       <c r="R268" s="15"/>
       <c r="S268" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T268" s="15"/>
-      <c r="U268" s="15"/>
-      <c r="V268" s="43" t="s">
+      <c r="T268" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U268" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V268" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="W268" s="15"/>
+      <c r="X268" s="38" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" ht="20" customHeight="1">
+      <c r="A269" s="30" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D269" s="30" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E269" s="30" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F269" s="30" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H269" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="I269" s="15"/>
+      <c r="J269" s="38" t="s">
+        <v>2388</v>
+      </c>
+      <c r="K269" s="15"/>
+      <c r="L269" s="15"/>
+      <c r="M269" s="15"/>
+      <c r="N269" s="15"/>
+      <c r="O269" s="15"/>
+      <c r="P269" s="15"/>
+      <c r="Q269" s="38" t="s">
+        <v>2389</v>
+      </c>
+      <c r="R269" s="15"/>
+      <c r="S269" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="T269" s="15"/>
+      <c r="U269" s="15"/>
+      <c r="V269" s="43" t="s">
         <v>2384</v>
       </c>
-      <c r="W268" s="15"/>
-      <c r="X268" s="30" t="s">
+      <c r="W269" s="15"/>
+      <c r="X269" s="38" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" ht="20" customHeight="1">
+      <c r="A270" s="30" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D270" s="30" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E270" s="30" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F270" s="30" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H270" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="I270" s="38" t="s">
+        <v>2397</v>
+      </c>
+      <c r="J270" s="38" t="s">
+        <v>2399</v>
+      </c>
+      <c r="K270" s="15"/>
+      <c r="L270" s="15"/>
+      <c r="M270" s="15"/>
+      <c r="N270" s="15"/>
+      <c r="O270" s="38" t="s">
+        <v>2398</v>
+      </c>
+      <c r="P270" s="38" t="s">
+        <v>2396</v>
+      </c>
+      <c r="Q270" s="38" t="s">
+        <v>2400</v>
+      </c>
+      <c r="R270" s="38" t="s">
+        <v>2401</v>
+      </c>
+      <c r="S270" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="T270" s="15"/>
+      <c r="U270" s="15"/>
+      <c r="V270" s="43" t="s">
+        <v>2390</v>
+      </c>
+      <c r="W270" s="15"/>
+      <c r="X270" s="38" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" ht="20" customHeight="1">
+      <c r="A271" s="41" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B271" s="30" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D271" s="30" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E271" s="30" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F271" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H271" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I271" s="38" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J271" s="38" t="s">
+        <v>2405</v>
+      </c>
+      <c r="K271" s="15"/>
+      <c r="L271" s="38" t="s">
+        <v>2406</v>
+      </c>
+      <c r="M271" s="15"/>
+      <c r="N271" s="15"/>
+      <c r="O271" s="15"/>
+      <c r="P271" s="38" t="s">
+        <v>2408</v>
+      </c>
+      <c r="Q271" s="15"/>
+      <c r="R271" s="15"/>
+      <c r="S271" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="T271" s="15"/>
+      <c r="U271" s="15"/>
+      <c r="V271" s="43" t="s">
+        <v>2384</v>
+      </c>
+      <c r="W271" s="15"/>
+      <c r="X271" s="30" t="s">
         <v>2402</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X268">
-    <sortCondition ref="B2:B268"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X271">
+    <sortCondition ref="B2:B271"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -30221,9 +30482,9 @@
     <hyperlink ref="I64" r:id="rId351" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N64" r:id="rId352" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O64" r:id="rId353" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X265" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I265" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q265" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X268" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I268" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q268" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
     <hyperlink ref="X233" r:id="rId357" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
     <hyperlink ref="I233" r:id="rId358" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
     <hyperlink ref="Q233" r:id="rId359" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
@@ -30284,20 +30545,20 @@
     <hyperlink ref="L67" r:id="rId414" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N67" r:id="rId415" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q67" r:id="rId416" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X266" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J266" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q266" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X267" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P267" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I267" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O267" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J267" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q267" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R267" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J268" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L268" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I268" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P268" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X269" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J269" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q269" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X270" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P270" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I270" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O270" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J270" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q270" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R270" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J271" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L271" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I271" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P271" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
     <hyperlink ref="X239" r:id="rId431" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
     <hyperlink ref="N239" r:id="rId432" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
     <hyperlink ref="J239" r:id="rId433" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
@@ -30437,6 +30698,16 @@
     <hyperlink ref="K253" r:id="rId567" xr:uid="{3C9CF091-1C0A-C648-8991-554A9183FD0A}"/>
     <hyperlink ref="N253" r:id="rId568" display="https://www.ubereats.com/tw/store/%E6%9C%AC%E5%AE%AE%E9%A5%9E%E4%BA%86-%E6%B0%B4%E6%9E%9C%E5%84%AA%E6%A0%BC-%E7%87%89%E6%A2%A8-%E9%8A%80%E8%80%B3%E7%BE%B9-yogurt-and-chinese-sweet-soup/bHeZii2IXSCY6NqV404O5w?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{B4657D77-7B6C-A845-9F19-FA1A5AC960FC}"/>
     <hyperlink ref="P253" r:id="rId569" xr:uid="{02DD55FA-D7D3-7B4A-A749-6AAB22413843}"/>
+    <hyperlink ref="X254" r:id="rId570" xr:uid="{1ABBA3BF-CDB9-7140-93E0-4C213FDF2B5E}"/>
+    <hyperlink ref="J254" r:id="rId571" xr:uid="{E3CC9D77-1343-0D47-BF57-D233A680A25D}"/>
+    <hyperlink ref="L253" r:id="rId572" xr:uid="{B8FCFF43-4067-2943-B7EB-2EB382F7A2C8}"/>
+    <hyperlink ref="X255" r:id="rId573" display="https://www.google.com/maps/place/%E7%A6%8F%E8%B1%86FOODOOR+%EF%BC%88%E4%B8%89%E4%BA%95%E6%9E%97%E5%8F%A3%E5%BA%97%EF%BC%89/@25.0720198,121.3612188,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a1f9580b37:0x811b2af3191378bb!8m2!3d25.0720198!4d121.3637937!16s%2Fg%2F11jqd8p5_4?hl=zh-TW&amp;entry=ttu" xr:uid="{BAC41D49-9BEC-0143-BB0E-A34208509EFD}"/>
+    <hyperlink ref="N255" r:id="rId574" xr:uid="{76453D30-4759-3949-931D-9AB9A798C3D0}"/>
+    <hyperlink ref="I255" r:id="rId575" xr:uid="{212E191D-2E18-AE43-986F-66FEB0BA491A}"/>
+    <hyperlink ref="P255" r:id="rId576" xr:uid="{F7B46F9A-2379-A441-B96E-63948F7DB00C}"/>
+    <hyperlink ref="L255" r:id="rId577" xr:uid="{EA43B283-778D-D548-8113-6077E9DB2D23}"/>
+    <hyperlink ref="I256" r:id="rId578" xr:uid="{D8C7FDAD-EE49-E64E-97A5-9F7A8EDFAB4C}"/>
+    <hyperlink ref="P256" r:id="rId579" xr:uid="{B65F3B13-1AC1-A44D-A762-FAFAABF90998}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -30456,7 +30727,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S256:S1048576 S1:S26 S29:S254</xm:sqref>
+          <xm:sqref>S259:S1048576 S1:S26 S29:S257</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E977808-1F86-C343-A96E-7BC7AD60A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C11E3A-4237-AF4B-9833-5BFFD4B26814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="-26560" windowWidth="31040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="2935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="2945">
   <si>
     <t>address</t>
   </si>
@@ -13269,6 +13269,44 @@
   </si>
   <si>
     <t>桃園市龜山區文化二路34巷6號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8-084</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ABV Bar &amp; Kitchen 日式居酒館 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/ABV+Bar+%26+Kitchen+%E6%97%A5%E5%BC%8F%E5%B1%85%E9%85%92%E9%A4%A8+%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97+%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F+%E6%9E%97%E5%8F%A3%E5%AE%B5%E5%A4%9C+%E6%9E%97%E5%8F%A3%E5%B1%85%E9%85%92%E5%B1%8B%EF%BD%9C%E5%A4%A7%E9%98%AA%E7%87%92%EF%BD%9C%E5%BB%A3%E5%B3%B6%E7%87%92%EF%BD%9C%E7%A8%BB%E8%8D%89%E7%87%92%EF%BD%9C%E4%B8%B2%E7%87%92%EF%BD%9C%E8%81%9A%E9%A4%90%E7%B2%BE%E9%87%80%E5%95%A4+%E9%85%92/@25.0589024,121.3671177,17z/data=!4m6!3m5!1s0x3442a7f244f3bf6d:0xefbf2fd466cdb44c!8m2!3d25.0587146!4d121.3672706!16s%2Fg%2F11vlq80cm0?entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-A8-084L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A8-084.jpeg</t>
+  </si>
+  <si>
+    <t>桃園市龜山區復興一路130之1號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-9560</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00 - 02:00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.abv.com.tw/japanese-cuisine/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inline.app/get-printed-menus?cid=-NCOScu5ndn8EshQGQs-:inline-live-1&amp;bid=-NkIdqQhrGujrWRL58zc</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14757,13 +14795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X272"/>
+  <dimension ref="A1:X273"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T80" sqref="T80"/>
+      <selection pane="bottomRight" activeCell="O159" sqref="O159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -23434,105 +23472,97 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="15" customHeight="1">
-      <c r="A157" s="2" t="s">
-        <v>11</v>
+    <row r="157" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A157" s="36" t="s">
+        <v>2936</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1419</v>
+        <v>2935</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>160</v>
+        <v>2469</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>169</v>
+        <v>2940</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>170</v>
+        <v>2941</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>171</v>
+        <v>2942</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1600</v>
+        <v>2939</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1600</v>
+        <v>2938</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
-      <c r="N157" s="3"/>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q157" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>2943</v>
+      </c>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10" t="s">
+        <v>2944</v>
+      </c>
+      <c r="Q157" s="10"/>
       <c r="R157" s="3"/>
       <c r="S157" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="T157" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U157" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="10" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="15" customHeight="1">
+      <c r="A158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V157" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A158" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="D158" s="3" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J158" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="R158" s="3"/>
       <c r="S158" s="3" t="s">
@@ -23542,57 +23572,55 @@
         <v>167</v>
       </c>
       <c r="U158" s="3" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="V158" s="3">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W158" s="3"/>
       <c r="X158" s="3" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="14.25" customHeight="1">
+    <row r="159" spans="1:24" ht="17.25" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K159" s="10" t="s">
-        <v>1911</v>
-      </c>
+        <v>1601</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
       <c r="P159" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="R159" s="3"/>
       <c r="S159" s="3" t="s">
@@ -23605,101 +23633,101 @@
         <v>250</v>
       </c>
       <c r="V159" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W159" s="3"/>
       <c r="X159" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="14.25" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K160" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>1911</v>
+      </c>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
       <c r="P160" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="R160" s="3"/>
       <c r="S160" s="3" t="s">
         <v>1313</v>
       </c>
       <c r="T160" s="3" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="U160" s="3" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="V160" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W160" s="3"/>
       <c r="X160" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="14.25" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J161" s="21" t="s">
-        <v>1945</v>
+        <v>1603</v>
+      </c>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -23707,10 +23735,10 @@
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="R161" s="3"/>
       <c r="S161" s="3" t="s">
@@ -23723,41 +23751,43 @@
         <v>276</v>
       </c>
       <c r="V161" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="14.25" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3" t="s">
-        <v>288</v>
+        <v>1604</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J162" s="21" t="s">
+        <v>1945</v>
       </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -23765,10 +23795,10 @@
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="R162" s="3"/>
       <c r="S162" s="3" t="s">
@@ -23781,43 +23811,41 @@
         <v>276</v>
       </c>
       <c r="V162" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W162" s="3"/>
       <c r="X162" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="14.25" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I163" s="10" t="s">
-        <v>1956</v>
-      </c>
+        <v>1605</v>
+      </c>
+      <c r="I163" s="3"/>
       <c r="J163" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -23825,59 +23853,59 @@
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
       <c r="P163" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="R163" s="3"/>
       <c r="S163" s="3" t="s">
         <v>1313</v>
       </c>
       <c r="T163" s="3" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="U163" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="V163" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W163" s="3"/>
       <c r="X163" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A164" s="36" t="s">
-        <v>2319</v>
+      <c r="A164" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>1924</v>
+        <v>1956</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -23885,10 +23913,10 @@
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
       <c r="P164" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="R164" s="3"/>
       <c r="S164" s="3" t="s">
@@ -23905,15 +23933,15 @@
       </c>
       <c r="W164" s="3"/>
       <c r="X164" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="14.25" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>2303</v>
+        <v>2319</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>252</v>
@@ -23922,20 +23950,22 @@
         <v>300</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I165" s="3"/>
+        <v>1607</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>1924</v>
+      </c>
       <c r="J165" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
@@ -23943,10 +23973,10 @@
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
       <c r="P165" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="R165" s="3"/>
       <c r="S165" s="3" t="s">
@@ -23959,43 +23989,41 @@
         <v>298</v>
       </c>
       <c r="V165" s="3">
-        <v>3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W165" s="3"/>
       <c r="X165" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A166" s="2" t="s">
-        <v>26</v>
+      <c r="A166" s="36" t="s">
+        <v>2303</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I166" s="10" t="s">
-        <v>1910</v>
-      </c>
+        <v>1608</v>
+      </c>
+      <c r="I166" s="3"/>
       <c r="J166" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
@@ -24003,10 +24031,10 @@
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
       <c r="P166" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="R166" s="3"/>
       <c r="S166" s="3" t="s">
@@ -24019,43 +24047,43 @@
         <v>298</v>
       </c>
       <c r="V166" s="3">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="W166" s="3"/>
       <c r="X166" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="14.25" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>1964</v>
+        <v>1609</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>1910</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
@@ -24063,10 +24091,10 @@
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
       <c r="P167" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="R167" s="3"/>
       <c r="S167" s="3" t="s">
@@ -24076,61 +24104,57 @@
         <v>297</v>
       </c>
       <c r="U167" s="3" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="V167" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="W167" s="3"/>
       <c r="X167" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A168" s="37" t="s">
-        <v>2297</v>
+      <c r="A168" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>328</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I168" s="10" t="s">
-        <v>1920</v>
+        <v>1610</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>1964</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
-      <c r="N168" s="10" t="s">
-        <v>1921</v>
-      </c>
-      <c r="O168" s="10" t="s">
-        <v>1922</v>
-      </c>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
       <c r="P168" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="R168" s="3"/>
       <c r="S168" s="3" t="s">
@@ -24143,60 +24167,60 @@
         <v>328</v>
       </c>
       <c r="V168" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="W168" s="3"/>
       <c r="X168" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="15" customHeight="1">
-      <c r="A169" s="2" t="s">
-        <v>28</v>
+    <row r="169" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A169" s="37" t="s">
+        <v>2297</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>1856</v>
+        <v>328</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>2536</v>
+        <v>1611</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>1969</v>
+        <v>1920</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="10" t="s">
-        <v>1970</v>
-      </c>
-      <c r="O169" s="3"/>
+        <v>1921</v>
+      </c>
+      <c r="O169" s="10" t="s">
+        <v>1922</v>
+      </c>
       <c r="P169" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="R169" s="10" t="s">
-        <v>2535</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="R169" s="3"/>
       <c r="S169" s="3" t="s">
         <v>1313</v>
       </c>
@@ -24204,59 +24228,63 @@
         <v>297</v>
       </c>
       <c r="U169" s="3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="V169" s="3">
         <v>4.3</v>
       </c>
       <c r="W169" s="3"/>
       <c r="X169" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="14.25" customHeight="1">
+    <row r="170" spans="1:24" ht="15" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1856</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>1613</v>
+        <v>2536</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>1957</v>
+        <v>1969</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
+      <c r="N170" s="10" t="s">
+        <v>1970</v>
+      </c>
       <c r="O170" s="3"/>
       <c r="P170" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="R170" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="R170" s="10" t="s">
+        <v>2535</v>
+      </c>
       <c r="S170" s="3" t="s">
         <v>1313</v>
       </c>
@@ -24271,52 +24299,50 @@
       </c>
       <c r="W170" s="3"/>
       <c r="X170" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A171" s="36" t="s">
-        <v>2318</v>
+      <c r="A171" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>657</v>
+        <v>1856</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I171" s="10" t="s">
-        <v>1925</v>
+        <v>1957</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
-      <c r="O171" s="10" t="s">
-        <v>1926</v>
-      </c>
+      <c r="O171" s="3"/>
       <c r="P171" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="R171" s="3"/>
       <c r="S171" s="3" t="s">
@@ -24326,57 +24352,59 @@
         <v>297</v>
       </c>
       <c r="U171" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="V171" s="3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="W171" s="3"/>
       <c r="X171" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A172" s="2" t="s">
-        <v>31</v>
+      <c r="A172" s="36" t="s">
+        <v>2318</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>252</v>
+        <v>657</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>1907</v>
+        <v>1925</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
-      <c r="O172" s="3"/>
+      <c r="O172" s="10" t="s">
+        <v>1926</v>
+      </c>
       <c r="P172" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="R172" s="3"/>
       <c r="S172" s="3" t="s">
@@ -24386,46 +24414,46 @@
         <v>297</v>
       </c>
       <c r="U172" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="V172" s="3">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="W172" s="3"/>
       <c r="X172" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="14.25" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>1944</v>
+        <v>1907</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -24433,10 +24461,10 @@
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="R173" s="3"/>
       <c r="S173" s="3" t="s">
@@ -24446,44 +24474,46 @@
         <v>297</v>
       </c>
       <c r="U173" s="3" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="V173" s="3">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="W173" s="3"/>
       <c r="X173" s="3" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="14.25" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>380</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I174" s="3"/>
+        <v>1617</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>1944</v>
+      </c>
       <c r="J174" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
@@ -24491,10 +24521,10 @@
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="R174" s="3"/>
       <c r="S174" s="3" t="s">
@@ -24507,56 +24537,52 @@
         <v>336</v>
       </c>
       <c r="V174" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W174" s="3"/>
       <c r="X174" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="24.25" customHeight="1">
-      <c r="A175" s="37" t="s">
-        <v>2298</v>
+    <row r="175" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A175" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>380</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I175" s="10" t="s">
-        <v>1908</v>
-      </c>
-      <c r="J175" s="18" t="s">
-        <v>404</v>
+        <v>1618</v>
+      </c>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
-      <c r="N175" s="10" t="s">
-        <v>1909</v>
-      </c>
+      <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="R175" s="3"/>
       <c r="S175" s="3" t="s">
@@ -24569,52 +24595,56 @@
         <v>336</v>
       </c>
       <c r="V175" s="3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="W175" s="3"/>
       <c r="X175" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A176" s="2" t="s">
-        <v>34</v>
+    <row r="176" spans="1:24" ht="24.25" customHeight="1">
+      <c r="A176" s="37" t="s">
+        <v>2298</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>1685</v>
+        <v>1437</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3" t="s">
-        <v>411</v>
+        <v>1619</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J176" s="18" t="s">
+        <v>404</v>
       </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
+      <c r="N176" s="10" t="s">
+        <v>1909</v>
+      </c>
       <c r="O176" s="3"/>
       <c r="P176" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="R176" s="3"/>
       <c r="S176" s="3" t="s">
@@ -24624,46 +24654,44 @@
         <v>297</v>
       </c>
       <c r="U176" s="3" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="V176" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W176" s="3"/>
       <c r="X176" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="14.25" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>252</v>
+        <v>1438</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>1685</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I177" s="10" t="s">
-        <v>1978</v>
-      </c>
+        <v>1620</v>
+      </c>
+      <c r="I177" s="3"/>
       <c r="J177" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
@@ -24671,59 +24699,59 @@
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="R177" s="3"/>
       <c r="S177" s="3" t="s">
         <v>1313</v>
       </c>
       <c r="T177" s="3" t="s">
-        <v>422</v>
+        <v>297</v>
       </c>
       <c r="U177" s="3" t="s">
-        <v>298</v>
+        <v>414</v>
       </c>
       <c r="V177" s="3">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W177" s="3"/>
       <c r="X177" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="14.25" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>192</v>
+        <v>418</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>1968</v>
+        <v>1978</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -24731,10 +24759,10 @@
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
       <c r="P178" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="R178" s="3"/>
       <c r="S178" s="3" t="s">
@@ -24751,52 +24779,50 @@
       </c>
       <c r="W178" s="3"/>
       <c r="X178" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="14.25" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>433</v>
+        <v>192</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I179" s="3"/>
+        <v>1622</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>1968</v>
+      </c>
       <c r="J179" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
-      <c r="N179" s="10" t="s">
-        <v>1954</v>
-      </c>
-      <c r="O179" s="10" t="s">
-        <v>1955</v>
-      </c>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
       <c r="P179" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="R179" s="3"/>
       <c r="S179" s="3" t="s">
@@ -24809,52 +24835,56 @@
         <v>298</v>
       </c>
       <c r="V179" s="3">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="W179" s="3"/>
       <c r="X179" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="17.25" customHeight="1">
+    <row r="180" spans="1:24" ht="14.25" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I180" s="3"/>
-      <c r="J180" s="10" t="s">
-        <v>2244</v>
+      <c r="J180" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="10" t="s">
-        <v>442</v>
+      <c r="N180" s="10" t="s">
+        <v>1954</v>
+      </c>
+      <c r="O180" s="10" t="s">
+        <v>1955</v>
+      </c>
+      <c r="P180" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3" t="s">
@@ -24867,52 +24897,52 @@
         <v>298</v>
       </c>
       <c r="V180" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="W180" s="3"/>
       <c r="X180" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="17.25" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I181" s="3"/>
-      <c r="J181" s="3" t="s">
-        <v>448</v>
+      <c r="J181" s="10" t="s">
+        <v>2244</v>
       </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
-      <c r="P181" s="3" t="s">
-        <v>449</v>
+      <c r="P181" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="R181" s="3"/>
       <c r="S181" s="3" t="s">
@@ -24925,56 +24955,52 @@
         <v>298</v>
       </c>
       <c r="V181" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W181" s="3"/>
       <c r="X181" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="14.25" customHeight="1">
+    <row r="182" spans="1:24" ht="17.25" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>192</v>
+        <v>447</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I182" s="10" t="s">
-        <v>1941</v>
-      </c>
+        <v>1625</v>
+      </c>
+      <c r="I182" s="3"/>
       <c r="J182" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
-      <c r="O182" s="10" t="s">
-        <v>1942</v>
-      </c>
+      <c r="O182" s="3"/>
       <c r="P182" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="R182" s="3"/>
       <c r="S182" s="3" t="s">
@@ -24987,54 +25013,56 @@
         <v>298</v>
       </c>
       <c r="V182" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W182" s="3"/>
       <c r="X182" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="14.25" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>300</v>
+        <v>452</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>460</v>
+        <v>192</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="J183" s="3"/>
+        <v>1941</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>454</v>
+      </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
-      <c r="N183" s="10" t="s">
-        <v>1927</v>
-      </c>
-      <c r="O183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="10" t="s">
+        <v>1942</v>
+      </c>
       <c r="P183" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="R183" s="3"/>
       <c r="S183" s="3" t="s">
@@ -25047,52 +25075,54 @@
         <v>298</v>
       </c>
       <c r="V183" s="3">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="W183" s="3"/>
       <c r="X183" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="14.25" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>465</v>
+        <v>300</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>1913</v>
+        <v>461</v>
       </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
+      <c r="N184" s="10" t="s">
+        <v>1927</v>
+      </c>
       <c r="O184" s="3"/>
       <c r="P184" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="R184" s="3"/>
       <c r="S184" s="3" t="s">
@@ -25109,50 +25139,48 @@
       </c>
       <c r="W184" s="3"/>
       <c r="X184" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="20" customHeight="1">
+    <row r="185" spans="1:24" ht="14.25" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3" t="s">
-        <v>474</v>
-      </c>
+        <v>1628</v>
+      </c>
+      <c r="I185" s="10" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
-      <c r="N185" s="10" t="s">
-        <v>1912</v>
-      </c>
+      <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q185" s="18" t="s">
-        <v>476</v>
+        <v>468</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="R185" s="3"/>
       <c r="S185" s="3" t="s">
@@ -25165,52 +25193,54 @@
         <v>298</v>
       </c>
       <c r="V185" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="20" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="J186" s="17"/>
+        <v>1629</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
-      <c r="N186" s="3"/>
+      <c r="N186" s="10" t="s">
+        <v>1912</v>
+      </c>
       <c r="O186" s="3"/>
       <c r="P186" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q186" s="3" t="s">
-        <v>483</v>
+        <v>475</v>
+      </c>
+      <c r="Q186" s="18" t="s">
+        <v>476</v>
       </c>
       <c r="R186" s="3"/>
       <c r="S186" s="3" t="s">
@@ -25227,52 +25257,50 @@
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="20" customHeight="1">
-      <c r="A187" s="36" t="s">
-        <v>2299</v>
+      <c r="A187" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3" t="s">
-        <v>488</v>
-      </c>
+        <v>1630</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J187" s="17"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q187" s="21" t="s">
-        <v>1899</v>
-      </c>
-      <c r="R187" s="3" t="s">
-        <v>490</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="Q187" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="R187" s="3"/>
       <c r="S187" s="3" t="s">
         <v>1313</v>
       </c>
@@ -25283,60 +25311,56 @@
         <v>298</v>
       </c>
       <c r="V187" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="20" customHeight="1">
-      <c r="A188" s="2" t="s">
-        <v>45</v>
+      <c r="A188" s="36" t="s">
+        <v>2299</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I188" s="10" t="s">
-        <v>1902</v>
-      </c>
+        <v>1631</v>
+      </c>
+      <c r="I188" s="3"/>
       <c r="J188" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
-      <c r="N188" s="10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="O188" s="10" t="s">
-        <v>1901</v>
-      </c>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
       <c r="P188" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q188" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="R188" s="3"/>
+        <v>489</v>
+      </c>
+      <c r="Q188" s="21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="R188" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="S188" s="3" t="s">
         <v>1313</v>
       </c>
@@ -25347,54 +25371,58 @@
         <v>298</v>
       </c>
       <c r="V188" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="20" customHeight="1">
-      <c r="A189" s="36" t="s">
-        <v>2317</v>
+      <c r="A189" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>278</v>
+        <v>492</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>1946</v>
+        <v>1902</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
-      <c r="O189" s="3"/>
+      <c r="N189" s="10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="O189" s="10" t="s">
+        <v>1901</v>
+      </c>
       <c r="P189" s="3" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="R189" s="3"/>
       <c r="S189" s="3" t="s">
@@ -25404,44 +25432,46 @@
         <v>422</v>
       </c>
       <c r="U189" s="3" t="s">
-        <v>539</v>
+        <v>298</v>
       </c>
       <c r="V189" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="20" customHeight="1">
       <c r="A190" s="36" t="s">
-        <v>2304</v>
+        <v>2317</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>541</v>
+        <v>278</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I190" s="3"/>
+        <v>1633</v>
+      </c>
+      <c r="I190" s="10" t="s">
+        <v>1946</v>
+      </c>
       <c r="J190" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
@@ -25449,10 +25479,10 @@
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
       <c r="P190" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="R190" s="3"/>
       <c r="S190" s="3" t="s">
@@ -25465,52 +25495,52 @@
         <v>539</v>
       </c>
       <c r="V190" s="3">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W190" s="3"/>
       <c r="X190" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="20" customHeight="1">
       <c r="A191" s="36" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I191" s="10" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J191" s="3"/>
+        <v>1634</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3" t="s">
+        <v>544</v>
+      </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="R191" s="3"/>
       <c r="S191" s="3" t="s">
@@ -25523,54 +25553,52 @@
         <v>539</v>
       </c>
       <c r="V191" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W191" s="3"/>
       <c r="X191" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="20" customHeight="1">
-      <c r="A192" s="2" t="s">
-        <v>50</v>
+      <c r="A192" s="36" t="s">
+        <v>2305</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>553</v>
+        <v>337</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>322</v>
+        <v>549</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>1959</v>
-      </c>
-      <c r="J192" s="3" t="s">
-        <v>555</v>
-      </c>
+        <v>1923</v>
+      </c>
+      <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
       <c r="P192" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="R192" s="3"/>
       <c r="S192" s="3" t="s">
@@ -25580,46 +25608,46 @@
         <v>422</v>
       </c>
       <c r="U192" s="3" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="V192" s="3">
         <v>4.8</v>
       </c>
       <c r="W192" s="3"/>
       <c r="X192" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="20" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>1948</v>
+        <v>1959</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
@@ -25627,10 +25655,10 @@
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
       <c r="P193" s="3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R193" s="3"/>
       <c r="S193" s="3" t="s">
@@ -25643,43 +25671,43 @@
         <v>558</v>
       </c>
       <c r="V193" s="3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="20" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>278</v>
+        <v>560</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
@@ -25687,10 +25715,10 @@
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
       <c r="P194" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="R194" s="3"/>
       <c r="S194" s="3" t="s">
@@ -25703,19 +25731,19 @@
         <v>558</v>
       </c>
       <c r="V194" s="3">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W194" s="3"/>
       <c r="X194" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="20" customHeight="1">
-      <c r="A195" s="36" t="s">
-        <v>2306</v>
+      <c r="A195" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>329</v>
@@ -25724,20 +25752,22 @@
         <v>278</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I195" s="3"/>
+        <v>1638</v>
+      </c>
+      <c r="I195" s="10" t="s">
+        <v>1947</v>
+      </c>
       <c r="J195" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -25745,10 +25775,10 @@
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
       <c r="P195" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="R195" s="3"/>
       <c r="S195" s="3" t="s">
@@ -25761,43 +25791,41 @@
         <v>558</v>
       </c>
       <c r="V195" s="3">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W195" s="3"/>
       <c r="X195" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="20" customHeight="1">
-      <c r="A196" s="2" t="s">
-        <v>53</v>
+      <c r="A196" s="36" t="s">
+        <v>2306</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>579</v>
+        <v>278</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>1640</v>
-      </c>
-      <c r="I196" s="10" t="s">
-        <v>1943</v>
-      </c>
+        <v>1639</v>
+      </c>
+      <c r="I196" s="3"/>
       <c r="J196" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
@@ -25805,10 +25833,10 @@
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
       <c r="P196" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="R196" s="3"/>
       <c r="S196" s="3" t="s">
@@ -25821,58 +25849,54 @@
         <v>558</v>
       </c>
       <c r="V196" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W196" s="3"/>
       <c r="X196" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="20" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>212</v>
+        <v>581</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>1917</v>
+        <v>1943</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
-      <c r="N197" s="10" t="s">
-        <v>1918</v>
-      </c>
-      <c r="O197" s="10" t="s">
-        <v>1919</v>
-      </c>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
       <c r="P197" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="R197" s="3"/>
       <c r="S197" s="3" t="s">
@@ -25885,52 +25909,58 @@
         <v>558</v>
       </c>
       <c r="V197" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W197" s="3"/>
       <c r="X197" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="20" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>594</v>
+        <v>212</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I198" s="3"/>
+        <v>1641</v>
+      </c>
+      <c r="I198" s="10" t="s">
+        <v>1917</v>
+      </c>
       <c r="J198" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
+      <c r="N198" s="10" t="s">
+        <v>1918</v>
+      </c>
+      <c r="O198" s="10" t="s">
+        <v>1919</v>
+      </c>
       <c r="P198" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="R198" s="3"/>
       <c r="S198" s="3" t="s">
@@ -25943,43 +25973,41 @@
         <v>558</v>
       </c>
       <c r="V198" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W198" s="3"/>
       <c r="X198" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="20" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>1643</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>602</v>
-      </c>
+        <v>1642</v>
+      </c>
+      <c r="I199" s="3"/>
       <c r="J199" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -25987,10 +26015,10 @@
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
       <c r="P199" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="R199" s="3"/>
       <c r="S199" s="3" t="s">
@@ -26003,56 +26031,54 @@
         <v>558</v>
       </c>
       <c r="V199" s="3">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="W199" s="3"/>
       <c r="X199" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="20" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>467</v>
+        <v>601</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I200" s="10" t="s">
-        <v>1962</v>
+        <v>602</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
-      <c r="N200" s="10" t="s">
-        <v>1963</v>
-      </c>
+      <c r="N200" s="3"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="R200" s="3"/>
       <c r="S200" s="3" t="s">
@@ -26062,57 +26088,59 @@
         <v>422</v>
       </c>
       <c r="U200" s="3" t="s">
-        <v>328</v>
+        <v>558</v>
       </c>
       <c r="V200" s="3">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W200" s="3"/>
       <c r="X200" s="3" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="20" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>645</v>
+        <v>467</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>1915</v>
+        <v>1962</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
+      <c r="N201" s="10" t="s">
+        <v>1963</v>
+      </c>
       <c r="O201" s="3"/>
       <c r="P201" s="3" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="R201" s="3"/>
       <c r="S201" s="3" t="s">
@@ -26129,56 +26157,50 @@
       </c>
       <c r="W201" s="3"/>
       <c r="X201" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="20" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>657</v>
+        <v>344</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>1949</v>
+        <v>1915</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="K202" s="10" t="s">
-        <v>2258</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
-      <c r="N202" s="10" t="s">
-        <v>1950</v>
-      </c>
-      <c r="O202" s="10" t="s">
-        <v>1951</v>
-      </c>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
       <c r="P202" s="3" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="R202" s="3"/>
       <c r="S202" s="3" t="s">
@@ -26188,59 +26210,63 @@
         <v>422</v>
       </c>
       <c r="U202" s="3" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="V202" s="3">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W202" s="3"/>
       <c r="X202" s="3" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="20" customHeight="1">
-      <c r="A203" s="36" t="s">
-        <v>2307</v>
+      <c r="A203" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>252</v>
+        <v>657</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="K203" s="3"/>
+        <v>661</v>
+      </c>
+      <c r="K203" s="10" t="s">
+        <v>2258</v>
+      </c>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
+      <c r="N203" s="10" t="s">
+        <v>1950</v>
+      </c>
       <c r="O203" s="10" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="P203" s="3" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="R203" s="3"/>
       <c r="S203" s="3" t="s">
@@ -26250,57 +26276,59 @@
         <v>422</v>
       </c>
       <c r="U203" s="3" t="s">
-        <v>671</v>
+        <v>366</v>
       </c>
       <c r="V203" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W203" s="3"/>
       <c r="X203" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="20" customHeight="1">
-      <c r="A204" s="2" t="s">
-        <v>64</v>
+      <c r="A204" s="36" t="s">
+        <v>2307</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I204" s="3"/>
-      <c r="J204" s="18" t="s">
-        <v>676</v>
+        <v>1647</v>
+      </c>
+      <c r="I204" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
-      <c r="N204" s="10" t="s">
-        <v>1914</v>
-      </c>
-      <c r="O204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="10" t="s">
+        <v>1953</v>
+      </c>
       <c r="P204" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="R204" s="3"/>
       <c r="S204" s="3" t="s">
@@ -26310,59 +26338,57 @@
         <v>422</v>
       </c>
       <c r="U204" s="3" t="s">
-        <v>430</v>
+        <v>671</v>
       </c>
       <c r="V204" s="3">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W204" s="3"/>
       <c r="X204" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="205" spans="1:24" ht="20" customHeight="1">
-      <c r="A205" s="37" t="s">
-        <v>2300</v>
+      <c r="A205" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>1685</v>
+        <v>1466</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I205" s="10" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J205" s="3" t="s">
-        <v>684</v>
+        <v>1648</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="J205" s="18" t="s">
+        <v>676</v>
       </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
       <c r="N205" s="10" t="s">
-        <v>1938</v>
+        <v>1914</v>
       </c>
       <c r="O205" s="3"/>
       <c r="P205" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="R205" s="3"/>
       <c r="S205" s="3" t="s">
@@ -26372,55 +26398,59 @@
         <v>422</v>
       </c>
       <c r="U205" s="3" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="V205" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W205" s="3"/>
       <c r="X205" s="3" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="206" spans="1:24" ht="20" customHeight="1">
-      <c r="A206" s="2" t="s">
-        <v>66</v>
+      <c r="A206" s="37" t="s">
+        <v>2300</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>695</v>
+        <v>1467</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>1685</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>278</v>
+        <v>681</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I206" s="3"/>
+        <v>1649</v>
+      </c>
+      <c r="I206" s="10" t="s">
+        <v>1937</v>
+      </c>
       <c r="J206" s="3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
+      <c r="N206" s="10" t="s">
+        <v>1938</v>
+      </c>
       <c r="O206" s="3"/>
       <c r="P206" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="R206" s="3"/>
       <c r="S206" s="3" t="s">
@@ -26430,123 +26460,119 @@
         <v>422</v>
       </c>
       <c r="U206" s="3" t="s">
-        <v>695</v>
+        <v>414</v>
       </c>
       <c r="V206" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W206" s="3"/>
       <c r="X206" s="3" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="20" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>252</v>
+        <v>695</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>730</v>
+        <v>278</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>192</v>
+        <v>697</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>1651</v>
-      </c>
-      <c r="I207" s="10" t="s">
-        <v>1979</v>
-      </c>
+        <v>1650</v>
+      </c>
+      <c r="I207" s="3"/>
       <c r="J207" s="3" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
-      <c r="N207" s="10" t="s">
-        <v>1980</v>
-      </c>
-      <c r="O207" s="10" t="s">
-        <v>1981</v>
-      </c>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
       <c r="P207" s="3" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="R207" s="3"/>
       <c r="S207" s="3" t="s">
         <v>1313</v>
       </c>
       <c r="T207" s="3" t="s">
-        <v>708</v>
+        <v>422</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>539</v>
+        <v>695</v>
       </c>
       <c r="V207" s="3">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="W207" s="3"/>
       <c r="X207" s="3" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="20" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>738</v>
+        <v>192</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I208" s="3"/>
+        <v>1651</v>
+      </c>
+      <c r="I208" s="10" t="s">
+        <v>1979</v>
+      </c>
       <c r="J208" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="N208" s="10" t="s">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="O208" s="10" t="s">
-        <v>1961</v>
+        <v>1981</v>
       </c>
       <c r="P208" s="3" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="R208" s="3"/>
       <c r="S208" s="3" t="s">
@@ -26559,54 +26585,56 @@
         <v>539</v>
       </c>
       <c r="V208" s="3">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="W208" s="3"/>
       <c r="X208" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="20" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
       <c r="N209" s="10" t="s">
-        <v>1958</v>
-      </c>
-      <c r="O209" s="3"/>
-      <c r="P209" s="10" t="s">
-        <v>747</v>
+        <v>1960</v>
+      </c>
+      <c r="O209" s="10" t="s">
+        <v>1961</v>
+      </c>
+      <c r="P209" s="3" t="s">
+        <v>740</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="R209" s="3"/>
       <c r="S209" s="3" t="s">
@@ -26619,52 +26647,54 @@
         <v>539</v>
       </c>
       <c r="V209" s="3">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="W209" s="3"/>
       <c r="X209" s="3" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="20" customHeight="1">
-      <c r="A210" s="36" t="s">
-        <v>2316</v>
+      <c r="A210" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="E210" s="3"/>
+        <v>743</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>744</v>
+      </c>
       <c r="F210" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I210" s="10" t="s">
-        <v>1939</v>
-      </c>
+        <v>1653</v>
+      </c>
+      <c r="I210" s="3"/>
       <c r="J210" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
+      <c r="N210" s="10" t="s">
+        <v>1958</v>
+      </c>
       <c r="O210" s="3"/>
-      <c r="P210" s="3" t="s">
-        <v>753</v>
+      <c r="P210" s="10" t="s">
+        <v>747</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="R210" s="3"/>
       <c r="S210" s="3" t="s">
@@ -26677,52 +26707,52 @@
         <v>539</v>
       </c>
       <c r="V210" s="3">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="W210" s="3"/>
       <c r="X210" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="20" customHeight="1">
       <c r="A211" s="36" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>438</v>
+        <v>319</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>757</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="E211" s="3"/>
       <c r="F211" s="3" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I211" s="10" t="s">
-        <v>1928</v>
-      </c>
-      <c r="J211" s="3"/>
+        <v>1939</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>752</v>
+      </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
       <c r="P211" s="3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="R211" s="3"/>
       <c r="S211" s="3" t="s">
@@ -26735,19 +26765,19 @@
         <v>539</v>
       </c>
       <c r="V211" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W211" s="3"/>
       <c r="X211" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="20" customHeight="1">
       <c r="A212" s="36" t="s">
-        <v>2308</v>
+        <v>2315</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>438</v>
@@ -26756,35 +26786,31 @@
         <v>756</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
-      <c r="N212" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="O212" s="10" t="s">
-        <v>1930</v>
-      </c>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
       <c r="P212" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="R212" s="3"/>
       <c r="S212" s="3" t="s">
@@ -26797,52 +26823,56 @@
         <v>539</v>
       </c>
       <c r="V212" s="3">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="W212" s="3"/>
       <c r="X212" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="20" customHeight="1">
-      <c r="A213" s="2" t="s">
-        <v>74</v>
+      <c r="A213" s="36" t="s">
+        <v>2308</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>768</v>
+        <v>549</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3" t="s">
-        <v>769</v>
-      </c>
+        <v>1656</v>
+      </c>
+      <c r="I213" s="10" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
+      <c r="N213" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="O213" s="10" t="s">
+        <v>1930</v>
+      </c>
       <c r="P213" s="3" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="R213" s="3"/>
       <c r="S213" s="3" t="s">
@@ -26855,58 +26885,54 @@
         <v>539</v>
       </c>
       <c r="V213" s="3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="W213" s="3"/>
       <c r="X213" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="20" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I214" s="3"/>
-      <c r="J214" s="10" t="s">
-        <v>1973</v>
+      <c r="J214" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
-      <c r="N214" s="10" t="s">
-        <v>1971</v>
-      </c>
+      <c r="N214" s="3"/>
       <c r="O214" s="3"/>
       <c r="P214" s="3" t="s">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="R214" s="10" t="s">
-        <v>1972</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="R214" s="3"/>
       <c r="S214" s="3" t="s">
         <v>1313</v>
       </c>
@@ -26914,59 +26940,61 @@
         <v>708</v>
       </c>
       <c r="U214" s="3" t="s">
-        <v>802</v>
+        <v>539</v>
       </c>
       <c r="V214" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W214" s="3"/>
       <c r="X214" s="3" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="20" customHeight="1">
-      <c r="A215" s="36" t="s">
-        <v>2309</v>
+      <c r="A215" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>344</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>543</v>
+        <v>799</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I215" s="10" t="s">
-        <v>1940</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>805</v>
+        <v>1658</v>
+      </c>
+      <c r="I215" s="3"/>
+      <c r="J215" s="10" t="s">
+        <v>1973</v>
       </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
+      <c r="N215" s="10" t="s">
+        <v>1971</v>
+      </c>
       <c r="O215" s="3"/>
       <c r="P215" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="R215" s="3"/>
+        <v>801</v>
+      </c>
+      <c r="R215" s="10" t="s">
+        <v>1972</v>
+      </c>
       <c r="S215" s="3" t="s">
         <v>1313</v>
       </c>
@@ -26977,43 +27005,43 @@
         <v>802</v>
       </c>
       <c r="V215" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W215" s="3"/>
       <c r="X215" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="20" customHeight="1">
-      <c r="A216" s="37" t="s">
-        <v>2310</v>
+      <c r="A216" s="36" t="s">
+        <v>2309</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>2061</v>
+        <v>344</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>810</v>
+        <v>543</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -27021,10 +27049,10 @@
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
       <c r="P216" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="R216" s="3"/>
       <c r="S216" s="3" t="s">
@@ -27037,54 +27065,54 @@
         <v>802</v>
       </c>
       <c r="V216" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W216" s="3"/>
       <c r="X216" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="20" customHeight="1">
-      <c r="A217" s="2" t="s">
-        <v>80</v>
+      <c r="A217" s="37" t="s">
+        <v>2310</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>1686</v>
+        <v>1478</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>2061</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>815</v>
+        <v>756</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I217" s="3"/>
+        <v>1660</v>
+      </c>
+      <c r="I217" s="10" t="s">
+        <v>1932</v>
+      </c>
       <c r="J217" s="3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="K217" s="3"/>
-      <c r="L217" s="10" t="s">
-        <v>1916</v>
-      </c>
-      <c r="M217" s="10"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="R217" s="3"/>
       <c r="S217" s="3" t="s">
@@ -27097,56 +27125,54 @@
         <v>802</v>
       </c>
       <c r="V217" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="W217" s="3"/>
       <c r="X217" s="3" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="20" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>344</v>
+        <v>1479</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>1686</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>675</v>
+        <v>817</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="3" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="10" t="s">
-        <v>1903</v>
-      </c>
-      <c r="O218" s="10" t="s">
-        <v>1904</v>
-      </c>
+      <c r="L218" s="10" t="s">
+        <v>1916</v>
+      </c>
+      <c r="M218" s="10"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
       <c r="P218" s="3" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="R218" s="3"/>
       <c r="S218" s="3" t="s">
@@ -27159,52 +27185,56 @@
         <v>802</v>
       </c>
       <c r="V218" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W218" s="3"/>
       <c r="X218" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="20" customHeight="1">
-      <c r="A219" s="37" t="s">
-        <v>2311</v>
+      <c r="A219" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>756</v>
+        <v>822</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>810</v>
+        <v>675</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
+      <c r="N219" s="10" t="s">
+        <v>1903</v>
+      </c>
+      <c r="O219" s="10" t="s">
+        <v>1904</v>
+      </c>
       <c r="P219" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="R219" s="3"/>
       <c r="S219" s="3" t="s">
@@ -27214,42 +27244,44 @@
         <v>708</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>328</v>
+        <v>802</v>
       </c>
       <c r="V219" s="3">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W219" s="3"/>
       <c r="X219" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="20" customHeight="1">
-      <c r="A220" s="2" t="s">
-        <v>86</v>
+      <c r="A220" s="37" t="s">
+        <v>2311</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>861</v>
+        <v>319</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="E220" s="3"/>
+        <v>756</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>828</v>
+      </c>
       <c r="F220" s="3" t="s">
-        <v>863</v>
+        <v>810</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="3" t="s">
-        <v>864</v>
+        <v>829</v>
       </c>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -27257,10 +27289,10 @@
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
       <c r="P220" s="3" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="R220" s="3"/>
       <c r="S220" s="3" t="s">
@@ -27270,51 +27302,53 @@
         <v>708</v>
       </c>
       <c r="U220" s="3" t="s">
-        <v>867</v>
+        <v>328</v>
       </c>
       <c r="V220" s="3">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="W220" s="3"/>
       <c r="X220" s="3" t="s">
-        <v>868</v>
+        <v>832</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="20" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>861</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
+      <c r="J221" s="3" t="s">
+        <v>864</v>
+      </c>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
       <c r="P221" s="3" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="R221" s="3"/>
       <c r="S221" s="3" t="s">
@@ -27327,54 +27361,48 @@
         <v>867</v>
       </c>
       <c r="V221" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W221" s="3"/>
       <c r="X221" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="20" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>679</v>
+        <v>861</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>880</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="E222" s="3"/>
       <c r="F222" s="3" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I222" s="3"/>
-      <c r="J222" s="3" t="s">
-        <v>882</v>
-      </c>
+      <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
-      <c r="N222" s="10" t="s">
-        <v>1933</v>
-      </c>
+      <c r="N222" s="3"/>
       <c r="O222" s="3"/>
       <c r="P222" s="3" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="R222" s="3"/>
       <c r="S222" s="3" t="s">
@@ -27384,59 +27412,57 @@
         <v>708</v>
       </c>
       <c r="U222" s="3" t="s">
-        <v>680</v>
+        <v>867</v>
       </c>
       <c r="V222" s="3">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W222" s="3"/>
       <c r="X222" s="3" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="20" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>438</v>
+        <v>679</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>893</v>
+        <v>756</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
       <c r="N223" s="10" t="s">
-        <v>1976</v>
-      </c>
-      <c r="O223" s="10" t="s">
-        <v>1977</v>
-      </c>
+        <v>1933</v>
+      </c>
+      <c r="O223" s="3"/>
       <c r="P223" s="3" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="Q223" s="3" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="R223" s="3"/>
       <c r="S223" s="3" t="s">
@@ -27446,59 +27472,61 @@
         <v>708</v>
       </c>
       <c r="U223" s="3" t="s">
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="V223" s="3">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="W223" s="3"/>
       <c r="X223" s="3" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="20" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>438</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I224" s="3"/>
-      <c r="J224" s="10" t="s">
-        <v>1975</v>
+      <c r="J224" s="3" t="s">
+        <v>896</v>
       </c>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
+      <c r="N224" s="10" t="s">
+        <v>1976</v>
+      </c>
+      <c r="O224" s="10" t="s">
+        <v>1977</v>
+      </c>
       <c r="P224" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="Q224" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="R224" s="10" t="s">
-        <v>1974</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="R224" s="3"/>
       <c r="S224" s="3" t="s">
         <v>1313</v>
       </c>
@@ -27509,56 +27537,56 @@
         <v>458</v>
       </c>
       <c r="V224" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="W224" s="3"/>
       <c r="X224" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="20" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>438</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>322</v>
+        <v>902</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I225" s="3"/>
-      <c r="J225" s="3" t="s">
-        <v>908</v>
+      <c r="J225" s="10" t="s">
+        <v>1975</v>
       </c>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
       <c r="N225" s="3"/>
-      <c r="O225" s="10" t="s">
-        <v>1967</v>
-      </c>
+      <c r="O225" s="3"/>
       <c r="P225" s="3" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="Q225" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="R225" s="3"/>
+        <v>904</v>
+      </c>
+      <c r="R225" s="10" t="s">
+        <v>1974</v>
+      </c>
       <c r="S225" s="3" t="s">
         <v>1313</v>
       </c>
@@ -27569,58 +27597,54 @@
         <v>458</v>
       </c>
       <c r="V225" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W225" s="3"/>
       <c r="X225" s="3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="20" customHeight="1">
-      <c r="A226" s="37" t="s">
-        <v>2312</v>
+      <c r="A226" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>438</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>756</v>
+        <v>906</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>549</v>
+        <v>322</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I226" s="10" t="s">
-        <v>1934</v>
-      </c>
+        <v>1669</v>
+      </c>
+      <c r="I226" s="3"/>
       <c r="J226" s="3" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
-      <c r="N226" s="10" t="s">
-        <v>1935</v>
-      </c>
+      <c r="N226" s="3"/>
       <c r="O226" s="10" t="s">
-        <v>1936</v>
+        <v>1967</v>
       </c>
       <c r="P226" s="3" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="Q226" s="3" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="R226" s="3"/>
       <c r="S226" s="3" t="s">
@@ -27633,58 +27657,58 @@
         <v>458</v>
       </c>
       <c r="V226" s="3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="W226" s="3"/>
       <c r="X226" s="3" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="20" customHeight="1">
-      <c r="A227" s="2" t="s">
-        <v>94</v>
+      <c r="A227" s="37" t="s">
+        <v>2312</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>438</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>923</v>
+        <v>756</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>925</v>
+        <v>549</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I227" s="10" t="s">
-        <v>926</v>
+        <v>1934</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
       <c r="N227" s="10" t="s">
-        <v>1905</v>
+        <v>1935</v>
       </c>
       <c r="O227" s="10" t="s">
-        <v>1906</v>
+        <v>1936</v>
       </c>
       <c r="P227" s="3" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="R227" s="3"/>
       <c r="S227" s="3" t="s">
@@ -27697,52 +27721,58 @@
         <v>458</v>
       </c>
       <c r="V227" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W227" s="3"/>
       <c r="X227" s="3" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="20" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>2061</v>
+        <v>438</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>1672</v>
-      </c>
-      <c r="I228" s="3"/>
+        <v>1671</v>
+      </c>
+      <c r="I228" s="10" t="s">
+        <v>926</v>
+      </c>
       <c r="J228" s="3" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
+      <c r="N228" s="10" t="s">
+        <v>1905</v>
+      </c>
+      <c r="O228" s="10" t="s">
+        <v>1906</v>
+      </c>
       <c r="P228" s="3" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="R228" s="3"/>
       <c r="S228" s="3" t="s">
@@ -27759,50 +27789,48 @@
       </c>
       <c r="W228" s="3"/>
       <c r="X228" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A229" s="36" t="s">
-        <v>2313</v>
+    <row r="229" spans="1:24" ht="20" customHeight="1">
+      <c r="A229" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1817</v>
+        <v>1490</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>438</v>
+        <v>2061</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>1576</v>
+        <v>1672</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>1576</v>
+        <v>1672</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="3" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
-      <c r="N229" s="10" t="s">
-        <v>1965</v>
-      </c>
+      <c r="N229" s="3"/>
       <c r="O229" s="3"/>
-      <c r="P229" s="10" t="s">
-        <v>1966</v>
+      <c r="P229" s="3" t="s">
+        <v>933</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="R229" s="3"/>
       <c r="S229" s="3" t="s">
@@ -27815,397 +27843,405 @@
         <v>458</v>
       </c>
       <c r="V229" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W229" s="3"/>
       <c r="X229" s="3" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A230" s="2" t="s">
-        <v>1820</v>
+      <c r="A230" s="36" t="s">
+        <v>2313</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1789</v>
+        <v>1817</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>1822</v>
+        <v>438</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>639</v>
+        <v>912</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>640</v>
+        <v>913</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1829</v>
+        <v>914</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>1828</v>
+        <v>1576</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>1827</v>
-      </c>
-      <c r="I230" s="10" t="s">
-        <v>1826</v>
-      </c>
+        <v>1576</v>
+      </c>
+      <c r="I230" s="3"/>
       <c r="J230" s="3" t="s">
-        <v>642</v>
+        <v>915</v>
       </c>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
+      <c r="N230" s="10" t="s">
+        <v>1965</v>
+      </c>
       <c r="O230" s="3"/>
       <c r="P230" s="10" t="s">
-        <v>1825</v>
-      </c>
-      <c r="Q230" s="10" t="s">
-        <v>1824</v>
+        <v>1966</v>
+      </c>
+      <c r="Q230" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="R230" s="3"/>
       <c r="S230" s="3" t="s">
         <v>1313</v>
       </c>
       <c r="T230" s="3" t="s">
-        <v>1823</v>
+        <v>708</v>
       </c>
       <c r="U230" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="V230" s="3" t="s">
-        <v>1821</v>
+        <v>458</v>
+      </c>
+      <c r="V230" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="W230" s="3"/>
-      <c r="X230" s="10" t="s">
-        <v>1819</v>
+      <c r="X230" s="3" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A231" s="16" t="s">
-        <v>1855</v>
+      <c r="A231" s="2" t="s">
+        <v>1820</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1845</v>
+        <v>1789</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>1856</v>
+        <v>1822</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>1857</v>
+        <v>639</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1858</v>
+        <v>640</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1859</v>
+        <v>1829</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>1853</v>
+        <v>1828</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>1854</v>
+        <v>1827</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>1849</v>
-      </c>
-      <c r="J231" s="15" t="s">
-        <v>1850</v>
-      </c>
-      <c r="K231" s="10" t="s">
-        <v>1852</v>
-      </c>
-      <c r="L231" s="3" t="s">
-        <v>1851</v>
-      </c>
+        <v>1826</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
       <c r="M231" s="3"/>
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
-      <c r="P231" s="10"/>
+      <c r="P231" s="10" t="s">
+        <v>1825</v>
+      </c>
       <c r="Q231" s="10" t="s">
-        <v>1846</v>
+        <v>1824</v>
       </c>
       <c r="R231" s="3"/>
       <c r="S231" s="3" t="s">
-        <v>1788</v>
+        <v>1313</v>
       </c>
       <c r="T231" s="3" t="s">
-        <v>1848</v>
-      </c>
-      <c r="U231" s="3"/>
+        <v>1823</v>
+      </c>
+      <c r="U231" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="V231" s="3" t="s">
-        <v>1694</v>
+        <v>1821</v>
       </c>
       <c r="W231" s="3"/>
       <c r="X231" s="10" t="s">
-        <v>1847</v>
+        <v>1819</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A232" s="2" t="s">
-        <v>67</v>
+    <row r="232" spans="1:24" ht="17.25" customHeight="1">
+      <c r="A232" s="16" t="s">
+        <v>1855</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1866</v>
+        <v>1845</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>252</v>
+        <v>1856</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>702</v>
+        <v>1857</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>703</v>
+        <v>1858</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>704</v>
+        <v>1859</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>1562</v>
+        <v>1853</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
+        <v>1854</v>
+      </c>
+      <c r="I232" s="10" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J232" s="15" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K232" s="10" t="s">
+        <v>1852</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>1851</v>
+      </c>
       <c r="M232" s="3"/>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
-      <c r="P232" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q232" s="3" t="s">
-        <v>707</v>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="10" t="s">
+        <v>1846</v>
       </c>
       <c r="R232" s="3"/>
       <c r="S232" s="3" t="s">
         <v>1788</v>
       </c>
       <c r="T232" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="U232" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="V232" s="3">
-        <v>4</v>
+        <v>1848</v>
+      </c>
+      <c r="U232" s="3"/>
+      <c r="V232" s="3" t="s">
+        <v>1694</v>
       </c>
       <c r="W232" s="3"/>
-      <c r="X232" s="3" t="s">
-        <v>709</v>
+      <c r="X232" s="10" t="s">
+        <v>1847</v>
       </c>
     </row>
-    <row r="233" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
+    <row r="233" spans="1:24" ht="14.25" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>2041</v>
+        <v>67</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>2042</v>
+        <v>1866</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>2151</v>
+        <v>252</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>2043</v>
+        <v>703</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>2044</v>
-      </c>
-      <c r="G233" s="27" t="s">
-        <v>2045</v>
-      </c>
-      <c r="H233" s="27" t="s">
-        <v>2046</v>
+        <v>704</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>1562</v>
       </c>
       <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
+      <c r="J233" s="3" t="s">
+        <v>705</v>
+      </c>
       <c r="K233" s="3"/>
-      <c r="L233" s="10" t="s">
-        <v>2047</v>
-      </c>
+      <c r="L233" s="3"/>
       <c r="M233" s="3"/>
-      <c r="N233" s="10" t="s">
-        <v>2048</v>
-      </c>
-      <c r="O233" s="10" t="s">
-        <v>2049</v>
-      </c>
-      <c r="P233" s="10" t="s">
-        <v>2050</v>
-      </c>
-      <c r="Q233" s="10" t="s">
-        <v>2051</v>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q233" s="3" t="s">
+        <v>707</v>
       </c>
       <c r="R233" s="3"/>
       <c r="S233" s="3" t="s">
         <v>1788</v>
       </c>
       <c r="T233" s="3" t="s">
-        <v>2052</v>
+        <v>708</v>
       </c>
       <c r="U233" s="3" t="s">
-        <v>2053</v>
-      </c>
-      <c r="V233" s="3" t="s">
-        <v>2054</v>
+        <v>298</v>
+      </c>
+      <c r="V233" s="3">
+        <v>4</v>
       </c>
       <c r="W233" s="3"/>
-      <c r="X233" s="10" t="s">
-        <v>2055</v>
+      <c r="X233" s="3" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>2164</v>
+        <v>2041</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>2161</v>
+        <v>2042</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>2165</v>
+        <v>1792</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>2166</v>
+        <v>2151</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>2167</v>
-      </c>
-      <c r="F234" s="3"/>
+        <v>2043</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>2044</v>
+      </c>
       <c r="G234" s="27" t="s">
-        <v>2168</v>
+        <v>2045</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>2169</v>
-      </c>
-      <c r="I234" s="10" t="s">
-        <v>2170</v>
-      </c>
+        <v>2046</v>
+      </c>
+      <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
-      <c r="L234" s="10"/>
+      <c r="L234" s="10" t="s">
+        <v>2047</v>
+      </c>
       <c r="M234" s="3"/>
-      <c r="N234" s="10"/>
-      <c r="O234" s="10"/>
-      <c r="P234" s="10"/>
+      <c r="N234" s="10" t="s">
+        <v>2048</v>
+      </c>
+      <c r="O234" s="10" t="s">
+        <v>2049</v>
+      </c>
+      <c r="P234" s="10" t="s">
+        <v>2050</v>
+      </c>
       <c r="Q234" s="10" t="s">
-        <v>2171</v>
+        <v>2051</v>
       </c>
       <c r="R234" s="3"/>
       <c r="S234" s="3" t="s">
         <v>1788</v>
       </c>
       <c r="T234" s="3" t="s">
-        <v>167</v>
+        <v>2052</v>
       </c>
       <c r="U234" s="3" t="s">
-        <v>160</v>
+        <v>2053</v>
       </c>
       <c r="V234" s="3" t="s">
-        <v>2163</v>
+        <v>2054</v>
       </c>
       <c r="W234" s="3"/>
       <c r="X234" s="10" t="s">
-        <v>2162</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="235" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>2187</v>
+        <v>2164</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>2188</v>
+        <v>2161</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>1856</v>
+        <v>2165</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>2216</v>
+        <v>2166</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>2217</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>2218</v>
-      </c>
+        <v>2167</v>
+      </c>
+      <c r="F235" s="3"/>
       <c r="G235" s="27" t="s">
-        <v>2193</v>
+        <v>2168</v>
       </c>
       <c r="H235" s="27" t="s">
-        <v>2198</v>
+        <v>2169</v>
       </c>
       <c r="I235" s="10" t="s">
-        <v>2219</v>
-      </c>
-      <c r="J235" s="10" t="s">
-        <v>2220</v>
-      </c>
+        <v>2170</v>
+      </c>
+      <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="10"/>
-      <c r="M235" s="10" t="s">
-        <v>2221</v>
-      </c>
+      <c r="M235" s="3"/>
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
-      <c r="Q235" s="10"/>
+      <c r="Q235" s="10" t="s">
+        <v>2171</v>
+      </c>
       <c r="R235" s="3"/>
       <c r="S235" s="3" t="s">
         <v>1788</v>
       </c>
-      <c r="T235" s="3"/>
-      <c r="U235" s="3"/>
+      <c r="T235" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U235" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="V235" s="3" t="s">
-        <v>1821</v>
+        <v>2163</v>
       </c>
       <c r="W235" s="3"/>
       <c r="X235" s="10" t="s">
-        <v>2215</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="236" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>2222</v>
+        <v>2187</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>1832</v>
+        <v>1856</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>2225</v>
+        <v>2216</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>2226</v>
+        <v>2217</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>2082</v>
+        <v>2218</v>
       </c>
       <c r="G236" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="H236" s="27" t="s">
-        <v>2199</v>
-      </c>
-      <c r="I236" s="10"/>
-      <c r="J236" s="3"/>
+        <v>2198</v>
+      </c>
+      <c r="I236" s="10" t="s">
+        <v>2219</v>
+      </c>
+      <c r="J236" s="10" t="s">
+        <v>2220</v>
+      </c>
       <c r="K236" s="3"/>
       <c r="L236" s="10"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="10" t="s">
-        <v>2227</v>
-      </c>
-      <c r="O236" s="10" t="s">
-        <v>2228</v>
-      </c>
+      <c r="M236" s="10" t="s">
+        <v>2221</v>
+      </c>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
       <c r="P236" s="10"/>
       <c r="Q236" s="10"/>
       <c r="R236" s="3"/>
@@ -28215,49 +28251,49 @@
       <c r="T236" s="3"/>
       <c r="U236" s="3"/>
       <c r="V236" s="3" t="s">
-        <v>2224</v>
+        <v>1821</v>
       </c>
       <c r="W236" s="3"/>
       <c r="X236" s="10" t="s">
-        <v>2223</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="237" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>2250</v>
+        <v>2222</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>2165</v>
+        <v>1832</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>2252</v>
+        <v>2225</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>2253</v>
+        <v>2226</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>192</v>
+        <v>2082</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="H237" s="27" t="s">
-        <v>2200</v>
-      </c>
-      <c r="I237" s="10" t="s">
-        <v>2255</v>
-      </c>
-      <c r="J237" s="10" t="s">
-        <v>2254</v>
-      </c>
+        <v>2199</v>
+      </c>
+      <c r="I237" s="10"/>
+      <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="10"/>
       <c r="M237" s="3"/>
-      <c r="N237" s="10"/>
-      <c r="O237" s="10"/>
+      <c r="N237" s="10" t="s">
+        <v>2227</v>
+      </c>
+      <c r="O237" s="10" t="s">
+        <v>2228</v>
+      </c>
       <c r="P237" s="10"/>
       <c r="Q237" s="10"/>
       <c r="R237" s="3"/>
@@ -28267,50 +28303,50 @@
       <c r="T237" s="3"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3" t="s">
-        <v>2238</v>
+        <v>2224</v>
       </c>
       <c r="W237" s="3"/>
       <c r="X237" s="10" t="s">
-        <v>2251</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="238" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>2259</v>
+        <v>2250</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>2262</v>
+        <v>2165</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>579</v>
+        <v>2252</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G238" s="27" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="H238" s="27" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I238" s="10" t="s">
-        <v>2264</v>
-      </c>
-      <c r="J238" s="3"/>
+        <v>2255</v>
+      </c>
+      <c r="J238" s="10" t="s">
+        <v>2254</v>
+      </c>
       <c r="K238" s="3"/>
       <c r="L238" s="10"/>
       <c r="M238" s="3"/>
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
-      <c r="P238" s="10" t="s">
-        <v>2809</v>
-      </c>
+      <c r="P238" s="10"/>
       <c r="Q238" s="10"/>
       <c r="R238" s="3"/>
       <c r="S238" s="3" t="s">
@@ -28319,55 +28355,51 @@
       <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3" t="s">
-        <v>2260</v>
+        <v>2238</v>
       </c>
       <c r="W238" s="3"/>
       <c r="X238" s="10" t="s">
-        <v>2261</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="239" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>2059</v>
+        <v>2262</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>2267</v>
+        <v>579</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>2269</v>
+        <v>198</v>
       </c>
       <c r="G239" s="27" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="H239" s="27" t="s">
-        <v>2202</v>
-      </c>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10" t="s">
-        <v>2270</v>
-      </c>
+        <v>2201</v>
+      </c>
+      <c r="I239" s="10" t="s">
+        <v>2264</v>
+      </c>
+      <c r="J239" s="3"/>
       <c r="K239" s="3"/>
-      <c r="L239" s="10" t="s">
-        <v>2271</v>
-      </c>
+      <c r="L239" s="10"/>
       <c r="M239" s="3"/>
-      <c r="N239" s="10" t="s">
-        <v>2272</v>
-      </c>
+      <c r="N239" s="10"/>
       <c r="O239" s="10"/>
-      <c r="P239" s="10"/>
-      <c r="Q239" s="10" t="s">
-        <v>2273</v>
-      </c>
+      <c r="P239" s="10" t="s">
+        <v>2809</v>
+      </c>
+      <c r="Q239" s="10"/>
       <c r="R239" s="3"/>
       <c r="S239" s="3" t="s">
         <v>1788</v>
@@ -28379,52 +28411,50 @@
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="10" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>2414</v>
+        <v>2265</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>2410</v>
+        <v>2192</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>2231</v>
+        <v>2059</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>2415</v>
+        <v>2267</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>2416</v>
+        <v>2268</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>2417</v>
+        <v>2269</v>
       </c>
       <c r="G240" s="27" t="s">
-        <v>2411</v>
+        <v>2197</v>
       </c>
       <c r="H240" s="27" t="s">
-        <v>2412</v>
+        <v>2202</v>
       </c>
       <c r="I240" s="10"/>
       <c r="J240" s="10" t="s">
-        <v>2419</v>
-      </c>
-      <c r="K240" s="10" t="s">
-        <v>2421</v>
-      </c>
+        <v>2270</v>
+      </c>
+      <c r="K240" s="3"/>
       <c r="L240" s="10" t="s">
-        <v>2420</v>
+        <v>2271</v>
       </c>
       <c r="M240" s="3"/>
       <c r="N240" s="10" t="s">
-        <v>2418</v>
+        <v>2272</v>
       </c>
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
       <c r="Q240" s="10" t="s">
-        <v>2422</v>
+        <v>2273</v>
       </c>
       <c r="R240" s="3"/>
       <c r="S240" s="3" t="s">
@@ -28433,50 +28463,56 @@
       <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3" t="s">
-        <v>2224</v>
+        <v>2260</v>
       </c>
       <c r="W240" s="3"/>
       <c r="X240" s="10" t="s">
-        <v>2413</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="241" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>2438</v>
+        <v>2414</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>2434</v>
+        <v>2410</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>2283</v>
+        <v>2231</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>2439</v>
+        <v>2415</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>2440</v>
+        <v>2416</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>2441</v>
+        <v>2417</v>
       </c>
       <c r="G241" s="27" t="s">
-        <v>2435</v>
+        <v>2411</v>
       </c>
       <c r="H241" s="27" t="s">
-        <v>2436</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>2442</v>
-      </c>
-      <c r="J241" s="10"/>
-      <c r="K241" s="10"/>
-      <c r="L241" s="10"/>
+        <v>2412</v>
+      </c>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10" t="s">
+        <v>2419</v>
+      </c>
+      <c r="K241" s="10" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L241" s="10" t="s">
+        <v>2420</v>
+      </c>
       <c r="M241" s="3"/>
-      <c r="N241" s="10"/>
+      <c r="N241" s="10" t="s">
+        <v>2418</v>
+      </c>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
       <c r="Q241" s="10" t="s">
-        <v>2443</v>
+        <v>2422</v>
       </c>
       <c r="R241" s="3"/>
       <c r="S241" s="3" t="s">
@@ -28485,53 +28521,51 @@
       <c r="T241" s="3"/>
       <c r="U241" s="3"/>
       <c r="V241" s="3" t="s">
-        <v>1821</v>
+        <v>2224</v>
       </c>
       <c r="W241" s="3"/>
       <c r="X241" s="10" t="s">
-        <v>2437</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>2467</v>
+        <v>2438</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>2455</v>
+        <v>2434</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>2469</v>
+        <v>2283</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>2470</v>
+        <v>2439</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>2471</v>
+        <v>2440</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>2472</v>
+        <v>2441</v>
       </c>
       <c r="G242" s="27" t="s">
-        <v>2459</v>
+        <v>2435</v>
       </c>
       <c r="H242" s="27" t="s">
-        <v>2463</v>
+        <v>2436</v>
       </c>
       <c r="I242" s="10" t="s">
-        <v>2473</v>
+        <v>2442</v>
       </c>
       <c r="J242" s="10"/>
       <c r="K242" s="10"/>
       <c r="L242" s="10"/>
       <c r="M242" s="3"/>
-      <c r="N242" s="10" t="s">
-        <v>2474</v>
-      </c>
+      <c r="N242" s="10"/>
       <c r="O242" s="10"/>
-      <c r="P242" s="10" t="s">
-        <v>2498</v>
-      </c>
-      <c r="Q242" s="10"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="10" t="s">
+        <v>2443</v>
+      </c>
       <c r="R242" s="3"/>
       <c r="S242" s="3" t="s">
         <v>1788</v>
@@ -28539,54 +28573,52 @@
       <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3" t="s">
-        <v>1694</v>
+        <v>1821</v>
       </c>
       <c r="W242" s="3"/>
       <c r="X242" s="10" t="s">
-        <v>2468</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>2476</v>
+        <v>2467</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>2059</v>
+        <v>2469</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>2477</v>
+        <v>2470</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>2478</v>
+        <v>2471</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
       <c r="G243" s="27" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="H243" s="27" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="I243" s="10" t="s">
-        <v>2480</v>
-      </c>
-      <c r="J243" s="10" t="s">
-        <v>2483</v>
-      </c>
+        <v>2473</v>
+      </c>
+      <c r="J243" s="10"/>
       <c r="K243" s="10"/>
       <c r="L243" s="10"/>
       <c r="M243" s="3"/>
       <c r="N243" s="10" t="s">
-        <v>2481</v>
-      </c>
-      <c r="O243" s="10" t="s">
-        <v>2482</v>
-      </c>
-      <c r="P243" s="10"/>
+        <v>2474</v>
+      </c>
+      <c r="O243" s="10"/>
+      <c r="P243" s="10" t="s">
+        <v>2498</v>
+      </c>
       <c r="Q243" s="10"/>
       <c r="R243" s="3"/>
       <c r="S243" s="3" t="s">
@@ -28595,47 +28627,53 @@
       <c r="T243" s="3"/>
       <c r="U243" s="3"/>
       <c r="V243" s="3" t="s">
-        <v>2390</v>
+        <v>1694</v>
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="10" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>2469</v>
+        <v>2059</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>2486</v>
+        <v>2477</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>2487</v>
+        <v>2478</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>2488</v>
+        <v>2479</v>
       </c>
       <c r="G244" s="27" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="H244" s="27" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="I244" s="10" t="s">
-        <v>2489</v>
-      </c>
-      <c r="J244" s="10"/>
+        <v>2480</v>
+      </c>
+      <c r="J244" s="10" t="s">
+        <v>2483</v>
+      </c>
       <c r="K244" s="10"/>
       <c r="L244" s="10"/>
       <c r="M244" s="3"/>
-      <c r="N244" s="10"/>
-      <c r="O244" s="10"/>
+      <c r="N244" s="10" t="s">
+        <v>2481</v>
+      </c>
+      <c r="O244" s="10" t="s">
+        <v>2482</v>
+      </c>
       <c r="P244" s="10"/>
       <c r="Q244" s="10"/>
       <c r="R244" s="3"/>
@@ -28645,52 +28683,48 @@
       <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3" t="s">
-        <v>2260</v>
+        <v>2390</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="10" t="s">
-        <v>2485</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="245" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>2469</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>2493</v>
+        <v>2487</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>2494</v>
+        <v>2488</v>
       </c>
       <c r="G245" s="27" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="H245" s="27" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="I245" s="10" t="s">
-        <v>2495</v>
-      </c>
-      <c r="J245" s="10" t="s">
-        <v>2496</v>
-      </c>
+        <v>2489</v>
+      </c>
+      <c r="J245" s="10"/>
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="3"/>
       <c r="N245" s="10"/>
       <c r="O245" s="10"/>
-      <c r="P245" s="10" t="s">
-        <v>2497</v>
-      </c>
+      <c r="P245" s="10"/>
       <c r="Q245" s="10"/>
       <c r="R245" s="3"/>
       <c r="S245" s="3" t="s">
@@ -28699,57 +28733,53 @@
       <c r="T245" s="3"/>
       <c r="U245" s="3"/>
       <c r="V245" s="3" t="s">
-        <v>1694</v>
+        <v>2260</v>
       </c>
       <c r="W245" s="3"/>
       <c r="X245" s="10" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>2541</v>
+        <v>2490</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>2537</v>
+        <v>2458</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>2231</v>
+        <v>2469</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>2542</v>
+        <v>2492</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>2543</v>
+        <v>2493</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>2544</v>
+        <v>2494</v>
       </c>
       <c r="G246" s="27" t="s">
-        <v>2538</v>
+        <v>2462</v>
       </c>
       <c r="H246" s="27" t="s">
-        <v>2539</v>
-      </c>
-      <c r="I246" s="10"/>
+        <v>2466</v>
+      </c>
+      <c r="I246" s="10" t="s">
+        <v>2495</v>
+      </c>
       <c r="J246" s="10" t="s">
-        <v>2546</v>
-      </c>
-      <c r="K246" s="10" t="s">
-        <v>2548</v>
-      </c>
-      <c r="L246" s="10" t="s">
-        <v>2547</v>
-      </c>
+        <v>2496</v>
+      </c>
+      <c r="K246" s="10"/>
+      <c r="L246" s="10"/>
       <c r="M246" s="3"/>
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10" t="s">
-        <v>2545</v>
-      </c>
-      <c r="Q246" s="10" t="s">
-        <v>2549</v>
-      </c>
+        <v>2497</v>
+      </c>
+      <c r="Q246" s="10"/>
       <c r="R246" s="3"/>
       <c r="S246" s="3" t="s">
         <v>1788</v>
@@ -28757,50 +28787,56 @@
       <c r="T246" s="3"/>
       <c r="U246" s="3"/>
       <c r="V246" s="3" t="s">
-        <v>2014</v>
+        <v>1694</v>
       </c>
       <c r="W246" s="3"/>
       <c r="X246" s="10" t="s">
-        <v>2540</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>2554</v>
+        <v>2541</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>2550</v>
+        <v>2537</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>2059</v>
+        <v>2231</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>2555</v>
+        <v>2542</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>2556</v>
+        <v>2543</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>2557</v>
+        <v>2544</v>
       </c>
       <c r="G247" s="27" t="s">
-        <v>2551</v>
+        <v>2538</v>
       </c>
       <c r="H247" s="27" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
       <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10"/>
-      <c r="L247" s="10"/>
+      <c r="J247" s="10" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K247" s="10" t="s">
+        <v>2548</v>
+      </c>
+      <c r="L247" s="10" t="s">
+        <v>2547</v>
+      </c>
       <c r="M247" s="3"/>
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10" t="s">
-        <v>2558</v>
+        <v>2545</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>2559</v>
+        <v>2549</v>
       </c>
       <c r="R247" s="3"/>
       <c r="S247" s="3" t="s">
@@ -28809,53 +28845,51 @@
       <c r="T247" s="3"/>
       <c r="U247" s="3"/>
       <c r="V247" s="3" t="s">
-        <v>2238</v>
+        <v>2014</v>
       </c>
       <c r="W247" s="3"/>
       <c r="X247" s="10" t="s">
-        <v>2553</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>2564</v>
+        <v>2554</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>2560</v>
+        <v>2550</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>2565</v>
+        <v>2555</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>2566</v>
+        <v>2556</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>2567</v>
+        <v>2557</v>
       </c>
       <c r="G248" s="27" t="s">
-        <v>2561</v>
+        <v>2551</v>
       </c>
       <c r="H248" s="27" t="s">
-        <v>2562</v>
-      </c>
-      <c r="I248" s="10" t="s">
-        <v>2570</v>
-      </c>
+        <v>2552</v>
+      </c>
+      <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
       <c r="M248" s="3"/>
-      <c r="N248" s="10" t="s">
-        <v>2568</v>
-      </c>
+      <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10" t="s">
-        <v>2569</v>
-      </c>
-      <c r="Q248" s="10"/>
+        <v>2558</v>
+      </c>
+      <c r="Q248" s="10" t="s">
+        <v>2559</v>
+      </c>
       <c r="R248" s="3"/>
       <c r="S248" s="3" t="s">
         <v>1788</v>
@@ -28863,105 +28897,103 @@
       <c r="T248" s="3"/>
       <c r="U248" s="3"/>
       <c r="V248" s="3" t="s">
-        <v>2014</v>
+        <v>2238</v>
       </c>
       <c r="W248" s="3"/>
       <c r="X248" s="10" t="s">
-        <v>2563</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="249" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>2783</v>
+        <v>2564</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2775</v>
+        <v>2560</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>1822</v>
+        <v>2061</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>2785</v>
+        <v>2565</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>2786</v>
+        <v>2566</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>2787</v>
+        <v>2567</v>
       </c>
       <c r="G249" s="27" t="s">
-        <v>2778</v>
+        <v>2561</v>
       </c>
       <c r="H249" s="27" t="s">
-        <v>2781</v>
+        <v>2562</v>
       </c>
       <c r="I249" s="10" t="s">
-        <v>2804</v>
+        <v>2570</v>
       </c>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
       <c r="M249" s="3"/>
-      <c r="N249" s="10"/>
+      <c r="N249" s="10" t="s">
+        <v>2568</v>
+      </c>
       <c r="O249" s="10"/>
       <c r="P249" s="10" t="s">
-        <v>2805</v>
-      </c>
-      <c r="Q249" s="10" t="s">
-        <v>2784</v>
-      </c>
+        <v>2569</v>
+      </c>
+      <c r="Q249" s="10"/>
       <c r="R249" s="3"/>
       <c r="S249" s="3" t="s">
         <v>1788</v>
       </c>
       <c r="T249" s="3"/>
       <c r="U249" s="3"/>
-      <c r="V249" s="3"/>
+      <c r="V249" s="3" t="s">
+        <v>2014</v>
+      </c>
       <c r="W249" s="3"/>
       <c r="X249" s="10" t="s">
-        <v>2803</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="250" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>2262</v>
+        <v>1822</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>2801</v>
+        <v>2786</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="G250" s="27" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="H250" s="27" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="I250" s="10" t="s">
-        <v>2802</v>
-      </c>
-      <c r="J250" s="10" t="s">
-        <v>2806</v>
-      </c>
+        <v>2804</v>
+      </c>
+      <c r="J250" s="10"/>
       <c r="K250" s="10"/>
       <c r="L250" s="10"/>
-      <c r="M250" s="10" t="s">
-        <v>2807</v>
-      </c>
+      <c r="M250" s="3"/>
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="Q250" s="10" t="s">
         <v>2784</v>
@@ -28975,49 +29007,49 @@
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
       <c r="X250" s="10" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="251" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>2283</v>
+        <v>2262</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>2793</v>
+        <v>2801</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>192</v>
+        <v>2790</v>
       </c>
       <c r="G251" s="27" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="H251" s="27" t="s">
-        <v>2797</v>
+        <v>2782</v>
       </c>
       <c r="I251" s="10" t="s">
-        <v>2798</v>
-      </c>
-      <c r="J251" s="10"/>
+        <v>2802</v>
+      </c>
+      <c r="J251" s="10" t="s">
+        <v>2806</v>
+      </c>
       <c r="K251" s="10"/>
       <c r="L251" s="10"/>
-      <c r="M251" s="3"/>
-      <c r="N251" s="10" t="s">
-        <v>2795</v>
-      </c>
-      <c r="O251" s="10" t="s">
-        <v>2796</v>
-      </c>
+      <c r="M251" s="10" t="s">
+        <v>2807</v>
+      </c>
+      <c r="N251" s="10"/>
+      <c r="O251" s="10"/>
       <c r="P251" s="10" t="s">
-        <v>2799</v>
+        <v>2808</v>
       </c>
       <c r="Q251" s="10" t="s">
         <v>2784</v>
@@ -29031,48 +29063,52 @@
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
       <c r="X251" s="10" t="s">
-        <v>2794</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="252" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>2827</v>
+        <v>2791</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>2823</v>
+        <v>2777</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>2243</v>
+        <v>2283</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>2828</v>
+        <v>2792</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>2829</v>
+        <v>2793</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>2218</v>
+        <v>192</v>
       </c>
       <c r="G252" s="27" t="s">
-        <v>2824</v>
+        <v>2780</v>
       </c>
       <c r="H252" s="27" t="s">
-        <v>2825</v>
+        <v>2797</v>
       </c>
       <c r="I252" s="10" t="s">
-        <v>2831</v>
-      </c>
-      <c r="J252" s="10" t="s">
-        <v>2832</v>
-      </c>
+        <v>2798</v>
+      </c>
+      <c r="J252" s="10"/>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
       <c r="M252" s="3"/>
-      <c r="N252" s="10"/>
-      <c r="O252" s="10"/>
-      <c r="P252" s="10"/>
+      <c r="N252" s="10" t="s">
+        <v>2795</v>
+      </c>
+      <c r="O252" s="10" t="s">
+        <v>2796</v>
+      </c>
+      <c r="P252" s="10" t="s">
+        <v>2799</v>
+      </c>
       <c r="Q252" s="10" t="s">
-        <v>2830</v>
+        <v>2784</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -29083,37 +29119,39 @@
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
       <c r="X252" s="10" t="s">
-        <v>2826</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="253" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>2862</v>
+        <v>2827</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>2857</v>
+        <v>2823</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1856</v>
+        <v>2243</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>2863</v>
+        <v>2828</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>2864</v>
+        <v>2829</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>2865</v>
+        <v>2218</v>
       </c>
       <c r="G253" s="27" t="s">
-        <v>2858</v>
+        <v>2824</v>
       </c>
       <c r="H253" s="27" t="s">
-        <v>2859</v>
-      </c>
-      <c r="I253" s="10"/>
+        <v>2825</v>
+      </c>
+      <c r="I253" s="10" t="s">
+        <v>2831</v>
+      </c>
       <c r="J253" s="10" t="s">
-        <v>2866</v>
+        <v>2832</v>
       </c>
       <c r="K253" s="10"/>
       <c r="L253" s="10"/>
@@ -29122,7 +29160,7 @@
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
       <c r="Q253" s="10" t="s">
-        <v>2861</v>
+        <v>2830</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="3" t="s">
@@ -29133,54 +29171,46 @@
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
       <c r="X253" s="10" t="s">
-        <v>2860</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="254" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>2886</v>
+        <v>2862</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>2882</v>
+        <v>2857</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>2243</v>
+        <v>1856</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>2888</v>
+        <v>2863</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>2889</v>
+        <v>2864</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>2890</v>
+        <v>2865</v>
       </c>
       <c r="G254" s="27" t="s">
-        <v>2884</v>
+        <v>2858</v>
       </c>
       <c r="H254" s="27" t="s">
-        <v>2883</v>
-      </c>
-      <c r="I254" s="10" t="s">
-        <v>2891</v>
-      </c>
-      <c r="J254" s="10"/>
-      <c r="K254" s="10" t="s">
-        <v>2892</v>
-      </c>
-      <c r="L254" s="10" t="s">
-        <v>2909</v>
-      </c>
+        <v>2859</v>
+      </c>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10" t="s">
+        <v>2866</v>
+      </c>
+      <c r="K254" s="10"/>
+      <c r="L254" s="10"/>
       <c r="M254" s="3"/>
-      <c r="N254" s="10" t="s">
-        <v>2893</v>
-      </c>
+      <c r="N254" s="10"/>
       <c r="O254" s="10"/>
-      <c r="P254" s="10" t="s">
-        <v>2894</v>
-      </c>
+      <c r="P254" s="10"/>
       <c r="Q254" s="10" t="s">
-        <v>2885</v>
+        <v>2861</v>
       </c>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
@@ -29191,45 +29221,55 @@
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
       <c r="X254" s="10" t="s">
-        <v>2887</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="255" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>2904</v>
+        <v>2886</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>2895</v>
+        <v>2882</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>2119</v>
+        <v>2243</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>2906</v>
+        <v>2888</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>2907</v>
+        <v>2889</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>2908</v>
+        <v>2890</v>
       </c>
       <c r="G255" s="27" t="s">
-        <v>2898</v>
+        <v>2884</v>
       </c>
       <c r="H255" s="27" t="s">
-        <v>2901</v>
-      </c>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10" t="s">
+        <v>2883</v>
+      </c>
+      <c r="I255" s="10" t="s">
+        <v>2891</v>
+      </c>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L255" s="10" t="s">
         <v>2909</v>
       </c>
-      <c r="K255" s="10"/>
-      <c r="L255" s="10"/>
       <c r="M255" s="3"/>
-      <c r="N255" s="10"/>
+      <c r="N255" s="10" t="s">
+        <v>2893</v>
+      </c>
       <c r="O255" s="10"/>
-      <c r="P255" s="10"/>
-      <c r="Q255" s="10"/>
+      <c r="P255" s="10" t="s">
+        <v>2894</v>
+      </c>
+      <c r="Q255" s="10" t="s">
+        <v>2885</v>
+      </c>
       <c r="R255" s="3"/>
       <c r="S255" s="3" t="s">
         <v>1788</v>
@@ -29239,50 +29279,44 @@
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
       <c r="X255" s="10" t="s">
-        <v>2905</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="256" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>2910</v>
+        <v>2904</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>2231</v>
+        <v>2119</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>2912</v>
+        <v>2906</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>2913</v>
+        <v>2907</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>2914</v>
+        <v>2908</v>
       </c>
       <c r="G256" s="27" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="H256" s="27" t="s">
-        <v>2902</v>
-      </c>
-      <c r="I256" s="10" t="s">
-        <v>2916</v>
-      </c>
-      <c r="J256" s="10"/>
+        <v>2901</v>
+      </c>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10" t="s">
+        <v>2909</v>
+      </c>
       <c r="K256" s="10"/>
-      <c r="L256" s="10" t="s">
-        <v>2917</v>
-      </c>
+      <c r="L256" s="10"/>
       <c r="M256" s="3"/>
-      <c r="N256" s="10" t="s">
-        <v>2915</v>
-      </c>
+      <c r="N256" s="10"/>
       <c r="O256" s="10"/>
-      <c r="P256" s="10" t="s">
-        <v>2916</v>
-      </c>
+      <c r="P256" s="10"/>
       <c r="Q256" s="10"/>
       <c r="R256" s="3"/>
       <c r="S256" s="3" t="s">
@@ -29293,45 +29327,49 @@
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
       <c r="X256" s="10" t="s">
-        <v>2911</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="257" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>2918</v>
+        <v>2910</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>2283</v>
+        <v>2231</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>2921</v>
+        <v>2913</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>403</v>
+        <v>2914</v>
       </c>
       <c r="G257" s="27" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="H257" s="27" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>2923</v>
+        <v>2916</v>
       </c>
       <c r="J257" s="10"/>
       <c r="K257" s="10"/>
-      <c r="L257" s="10"/>
+      <c r="L257" s="10" t="s">
+        <v>2917</v>
+      </c>
       <c r="M257" s="3"/>
-      <c r="N257" s="10"/>
+      <c r="N257" s="10" t="s">
+        <v>2915</v>
+      </c>
       <c r="O257" s="10"/>
       <c r="P257" s="10" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="Q257" s="10"/>
       <c r="R257" s="3"/>
@@ -29343,95 +29381,87 @@
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
       <c r="X257" s="10" t="s">
-        <v>2919</v>
+        <v>2911</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="14.25" customHeight="1">
+    <row r="258" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>10</v>
+        <v>2918</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1818</v>
+        <v>2897</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>161</v>
+        <v>2283</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>2920</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>162</v>
+        <v>2921</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G258" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H258" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I258" s="10"/>
-      <c r="J258" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G258" s="27" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H258" s="27" t="s">
+        <v>2903</v>
+      </c>
+      <c r="I258" s="10" t="s">
+        <v>2923</v>
+      </c>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
+      <c r="L258" s="10"/>
       <c r="M258" s="3"/>
-      <c r="N258" s="3"/>
-      <c r="O258" s="3"/>
-      <c r="P258" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q258" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="10" t="s">
+        <v>2922</v>
+      </c>
+      <c r="Q258" s="10"/>
       <c r="R258" s="3"/>
       <c r="S258" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="T258" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="U258" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V258" s="3">
-        <v>3.7</v>
-      </c>
+        <v>1788</v>
+      </c>
+      <c r="T258" s="3"/>
+      <c r="U258" s="3"/>
+      <c r="V258" s="3"/>
       <c r="W258" s="3"/>
-      <c r="X258" s="3" t="s">
-        <v>168</v>
+      <c r="X258" s="10" t="s">
+        <v>2919</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="20" customHeight="1">
+    <row r="259" spans="1:24" ht="14.25" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1491</v>
+        <v>1818</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I259" s="3"/>
+        <v>1683</v>
+      </c>
+      <c r="I259" s="10"/>
       <c r="J259" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -29439,14 +29469,14 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="R259" s="3"/>
-      <c r="S259" s="18" t="s">
-        <v>159</v>
+      <c r="S259" s="3" t="s">
+        <v>1787</v>
       </c>
       <c r="T259" s="3" t="s">
         <v>167</v>
@@ -29455,41 +29485,41 @@
         <v>160</v>
       </c>
       <c r="V259" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="20" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
@@ -29497,13 +29527,13 @@
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
       <c r="P260" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q260" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="R260" s="3"/>
-      <c r="S260" s="3" t="s">
+      <c r="S260" s="18" t="s">
         <v>159</v>
       </c>
       <c r="T260" s="3" t="s">
@@ -29513,41 +29543,41 @@
         <v>160</v>
       </c>
       <c r="V260" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W260" s="3"/>
       <c r="X260" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="20" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -29555,10 +29585,10 @@
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
       <c r="P261" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="R261" s="3"/>
       <c r="S261" s="3" t="s">
@@ -29571,41 +29601,41 @@
         <v>160</v>
       </c>
       <c r="V261" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="W261" s="3"/>
       <c r="X261" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="20" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>2534</v>
+        <v>14</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I262" s="3"/>
       <c r="J262" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
@@ -29613,10 +29643,10 @@
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
       <c r="P262" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q262" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R262" s="3"/>
       <c r="S262" s="3" t="s">
@@ -29629,41 +29659,41 @@
         <v>160</v>
       </c>
       <c r="V262" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W262" s="3"/>
       <c r="X262" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>15</v>
+        <v>2534</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
@@ -29671,10 +29701,10 @@
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
       <c r="P263" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q263" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="R263" s="3"/>
       <c r="S263" s="3" t="s">
@@ -29687,41 +29717,41 @@
         <v>160</v>
       </c>
       <c r="V263" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="W263" s="3"/>
       <c r="X263" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="264" spans="1:24" ht="20" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
@@ -29729,10 +29759,10 @@
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
       <c r="P264" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q264" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R264" s="3"/>
       <c r="S264" s="3" t="s">
@@ -29745,41 +29775,41 @@
         <v>160</v>
       </c>
       <c r="V264" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W264" s="3"/>
       <c r="X264" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="20" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
@@ -29787,10 +29817,10 @@
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
       <c r="P265" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q265" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="R265" s="3"/>
       <c r="S265" s="3" t="s">
@@ -29803,41 +29833,41 @@
         <v>160</v>
       </c>
       <c r="V265" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W265" s="3"/>
       <c r="X265" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="266" spans="1:24" ht="20" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I266" s="3"/>
       <c r="J266" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
@@ -29845,10 +29875,10 @@
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
       <c r="P266" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q266" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="R266" s="3"/>
       <c r="S266" s="3" t="s">
@@ -29861,41 +29891,41 @@
         <v>160</v>
       </c>
       <c r="V266" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W266" s="3"/>
       <c r="X266" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="20" customHeight="1">
-      <c r="A267" s="36" t="s">
-        <v>2314</v>
+      <c r="A267" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I267" s="3"/>
       <c r="J267" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
@@ -29903,10 +29933,10 @@
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
       <c r="P267" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q267" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="R267" s="3"/>
       <c r="S267" s="3" t="s">
@@ -29919,41 +29949,41 @@
         <v>160</v>
       </c>
       <c r="V267" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W267" s="3"/>
       <c r="X267" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="20" customHeight="1">
-      <c r="A268" s="2" t="s">
-        <v>117</v>
+      <c r="A268" s="36" t="s">
+        <v>2314</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1982</v>
+        <v>1499</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1079</v>
+        <v>237</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>1080</v>
+        <v>238</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>1081</v>
+        <v>239</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>1599</v>
+        <v>1682</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>1599</v>
+        <v>1682</v>
       </c>
       <c r="I268" s="3"/>
       <c r="J268" s="3" t="s">
-        <v>1082</v>
+        <v>240</v>
       </c>
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
@@ -29961,114 +29991,116 @@
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
       <c r="P268" s="3" t="s">
-        <v>1083</v>
+        <v>241</v>
       </c>
       <c r="Q268" s="3" t="s">
-        <v>1084</v>
+        <v>242</v>
       </c>
       <c r="R268" s="3"/>
       <c r="S268" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T268" s="3" t="s">
-        <v>1036</v>
+        <v>167</v>
       </c>
       <c r="U268" s="3" t="s">
-        <v>351</v>
+        <v>160</v>
       </c>
       <c r="V268" s="3">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="W268" s="3"/>
       <c r="X268" s="3" t="s">
-        <v>1085</v>
+        <v>243</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="20" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B269" s="30" t="s">
-        <v>2154</v>
+        <v>117</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>1982</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D269" s="30" t="s">
-        <v>2155</v>
-      </c>
-      <c r="E269" s="30" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F269" s="30" t="s">
-        <v>178</v>
+        <v>351</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>1081</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>2158</v>
+        <v>1599</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>2159</v>
-      </c>
-      <c r="I269" s="38" t="s">
-        <v>2157</v>
-      </c>
-      <c r="J269" s="15"/>
-      <c r="K269" s="15"/>
-      <c r="L269" s="15"/>
-      <c r="M269" s="15"/>
-      <c r="N269" s="15"/>
-      <c r="O269" s="15"/>
-      <c r="P269" s="15"/>
-      <c r="Q269" s="38" t="s">
-        <v>2160</v>
-      </c>
-      <c r="R269" s="15"/>
+        <v>1599</v>
+      </c>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q269" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R269" s="3"/>
       <c r="S269" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T269" s="3" t="s">
-        <v>167</v>
+        <v>1036</v>
       </c>
       <c r="U269" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V269" s="44">
-        <v>4.8</v>
-      </c>
-      <c r="W269" s="15"/>
-      <c r="X269" s="38" t="s">
-        <v>2153</v>
+        <v>351</v>
+      </c>
+      <c r="V269" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="W269" s="3"/>
+      <c r="X269" s="3" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="20" customHeight="1">
-      <c r="A270" s="30" t="s">
-        <v>2381</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C270" s="15" t="s">
-        <v>2382</v>
+      <c r="A270" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B270" s="30" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D270" s="30" t="s">
-        <v>2385</v>
+        <v>2155</v>
       </c>
       <c r="E270" s="30" t="s">
-        <v>2386</v>
+        <v>2156</v>
       </c>
       <c r="F270" s="30" t="s">
-        <v>2387</v>
+        <v>178</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>2375</v>
+        <v>2158</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>2378</v>
-      </c>
-      <c r="I270" s="15"/>
-      <c r="J270" s="38" t="s">
-        <v>2388</v>
-      </c>
+        <v>2159</v>
+      </c>
+      <c r="I270" s="38" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J270" s="15"/>
       <c r="K270" s="15"/>
       <c r="L270" s="15"/>
       <c r="M270" s="15"/>
@@ -30076,141 +30108,197 @@
       <c r="O270" s="15"/>
       <c r="P270" s="15"/>
       <c r="Q270" s="38" t="s">
-        <v>2389</v>
+        <v>2160</v>
       </c>
       <c r="R270" s="15"/>
       <c r="S270" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T270" s="15"/>
-      <c r="U270" s="15"/>
-      <c r="V270" s="43" t="s">
-        <v>2384</v>
+      <c r="T270" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U270" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="V270" s="44">
+        <v>4.8</v>
       </c>
       <c r="W270" s="15"/>
       <c r="X270" s="38" t="s">
-        <v>2383</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="20" customHeight="1">
       <c r="A271" s="30" t="s">
-        <v>2392</v>
+        <v>2381</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>2231</v>
+        <v>2382</v>
       </c>
       <c r="D271" s="30" t="s">
-        <v>2393</v>
+        <v>2385</v>
       </c>
       <c r="E271" s="30" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="F271" s="30" t="s">
-        <v>2395</v>
+        <v>2387</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>2379</v>
-      </c>
-      <c r="I271" s="38" t="s">
-        <v>2397</v>
-      </c>
+        <v>2378</v>
+      </c>
+      <c r="I271" s="15"/>
       <c r="J271" s="38" t="s">
-        <v>2399</v>
+        <v>2388</v>
       </c>
       <c r="K271" s="15"/>
       <c r="L271" s="15"/>
       <c r="M271" s="15"/>
       <c r="N271" s="15"/>
-      <c r="O271" s="38" t="s">
-        <v>2398</v>
-      </c>
-      <c r="P271" s="38" t="s">
-        <v>2396</v>
-      </c>
+      <c r="O271" s="15"/>
+      <c r="P271" s="15"/>
       <c r="Q271" s="38" t="s">
-        <v>2400</v>
-      </c>
-      <c r="R271" s="38" t="s">
-        <v>2401</v>
-      </c>
+        <v>2389</v>
+      </c>
+      <c r="R271" s="15"/>
       <c r="S271" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T271" s="15"/>
       <c r="U271" s="15"/>
       <c r="V271" s="43" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="W271" s="15"/>
       <c r="X271" s="38" t="s">
-        <v>2391</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="20" customHeight="1">
-      <c r="A272" s="41" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B272" s="30" t="s">
-        <v>2374</v>
+      <c r="A272" s="30" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>2373</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>1832</v>
+        <v>2231</v>
       </c>
       <c r="D272" s="30" t="s">
-        <v>2403</v>
+        <v>2393</v>
       </c>
       <c r="E272" s="30" t="s">
-        <v>2404</v>
+        <v>2394</v>
       </c>
       <c r="F272" s="30" t="s">
-        <v>641</v>
+        <v>2395</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="I272" s="38" t="s">
-        <v>2407</v>
+        <v>2397</v>
       </c>
       <c r="J272" s="38" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="K272" s="15"/>
-      <c r="L272" s="38" t="s">
-        <v>2406</v>
-      </c>
+      <c r="L272" s="15"/>
       <c r="M272" s="15"/>
       <c r="N272" s="15"/>
-      <c r="O272" s="15"/>
+      <c r="O272" s="38" t="s">
+        <v>2398</v>
+      </c>
       <c r="P272" s="38" t="s">
-        <v>2408</v>
-      </c>
-      <c r="Q272" s="15"/>
-      <c r="R272" s="15"/>
+        <v>2396</v>
+      </c>
+      <c r="Q272" s="38" t="s">
+        <v>2400</v>
+      </c>
+      <c r="R272" s="38" t="s">
+        <v>2401</v>
+      </c>
       <c r="S272" s="3" t="s">
         <v>159</v>
       </c>
       <c r="T272" s="15"/>
       <c r="U272" s="15"/>
       <c r="V272" s="43" t="s">
+        <v>2390</v>
+      </c>
+      <c r="W272" s="15"/>
+      <c r="X272" s="38" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" ht="20" customHeight="1">
+      <c r="A273" s="41" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B273" s="30" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D273" s="30" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E273" s="30" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F273" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I273" s="38" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J273" s="38" t="s">
+        <v>2405</v>
+      </c>
+      <c r="K273" s="15"/>
+      <c r="L273" s="38" t="s">
+        <v>2406</v>
+      </c>
+      <c r="M273" s="15"/>
+      <c r="N273" s="15"/>
+      <c r="O273" s="15"/>
+      <c r="P273" s="38" t="s">
+        <v>2408</v>
+      </c>
+      <c r="Q273" s="15"/>
+      <c r="R273" s="15"/>
+      <c r="S273" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="T273" s="15"/>
+      <c r="U273" s="15"/>
+      <c r="V273" s="43" t="s">
         <v>2384</v>
       </c>
-      <c r="W272" s="15"/>
-      <c r="X272" s="30" t="s">
+      <c r="W273" s="15"/>
+      <c r="X273" s="30" t="s">
         <v>2402</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X272">
-    <sortCondition ref="B2:B272"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X273">
+    <sortCondition ref="B2:B273"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -30219,53 +30307,53 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J159" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="X159" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J160" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X160" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I81" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="X81" r:id="rId4" display="https://www.google.com.tw/maps/place/%E8%8F%AF%E6%BD%AE%E6%89%8B%E5%89%B5%E6%96%99%E7%90%86(%E7%84%A1%E6%8E%A5%E8%A7%B8%E5%8F%96%E9%A4%90)%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%9C%83%E8%AD%B0%E4%BE%BF%E7%95%B6%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81%2F%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%E5%A4%96%E9%80%81/@25.0575831,121.3681544,16.96z/data=!4m5!3m4!1s0x3442a73b73246999:0xb466e5bd6aabb4e4!8m2!3d25.0591822!4d121.3698732?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P160" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q160" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X160" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I161" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="X161" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q162" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="X162" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J163" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="X163" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J164" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="X164" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J165" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="X165" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J166" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="X166" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J169" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="X169" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J170" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="X170" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J171" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="X171" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J172" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="X172" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J174" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="X174" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J176" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="X176" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J178" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="X178" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J179" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="X179" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J180" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="X180" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="X181" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J182" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="X182" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="X184" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="P185" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q185" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I186" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="X186" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J187" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="X187" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P161" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q161" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X161" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I162" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="X162" r:id="rId9" display="https://www.google.ca/maps/place/%E6%98%8E%E6%B0%B4%E7%84%B6%E3%83%BB%E6%A8%82-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738036,121.3668081,17z/data=!4m5!3m4!1s0x3442a7e5ecb94375:0xf2a1dbb6301faa45!8m2!3d25.0737609!4d121.3690299?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q163" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="X163" r:id="rId11" display="https://www.google.com.tw/search?q=table+f+%E9%90%B5%E6%9D%BF%E7%87%92+%28%E5%95%86%E5%8B%99%E9%A4%90%E6%95%98+%2F+%E7%94%9F" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J164" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="X164" r:id="rId13" display="https://www.google.com.tw/maps/place/China+Spice+%E8%81%9A%E5%91%B3%E8%BB%92%E4%B8%AD%E9%A4%90%E5%BB%B3/@25.0663193,121.3585877,17z/data=!3m2!4b1!5s0x3442a72e627cf1d5:0x875fe32d67ee0c11!4m5!3m4!1s0x3442a7dcbbdafd15:0x6971e4e55cceee5d!8m2!3d25.0663193!4d121.3607764?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J165" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="X165" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J166" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="X166" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J167" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="X167" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J170" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="X170" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J171" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="X171" r:id="rId23" display="https://www.google.com.tw/maps/place/S%C3%B6t+cafe+Bistronomy+%E6%B5%AE%E5%B3%B6%E5%B1%95%E6%82%85%E5%BA%97/@25.0903959,121.3788836,17z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5bGV5oKF5rWu5bO25ZKW5ZWh6aSo!3m5!1s0x3442a6eb3619c47b:0x47e7cbddc475b699!8m2!3d25.0905085!4d121.3811853!15sCh7mlrDljJfluILlsZXmgoXmta7ls7blkpbllaHppKhaJiIk5pawIOWMl-W4giDlsZUg5oKFIOa1ruWztiDlkpbllaEg6aSokgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMGIyUXRSRFJCUlJBQg?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J172" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="X172" r:id="rId25" display="https://www.google.com.tw/maps/place/%E7%93%A6%E5%9F%8E%E6%B3%B0%E5%9C%8B%E6%96%99%E7%90%86+-+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0705022,121.3640182,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7289cf4630d:0x76fd90baa4c0fae8!8m2!3d25.0705022!4d121.3662122?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J173" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="X173" r:id="rId27" display="https://www.google.com.tw/maps/place/%E8%92%B8%E7%BF%BB%E5%A4%A9%E6%B5%B7%E9%AE%AE%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%E9%A4%90%E5%BB%B3%2F%E6%9E%97%E5%8F%A3%E8%92%B8%E6%B0%A3%E7%81%AB%E9%8D%8B%2F%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E5%A1%94%E6%8E%A8%E8%96%A6%2F%E6%9E%97%E5%8F%A3%E6%B5%B7%E9%AE%AE%E9%A4%90%E5%BB%B3%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E9%BE%9C%E5%B1%B1%E8%92%B8%E6%B0%A3%E6%B5%B7%E9%AE%AE%E6%8E%A8%E8%96%A6/@25.0741941,121.3802713,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6e154b55c29:0x49c8469032e46f83!8m2!3d25.0742909!4d121.3824209?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J175" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="X175" r:id="rId29" display="https://www.google.ca/maps/place/QUARTER+MILE%E5%B1%85%E9%85%92%E5%B1%8B/@25.075511,112.4144438,5z/data=!3m1!5s0x3442a6e72e148a3b:0xa9d8962395a2c4e3!4m9!1m2!2m1!1z5Zub5YiG5LmL5LiA5bGF6YWS5bGL!3m5!1s0x3442a70757639ff9:0x9a8dce663e08c85b!8m2!3d25.075511!4d121.3792876!15sChXlm5vliIbkuYvkuIDlsYXphZLlsYtaGyIZ5ZubIOWIhiDkuYsg5LiAIOWxhemFkuWxi5IBG2phcGFuZXNlX2l6YWtheWFfcmVzdGF1cmFudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcGVrMXBaMlZSRUFF?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J177" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="X177" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J179" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="X179" r:id="rId33" display="https://www.google.com.tw/maps/place/%E7%AF%89%E6%A8%82%E8%A4%87%E5%90%88%E5%BC%8F%E9%A4%90%E5%BB%B3+%E8%87%BA%E8%8F%9C%2F%E6%97%A5%E5%BC%8F%2F%E6%B8%AF%E5%BC%8F/@25.0729245,121.3648333,16z/data=!4m12!1m6!3m5!1s0x3442a738f00f0077:0x16bb633bd1a291fd!2z56-J5qiC6KSH5ZCI5byP6aSQ5buzIOiHuuiPnC_ml6XlvI8v5riv5byP!8m2!3d25.0729245!4d121.3676521!3m4!1s0x3442a738f00f0077:0x16bb633bd1a291fd!8m2!3d25.0729245!4d121.3676521?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J180" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="X180" r:id="rId35" display="https://www.google.com.tw/maps/place/%E8%82%A5%E5%AA%BD%E8%8C%B6%E9%A4%90%E5%BB%B3-%E6%9E%97%E5%8F%A3%E6%B8%AF%E5%BC%8F%E9%A3%B2%E8%8C%B6/@25.077384,121.3694973,17z/data=!4m5!3m4!1s0x3442a6dc042979a3:0x75462e098fd57198!8m2!3d25.077384!4d121.371686?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J181" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="X181" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="X182" r:id="rId38" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E4%BA%95%E6%A3%A7%E5%89%B5%E6%84%8F%E6%96%99%E7%90%86%E9%A4%A8/@25.0722437,121.3633776,17z/data=!3m2!4b1!5s0x3442a728062ca53f:0x5506f94c2bdb2c4b!4m5!3m4!1s0x3442a7280049e59f:0x47967c07d85ffd39!8m2!3d25.0722389!4d121.3655716?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J183" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="X183" r:id="rId40" display="https://www.google.ca/maps/place/%E9%A3%9F%E4%B9%8B%E6%9C%89%E6%83%85%EF%BC%9A%E7%BE%8E%E5%91%B3%E7%94%A8%E5%BF%83%E7%B6%93%E7%87%9F/@49.1535212,-123.1354447,14z/data=!4m5!3m4!1s0x3442a72869dba05f:0x147152b8c6ccf57a!8m2!3d25.07158!4d121.3642026?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="X185" r:id="rId41" display="https://www.google.com.tw/maps/place/21Plus+%E6%9E%97%E5%8F%A3%E9%96%80%E5%B8%82/@25.0690584,121.3639118,17z/data=!4m12!1m6!3m5!1s0x3442a714fa6382b7:0x92c7163a61584541!2zMjFQbHVzIOael-WPo-mWgOW4gg!8m2!3d25.0690536!4d121.3661005!3m4!1s0x3442a714fa6382b7:0x92c7163a61584541!8m2!3d25.0690536!4d121.3661005?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="P186" r:id="rId42" display="https://www.facebook.com/photo/?fbid=547907687359362&amp;set=pb.100064204054190.-2207520000" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q186" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I187" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="X187" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J188" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="X188" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="J84" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="I85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="X85" r:id="rId50" display="https://www.google.com.tw/maps/place/%E5%B7%9D%E5%B0%87%E8%9D%A6+%E6%B3%B0%E5%9C%8B%E6%B4%BB%E8%9D%A6%E4%B8%BB%E9%A1%8C%E9%A4%90%E5%BB%B3+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0534873,121.3570401,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a74be9237db1:0x9e3ccd92158515f5!8m2!3d25.0534825!4d121.3592342?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
@@ -30275,65 +30363,65 @@
     <hyperlink ref="X87" r:id="rId54" display="https://www.google.com.tw/maps/place/%E9%A8%B7%E4%B8%BC%E3%80%82%E6%88%91%E7%9A%84%E5%BF%83%E5%9C%A8%E9%A1%AB%E6%8A%96-%E6%9E%97%E5%8F%A3%E5%BA%97(%E4%B8%BC%E9%A3%AF%E5%B0%88%E8%B3%A3%E5%BA%97).%E6%9E%97%E5%8F%A3%E7%BE%8E%E9%A3%9F%2F%E6%A1%83%E5%9C%92%E7%BE%8E%E9%A3%9F%2F%E9%95%B7%E5%BA%9A%E7%BE%8E%E9%A3%9F%2F%E6%97%A5%E5%BC%8F%E4%B8%BC%E9%A3%AF%2F%E6%97%A5%E5%BC%8F%E4%BE%BF%E7%95%B6%2F%E4%B8%BC%E9%A3%AF%E6%8E%A8%E8%96%A6%2F%E6%A1%83%E5%9C%92%E5%BF%85%E5%90%83%2F%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%2F%E6%9E%97%E5%8F%A3%E5%BF%85%E5%90%83/@25.0520445,121.3603185,16z/data=!4m5!3m4!1s0x3442a75f9f424f75:0x93cf04fd7c8efe16!8m2!3d25.0523422!4d121.3652246?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="J88" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="X88" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J189" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="X189" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J190" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="X190" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="X191" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J192" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J193" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="X193" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J194" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="X194" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J195" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="X195" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J196" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="X196" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J197" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="X197" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J198" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="X198" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J190" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="X190" r:id="rId58" display="https://www.google.ca/maps/place/%E6%9D%B1%E4%BA%AC%E7%B4%94%E8%B1%86%E8%85%90Tokyo+Sundubu+%E6%96%B0%E5%8C%97%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0747927,121.3650847,18.4z/data=!3m1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7f632a50607:0x7afc3d547649eba0!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J191" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="X191" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="X192" r:id="rId61" display="https://www.google.com.tw/maps/place/%E7%82%B8%E7%89%9B+%E5%85%83%E6%9D%91+%E4%B8%89%E4%BA%95OUTLET+PARK%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0704017,121.3641862,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7dc5d0f788d:0x71d4a74c71ec8cbe!8m2!3d25.0704017!4d121.3663802?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J193" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J194" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="X194" r:id="rId64" display="https://www.google.ca/maps/place/%E8%B6%85%E5%A4%AF%E3%81%AE%E7%87%92%E8%82%89-%E6%9E%97%E5%8F%A3%E5%BA%97+%E9%A0%82%E7%B4%9A%E5%92%8C%E7%89%9B%E7%87%92%E8%82%89%E5%90%83%E5%88%B0%E9%A3%BD/@25.0737528,121.3666483,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x367943ec0aa44314!4m5!3m4!1s0x3442a7316d91d851:0x55fd0de8c182b5a3!8m2!3d25.073748!4d121.368837?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J195" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="X195" r:id="rId66" display="https://www.google.com.tw/maps/place/%E8%82%89%E5%A4%9A%E5%A4%9A%E7%81%AB%E9%8D%8B-%E6%9E%97%E5%8F%A3%E6%98%95%E5%A2%83%E5%BA%97/@25.0738048,121.366815,17z/data=!3m2!4b1!5s0x3442a6d8f30e1025:0x108e984c25d96f92!4m5!3m4!1s0x3442a7bef14b6d71:0x1116293bed462b25!8m2!3d25.0738!4d121.3690037?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J196" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="X196" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J197" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="X197" r:id="rId70" location="rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:%5B%5B25.120601,121.5498437%5D,%5B24.957292199999998,121.2068584%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E8%97%8F%E7%8E%8B%E6%A5%B5%E4%B8%8A%E9%8D%8B%E7%89%A9&amp;sxsrf=APq-WBuT_84kELfWNvV1MJRVsRiQu6xYFg:1649114002448&amp;source=hp&amp;ei=b3tLYvqvGYXA0PEPwO20-AI&amp;iflsig=AHkkrS4AAAAAYkuJf-gODtRkoWLcUzJhRpWf3FqFlel9&amp;oq=%E8%97%8F%E7%8E%8B&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgsILhCABBDHARCvATIFCAAQgAQyBQgAEIAEMgUIABCABDILCC4QgAQQxwEQrwE6BwgjEOoCECc6DQguEMcBEK8BEOoCECc6BQguEIAEUMEiWP3xAWDDhwJoBHAAeACAAXCIAaAGkgEDNy4ymAEAoAECoAEBsAEK&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=7116132348224642836&amp;lqi=ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ&amp;phdesc=PcRATLUf8pU&amp;ved=2ahUKEwiFh72yxPv2AhWdDjQIHf7GCsYQvS56BAgHEAE&amp;rlst=f#rlfi=hd:;si:7116132348224642836,l,ChLol4_njovmpbXkuIrpjYvnialIyIjNwa6wgIAIWicQABABEAIQAxgAGAEYAhgDIhXol48g546LIOalteS4iiDpjYvniamSARJob3RfcG90X3Jlc3RhdXJhbnQ,y,PcRATLUf8pU;mv:[[25.120601,121.5498437],[24.957292199999998,121.2068584]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J198" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="X198" r:id="rId72" display="https://www.google.com.tw/maps/place/22:02%E7%81%AB%E9%8D%8B%E6%9E%97%E5%8F%A3A9%E5%BA%97/@25.0663398,121.3593625,17z/data=!3m2!4b1!5s0x3442a7292586cf11:0x703479ec14144dc9!4m5!3m4!1s0x3442a6d8f37ed567:0xeb5e73cbf3a1886f!8m2!3d25.0663398!4d121.3615512?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J199" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="X199" r:id="rId74" display="https://www.google.com.tw/maps/place/%E5%BE%A1%E9%BC%8E%E6%B9%AF+%E5%8E%9F%E6%9C%AC%E9%8D%8B%E7%89%A9+%E6%9E%97%E5%8F%A3%E4%BB%81%E6%84%9B%E5%BA%97/@25.0766312,121.3489812,13z/data=!4m9!1m2!2m1!1z5paw5YyX5biC5b6h6byO5rmv5Y6f5pys6Y2L54mp!3m5!1s0x3442a748fc9abb59:0x2bdfe620d9af149b!8m2!3d25.0765474!4d121.3858298!15sCh7mlrDljJfluILlvqHpvI7mua_ljp_mnKzpjYvnialaJiIk5pawIOWMl-W4giDlvqEg6byOIOa5r-WOnyDmnKwg6Y2L54mpkgEKcmVzdGF1cmFudA?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="J91" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="X91" r:id="rId76" display="https://www.google.com.tw/maps/place/%E8%B1%AC%E5%B0%8D%E6%9C%89%E7%87%92%E7%83%A4%E5%90%83%E5%88%B0%E9%A3%BD+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0573643,121.3646916,17z/data=!4m5!3m4!1s0x3442a7bb6b778aaf:0xbda3de9d60485dc5!8m2!3d25.0573595!4d121.3668856?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="R94" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="X92" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J200" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="X200" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J201" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="X201" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J202" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="X202" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J203" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="X203" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J205" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="X205" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J201" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="X201" r:id="rId80" display="https://www.google.com.tw/maps/place/%E7%91%9E%E8%8E%8E%E5%A1%94%E5%BB%9A%E6%88%BF%EF%BD%9C%E7%BE%A9%E5%BC%8F%E7%BE%8E%E9%A3%9F%EF%BD%9C%E5%8F%8B%E5%96%84%E8%A6%AA%E5%AD%90%EF%BD%9C%E7%8E%A9%E6%A8%82%E7%A9%BA%E9%96%93%EF%BD%9C%E5%8C%85%E5%A0%B4%E6%B4%BE%E5%B0%8D%EF%BD%9C%E6%8A%93%E9%80%B1%E6%B4%BB%E5%8B%95/@25.0811402,121.3697539,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a71fb81e52f3:0x21ef8686d2d45830!8m2!3d25.0811402!4d121.3719426?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J202" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="X202" r:id="rId82" display="https://www.google.com.tw/maps/place/%E7%94%9C%E8%92%94%E5%90%87%E8%88%92%E8%8A%99%E8%95%BE%E5%92%96%E5%95%A1%E5%B0%88%E8%B3%A3/@25.069282,121.3641541,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7b6e5b090b9:0x3660f93869cab755!8m2!3d25.069282!4d121.3663481?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J203" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="X203" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J204" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="X204" r:id="rId86" display="https://www.google.com.tw/maps/place/%E7%BE%8E%E9%BA%97%E8%94%AC%C2%B7%E8%94%AC%E9%A3%9F%E6%96%99%E7%90%86+Meili+GREEN/@25.07551,121.3677293,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6d946c2df93:0x64a5d1157aaee9c5!8m2!3d25.0755062!4d121.3699267?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J206" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="X206" r:id="rId88" display="https://www.google.com.tw/maps/place/JAPOLI%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A4%90%E9%85%92%E9%A4%A8+(%E4%B8%89%E4%BA%95outlet%E5%BA%97)/@25.0709138,121.3615353,17z/data=!4m8!1m2!2m1!1z5p6X5Y-jSmFwb2xpIC3kuInkupXlupc!3m4!1s0x3442a7285fa91bef:0x56171e03ce39229c!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="R95" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="X95" r:id="rId90" display="https://www.google.com.tw/maps/place/%E6%A2%85%E8%8F%8A%E6%89%8B%E4%BD%9C%E9%AD%AF%E8%82%89%E9%A3%AF%EF%BC%88%E5%AF%B5%E7%89%A9%E5%8F%8B%E5%96%84%EF%BC%89/@25.055566,121.3601271,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7c690e6c15f:0x67925f1c40e9f6b7!8m2!3d25.055566!4d121.3623211?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="J96" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="X96" r:id="rId92" display="https://www.google.com.tw/maps/place/%E5%93%81%E6%82%85%E9%A3%9F%E5%A0%82-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E9%99%84%E8%BF%91%E7%BE%8E%E9%A3%9F%7C%E8%8F%AF%E4%BA%9E%E5%9C%92%E5%8D%80%E7%89%B9%E8%89%B2%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E8%8F%AF%E4%BA%9E%E5%A4%96%E9%80%81%E4%BE%BF%E7%95%B6%E5%BA%97%7C%E9%95%B7%E5%BA%9A%E6%8E%A8%E8%96%A6%E4%BE%BF%E7%95%B6%7C%E9%BE%9C%E5%B1%B1%E5%BF%85%E5%90%83%E4%BE%BF%E7%95%B6%7C%E4%BE%BF%E7%95%B6%E5%BA%97%E6%8E%A8%E8%96%A6/@25.0589757,121.3631455,17.02z/data=!3m1!5s0x3442a736dc029dcf:0xe75dc58e04184938!4m5!3m4!1s0x3442a7309c04a1c1:0xbaf43782b13152bd!8m2!3d25.0589694!4d121.3653643?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="I97" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="X97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J207" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="X207" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J209" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="X209" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J210" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="X210" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="X211" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="X212" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J208" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="X208" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J210" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="X210" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J211" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="X211" r:id="rId100" display="https://www.google.com.tw/maps/place/%E3%81%8F%E3%82%89%E5%AF%BF%E5%8F%B8+%E8%97%8F%E5%A3%BD%E5%8F%B8+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95OUTLET%E5%BA%97/@25.0707347,121.3617667,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0xae3f42c1fc7f16ab!8m2!3d25.0707347!4d121.3639607?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="X212" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="X213" r:id="rId102" display="https://www.google.com.tw/maps/place/%E9%87%91%E5%AD%90%E5%8D%8A%E4%B9%8B%E5%8A%A9+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0707348,121.3617669,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a72858e072d7:0x63e7d7c27f658eb2!8m2!3d25.0707348!4d121.3639609?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="X98" r:id="rId103" display="https://www.google.com.tw/maps/place/%E4%B8%80%E5%B0%87%E5%A3%BD%E5%8F%B8+One+Show+Sushi/@25.0551207,121.3650204,17z/data=!3m2!4b1!5s0x3442a739bf3b5e29:0x588981558b0d7dc4!4m5!3m4!1s0x3442a7d1c25ea1ed:0xc9fd7840e5972c3e!8m2!3d25.0551207!4d121.3672144?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="J101" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="X101" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J214" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="X214" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J215" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="X215" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J216" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="X216" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J218" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="X218" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J219" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="X219" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J215" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="X215" r:id="rId107" display="https://www.google.com.tw/maps/place/%E9%82%A3%E9%96%93%E8%B3%A3%E5%86%B0%E7%9A%84%E5%92%96%E5%95%A1%E5%BA%97+Blue+Lamp+Cafe/@25.0777589,121.3895923,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a6f0814428fb:0x3fda622b88f50443!8m2!3d25.0777544!4d121.3917815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J216" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="X216" r:id="rId109" display="https://www.google.com.tw/maps/place/%E6%B3%95%E5%9C%8B%E7%9A%84%E7%A7%98%E5%AF%86%E7%94%9C%E9%BB%9E+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0708436,121.3637902,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a7285ada4877:0x973a03c1bc55040e!8m2!3d25.0708436!4d121.3659842?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J217" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="X217" r:id="rId111" display="https://www.google.com.tw/maps/place/PAUL+Cafe+%E6%B3%95%E5%9C%8B%E4%BF%9D%E7%BE%85%E9%BA%B5%E5%8C%85%E4%B8%89%E4%BA%95+Outlet+%E6%9E%97%E5%8F%A3%E5%BA%97+-+%E6%97%A9%E5%8D%88%E9%A4%90+%E4%B8%8B%E5%8D%88%E8%8C%B6+%E8%9B%8B%E7%B3%95+%E6%B3%95%E5%BC%8F%E7%94%9C%E9%BB%9E+%E5%81%A5%E5%BA%B7%E8%BC%95%E9%A3%9F+%E5%8D%83%E5%B1%A4%E6%B4%BE+%E5%92%96%E5%95%A1%E5%BA%97/@25.0709529,121.3616475,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f66849db:0x4063ce04d7104d58!8m2!3d25.0709529!4d121.3638415?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J219" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="X219" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J220" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="X220" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="I52" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="X52" r:id="rId117" display="https://www.google.com.tw/maps/place/%E6%AF%AB%E7%B1%B3%E5%92%96%E5%95%A1Millimetre+Cafe/@25.0298636,121.3862162,17z/data=!4m14!1m8!3m7!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!2z5q-r57Gz5ZKW5ZWhTWlsbGltZXRyZSBDYWZl!8m2!3d25.0298622!4d121.3883815!14m1!1BCgIgAQ!3m4!1s0x3442a77cd6281d4d:0xe33faead2bb5dcda!8m2!3d25.0298622!4d121.3883815?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="J102" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
@@ -30345,14 +30433,14 @@
     <hyperlink ref="I105" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="P105" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="Q105" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J222" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="X222" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J223" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="X223" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J224" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="X224" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J226" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="X226" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J223" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="X223" r:id="rId128" display="https://www.google.com.tw/maps/place/%E9%A3%9B%E6%A9%9F%E6%B2%B3%E7%B2%89+%E6%9E%97%E5%8F%A3%E4%B8%89%E4%BA%95%E5%BA%97/@25.0685803,121.362557,16.2z/data=!4m9!1m2!2m1!1z6aOb5qmf5rKz57KJ!3m5!1s0x3442a7f4d7aeac33:0xb75a61d861af9558!8m2!3d25.0706446!4d121.363835!15sCgzpo5vmqZ_msrPnsolaECIO6aOb5qmfIOaysyDnsomSARV2aWV0bmFtZXNlX3Jlc3RhdXJhbnQ?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J224" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="X224" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J225" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="X225" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J227" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="X227" r:id="rId134" display="https://www.google.com.tw/maps/place/KUA%60AINA+%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%BC%A2%E5%A0%A1+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0705542,121.3615452,17z/data=!3m1!4b1!4m5!3m4!1s0x3442a728f6c1b771:0xbc02cdf97a3319f2!8m2!3d25.0705542!4d121.363709?hl=zh-TW&amp;authuser=0" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
     <hyperlink ref="J107" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="X107" r:id="rId136" location="rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:%5B%5B25.073528099999997,121.4300487%5D,%5B24.9801288,121.3005194%5D%5D;tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" display="https://www.google.com.tw/search?q=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;sxsrf=AOaemvJa0u7lJKPsiRcVtRvDZjJyqxtl4Q:1637397953224&amp;source=hp&amp;ei=trWYYbLdOJHrmAXbm4PoCA&amp;iflsig=ALs-wAMAAAAAYZjDxqQGKRPaWKt9BL6Rh_jmWRGiCMWB&amp;ved=2ahUKEwie5O3axqb0AhVIrVYBHQC9AKkQvS56BAgKEDw&amp;uact=5&amp;oq=%E9%BE%9C%E5%B1%B1%E9%B1%B8%E9%AD%9A%E6%B9%AF&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEM0COgcIIxDqAhAnOg0ILhDHARCvARDqAhAnOgQIIxAnOg4ILhCABBCxAxDHARDRAzoICAAQgAQQsQM6DgguEIAEELEDEMcBEKMCOgUILhCABDoFCAAQgAQ6BAgAEEM6CggAELEDEIMBEEM6CwgAEIAEELEDEIMBOggILhCABBCxAzoLCC4QgAQQxwEQrwE6CAgAELEDEIMBOgsILhCABBCxAxCDAToCCCZQuQ5YlUFgqUdoA3AAeACAAWaIAfsIkgEEMTYuMZgBAKABAbABCg&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:9&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=11820264403630838222&amp;lqi=Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF&amp;phdesc=dUIbgtEpGm0&amp;rlst=f#rlfi=hd:;si:11820264403630838222,l,Cg_pvpzlsbHpsbjprZrmua9aFCIS6b6cIOWxsSDpsbjprZog5rmvkgEKcmVzdGF1cmFudJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNHUXRNR2RCUlJBQqoBFwoKL20vMDF6MW0xeBABKgciA-a5ryhF,y,dUIbgtEpGm0;mv:[[25.073528099999997,121.4300487],[24.9801288,121.3005194]];tbs:lrf:!1m4!1u3!2m2!3m1!1e1!1m4!1u2!2m2!2m1!1e1!2m1!1e2!2m1!1e3!3sIAE,lf:1,lf_ui:9" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
     <hyperlink ref="J108" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
@@ -30442,103 +30530,103 @@
     <hyperlink ref="N21" r:id="rId221" display="https://www.ubereats.com/tw/store/joyfull-%E5%AE%B6%E6%A8%82%E7%A6%8F%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/KqxuraEhVbmGUWxJ59Q3eQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{3B8E6762-401E-1047-9C79-DB854A6C0493}"/>
     <hyperlink ref="N24" r:id="rId222" display="https://www.ubereats.com/tw/store/%E6%97%A9%E6%97%A9%E9%BB%9E%E7%82%AD%E7%81%AB%E4%B8%89%E6%98%8E%E6%B2%BB/2uoTMVvsWSO5glewU92HhQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{2AE7BA2A-AA82-AE45-8316-39C67A2280BA}"/>
     <hyperlink ref="N27" r:id="rId223" display="https://www.ubereats.com/tw/store/%E6%B8%85%E5%BF%83%E7%A6%8F%E5%85%A8-%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/VJfrU05JVMK23SqLnhBUfQ?diningMode=DELIVERY&amp;pl=JTdCJTIyYWRkcmVzcyUyMiUzQSUyMkphZGUlMjBEeW5hc3R5JTIyJTJDJTIycmVmZXJlbmNlJTIyJTNBJTIyZjgyZTA1YTItODE2NS0xMGU4LWQ3M2QtNDMwYzIyOWY5MjA4JTIyJTJDJTIycmVmZXJlbmNlVHlwZSUyMiUzQSUyMnViZXJfcGxhY2VzJTIyJTJDJTIybGF0aXR1ZGUlMjIlM0E0OS4yODA2MjMxJTJDJTIybG9uZ2l0dWRlJTIyJTNBLTEyMy4xMDA5NTQ5JTdE&amp;utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{F645F1A7-85B6-C94B-ABBF-91F4C7C7D644}"/>
-    <hyperlink ref="X230" r:id="rId224" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
-    <hyperlink ref="Q230" r:id="rId225" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
-    <hyperlink ref="P230" r:id="rId226" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
-    <hyperlink ref="I230" r:id="rId227" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
+    <hyperlink ref="X231" r:id="rId224" xr:uid="{064EA7F9-6CC0-3E42-A5E3-EEE2E0B0BF5D}"/>
+    <hyperlink ref="Q231" r:id="rId225" xr:uid="{1F91DADC-E249-7B4B-B260-4335C0109976}"/>
+    <hyperlink ref="P231" r:id="rId226" xr:uid="{36FC4C56-4B49-7444-A281-BC9939011FCA}"/>
+    <hyperlink ref="I231" r:id="rId227" xr:uid="{2508CB50-A1D4-D24F-A335-6CBCA0E7CD5D}"/>
     <hyperlink ref="X129" r:id="rId228" display="https://www.google.com/maps/place/%E8%A5%BF%E5%A0%A4%E7%89%9B%E6%8E%92+%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0558945,121.3623937,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7fa20a4931d:0xbf676917d5844524!8m2!3d25.0558897!4d121.364974!16s%2Fg%2F11vbzb_7x6?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{48100F0D-8564-4D4F-A2F7-C01190A592F3}"/>
     <hyperlink ref="I129" r:id="rId229" xr:uid="{70075A5E-07D7-C643-8900-F1F53B633058}"/>
     <hyperlink ref="I130" r:id="rId230" xr:uid="{C63E6F88-32E9-E145-8659-BC34F5A3224E}"/>
-    <hyperlink ref="X231" r:id="rId231" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
-    <hyperlink ref="I231" r:id="rId232" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
-    <hyperlink ref="K231" r:id="rId233" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
-    <hyperlink ref="J230" r:id="rId234" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
-    <hyperlink ref="Q187" r:id="rId235" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
-    <hyperlink ref="N188" r:id="rId236" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
-    <hyperlink ref="O188" r:id="rId237" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
-    <hyperlink ref="I188" r:id="rId238" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
-    <hyperlink ref="I199" r:id="rId239" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
-    <hyperlink ref="N218" r:id="rId240" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
-    <hyperlink ref="O218" r:id="rId241" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
-    <hyperlink ref="I227" r:id="rId242" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
-    <hyperlink ref="N227" r:id="rId243" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
-    <hyperlink ref="O227" r:id="rId244" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
-    <hyperlink ref="I172" r:id="rId245" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
-    <hyperlink ref="I175" r:id="rId246" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
-    <hyperlink ref="N175" r:id="rId247" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
-    <hyperlink ref="I166" r:id="rId248" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
-    <hyperlink ref="K159" r:id="rId249" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
-    <hyperlink ref="I158" r:id="rId250" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
-    <hyperlink ref="N185" r:id="rId251" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
-    <hyperlink ref="I184" r:id="rId252" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
-    <hyperlink ref="N204" r:id="rId253" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
-    <hyperlink ref="I201" r:id="rId254" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
-    <hyperlink ref="L217" r:id="rId255" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
-    <hyperlink ref="I197" r:id="rId256" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
-    <hyperlink ref="N197" r:id="rId257" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
-    <hyperlink ref="O197" r:id="rId258" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
-    <hyperlink ref="I168" r:id="rId259" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
-    <hyperlink ref="N168" r:id="rId260" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
-    <hyperlink ref="O168" r:id="rId261" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
-    <hyperlink ref="I191" r:id="rId262" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
-    <hyperlink ref="I164" r:id="rId263" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
-    <hyperlink ref="I171" r:id="rId264" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
-    <hyperlink ref="O171" r:id="rId265" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
-    <hyperlink ref="N183" r:id="rId266" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
-    <hyperlink ref="I183" r:id="rId267" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
-    <hyperlink ref="I211" r:id="rId268" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
-    <hyperlink ref="N212" r:id="rId269" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
-    <hyperlink ref="O212" r:id="rId270" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
-    <hyperlink ref="I212" r:id="rId271" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
-    <hyperlink ref="I216" r:id="rId272" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
-    <hyperlink ref="N222" r:id="rId273" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
-    <hyperlink ref="I226" r:id="rId274" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
-    <hyperlink ref="N226" r:id="rId275" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
-    <hyperlink ref="O226" r:id="rId276" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
-    <hyperlink ref="I205" r:id="rId277" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
-    <hyperlink ref="N205" r:id="rId278" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
-    <hyperlink ref="I210" r:id="rId279" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
-    <hyperlink ref="I215" r:id="rId280" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
-    <hyperlink ref="I182" r:id="rId281" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
-    <hyperlink ref="O182" r:id="rId282" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
-    <hyperlink ref="I196" r:id="rId283" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
-    <hyperlink ref="I173" r:id="rId284" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
-    <hyperlink ref="J161" r:id="rId285" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
-    <hyperlink ref="I189" r:id="rId286" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
-    <hyperlink ref="I194" r:id="rId287" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
-    <hyperlink ref="I193" r:id="rId288" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
-    <hyperlink ref="I202" r:id="rId289" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
-    <hyperlink ref="N202" r:id="rId290" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
-    <hyperlink ref="O202" r:id="rId291" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
-    <hyperlink ref="I203" r:id="rId292" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
-    <hyperlink ref="O203" r:id="rId293" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
-    <hyperlink ref="N179" r:id="rId294" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
-    <hyperlink ref="O179" r:id="rId295" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
-    <hyperlink ref="I163" r:id="rId296" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
-    <hyperlink ref="I170" r:id="rId297" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
-    <hyperlink ref="N209" r:id="rId298" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
-    <hyperlink ref="P209" r:id="rId299" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
-    <hyperlink ref="I192" r:id="rId300" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
-    <hyperlink ref="N208" r:id="rId301" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
-    <hyperlink ref="O208" r:id="rId302" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
-    <hyperlink ref="I200" r:id="rId303" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
-    <hyperlink ref="N200" r:id="rId304" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
-    <hyperlink ref="N229" r:id="rId305" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
-    <hyperlink ref="P229" r:id="rId306" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
-    <hyperlink ref="O225" r:id="rId307" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
-    <hyperlink ref="I178" r:id="rId308" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
-    <hyperlink ref="I169" r:id="rId309" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
-    <hyperlink ref="N169" r:id="rId310" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
-    <hyperlink ref="N214" r:id="rId311" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
-    <hyperlink ref="R214" r:id="rId312" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
-    <hyperlink ref="R224" r:id="rId313" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
-    <hyperlink ref="N223" r:id="rId314" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
-    <hyperlink ref="O223" r:id="rId315" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
-    <hyperlink ref="I177" r:id="rId316" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
-    <hyperlink ref="I157" r:id="rId317" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
-    <hyperlink ref="I207" r:id="rId318" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
-    <hyperlink ref="N207" r:id="rId319" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
-    <hyperlink ref="O207" r:id="rId320" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
+    <hyperlink ref="X232" r:id="rId231" xr:uid="{061C3D6D-18EE-5B42-83A8-E902F276B33B}"/>
+    <hyperlink ref="I232" r:id="rId232" xr:uid="{80ED08D6-DF1B-6441-8785-A6D622E4BA39}"/>
+    <hyperlink ref="K232" r:id="rId233" xr:uid="{B081DD1D-ADAF-6C4B-B6C0-798F426F9347}"/>
+    <hyperlink ref="J231" r:id="rId234" xr:uid="{496BA2C1-920C-1B49-ADDC-29C02E5714F7}"/>
+    <hyperlink ref="Q188" r:id="rId235" xr:uid="{070ED671-2106-7A48-9225-96ABCC721F31}"/>
+    <hyperlink ref="N189" r:id="rId236" xr:uid="{D204B1FD-F1B8-F643-82BC-0B439DFC33D4}"/>
+    <hyperlink ref="O189" r:id="rId237" xr:uid="{FA865B96-DB63-A24D-8E8D-D39A206C6EAE}"/>
+    <hyperlink ref="I189" r:id="rId238" xr:uid="{C1E415CF-96EC-7E4B-A664-C24DC3A8FA59}"/>
+    <hyperlink ref="I200" r:id="rId239" xr:uid="{5D4EE6BC-713E-CF42-8790-D3500EF3CEE8}"/>
+    <hyperlink ref="N219" r:id="rId240" xr:uid="{5F460445-9AC0-C446-ABBB-ABC221C83D95}"/>
+    <hyperlink ref="O219" r:id="rId241" xr:uid="{33946E3A-515F-F642-9D1C-5966E7218DC8}"/>
+    <hyperlink ref="I228" r:id="rId242" xr:uid="{F6B8EFB2-594B-6F47-8810-56169C45830E}"/>
+    <hyperlink ref="N228" r:id="rId243" xr:uid="{5D00B244-ECBE-C642-984A-93DF9A76C4E1}"/>
+    <hyperlink ref="O228" r:id="rId244" xr:uid="{48E78078-71AC-F94C-8EDC-B7BBDB7AF7B2}"/>
+    <hyperlink ref="I173" r:id="rId245" xr:uid="{32C40B2B-DE31-ED4F-BAFE-019C4BC588B8}"/>
+    <hyperlink ref="I176" r:id="rId246" xr:uid="{158FE2EC-05F9-9149-9D80-5C2EBE47AEDC}"/>
+    <hyperlink ref="N176" r:id="rId247" xr:uid="{29D6A219-D686-F745-A52F-03EF6BF005D0}"/>
+    <hyperlink ref="I167" r:id="rId248" xr:uid="{8ACA5F05-D4A9-4A40-B5B5-9E332D825C46}"/>
+    <hyperlink ref="K160" r:id="rId249" xr:uid="{A0D55ED3-72CE-B240-87D0-893CC8908951}"/>
+    <hyperlink ref="I159" r:id="rId250" xr:uid="{2A8C2D8A-B8FB-894E-947B-0C62430788F5}"/>
+    <hyperlink ref="N186" r:id="rId251" xr:uid="{8E53D553-C2B5-BE49-A159-C0BA8F520FF1}"/>
+    <hyperlink ref="I185" r:id="rId252" xr:uid="{1AC8373D-50E9-E745-9543-D05CA03E993A}"/>
+    <hyperlink ref="N205" r:id="rId253" xr:uid="{4E8C2F84-22B3-E44F-A22E-FC317BFB77B0}"/>
+    <hyperlink ref="I202" r:id="rId254" xr:uid="{F8A0AA35-9F4E-3546-8E74-2B1F6B193C57}"/>
+    <hyperlink ref="L218" r:id="rId255" xr:uid="{D9F469D0-4BF2-0E4C-B440-1D44E7540E28}"/>
+    <hyperlink ref="I198" r:id="rId256" xr:uid="{BD201DD7-7B3E-A349-9066-8892E083767C}"/>
+    <hyperlink ref="N198" r:id="rId257" xr:uid="{37722670-8E83-9947-93CB-49A903BA2A10}"/>
+    <hyperlink ref="O198" r:id="rId258" xr:uid="{D1C47CCF-1274-C140-A34F-F34FB7AAF0AA}"/>
+    <hyperlink ref="I169" r:id="rId259" xr:uid="{AC17A3F5-8C2B-6D4F-A859-5BA0033F70A6}"/>
+    <hyperlink ref="N169" r:id="rId260" xr:uid="{978AF94B-DE10-6543-9087-08E36CCAAC74}"/>
+    <hyperlink ref="O169" r:id="rId261" xr:uid="{32BC415C-00F9-1F46-B4A9-C32410E0E513}"/>
+    <hyperlink ref="I192" r:id="rId262" xr:uid="{A7AE82D1-8363-604E-B120-A433B13C7001}"/>
+    <hyperlink ref="I165" r:id="rId263" xr:uid="{77272B10-F599-CF4D-AC59-1FDA839557F8}"/>
+    <hyperlink ref="I172" r:id="rId264" xr:uid="{A182CD1A-F629-C24B-9450-E4E7656175EE}"/>
+    <hyperlink ref="O172" r:id="rId265" xr:uid="{D243514A-DE27-2740-A219-630CFE312A40}"/>
+    <hyperlink ref="N184" r:id="rId266" xr:uid="{CBC85B15-75EA-3042-9D33-BFCB3D317D15}"/>
+    <hyperlink ref="I184" r:id="rId267" xr:uid="{5B975633-CF10-014B-B20F-565FFA6706E3}"/>
+    <hyperlink ref="I212" r:id="rId268" location="tunjing" xr:uid="{E529591A-9070-774F-BE9C-7718FF5A7200}"/>
+    <hyperlink ref="N213" r:id="rId269" xr:uid="{26844C75-00BA-CE4F-98BB-AA058694A85F}"/>
+    <hyperlink ref="O213" r:id="rId270" xr:uid="{B3E001DF-6B50-CE4C-A563-F5A9D781537A}"/>
+    <hyperlink ref="I213" r:id="rId271" xr:uid="{883234B1-CFF7-7449-8731-37EF54451792}"/>
+    <hyperlink ref="I217" r:id="rId272" xr:uid="{5FB8D991-C073-D246-AAE6-D0E4A133FFA4}"/>
+    <hyperlink ref="N223" r:id="rId273" xr:uid="{3752A21A-5CCE-4F46-AAA9-217ADD011A97}"/>
+    <hyperlink ref="I227" r:id="rId274" xr:uid="{A13CDAB2-FD3D-C142-BDCE-08D0FA9D78E5}"/>
+    <hyperlink ref="N227" r:id="rId275" xr:uid="{4768F9A6-1FD8-7D40-BFB1-CFF0198186FA}"/>
+    <hyperlink ref="O227" r:id="rId276" xr:uid="{BDDB8C6F-C204-3447-AC40-9694EB5D8090}"/>
+    <hyperlink ref="I206" r:id="rId277" xr:uid="{D95BA19F-7B9B-0046-8F83-B746C51D3954}"/>
+    <hyperlink ref="N206" r:id="rId278" xr:uid="{0B8803B7-9ECB-4742-9AA2-F5D67AC65DD7}"/>
+    <hyperlink ref="I211" r:id="rId279" xr:uid="{5F956BCD-FE7C-8049-848E-AB6487C94044}"/>
+    <hyperlink ref="I216" r:id="rId280" xr:uid="{97C6B366-C19E-9C47-9E54-E6401FF34D5A}"/>
+    <hyperlink ref="I183" r:id="rId281" xr:uid="{4C60FD05-75B4-F747-A0AF-8E4E970A72EB}"/>
+    <hyperlink ref="O183" r:id="rId282" xr:uid="{E81737A3-A606-DB41-985D-52491AA7F1E3}"/>
+    <hyperlink ref="I197" r:id="rId283" xr:uid="{09F899D9-45D6-8F46-B474-F4FA46B8365F}"/>
+    <hyperlink ref="I174" r:id="rId284" xr:uid="{A507D7EC-2A73-AD4C-ACFB-2EA6E44B2AF4}"/>
+    <hyperlink ref="J162" r:id="rId285" xr:uid="{2CA4743E-4089-DA4A-AA5D-83334BE9FE20}"/>
+    <hyperlink ref="I190" r:id="rId286" xr:uid="{81C3DB7C-E16E-1945-9D02-952272D86F1B}"/>
+    <hyperlink ref="I195" r:id="rId287" xr:uid="{D1E65217-B172-3F4E-BA4B-0F27CEFD2981}"/>
+    <hyperlink ref="I194" r:id="rId288" xr:uid="{B9259DD2-BDD3-0B43-A0FE-A89A6EC2B447}"/>
+    <hyperlink ref="I203" r:id="rId289" xr:uid="{A230A27B-A581-884D-AE61-3473B46C8663}"/>
+    <hyperlink ref="N203" r:id="rId290" xr:uid="{796BD185-2C8F-F94A-860D-AAAF5B5DF3BD}"/>
+    <hyperlink ref="O203" r:id="rId291" xr:uid="{A80B7AD9-9C77-454F-80CC-152FB52597AD}"/>
+    <hyperlink ref="I204" r:id="rId292" xr:uid="{34215B02-74BE-2E44-827C-B68CC407B053}"/>
+    <hyperlink ref="O204" r:id="rId293" xr:uid="{ADDDC60A-FB0E-E84B-BE74-60A861371364}"/>
+    <hyperlink ref="N180" r:id="rId294" xr:uid="{F153A6F2-A7CE-0E40-9281-78F4BADA8D1B}"/>
+    <hyperlink ref="O180" r:id="rId295" xr:uid="{6AD9ADDC-DB1A-6647-AD84-86ED60ADA1BB}"/>
+    <hyperlink ref="I164" r:id="rId296" xr:uid="{D1878422-FAAD-AB44-875D-201BDAD4D369}"/>
+    <hyperlink ref="I171" r:id="rId297" xr:uid="{BFD76B0C-8A9C-6B4A-B53C-5D5CDD3E28B6}"/>
+    <hyperlink ref="N210" r:id="rId298" xr:uid="{3648255E-7504-A540-84FC-33C258DA1E3D}"/>
+    <hyperlink ref="P210" r:id="rId299" xr:uid="{F5A70BB4-C07F-4F48-8835-E3416D93F3A5}"/>
+    <hyperlink ref="I193" r:id="rId300" xr:uid="{8E30F921-8972-214A-A357-F8A255484A73}"/>
+    <hyperlink ref="N209" r:id="rId301" xr:uid="{A4DC9D84-0C85-BB46-BC6E-9DFE8EF27F94}"/>
+    <hyperlink ref="O209" r:id="rId302" xr:uid="{F02E3DBA-EAE1-274E-8753-8191D18BFDBB}"/>
+    <hyperlink ref="I201" r:id="rId303" xr:uid="{6679E802-0499-3B42-925F-4B8BBEDC839A}"/>
+    <hyperlink ref="N201" r:id="rId304" xr:uid="{80104130-BF9D-3643-9390-FAEDF0B8B556}"/>
+    <hyperlink ref="N230" r:id="rId305" xr:uid="{CD7B9363-C475-B44C-96B4-44716BDBDDB8}"/>
+    <hyperlink ref="P230" r:id="rId306" xr:uid="{77736292-8388-8843-8A4B-1EBA3068E655}"/>
+    <hyperlink ref="O226" r:id="rId307" xr:uid="{5C60CDAF-4ECD-C14C-8610-6F313FEB3BA6}"/>
+    <hyperlink ref="I179" r:id="rId308" xr:uid="{9B4EE66B-CF10-6C4D-84AD-FB56C6A67BBA}"/>
+    <hyperlink ref="I170" r:id="rId309" xr:uid="{6B7D9242-395A-104C-A225-C8CD3AD22296}"/>
+    <hyperlink ref="N170" r:id="rId310" xr:uid="{0BFE5BD7-2053-6B4F-B547-DCA3521DCA72}"/>
+    <hyperlink ref="N215" r:id="rId311" xr:uid="{291C42DF-7869-E244-BC85-8DFADD549F6E}"/>
+    <hyperlink ref="R215" r:id="rId312" xr:uid="{E8B577DF-7DAA-6B4B-8BAE-E1DD534D122C}"/>
+    <hyperlink ref="R225" r:id="rId313" xr:uid="{D7144A4B-4E10-E946-BCD4-8785EDB5C070}"/>
+    <hyperlink ref="N224" r:id="rId314" xr:uid="{35736F38-226B-DA44-9C4C-6F1CA2BF6971}"/>
+    <hyperlink ref="O224" r:id="rId315" xr:uid="{8A83DD6A-D172-E240-8F22-DEFEB640C2A7}"/>
+    <hyperlink ref="I178" r:id="rId316" xr:uid="{828C9BDF-6AB8-334B-B827-85351D08FFB0}"/>
+    <hyperlink ref="I158" r:id="rId317" xr:uid="{1B9282E9-8098-1C41-9EBD-0600A499C3E6}"/>
+    <hyperlink ref="I208" r:id="rId318" xr:uid="{AE457936-9273-B941-9F4B-87B790B19646}"/>
+    <hyperlink ref="N208" r:id="rId319" xr:uid="{B4F15577-6A38-6D49-A02A-5284B20D9A8E}"/>
+    <hyperlink ref="O208" r:id="rId320" xr:uid="{89CDD539-B89D-2D43-89EA-4E609E2F9187}"/>
     <hyperlink ref="X53" r:id="rId321" display="https://www.google.com/maps/place/%E5%B0%8F%E9%B3%A5%E5%90%83%E5%90%90%E5%8F%B8+%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0460851,121.3856032,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a79d15a1798b:0x63832e557e8eaf5f!8m2!3d25.0460851!4d121.3881835!16s%2Fg%2F11khx1k1bq?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{45D9C521-E559-BC45-9F85-DFFC37D7B69D}"/>
     <hyperlink ref="N53" r:id="rId322" xr:uid="{79B50CB0-12F4-C141-B83C-09C7A9EBCF2A}"/>
     <hyperlink ref="X54" r:id="rId323" display="https://www.google.com/maps/place/%E5%8A%9F%E5%A4%AB%E8%8C%B6+KUNGFUTEA+%E9%BE%9C%E5%B1%B1%E6%A8%82%E5%96%84%E5%BA%97/@25.0458072,121.3900308,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a70cf6f0abef:0xa2ee7a9b0ca25485!8m2!3d25.0458072!4d121.3926111!16s%2Fg%2F11svlq0ll4?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AD16DD2F-FF20-054D-959B-2FDBCE9082ED}"/>
@@ -30552,12 +30640,12 @@
     <hyperlink ref="X134" r:id="rId331" display="https://www.google.com/maps/place/%E4%B8%89%E9%85%89%E9%A3%9B%E9%8F%A2%E5%92%96%E5%95%A1/@25.058021,121.36383,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7995ba96e8f:0x101be62f285e81fd!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11vkzdp2qv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{6B9CF67F-3753-7E47-ABEA-C7BEFBFC822D}"/>
     <hyperlink ref="L134" r:id="rId332" xr:uid="{1636779D-027B-0948-AE18-A5709BD9AF5E}"/>
     <hyperlink ref="X135" r:id="rId333" display="https://www.google.com/maps/place/%E5%A4%A7%E5%9F%94%E9%90%B5%E6%9D%BF%E7%87%92+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0580209,121.3615447,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a78fc5146187:0xf1963846e2e35431!8m2!3d25.058021!4d121.3664103!16s%2Fg%2F11l1hz59w_?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{8CBDF53E-B1B8-444D-A928-5A487624CD8F}"/>
-    <hyperlink ref="X233" r:id="rId334" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
-    <hyperlink ref="L233" r:id="rId335" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
-    <hyperlink ref="P233" r:id="rId336" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
-    <hyperlink ref="N233" r:id="rId337" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
-    <hyperlink ref="O233" r:id="rId338" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
-    <hyperlink ref="Q233" r:id="rId339" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
+    <hyperlink ref="X234" r:id="rId334" xr:uid="{B7E0003C-79D4-2D4F-8110-38E74D938552}"/>
+    <hyperlink ref="L234" r:id="rId335" xr:uid="{7E00DDCB-58B3-BF46-89B5-52E7495A995D}"/>
+    <hyperlink ref="P234" r:id="rId336" xr:uid="{42DD8AEF-27CD-9A4F-A259-55EE09B6742A}"/>
+    <hyperlink ref="N234" r:id="rId337" xr:uid="{A581EEED-1CB8-7046-98BE-893BB362A200}"/>
+    <hyperlink ref="O234" r:id="rId338" xr:uid="{73BDA81D-50FB-D24C-9469-641B6E27F63D}"/>
+    <hyperlink ref="Q234" r:id="rId339" xr:uid="{95B01E6A-CDD8-2F48-93B2-B693691B2063}"/>
     <hyperlink ref="X56" r:id="rId340" xr:uid="{AEAA94A8-A02C-FC4F-BF90-253B215A9610}"/>
     <hyperlink ref="Q56" r:id="rId341" xr:uid="{E251BBA0-C38C-F74C-9DDE-8F3019EE2BB9}"/>
     <hyperlink ref="X57" r:id="rId342" display="https://www.google.com/maps/place/%E8%B6%8A%E5%8D%97%E5%B0%8F%E5%90%83+QUAN+AN+VIET+NAM/@25.0388677,121.3875023,19z/data=!3m1!4b1!4m6!3m5!1s0x3442a786e50c633b:0x96ecd2a843a0664d!8m2!3d25.0388665!4d121.388146!16s%2Fg%2F11f6cq97pv?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{C292726B-73A0-9543-B8AB-2F5545043597}"/>
@@ -30572,41 +30660,41 @@
     <hyperlink ref="I64" r:id="rId351" xr:uid="{32FF8E14-13ED-0247-A3DD-FC5D38C7A7B6}"/>
     <hyperlink ref="N64" r:id="rId352" xr:uid="{09794698-C6AC-8E4C-A94D-05747ABBB528}"/>
     <hyperlink ref="O64" r:id="rId353" xr:uid="{B3FCF64D-A68E-FC43-AC4F-A567F79739DF}"/>
-    <hyperlink ref="X269" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
-    <hyperlink ref="I269" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
-    <hyperlink ref="Q269" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
-    <hyperlink ref="X234" r:id="rId357" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
-    <hyperlink ref="I234" r:id="rId358" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
-    <hyperlink ref="Q234" r:id="rId359" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
+    <hyperlink ref="X270" r:id="rId354" display="https://www.google.com/maps/place/%E6%97%AD%E9%9B%86+%E5%92%8C%E9%A3%9F%E9%9B%86%E9%8C%A6+%E4%B8%AD%E8%8C%82%E5%BA%97/@25.0152789,121.2995387,16.56z/data=!4m6!3m5!1s0x34681f052e956431:0x2d0d47952072126c!8m2!3d25.0145768!4d121.30052!16s%2Fg%2F11shscjmp1?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{AC9218D5-5D6C-C745-8321-57F2A9D9AD0B}"/>
+    <hyperlink ref="I270" r:id="rId355" xr:uid="{6A19B285-F058-A848-AD99-B6B45A568F64}"/>
+    <hyperlink ref="Q270" r:id="rId356" xr:uid="{2506F623-776E-8E4B-A1E7-6BB312C45539}"/>
+    <hyperlink ref="X235" r:id="rId357" display="https://www.google.com/maps/place/%E7%91%AA%E5%98%89%E7%83%88%E8%87%AA%E5%8A%A9%E9%A4%90%E5%BB%B3/@25.0656002,121.359863,20.24z/data=!4m6!3m5!1s0x3442a7dac45f880b:0x9101fcc4e38696e2!8m2!3d25.0655781!4d121.3600669!16s%2Fg%2F11sryh0d9b?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{DEEB9359-F95E-E442-AEE4-FBA4051E4769}"/>
+    <hyperlink ref="I235" r:id="rId358" xr:uid="{4E094836-324D-8A4E-82A3-BA1EB764C5EE}"/>
+    <hyperlink ref="Q235" r:id="rId359" xr:uid="{7ECB490A-3707-F146-9AD2-D369D8D0F2F4}"/>
     <hyperlink ref="J65" r:id="rId360" xr:uid="{5ABD78D0-2E3F-5949-859F-50CBC6FC1515}"/>
     <hyperlink ref="L65" r:id="rId361" xr:uid="{EFB62CBA-8B17-7B4E-A3A4-C06087CDA974}"/>
     <hyperlink ref="P65" r:id="rId362" xr:uid="{F382E5C7-9AE7-3544-A39A-C87180B28272}"/>
-    <hyperlink ref="I235" r:id="rId363" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
-    <hyperlink ref="J235" r:id="rId364" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
-    <hyperlink ref="M235" r:id="rId365" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
-    <hyperlink ref="X236" r:id="rId366" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
-    <hyperlink ref="N236" r:id="rId367" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
-    <hyperlink ref="O236" r:id="rId368" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
+    <hyperlink ref="I236" r:id="rId363" xr:uid="{D1685E6D-2274-204F-B889-AAACC4AA31ED}"/>
+    <hyperlink ref="J236" r:id="rId364" xr:uid="{30F06CB5-AC3D-C54D-965B-8551F351A8EC}"/>
+    <hyperlink ref="M236" r:id="rId365" xr:uid="{4F3F6954-DC15-3F4C-9337-8B114F536099}"/>
+    <hyperlink ref="X237" r:id="rId366" display="https://www.google.com/maps/place/%E8%80%81%E5%A3%AB%E6%9E%97+%E7%83%A4%E8%82%89%E9%A3%AF+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0723029,121.3696209,15z/data=!4m6!3m5!1s0x3442a799034beeed:0x452ae423abe419b1!8m2!3d25.0723029!4d121.3696209!16s%2Fg%2F11fd0kht3b?hl=zh-TW&amp;entry=ttu" xr:uid="{F523D641-F76D-7F4C-BCF8-75DF4C1AE03D}"/>
+    <hyperlink ref="N237" r:id="rId367" xr:uid="{34950E58-406E-8D49-B4A2-220ACE8C53A8}"/>
+    <hyperlink ref="O237" r:id="rId368" xr:uid="{069CDF51-27DE-3445-898B-DCA624E2647A}"/>
     <hyperlink ref="X136" r:id="rId369" display="https://www.google.com/maps/place/%E8%8A%B3%E7%8F%8D%E8%94%AC%E9%A3%9F-%E9%BE%9C%E5%B1%B1%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0583405,121.3647725,15z/data=!4m6!3m5!1s0x3442a795977959cd:0xc215fc0b3335dc88!8m2!3d25.0583405!4d121.3647725!16s%2Fg%2F11vf31ctly?entry=ttu" xr:uid="{52AEA38A-91B1-8A47-9ECD-F87A770334A4}"/>
     <hyperlink ref="I136" r:id="rId370" xr:uid="{ACA4CA0F-9DEA-5840-99B0-820A4768567B}"/>
     <hyperlink ref="N136" r:id="rId371" xr:uid="{973BF0A5-4740-3E43-81DF-591051DC3E13}"/>
     <hyperlink ref="O136" r:id="rId372" xr:uid="{B65BC528-A8B1-B046-BD8B-D7F4533D8426}"/>
     <hyperlink ref="X137" r:id="rId373" display="https://www.google.com/maps/place/Y.J+COFFEE+%E7%8E%89%E6%B4%A5%E5%92%96%E5%95%A1-%E6%9E%97%E5%8F%A3%E6%96%87%E5%8C%96%E5%BA%97/@25.0608361,121.3643035,15z/data=!4m6!3m5!1s0x3442a760bd153451:0x18fc101d2eb228!8m2!3d25.0608361!4d121.3643035!16s%2Fg%2F11v68wsch9?hl=zh-TW&amp;entry=ttu" xr:uid="{8620CE66-049B-0B45-96BC-88EDF3E4F5EF}"/>
     <hyperlink ref="P137" r:id="rId374" xr:uid="{B7E4B78F-886E-0D40-AAC2-A20F39A5D19B}"/>
-    <hyperlink ref="P180" r:id="rId375" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
+    <hyperlink ref="P181" r:id="rId375" xr:uid="{BD41185B-88D3-DC49-8747-B260EF80BA4C}"/>
     <hyperlink ref="X138" r:id="rId376" display="https://www.google.com/maps/place/BroFood%E4%BD%A0%E7%9A%84%E4%BC%AF%E7%88%B6%E5%B7%B2%E4%B8%8A%E7%B7%9A/@25.0541886,121.364174,15z/data=!4m6!3m5!1s0x3442a7d44aac8683:0x5ed109106289102f!8m2!3d25.0554989!4d121.3672224!16s%2Fg%2F11vd9rbppy?hl=zh-TW&amp;entry=ttu" xr:uid="{587F4B97-2A31-2444-BE86-7ED2A781000A}"/>
     <hyperlink ref="N138" r:id="rId377" xr:uid="{DBD80C1C-15BB-E743-B181-07B5B73386D2}"/>
-    <hyperlink ref="X237" r:id="rId378" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
-    <hyperlink ref="J237" r:id="rId379" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
-    <hyperlink ref="I237" r:id="rId380" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
+    <hyperlink ref="X238" r:id="rId378" xr:uid="{13B9F901-D7CA-1C4F-863F-BB897BCF949C}"/>
+    <hyperlink ref="J238" r:id="rId379" xr:uid="{82211E0E-C8E0-674F-A580-C7AACA9FCAA9}"/>
+    <hyperlink ref="I238" r:id="rId380" xr:uid="{669877DD-C314-E842-A122-731AF38EE9ED}"/>
     <hyperlink ref="N110" r:id="rId381" xr:uid="{BF71F067-376F-C84F-A040-1CE32EDBAA71}"/>
     <hyperlink ref="K110" r:id="rId382" xr:uid="{FA5F13B7-74CD-B340-9FE2-EAC3123473D7}"/>
-    <hyperlink ref="K202" r:id="rId383" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
-    <hyperlink ref="I238" r:id="rId384" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
-    <hyperlink ref="J239" r:id="rId385" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
-    <hyperlink ref="L239" r:id="rId386" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
-    <hyperlink ref="N239" r:id="rId387" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
-    <hyperlink ref="Q239" r:id="rId388" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
+    <hyperlink ref="K203" r:id="rId383" xr:uid="{8CC42412-2068-AA40-ABB4-D7E878179AD5}"/>
+    <hyperlink ref="I239" r:id="rId384" xr:uid="{DD8D6993-1BF5-C040-8C1A-A7EA13B449CB}"/>
+    <hyperlink ref="J240" r:id="rId385" xr:uid="{2B243512-30A8-424B-8625-B0362227C776}"/>
+    <hyperlink ref="L240" r:id="rId386" xr:uid="{D0DA9011-340C-7E43-9FCA-04B176285263}"/>
+    <hyperlink ref="N240" r:id="rId387" display="https://www.ubereats.com/tw/store/%E5%85%A7%E9%A4%A1%E4%BA%A4%E6%98%93%E6%9E%97%E5%8F%A3%E5%BA%97-%E4%B8%A8%E6%B0%B4%E9%A4%83%E9%9B%B2%E5%90%9E%E9%BA%B5%E9%A3%9F%E5%B0%88%E8%B3%A3/WCer1_PVVbajGui6jxsDSA?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{A940B8B6-05BB-E544-9784-72E1880607B9}"/>
+    <hyperlink ref="Q240" r:id="rId388" xr:uid="{9F4F32E9-14EA-E049-AC4D-2E2CC7F79CC3}"/>
     <hyperlink ref="N139" r:id="rId389" xr:uid="{738457FA-3787-1F49-BA31-1BC2BAFB08F3}"/>
     <hyperlink ref="O139" r:id="rId390" xr:uid="{74692A90-DA12-314B-BF4D-E90CA31C36BE}"/>
     <hyperlink ref="I139" r:id="rId391" xr:uid="{0D193AA9-6E05-734F-8E8A-050CA65757A0}"/>
@@ -30635,60 +30723,60 @@
     <hyperlink ref="L67" r:id="rId414" xr:uid="{B68251B1-8489-8D4B-8ABA-5C6BC30E8341}"/>
     <hyperlink ref="N67" r:id="rId415" xr:uid="{55577C4B-02E4-DF42-9A4E-BF76041B9D24}"/>
     <hyperlink ref="Q67" r:id="rId416" xr:uid="{E3384AA5-68A2-574B-A172-17DB22D719E6}"/>
-    <hyperlink ref="X270" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
-    <hyperlink ref="J270" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
-    <hyperlink ref="Q270" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
-    <hyperlink ref="X271" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
-    <hyperlink ref="P271" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
-    <hyperlink ref="I271" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
-    <hyperlink ref="O271" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
-    <hyperlink ref="J271" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
-    <hyperlink ref="Q271" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
-    <hyperlink ref="R271" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
-    <hyperlink ref="J272" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
-    <hyperlink ref="L272" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
-    <hyperlink ref="I272" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
-    <hyperlink ref="P272" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
-    <hyperlink ref="X240" r:id="rId431" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
-    <hyperlink ref="N240" r:id="rId432" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
-    <hyperlink ref="J240" r:id="rId433" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
-    <hyperlink ref="L240" r:id="rId434" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
-    <hyperlink ref="K240" r:id="rId435" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
-    <hyperlink ref="Q240" r:id="rId436" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
+    <hyperlink ref="X271" r:id="rId417" display="https://www.google.com/maps/place/%E8%98%AD%E4%BA%AD%E6%98%A0%E6%9C%88/@24.8426588,121.3094644,12.57z/data=!4m15!1m8!3m7!1s0x346817869075b11b:0x2c0ef1b07af1093a!2sDaxi+District,+Taoyuan+City,+335!3b1!8m2!3d24.8658422!4d121.2969674!16zL20vMDN0Ymty!3m5!1s0x34683d97367d9c4f:0xbad552f73648306d!8m2!3d24.83383!4d121.245077!16s%2Fg%2F11f3m9plhq?authuser=0&amp;entry=ttu" xr:uid="{ACA1DD6D-1F10-3D45-982E-AB4C303FA032}"/>
+    <hyperlink ref="J271" r:id="rId418" xr:uid="{2F50D48F-4D2C-E34E-84C0-19531079023C}"/>
+    <hyperlink ref="Q271" r:id="rId419" xr:uid="{8B4148BC-38E0-EF45-8826-F7CAE707F28A}"/>
+    <hyperlink ref="X272" r:id="rId420" xr:uid="{FF5F7C51-28EC-3E47-802A-129BD0FAE92F}"/>
+    <hyperlink ref="P272" r:id="rId421" xr:uid="{D7923958-F1CF-C14F-B308-369BD659D910}"/>
+    <hyperlink ref="I272" r:id="rId422" xr:uid="{1F668664-0E74-3047-824E-939E4AE614BC}"/>
+    <hyperlink ref="O272" r:id="rId423" xr:uid="{1AE152C2-7A10-EC49-8C34-471D9E8B6FF6}"/>
+    <hyperlink ref="J272" r:id="rId424" xr:uid="{013526F9-FCEE-BA4F-ABC0-7EFD2FBEA03D}"/>
+    <hyperlink ref="Q272" r:id="rId425" xr:uid="{6F40C78E-E5CB-984C-95C8-26E8651A041C}"/>
+    <hyperlink ref="R272" r:id="rId426" xr:uid="{D8663B92-1ABC-FE4B-8CFF-B96FD62D9665}"/>
+    <hyperlink ref="J273" r:id="rId427" xr:uid="{7FACD927-A0CB-704F-BD68-2940CCF9A625}"/>
+    <hyperlink ref="L273" r:id="rId428" xr:uid="{58E16F4D-5EC7-454C-8BDB-565A8CB8E5F2}"/>
+    <hyperlink ref="I273" r:id="rId429" xr:uid="{C742B000-55C1-4341-B14D-93FFA901461D}"/>
+    <hyperlink ref="P273" r:id="rId430" xr:uid="{FCC48BB3-7E59-0D42-8301-2CF43E34D219}"/>
+    <hyperlink ref="X241" r:id="rId431" xr:uid="{48EB601E-0765-1843-9A77-D4CB6B7DBB81}"/>
+    <hyperlink ref="N241" r:id="rId432" xr:uid="{097F9DE3-ED4D-484D-A740-B787FFB28361}"/>
+    <hyperlink ref="J241" r:id="rId433" xr:uid="{E4C91BBA-3790-0644-A38F-519C4BC4284F}"/>
+    <hyperlink ref="L241" r:id="rId434" xr:uid="{2FD0FB56-624E-6340-ADB4-E46A360A49BB}"/>
+    <hyperlink ref="K241" r:id="rId435" xr:uid="{57B1B0FF-4974-ED46-B1E7-E1EBFE744CAB}"/>
+    <hyperlink ref="Q241" r:id="rId436" xr:uid="{B6880E29-8C5E-3B48-8533-6DEFC4D224B8}"/>
     <hyperlink ref="X143" r:id="rId437" display="https://www.google.com/maps/place/%E7%8E%96%E7%88%90%E7%B2%BE%E7%B7%BB%E9%8D%8B%E7%89%A9-%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97/@25.0527632,121.3671907,18.9z/data=!4m6!3m5!1s0x3442a7306dd22b8d:0x46389e561cf3ce6!8m2!3d25.052783!4d121.368052!16s%2Fg%2F11ddxkg07g?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{94A63822-ECAF-BC42-97F6-7D1561D6C673}"/>
     <hyperlink ref="J143" r:id="rId438" xr:uid="{49BC0516-7E8B-7440-B512-ED1113397EC2}"/>
     <hyperlink ref="L143" r:id="rId439" xr:uid="{5026A099-EED6-A941-A394-2F0F837175FF}"/>
     <hyperlink ref="I143" r:id="rId440" xr:uid="{96BE1ADD-7164-E44B-9F06-725F8136A67E}"/>
     <hyperlink ref="Q143" r:id="rId441" xr:uid="{693E0203-1953-A045-98B9-4A9828CA155E}"/>
-    <hyperlink ref="X241" r:id="rId442" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
-    <hyperlink ref="I241" r:id="rId443" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
-    <hyperlink ref="Q241" r:id="rId444" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
+    <hyperlink ref="X242" r:id="rId442" xr:uid="{038C59C8-13F4-A245-9AF6-A6E946D993FC}"/>
+    <hyperlink ref="I242" r:id="rId443" xr:uid="{5BECB905-D39B-AE48-9597-C25EA6ACA8C1}"/>
+    <hyperlink ref="Q242" r:id="rId444" xr:uid="{3FD77103-FC26-CF48-A196-A80CA8F65800}"/>
     <hyperlink ref="N144" r:id="rId445" xr:uid="{50E1CD44-37DC-A645-95E1-1AF636859E07}"/>
     <hyperlink ref="O144" r:id="rId446" xr:uid="{19AEE415-9DB8-174D-886C-7BF83E81EC05}"/>
     <hyperlink ref="J144" r:id="rId447" xr:uid="{9FCE9D3D-F2C5-B848-BA6F-0C59883F00AB}"/>
     <hyperlink ref="Q144" r:id="rId448" xr:uid="{02A6651D-67A9-A34C-AEC0-8F1470234998}"/>
-    <hyperlink ref="I242" r:id="rId449" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
-    <hyperlink ref="N242" r:id="rId450" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
-    <hyperlink ref="I243" r:id="rId451" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
-    <hyperlink ref="N243" r:id="rId452" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
-    <hyperlink ref="O243" r:id="rId453" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
-    <hyperlink ref="J243" r:id="rId454" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
-    <hyperlink ref="I244" r:id="rId455" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
-    <hyperlink ref="I245" r:id="rId456" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
-    <hyperlink ref="J245" r:id="rId457" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
-    <hyperlink ref="P245" r:id="rId458" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
-    <hyperlink ref="P242" r:id="rId459" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
-    <hyperlink ref="R169" r:id="rId460" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
-    <hyperlink ref="P246" r:id="rId461" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
-    <hyperlink ref="J246" r:id="rId462" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
-    <hyperlink ref="L246" r:id="rId463" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
-    <hyperlink ref="K246" r:id="rId464" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
-    <hyperlink ref="Q246" r:id="rId465" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
-    <hyperlink ref="P247" r:id="rId466" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
-    <hyperlink ref="Q247" r:id="rId467" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
-    <hyperlink ref="N248" r:id="rId468" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
-    <hyperlink ref="P248" r:id="rId469" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
-    <hyperlink ref="I248" r:id="rId470" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
+    <hyperlink ref="I243" r:id="rId449" xr:uid="{6F3BF1C9-9682-2049-B4F4-E13DB7E3B551}"/>
+    <hyperlink ref="N243" r:id="rId450" xr:uid="{F46E9E74-4946-2B42-8F4D-B0F80E065975}"/>
+    <hyperlink ref="I244" r:id="rId451" xr:uid="{A257DF08-01CE-E34D-9F66-9AB42CDDFD46}"/>
+    <hyperlink ref="N244" r:id="rId452" xr:uid="{AF157DF1-3E56-454E-9499-D3CB315F7F32}"/>
+    <hyperlink ref="O244" r:id="rId453" xr:uid="{206C9E11-47C4-754D-8E4B-64DCEBD0D605}"/>
+    <hyperlink ref="J244" r:id="rId454" xr:uid="{EB2BF46A-6B47-654B-B0AA-C83C7B9FE950}"/>
+    <hyperlink ref="I245" r:id="rId455" xr:uid="{FA8CA396-99A9-8446-99BA-87B88220B167}"/>
+    <hyperlink ref="I246" r:id="rId456" xr:uid="{B419493B-2F63-FE4D-A0BB-0EE562972872}"/>
+    <hyperlink ref="J246" r:id="rId457" xr:uid="{34BCC4C3-78DB-F947-B889-6054C147E445}"/>
+    <hyperlink ref="P246" r:id="rId458" xr:uid="{FA4C0105-4061-E849-BC02-547B993F588E}"/>
+    <hyperlink ref="P243" r:id="rId459" xr:uid="{06B8E261-1929-5E44-B8A1-163180A789CA}"/>
+    <hyperlink ref="R170" r:id="rId460" xr:uid="{7064E4A3-B383-854F-9D00-C7143231C955}"/>
+    <hyperlink ref="P247" r:id="rId461" xr:uid="{08C82A60-E5B9-3A4D-AE5D-E745A89418E4}"/>
+    <hyperlink ref="J247" r:id="rId462" xr:uid="{D10F7F1F-F656-154D-976B-64828FED8AF0}"/>
+    <hyperlink ref="L247" r:id="rId463" xr:uid="{266DBDB4-23D9-0A45-A984-893C5F853226}"/>
+    <hyperlink ref="K247" r:id="rId464" xr:uid="{677A9CC8-BFC6-7D42-84EC-F44C8B1495FF}"/>
+    <hyperlink ref="Q247" r:id="rId465" xr:uid="{1944D329-22E7-F545-90D2-C0FC72BC2594}"/>
+    <hyperlink ref="P248" r:id="rId466" xr:uid="{AEF57663-9131-7640-ACB3-9973470B983D}"/>
+    <hyperlink ref="Q248" r:id="rId467" xr:uid="{124267E5-7726-3549-9B86-6C449CC2D11E}"/>
+    <hyperlink ref="N249" r:id="rId468" xr:uid="{F6C3CDAE-DF25-5B46-9AD6-377368F2853C}"/>
+    <hyperlink ref="P249" r:id="rId469" xr:uid="{F12516CA-5497-A24B-964C-89253DD24C29}"/>
+    <hyperlink ref="I249" r:id="rId470" xr:uid="{FBBFFA11-2D3A-B94A-AA7E-8718CF8F12D9}"/>
     <hyperlink ref="I68" r:id="rId471" xr:uid="{EA1E3DFE-344E-FA48-9994-5ACE49222FF2}"/>
     <hyperlink ref="K68" r:id="rId472" xr:uid="{796D8F3B-3FE3-7E44-AD28-4211B63E8248}"/>
     <hyperlink ref="P68" r:id="rId473" xr:uid="{675AB809-2BC9-A746-9147-8D721F7507A7}"/>
@@ -30746,22 +30834,22 @@
     <hyperlink ref="N154" r:id="rId525" xr:uid="{D4E5F5A9-24FE-0A46-8C60-9882588F5EC7}"/>
     <hyperlink ref="O155" r:id="rId526" xr:uid="{9EB4FBD6-FFDB-714E-9EAA-FA0978031869}"/>
     <hyperlink ref="N155" r:id="rId527" xr:uid="{609A7BED-5BCD-E242-9E68-5A6A2DE45487}"/>
-    <hyperlink ref="Q249" r:id="rId528" xr:uid="{0CD2A816-C222-F541-8371-DF8EE463A15C}"/>
-    <hyperlink ref="Q250:Q251" r:id="rId529" display="https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR" xr:uid="{617D6DF2-DD4F-0B49-BE8A-8896ABF74EFD}"/>
-    <hyperlink ref="X251" r:id="rId530" xr:uid="{227AE9B5-F117-6641-BF85-D93A78DE8B5F}"/>
-    <hyperlink ref="N251" r:id="rId531" xr:uid="{580CFFAF-B9E7-D341-B8B2-1E90BF6EE944}"/>
-    <hyperlink ref="O251" r:id="rId532" xr:uid="{F5AB8850-AFBF-6A40-AE3C-D532A31859BA}"/>
-    <hyperlink ref="I251" r:id="rId533" xr:uid="{874D8804-0E85-0B40-878B-59E784685E92}"/>
-    <hyperlink ref="P251" r:id="rId534" xr:uid="{F0B75305-21B2-9A47-AEE9-BFA539D49D9C}"/>
-    <hyperlink ref="X250" r:id="rId535" display="https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{4C4096D1-967B-C641-B7D9-2DFC55745B8E}"/>
-    <hyperlink ref="I250" r:id="rId536" location="358881131" xr:uid="{09B6A8DC-B49F-654E-B68D-86CEB9CB313F}"/>
-    <hyperlink ref="X249" r:id="rId537" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
-    <hyperlink ref="I249" r:id="rId538" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
-    <hyperlink ref="P249" r:id="rId539" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
-    <hyperlink ref="J250" r:id="rId540" xr:uid="{F1520F3A-4DA5-844B-8C27-D564B8030350}"/>
-    <hyperlink ref="M250" r:id="rId541" xr:uid="{605002D7-0B39-2749-980B-4720BC9FC9D3}"/>
-    <hyperlink ref="P250" r:id="rId542" xr:uid="{1F8D09F2-7987-C54A-8965-AE9EDCDD0A31}"/>
-    <hyperlink ref="P238" r:id="rId543" xr:uid="{9C83DF22-8391-564F-A64C-E56B34F74693}"/>
+    <hyperlink ref="Q250" r:id="rId528" xr:uid="{0CD2A816-C222-F541-8371-DF8EE463A15C}"/>
+    <hyperlink ref="Q251:Q252" r:id="rId529" display="https://news.tvbs.com.tw/travel/2445624?fbclid=IwAR2Z3vqF4lh4s2iKi7geHYn-9YkM_tmsqEmv3B79ic913ehRgKrl1kIBRog_aem_AaBjmOcDOkX1iMK4JRXMnDuVWwAuSUwJhBmy_2U9dJkIZYYcg7MiRooLl1AmbVl01vd_Kx2wmu2vRXfajls0M3MR" xr:uid="{617D6DF2-DD4F-0B49-BE8A-8896ABF74EFD}"/>
+    <hyperlink ref="X252" r:id="rId530" xr:uid="{227AE9B5-F117-6641-BF85-D93A78DE8B5F}"/>
+    <hyperlink ref="N252" r:id="rId531" xr:uid="{580CFFAF-B9E7-D341-B8B2-1E90BF6EE944}"/>
+    <hyperlink ref="O252" r:id="rId532" xr:uid="{F5AB8850-AFBF-6A40-AE3C-D532A31859BA}"/>
+    <hyperlink ref="I252" r:id="rId533" xr:uid="{874D8804-0E85-0B40-878B-59E784685E92}"/>
+    <hyperlink ref="P252" r:id="rId534" xr:uid="{F0B75305-21B2-9A47-AEE9-BFA539D49D9C}"/>
+    <hyperlink ref="X251" r:id="rId535" display="https://www.google.com/maps/place/Pastaio+%E6%89%8B%E5%B7%A5%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0728254,121.3635626,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a771b164028f:0x956448d2ec49104a!8m2!3d25.0728206!4d121.3661375!16s%2Fg%2F11lczy87kb?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{4C4096D1-967B-C641-B7D9-2DFC55745B8E}"/>
+    <hyperlink ref="I251" r:id="rId536" location="358881131" xr:uid="{09B6A8DC-B49F-654E-B68D-86CEB9CB313F}"/>
+    <hyperlink ref="X250" r:id="rId537" display="https://www.google.com/maps/place/Second+Floor+%E8%B2%B3%E6%A8%93%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0750623,121.3677082,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7054da08d11:0xd8a0706874478d0a!8m2!3d25.0750575!4d121.3702831!16s%2Fg%2F11vtb96k1m?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{344C337C-3960-7243-9AED-F38830AFC841}"/>
+    <hyperlink ref="I250" r:id="rId538" xr:uid="{241D98C3-BDDA-B847-9027-D7B1C9D7C60F}"/>
+    <hyperlink ref="P250" r:id="rId539" xr:uid="{F23FAF4A-709E-F842-8E93-A0E1F18802ED}"/>
+    <hyperlink ref="J251" r:id="rId540" xr:uid="{F1520F3A-4DA5-844B-8C27-D564B8030350}"/>
+    <hyperlink ref="M251" r:id="rId541" xr:uid="{605002D7-0B39-2749-980B-4720BC9FC9D3}"/>
+    <hyperlink ref="P251" r:id="rId542" xr:uid="{1F8D09F2-7987-C54A-8965-AE9EDCDD0A31}"/>
+    <hyperlink ref="P239" r:id="rId543" xr:uid="{9C83DF22-8391-564F-A64C-E56B34F74693}"/>
     <hyperlink ref="X156" r:id="rId544" display="https://www.google.com/maps/place/%E9%BA%B5%E5%B1%8B%E3%80%82%E6%BF%83(%E6%9E%97%E5%8F%A3%E9%95%B7%E5%BA%9A%E5%BA%97)/@25.0588376,121.3693655,18z/data=!4m6!3m5!1s0x3442a73b0b4fa2f9:0x2e62ecbb1bb16d!8m2!3d25.0590887!4d121.3699559!16s%2Fg%2F11fzjct1mg?hl=zh-TW&amp;entry=ttu" xr:uid="{67066CA6-AB7C-E146-9093-B19E29478036}"/>
     <hyperlink ref="J156" r:id="rId545" xr:uid="{CBDD26C0-2870-744F-99B4-D9EBC989DD10}"/>
     <hyperlink ref="M156" r:id="rId546" xr:uid="{AF0E25DE-517F-304A-AA3F-A38C4A5A9E1C}"/>
@@ -30769,10 +30857,10 @@
     <hyperlink ref="O156" r:id="rId548" xr:uid="{5EF38EFA-0DC1-6247-A89B-F55327F37C29}"/>
     <hyperlink ref="Q156" r:id="rId549" xr:uid="{BFBB3DD6-6EA7-8949-9301-7E3DC8EF519C}"/>
     <hyperlink ref="Q49" r:id="rId550" xr:uid="{4EAB02B3-9F81-654B-9051-184DD2C734D6}"/>
-    <hyperlink ref="X252" r:id="rId551" display="https://www.google.com/maps/place/%E6%97%A5%E7%A6%8F+OH+HAPPY+DAY+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0789386,121.3763809,17z/data=!4m6!3m5!1s0x3442a7000d124d5f:0x22b75a68574b098e!8m2!3d25.0797319!4d121.377629!16s%2Fg%2F11vt1rvtdf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5B27D186-884F-2B42-99DD-26425134389E}"/>
-    <hyperlink ref="Q252" r:id="rId552" xr:uid="{21B9863F-2AC0-8447-88D5-DD47DBF936FE}"/>
-    <hyperlink ref="I252" r:id="rId553" xr:uid="{AA696F6C-4377-B244-B3F1-86D18B9D9EA7}"/>
-    <hyperlink ref="J252" r:id="rId554" xr:uid="{E896E9FD-3B4C-0644-A326-6B11B5667CE4}"/>
+    <hyperlink ref="X253" r:id="rId551" display="https://www.google.com/maps/place/%E6%97%A5%E7%A6%8F+OH+HAPPY+DAY+%E6%9E%97%E5%8F%A3%E5%BA%97/@25.0789386,121.3763809,17z/data=!4m6!3m5!1s0x3442a7000d124d5f:0x22b75a68574b098e!8m2!3d25.0797319!4d121.377629!16s%2Fg%2F11vt1rvtdf?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{5B27D186-884F-2B42-99DD-26425134389E}"/>
+    <hyperlink ref="Q253" r:id="rId552" xr:uid="{21B9863F-2AC0-8447-88D5-DD47DBF936FE}"/>
+    <hyperlink ref="I253" r:id="rId553" xr:uid="{AA696F6C-4377-B244-B3F1-86D18B9D9EA7}"/>
+    <hyperlink ref="J253" r:id="rId554" xr:uid="{E896E9FD-3B4C-0644-A326-6B11B5667CE4}"/>
     <hyperlink ref="X77" r:id="rId555" display="https://www.google.com/maps/place/%E6%A5%B5%E7%A6%BE%E5%84%AA%E8%B3%AA%E9%8D%8B%E7%89%A9-%E9%BE%9C%E5%B1%B1%E6%96%87%E9%9D%92%E5%BA%97/@25.0386469,121.3882745,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7f265847fd7:0xc577675537863c2b!8m2!3d25.0386421!4d121.3908548!16s%2Fg%2F11ldvmfz6s?entry=ttu" xr:uid="{EB8F6D0F-F028-BC45-B0AB-29A25ACA1CC8}"/>
     <hyperlink ref="P77" r:id="rId556" xr:uid="{AD6C682C-5C5F-8F43-8446-69B1F2236F6D}"/>
     <hyperlink ref="I77" r:id="rId557" xr:uid="{E848854C-9731-ED4E-9770-BB15A5AD9F76}"/>
@@ -30780,25 +30868,27 @@
     <hyperlink ref="M77" r:id="rId559" xr:uid="{594213D8-AFAE-3948-AA86-BC03E5FC0667}"/>
     <hyperlink ref="X76" r:id="rId560" xr:uid="{5C1D2E7F-783E-504E-9C15-ECE79986CA32}"/>
     <hyperlink ref="X78" r:id="rId561" display="https://www.google.com/maps/place/Mr.%E7%B4%B0%E9%AF%8A%E7%B3%96+%E2%80%A2+Mr.Shark+%E9%9B%AA%E8%8A%B1%E5%86%B0%E8%8F%93%E5%AE%A4/@25.053901,121.3803289,17z/data=!4m6!3m5!1s0x3442a7536d5dc1d1:0xa6b5038074e4c22a!8m2!3d25.053901!4d121.3829038!16s%2Fg%2F11y41dc4v9?entry=ttu" xr:uid="{B6E79BEB-E9D3-E846-9C77-585FFC179844}"/>
-    <hyperlink ref="X253" r:id="rId562" xr:uid="{B48C248E-8877-E74C-9703-AD446933A1E7}"/>
-    <hyperlink ref="J253" r:id="rId563" xr:uid="{D9261A27-86C0-B745-9A76-FC461E180CB5}"/>
+    <hyperlink ref="X254" r:id="rId562" xr:uid="{B48C248E-8877-E74C-9703-AD446933A1E7}"/>
+    <hyperlink ref="J254" r:id="rId563" xr:uid="{D9261A27-86C0-B745-9A76-FC461E180CB5}"/>
     <hyperlink ref="X79" r:id="rId564" display="https://www.google.com/maps/place/%E6%A2%85%E6%A3%AE%E6%B2%99%E6%8B%89-%E5%81%A5%E5%BA%B7%E9%A4%90%E7%9B%92/@25.0484008,121.3827549,17z/data=!4m6!3m5!1s0x3442a756d8f1404b:0x8328288865a4b4e7!8m2!3d25.0481404!4d121.3825982!16s%2Fg%2F11y4474bdg?hl=zh-TW&amp;entry=ttu" xr:uid="{2B6EC541-E893-774D-A91D-0D35B9E6D1E2}"/>
     <hyperlink ref="N78" r:id="rId565" xr:uid="{6B57130E-5874-9E45-B529-EF4151A729F2}"/>
-    <hyperlink ref="I254" r:id="rId566" xr:uid="{D772F942-18CA-204F-B200-D1C0C948E486}"/>
-    <hyperlink ref="K254" r:id="rId567" xr:uid="{3C9CF091-1C0A-C648-8991-554A9183FD0A}"/>
-    <hyperlink ref="N254" r:id="rId568" display="https://www.ubereats.com/tw/store/%E6%9C%AC%E5%AE%AE%E9%A5%9E%E4%BA%86-%E6%B0%B4%E6%9E%9C%E5%84%AA%E6%A0%BC-%E7%87%89%E6%A2%A8-%E9%8A%80%E8%80%B3%E7%BE%B9-yogurt-and-chinese-sweet-soup/bHeZii2IXSCY6NqV404O5w?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{B4657D77-7B6C-A845-9F19-FA1A5AC960FC}"/>
-    <hyperlink ref="P254" r:id="rId569" xr:uid="{02DD55FA-D7D3-7B4A-A749-6AAB22413843}"/>
-    <hyperlink ref="X255" r:id="rId570" xr:uid="{1ABBA3BF-CDB9-7140-93E0-4C213FDF2B5E}"/>
-    <hyperlink ref="J255" r:id="rId571" xr:uid="{E3CC9D77-1343-0D47-BF57-D233A680A25D}"/>
-    <hyperlink ref="L254" r:id="rId572" xr:uid="{B8FCFF43-4067-2943-B7EB-2EB382F7A2C8}"/>
-    <hyperlink ref="X256" r:id="rId573" display="https://www.google.com/maps/place/%E7%A6%8F%E8%B1%86FOODOOR+%EF%BC%88%E4%B8%89%E4%BA%95%E6%9E%97%E5%8F%A3%E5%BA%97%EF%BC%89/@25.0720198,121.3612188,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a1f9580b37:0x811b2af3191378bb!8m2!3d25.0720198!4d121.3637937!16s%2Fg%2F11jqd8p5_4?hl=zh-TW&amp;entry=ttu" xr:uid="{BAC41D49-9BEC-0143-BB0E-A34208509EFD}"/>
-    <hyperlink ref="N256" r:id="rId574" xr:uid="{76453D30-4759-3949-931D-9AB9A798C3D0}"/>
-    <hyperlink ref="I256" r:id="rId575" xr:uid="{212E191D-2E18-AE43-986F-66FEB0BA491A}"/>
-    <hyperlink ref="P256" r:id="rId576" xr:uid="{F7B46F9A-2379-A441-B96E-63948F7DB00C}"/>
-    <hyperlink ref="L256" r:id="rId577" xr:uid="{EA43B283-778D-D548-8113-6077E9DB2D23}"/>
-    <hyperlink ref="I257" r:id="rId578" xr:uid="{D8C7FDAD-EE49-E64E-97A5-9F7A8EDFAB4C}"/>
-    <hyperlink ref="P257" r:id="rId579" xr:uid="{B65F3B13-1AC1-A44D-A762-FAFAABF90998}"/>
+    <hyperlink ref="I255" r:id="rId566" xr:uid="{D772F942-18CA-204F-B200-D1C0C948E486}"/>
+    <hyperlink ref="K255" r:id="rId567" xr:uid="{3C9CF091-1C0A-C648-8991-554A9183FD0A}"/>
+    <hyperlink ref="N255" r:id="rId568" display="https://www.ubereats.com/tw/store/%E6%9C%AC%E5%AE%AE%E9%A5%9E%E4%BA%86-%E6%B0%B4%E6%9E%9C%E5%84%AA%E6%A0%BC-%E7%87%89%E6%A2%A8-%E9%8A%80%E8%80%B3%E7%BE%B9-yogurt-and-chinese-sweet-soup/bHeZii2IXSCY6NqV404O5w?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google" xr:uid="{B4657D77-7B6C-A845-9F19-FA1A5AC960FC}"/>
+    <hyperlink ref="P255" r:id="rId569" xr:uid="{02DD55FA-D7D3-7B4A-A749-6AAB22413843}"/>
+    <hyperlink ref="X256" r:id="rId570" xr:uid="{1ABBA3BF-CDB9-7140-93E0-4C213FDF2B5E}"/>
+    <hyperlink ref="J256" r:id="rId571" xr:uid="{E3CC9D77-1343-0D47-BF57-D233A680A25D}"/>
+    <hyperlink ref="L255" r:id="rId572" xr:uid="{B8FCFF43-4067-2943-B7EB-2EB382F7A2C8}"/>
+    <hyperlink ref="X257" r:id="rId573" display="https://www.google.com/maps/place/%E7%A6%8F%E8%B1%86FOODOOR+%EF%BC%88%E4%B8%89%E4%BA%95%E6%9E%97%E5%8F%A3%E5%BA%97%EF%BC%89/@25.0720198,121.3612188,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7a1f9580b37:0x811b2af3191378bb!8m2!3d25.0720198!4d121.3637937!16s%2Fg%2F11jqd8p5_4?hl=zh-TW&amp;entry=ttu" xr:uid="{BAC41D49-9BEC-0143-BB0E-A34208509EFD}"/>
+    <hyperlink ref="N257" r:id="rId574" xr:uid="{76453D30-4759-3949-931D-9AB9A798C3D0}"/>
+    <hyperlink ref="I257" r:id="rId575" xr:uid="{212E191D-2E18-AE43-986F-66FEB0BA491A}"/>
+    <hyperlink ref="P257" r:id="rId576" xr:uid="{F7B46F9A-2379-A441-B96E-63948F7DB00C}"/>
+    <hyperlink ref="L257" r:id="rId577" xr:uid="{EA43B283-778D-D548-8113-6077E9DB2D23}"/>
+    <hyperlink ref="I258" r:id="rId578" xr:uid="{D8C7FDAD-EE49-E64E-97A5-9F7A8EDFAB4C}"/>
+    <hyperlink ref="P258" r:id="rId579" xr:uid="{B65F3B13-1AC1-A44D-A762-FAFAABF90998}"/>
     <hyperlink ref="X80" r:id="rId580" display="https://www.google.com/maps/place/Quarter+mile%E5%B1%85%E9%85%92%E5%B1%8B%E6%A8%82%E5%96%84%E5%BA%97/@25.0544616,121.3838065,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7003a0c4f3f:0xf9242049e61bcedf!8m2!3d25.0544616!4d121.3838065!16s%2Fg%2F11vzy90z3_?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{776D9D6B-FF97-794E-8291-2633CAE46FE5}"/>
+    <hyperlink ref="I157" r:id="rId581" xr:uid="{D212C010-F7E3-8A48-B098-04D103244EEA}"/>
+    <hyperlink ref="P157" r:id="rId582" xr:uid="{FCE758E9-495A-5446-AE42-9861D0597F39}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -30818,7 +30908,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S260:S1048576 S1:S26 S29:S258</xm:sqref>
+          <xm:sqref>S261:S1048576 S1:S26 S29:S259</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>
@@ -30845,7 +30935,7 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="3" t="s">
         <v>1792</v>
       </c>
@@ -30856,7 +30946,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="3" t="s">
         <v>1793</v>
       </c>
@@ -30867,7 +30957,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="3" t="s">
         <v>1794</v>
       </c>
@@ -30878,7 +30968,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="3" t="s">
         <v>1795</v>
       </c>
@@ -30889,7 +30979,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="3" t="s">
         <v>1796</v>
       </c>
@@ -30911,7 +31001,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="3" t="s">
         <v>1798</v>
       </c>
@@ -30919,7 +31009,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="3" t="s">
         <v>1799</v>
       </c>
@@ -30927,7 +31017,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="3" t="s">
         <v>1800</v>
       </c>
@@ -30935,7 +31025,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="3" t="s">
         <v>1801</v>
       </c>
@@ -30943,7 +31033,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="3" t="s">
         <v>1802</v>
       </c>
@@ -30951,32 +31041,32 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="3" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="3" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="3" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15">
+    <row r="17" spans="1:1" ht="16">
       <c r="A17" s="3" t="s">
         <v>1808</v>
       </c>
@@ -30986,7 +31076,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15">
+    <row r="19" spans="1:1" ht="16">
       <c r="A19" s="3" t="s">
         <v>1810</v>
       </c>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C11E3A-4237-AF4B-9833-5BFFD4B26814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A9E6B-1408-124C-9326-E01DBFC5097C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="2945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="2947">
   <si>
     <t>address</t>
   </si>
@@ -13307,6 +13307,14 @@
   </si>
   <si>
     <t>https://inline.app/get-printed-menus?cid=-NCOScu5ndn8EshQGQs-:inline-live-1&amp;bid=-NkIdqQhrGujrWRL58zc</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mr_shark_2024?igsh=MXNmYzk3bHgyajkxdw%3D%3D&amp;utm_source=qr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.foodpanda.com.tw/restaurant/r3t6/mr-xi-sha-tang?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=google_reserve_place_order_action</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -14798,10 +14806,10 @@
   <dimension ref="A1:X273"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O159" sqref="O159"/>
+      <selection pane="bottomRight" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -19085,12 +19093,16 @@
       <c r="I78" s="21"/>
       <c r="J78" s="38"/>
       <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
+      <c r="L78" s="21" t="s">
+        <v>2945</v>
+      </c>
       <c r="M78" s="21"/>
       <c r="N78" s="21" t="s">
         <v>2878</v>
       </c>
-      <c r="O78" s="21"/>
+      <c r="O78" s="21" t="s">
+        <v>2946</v>
+      </c>
       <c r="P78" s="21" t="s">
         <v>2856</v>
       </c>
@@ -30889,6 +30901,8 @@
     <hyperlink ref="X80" r:id="rId580" display="https://www.google.com/maps/place/Quarter+mile%E5%B1%85%E9%85%92%E5%B1%8B%E6%A8%82%E5%96%84%E5%BA%97/@25.0544616,121.3838065,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a7003a0c4f3f:0xf9242049e61bcedf!8m2!3d25.0544616!4d121.3838065!16s%2Fg%2F11vzy90z3_?authuser=0&amp;hl=zh-TW&amp;entry=ttu" xr:uid="{776D9D6B-FF97-794E-8291-2633CAE46FE5}"/>
     <hyperlink ref="I157" r:id="rId581" xr:uid="{D212C010-F7E3-8A48-B098-04D103244EEA}"/>
     <hyperlink ref="P157" r:id="rId582" xr:uid="{FCE758E9-495A-5446-AE42-9861D0597F39}"/>
+    <hyperlink ref="L78" r:id="rId583" xr:uid="{8587667E-B86D-094B-9027-E7D3B3BBD02D}"/>
+    <hyperlink ref="O78" r:id="rId584" xr:uid="{9C4E51C5-A634-8643-9467-446EAD8DD004}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A9E6B-1408-124C-9326-E01DBFC5097C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA3B96-3F91-3040-B84A-90E54B90D723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="2947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="2997">
   <si>
     <t>address</t>
   </si>
@@ -13317,12 +13317,413 @@
     <t>https://www.foodpanda.com.tw/restaurant/r3t6/mr-xi-sha-tang?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=google_reserve_place_order_action</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>TY-016</t>
+  </si>
+  <si>
+    <t>TY-017</t>
+  </si>
+  <si>
+    <t>TY-018</t>
+  </si>
+  <si>
+    <t>TY-019</t>
+  </si>
+  <si>
+    <t>TY-020</t>
+  </si>
+  <si>
+    <t>RES-TY-016.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-017.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-018.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-019.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-020.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-016L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-017L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-018L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-019L.jpeg</t>
+  </si>
+  <si>
+    <t>RES-TY-020L.jpeg</t>
+  </si>
+  <si>
+    <t>廚窗港點</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%9D%91%E6%B0%91%E9%A3%9F%E5%A0%82-1F%E5%BB%9A%E7%AA%97%E6%B8%AF%E9%BB%9E+%2F+2F%E9%A3%9F%E5%A4%A7%E9%8D%8B/@25.0141399,121.299734,17z/data=!3m2!4b1!5s0x34681fb02a50b0ad:0xf81b4ca908c7af8a!4m6!3m5!1s0x34681fb02ad6fb55:0x3ffcca58471dd908!8m2!3d25.0141399!4d121.299734!16s%2Fg%2F1ptyt6gxv?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市桃園區中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1078</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-316-3838</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inline.app/groups/villager1078</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/villager1078/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.darren0322.com/blog/post/chuchuanggangdian</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>夯鴨响饌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>藝文店</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E5%A4%AF%E9%B4%A8%E5%93%8D%E9%A5%8C+%E8%97%9D%E6%96%87%E5%BA%97/@25.0124458,121.2984855,17z/data=!3m2!4b1!5s0x34681fae3f6d6913:0xef1ccff8cc288051!4m6!3m5!1s0x34681f3d5badb583:0xa634cab490b0de12!8m2!3d25.0124458!4d121.3010604!16s%2Fg%2F11rltdq_qw?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市桃園區大興西路一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-326-2266</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inline.app/booking/-MnUM2_-a5fObphKNt7e:inline-live-2/-MnUM2hRezlaeP-sf7jC</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://upload.cc/i1/2022/03/07/Nx6B2U.png</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.darren0322.com/blog/post/hangya</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬥牛士二鍋桃園食尚店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E9%AC%A5%E7%89%9B%E5%A3%AB%E4%BA%8C%E9%8D%8B%E6%A1%83%E5%9C%92%E9%A3%9F%E5%B0%9A%E5%BA%97/@24.990799,121.3102351,17z/data=!3m1!4b1!4m6!3m5!1s0x34681f2289e4bb71:0x7c025495c93a92c3!8m2!3d24.990799!4d121.31281!16s%2Fg%2F11jn9q0vc6?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市桃園區中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-275-2268</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100063790541324</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.darren0322.com/blog/post/douniushierguo</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>我家牛排桃園春日店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%88%91%E5%AE%B6%E7%89%9B%E6%8E%92%E6%A1%83%E5%9C%92%E6%98%A5%E6%97%A5%E5%BA%97/@24.9955914,121.316114,3a,75y,90t/data=!3m8!1e2!3m6!1sAF1QipNdIbty9Zfb3URjOnrltLokmUN-Xv94yYcCwHUG!2e10!3e12!6shttps:%2F%2Flh5.googleusercontent.com%2Fp%2FAF1QipNdIbty9Zfb3URjOnrltLokmUN-Xv94yYcCwHUG%3Dw203-h152-k-no!7i4000!8i3000!4m9!3m8!1s0x34681ef912bb0c5d:0xe6e46ba8c057d499!8m2!3d24.995625!4d121.31622!10e5!14m1!1BCgIgAQ!16s%2Fg%2F1pzpy1d1d?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市桃園區春日路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-339-8255</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://steakmyhome.com.tw/store/%E6%88%91%E5%AE%B6%E7%89%9B%E6%8E%92%E6%A1%83%E5%9C%92%E6%98%A5%E6%97%A5%E5%BA%97/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@297aqwdg</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.darren0322.com/blog/post/wojianiupai</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>饗厚牛排桃園店</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E9%A5%97%E5%8E%9A%E7%89%9B%E6%8E%92-%E6%A1%83%E5%9C%92%E5%BA%97/@24.9947373,121.2954677,17z/data=!4m6!3m5!1s0x34681f89123fa4d5:0x9dae3acc5ec64b4!8m2!3d24.9947373!4d121.2954677!16s%2Fg%2F11stjt1nq3?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市桃園區正光路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-331-7722</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://joyful-steak.com.tw/%E7%B2%BE%E9%81%B8%E8%8F%9C%E5%96%AE/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.foodpanda.com.tw/restaurant/zxsg/xiang-hou-niu-pai?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=google_reserve_place_order_action</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://joyful-steak.com.tw/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.darren0322.com/blog/post/xianghou</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -13444,6 +13845,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -13539,7 +13947,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13673,6 +14081,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -14803,13 +15223,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X273"/>
+  <dimension ref="A1:X278"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M79" sqref="M79"/>
+      <selection pane="bottomRight" activeCell="Q278" sqref="Q278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -30306,6 +30726,211 @@
       <c r="W273" s="15"/>
       <c r="X273" s="30" t="s">
         <v>2402</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" ht="20" customHeight="1">
+      <c r="A274" s="45" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D274" s="47" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E274" s="46" t="s">
+        <v>2965</v>
+      </c>
+      <c r="F274" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>2952</v>
+      </c>
+      <c r="H274" s="4" t="s">
+        <v>2957</v>
+      </c>
+      <c r="I274" s="48" t="s">
+        <v>2966</v>
+      </c>
+      <c r="J274" s="48" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Q274" s="48" t="s">
+        <v>2968</v>
+      </c>
+      <c r="S274" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X274" s="46" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" ht="20" customHeight="1">
+      <c r="A275" s="47" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B275" s="30" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D275" s="47" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E275" s="46" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F275" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H275" s="4" t="s">
+        <v>2958</v>
+      </c>
+      <c r="I275" s="48" t="s">
+        <v>2973</v>
+      </c>
+      <c r="P275" s="48" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Q275" s="48" t="s">
+        <v>2975</v>
+      </c>
+      <c r="S275" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X275" s="48" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" ht="20" customHeight="1">
+      <c r="A276" s="45" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D276" s="47" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E276" s="46" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F276" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>2954</v>
+      </c>
+      <c r="H276" s="4" t="s">
+        <v>2959</v>
+      </c>
+      <c r="J276" s="48" t="s">
+        <v>2980</v>
+      </c>
+      <c r="Q276" s="48" t="s">
+        <v>2981</v>
+      </c>
+      <c r="S276" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X276" s="48" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" ht="20" customHeight="1">
+      <c r="A277" s="45" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D277" s="47" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E277" s="46" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F277" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H277" s="4" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I277" s="48" t="s">
+        <v>2986</v>
+      </c>
+      <c r="K277" s="48" t="s">
+        <v>2987</v>
+      </c>
+      <c r="Q277" s="48" t="s">
+        <v>2988</v>
+      </c>
+      <c r="S277" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X277" s="46" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" ht="20" customHeight="1">
+      <c r="A278" s="45" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B278" s="30" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D278" s="47" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E278" s="46" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F278" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>2956</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="J278" s="48" t="s">
+        <v>2995</v>
+      </c>
+      <c r="O278" s="48" t="s">
+        <v>2994</v>
+      </c>
+      <c r="P278" s="48" t="s">
+        <v>2993</v>
+      </c>
+      <c r="Q278" s="48" t="s">
+        <v>2996</v>
+      </c>
+      <c r="S278" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X278" s="48" t="s">
+        <v>2990</v>
       </c>
     </row>
   </sheetData>
@@ -30903,6 +31528,24 @@
     <hyperlink ref="P157" r:id="rId582" xr:uid="{FCE758E9-495A-5446-AE42-9861D0597F39}"/>
     <hyperlink ref="L78" r:id="rId583" xr:uid="{8587667E-B86D-094B-9027-E7D3B3BBD02D}"/>
     <hyperlink ref="O78" r:id="rId584" xr:uid="{9C4E51C5-A634-8643-9467-446EAD8DD004}"/>
+    <hyperlink ref="I274" r:id="rId585" xr:uid="{6ECC819B-55C0-5946-9C53-6853C353D040}"/>
+    <hyperlink ref="J274" r:id="rId586" xr:uid="{90D0E85A-3B7D-9E4D-9080-036C3B9B7578}"/>
+    <hyperlink ref="Q274" r:id="rId587" xr:uid="{CF27EE4C-0923-014A-8050-CD1ECC61992B}"/>
+    <hyperlink ref="X275" r:id="rId588" display="https://www.google.com/maps/place/%E5%A4%AF%E9%B4%A8%E5%93%8D%E9%A5%8C+%E8%97%9D%E6%96%87%E5%BA%97/@25.0124458,121.2984855,17z/data=!3m2!4b1!5s0x34681fae3f6d6913:0xef1ccff8cc288051!4m6!3m5!1s0x34681f3d5badb583:0xa634cab490b0de12!8m2!3d25.0124458!4d121.3010604!16s%2Fg%2F11rltdq_qw?hl=zh-TW&amp;entry=ttu" xr:uid="{B37E0D85-5FB3-8143-B3ED-9C011F28778F}"/>
+    <hyperlink ref="I275" r:id="rId589" xr:uid="{39E6138B-8ACA-DF44-9235-A0F45636054A}"/>
+    <hyperlink ref="P275" r:id="rId590" xr:uid="{A1DAD5F5-F53C-6942-9E4A-F7F24A95F869}"/>
+    <hyperlink ref="Q275" r:id="rId591" xr:uid="{A983E82B-8878-2D4B-B0FC-75659CB2FC73}"/>
+    <hyperlink ref="X276" r:id="rId592" display="https://www.google.com/maps/place/%E9%AC%A5%E7%89%9B%E5%A3%AB%E4%BA%8C%E9%8D%8B%E6%A1%83%E5%9C%92%E9%A3%9F%E5%B0%9A%E5%BA%97/@24.990799,121.3102351,17z/data=!3m1!4b1!4m6!3m5!1s0x34681f2289e4bb71:0x7c025495c93a92c3!8m2!3d24.990799!4d121.31281!16s%2Fg%2F11jn9q0vc6?hl=zh-TW&amp;entry=ttu" xr:uid="{5232B9A2-FF87-2345-BB7E-023CD31FE971}"/>
+    <hyperlink ref="J276" r:id="rId593" xr:uid="{A6937022-2271-4F4D-BB59-FC3D14A1F241}"/>
+    <hyperlink ref="Q276" r:id="rId594" xr:uid="{BCDB3D52-17F3-3448-950D-7BAEFC6FC767}"/>
+    <hyperlink ref="I277" r:id="rId595" xr:uid="{BCCD407E-7DB1-BA44-81BD-038379D198EE}"/>
+    <hyperlink ref="K277" r:id="rId596" xr:uid="{9A17F2A1-C490-E440-91A8-11ADD72E4C33}"/>
+    <hyperlink ref="Q277" r:id="rId597" xr:uid="{97A569B8-3837-254F-A23C-DA80C9C85B46}"/>
+    <hyperlink ref="X278" r:id="rId598" xr:uid="{EF99656E-99C1-4744-B128-AD50AE43A19A}"/>
+    <hyperlink ref="P278" r:id="rId599" xr:uid="{F362AFBA-804C-E840-87FA-9E19AF3D01A3}"/>
+    <hyperlink ref="O278" r:id="rId600" xr:uid="{715AB94D-90A0-9344-ACDB-4E60983F2D0F}"/>
+    <hyperlink ref="J278" r:id="rId601" xr:uid="{D27AB126-69E3-584D-89ED-DB65ACCFB081}"/>
+    <hyperlink ref="Q278" r:id="rId602" xr:uid="{522562D2-33D9-8749-8962-4710C68F2615}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -30922,7 +31565,7 @@
           <x14:formula1>
             <xm:f>PullDown!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S261:S1048576 S1:S26 S29:S259</xm:sqref>
+          <xm:sqref>S29:S259 S1:S26 S261:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DFC3A4B-30CE-2C4B-9FFF-E9AE41D1159A}">
           <x14:formula1>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA3B96-3F91-3040-B84A-90E54B90D723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F528118B-E9B9-ED43-9D79-2346E5052F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10663,10 +10663,6 @@
     <t>RES-A8-067L.jpeg</t>
   </si>
   <si>
-    <t>&lt;p&gt;即日起至 2023/11/30 消費享8折優惠&lt;/p&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>https://senfood.com.tw/?page_id=17</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -13386,6 +13382,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1078</t>
     </r>
@@ -13433,6 +13430,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -13468,6 +13466,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>333</t>
     </r>
@@ -13486,6 +13485,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -13541,6 +13541,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>47</t>
     </r>
@@ -13559,6 +13560,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -13610,6 +13612,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>150</t>
     </r>
@@ -13665,6 +13668,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>72</t>
     </r>
@@ -13683,6 +13687,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -13716,6 +13721,10 @@
   </si>
   <si>
     <t>https://www.darren0322.com/blog/post/xianghou</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="/images/restaurant/RES-A8-067-1.png" class="max-w-md" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -15226,10 +15235,10 @@
   <dimension ref="A1:X278"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M273" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q278" sqref="Q278"/>
+      <selection pane="bottomRight" activeCell="W139" sqref="W139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -15729,7 +15738,7 @@
     </row>
     <row r="9" spans="1:24" ht="17.25" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1331</v>
@@ -16059,7 +16068,7 @@
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="39" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>1151</v>
@@ -16067,7 +16076,7 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1337</v>
@@ -16107,7 +16116,7 @@
         <v>1753</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
@@ -17372,7 +17381,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="10" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -17447,7 +17456,7 @@
     </row>
     <row r="40" spans="1:24" ht="14.25" customHeight="1">
       <c r="A40" s="37" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1362</v>
@@ -17579,15 +17588,15 @@
         <v>1283</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="10" t="s">
+        <v>2354</v>
+      </c>
+      <c r="O42" s="10" t="s">
         <v>2355</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>2356</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -17797,7 +17806,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -17819,7 +17828,7 @@
     </row>
     <row r="47" spans="1:24" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1369</v>
@@ -17831,16 +17840,16 @@
         <v>1862</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>1546</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
@@ -17852,10 +17861,10 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="10" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3" t="s">
@@ -17965,7 +17974,7 @@
         <v>1700</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3" t="s">
@@ -18623,7 +18632,7 @@
     </row>
     <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="23" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>2133</v>
@@ -18832,31 +18841,31 @@
         <v>2185</v>
       </c>
       <c r="X65" s="21" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>2173</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="24" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="G66" s="24" t="s">
+        <v>2347</v>
+      </c>
+      <c r="H66" s="24" t="s">
         <v>2348</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>2349</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -18867,7 +18876,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24" t="s">
@@ -18882,48 +18891,48 @@
       </c>
       <c r="W66" s="32"/>
       <c r="X66" s="21" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>1024</v>
       </c>
       <c r="D67" s="24" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E67" s="25" t="s">
         <v>2366</v>
       </c>
-      <c r="E67" s="25" t="s">
-        <v>2367</v>
-      </c>
       <c r="F67" s="24" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="G67" s="24" t="s">
+        <v>2362</v>
+      </c>
+      <c r="H67" s="24" t="s">
         <v>2363</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>2364</v>
       </c>
       <c r="I67" s="21"/>
       <c r="J67" s="38"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24" t="s">
@@ -18937,54 +18946,54 @@
         <v>1694</v>
       </c>
       <c r="W67" s="32" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="X67" s="21" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="23" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>2061</v>
       </c>
       <c r="D68" s="24" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>2571</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>2572</v>
+      </c>
+      <c r="I68" s="21" t="s">
         <v>2574</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>2612</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>2580</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>2572</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>2573</v>
-      </c>
-      <c r="I68" s="21" t="s">
+      <c r="J68" s="38" t="s">
+        <v>2576</v>
+      </c>
+      <c r="K68" s="21" t="s">
         <v>2575</v>
-      </c>
-      <c r="J68" s="38" t="s">
-        <v>2577</v>
-      </c>
-      <c r="K68" s="21" t="s">
-        <v>2576</v>
       </c>
       <c r="L68" s="21"/>
       <c r="M68" s="21" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="24"/>
@@ -18997,39 +19006,39 @@
       <c r="U68" s="24"/>
       <c r="V68" s="25"/>
       <c r="W68" s="32" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="X68" s="21" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="23" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C69" s="24" t="s">
         <v>1822</v>
       </c>
       <c r="D69" s="24" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>2592</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>2593</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>608</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="J69" s="38"/>
       <c r="K69" s="21"/>
@@ -19038,7 +19047,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="Q69" s="21"/>
       <c r="R69" s="24"/>
@@ -19046,45 +19055,45 @@
         <v>1991</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="U69" s="24"/>
       <c r="V69" s="25"/>
       <c r="W69" s="32"/>
       <c r="X69" s="21" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="23" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>2061</v>
       </c>
       <c r="D70" s="24" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>2598</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="F70" s="24" t="s">
         <v>2599</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="G70" s="24" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>2601</v>
+      </c>
+      <c r="J70" s="38" t="s">
         <v>2600</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>2586</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>2588</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>2602</v>
-      </c>
-      <c r="J70" s="38" t="s">
-        <v>2601</v>
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
@@ -19098,44 +19107,44 @@
         <v>1991</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="U70" s="24"/>
       <c r="V70" s="25"/>
       <c r="W70" s="32"/>
       <c r="X70" s="21" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="23" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>2243</v>
       </c>
       <c r="D71" s="24" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>2608</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="F71" s="24" t="s">
         <v>2609</v>
       </c>
-      <c r="F71" s="24" t="s">
-        <v>2610</v>
-      </c>
       <c r="G71" s="24" t="s">
+        <v>2603</v>
+      </c>
+      <c r="H71" s="24" t="s">
         <v>2604</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>2605</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="38"/>
       <c r="K71" s="21" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="L71" s="21"/>
       <c r="M71" s="24"/>
@@ -19154,30 +19163,30 @@
       <c r="V71" s="25"/>
       <c r="W71" s="32"/>
       <c r="X71" s="21" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="23" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>2119</v>
       </c>
       <c r="D72" s="24" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>2618</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="F72" s="24" t="s">
         <v>2619</v>
       </c>
-      <c r="F72" s="24" t="s">
-        <v>2620</v>
-      </c>
       <c r="G72" s="24" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>1867</v>
@@ -19188,7 +19197,7 @@
       <c r="L72" s="21"/>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
@@ -19206,49 +19215,49 @@
       </c>
       <c r="W72" s="32"/>
       <c r="X72" s="21" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="23" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>1856</v>
       </c>
       <c r="D73" s="24" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E73" s="25" t="s">
         <v>2625</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="F73" s="24" t="s">
         <v>2626</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="G73" s="24" t="s">
         <v>2627</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="H73" s="24" t="s">
         <v>2628</v>
       </c>
-      <c r="H73" s="24" t="s">
+      <c r="I73" s="21" t="s">
+        <v>2632</v>
+      </c>
+      <c r="J73" s="38" t="s">
         <v>2629</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>2633</v>
-      </c>
-      <c r="J73" s="38" t="s">
-        <v>2630</v>
       </c>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="21" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="N73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="Q73" s="21"/>
       <c r="R73" s="24"/>
@@ -19264,49 +19273,49 @@
       </c>
       <c r="W73" s="32"/>
       <c r="X73" s="21" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="20" customHeight="1">
       <c r="A74" s="23" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>2060</v>
       </c>
       <c r="D74" s="24" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>2639</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="F74" s="24" t="s">
         <v>2640</v>
       </c>
-      <c r="F74" s="24" t="s">
-        <v>2641</v>
-      </c>
       <c r="G74" s="24" t="s">
+        <v>2634</v>
+      </c>
+      <c r="H74" s="24" t="s">
         <v>2635</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>2636</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="38"/>
       <c r="K74" s="21" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
       <c r="N74" s="21" t="s">
+        <v>2643</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>2642</v>
+      </c>
+      <c r="P74" s="21" t="s">
         <v>2644</v>
-      </c>
-      <c r="O74" s="21" t="s">
-        <v>2643</v>
-      </c>
-      <c r="P74" s="21" t="s">
-        <v>2645</v>
       </c>
       <c r="Q74" s="21"/>
       <c r="R74" s="24"/>
@@ -19322,37 +19331,37 @@
       </c>
       <c r="W74" s="32"/>
       <c r="X74" s="21" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="23" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>2061</v>
       </c>
       <c r="D75" s="24" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>2651</v>
       </c>
-      <c r="E75" s="25" t="s">
+      <c r="F75" s="24" t="s">
         <v>2652</v>
       </c>
-      <c r="F75" s="24" t="s">
-        <v>2653</v>
-      </c>
       <c r="G75" s="24" t="s">
+        <v>2646</v>
+      </c>
+      <c r="H75" s="24" t="s">
         <v>2647</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>2648</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="38" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
@@ -19374,41 +19383,41 @@
       </c>
       <c r="W75" s="32"/>
       <c r="X75" s="21" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="23" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B76" s="24" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G76" s="24" t="s">
         <v>2655</v>
       </c>
-      <c r="C76" s="24" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>2660</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>2661</v>
-      </c>
-      <c r="F76" s="24" t="s">
+      <c r="H76" s="24" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I76" s="21" t="s">
         <v>2662</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>2656</v>
-      </c>
-      <c r="H76" s="24" t="s">
-        <v>2657</v>
-      </c>
-      <c r="I76" s="21" t="s">
-        <v>2663</v>
       </c>
       <c r="J76" s="38"/>
       <c r="K76" s="21"/>
       <c r="L76" s="21" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="M76" s="21"/>
       <c r="N76" s="21"/>
@@ -19426,49 +19435,49 @@
       <c r="V76" s="25"/>
       <c r="W76" s="32"/>
       <c r="X76" s="21" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="22" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="E77" s="25" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F77" s="24" t="s">
         <v>2840</v>
       </c>
-      <c r="F77" s="24" t="s">
-        <v>2841</v>
-      </c>
       <c r="G77" s="24" t="s">
+        <v>2834</v>
+      </c>
+      <c r="H77" s="24" t="s">
         <v>2835</v>
       </c>
-      <c r="H77" s="24" t="s">
-        <v>2836</v>
-      </c>
       <c r="I77" s="21" t="s">
+        <v>2842</v>
+      </c>
+      <c r="J77" s="38" t="s">
         <v>2843</v>
-      </c>
-      <c r="J77" s="38" t="s">
-        <v>2844</v>
       </c>
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
       <c r="M77" s="21" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="N77" s="21"/>
       <c r="O77" s="21"/>
       <c r="P77" s="21" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="Q77" s="21"/>
       <c r="R77" s="24"/>
@@ -19482,49 +19491,49 @@
       <c r="V77" s="25"/>
       <c r="W77" s="32"/>
       <c r="X77" s="21" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="22" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="D78" s="24" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E78" s="25" t="s">
         <v>2854</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>2855</v>
       </c>
       <c r="F78" s="24" t="s">
         <v>1139</v>
       </c>
       <c r="G78" s="24" t="s">
+        <v>2849</v>
+      </c>
+      <c r="H78" s="24" t="s">
         <v>2850</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>2851</v>
       </c>
       <c r="I78" s="21"/>
       <c r="J78" s="38"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="M78" s="21"/>
       <c r="N78" s="21" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="P78" s="21" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="Q78" s="21"/>
       <c r="R78" s="24"/>
@@ -19537,36 +19546,36 @@
       <c r="U78" s="24"/>
       <c r="V78" s="25"/>
       <c r="W78" s="32" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="22" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D79" s="24" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F79" s="24" t="s">
         <v>2872</v>
       </c>
-      <c r="E79" s="25" t="s">
-        <v>2875</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>2873</v>
-      </c>
       <c r="G79" s="24" t="s">
+        <v>2867</v>
+      </c>
+      <c r="H79" s="24" t="s">
         <v>2868</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>2869</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="38"/>
@@ -19576,7 +19585,7 @@
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
       <c r="P79" s="21" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="Q79" s="21"/>
       <c r="R79" s="24"/>
@@ -19584,41 +19593,41 @@
         <v>1991</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="U79" s="24"/>
       <c r="V79" s="25"/>
       <c r="W79" s="32" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="X79" s="21" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="22" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D80" s="24" t="s">
         <v>2926</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D80" s="24" t="s">
+      <c r="E80" s="25" t="s">
         <v>2927</v>
       </c>
-      <c r="E80" s="25" t="s">
+      <c r="F80" s="24" t="s">
         <v>2928</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="G80" s="24" t="s">
         <v>2929</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="H80" s="24" t="s">
         <v>2930</v>
-      </c>
-      <c r="H80" s="24" t="s">
-        <v>2931</v>
       </c>
       <c r="I80" s="21"/>
       <c r="J80" s="38"/>
@@ -19628,7 +19637,7 @@
       <c r="N80" s="21"/>
       <c r="O80" s="21"/>
       <c r="P80" s="21" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="Q80" s="21"/>
       <c r="R80" s="24"/>
@@ -19641,10 +19650,10 @@
       <c r="U80" s="24"/>
       <c r="V80" s="25"/>
       <c r="W80" s="32" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="17.25" customHeight="1">
@@ -19707,7 +19716,7 @@
     </row>
     <row r="82" spans="1:24" ht="14.25" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1372</v>
@@ -19728,7 +19737,7 @@
         <v>1549</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>323</v>
@@ -19902,7 +19911,7 @@
         <v>1552</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>509</v>
@@ -19939,7 +19948,7 @@
     </row>
     <row r="86" spans="1:24" ht="14.25" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1376</v>
@@ -20018,7 +20027,7 @@
         <v>1554</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3" t="s">
@@ -20076,7 +20085,7 @@
         <v>1555</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3" t="s">
@@ -20113,7 +20122,7 @@
     </row>
     <row r="89" spans="1:24" ht="14.25" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1379</v>
@@ -20134,7 +20143,7 @@
         <v>1556</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3" t="s">
@@ -20192,7 +20201,7 @@
         <v>1557</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>615</v>
@@ -20307,7 +20316,7 @@
         <v>1559</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="I92" s="15"/>
       <c r="K92" s="3"/>
@@ -20362,7 +20371,7 @@
         <v>1560</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3" t="s">
@@ -20420,7 +20429,7 @@
         <v>1561</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3" t="s">
@@ -20480,7 +20489,7 @@
         <v>1563</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -20596,7 +20605,7 @@
         <v>1565</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>726</v>
@@ -20710,7 +20719,7 @@
         <v>1567</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>781</v>
@@ -20727,7 +20736,7 @@
         <v>783</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="S99" s="3" t="s">
         <v>1312</v>
@@ -20827,7 +20836,7 @@
         <v>1569</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3" t="s">
@@ -21059,7 +21068,7 @@
         <v>1574</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>876</v>
@@ -21117,7 +21126,7 @@
         <v>1575</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3" t="s">
@@ -21175,7 +21184,7 @@
         <v>1577</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3" t="s">
@@ -21233,7 +21242,7 @@
         <v>1578</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3" t="s">
@@ -21291,7 +21300,7 @@
         <v>1579</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3" t="s">
@@ -21349,7 +21358,7 @@
         <v>1580</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3" t="s">
@@ -21411,7 +21420,7 @@
         <v>1581</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3" t="s">
@@ -21469,7 +21478,7 @@
         <v>1582</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3" t="s">
@@ -21527,7 +21536,7 @@
         <v>1583</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3" t="s">
@@ -21564,7 +21573,7 @@
     </row>
     <row r="114" spans="1:24" ht="24.25" customHeight="1">
       <c r="A114" s="36" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>1404</v>
@@ -21641,7 +21650,7 @@
         <v>1585</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3" t="s">
@@ -21697,7 +21706,7 @@
         <v>1586</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -21751,7 +21760,7 @@
         <v>1587</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3" t="s">
@@ -21867,7 +21876,7 @@
         <v>1589</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -21883,7 +21892,7 @@
         <v>1016</v>
       </c>
       <c r="R119" s="10" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="S119" s="3" t="s">
         <v>1312</v>
@@ -21925,7 +21934,7 @@
         <v>1590</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>1020</v>
@@ -21983,7 +21992,7 @@
         <v>1591</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>1028</v>
@@ -22213,7 +22222,7 @@
         <v>1595</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>1055</v>
@@ -22532,7 +22541,7 @@
     </row>
     <row r="131" spans="1:24" ht="14.25" customHeight="1">
       <c r="A131" s="36" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>1864</v>
@@ -22590,7 +22599,7 @@
     </row>
     <row r="132" spans="1:24" ht="24.25" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>1865</v>
@@ -22611,7 +22620,7 @@
         <v>1674</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3" t="s">
@@ -22648,7 +22657,7 @@
     </row>
     <row r="133" spans="1:24" ht="24.25" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>2017</v>
@@ -22804,7 +22813,7 @@
     </row>
     <row r="136" spans="1:24" ht="24.25" customHeight="1">
       <c r="A136" s="36" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>2203</v>
@@ -22858,7 +22867,7 @@
     </row>
     <row r="137" spans="1:24" ht="24.25" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>2204</v>
@@ -23010,7 +23019,7 @@
     </row>
     <row r="140" spans="1:24" ht="24.25" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>2281</v>
@@ -23043,7 +23052,7 @@
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -23056,7 +23065,7 @@
         <v>2029</v>
       </c>
       <c r="W140" s="3" t="s">
-        <v>2290</v>
+        <v>2996</v>
       </c>
       <c r="X140" s="10" t="s">
         <v>2282</v>
@@ -23064,51 +23073,51 @@
     </row>
     <row r="141" spans="1:24" ht="24.25" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>2119</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>2325</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>2326</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>2327</v>
-      </c>
       <c r="G141" s="4" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H141" s="4" t="s">
         <v>2335</v>
       </c>
-      <c r="H141" s="4" t="s">
-        <v>2336</v>
-      </c>
       <c r="I141" s="10" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J141" s="10" t="s">
+        <v>2328</v>
+      </c>
+      <c r="K141" s="10" t="s">
         <v>2332</v>
       </c>
-      <c r="J141" s="10" t="s">
+      <c r="L141" s="10" t="s">
+        <v>2330</v>
+      </c>
+      <c r="M141" s="10" t="s">
         <v>2329</v>
-      </c>
-      <c r="K141" s="10" t="s">
-        <v>2333</v>
-      </c>
-      <c r="L141" s="10" t="s">
-        <v>2331</v>
-      </c>
-      <c r="M141" s="10" t="s">
-        <v>2330</v>
       </c>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="R141" s="3"/>
       <c r="S141" s="3" t="s">
@@ -23121,33 +23130,33 @@
       </c>
       <c r="W141" s="3"/>
       <c r="X141" s="10" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="24.25" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G142" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H142" s="4" t="s">
         <v>2338</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>2339</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
@@ -23155,14 +23164,14 @@
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="10" t="s">
+        <v>2341</v>
+      </c>
+      <c r="O142" s="10" t="s">
         <v>2342</v>
-      </c>
-      <c r="O142" s="10" t="s">
-        <v>2343</v>
       </c>
       <c r="P142" s="10"/>
       <c r="Q142" s="10" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="R142" s="3"/>
       <c r="S142" s="3" t="s">
@@ -23175,50 +23184,50 @@
       </c>
       <c r="W142" s="3"/>
       <c r="X142" s="10" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="24.25" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>2427</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>2428</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G143" s="4" t="s">
+        <v>2423</v>
+      </c>
+      <c r="H143" s="4" t="s">
         <v>2424</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>2425</v>
-      </c>
       <c r="I143" s="10" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="K143" s="10"/>
       <c r="L143" s="10" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
       <c r="Q143" s="10" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="R143" s="3"/>
       <c r="S143" s="3" t="s">
@@ -23231,50 +23240,50 @@
       </c>
       <c r="W143" s="3"/>
       <c r="X143" s="10" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="24.25" customHeight="1">
       <c r="A144" s="36" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D144" s="3" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>2449</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>2450</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>2451</v>
-      </c>
       <c r="G144" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H144" s="4" t="s">
         <v>2445</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>2446</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="10" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10" t="s">
+        <v>2451</v>
+      </c>
+      <c r="O144" s="10" t="s">
         <v>2452</v>
-      </c>
-      <c r="O144" s="10" t="s">
-        <v>2453</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="R144" s="3"/>
       <c r="S144" s="3" t="s">
@@ -23287,50 +23296,50 @@
       </c>
       <c r="W144" s="3"/>
       <c r="X144" s="10" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="24.25" customHeight="1">
       <c r="A145" s="36" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>2669</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>2670</v>
-      </c>
       <c r="G145" s="4" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H145" s="4" t="s">
         <v>2666</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>2667</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
       <c r="N145" s="10" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="O145" s="10"/>
       <c r="P145" s="10" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="R145" s="3"/>
       <c r="S145" s="3" t="s">
@@ -23341,36 +23350,36 @@
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
       <c r="X145" s="10" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="24.25" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>2681</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>2682</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G146" s="4" t="s">
+        <v>2676</v>
+      </c>
+      <c r="H146" s="4" t="s">
         <v>2677</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>2678</v>
-      </c>
       <c r="I146" s="10" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -23379,7 +23388,7 @@
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="Q146" s="10"/>
       <c r="R146" s="3"/>
@@ -23391,50 +23400,50 @@
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
       <c r="X146" s="10" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="24.25" customHeight="1">
       <c r="A147" s="36" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E147" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>2718</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>2719</v>
-      </c>
       <c r="G147" s="4" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10" t="s">
+        <v>2720</v>
+      </c>
+      <c r="K147" s="10" t="s">
         <v>2721</v>
       </c>
-      <c r="K147" s="10" t="s">
+      <c r="L147" s="10" t="s">
         <v>2722</v>
-      </c>
-      <c r="L147" s="10" t="s">
-        <v>2723</v>
       </c>
       <c r="M147" s="10"/>
       <c r="N147" s="10" t="s">
+        <v>2723</v>
+      </c>
+      <c r="O147" s="10" t="s">
         <v>2724</v>
-      </c>
-      <c r="O147" s="10" t="s">
-        <v>2725</v>
       </c>
       <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
@@ -23447,33 +23456,33 @@
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
       <c r="X147" s="10" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="24.25" customHeight="1">
       <c r="A148" s="36" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>2728</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>2729</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>2730</v>
-      </c>
       <c r="G148" s="4" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
@@ -23481,7 +23490,7 @@
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
@@ -23495,36 +23504,36 @@
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
       <c r="X148" s="10" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="24.25" customHeight="1">
       <c r="A149" s="36" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>2733</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>2734</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -23533,7 +23542,7 @@
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="Q149" s="10"/>
       <c r="R149" s="3"/>
@@ -23545,33 +23554,33 @@
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
       <c r="X149" s="10" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="24.25" customHeight="1">
       <c r="A150" s="36" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>2736</v>
       </c>
-      <c r="B150" s="30" t="s">
-        <v>2692</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>2833</v>
-      </c>
-      <c r="D150" s="3" t="s">
+      <c r="E150" s="3" t="s">
         <v>2737</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>2738</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>2739</v>
-      </c>
       <c r="G150" s="4" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
@@ -23581,7 +23590,7 @@
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="Q150" s="10"/>
       <c r="R150" s="3"/>
@@ -23593,33 +23602,33 @@
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
       <c r="X150" s="10" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="24.25" customHeight="1">
       <c r="A151" s="36" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>2743</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>2744</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="G151" s="4" t="s">
         <v>2745</v>
       </c>
-      <c r="G151" s="4" t="s">
-        <v>2746</v>
-      </c>
       <c r="H151" s="4" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
@@ -23628,11 +23637,11 @@
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
       <c r="O151" s="10" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="P151" s="10"/>
       <c r="Q151" s="10" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="R151" s="3"/>
       <c r="S151" s="3" t="s">
@@ -23643,33 +23652,33 @@
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
       <c r="X151" s="10" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="24.25" customHeight="1">
       <c r="A152" s="36" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D152" s="3" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>2751</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>2752</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>1236</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="I152" s="40"/>
       <c r="J152" s="10"/>
@@ -23677,10 +23686,10 @@
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10" t="s">
+        <v>2752</v>
+      </c>
+      <c r="O152" s="10" t="s">
         <v>2753</v>
-      </c>
-      <c r="O152" s="10" t="s">
-        <v>2754</v>
       </c>
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
@@ -23693,36 +23702,36 @@
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
       <c r="X152" s="10" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="24.25" customHeight="1">
       <c r="A153" s="36" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>2757</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>2758</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>641</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -23730,7 +23739,7 @@
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="O153" s="10" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="P153" s="10"/>
       <c r="Q153" s="10"/>
@@ -23743,46 +23752,46 @@
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
       <c r="X153" s="10" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="24.25" customHeight="1">
       <c r="A154" s="36" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>2061</v>
       </c>
       <c r="D154" s="3" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>2763</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>2764</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
       <c r="N154" s="10" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
@@ -23795,33 +23804,33 @@
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
       <c r="X154" s="10" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="24.25" customHeight="1">
       <c r="A155" s="36" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D155" s="3" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>2770</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>2771</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>2772</v>
-      </c>
       <c r="G155" s="4" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
@@ -23829,10 +23838,10 @@
       <c r="L155" s="10"/>
       <c r="M155" s="10"/>
       <c r="N155" s="10" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="O155" s="10" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="P155" s="10"/>
       <c r="Q155" s="10"/>
@@ -23845,52 +23854,52 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
       <c r="X155" s="10" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="24.25" customHeight="1">
       <c r="A156" s="36" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>2814</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>2815</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>293</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="I156" s="10"/>
       <c r="J156" s="10" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="K156" s="10"/>
       <c r="L156" s="10"/>
       <c r="M156" s="10" t="s">
+        <v>2816</v>
+      </c>
+      <c r="N156" s="10" t="s">
         <v>2817</v>
       </c>
-      <c r="N156" s="10" t="s">
+      <c r="O156" s="10" t="s">
         <v>2818</v>
-      </c>
-      <c r="O156" s="10" t="s">
-        <v>2819</v>
       </c>
       <c r="P156" s="10"/>
       <c r="Q156" s="10" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="R156" s="3"/>
       <c r="S156" s="3" t="s">
@@ -23901,36 +23910,36 @@
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
       <c r="X156" s="10" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="24.25" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D157" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>2940</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>2941</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="G157" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>2937</v>
+      </c>
+      <c r="I157" s="10" t="s">
         <v>2942</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>2939</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>2938</v>
-      </c>
-      <c r="I157" s="10" t="s">
-        <v>2943</v>
       </c>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -23939,7 +23948,7 @@
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="Q157" s="10"/>
       <c r="R157" s="3"/>
@@ -23951,7 +23960,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
       <c r="X157" s="10" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="15" customHeight="1">
@@ -24370,7 +24379,7 @@
     </row>
     <row r="165" spans="1:24" ht="14.25" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>1426</v>
@@ -24430,7 +24439,7 @@
     </row>
     <row r="166" spans="1:24" ht="14.25" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>1427</v>
@@ -24608,7 +24617,7 @@
     </row>
     <row r="169" spans="1:24" ht="14.25" customHeight="1">
       <c r="A169" s="37" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>1430</v>
@@ -24693,7 +24702,7 @@
         <v>1612</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="I170" s="10" t="s">
         <v>1969</v>
@@ -24715,7 +24724,7 @@
         <v>350</v>
       </c>
       <c r="R170" s="10" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="S170" s="3" t="s">
         <v>1313</v>
@@ -24796,7 +24805,7 @@
     </row>
     <row r="172" spans="1:24" ht="14.25" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>1433</v>
@@ -25036,7 +25045,7 @@
     </row>
     <row r="176" spans="1:24" ht="24.25" customHeight="1">
       <c r="A176" s="37" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>1437</v>
@@ -25752,7 +25761,7 @@
     </row>
     <row r="188" spans="1:24" ht="20" customHeight="1">
       <c r="A188" s="36" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>1449</v>
@@ -25876,7 +25885,7 @@
     </row>
     <row r="190" spans="1:24" ht="20" customHeight="1">
       <c r="A190" s="36" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>1451</v>
@@ -25936,7 +25945,7 @@
     </row>
     <row r="191" spans="1:24" ht="20" customHeight="1">
       <c r="A191" s="36" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>1452</v>
@@ -25994,7 +26003,7 @@
     </row>
     <row r="192" spans="1:24" ht="20" customHeight="1">
       <c r="A192" s="36" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>1453</v>
@@ -26232,7 +26241,7 @@
     </row>
     <row r="196" spans="1:24" ht="20" customHeight="1">
       <c r="A196" s="36" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>1457</v>
@@ -26720,7 +26729,7 @@
     </row>
     <row r="204" spans="1:24" ht="20" customHeight="1">
       <c r="A204" s="36" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>1465</v>
@@ -26842,7 +26851,7 @@
     </row>
     <row r="206" spans="1:24" ht="20" customHeight="1">
       <c r="A206" s="37" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>1467</v>
@@ -27148,7 +27157,7 @@
     </row>
     <row r="211" spans="1:24" ht="20" customHeight="1">
       <c r="A211" s="36" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>1472</v>
@@ -27206,7 +27215,7 @@
     </row>
     <row r="212" spans="1:24" ht="20" customHeight="1">
       <c r="A212" s="36" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>1473</v>
@@ -27264,7 +27273,7 @@
     </row>
     <row r="213" spans="1:24" ht="20" customHeight="1">
       <c r="A213" s="36" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>1474</v>
@@ -27446,7 +27455,7 @@
     </row>
     <row r="216" spans="1:24" ht="20" customHeight="1">
       <c r="A216" s="36" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>1477</v>
@@ -27506,7 +27515,7 @@
     </row>
     <row r="217" spans="1:24" ht="20" customHeight="1">
       <c r="A217" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>1478</v>
@@ -27688,7 +27697,7 @@
     </row>
     <row r="220" spans="1:24" ht="20" customHeight="1">
       <c r="A220" s="37" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>1481</v>
@@ -28098,7 +28107,7 @@
     </row>
     <row r="227" spans="1:24" ht="20" customHeight="1">
       <c r="A227" s="37" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>1488</v>
@@ -28284,7 +28293,7 @@
     </row>
     <row r="230" spans="1:24" ht="17.25" customHeight="1">
       <c r="A230" s="36" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>1817</v>
@@ -28829,7 +28838,7 @@
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
       <c r="P239" s="10" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="Q239" s="10"/>
       <c r="R239" s="3"/>
@@ -28904,47 +28913,47 @@
     </row>
     <row r="241" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D241" s="11" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E241" s="3" t="s">
         <v>2415</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="F241" s="3" t="s">
         <v>2416</v>
       </c>
-      <c r="F241" s="3" t="s">
-        <v>2417</v>
-      </c>
       <c r="G241" s="27" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H241" s="27" t="s">
         <v>2411</v>
-      </c>
-      <c r="H241" s="27" t="s">
-        <v>2412</v>
       </c>
       <c r="I241" s="10"/>
       <c r="J241" s="10" t="s">
+        <v>2418</v>
+      </c>
+      <c r="K241" s="10" t="s">
+        <v>2420</v>
+      </c>
+      <c r="L241" s="10" t="s">
         <v>2419</v>
-      </c>
-      <c r="K241" s="10" t="s">
-        <v>2421</v>
-      </c>
-      <c r="L241" s="10" t="s">
-        <v>2420</v>
       </c>
       <c r="M241" s="3"/>
       <c r="N241" s="10" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
       <c r="Q241" s="10" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="R241" s="3"/>
       <c r="S241" s="3" t="s">
@@ -28957,36 +28966,36 @@
       </c>
       <c r="W241" s="3"/>
       <c r="X241" s="10" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="D242" s="11" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E242" s="3" t="s">
         <v>2439</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="F242" s="3" t="s">
         <v>2440</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="G242" s="27" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H242" s="27" t="s">
+        <v>2435</v>
+      </c>
+      <c r="I242" s="10" t="s">
         <v>2441</v>
-      </c>
-      <c r="G242" s="27" t="s">
-        <v>2435</v>
-      </c>
-      <c r="H242" s="27" t="s">
-        <v>2436</v>
-      </c>
-      <c r="I242" s="10" t="s">
-        <v>2442</v>
       </c>
       <c r="J242" s="10"/>
       <c r="K242" s="10"/>
@@ -28996,7 +29005,7 @@
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
       <c r="Q242" s="10" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="R242" s="3"/>
       <c r="S242" s="3" t="s">
@@ -29009,47 +29018,47 @@
       </c>
       <c r="W242" s="3"/>
       <c r="X242" s="10" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C243" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D243" s="11" t="s">
         <v>2469</v>
       </c>
-      <c r="D243" s="11" t="s">
+      <c r="E243" s="3" t="s">
         <v>2470</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="F243" s="3" t="s">
         <v>2471</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="G243" s="27" t="s">
+        <v>2458</v>
+      </c>
+      <c r="H243" s="27" t="s">
+        <v>2462</v>
+      </c>
+      <c r="I243" s="10" t="s">
         <v>2472</v>
-      </c>
-      <c r="G243" s="27" t="s">
-        <v>2459</v>
-      </c>
-      <c r="H243" s="27" t="s">
-        <v>2463</v>
-      </c>
-      <c r="I243" s="10" t="s">
-        <v>2473</v>
       </c>
       <c r="J243" s="10"/>
       <c r="K243" s="10"/>
       <c r="L243" s="10"/>
       <c r="M243" s="3"/>
       <c r="N243" s="10" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="O243" s="10"/>
       <c r="P243" s="10" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="Q243" s="10"/>
       <c r="R243" s="3"/>
@@ -29063,48 +29072,48 @@
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="10" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>2059</v>
       </c>
       <c r="D244" s="11" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E244" s="3" t="s">
         <v>2477</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>2478</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="G244" s="27" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H244" s="27" t="s">
+        <v>2463</v>
+      </c>
+      <c r="I244" s="10" t="s">
         <v>2479</v>
       </c>
-      <c r="G244" s="27" t="s">
-        <v>2460</v>
-      </c>
-      <c r="H244" s="27" t="s">
-        <v>2464</v>
-      </c>
-      <c r="I244" s="10" t="s">
-        <v>2480</v>
-      </c>
       <c r="J244" s="10" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K244" s="10"/>
       <c r="L244" s="10"/>
       <c r="M244" s="3"/>
       <c r="N244" s="10" t="s">
+        <v>2480</v>
+      </c>
+      <c r="O244" s="10" t="s">
         <v>2481</v>
-      </c>
-      <c r="O244" s="10" t="s">
-        <v>2482</v>
       </c>
       <c r="P244" s="10"/>
       <c r="Q244" s="10"/>
@@ -29115,40 +29124,40 @@
       <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="10" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="245" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D245" s="11" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>2486</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="F245" s="3" t="s">
         <v>2487</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="G245" s="27" t="s">
+        <v>2460</v>
+      </c>
+      <c r="H245" s="27" t="s">
+        <v>2464</v>
+      </c>
+      <c r="I245" s="10" t="s">
         <v>2488</v>
-      </c>
-      <c r="G245" s="27" t="s">
-        <v>2461</v>
-      </c>
-      <c r="H245" s="27" t="s">
-        <v>2465</v>
-      </c>
-      <c r="I245" s="10" t="s">
-        <v>2489</v>
       </c>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
@@ -29169,39 +29178,39 @@
       </c>
       <c r="W245" s="3"/>
       <c r="X245" s="10" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D246" s="11" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E246" s="3" t="s">
         <v>2492</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="F246" s="3" t="s">
         <v>2493</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="G246" s="27" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H246" s="27" t="s">
+        <v>2465</v>
+      </c>
+      <c r="I246" s="10" t="s">
         <v>2494</v>
       </c>
-      <c r="G246" s="27" t="s">
-        <v>2462</v>
-      </c>
-      <c r="H246" s="27" t="s">
-        <v>2466</v>
-      </c>
-      <c r="I246" s="10" t="s">
+      <c r="J246" s="10" t="s">
         <v>2495</v>
-      </c>
-      <c r="J246" s="10" t="s">
-        <v>2496</v>
       </c>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
@@ -29209,7 +29218,7 @@
       <c r="N246" s="10"/>
       <c r="O246" s="10"/>
       <c r="P246" s="10" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="Q246" s="10"/>
       <c r="R246" s="3"/>
@@ -29223,52 +29232,52 @@
       </c>
       <c r="W246" s="3"/>
       <c r="X246" s="10" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D247" s="11" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E247" s="3" t="s">
         <v>2542</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="F247" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="F247" s="3" t="s">
-        <v>2544</v>
-      </c>
       <c r="G247" s="27" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H247" s="27" t="s">
         <v>2538</v>
-      </c>
-      <c r="H247" s="27" t="s">
-        <v>2539</v>
       </c>
       <c r="I247" s="10"/>
       <c r="J247" s="10" t="s">
+        <v>2545</v>
+      </c>
+      <c r="K247" s="10" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L247" s="10" t="s">
         <v>2546</v>
-      </c>
-      <c r="K247" s="10" t="s">
-        <v>2548</v>
-      </c>
-      <c r="L247" s="10" t="s">
-        <v>2547</v>
       </c>
       <c r="M247" s="3"/>
       <c r="N247" s="10"/>
       <c r="O247" s="10"/>
       <c r="P247" s="10" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="R247" s="3"/>
       <c r="S247" s="3" t="s">
@@ -29281,33 +29290,33 @@
       </c>
       <c r="W247" s="3"/>
       <c r="X247" s="10" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>2059</v>
       </c>
       <c r="D248" s="11" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E248" s="3" t="s">
         <v>2555</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="F248" s="3" t="s">
         <v>2556</v>
       </c>
-      <c r="F248" s="3" t="s">
-        <v>2557</v>
-      </c>
       <c r="G248" s="27" t="s">
+        <v>2550</v>
+      </c>
+      <c r="H248" s="27" t="s">
         <v>2551</v>
-      </c>
-      <c r="H248" s="27" t="s">
-        <v>2552</v>
       </c>
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
@@ -29317,10 +29326,10 @@
       <c r="N248" s="10"/>
       <c r="O248" s="10"/>
       <c r="P248" s="10" t="s">
+        <v>2557</v>
+      </c>
+      <c r="Q248" s="10" t="s">
         <v>2558</v>
-      </c>
-      <c r="Q248" s="10" t="s">
-        <v>2559</v>
       </c>
       <c r="R248" s="3"/>
       <c r="S248" s="3" t="s">
@@ -29333,47 +29342,47 @@
       </c>
       <c r="W248" s="3"/>
       <c r="X248" s="10" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="249" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>2061</v>
       </c>
       <c r="D249" s="11" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E249" s="3" t="s">
         <v>2565</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>2566</v>
       </c>
-      <c r="F249" s="3" t="s">
-        <v>2567</v>
-      </c>
       <c r="G249" s="27" t="s">
+        <v>2560</v>
+      </c>
+      <c r="H249" s="27" t="s">
         <v>2561</v>
       </c>
-      <c r="H249" s="27" t="s">
-        <v>2562</v>
-      </c>
       <c r="I249" s="10" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
       <c r="M249" s="3"/>
       <c r="N249" s="10" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="O249" s="10"/>
       <c r="P249" s="10" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="Q249" s="10"/>
       <c r="R249" s="3"/>
@@ -29387,36 +29396,36 @@
       </c>
       <c r="W249" s="3"/>
       <c r="X249" s="10" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="250" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="D250" s="11" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E250" s="3" t="s">
         <v>2785</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>2786</v>
       </c>
-      <c r="F250" s="3" t="s">
-        <v>2787</v>
-      </c>
       <c r="G250" s="27" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="H250" s="27" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="I250" s="10" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
@@ -29425,10 +29434,10 @@
       <c r="N250" s="10"/>
       <c r="O250" s="10"/>
       <c r="P250" s="10" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="Q250" s="10" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="R250" s="3"/>
       <c r="S250" s="3" t="s">
@@ -29439,52 +29448,52 @@
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
       <c r="X250" s="10" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="251" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>2262</v>
       </c>
       <c r="D251" s="11" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F251" s="3" t="s">
         <v>2789</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="G251" s="27" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H251" s="27" t="s">
+        <v>2781</v>
+      </c>
+      <c r="I251" s="10" t="s">
         <v>2801</v>
       </c>
-      <c r="F251" s="3" t="s">
-        <v>2790</v>
-      </c>
-      <c r="G251" s="27" t="s">
-        <v>2779</v>
-      </c>
-      <c r="H251" s="27" t="s">
-        <v>2782</v>
-      </c>
-      <c r="I251" s="10" t="s">
-        <v>2802</v>
-      </c>
       <c r="J251" s="10" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="K251" s="10"/>
       <c r="L251" s="10"/>
       <c r="M251" s="10" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="N251" s="10"/>
       <c r="O251" s="10"/>
       <c r="P251" s="10" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="R251" s="3"/>
       <c r="S251" s="3" t="s">
@@ -29495,52 +29504,52 @@
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
       <c r="X251" s="10" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="252" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="D252" s="11" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E252" s="3" t="s">
         <v>2792</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>2793</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G252" s="27" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="H252" s="27" t="s">
+        <v>2796</v>
+      </c>
+      <c r="I252" s="10" t="s">
         <v>2797</v>
-      </c>
-      <c r="I252" s="10" t="s">
-        <v>2798</v>
       </c>
       <c r="J252" s="10"/>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
       <c r="M252" s="3"/>
       <c r="N252" s="10" t="s">
+        <v>2794</v>
+      </c>
+      <c r="O252" s="10" t="s">
         <v>2795</v>
       </c>
-      <c r="O252" s="10" t="s">
-        <v>2796</v>
-      </c>
       <c r="P252" s="10" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="Q252" s="10" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="R252" s="3"/>
       <c r="S252" s="3" t="s">
@@ -29551,39 +29560,39 @@
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
       <c r="X252" s="10" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="253" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="D253" s="11" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E253" s="3" t="s">
         <v>2828</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>2829</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>2218</v>
       </c>
       <c r="G253" s="27" t="s">
+        <v>2823</v>
+      </c>
+      <c r="H253" s="27" t="s">
         <v>2824</v>
       </c>
-      <c r="H253" s="27" t="s">
-        <v>2825</v>
-      </c>
       <c r="I253" s="10" t="s">
+        <v>2830</v>
+      </c>
+      <c r="J253" s="10" t="s">
         <v>2831</v>
-      </c>
-      <c r="J253" s="10" t="s">
-        <v>2832</v>
       </c>
       <c r="K253" s="10"/>
       <c r="L253" s="10"/>
@@ -29592,7 +29601,7 @@
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
       <c r="Q253" s="10" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="3" t="s">
@@ -29603,37 +29612,37 @@
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
       <c r="X253" s="10" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="254" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>1856</v>
       </c>
       <c r="D254" s="11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E254" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="F254" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="F254" s="3" t="s">
-        <v>2865</v>
-      </c>
       <c r="G254" s="27" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H254" s="27" t="s">
         <v>2858</v>
-      </c>
-      <c r="H254" s="27" t="s">
-        <v>2859</v>
       </c>
       <c r="I254" s="10"/>
       <c r="J254" s="10" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="K254" s="10"/>
       <c r="L254" s="10"/>
@@ -29642,7 +29651,7 @@
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
       <c r="Q254" s="10" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="R254" s="3"/>
       <c r="S254" s="3" t="s">
@@ -29653,54 +29662,54 @@
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
       <c r="X254" s="10" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="255" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>2243</v>
       </c>
       <c r="D255" s="11" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E255" s="3" t="s">
         <v>2888</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="F255" s="3" t="s">
         <v>2889</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="G255" s="27" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H255" s="27" t="s">
+        <v>2882</v>
+      </c>
+      <c r="I255" s="10" t="s">
         <v>2890</v>
-      </c>
-      <c r="G255" s="27" t="s">
-        <v>2884</v>
-      </c>
-      <c r="H255" s="27" t="s">
-        <v>2883</v>
-      </c>
-      <c r="I255" s="10" t="s">
-        <v>2891</v>
       </c>
       <c r="J255" s="10"/>
       <c r="K255" s="10" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="L255" s="10" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="M255" s="3"/>
       <c r="N255" s="10" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="O255" s="10"/>
       <c r="P255" s="10" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="Q255" s="10" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="R255" s="3"/>
       <c r="S255" s="3" t="s">
@@ -29711,37 +29720,37 @@
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
       <c r="X255" s="10" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="256" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>2119</v>
       </c>
       <c r="D256" s="11" t="s">
+        <v>2905</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>2906</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="F256" s="3" t="s">
         <v>2907</v>
       </c>
-      <c r="F256" s="3" t="s">
-        <v>2908</v>
-      </c>
       <c r="G256" s="27" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="H256" s="27" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="I256" s="10"/>
       <c r="J256" s="10" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="K256" s="10"/>
       <c r="L256" s="10"/>
@@ -29759,49 +29768,49 @@
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
       <c r="X256" s="10" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="257" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="D257" s="11" t="s">
+        <v>2911</v>
+      </c>
+      <c r="E257" s="3" t="s">
         <v>2912</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="F257" s="3" t="s">
         <v>2913</v>
       </c>
-      <c r="F257" s="3" t="s">
-        <v>2914</v>
-      </c>
       <c r="G257" s="27" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="H257" s="27" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="J257" s="10"/>
       <c r="K257" s="10"/>
       <c r="L257" s="10" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="M257" s="3"/>
       <c r="N257" s="10" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="O257" s="10"/>
       <c r="P257" s="10" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="Q257" s="10"/>
       <c r="R257" s="3"/>
@@ -29813,36 +29822,36 @@
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
       <c r="X257" s="10" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="258" spans="1:24" s="28" customFormat="1" ht="14.25" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="D258" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E258" s="3" t="s">
         <v>2920</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>2921</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>403</v>
       </c>
       <c r="G258" s="27" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="H258" s="27" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="I258" s="10" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="J258" s="10"/>
       <c r="K258" s="10"/>
@@ -29851,7 +29860,7 @@
       <c r="N258" s="10"/>
       <c r="O258" s="10"/>
       <c r="P258" s="10" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="Q258" s="10"/>
       <c r="R258" s="3"/>
@@ -29863,7 +29872,7 @@
       <c r="V258" s="3"/>
       <c r="W258" s="3"/>
       <c r="X258" s="10" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="14.25" customHeight="1">
@@ -30100,7 +30109,7 @@
     </row>
     <row r="263" spans="1:24" ht="20" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>1494</v>
@@ -30390,7 +30399,7 @@
     </row>
     <row r="268" spans="1:24" ht="20" customHeight="1">
       <c r="A268" s="36" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>1499</v>
@@ -30562,32 +30571,32 @@
     </row>
     <row r="271" spans="1:24" ht="20" customHeight="1">
       <c r="A271" s="30" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>2381</v>
       </c>
-      <c r="B271" s="3" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>2382</v>
-      </c>
       <c r="D271" s="30" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E271" s="30" t="s">
         <v>2385</v>
       </c>
-      <c r="E271" s="30" t="s">
+      <c r="F271" s="30" t="s">
         <v>2386</v>
       </c>
-      <c r="F271" s="30" t="s">
-        <v>2387</v>
-      </c>
       <c r="G271" s="4" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="I271" s="15"/>
       <c r="J271" s="38" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="K271" s="15"/>
       <c r="L271" s="15"/>
@@ -30596,7 +30605,7 @@
       <c r="O271" s="15"/>
       <c r="P271" s="15"/>
       <c r="Q271" s="38" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="R271" s="15"/>
       <c r="S271" s="3" t="s">
@@ -30605,59 +30614,59 @@
       <c r="T271" s="15"/>
       <c r="U271" s="15"/>
       <c r="V271" s="43" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="W271" s="15"/>
       <c r="X271" s="38" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="20" customHeight="1">
       <c r="A272" s="30" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>2231</v>
       </c>
       <c r="D272" s="30" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E272" s="30" t="s">
         <v>2393</v>
       </c>
-      <c r="E272" s="30" t="s">
+      <c r="F272" s="30" t="s">
         <v>2394</v>
       </c>
-      <c r="F272" s="30" t="s">
-        <v>2395</v>
-      </c>
       <c r="G272" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="I272" s="38" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="J272" s="38" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="K272" s="15"/>
       <c r="L272" s="15"/>
       <c r="M272" s="15"/>
       <c r="N272" s="15"/>
       <c r="O272" s="38" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="P272" s="38" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q272" s="38" t="s">
+        <v>2399</v>
+      </c>
+      <c r="R272" s="38" t="s">
         <v>2400</v>
-      </c>
-      <c r="R272" s="38" t="s">
-        <v>2401</v>
       </c>
       <c r="S272" s="3" t="s">
         <v>159</v>
@@ -30665,53 +30674,53 @@
       <c r="T272" s="15"/>
       <c r="U272" s="15"/>
       <c r="V272" s="43" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="W272" s="15"/>
       <c r="X272" s="38" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="20" customHeight="1">
       <c r="A273" s="41" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>1832</v>
       </c>
       <c r="D273" s="30" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E273" s="30" t="s">
         <v>2403</v>
-      </c>
-      <c r="E273" s="30" t="s">
-        <v>2404</v>
       </c>
       <c r="F273" s="30" t="s">
         <v>641</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="I273" s="38" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="J273" s="38" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="K273" s="15"/>
       <c r="L273" s="38" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="M273" s="15"/>
       <c r="N273" s="15"/>
       <c r="O273" s="15"/>
       <c r="P273" s="38" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="Q273" s="15"/>
       <c r="R273" s="15"/>
@@ -30721,216 +30730,216 @@
       <c r="T273" s="15"/>
       <c r="U273" s="15"/>
       <c r="V273" s="43" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="W273" s="15"/>
       <c r="X273" s="30" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="20" customHeight="1">
       <c r="A274" s="45" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D274" s="47" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E274" s="46" t="s">
         <v>2964</v>
-      </c>
-      <c r="E274" s="46" t="s">
-        <v>2965</v>
       </c>
       <c r="F274" s="46" t="s">
         <v>293</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="I274" s="48" t="s">
+        <v>2965</v>
+      </c>
+      <c r="J274" s="48" t="s">
         <v>2966</v>
       </c>
-      <c r="J274" s="48" t="s">
+      <c r="Q274" s="48" t="s">
         <v>2967</v>
-      </c>
-      <c r="Q274" s="48" t="s">
-        <v>2968</v>
       </c>
       <c r="S274" s="3" t="s">
         <v>159</v>
       </c>
       <c r="X274" s="46" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="20" customHeight="1">
       <c r="A275" s="47" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D275" s="47" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E275" s="46" t="s">
         <v>2971</v>
-      </c>
-      <c r="E275" s="46" t="s">
-        <v>2972</v>
       </c>
       <c r="F275" s="46" t="s">
         <v>690</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="I275" s="48" t="s">
+        <v>2972</v>
+      </c>
+      <c r="P275" s="48" t="s">
         <v>2973</v>
       </c>
-      <c r="P275" s="48" t="s">
+      <c r="Q275" s="48" t="s">
         <v>2974</v>
-      </c>
-      <c r="Q275" s="48" t="s">
-        <v>2975</v>
       </c>
       <c r="S275" s="3" t="s">
         <v>159</v>
       </c>
       <c r="X275" s="48" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="20" customHeight="1">
       <c r="A276" s="45" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D276" s="47" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E276" s="46" t="s">
         <v>2978</v>
-      </c>
-      <c r="E276" s="46" t="s">
-        <v>2979</v>
       </c>
       <c r="F276" s="46" t="s">
         <v>192</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="J276" s="48" t="s">
+        <v>2979</v>
+      </c>
+      <c r="Q276" s="48" t="s">
         <v>2980</v>
-      </c>
-      <c r="Q276" s="48" t="s">
-        <v>2981</v>
       </c>
       <c r="S276" s="3" t="s">
         <v>159</v>
       </c>
       <c r="X276" s="48" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="20" customHeight="1">
       <c r="A277" s="45" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D277" s="47" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E277" s="46" t="s">
         <v>2984</v>
-      </c>
-      <c r="E277" s="46" t="s">
-        <v>2985</v>
       </c>
       <c r="F277" s="46" t="s">
         <v>192</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="I277" s="48" t="s">
+        <v>2985</v>
+      </c>
+      <c r="K277" s="48" t="s">
         <v>2986</v>
       </c>
-      <c r="K277" s="48" t="s">
+      <c r="Q277" s="48" t="s">
         <v>2987</v>
-      </c>
-      <c r="Q277" s="48" t="s">
-        <v>2988</v>
       </c>
       <c r="S277" s="3" t="s">
         <v>159</v>
       </c>
       <c r="X277" s="46" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="20" customHeight="1">
       <c r="A278" s="45" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B278" s="30" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D278" s="47" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E278" s="46" t="s">
         <v>2991</v>
-      </c>
-      <c r="E278" s="46" t="s">
-        <v>2992</v>
       </c>
       <c r="F278" s="46" t="s">
         <v>467</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="J278" s="48" t="s">
+        <v>2994</v>
+      </c>
+      <c r="O278" s="48" t="s">
+        <v>2993</v>
+      </c>
+      <c r="P278" s="48" t="s">
+        <v>2992</v>
+      </c>
+      <c r="Q278" s="48" t="s">
         <v>2995</v>
-      </c>
-      <c r="O278" s="48" t="s">
-        <v>2994</v>
-      </c>
-      <c r="P278" s="48" t="s">
-        <v>2993</v>
-      </c>
-      <c r="Q278" s="48" t="s">
-        <v>2996</v>
       </c>
       <c r="S278" s="3" t="s">
         <v>159</v>
       </c>
       <c r="X278" s="48" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
     </row>
   </sheetData>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4AB3F-DEAF-E04E-B470-30BFC5266B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F38937D-4128-324B-BC87-A2659EE99C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8780" yWindow="-24920" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="3033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="3034">
   <si>
     <t>address</t>
   </si>
@@ -13913,6 +13913,10 @@
   </si>
   <si>
     <t>&lt;img src="/images/restaurant/RES-A8-009-1.jpeg" class="max-w-md" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vocus.cc/article/6672d82cfd897800010cfd43</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -15435,10 +15439,10 @@
   <dimension ref="A1:X282"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W89" sqref="W89"/>
+      <selection pane="bottomRight" activeCell="R92" sqref="R92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -20502,7 +20506,9 @@
       <c r="Q92" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="R92" s="3"/>
+      <c r="R92" s="10" t="s">
+        <v>3033</v>
+      </c>
       <c r="S92" s="3" t="s">
         <v>1310</v>
       </c>
@@ -31963,6 +31969,7 @@
     <hyperlink ref="Q82" r:id="rId606" xr:uid="{764259C5-CD2E-A743-9F53-32203C78B8CC}"/>
     <hyperlink ref="K83" r:id="rId607" xr:uid="{77D0FA9E-3A1B-2248-B098-68E40DCB0DA3}"/>
     <hyperlink ref="K84" r:id="rId608" xr:uid="{E86FD5FD-3366-FD4C-9F7D-A6FBB8C4A0A5}"/>
+    <hyperlink ref="R92" r:id="rId609" xr:uid="{BFCDDB12-6DFC-CD47-A400-F7A257C7F3CE}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3EC035-0BBC-754D-AF1B-EAA3A965E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EA64DE-7AF9-8642-AE00-E7AA75B1BB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13440" yWindow="-24780" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13846,10 +13846,6 @@
     <t>RES-A7-098L.jpeg</t>
   </si>
   <si>
-    <t>99%文達龜山區美食餐車</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>https://line.me/ti/g2/ml6Cmffk3P9ygNG5hluxZA04paFdN9HnSgrldQ?utm_source=invitation&amp;utm_medium=link_copy&amp;utm_campaign=default</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -13934,6 +13930,10 @@
 &lt;img src="/images/restaurant/RES-A7-097-08.jpg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-097-09.jpg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-097-11.jpg" class="max-w-md" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>文達龜山區美食餐車</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -15459,7 +15459,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="P69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W86" sqref="W86"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1333</v>
@@ -16260,7 +16260,7 @@
         <v>1510</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="39" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>1148</v>
@@ -19983,7 +19983,7 @@
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="22" t="s">
-        <v>3017</v>
+        <v>3034</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>3011</v>
@@ -19992,11 +19992,11 @@
         <v>2170</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="24" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>3013</v>
@@ -20007,7 +20007,7 @@
       <c r="I83" s="21"/>
       <c r="J83" s="38"/>
       <c r="K83" s="34" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="L83" s="21"/>
       <c r="M83" s="21"/>
@@ -20025,15 +20025,15 @@
       <c r="U83" s="24"/>
       <c r="V83" s="25"/>
       <c r="W83" s="32" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="X83" s="21" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="22" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B84" s="24" t="s">
         <v>3012</v>
@@ -20042,11 +20042,11 @@
         <v>2170</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="24" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>3014</v>
@@ -20057,7 +20057,7 @@
       <c r="I84" s="21"/>
       <c r="J84" s="38"/>
       <c r="K84" s="21" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="L84" s="21"/>
       <c r="M84" s="21"/>
@@ -20076,7 +20076,7 @@
       <c r="V84" s="25"/>
       <c r="W84" s="32"/>
       <c r="X84" s="21" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="17.25" customHeight="1">
@@ -20496,7 +20496,7 @@
         <v>251</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>526</v>
@@ -20512,7 +20512,7 @@
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="10" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -20526,7 +20526,7 @@
         <v>529</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="S92" s="3" t="s">
         <v>1309</v>
@@ -20541,7 +20541,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="X92" s="3" t="s">
         <v>530</v>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6B91FD-1058-1949-9398-C620BFEC4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73618CF8-13BB-5749-9D91-51BDB7611745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="-24820" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13918,7 +13918,58 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>文達龜山區美食餐車</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://eraser2407.pixnet.net/blog/post/153628570?fbclid=IwZXh0bgNhZW0CMTEAAR26kJ_SVHfP85X0jqff6Sulxem_TmqHS9bI5lxW9EzG2oVMpHDZkAbC5qM_aem_mSZFsF8eVxyjxrWbZWvW_Q</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7-099</t>
+  </si>
+  <si>
+    <t>RES-A7-099.jpeg</t>
+  </si>
+  <si>
+    <t>RES-A7-099L.jpeg</t>
+  </si>
+  <si>
+    <t>萊嗑亭涼麵</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文青二路89號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0938-080-212</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E8%90%8A%E5%97%91%E4%BA%AD%E6%B6%BC%E9%BA%B5/@25.0386352,121.3902457,20z/data=!4m6!3m5!1s0x3442a702c9de9b31:0x8d5106c65ee4e2ee!8m2!3d25.038749!4d121.3904561!16s%2Fg%2F11vxxbt795?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/@735tedmo?from=page&amp;searchId=735tedmo</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ubereats.com/tw/store/%E8%90%8A%E5%97%91%E4%BA%AD%E6%B6%BC%E9%BA%B5%E5%BA%97/efGgnN-MXd6I_Q5VRZun8g?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E8%90%8A%E5%97%91%E4%BA%AD%E6%B6%BC%E9%BA%B5/@25.038749,121.3904561,3a,75y,90t/data=!3m8!1e2!3m6!1sAF1QipPkx17d9CBb-MDeGwaNWl9STdOET726jTDq-CPx!2e10!3e12!6shttps:%2F%2Flh5.googleusercontent.com%2Fp%2FAF1QipPkx17d9CBb-MDeGwaNWl9STdOET726jTDq-CPx%3Dw224-h316-k-no!7i1414!8i2000!4m20!1m10!3m9!1s0x3442a702c9de9b31:0x8d5106c65ee4e2ee!2z6JCK5ZeR5Lqt5ra86bq1!8m2!3d25.038749!4d121.3904561!10e5!14m1!1BCgIgAQ!16s%2Fg%2F11vxxbt795!3m8!1s0x3442a702c9de9b31:0x8d5106c65ee4e2ee!8m2!3d25.038749!4d121.3904561!10e5!14m1!1BCgIgARICGAI!16s%2Fg%2F11vxxbt795?hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="/images/restaurant/RES-A7-099-1.png" class="max-w-md" /&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="/images/restaurant/RES-A7-097-91.jpg" class="max-w-md" /&gt;
+&lt;img src="/images/restaurant/RES-A7-097-92.jpg" class="max-w-md" /&gt;
+&lt;img src="/images/restaurant/RES-A7-097-93.jpg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-097-00.jpg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-097-01.jpg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-097-02.jpg" class="max-w-md" /&gt;
@@ -13930,55 +13981,6 @@
 &lt;img src="/images/restaurant/RES-A7-097-08.jpg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-097-09.jpg" class="max-w-md" /&gt;
 &lt;img src="/images/restaurant/RES-A7-097-11.jpg" class="max-w-md" /&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>文達龜山區美食餐車</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://eraser2407.pixnet.net/blog/post/153628570?fbclid=IwZXh0bgNhZW0CMTEAAR26kJ_SVHfP85X0jqff6Sulxem_TmqHS9bI5lxW9EzG2oVMpHDZkAbC5qM_aem_mSZFsF8eVxyjxrWbZWvW_Q</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7-099</t>
-  </si>
-  <si>
-    <t>RES-A7-099.jpeg</t>
-  </si>
-  <si>
-    <t>RES-A7-099L.jpeg</t>
-  </si>
-  <si>
-    <t>萊嗑亭涼麵</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區文青二路89號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>0938-080-212</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%E8%90%8A%E5%97%91%E4%BA%AD%E6%B6%BC%E9%BA%B5/@25.0386352,121.3902457,20z/data=!4m6!3m5!1s0x3442a702c9de9b31:0x8d5106c65ee4e2ee!8m2!3d25.038749!4d121.3904561!16s%2Fg%2F11vxxbt795?hl=zh-TW&amp;entry=ttu</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://line.me/R/ti/p/@735tedmo?from=page&amp;searchId=735tedmo</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ubereats.com/tw/store/%E8%90%8A%E5%97%91%E4%BA%AD%E6%B6%BC%E9%BA%B5%E5%BA%97/efGgnN-MXd6I_Q5VRZun8g?utm_campaign=place-action-link&amp;utm_medium=organic&amp;utm_source=google</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%E8%90%8A%E5%97%91%E4%BA%AD%E6%B6%BC%E9%BA%B5/@25.038749,121.3904561,3a,75y,90t/data=!3m8!1e2!3m6!1sAF1QipPkx17d9CBb-MDeGwaNWl9STdOET726jTDq-CPx!2e10!3e12!6shttps:%2F%2Flh5.googleusercontent.com%2Fp%2FAF1QipPkx17d9CBb-MDeGwaNWl9STdOET726jTDq-CPx%3Dw224-h316-k-no!7i1414!8i2000!4m20!1m10!3m9!1s0x3442a702c9de9b31:0x8d5106c65ee4e2ee!2z6JCK5ZeR5Lqt5ra86bq1!8m2!3d25.038749!4d121.3904561!10e5!14m1!1BCgIgAQ!16s%2Fg%2F11vxxbt795!3m8!1s0x3442a702c9de9b31:0x8d5106c65ee4e2ee!8m2!3d25.038749!4d121.3904561!10e5!14m1!1BCgIgARICGAI!16s%2Fg%2F11vxxbt795?hl=zh-TW&amp;entry=ttu</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;img src="/images/restaurant/RES-A7-099-1.png" class="max-w-md" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -15501,10 +15503,10 @@
   <dimension ref="A1:X283"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W89" sqref="W89"/>
+      <selection pane="bottomRight" activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -20028,7 +20030,7 @@
     </row>
     <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="22" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>3011</v>
@@ -20070,7 +20072,7 @@
       <c r="U83" s="24"/>
       <c r="V83" s="25"/>
       <c r="W83" s="32" t="s">
-        <v>3033</v>
+        <v>3046</v>
       </c>
       <c r="X83" s="21" t="s">
         <v>3018</v>
@@ -20126,42 +20128,42 @@
     </row>
     <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="22" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>2056</v>
       </c>
       <c r="D85" s="24" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>3040</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>3041</v>
       </c>
       <c r="F85" s="24" t="s">
         <v>846</v>
       </c>
       <c r="G85" s="24" t="s">
+        <v>3036</v>
+      </c>
+      <c r="H85" s="24" t="s">
         <v>3037</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>3038</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="38"/>
       <c r="K85" s="21" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="L85" s="21"/>
       <c r="M85" s="21"/>
       <c r="N85" s="21" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="O85" s="21"/>
       <c r="P85" s="21" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="Q85" s="21"/>
       <c r="R85" s="24"/>
@@ -20174,10 +20176,10 @@
       <c r="U85" s="24"/>
       <c r="V85" s="25"/>
       <c r="W85" s="32" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="X85" s="21" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="17.25" customHeight="1">
@@ -22995,7 +22997,7 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
       <c r="Q134" s="10" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="R134" s="3"/>
       <c r="S134" s="3" t="s">
@@ -32140,7 +32142,7 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1789</v>
       </c>
@@ -32151,7 +32153,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="3" t="s">
         <v>1790</v>
       </c>
@@ -32162,7 +32164,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="3" t="s">
         <v>1791</v>
       </c>
@@ -32173,7 +32175,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="3" t="s">
         <v>1792</v>
       </c>
@@ -32184,7 +32186,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="3" t="s">
         <v>1793</v>
       </c>
@@ -32206,7 +32208,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="3" t="s">
         <v>1795</v>
       </c>
@@ -32214,7 +32216,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="3" t="s">
         <v>1796</v>
       </c>
@@ -32222,7 +32224,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="3" t="s">
         <v>1797</v>
       </c>
@@ -32230,7 +32232,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="3" t="s">
         <v>1798</v>
       </c>
@@ -32238,7 +32240,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="3" t="s">
         <v>1799</v>
       </c>
@@ -32246,32 +32248,32 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="3" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="3" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="3" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="3" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="3" t="s">
         <v>1805</v>
       </c>
@@ -32281,7 +32283,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="3" t="s">
         <v>1807</v>
       </c>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062EFF7-0639-D647-989F-4022B587E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08880384-8F41-C445-9F9B-A1D8CBD8B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="-26980" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8600" yWindow="-27080" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="restaurant" sheetId="1" r:id="rId1"/>
@@ -14005,52 +14005,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="PMingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>您已被邀請加入「</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="PMingLiU"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青假日美食」！請點選以下連結加入社群！</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-https://line.me/ti/g2/aetiD4gbb6IYzv8GWUgwg6WFPlUTHL902rEBZg?utm_source=invitation&amp;utm_medium=link_copy&amp;utm_campaign=default</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>8/3號試營運
 &lt;nl&gt;
 &lt;li&gt;摀香臭豆腐&lt;/li&gt;
@@ -14065,12 +14019,16 @@
 &lt;/nl&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>https://line.me/ti/g2/aetiD4gbb6IYzv8GWUgwg6WFPlUTHL902rEBZg?utm_source=invitation&amp;utm_medium=link_copy&amp;utm_campaign=default</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -14211,22 +14169,6 @@
       <name val="Apple Color Emoji"/>
       <family val="4"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="PMingLiU"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -14322,7 +14264,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -14469,9 +14411,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15604,10 +15543,10 @@
   <dimension ref="A1:X284"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N86" sqref="N86"/>
+      <selection pane="bottomRight" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -20308,8 +20247,8 @@
       </c>
       <c r="I86" s="21"/>
       <c r="J86" s="38"/>
-      <c r="K86" s="49" t="s">
-        <v>3053</v>
+      <c r="K86" s="34" t="s">
+        <v>3054</v>
       </c>
       <c r="L86" s="21"/>
       <c r="M86" s="21"/>
@@ -20327,7 +20266,7 @@
       <c r="U86" s="24"/>
       <c r="V86" s="25"/>
       <c r="W86" s="32" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="X86" s="21" t="s">
         <v>3051</v>
@@ -32247,6 +32186,7 @@
     <hyperlink ref="X85" r:id="rId611" xr:uid="{B2EEBFEE-A486-DE4F-8C5E-77470E9EF7F8}"/>
     <hyperlink ref="K85" r:id="rId612" xr:uid="{FDE8686E-90BF-E340-90AA-A9BBB7E8DADD}"/>
     <hyperlink ref="N85" r:id="rId613" xr:uid="{B96BD6D6-651C-4142-AEA3-21B764C430B2}"/>
+    <hyperlink ref="K86" r:id="rId614" xr:uid="{6E527F84-4D0B-1142-98B8-235616963418}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
